--- a/tests/fixtures/prokaryote_core.xlsx
+++ b/tests/fixtures/prokaryote_core.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="435" windowWidth="23250" windowHeight="12030" tabRatio="1000" activeTab="6"/>
+    <workbookView xWindow="-105" yWindow="435" windowWidth="23250" windowHeight="12030" tabRatio="1000" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -406,9 +406,6 @@
     <t>Reversible</t>
   </si>
   <si>
-    <t>Spontenaeous</t>
-  </si>
-  <si>
     <t>Enzyme</t>
   </si>
   <si>
@@ -716,6 +713,9 @@
   </si>
   <si>
     <t>COG</t>
+  </si>
+  <si>
+    <t>Spontaneous</t>
   </si>
 </sst>
 </file>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1691,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1707,7 +1707,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1738,7 +1738,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1798,7 +1798,7 @@
         <v>35</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J1" s="35" t="s">
         <v>13</v>
@@ -1832,7 +1832,7 @@
         <v>83</v>
       </c>
       <c r="I2" s="118" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J2" s="116" t="s">
         <v>40</v>
@@ -1902,7 +1902,7 @@
         <v>62</v>
       </c>
       <c r="I1" s="55" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J1" s="52" t="s">
         <v>13</v>
@@ -1946,16 +1946,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1" s="31" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>93</v>
@@ -1964,7 +1964,7 @@
         <v>35</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I1" s="19" t="s">
         <v>13</v>
@@ -1981,16 +1981,16 @@
         <v>65</v>
       </c>
       <c r="C2" s="137" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D2" s="122" t="s">
         <v>89</v>
       </c>
       <c r="E2" s="137" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="122" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J2" s="122"/>
     </row>
@@ -2002,13 +2002,13 @@
         <v>72</v>
       </c>
       <c r="C3" s="137" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3" s="122">
         <v>4.8828698208797903</v>
       </c>
       <c r="E3" s="137" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="122" t="s">
         <v>87</v>
@@ -2026,13 +2026,13 @@
         <v>78</v>
       </c>
       <c r="C4" s="137" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="122">
         <v>992.98255190377824</v>
       </c>
       <c r="E4" s="137" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="122" t="s">
         <v>87</v>
@@ -2100,7 +2100,7 @@
         <v>35</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G1" s="34" t="s">
         <v>13</v>
@@ -2199,7 +2199,7 @@
         <v>93</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F1" s="40" t="s">
         <v>13</v>
@@ -2222,8 +2222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMN2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2257,25 +2257,25 @@
         <v>103</v>
       </c>
       <c r="F1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="36" t="s">
         <v>106</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>107</v>
       </c>
       <c r="H1" s="35" t="s">
         <v>104</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>105</v>
+        <v>208</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K1" s="35" t="s">
         <v>35</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M1" s="37" t="s">
         <v>13</v>
@@ -2287,17 +2287,17 @@
     </row>
     <row r="2" spans="1:14 1028:1028" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="118" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="118" t="s">
         <v>109</v>
-      </c>
-      <c r="B2" s="118" t="s">
-        <v>110</v>
       </c>
       <c r="C2" s="118"/>
       <c r="D2" s="118" t="s">
         <v>64</v>
       </c>
       <c r="E2" s="118" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F2" s="118"/>
       <c r="G2" s="118"/>
@@ -2308,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="118" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K2" s="118"/>
       <c r="L2" s="118"/>
@@ -2316,7 +2316,7 @@
         <v>70</v>
       </c>
       <c r="N2" s="118" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AMN2" s="128"/>
     </row>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>32</v>
@@ -2366,7 +2366,7 @@
         <v>93</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G1" s="34" t="s">
         <v>13</v>
@@ -2425,7 +2425,7 @@
         <v>35</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H1" s="33" t="s">
         <v>13</v>
@@ -2436,17 +2436,17 @@
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="130" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="130" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="130"/>
       <c r="D2" s="130">
         <v>2</v>
       </c>
       <c r="E2" s="130" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2476,25 +2476,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>119</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>93</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I1" s="23" t="s">
         <v>13</v>
@@ -2514,16 +2514,16 @@
         <v>52</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E2" s="89">
         <v>1</v>
       </c>
       <c r="F2" s="89" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G2" s="89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H2" s="88"/>
       <c r="I2" s="88"/>
@@ -2540,7 +2540,7 @@
         <v>78</v>
       </c>
       <c r="D3" s="96" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E3" s="96">
         <v>992.98255190377802</v>
@@ -2549,7 +2549,7 @@
         <v>87</v>
       </c>
       <c r="G3" s="96" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H3" s="95"/>
       <c r="I3" s="95"/>
@@ -2566,7 +2566,7 @@
         <v>78</v>
       </c>
       <c r="D4" s="105" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" s="105">
         <v>489.45</v>
@@ -2575,17 +2575,17 @@
         <v>95</v>
       </c>
       <c r="G4" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H4" s="104"/>
       <c r="I4" s="104"/>
       <c r="J4" s="104" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="108" t="s">
         <v>10</v>
@@ -2594,7 +2594,7 @@
         <v>78</v>
       </c>
       <c r="D5" s="108" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5" s="108">
         <v>5.5313109099319684</v>
@@ -2603,7 +2603,7 @@
         <v>82</v>
       </c>
       <c r="G5" s="108" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H5" s="107"/>
       <c r="I5" s="107"/>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="119" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="120" t="s">
         <v>10</v>
@@ -2626,10 +2626,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="120" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G6" s="120" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H6" s="119"/>
       <c r="I6" s="119"/>
@@ -2646,7 +2646,7 @@
         <v>65</v>
       </c>
       <c r="D7" s="120" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" s="120">
         <v>4.2500000000000003E-2</v>
@@ -2655,12 +2655,12 @@
         <v>97</v>
       </c>
       <c r="G7" s="120" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H7" s="119"/>
       <c r="I7" s="119"/>
       <c r="J7" s="119" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -2674,7 +2674,7 @@
         <v>72</v>
       </c>
       <c r="D8" s="124" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E8" s="124">
         <v>4.8828698208797903</v>
@@ -2683,7 +2683,7 @@
         <v>87</v>
       </c>
       <c r="G8" s="124" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H8" s="123"/>
       <c r="I8" s="123"/>
@@ -2700,7 +2700,7 @@
         <v>72</v>
       </c>
       <c r="D9" s="127" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" s="127">
         <v>2.2584973866611409E-2</v>
@@ -2709,7 +2709,7 @@
         <v>95</v>
       </c>
       <c r="G9" s="127" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H9" s="126"/>
       <c r="I9" s="126"/>
@@ -2749,34 +2749,34 @@
         <v>84</v>
       </c>
       <c r="B1" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>137</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>138</v>
       </c>
       <c r="E1" s="32" t="s">
         <v>91</v>
       </c>
       <c r="F1" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="H1" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="I1" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="J1" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="J1" s="32" t="s">
-        <v>143</v>
-      </c>
       <c r="K1" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L1" s="32" t="s">
         <v>13</v>
@@ -2787,25 +2787,25 @@
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="131" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="131"/>
       <c r="C2" s="131"/>
       <c r="D2" s="131"/>
       <c r="E2" s="131" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="F2" s="133" t="s">
+      <c r="G2" s="133" t="s">
         <v>145</v>
-      </c>
-      <c r="G2" s="133" t="s">
-        <v>146</v>
       </c>
       <c r="H2" s="133">
         <v>37</v>
       </c>
       <c r="I2" s="132" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J2" s="131"/>
       <c r="K2" s="131"/>
@@ -2816,25 +2816,25 @@
     </row>
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="131" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" s="131"/>
       <c r="C3" s="131"/>
       <c r="D3" s="131"/>
       <c r="E3" s="131" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F3" s="133" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="133" t="s">
         <v>145</v>
-      </c>
-      <c r="G3" s="133" t="s">
-        <v>146</v>
       </c>
       <c r="H3" s="133">
         <v>37</v>
       </c>
       <c r="I3" s="133" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J3" s="131"/>
       <c r="K3" s="131"/>
@@ -2842,50 +2842,50 @@
         <v>40</v>
       </c>
       <c r="M3" s="131" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="131" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="131"/>
       <c r="C4" s="131"/>
       <c r="D4" s="131"/>
       <c r="E4" s="131" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F4" s="133" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="133" t="s">
         <v>145</v>
-      </c>
-      <c r="G4" s="133" t="s">
-        <v>146</v>
       </c>
       <c r="H4" s="133">
         <v>37</v>
       </c>
       <c r="I4" s="133" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J4" s="131"/>
       <c r="K4" s="131"/>
       <c r="L4" s="131" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M4" s="131"/>
     </row>
     <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="131" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="131"/>
       <c r="C5" s="131"/>
       <c r="D5" s="131"/>
       <c r="E5" s="131" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G5" s="131"/>
       <c r="H5" s="131"/>
@@ -2893,22 +2893,22 @@
       <c r="J5" s="131"/>
       <c r="K5" s="131"/>
       <c r="L5" s="131" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M5" s="131"/>
     </row>
     <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="134" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="134"/>
       <c r="C6" s="134"/>
       <c r="D6" s="134"/>
       <c r="E6" s="134" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="135" t="s">
         <v>144</v>
-      </c>
-      <c r="F6" s="135" t="s">
-        <v>145</v>
       </c>
       <c r="G6" s="134"/>
       <c r="H6" s="134"/>
@@ -2916,36 +2916,36 @@
       <c r="J6" s="134"/>
       <c r="K6" s="134"/>
       <c r="L6" s="134" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M6" s="134"/>
     </row>
     <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="136" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" s="136"/>
       <c r="C7" s="136"/>
       <c r="D7" s="136"/>
       <c r="E7" s="136" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="138" t="s">
+      <c r="G7" s="138" t="s">
         <v>145</v>
-      </c>
-      <c r="G7" s="138" t="s">
-        <v>146</v>
       </c>
       <c r="H7" s="137">
         <v>37</v>
       </c>
       <c r="I7" s="138" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J7" s="136"/>
       <c r="K7" s="136"/>
       <c r="L7" s="136" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4010,7 +4010,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:1025" x14ac:dyDescent="0.25">
@@ -4023,7 +4023,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4065,28 +4065,28 @@
         <v>28</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="F1" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="H1" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="I1" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="J1" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="J1" s="19" t="s">
-        <v>160</v>
-      </c>
       <c r="K1" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L1" s="29" t="s">
         <v>9</v>
@@ -4094,22 +4094,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="87" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="87" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="C2" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="87" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="E2" s="87" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="87" t="s">
         <v>161</v>
-      </c>
-      <c r="D2" s="87" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2" s="87" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="87" t="s">
-        <v>162</v>
       </c>
       <c r="G2" s="87">
         <v>326</v>
@@ -4118,13 +4118,13 @@
         <v>5957</v>
       </c>
       <c r="I2" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J2" s="87">
         <v>2009</v>
       </c>
       <c r="K2" s="87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -4132,19 +4132,19 @@
         <v>70</v>
       </c>
       <c r="B3" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="86" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="86" t="s">
+      <c r="E3" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="86" t="s">
-        <v>173</v>
-      </c>
       <c r="F3" s="86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G3" s="86">
         <v>231</v>
@@ -4153,13 +4153,13 @@
         <v>1</v>
       </c>
       <c r="I3" s="86" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J3" s="86">
         <v>1990</v>
       </c>
       <c r="K3" s="86" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -4167,13 +4167,13 @@
         <v>40</v>
       </c>
       <c r="B4" s="129" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="129" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="129" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E4" s="129"/>
       <c r="F4" s="129"/>
@@ -4187,22 +4187,22 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="139" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="139" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="139" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="139" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="139" t="s">
+      <c r="E5" s="139" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="139" t="s">
-        <v>181</v>
-      </c>
       <c r="F5" s="139" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G5" s="139">
         <v>5</v>
@@ -4211,33 +4211,33 @@
         <v>12</v>
       </c>
       <c r="I5" s="139" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J5" s="139">
         <v>2006</v>
       </c>
       <c r="K5" s="139" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="140" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" s="140" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="140" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="140" t="s">
         <v>184</v>
       </c>
-      <c r="C6" s="140" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="140" t="s">
+      <c r="E6" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="140" t="s">
-        <v>186</v>
-      </c>
       <c r="F6" s="140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G6" s="140">
         <v>7</v>
@@ -4250,24 +4250,24 @@
         <v>2011</v>
       </c>
       <c r="K6" s="140" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="141" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" s="141" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="141" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="141" t="s">
         <v>189</v>
-      </c>
-      <c r="E7" s="141" t="s">
-        <v>190</v>
       </c>
       <c r="F7" s="141"/>
       <c r="G7" s="141"/>
@@ -4280,19 +4280,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="142" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="142" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" s="142" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="142" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="142" t="s">
         <v>192</v>
-      </c>
-      <c r="E8" s="142" t="s">
-        <v>193</v>
       </c>
       <c r="F8" s="142"/>
       <c r="G8" s="142"/>
@@ -4342,7 +4342,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="143" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>13</v>
@@ -4425,7 +4425,7 @@
         <v>23</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H1" s="35" t="s">
         <v>13</v>
@@ -6837,7 +6837,7 @@
         <v>35</v>
       </c>
       <c r="J1" s="71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K1" s="72" t="s">
         <v>13</v>
@@ -7110,7 +7110,7 @@
         <v>46</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L1" s="42" t="s">
         <v>13</v>
@@ -7171,7 +7171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -7213,7 +7213,7 @@
         <v>28</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G1" s="42" t="s">
         <v>55</v>
@@ -7234,7 +7234,7 @@
         <v>35</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N1" s="42" t="s">
         <v>13</v>
@@ -8356,7 +8356,7 @@
         <v>63</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H1" s="44" t="s">
         <v>13</v>
@@ -8459,7 +8459,7 @@
         <v>62</v>
       </c>
       <c r="L1" s="51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M1" s="51" t="s">
         <v>13</v>

--- a/tests/fixtures/prokaryote_core.xlsx
+++ b/tests/fixtures/prokaryote_core.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="435" windowWidth="23250" windowHeight="12030" tabRatio="1000" activeTab="6"/>
+    <workbookView xWindow="-105" yWindow="495" windowWidth="23250" windowHeight="11970" tabRatio="1000" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -32,54 +32,54 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cell!$A$1:$B$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Chromosome features'!$G$1:$G$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Complexes!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Genes!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Genes!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KB!$A$1:$B$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Proteins!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Reactions!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">RNAs!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">RNAs!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Transcription units'!$A$1:$K$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="10">Complexes!$A$1:$K$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="6">Genes!$A$1:$J$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="6">Genes!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">KB!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="9">Proteins!$A$1:$K$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="14">Reactions!$A$1:$O$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="8">RNAs!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="8">RNAs!$A$1:$J$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="5">'Transcription units'!$A$1:$M$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="10">Complexes!$A$1:$K$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="6">Genes!$A$1:$J$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="6">Genes!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="9">Proteins!$A$1:$K$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="14">Reactions!$A$1:$O$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="8">RNAs!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="8">RNAs!$A$1:$J$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="5">'Transcription units'!$A$1:$M$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="10">Complexes!$A$1:$K$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">Genes!$O$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">Genes!$N$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="14">Reactions!$A$1:$O$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="8">RNAs!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="8">RNAs!$A$1:$J$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Transcription units'!$A$1:$M$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">Genes!$A$1:$J$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">Genes!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="8">RNAs!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="8">RNAs!$A$1:$J$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="6">Genes!$O$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="6">Genes!$N$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="8">RNAs!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="8">RNAs!$A$1:$J$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="6">Genes!$A$1:$J$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="6">Genes!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="8">RNAs!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="8">RNAs!$A$1:$J$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="6">Genes!$O$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="6">Genes!$N$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="8">RNAs!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="8">RNAs!$A$1:$J$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="8">RNAs!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="8">RNAs!$A$1:$J$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="205">
   <si>
     <t>Id</t>
   </si>
@@ -181,12 +181,6 @@
     <t>Polymer</t>
   </si>
   <si>
-    <t>Coordinate</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
     <t>Direction</t>
   </si>
   <si>
@@ -208,9 +202,6 @@
     <t>DnaABox</t>
   </si>
   <si>
-    <t>forward</t>
-  </si>
-  <si>
     <t>PUB_0932</t>
   </si>
   <si>
@@ -235,9 +226,6 @@
     <t>PUB_0418, PUB_0932</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>TU_1_A</t>
   </si>
   <si>
@@ -328,9 +316,6 @@
     <t>ProtMon_MPN001</t>
   </si>
   <si>
-    <t>uncategorized</t>
-  </si>
-  <si>
     <t>props_ProtMon_MPN001</t>
   </si>
   <si>
@@ -694,28 +679,31 @@
     <t>Value type</t>
   </si>
   <si>
+    <t>prokaryote_test_kb</t>
+  </si>
+  <si>
+    <t>Prokaryote test KB</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>This KB is used for testing, not meant to be used for model construction.</t>
+  </si>
+  <si>
+    <t>Prokaryote test cell</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>prokaryote_test_kb</t>
-  </si>
-  <si>
-    <t>Prokaryote test KB</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>This KB is used for testing, not meant to be used for model construction.</t>
-  </si>
-  <si>
-    <t>Prokaryote test cell</t>
-  </si>
-  <si>
-    <t>COG</t>
   </si>
 </sst>
 </file>
@@ -1683,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1691,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1707,7 +1695,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1738,7 +1726,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1753,7 +1741,7 @@
   <dimension ref="A1:AMI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1780,25 +1768,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J1" s="35" t="s">
         <v>13</v>
@@ -1810,32 +1798,30 @@
     </row>
     <row r="2" spans="1:1023" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="115" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="109"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="111" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="116" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="114" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="111" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="110" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="113" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="112" t="s">
-        <v>83</v>
-      </c>
       <c r="I2" s="118" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J2" s="116" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K2" s="117"/>
       <c r="AMI2" s="109"/>
@@ -1878,31 +1864,31 @@
   <sheetData>
     <row r="1" spans="1:1023" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D1" s="52" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G1" s="54" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H1" s="54" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I1" s="55" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J1" s="52" t="s">
         <v>13</v>
@@ -1924,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1933,7 +1919,7 @@
     <col min="1" max="1" width="20.7109375" style="63" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="63" customWidth="1"/>
     <col min="3" max="4" width="15.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="137" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" style="137" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="63" customWidth="1"/>
     <col min="7" max="9" width="20.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" style="63" customWidth="1"/>
@@ -1946,25 +1932,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I1" s="19" t="s">
         <v>13</v>
@@ -1975,70 +1961,70 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="122" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B2" s="122" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C2" s="137" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D2" s="122" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E2" s="137" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F2" s="122" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J2" s="122"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="122" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B3" s="122" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C3" s="137" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D3" s="122">
         <v>4.8828698208797903</v>
       </c>
       <c r="E3" s="137" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F3" s="122" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G3" s="122" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J3" s="122"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="122" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B4" s="122" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C4" s="137" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D4" s="122">
         <v>992.98255190377824</v>
       </c>
       <c r="E4" s="137" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F4" s="122" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G4" s="122" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J4" s="122"/>
     </row>
@@ -2085,22 +2071,22 @@
   <sheetData>
     <row r="1" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G1" s="34" t="s">
         <v>13</v>
@@ -2111,53 +2097,53 @@
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="94" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B2" s="94" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C2" s="94">
         <v>4.2500000000000003E-2</v>
       </c>
       <c r="D2" s="94" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E2" s="94" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="106" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B3" s="106" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C3" s="106">
         <v>2.2584973866611409E-2</v>
       </c>
       <c r="D3" s="106" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E3" s="106" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="125" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B4" s="125" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C4" s="125">
         <v>489.45</v>
       </c>
       <c r="D4" s="125" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E4" s="125" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F4" s="125"/>
       <c r="G4" s="125"/>
@@ -2193,13 +2179,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F1" s="40" t="s">
         <v>13</v>
@@ -2223,7 +2209,7 @@
   <dimension ref="A1:AMN2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2248,34 +2234,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>108</v>
-      </c>
       <c r="K1" s="35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="M1" s="37" t="s">
         <v>13</v>
@@ -2287,17 +2273,15 @@
     </row>
     <row r="2" spans="1:14 1028:1028" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="118" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B2" s="118" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C2" s="118"/>
-      <c r="D2" s="118" t="s">
-        <v>64</v>
-      </c>
+      <c r="D2" s="118"/>
       <c r="E2" s="118" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F2" s="118"/>
       <c r="G2" s="118"/>
@@ -2308,15 +2292,15 @@
         <v>1</v>
       </c>
       <c r="J2" s="118" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K2" s="118"/>
       <c r="L2" s="118"/>
       <c r="M2" s="118" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N2" s="118" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AMN2" s="128"/>
     </row>
@@ -2354,19 +2338,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G1" s="34" t="s">
         <v>13</v>
@@ -2413,19 +2397,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H1" s="33" t="s">
         <v>13</v>
@@ -2436,17 +2420,17 @@
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="130" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B2" s="130" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C2" s="130"/>
       <c r="D2" s="130">
         <v>2</v>
       </c>
       <c r="E2" s="130" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2476,25 +2460,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I1" s="23" t="s">
         <v>13</v>
@@ -2505,25 +2489,25 @@
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B2" s="89" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E2" s="89">
         <v>1</v>
       </c>
       <c r="F2" s="89" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G2" s="89" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H2" s="88"/>
       <c r="I2" s="88"/>
@@ -2531,25 +2515,25 @@
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B3" s="96" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="96" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D3" s="96" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E3" s="96">
         <v>992.98255190377802</v>
       </c>
       <c r="F3" s="96" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G3" s="96" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H3" s="95"/>
       <c r="I3" s="95"/>
@@ -2557,53 +2541,53 @@
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="104" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B4" s="105" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="105" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D4" s="105" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E4" s="105">
         <v>489.45</v>
       </c>
       <c r="F4" s="105" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G4" s="105" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H4" s="104"/>
       <c r="I4" s="104"/>
       <c r="J4" s="104" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="107" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B5" s="108" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="108" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D5" s="108" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E5" s="108">
         <v>5.5313109099319684</v>
       </c>
       <c r="F5" s="108" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G5" s="108" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H5" s="107"/>
       <c r="I5" s="107"/>
@@ -2611,25 +2595,25 @@
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="119" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B6" s="120" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="120" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D6" s="120" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E6" s="120" t="b">
         <v>0</v>
       </c>
       <c r="F6" s="120" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G6" s="120" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H6" s="119"/>
       <c r="I6" s="119"/>
@@ -2637,53 +2621,53 @@
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="119" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B7" s="120" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="120" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D7" s="120" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E7" s="120">
         <v>4.2500000000000003E-2</v>
       </c>
       <c r="F7" s="120" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G7" s="120" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H7" s="119"/>
       <c r="I7" s="119"/>
       <c r="J7" s="119" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="123" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B8" s="124" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="124" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D8" s="124" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E8" s="124">
         <v>4.8828698208797903</v>
       </c>
       <c r="F8" s="124" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G8" s="124" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H8" s="123"/>
       <c r="I8" s="123"/>
@@ -2691,25 +2675,25 @@
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="126" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B9" s="127" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="127" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D9" s="127" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E9" s="127">
         <v>2.2584973866611409E-2</v>
       </c>
       <c r="F9" s="127" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G9" s="127" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H9" s="126"/>
       <c r="I9" s="126"/>
@@ -2746,37 +2730,37 @@
   <sheetData>
     <row r="1" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B1" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="I1" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="J1" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>143</v>
-      </c>
       <c r="K1" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L1" s="32" t="s">
         <v>13</v>
@@ -2787,105 +2771,105 @@
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="131" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B2" s="131"/>
       <c r="C2" s="131"/>
       <c r="D2" s="131"/>
       <c r="E2" s="131" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G2" s="133" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H2" s="133">
         <v>37</v>
       </c>
       <c r="I2" s="132" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J2" s="131"/>
       <c r="K2" s="131"/>
       <c r="L2" s="131" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M2" s="131"/>
     </row>
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="131" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B3" s="131"/>
       <c r="C3" s="131"/>
       <c r="D3" s="131"/>
       <c r="E3" s="131" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F3" s="133" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G3" s="133" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H3" s="133">
         <v>37</v>
       </c>
       <c r="I3" s="133" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J3" s="131"/>
       <c r="K3" s="131"/>
       <c r="L3" s="131" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M3" s="131" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="131" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B4" s="131"/>
       <c r="C4" s="131"/>
       <c r="D4" s="131"/>
       <c r="E4" s="131" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F4" s="133" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G4" s="133" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H4" s="133">
         <v>37</v>
       </c>
       <c r="I4" s="133" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J4" s="131"/>
       <c r="K4" s="131"/>
       <c r="L4" s="131" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M4" s="131"/>
     </row>
     <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="131" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B5" s="131"/>
       <c r="C5" s="131"/>
       <c r="D5" s="131"/>
       <c r="E5" s="131" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G5" s="131"/>
       <c r="H5" s="131"/>
@@ -2893,22 +2877,22 @@
       <c r="J5" s="131"/>
       <c r="K5" s="131"/>
       <c r="L5" s="131" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="M5" s="131"/>
     </row>
     <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="134" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B6" s="134"/>
       <c r="C6" s="134"/>
       <c r="D6" s="134"/>
       <c r="E6" s="134" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F6" s="135" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G6" s="134"/>
       <c r="H6" s="134"/>
@@ -2916,36 +2900,36 @@
       <c r="J6" s="134"/>
       <c r="K6" s="134"/>
       <c r="L6" s="134" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="M6" s="134"/>
     </row>
     <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="136" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B7" s="136"/>
       <c r="C7" s="136"/>
       <c r="D7" s="136"/>
       <c r="E7" s="136" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F7" s="138" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G7" s="138" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H7" s="137">
         <v>37</v>
       </c>
       <c r="I7" s="138" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J7" s="136"/>
       <c r="K7" s="136"/>
       <c r="L7" s="136" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4010,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:1025" x14ac:dyDescent="0.25">
@@ -4023,7 +4007,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4065,28 +4049,28 @@
         <v>28</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="J1" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>160</v>
-      </c>
       <c r="K1" s="23" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L1" s="29" t="s">
         <v>9</v>
@@ -4094,22 +4078,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="87" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B2" s="87" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C2" s="87" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D2" s="87" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E2" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F2" s="87" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G2" s="87">
         <v>326</v>
@@ -4118,33 +4102,33 @@
         <v>5957</v>
       </c>
       <c r="I2" s="87" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J2" s="87">
         <v>2009</v>
       </c>
       <c r="K2" s="87" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="86" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E3" s="86" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F3" s="86" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G3" s="86">
         <v>231</v>
@@ -4153,27 +4137,27 @@
         <v>1</v>
       </c>
       <c r="I3" s="86" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="J3" s="86">
         <v>1990</v>
       </c>
       <c r="K3" s="86" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="129" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" s="129" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C4" s="129" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D4" s="129" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E4" s="129"/>
       <c r="F4" s="129"/>
@@ -4187,22 +4171,22 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="139" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B5" s="139" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C5" s="139" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D5" s="139" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E5" s="139" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F5" s="139" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G5" s="139">
         <v>5</v>
@@ -4211,33 +4195,33 @@
         <v>12</v>
       </c>
       <c r="I5" s="139" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="J5" s="139">
         <v>2006</v>
       </c>
       <c r="K5" s="139" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="140" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B6" s="140" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C6" s="140" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D6" s="140" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E6" s="140" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F6" s="140" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G6" s="140">
         <v>7</v>
@@ -4250,24 +4234,24 @@
         <v>2011</v>
       </c>
       <c r="K6" s="140" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="141" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C7" s="141" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D7" s="141" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E7" s="141" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F7" s="141"/>
       <c r="G7" s="141"/>
@@ -4280,19 +4264,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="142" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B8" s="142" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C8" s="142" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D8" s="142" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E8" s="142" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F8" s="142"/>
       <c r="G8" s="142"/>
@@ -4342,7 +4326,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="143" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>13</v>
@@ -4425,7 +4409,7 @@
         <v>23</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H1" s="35" t="s">
         <v>13</v>
@@ -6792,7 +6776,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6822,22 +6806,22 @@
         <v>29</v>
       </c>
       <c r="E1" s="69" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G1" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="71" t="s">
-        <v>35</v>
-      </c>
       <c r="J1" s="71" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K1" s="72" t="s">
         <v>13</v>
@@ -6848,13 +6832,13 @@
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="78" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>38</v>
       </c>
       <c r="D2" s="78" t="s">
         <v>24</v>
@@ -7062,7 +7046,7 @@
   <dimension ref="A1:AME2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7092,25 +7076,25 @@
         <v>29</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>46</v>
-      </c>
       <c r="K1" s="19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L1" s="42" t="s">
         <v>13</v>
@@ -7121,19 +7105,19 @@
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D2" s="80" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="80" t="s">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="F2" s="80">
         <v>-35</v>
@@ -7148,11 +7132,11 @@
         <v>1900</v>
       </c>
       <c r="J2" s="81" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K2" s="79"/>
       <c r="L2" s="81" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M2" s="79"/>
     </row>
@@ -7169,34 +7153,34 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMM3"/>
+  <dimension ref="A1:AML2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="6" customWidth="1"/>
     <col min="2" max="3" width="20.7109375" style="4" customWidth="1"/>
-    <col min="4" max="6" width="10.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="3" customWidth="1"/>
-    <col min="9" max="10" width="10.7109375" style="137" customWidth="1"/>
-    <col min="11" max="12" width="20.7109375" style="137" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="65" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="63" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="9" style="65" customWidth="1"/>
-    <col min="17" max="1027" width="33" style="63" customWidth="1"/>
-    <col min="1028" max="1034" width="9" style="65" customWidth="1"/>
-    <col min="1035" max="16384" width="9" style="65"/>
+    <col min="4" max="5" width="10.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="137" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="137" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" style="137" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="65" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="63" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="6" customWidth="1"/>
+    <col min="15" max="15" width="9" style="65" customWidth="1"/>
+    <col min="16" max="1026" width="33" style="63" customWidth="1"/>
+    <col min="1027" max="1033" width="9" style="65" customWidth="1"/>
+    <col min="1034" max="16384" width="9" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1027" s="19" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1026" s="19" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -7204,87 +7188,82 @@
         <v>1</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>28</v>
+        <v>201</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>208</v>
+        <v>51</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H1" s="42" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J1" s="42" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K1" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>199</v>
+        <v>33</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>13</v>
       </c>
       <c r="N1" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="42" t="s">
         <v>9</v>
       </c>
+      <c r="AMG1" s="30"/>
       <c r="AMH1" s="30"/>
       <c r="AMI1" s="30"/>
       <c r="AMJ1" s="30"/>
       <c r="AMK1" s="30"/>
       <c r="AML1" s="30"/>
-      <c r="AMM1" s="30"/>
-    </row>
-    <row r="2" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:1026" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="85" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="137" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="137" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="137"/>
-      <c r="G2" s="84" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="137"/>
+      <c r="F2" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="137" t="s">
         <v>24</v>
       </c>
+      <c r="H2" s="137">
+        <v>692</v>
+      </c>
       <c r="I2" s="137">
-        <v>692</v>
-      </c>
-      <c r="J2" s="137">
         <v>1834</v>
       </c>
+      <c r="J2" s="122"/>
       <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
+      <c r="L2" s="84" t="s">
+        <v>57</v>
+      </c>
       <c r="M2" s="84" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="83"/>
+        <v>37</v>
+      </c>
+      <c r="N2" s="83"/>
+      <c r="O2" s="82"/>
       <c r="P2" s="82"/>
       <c r="Q2" s="82"/>
       <c r="R2" s="82"/>
@@ -8296,14 +8275,9 @@
       <c r="AMJ2" s="82"/>
       <c r="AMK2" s="82"/>
       <c r="AML2" s="82"/>
-      <c r="AMM2" s="82"/>
-    </row>
-    <row r="3" spans="1:1027" x14ac:dyDescent="0.2">
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1"/>
+  <autoFilter ref="A1:I1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -8318,7 +8292,7 @@
   <dimension ref="A1:ALR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -8344,19 +8318,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D1" s="44" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H1" s="44" t="s">
         <v>13</v>
@@ -8367,25 +8341,23 @@
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="93"/>
+      <c r="E2" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="92" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="92" t="s">
         <v>65</v>
-      </c>
-      <c r="B2" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="92" t="s">
-        <v>69</v>
       </c>
       <c r="H2" s="90"/>
       <c r="I2" s="90"/>
@@ -8402,10 +8374,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMM2"/>
+  <dimension ref="A1:AML2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -8413,18 +8385,18 @@
     <col min="1" max="3" width="20.7109375" style="25" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="25" customWidth="1"/>
     <col min="5" max="6" width="20.7109375" style="25" customWidth="1"/>
-    <col min="7" max="9" width="15.7109375" style="25" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" style="25" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="58" customWidth="1"/>
-    <col min="13" max="14" width="20.7109375" style="59" customWidth="1"/>
-    <col min="15" max="15" width="9" style="58" customWidth="1"/>
-    <col min="16" max="1025" width="9.140625" style="59" customWidth="1"/>
-    <col min="1026" max="1028" width="9.140625" style="58" customWidth="1"/>
-    <col min="1029" max="1039" width="9" style="58" customWidth="1"/>
-    <col min="1040" max="16384" width="9" style="58"/>
+    <col min="7" max="8" width="15.7109375" style="25" customWidth="1"/>
+    <col min="9" max="10" width="20.7109375" style="25" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="58" customWidth="1"/>
+    <col min="12" max="13" width="20.7109375" style="59" customWidth="1"/>
+    <col min="14" max="14" width="9" style="58" customWidth="1"/>
+    <col min="15" max="1024" width="9.140625" style="59" customWidth="1"/>
+    <col min="1025" max="1027" width="9.140625" style="58" customWidth="1"/>
+    <col min="1028" max="1038" width="9" style="58" customWidth="1"/>
+    <col min="1039" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14 1026:1027" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13 1025:1026" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
@@ -8432,60 +8404,57 @@
         <v>1</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D1" s="61" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H1" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="61" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>59</v>
       </c>
       <c r="J1" s="51" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K1" s="51" t="s">
-        <v>62</v>
+        <v>194</v>
       </c>
       <c r="L1" s="51" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="M1" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="51" t="s">
         <v>9</v>
       </c>
+      <c r="AMK1" s="62"/>
       <c r="AML1" s="62"/>
-      <c r="AMM1" s="62"/>
-    </row>
-    <row r="2" spans="1:14 1026:1027" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13 1025:1026" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="100" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B2" s="100" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C2" s="99"/>
       <c r="D2" s="101" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E2" s="101" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F2" s="100" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G2" s="101">
         <v>652</v>
@@ -8493,23 +8462,20 @@
       <c r="H2" s="101">
         <v>1249</v>
       </c>
-      <c r="I2" s="101" t="s">
-        <v>39</v>
+      <c r="I2" s="99" t="s">
+        <v>70</v>
       </c>
       <c r="J2" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="99" t="s">
-        <v>75</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="K2" s="99"/>
       <c r="L2" s="99"/>
       <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
+      <c r="AMK2" s="99"/>
       <c r="AML2" s="99"/>
-      <c r="AMM2" s="99"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1"/>
+  <autoFilter ref="A1:J1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>

--- a/tests/fixtures/prokaryote_core.xlsx
+++ b/tests/fixtures/prokaryote_core.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="495" windowWidth="23250" windowHeight="11970" tabRatio="1000" activeTab="14"/>
+    <workbookView xWindow="-105" yWindow="495" windowWidth="23250" windowHeight="11970" tabRatio="1000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -31,55 +31,55 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cell!$A$1:$B$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Chromosome features'!$G$1:$G$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Complexes!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Complexes!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Genes!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KB!$A$1:$B$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Proteins!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Proteins!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Reactions!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">RNAs!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">RNAs!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Transcription units'!$A$1:$K$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="10">Complexes!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="10">Complexes!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="6">Genes!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">KB!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Proteins!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="9">Proteins!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="14">Reactions!$A$1:$O$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="8">RNAs!$A$1:$J$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="8">RNAs!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="5">'Transcription units'!$A$1:$M$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="10">Complexes!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="10">Complexes!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="6">Genes!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Proteins!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="9">Proteins!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="14">Reactions!$A$1:$O$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="8">RNAs!$A$1:$J$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="8">RNAs!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="5">'Transcription units'!$A$1:$M$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">Complexes!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">Complexes!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="6">Genes!$N$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="14">Reactions!$A$1:$O$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="8">RNAs!$A$1:$J$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="8">RNAs!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Transcription units'!$A$1:$M$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">Genes!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="8">RNAs!$A$1:$J$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="8">RNAs!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="6">Genes!$N$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="8">RNAs!$A$1:$J$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="8">RNAs!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="6">Genes!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="8">RNAs!$A$1:$J$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="8">RNAs!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="6">Genes!$N$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="8">RNAs!$A$1:$J$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="8">RNAs!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="8">RNAs!$A$1:$J$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="8">RNAs!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="202">
   <si>
     <t>Id</t>
   </si>
@@ -265,12 +265,6 @@
     <t>biocyc:MPNE272634GJ6Z1, ncbi_gene:877175, cmr:MPN001, kegg:mpn:MPN001</t>
   </si>
   <si>
-    <t>Concentration</t>
-  </si>
-  <si>
-    <t>Species properties</t>
-  </si>
-  <si>
     <t>misc</t>
   </si>
   <si>
@@ -391,9 +385,6 @@
     <t>Reversible</t>
   </si>
   <si>
-    <t>Enzyme</t>
-  </si>
-  <si>
     <t>Coenzymes</t>
   </si>
   <si>
@@ -430,9 +421,6 @@
     <t>Property</t>
   </si>
   <si>
-    <t>Values</t>
-  </si>
-  <si>
     <t>Experiment</t>
   </si>
   <si>
@@ -484,9 +472,6 @@
     <t>Experiment design</t>
   </si>
   <si>
-    <t>Measurment technology</t>
-  </si>
-  <si>
     <t>Analysis type</t>
   </si>
   <si>
@@ -703,7 +688,13 @@
     <t>string</t>
   </si>
   <si>
-    <t>Sponteneous</t>
+    <t>Measurement technology</t>
+  </si>
+  <si>
+    <t>Spontaneous</t>
+  </si>
+  <si>
+    <t>Enzymes</t>
   </si>
 </sst>
 </file>
@@ -983,7 +974,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1016,9 +1007,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1246,16 +1234,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1662,8 +1644,8 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" style="63" customWidth="1"/>
-    <col min="3" max="1025" width="8.5703125" style="63" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="62" customWidth="1"/>
+    <col min="3" max="1025" width="8.5703125" style="62" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1671,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1679,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1694,8 +1676,8 @@
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="63" t="s">
-        <v>197</v>
+      <c r="B4" s="62" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1717,7 +1699,7 @@
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="62" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1725,8 +1707,8 @@
       <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="63" t="s">
-        <v>198</v>
+      <c r="B9" s="62" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -1738,96 +1720,82 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI2"/>
+  <dimension ref="A1:AMG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="63" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="63" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="63" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="62" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="62" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="62" customWidth="1"/>
     <col min="4" max="5" width="15.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="63" customWidth="1"/>
-    <col min="9" max="9" width="64.85546875" style="65" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" style="63" customWidth="1"/>
-    <col min="12" max="1022" width="58.5703125" style="63" customWidth="1"/>
-    <col min="1023" max="1026" width="58.5703125" style="65" customWidth="1"/>
-    <col min="1027" max="16384" width="58.5703125" style="65"/>
+    <col min="6" max="6" width="20.7109375" style="62" customWidth="1"/>
+    <col min="7" max="7" width="64.85546875" style="64" customWidth="1"/>
+    <col min="8" max="9" width="20.7109375" style="62" customWidth="1"/>
+    <col min="10" max="1020" width="58.5703125" style="62" customWidth="1"/>
+    <col min="1021" max="1024" width="58.5703125" style="64" customWidth="1"/>
+    <col min="1025" max="16384" width="58.5703125" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:1021" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMG1" s="141"/>
+    </row>
+    <row r="2" spans="1:1021" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="AMI1" s="144"/>
-    </row>
-    <row r="2" spans="1:1023" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="111" t="s">
+      <c r="C2" s="108"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="109" t="s">
         <v>48</v>
       </c>
       <c r="F2" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="112" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" s="118" t="s">
-        <v>188</v>
-      </c>
-      <c r="J2" s="116" t="s">
+      <c r="G2" s="115" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="117"/>
-      <c r="AMI2" s="109"/>
+      <c r="I2" s="114"/>
+      <c r="AMG2" s="108"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:G1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -1839,68 +1807,61 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI1"/>
+  <dimension ref="A1:AMG1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="49" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="45" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="47" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="49" customWidth="1"/>
-    <col min="6" max="6" width="59.140625" style="48" customWidth="1"/>
-    <col min="7" max="8" width="15.7109375" style="45" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="50" customWidth="1"/>
-    <col min="10" max="11" width="15.7109375" style="63" customWidth="1"/>
-    <col min="12" max="12" width="33.5703125" style="50" customWidth="1"/>
-    <col min="13" max="1021" width="33.5703125" style="63" customWidth="1"/>
-    <col min="1022" max="1026" width="33.5703125" style="50" customWidth="1"/>
-    <col min="1027" max="16384" width="33.5703125" style="50"/>
+    <col min="1" max="1" width="48.85546875" style="48" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="45" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="44" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="46" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="48" customWidth="1"/>
+    <col min="6" max="6" width="59.140625" style="47" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="49" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" style="62" customWidth="1"/>
+    <col min="10" max="10" width="33.5703125" style="49" customWidth="1"/>
+    <col min="11" max="1019" width="33.5703125" style="62" customWidth="1"/>
+    <col min="1020" max="1024" width="33.5703125" style="49" customWidth="1"/>
+    <col min="1025" max="16384" width="33.5703125" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:1021" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>80</v>
+      <c r="F1" s="51" t="s">
+        <v>78</v>
       </c>
       <c r="G1" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="54" t="s">
-        <v>58</v>
+        <v>188</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>13</v>
       </c>
       <c r="I1" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="J1" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="AMH1" s="57"/>
-      <c r="AMI1" s="57"/>
+      <c r="AMF1" s="56"/>
+      <c r="AMG1" s="56"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:G1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -1916,134 +1877,134 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="63" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="63" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="62" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="62" customWidth="1"/>
     <col min="3" max="4" width="15.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" style="137" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="63" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" style="134" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="62" customWidth="1"/>
     <col min="7" max="9" width="20.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="63" customWidth="1"/>
-    <col min="11" max="21" width="9.140625" style="63" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="63"/>
+    <col min="10" max="10" width="20.7109375" style="62" customWidth="1"/>
+    <col min="11" max="21" width="9.140625" style="62" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="B1" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="I1" s="19" t="s">
+      <c r="H1" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="122" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="122" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="137" t="s">
-        <v>192</v>
-      </c>
-      <c r="D2" s="122" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="137" t="s">
-        <v>203</v>
-      </c>
-      <c r="F2" s="122" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="122"/>
+      <c r="A2" s="119" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="119" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="134" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="119" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="134" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="122" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="122" t="s">
+      <c r="A3" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="137" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="122">
+      <c r="B3" s="119" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="134" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="119">
         <v>4.8828698208797903</v>
       </c>
-      <c r="E3" s="137" t="s">
-        <v>202</v>
-      </c>
-      <c r="F3" s="122" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="122" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" s="122"/>
+      <c r="E3" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="119" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="119"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="122" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="137" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="122">
+      <c r="A4" s="119" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="119" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="134" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="119">
         <v>992.98255190377824</v>
       </c>
-      <c r="E4" s="137" t="s">
-        <v>202</v>
-      </c>
-      <c r="F4" s="122" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="122" t="s">
-        <v>83</v>
-      </c>
-      <c r="J4" s="122"/>
+      <c r="E4" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="119" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="119" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="119"/>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D15" s="97"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="98"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="97"/>
     </row>
     <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="103"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="102"/>
+      <c r="B16" s="102"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="101"/>
     </row>
     <row r="17" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="122"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="121"/>
+      <c r="B17" s="119"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="118"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2056,98 +2017,98 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="63" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="63" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="62" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="62" customWidth="1"/>
     <col min="3" max="5" width="15.7109375" style="3" customWidth="1"/>
     <col min="6" max="8" width="20.7109375" style="3" customWidth="1"/>
-    <col min="9" max="19" width="9.140625" style="63" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="63"/>
+    <col min="9" max="19" width="9.140625" style="62" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="E1" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="93">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="105">
+        <v>2.2584973866611409E-2</v>
+      </c>
+      <c r="D3" s="105" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="105" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="122" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="C4" s="122">
+        <v>489.45</v>
+      </c>
+      <c r="D4" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="94">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="D2" s="94" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="106" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="106" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="106">
-        <v>2.2584973866611409E-2</v>
-      </c>
-      <c r="D3" s="106" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="106" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="125" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="125" t="s">
+      <c r="E4" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="125">
-        <v>489.45</v>
-      </c>
-      <c r="D4" s="125" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="125" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2165,32 +2126,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" style="50" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="50" customWidth="1"/>
-    <col min="8" max="1023" width="9.140625" style="50" customWidth="1"/>
+    <col min="1" max="4" width="20.7109375" style="49" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="49" customWidth="1"/>
+    <col min="8" max="1023" width="9.140625" style="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F1" s="40" t="s">
+      <c r="C1" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2208,101 +2169,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" style="25" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" style="25" customWidth="1"/>
-    <col min="5" max="5" width="72" style="25" customWidth="1"/>
-    <col min="6" max="10" width="15.7109375" style="25" customWidth="1"/>
-    <col min="11" max="14" width="20.7109375" style="25" customWidth="1"/>
-    <col min="15" max="18" width="9" style="25" customWidth="1"/>
-    <col min="19" max="1027" width="37.85546875" style="25" customWidth="1"/>
-    <col min="1028" max="1029" width="8.5703125" style="25" customWidth="1"/>
-    <col min="1030" max="1040" width="9" style="25" customWidth="1"/>
-    <col min="1041" max="16384" width="9" style="25"/>
+    <col min="1" max="2" width="20.7109375" style="24" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="72" style="24" customWidth="1"/>
+    <col min="6" max="10" width="15.7109375" style="24" customWidth="1"/>
+    <col min="11" max="14" width="20.7109375" style="24" customWidth="1"/>
+    <col min="15" max="18" width="9" style="24" customWidth="1"/>
+    <col min="19" max="1027" width="37.85546875" style="24" customWidth="1"/>
+    <col min="1028" max="1029" width="8.5703125" style="24" customWidth="1"/>
+    <col min="1030" max="1040" width="9" style="24" customWidth="1"/>
+    <col min="1041" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14 1028:1028" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:14 1028:1028" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="H1" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMN1" s="37"/>
+    </row>
+    <row r="2" spans="1:14 1028:1028" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="B2" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="J1" s="35" t="s">
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="AMN1" s="38"/>
-    </row>
-    <row r="2" spans="1:14 1028:1028" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="118" t="s">
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="118" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118" t="s">
-        <v>190</v>
-      </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="118" t="s">
-        <v>105</v>
-      </c>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" s="118" t="s">
-        <v>106</v>
-      </c>
-      <c r="AMN2" s="128"/>
+      <c r="AMN2" s="125"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1"/>
@@ -2325,37 +2286,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="20.7109375" style="63" customWidth="1"/>
+    <col min="1" max="5" width="20.7109375" style="62" customWidth="1"/>
     <col min="6" max="7" width="20.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="63" customWidth="1"/>
-    <col min="10" max="1026" width="9.140625" style="63" customWidth="1"/>
-    <col min="1027" max="1037" width="9" style="63" customWidth="1"/>
-    <col min="1038" max="16384" width="9" style="63"/>
+    <col min="8" max="8" width="20.7109375" style="62" customWidth="1"/>
+    <col min="10" max="1026" width="9.140625" style="62" customWidth="1"/>
+    <col min="1027" max="1037" width="9" style="62" customWidth="1"/>
+    <col min="1038" max="16384" width="9" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="G1" s="34" t="s">
+      <c r="D1" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2383,54 +2344,54 @@
     <col min="2" max="2" width="20.7109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="7" customWidth="1"/>
     <col min="4" max="5" width="10.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="63" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="62" customWidth="1"/>
     <col min="7" max="9" width="20.7109375" style="7" customWidth="1"/>
-    <col min="10" max="20" width="9.140625" style="63" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="63"/>
+    <col min="10" max="20" width="9.140625" style="62" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="33" t="s">
+      <c r="D1" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="H1" s="33" t="s">
+      <c r="G1" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="127" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="127" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127">
+        <v>2</v>
+      </c>
+      <c r="E2" s="127" t="s">
         <v>105</v>
-      </c>
-      <c r="B2" s="130" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130">
-        <v>2</v>
-      </c>
-      <c r="E2" s="130" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2442,262 +2403,262 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="63" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="62" customWidth="1"/>
     <col min="2" max="7" width="15.7109375" style="3" customWidth="1"/>
-    <col min="8" max="10" width="20.7109375" style="63" customWidth="1"/>
-    <col min="11" max="21" width="9.140625" style="63" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="63"/>
+    <col min="8" max="10" width="20.7109375" style="62" customWidth="1"/>
+    <col min="11" max="21" width="9.140625" style="62" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="H1" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E2" s="88">
+        <v>1</v>
+      </c>
+      <c r="F2" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="E3" s="95">
+        <v>992.98255190377802</v>
+      </c>
+      <c r="F3" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="95" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="104" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="104" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="104">
+        <v>489.45</v>
+      </c>
+      <c r="F4" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G4" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="106" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="107" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="107" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="107">
+        <v>5.5313109099319684</v>
+      </c>
+      <c r="F5" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="89" t="s">
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="116" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="89" t="s">
+      <c r="C6" s="117" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="117" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="117" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="117" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="117" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="117" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="89">
-        <v>1</v>
-      </c>
-      <c r="F2" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="89" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
+      <c r="E7" s="117">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="F7" s="117" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="117" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B8" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="96" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="96" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="96">
-        <v>992.98255190377802</v>
-      </c>
-      <c r="F3" s="96" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="96" t="s">
-        <v>118</v>
-      </c>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="105" t="s">
+      <c r="C8" s="121" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="121" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="121">
+        <v>4.8828698208797903</v>
+      </c>
+      <c r="F8" s="121" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="121" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="123" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="105" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="105">
-        <v>489.45</v>
-      </c>
-      <c r="F4" s="105" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="107" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="108" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="108" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="108">
-        <v>5.5313109099319684</v>
-      </c>
-      <c r="F5" s="108" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="108" t="s">
-        <v>118</v>
-      </c>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="120" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="120" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="120" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="120" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="120" t="s">
-        <v>108</v>
-      </c>
-      <c r="G6" s="120" t="s">
+      <c r="C9" s="124" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="124" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="124">
+        <v>2.2584973866611409E-2</v>
+      </c>
+      <c r="F9" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="119" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="120" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="120" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="120" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="120">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="F7" s="120" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="120" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="123" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="124" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="124" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="124" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="124">
-        <v>4.8828698208797903</v>
-      </c>
-      <c r="F8" s="124" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="124" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="126" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="127" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="127" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="127" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="127">
-        <v>2.2584973866611409E-2</v>
-      </c>
-      <c r="F9" s="127" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="127" t="s">
-        <v>129</v>
-      </c>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
     </row>
   </sheetData>
   <sortState ref="A2:J9">
@@ -2712,224 +2673,224 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="63" customWidth="1"/>
-    <col min="2" max="4" width="25.7109375" style="63" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="63" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="62" customWidth="1"/>
+    <col min="2" max="4" width="25.7109375" style="62" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="62" customWidth="1"/>
     <col min="6" max="9" width="15.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="63" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" style="63" customWidth="1"/>
-    <col min="12" max="13" width="15.7109375" style="63" customWidth="1"/>
-    <col min="14" max="24" width="9.140625" style="63" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="63"/>
+    <col min="10" max="10" width="15.7109375" style="62" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" style="62" customWidth="1"/>
+    <col min="12" max="13" width="15.7109375" style="62" customWidth="1"/>
+    <col min="14" max="24" width="9.140625" style="62" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="32" t="s">
+    <row r="1" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="I1" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="J1" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="32" t="s">
+      <c r="K1" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="128" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="F2" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="G2" s="130" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="H2" s="130">
+        <v>37</v>
+      </c>
+      <c r="I2" s="129" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="128"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="128" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128" t="s">
         <v>137</v>
       </c>
-      <c r="K1" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131" t="s">
+      <c r="F3" s="130" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="130" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="130">
+        <v>37</v>
+      </c>
+      <c r="I3" s="130" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="128" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="133" t="s">
+    </row>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="128" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="130" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="130" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="130">
+        <v>37</v>
+      </c>
+      <c r="I4" s="130" t="s">
+        <v>136</v>
+      </c>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="133" t="s">
+      <c r="M4" s="128"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="128" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="130" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="133">
+      <c r="M5" s="128"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="131" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="132" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131" t="s">
+        <v>141</v>
+      </c>
+      <c r="M6" s="131"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="133" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="135" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="135" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="134">
         <v>37</v>
       </c>
-      <c r="I2" s="132" t="s">
-        <v>141</v>
-      </c>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="131"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="131" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131" t="s">
+      <c r="I7" s="135" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133" t="s">
         <v>142</v>
-      </c>
-      <c r="F3" s="133" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" s="133" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" s="133">
-        <v>37</v>
-      </c>
-      <c r="I3" s="133" t="s">
-        <v>141</v>
-      </c>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="131" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="131" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4" s="133" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" s="133" t="s">
-        <v>140</v>
-      </c>
-      <c r="H4" s="133">
-        <v>37</v>
-      </c>
-      <c r="I4" s="133" t="s">
-        <v>141</v>
-      </c>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131" t="s">
-        <v>144</v>
-      </c>
-      <c r="M4" s="131"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="131" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="133" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131" t="s">
-        <v>145</v>
-      </c>
-      <c r="M5" s="131"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="134" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" s="135" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134" t="s">
-        <v>146</v>
-      </c>
-      <c r="M6" s="134"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" s="138" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="138" t="s">
-        <v>140</v>
-      </c>
-      <c r="H7" s="137">
-        <v>37</v>
-      </c>
-      <c r="I7" s="138" t="s">
-        <v>141</v>
-      </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2953,1061 +2914,1061 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="146" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="63" customWidth="1"/>
-    <col min="3" max="1025" width="8.5703125" style="63" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="143" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="62" customWidth="1"/>
+    <col min="3" max="1025" width="8.5703125" style="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="149" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
+    <row r="1" spans="1:1025" s="146" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="148"/>
-      <c r="AA1" s="148"/>
-      <c r="AB1" s="148"/>
-      <c r="AC1" s="148"/>
-      <c r="AD1" s="148"/>
-      <c r="AE1" s="148"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="148"/>
-      <c r="AH1" s="148"/>
-      <c r="AI1" s="148"/>
-      <c r="AJ1" s="148"/>
-      <c r="AK1" s="148"/>
-      <c r="AL1" s="148"/>
-      <c r="AM1" s="148"/>
-      <c r="AN1" s="148"/>
-      <c r="AO1" s="148"/>
-      <c r="AP1" s="148"/>
-      <c r="AQ1" s="148"/>
-      <c r="AR1" s="148"/>
-      <c r="AS1" s="148"/>
-      <c r="AT1" s="148"/>
-      <c r="AU1" s="148"/>
-      <c r="AV1" s="148"/>
-      <c r="AW1" s="148"/>
-      <c r="AX1" s="148"/>
-      <c r="AY1" s="148"/>
-      <c r="AZ1" s="148"/>
-      <c r="BA1" s="148"/>
-      <c r="BB1" s="148"/>
-      <c r="BC1" s="148"/>
-      <c r="BD1" s="148"/>
-      <c r="BE1" s="148"/>
-      <c r="BF1" s="148"/>
-      <c r="BG1" s="148"/>
-      <c r="BH1" s="148"/>
-      <c r="BI1" s="148"/>
-      <c r="BJ1" s="148"/>
-      <c r="BK1" s="148"/>
-      <c r="BL1" s="148"/>
-      <c r="BM1" s="148"/>
-      <c r="BN1" s="148"/>
-      <c r="BO1" s="148"/>
-      <c r="BP1" s="148"/>
-      <c r="BQ1" s="148"/>
-      <c r="BR1" s="148"/>
-      <c r="BS1" s="148"/>
-      <c r="BT1" s="148"/>
-      <c r="BU1" s="148"/>
-      <c r="BV1" s="148"/>
-      <c r="BW1" s="148"/>
-      <c r="BX1" s="148"/>
-      <c r="BY1" s="148"/>
-      <c r="BZ1" s="148"/>
-      <c r="CA1" s="148"/>
-      <c r="CB1" s="148"/>
-      <c r="CC1" s="148"/>
-      <c r="CD1" s="148"/>
-      <c r="CE1" s="148"/>
-      <c r="CF1" s="148"/>
-      <c r="CG1" s="148"/>
-      <c r="CH1" s="148"/>
-      <c r="CI1" s="148"/>
-      <c r="CJ1" s="148"/>
-      <c r="CK1" s="148"/>
-      <c r="CL1" s="148"/>
-      <c r="CM1" s="148"/>
-      <c r="CN1" s="148"/>
-      <c r="CO1" s="148"/>
-      <c r="CP1" s="148"/>
-      <c r="CQ1" s="148"/>
-      <c r="CR1" s="148"/>
-      <c r="CS1" s="148"/>
-      <c r="CT1" s="148"/>
-      <c r="CU1" s="148"/>
-      <c r="CV1" s="148"/>
-      <c r="CW1" s="148"/>
-      <c r="CX1" s="148"/>
-      <c r="CY1" s="148"/>
-      <c r="CZ1" s="148"/>
-      <c r="DA1" s="148"/>
-      <c r="DB1" s="148"/>
-      <c r="DC1" s="148"/>
-      <c r="DD1" s="148"/>
-      <c r="DE1" s="148"/>
-      <c r="DF1" s="148"/>
-      <c r="DG1" s="148"/>
-      <c r="DH1" s="148"/>
-      <c r="DI1" s="148"/>
-      <c r="DJ1" s="148"/>
-      <c r="DK1" s="148"/>
-      <c r="DL1" s="148"/>
-      <c r="DM1" s="148"/>
-      <c r="DN1" s="148"/>
-      <c r="DO1" s="148"/>
-      <c r="DP1" s="148"/>
-      <c r="DQ1" s="148"/>
-      <c r="DR1" s="148"/>
-      <c r="DS1" s="148"/>
-      <c r="DT1" s="148"/>
-      <c r="DU1" s="148"/>
-      <c r="DV1" s="148"/>
-      <c r="DW1" s="148"/>
-      <c r="DX1" s="148"/>
-      <c r="DY1" s="148"/>
-      <c r="DZ1" s="148"/>
-      <c r="EA1" s="148"/>
-      <c r="EB1" s="148"/>
-      <c r="EC1" s="148"/>
-      <c r="ED1" s="148"/>
-      <c r="EE1" s="148"/>
-      <c r="EF1" s="148"/>
-      <c r="EG1" s="148"/>
-      <c r="EH1" s="148"/>
-      <c r="EI1" s="148"/>
-      <c r="EJ1" s="148"/>
-      <c r="EK1" s="148"/>
-      <c r="EL1" s="148"/>
-      <c r="EM1" s="148"/>
-      <c r="EN1" s="148"/>
-      <c r="EO1" s="148"/>
-      <c r="EP1" s="148"/>
-      <c r="EQ1" s="148"/>
-      <c r="ER1" s="148"/>
-      <c r="ES1" s="148"/>
-      <c r="ET1" s="148"/>
-      <c r="EU1" s="148"/>
-      <c r="EV1" s="148"/>
-      <c r="EW1" s="148"/>
-      <c r="EX1" s="148"/>
-      <c r="EY1" s="148"/>
-      <c r="EZ1" s="148"/>
-      <c r="FA1" s="148"/>
-      <c r="FB1" s="148"/>
-      <c r="FC1" s="148"/>
-      <c r="FD1" s="148"/>
-      <c r="FE1" s="148"/>
-      <c r="FF1" s="148"/>
-      <c r="FG1" s="148"/>
-      <c r="FH1" s="148"/>
-      <c r="FI1" s="148"/>
-      <c r="FJ1" s="148"/>
-      <c r="FK1" s="148"/>
-      <c r="FL1" s="148"/>
-      <c r="FM1" s="148"/>
-      <c r="FN1" s="148"/>
-      <c r="FO1" s="148"/>
-      <c r="FP1" s="148"/>
-      <c r="FQ1" s="148"/>
-      <c r="FR1" s="148"/>
-      <c r="FS1" s="148"/>
-      <c r="FT1" s="148"/>
-      <c r="FU1" s="148"/>
-      <c r="FV1" s="148"/>
-      <c r="FW1" s="148"/>
-      <c r="FX1" s="148"/>
-      <c r="FY1" s="148"/>
-      <c r="FZ1" s="148"/>
-      <c r="GA1" s="148"/>
-      <c r="GB1" s="148"/>
-      <c r="GC1" s="148"/>
-      <c r="GD1" s="148"/>
-      <c r="GE1" s="148"/>
-      <c r="GF1" s="148"/>
-      <c r="GG1" s="148"/>
-      <c r="GH1" s="148"/>
-      <c r="GI1" s="148"/>
-      <c r="GJ1" s="148"/>
-      <c r="GK1" s="148"/>
-      <c r="GL1" s="148"/>
-      <c r="GM1" s="148"/>
-      <c r="GN1" s="148"/>
-      <c r="GO1" s="148"/>
-      <c r="GP1" s="148"/>
-      <c r="GQ1" s="148"/>
-      <c r="GR1" s="148"/>
-      <c r="GS1" s="148"/>
-      <c r="GT1" s="148"/>
-      <c r="GU1" s="148"/>
-      <c r="GV1" s="148"/>
-      <c r="GW1" s="148"/>
-      <c r="GX1" s="148"/>
-      <c r="GY1" s="148"/>
-      <c r="GZ1" s="148"/>
-      <c r="HA1" s="148"/>
-      <c r="HB1" s="148"/>
-      <c r="HC1" s="148"/>
-      <c r="HD1" s="148"/>
-      <c r="HE1" s="148"/>
-      <c r="HF1" s="148"/>
-      <c r="HG1" s="148"/>
-      <c r="HH1" s="148"/>
-      <c r="HI1" s="148"/>
-      <c r="HJ1" s="148"/>
-      <c r="HK1" s="148"/>
-      <c r="HL1" s="148"/>
-      <c r="HM1" s="148"/>
-      <c r="HN1" s="148"/>
-      <c r="HO1" s="148"/>
-      <c r="HP1" s="148"/>
-      <c r="HQ1" s="148"/>
-      <c r="HR1" s="148"/>
-      <c r="HS1" s="148"/>
-      <c r="HT1" s="148"/>
-      <c r="HU1" s="148"/>
-      <c r="HV1" s="148"/>
-      <c r="HW1" s="148"/>
-      <c r="HX1" s="148"/>
-      <c r="HY1" s="148"/>
-      <c r="HZ1" s="148"/>
-      <c r="IA1" s="148"/>
-      <c r="IB1" s="148"/>
-      <c r="IC1" s="148"/>
-      <c r="ID1" s="148"/>
-      <c r="IE1" s="148"/>
-      <c r="IF1" s="148"/>
-      <c r="IG1" s="148"/>
-      <c r="IH1" s="148"/>
-      <c r="II1" s="148"/>
-      <c r="IJ1" s="148"/>
-      <c r="IK1" s="148"/>
-      <c r="IL1" s="148"/>
-      <c r="IM1" s="148"/>
-      <c r="IN1" s="148"/>
-      <c r="IO1" s="148"/>
-      <c r="IP1" s="148"/>
-      <c r="IQ1" s="148"/>
-      <c r="IR1" s="148"/>
-      <c r="IS1" s="148"/>
-      <c r="IT1" s="148"/>
-      <c r="IU1" s="148"/>
-      <c r="IV1" s="148"/>
-      <c r="IW1" s="148"/>
-      <c r="IX1" s="148"/>
-      <c r="IY1" s="148"/>
-      <c r="IZ1" s="148"/>
-      <c r="JA1" s="148"/>
-      <c r="JB1" s="148"/>
-      <c r="JC1" s="148"/>
-      <c r="JD1" s="148"/>
-      <c r="JE1" s="148"/>
-      <c r="JF1" s="148"/>
-      <c r="JG1" s="148"/>
-      <c r="JH1" s="148"/>
-      <c r="JI1" s="148"/>
-      <c r="JJ1" s="148"/>
-      <c r="JK1" s="148"/>
-      <c r="JL1" s="148"/>
-      <c r="JM1" s="148"/>
-      <c r="JN1" s="148"/>
-      <c r="JO1" s="148"/>
-      <c r="JP1" s="148"/>
-      <c r="JQ1" s="148"/>
-      <c r="JR1" s="148"/>
-      <c r="JS1" s="148"/>
-      <c r="JT1" s="148"/>
-      <c r="JU1" s="148"/>
-      <c r="JV1" s="148"/>
-      <c r="JW1" s="148"/>
-      <c r="JX1" s="148"/>
-      <c r="JY1" s="148"/>
-      <c r="JZ1" s="148"/>
-      <c r="KA1" s="148"/>
-      <c r="KB1" s="148"/>
-      <c r="KC1" s="148"/>
-      <c r="KD1" s="148"/>
-      <c r="KE1" s="148"/>
-      <c r="KF1" s="148"/>
-      <c r="KG1" s="148"/>
-      <c r="KH1" s="148"/>
-      <c r="KI1" s="148"/>
-      <c r="KJ1" s="148"/>
-      <c r="KK1" s="148"/>
-      <c r="KL1" s="148"/>
-      <c r="KM1" s="148"/>
-      <c r="KN1" s="148"/>
-      <c r="KO1" s="148"/>
-      <c r="KP1" s="148"/>
-      <c r="KQ1" s="148"/>
-      <c r="KR1" s="148"/>
-      <c r="KS1" s="148"/>
-      <c r="KT1" s="148"/>
-      <c r="KU1" s="148"/>
-      <c r="KV1" s="148"/>
-      <c r="KW1" s="148"/>
-      <c r="KX1" s="148"/>
-      <c r="KY1" s="148"/>
-      <c r="KZ1" s="148"/>
-      <c r="LA1" s="148"/>
-      <c r="LB1" s="148"/>
-      <c r="LC1" s="148"/>
-      <c r="LD1" s="148"/>
-      <c r="LE1" s="148"/>
-      <c r="LF1" s="148"/>
-      <c r="LG1" s="148"/>
-      <c r="LH1" s="148"/>
-      <c r="LI1" s="148"/>
-      <c r="LJ1" s="148"/>
-      <c r="LK1" s="148"/>
-      <c r="LL1" s="148"/>
-      <c r="LM1" s="148"/>
-      <c r="LN1" s="148"/>
-      <c r="LO1" s="148"/>
-      <c r="LP1" s="148"/>
-      <c r="LQ1" s="148"/>
-      <c r="LR1" s="148"/>
-      <c r="LS1" s="148"/>
-      <c r="LT1" s="148"/>
-      <c r="LU1" s="148"/>
-      <c r="LV1" s="148"/>
-      <c r="LW1" s="148"/>
-      <c r="LX1" s="148"/>
-      <c r="LY1" s="148"/>
-      <c r="LZ1" s="148"/>
-      <c r="MA1" s="148"/>
-      <c r="MB1" s="148"/>
-      <c r="MC1" s="148"/>
-      <c r="MD1" s="148"/>
-      <c r="ME1" s="148"/>
-      <c r="MF1" s="148"/>
-      <c r="MG1" s="148"/>
-      <c r="MH1" s="148"/>
-      <c r="MI1" s="148"/>
-      <c r="MJ1" s="148"/>
-      <c r="MK1" s="148"/>
-      <c r="ML1" s="148"/>
-      <c r="MM1" s="148"/>
-      <c r="MN1" s="148"/>
-      <c r="MO1" s="148"/>
-      <c r="MP1" s="148"/>
-      <c r="MQ1" s="148"/>
-      <c r="MR1" s="148"/>
-      <c r="MS1" s="148"/>
-      <c r="MT1" s="148"/>
-      <c r="MU1" s="148"/>
-      <c r="MV1" s="148"/>
-      <c r="MW1" s="148"/>
-      <c r="MX1" s="148"/>
-      <c r="MY1" s="148"/>
-      <c r="MZ1" s="148"/>
-      <c r="NA1" s="148"/>
-      <c r="NB1" s="148"/>
-      <c r="NC1" s="148"/>
-      <c r="ND1" s="148"/>
-      <c r="NE1" s="148"/>
-      <c r="NF1" s="148"/>
-      <c r="NG1" s="148"/>
-      <c r="NH1" s="148"/>
-      <c r="NI1" s="148"/>
-      <c r="NJ1" s="148"/>
-      <c r="NK1" s="148"/>
-      <c r="NL1" s="148"/>
-      <c r="NM1" s="148"/>
-      <c r="NN1" s="148"/>
-      <c r="NO1" s="148"/>
-      <c r="NP1" s="148"/>
-      <c r="NQ1" s="148"/>
-      <c r="NR1" s="148"/>
-      <c r="NS1" s="148"/>
-      <c r="NT1" s="148"/>
-      <c r="NU1" s="148"/>
-      <c r="NV1" s="148"/>
-      <c r="NW1" s="148"/>
-      <c r="NX1" s="148"/>
-      <c r="NY1" s="148"/>
-      <c r="NZ1" s="148"/>
-      <c r="OA1" s="148"/>
-      <c r="OB1" s="148"/>
-      <c r="OC1" s="148"/>
-      <c r="OD1" s="148"/>
-      <c r="OE1" s="148"/>
-      <c r="OF1" s="148"/>
-      <c r="OG1" s="148"/>
-      <c r="OH1" s="148"/>
-      <c r="OI1" s="148"/>
-      <c r="OJ1" s="148"/>
-      <c r="OK1" s="148"/>
-      <c r="OL1" s="148"/>
-      <c r="OM1" s="148"/>
-      <c r="ON1" s="148"/>
-      <c r="OO1" s="148"/>
-      <c r="OP1" s="148"/>
-      <c r="OQ1" s="148"/>
-      <c r="OR1" s="148"/>
-      <c r="OS1" s="148"/>
-      <c r="OT1" s="148"/>
-      <c r="OU1" s="148"/>
-      <c r="OV1" s="148"/>
-      <c r="OW1" s="148"/>
-      <c r="OX1" s="148"/>
-      <c r="OY1" s="148"/>
-      <c r="OZ1" s="148"/>
-      <c r="PA1" s="148"/>
-      <c r="PB1" s="148"/>
-      <c r="PC1" s="148"/>
-      <c r="PD1" s="148"/>
-      <c r="PE1" s="148"/>
-      <c r="PF1" s="148"/>
-      <c r="PG1" s="148"/>
-      <c r="PH1" s="148"/>
-      <c r="PI1" s="148"/>
-      <c r="PJ1" s="148"/>
-      <c r="PK1" s="148"/>
-      <c r="PL1" s="148"/>
-      <c r="PM1" s="148"/>
-      <c r="PN1" s="148"/>
-      <c r="PO1" s="148"/>
-      <c r="PP1" s="148"/>
-      <c r="PQ1" s="148"/>
-      <c r="PR1" s="148"/>
-      <c r="PS1" s="148"/>
-      <c r="PT1" s="148"/>
-      <c r="PU1" s="148"/>
-      <c r="PV1" s="148"/>
-      <c r="PW1" s="148"/>
-      <c r="PX1" s="148"/>
-      <c r="PY1" s="148"/>
-      <c r="PZ1" s="148"/>
-      <c r="QA1" s="148"/>
-      <c r="QB1" s="148"/>
-      <c r="QC1" s="148"/>
-      <c r="QD1" s="148"/>
-      <c r="QE1" s="148"/>
-      <c r="QF1" s="148"/>
-      <c r="QG1" s="148"/>
-      <c r="QH1" s="148"/>
-      <c r="QI1" s="148"/>
-      <c r="QJ1" s="148"/>
-      <c r="QK1" s="148"/>
-      <c r="QL1" s="148"/>
-      <c r="QM1" s="148"/>
-      <c r="QN1" s="148"/>
-      <c r="QO1" s="148"/>
-      <c r="QP1" s="148"/>
-      <c r="QQ1" s="148"/>
-      <c r="QR1" s="148"/>
-      <c r="QS1" s="148"/>
-      <c r="QT1" s="148"/>
-      <c r="QU1" s="148"/>
-      <c r="QV1" s="148"/>
-      <c r="QW1" s="148"/>
-      <c r="QX1" s="148"/>
-      <c r="QY1" s="148"/>
-      <c r="QZ1" s="148"/>
-      <c r="RA1" s="148"/>
-      <c r="RB1" s="148"/>
-      <c r="RC1" s="148"/>
-      <c r="RD1" s="148"/>
-      <c r="RE1" s="148"/>
-      <c r="RF1" s="148"/>
-      <c r="RG1" s="148"/>
-      <c r="RH1" s="148"/>
-      <c r="RI1" s="148"/>
-      <c r="RJ1" s="148"/>
-      <c r="RK1" s="148"/>
-      <c r="RL1" s="148"/>
-      <c r="RM1" s="148"/>
-      <c r="RN1" s="148"/>
-      <c r="RO1" s="148"/>
-      <c r="RP1" s="148"/>
-      <c r="RQ1" s="148"/>
-      <c r="RR1" s="148"/>
-      <c r="RS1" s="148"/>
-      <c r="RT1" s="148"/>
-      <c r="RU1" s="148"/>
-      <c r="RV1" s="148"/>
-      <c r="RW1" s="148"/>
-      <c r="RX1" s="148"/>
-      <c r="RY1" s="148"/>
-      <c r="RZ1" s="148"/>
-      <c r="SA1" s="148"/>
-      <c r="SB1" s="148"/>
-      <c r="SC1" s="148"/>
-      <c r="SD1" s="148"/>
-      <c r="SE1" s="148"/>
-      <c r="SF1" s="148"/>
-      <c r="SG1" s="148"/>
-      <c r="SH1" s="148"/>
-      <c r="SI1" s="148"/>
-      <c r="SJ1" s="148"/>
-      <c r="SK1" s="148"/>
-      <c r="SL1" s="148"/>
-      <c r="SM1" s="148"/>
-      <c r="SN1" s="148"/>
-      <c r="SO1" s="148"/>
-      <c r="SP1" s="148"/>
-      <c r="SQ1" s="148"/>
-      <c r="SR1" s="148"/>
-      <c r="SS1" s="148"/>
-      <c r="ST1" s="148"/>
-      <c r="SU1" s="148"/>
-      <c r="SV1" s="148"/>
-      <c r="SW1" s="148"/>
-      <c r="SX1" s="148"/>
-      <c r="SY1" s="148"/>
-      <c r="SZ1" s="148"/>
-      <c r="TA1" s="148"/>
-      <c r="TB1" s="148"/>
-      <c r="TC1" s="148"/>
-      <c r="TD1" s="148"/>
-      <c r="TE1" s="148"/>
-      <c r="TF1" s="148"/>
-      <c r="TG1" s="148"/>
-      <c r="TH1" s="148"/>
-      <c r="TI1" s="148"/>
-      <c r="TJ1" s="148"/>
-      <c r="TK1" s="148"/>
-      <c r="TL1" s="148"/>
-      <c r="TM1" s="148"/>
-      <c r="TN1" s="148"/>
-      <c r="TO1" s="148"/>
-      <c r="TP1" s="148"/>
-      <c r="TQ1" s="148"/>
-      <c r="TR1" s="148"/>
-      <c r="TS1" s="148"/>
-      <c r="TT1" s="148"/>
-      <c r="TU1" s="148"/>
-      <c r="TV1" s="148"/>
-      <c r="TW1" s="148"/>
-      <c r="TX1" s="148"/>
-      <c r="TY1" s="148"/>
-      <c r="TZ1" s="148"/>
-      <c r="UA1" s="148"/>
-      <c r="UB1" s="148"/>
-      <c r="UC1" s="148"/>
-      <c r="UD1" s="148"/>
-      <c r="UE1" s="148"/>
-      <c r="UF1" s="148"/>
-      <c r="UG1" s="148"/>
-      <c r="UH1" s="148"/>
-      <c r="UI1" s="148"/>
-      <c r="UJ1" s="148"/>
-      <c r="UK1" s="148"/>
-      <c r="UL1" s="148"/>
-      <c r="UM1" s="148"/>
-      <c r="UN1" s="148"/>
-      <c r="UO1" s="148"/>
-      <c r="UP1" s="148"/>
-      <c r="UQ1" s="148"/>
-      <c r="UR1" s="148"/>
-      <c r="US1" s="148"/>
-      <c r="UT1" s="148"/>
-      <c r="UU1" s="148"/>
-      <c r="UV1" s="148"/>
-      <c r="UW1" s="148"/>
-      <c r="UX1" s="148"/>
-      <c r="UY1" s="148"/>
-      <c r="UZ1" s="148"/>
-      <c r="VA1" s="148"/>
-      <c r="VB1" s="148"/>
-      <c r="VC1" s="148"/>
-      <c r="VD1" s="148"/>
-      <c r="VE1" s="148"/>
-      <c r="VF1" s="148"/>
-      <c r="VG1" s="148"/>
-      <c r="VH1" s="148"/>
-      <c r="VI1" s="148"/>
-      <c r="VJ1" s="148"/>
-      <c r="VK1" s="148"/>
-      <c r="VL1" s="148"/>
-      <c r="VM1" s="148"/>
-      <c r="VN1" s="148"/>
-      <c r="VO1" s="148"/>
-      <c r="VP1" s="148"/>
-      <c r="VQ1" s="148"/>
-      <c r="VR1" s="148"/>
-      <c r="VS1" s="148"/>
-      <c r="VT1" s="148"/>
-      <c r="VU1" s="148"/>
-      <c r="VV1" s="148"/>
-      <c r="VW1" s="148"/>
-      <c r="VX1" s="148"/>
-      <c r="VY1" s="148"/>
-      <c r="VZ1" s="148"/>
-      <c r="WA1" s="148"/>
-      <c r="WB1" s="148"/>
-      <c r="WC1" s="148"/>
-      <c r="WD1" s="148"/>
-      <c r="WE1" s="148"/>
-      <c r="WF1" s="148"/>
-      <c r="WG1" s="148"/>
-      <c r="WH1" s="148"/>
-      <c r="WI1" s="148"/>
-      <c r="WJ1" s="148"/>
-      <c r="WK1" s="148"/>
-      <c r="WL1" s="148"/>
-      <c r="WM1" s="148"/>
-      <c r="WN1" s="148"/>
-      <c r="WO1" s="148"/>
-      <c r="WP1" s="148"/>
-      <c r="WQ1" s="148"/>
-      <c r="WR1" s="148"/>
-      <c r="WS1" s="148"/>
-      <c r="WT1" s="148"/>
-      <c r="WU1" s="148"/>
-      <c r="WV1" s="148"/>
-      <c r="WW1" s="148"/>
-      <c r="WX1" s="148"/>
-      <c r="WY1" s="148"/>
-      <c r="WZ1" s="148"/>
-      <c r="XA1" s="148"/>
-      <c r="XB1" s="148"/>
-      <c r="XC1" s="148"/>
-      <c r="XD1" s="148"/>
-      <c r="XE1" s="148"/>
-      <c r="XF1" s="148"/>
-      <c r="XG1" s="148"/>
-      <c r="XH1" s="148"/>
-      <c r="XI1" s="148"/>
-      <c r="XJ1" s="148"/>
-      <c r="XK1" s="148"/>
-      <c r="XL1" s="148"/>
-      <c r="XM1" s="148"/>
-      <c r="XN1" s="148"/>
-      <c r="XO1" s="148"/>
-      <c r="XP1" s="148"/>
-      <c r="XQ1" s="148"/>
-      <c r="XR1" s="148"/>
-      <c r="XS1" s="148"/>
-      <c r="XT1" s="148"/>
-      <c r="XU1" s="148"/>
-      <c r="XV1" s="148"/>
-      <c r="XW1" s="148"/>
-      <c r="XX1" s="148"/>
-      <c r="XY1" s="148"/>
-      <c r="XZ1" s="148"/>
-      <c r="YA1" s="148"/>
-      <c r="YB1" s="148"/>
-      <c r="YC1" s="148"/>
-      <c r="YD1" s="148"/>
-      <c r="YE1" s="148"/>
-      <c r="YF1" s="148"/>
-      <c r="YG1" s="148"/>
-      <c r="YH1" s="148"/>
-      <c r="YI1" s="148"/>
-      <c r="YJ1" s="148"/>
-      <c r="YK1" s="148"/>
-      <c r="YL1" s="148"/>
-      <c r="YM1" s="148"/>
-      <c r="YN1" s="148"/>
-      <c r="YO1" s="148"/>
-      <c r="YP1" s="148"/>
-      <c r="YQ1" s="148"/>
-      <c r="YR1" s="148"/>
-      <c r="YS1" s="148"/>
-      <c r="YT1" s="148"/>
-      <c r="YU1" s="148"/>
-      <c r="YV1" s="148"/>
-      <c r="YW1" s="148"/>
-      <c r="YX1" s="148"/>
-      <c r="YY1" s="148"/>
-      <c r="YZ1" s="148"/>
-      <c r="ZA1" s="148"/>
-      <c r="ZB1" s="148"/>
-      <c r="ZC1" s="148"/>
-      <c r="ZD1" s="148"/>
-      <c r="ZE1" s="148"/>
-      <c r="ZF1" s="148"/>
-      <c r="ZG1" s="148"/>
-      <c r="ZH1" s="148"/>
-      <c r="ZI1" s="148"/>
-      <c r="ZJ1" s="148"/>
-      <c r="ZK1" s="148"/>
-      <c r="ZL1" s="148"/>
-      <c r="ZM1" s="148"/>
-      <c r="ZN1" s="148"/>
-      <c r="ZO1" s="148"/>
-      <c r="ZP1" s="148"/>
-      <c r="ZQ1" s="148"/>
-      <c r="ZR1" s="148"/>
-      <c r="ZS1" s="148"/>
-      <c r="ZT1" s="148"/>
-      <c r="ZU1" s="148"/>
-      <c r="ZV1" s="148"/>
-      <c r="ZW1" s="148"/>
-      <c r="ZX1" s="148"/>
-      <c r="ZY1" s="148"/>
-      <c r="ZZ1" s="148"/>
-      <c r="AAA1" s="148"/>
-      <c r="AAB1" s="148"/>
-      <c r="AAC1" s="148"/>
-      <c r="AAD1" s="148"/>
-      <c r="AAE1" s="148"/>
-      <c r="AAF1" s="148"/>
-      <c r="AAG1" s="148"/>
-      <c r="AAH1" s="148"/>
-      <c r="AAI1" s="148"/>
-      <c r="AAJ1" s="148"/>
-      <c r="AAK1" s="148"/>
-      <c r="AAL1" s="148"/>
-      <c r="AAM1" s="148"/>
-      <c r="AAN1" s="148"/>
-      <c r="AAO1" s="148"/>
-      <c r="AAP1" s="148"/>
-      <c r="AAQ1" s="148"/>
-      <c r="AAR1" s="148"/>
-      <c r="AAS1" s="148"/>
-      <c r="AAT1" s="148"/>
-      <c r="AAU1" s="148"/>
-      <c r="AAV1" s="148"/>
-      <c r="AAW1" s="148"/>
-      <c r="AAX1" s="148"/>
-      <c r="AAY1" s="148"/>
-      <c r="AAZ1" s="148"/>
-      <c r="ABA1" s="148"/>
-      <c r="ABB1" s="148"/>
-      <c r="ABC1" s="148"/>
-      <c r="ABD1" s="148"/>
-      <c r="ABE1" s="148"/>
-      <c r="ABF1" s="148"/>
-      <c r="ABG1" s="148"/>
-      <c r="ABH1" s="148"/>
-      <c r="ABI1" s="148"/>
-      <c r="ABJ1" s="148"/>
-      <c r="ABK1" s="148"/>
-      <c r="ABL1" s="148"/>
-      <c r="ABM1" s="148"/>
-      <c r="ABN1" s="148"/>
-      <c r="ABO1" s="148"/>
-      <c r="ABP1" s="148"/>
-      <c r="ABQ1" s="148"/>
-      <c r="ABR1" s="148"/>
-      <c r="ABS1" s="148"/>
-      <c r="ABT1" s="148"/>
-      <c r="ABU1" s="148"/>
-      <c r="ABV1" s="148"/>
-      <c r="ABW1" s="148"/>
-      <c r="ABX1" s="148"/>
-      <c r="ABY1" s="148"/>
-      <c r="ABZ1" s="148"/>
-      <c r="ACA1" s="148"/>
-      <c r="ACB1" s="148"/>
-      <c r="ACC1" s="148"/>
-      <c r="ACD1" s="148"/>
-      <c r="ACE1" s="148"/>
-      <c r="ACF1" s="148"/>
-      <c r="ACG1" s="148"/>
-      <c r="ACH1" s="148"/>
-      <c r="ACI1" s="148"/>
-      <c r="ACJ1" s="148"/>
-      <c r="ACK1" s="148"/>
-      <c r="ACL1" s="148"/>
-      <c r="ACM1" s="148"/>
-      <c r="ACN1" s="148"/>
-      <c r="ACO1" s="148"/>
-      <c r="ACP1" s="148"/>
-      <c r="ACQ1" s="148"/>
-      <c r="ACR1" s="148"/>
-      <c r="ACS1" s="148"/>
-      <c r="ACT1" s="148"/>
-      <c r="ACU1" s="148"/>
-      <c r="ACV1" s="148"/>
-      <c r="ACW1" s="148"/>
-      <c r="ACX1" s="148"/>
-      <c r="ACY1" s="148"/>
-      <c r="ACZ1" s="148"/>
-      <c r="ADA1" s="148"/>
-      <c r="ADB1" s="148"/>
-      <c r="ADC1" s="148"/>
-      <c r="ADD1" s="148"/>
-      <c r="ADE1" s="148"/>
-      <c r="ADF1" s="148"/>
-      <c r="ADG1" s="148"/>
-      <c r="ADH1" s="148"/>
-      <c r="ADI1" s="148"/>
-      <c r="ADJ1" s="148"/>
-      <c r="ADK1" s="148"/>
-      <c r="ADL1" s="148"/>
-      <c r="ADM1" s="148"/>
-      <c r="ADN1" s="148"/>
-      <c r="ADO1" s="148"/>
-      <c r="ADP1" s="148"/>
-      <c r="ADQ1" s="148"/>
-      <c r="ADR1" s="148"/>
-      <c r="ADS1" s="148"/>
-      <c r="ADT1" s="148"/>
-      <c r="ADU1" s="148"/>
-      <c r="ADV1" s="148"/>
-      <c r="ADW1" s="148"/>
-      <c r="ADX1" s="148"/>
-      <c r="ADY1" s="148"/>
-      <c r="ADZ1" s="148"/>
-      <c r="AEA1" s="148"/>
-      <c r="AEB1" s="148"/>
-      <c r="AEC1" s="148"/>
-      <c r="AED1" s="148"/>
-      <c r="AEE1" s="148"/>
-      <c r="AEF1" s="148"/>
-      <c r="AEG1" s="148"/>
-      <c r="AEH1" s="148"/>
-      <c r="AEI1" s="148"/>
-      <c r="AEJ1" s="148"/>
-      <c r="AEK1" s="148"/>
-      <c r="AEL1" s="148"/>
-      <c r="AEM1" s="148"/>
-      <c r="AEN1" s="148"/>
-      <c r="AEO1" s="148"/>
-      <c r="AEP1" s="148"/>
-      <c r="AEQ1" s="148"/>
-      <c r="AER1" s="148"/>
-      <c r="AES1" s="148"/>
-      <c r="AET1" s="148"/>
-      <c r="AEU1" s="148"/>
-      <c r="AEV1" s="148"/>
-      <c r="AEW1" s="148"/>
-      <c r="AEX1" s="148"/>
-      <c r="AEY1" s="148"/>
-      <c r="AEZ1" s="148"/>
-      <c r="AFA1" s="148"/>
-      <c r="AFB1" s="148"/>
-      <c r="AFC1" s="148"/>
-      <c r="AFD1" s="148"/>
-      <c r="AFE1" s="148"/>
-      <c r="AFF1" s="148"/>
-      <c r="AFG1" s="148"/>
-      <c r="AFH1" s="148"/>
-      <c r="AFI1" s="148"/>
-      <c r="AFJ1" s="148"/>
-      <c r="AFK1" s="148"/>
-      <c r="AFL1" s="148"/>
-      <c r="AFM1" s="148"/>
-      <c r="AFN1" s="148"/>
-      <c r="AFO1" s="148"/>
-      <c r="AFP1" s="148"/>
-      <c r="AFQ1" s="148"/>
-      <c r="AFR1" s="148"/>
-      <c r="AFS1" s="148"/>
-      <c r="AFT1" s="148"/>
-      <c r="AFU1" s="148"/>
-      <c r="AFV1" s="148"/>
-      <c r="AFW1" s="148"/>
-      <c r="AFX1" s="148"/>
-      <c r="AFY1" s="148"/>
-      <c r="AFZ1" s="148"/>
-      <c r="AGA1" s="148"/>
-      <c r="AGB1" s="148"/>
-      <c r="AGC1" s="148"/>
-      <c r="AGD1" s="148"/>
-      <c r="AGE1" s="148"/>
-      <c r="AGF1" s="148"/>
-      <c r="AGG1" s="148"/>
-      <c r="AGH1" s="148"/>
-      <c r="AGI1" s="148"/>
-      <c r="AGJ1" s="148"/>
-      <c r="AGK1" s="148"/>
-      <c r="AGL1" s="148"/>
-      <c r="AGM1" s="148"/>
-      <c r="AGN1" s="148"/>
-      <c r="AGO1" s="148"/>
-      <c r="AGP1" s="148"/>
-      <c r="AGQ1" s="148"/>
-      <c r="AGR1" s="148"/>
-      <c r="AGS1" s="148"/>
-      <c r="AGT1" s="148"/>
-      <c r="AGU1" s="148"/>
-      <c r="AGV1" s="148"/>
-      <c r="AGW1" s="148"/>
-      <c r="AGX1" s="148"/>
-      <c r="AGY1" s="148"/>
-      <c r="AGZ1" s="148"/>
-      <c r="AHA1" s="148"/>
-      <c r="AHB1" s="148"/>
-      <c r="AHC1" s="148"/>
-      <c r="AHD1" s="148"/>
-      <c r="AHE1" s="148"/>
-      <c r="AHF1" s="148"/>
-      <c r="AHG1" s="148"/>
-      <c r="AHH1" s="148"/>
-      <c r="AHI1" s="148"/>
-      <c r="AHJ1" s="148"/>
-      <c r="AHK1" s="148"/>
-      <c r="AHL1" s="148"/>
-      <c r="AHM1" s="148"/>
-      <c r="AHN1" s="148"/>
-      <c r="AHO1" s="148"/>
-      <c r="AHP1" s="148"/>
-      <c r="AHQ1" s="148"/>
-      <c r="AHR1" s="148"/>
-      <c r="AHS1" s="148"/>
-      <c r="AHT1" s="148"/>
-      <c r="AHU1" s="148"/>
-      <c r="AHV1" s="148"/>
-      <c r="AHW1" s="148"/>
-      <c r="AHX1" s="148"/>
-      <c r="AHY1" s="148"/>
-      <c r="AHZ1" s="148"/>
-      <c r="AIA1" s="148"/>
-      <c r="AIB1" s="148"/>
-      <c r="AIC1" s="148"/>
-      <c r="AID1" s="148"/>
-      <c r="AIE1" s="148"/>
-      <c r="AIF1" s="148"/>
-      <c r="AIG1" s="148"/>
-      <c r="AIH1" s="148"/>
-      <c r="AII1" s="148"/>
-      <c r="AIJ1" s="148"/>
-      <c r="AIK1" s="148"/>
-      <c r="AIL1" s="148"/>
-      <c r="AIM1" s="148"/>
-      <c r="AIN1" s="148"/>
-      <c r="AIO1" s="148"/>
-      <c r="AIP1" s="148"/>
-      <c r="AIQ1" s="148"/>
-      <c r="AIR1" s="148"/>
-      <c r="AIS1" s="148"/>
-      <c r="AIT1" s="148"/>
-      <c r="AIU1" s="148"/>
-      <c r="AIV1" s="148"/>
-      <c r="AIW1" s="148"/>
-      <c r="AIX1" s="148"/>
-      <c r="AIY1" s="148"/>
-      <c r="AIZ1" s="148"/>
-      <c r="AJA1" s="148"/>
-      <c r="AJB1" s="148"/>
-      <c r="AJC1" s="148"/>
-      <c r="AJD1" s="148"/>
-      <c r="AJE1" s="148"/>
-      <c r="AJF1" s="148"/>
-      <c r="AJG1" s="148"/>
-      <c r="AJH1" s="148"/>
-      <c r="AJI1" s="148"/>
-      <c r="AJJ1" s="148"/>
-      <c r="AJK1" s="148"/>
-      <c r="AJL1" s="148"/>
-      <c r="AJM1" s="148"/>
-      <c r="AJN1" s="148"/>
-      <c r="AJO1" s="148"/>
-      <c r="AJP1" s="148"/>
-      <c r="AJQ1" s="148"/>
-      <c r="AJR1" s="148"/>
-      <c r="AJS1" s="148"/>
-      <c r="AJT1" s="148"/>
-      <c r="AJU1" s="148"/>
-      <c r="AJV1" s="148"/>
-      <c r="AJW1" s="148"/>
-      <c r="AJX1" s="148"/>
-      <c r="AJY1" s="148"/>
-      <c r="AJZ1" s="148"/>
-      <c r="AKA1" s="148"/>
-      <c r="AKB1" s="148"/>
-      <c r="AKC1" s="148"/>
-      <c r="AKD1" s="148"/>
-      <c r="AKE1" s="148"/>
-      <c r="AKF1" s="148"/>
-      <c r="AKG1" s="148"/>
-      <c r="AKH1" s="148"/>
-      <c r="AKI1" s="148"/>
-      <c r="AKJ1" s="148"/>
-      <c r="AKK1" s="148"/>
-      <c r="AKL1" s="148"/>
-      <c r="AKM1" s="148"/>
-      <c r="AKN1" s="148"/>
-      <c r="AKO1" s="148"/>
-      <c r="AKP1" s="148"/>
-      <c r="AKQ1" s="148"/>
-      <c r="AKR1" s="148"/>
-      <c r="AKS1" s="148"/>
-      <c r="AKT1" s="148"/>
-      <c r="AKU1" s="148"/>
-      <c r="AKV1" s="148"/>
-      <c r="AKW1" s="148"/>
-      <c r="AKX1" s="148"/>
-      <c r="AKY1" s="148"/>
-      <c r="AKZ1" s="148"/>
-      <c r="ALA1" s="148"/>
-      <c r="ALB1" s="148"/>
-      <c r="ALC1" s="148"/>
-      <c r="ALD1" s="148"/>
-      <c r="ALE1" s="148"/>
-      <c r="ALF1" s="148"/>
-      <c r="ALG1" s="148"/>
-      <c r="ALH1" s="148"/>
-      <c r="ALI1" s="148"/>
-      <c r="ALJ1" s="148"/>
-      <c r="ALK1" s="148"/>
-      <c r="ALL1" s="148"/>
-      <c r="ALM1" s="148"/>
-      <c r="ALN1" s="148"/>
-      <c r="ALO1" s="148"/>
-      <c r="ALP1" s="148"/>
-      <c r="ALQ1" s="148"/>
-      <c r="ALR1" s="148"/>
-      <c r="ALS1" s="148"/>
-      <c r="ALT1" s="148"/>
-      <c r="ALU1" s="148"/>
-      <c r="ALV1" s="148"/>
-      <c r="ALW1" s="148"/>
-      <c r="ALX1" s="148"/>
-      <c r="ALY1" s="148"/>
-      <c r="ALZ1" s="148"/>
-      <c r="AMA1" s="148"/>
-      <c r="AMB1" s="148"/>
-      <c r="AMC1" s="148"/>
-      <c r="AMD1" s="148"/>
-      <c r="AME1" s="148"/>
-      <c r="AMF1" s="148"/>
-      <c r="AMG1" s="148"/>
-      <c r="AMH1" s="148"/>
-      <c r="AMI1" s="148"/>
-      <c r="AMJ1" s="148"/>
-      <c r="AMK1" s="148"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="145"/>
+      <c r="O1" s="145"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="145"/>
+      <c r="S1" s="145"/>
+      <c r="T1" s="145"/>
+      <c r="U1" s="145"/>
+      <c r="V1" s="145"/>
+      <c r="W1" s="145"/>
+      <c r="X1" s="145"/>
+      <c r="Y1" s="145"/>
+      <c r="Z1" s="145"/>
+      <c r="AA1" s="145"/>
+      <c r="AB1" s="145"/>
+      <c r="AC1" s="145"/>
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="145"/>
+      <c r="AG1" s="145"/>
+      <c r="AH1" s="145"/>
+      <c r="AI1" s="145"/>
+      <c r="AJ1" s="145"/>
+      <c r="AK1" s="145"/>
+      <c r="AL1" s="145"/>
+      <c r="AM1" s="145"/>
+      <c r="AN1" s="145"/>
+      <c r="AO1" s="145"/>
+      <c r="AP1" s="145"/>
+      <c r="AQ1" s="145"/>
+      <c r="AR1" s="145"/>
+      <c r="AS1" s="145"/>
+      <c r="AT1" s="145"/>
+      <c r="AU1" s="145"/>
+      <c r="AV1" s="145"/>
+      <c r="AW1" s="145"/>
+      <c r="AX1" s="145"/>
+      <c r="AY1" s="145"/>
+      <c r="AZ1" s="145"/>
+      <c r="BA1" s="145"/>
+      <c r="BB1" s="145"/>
+      <c r="BC1" s="145"/>
+      <c r="BD1" s="145"/>
+      <c r="BE1" s="145"/>
+      <c r="BF1" s="145"/>
+      <c r="BG1" s="145"/>
+      <c r="BH1" s="145"/>
+      <c r="BI1" s="145"/>
+      <c r="BJ1" s="145"/>
+      <c r="BK1" s="145"/>
+      <c r="BL1" s="145"/>
+      <c r="BM1" s="145"/>
+      <c r="BN1" s="145"/>
+      <c r="BO1" s="145"/>
+      <c r="BP1" s="145"/>
+      <c r="BQ1" s="145"/>
+      <c r="BR1" s="145"/>
+      <c r="BS1" s="145"/>
+      <c r="BT1" s="145"/>
+      <c r="BU1" s="145"/>
+      <c r="BV1" s="145"/>
+      <c r="BW1" s="145"/>
+      <c r="BX1" s="145"/>
+      <c r="BY1" s="145"/>
+      <c r="BZ1" s="145"/>
+      <c r="CA1" s="145"/>
+      <c r="CB1" s="145"/>
+      <c r="CC1" s="145"/>
+      <c r="CD1" s="145"/>
+      <c r="CE1" s="145"/>
+      <c r="CF1" s="145"/>
+      <c r="CG1" s="145"/>
+      <c r="CH1" s="145"/>
+      <c r="CI1" s="145"/>
+      <c r="CJ1" s="145"/>
+      <c r="CK1" s="145"/>
+      <c r="CL1" s="145"/>
+      <c r="CM1" s="145"/>
+      <c r="CN1" s="145"/>
+      <c r="CO1" s="145"/>
+      <c r="CP1" s="145"/>
+      <c r="CQ1" s="145"/>
+      <c r="CR1" s="145"/>
+      <c r="CS1" s="145"/>
+      <c r="CT1" s="145"/>
+      <c r="CU1" s="145"/>
+      <c r="CV1" s="145"/>
+      <c r="CW1" s="145"/>
+      <c r="CX1" s="145"/>
+      <c r="CY1" s="145"/>
+      <c r="CZ1" s="145"/>
+      <c r="DA1" s="145"/>
+      <c r="DB1" s="145"/>
+      <c r="DC1" s="145"/>
+      <c r="DD1" s="145"/>
+      <c r="DE1" s="145"/>
+      <c r="DF1" s="145"/>
+      <c r="DG1" s="145"/>
+      <c r="DH1" s="145"/>
+      <c r="DI1" s="145"/>
+      <c r="DJ1" s="145"/>
+      <c r="DK1" s="145"/>
+      <c r="DL1" s="145"/>
+      <c r="DM1" s="145"/>
+      <c r="DN1" s="145"/>
+      <c r="DO1" s="145"/>
+      <c r="DP1" s="145"/>
+      <c r="DQ1" s="145"/>
+      <c r="DR1" s="145"/>
+      <c r="DS1" s="145"/>
+      <c r="DT1" s="145"/>
+      <c r="DU1" s="145"/>
+      <c r="DV1" s="145"/>
+      <c r="DW1" s="145"/>
+      <c r="DX1" s="145"/>
+      <c r="DY1" s="145"/>
+      <c r="DZ1" s="145"/>
+      <c r="EA1" s="145"/>
+      <c r="EB1" s="145"/>
+      <c r="EC1" s="145"/>
+      <c r="ED1" s="145"/>
+      <c r="EE1" s="145"/>
+      <c r="EF1" s="145"/>
+      <c r="EG1" s="145"/>
+      <c r="EH1" s="145"/>
+      <c r="EI1" s="145"/>
+      <c r="EJ1" s="145"/>
+      <c r="EK1" s="145"/>
+      <c r="EL1" s="145"/>
+      <c r="EM1" s="145"/>
+      <c r="EN1" s="145"/>
+      <c r="EO1" s="145"/>
+      <c r="EP1" s="145"/>
+      <c r="EQ1" s="145"/>
+      <c r="ER1" s="145"/>
+      <c r="ES1" s="145"/>
+      <c r="ET1" s="145"/>
+      <c r="EU1" s="145"/>
+      <c r="EV1" s="145"/>
+      <c r="EW1" s="145"/>
+      <c r="EX1" s="145"/>
+      <c r="EY1" s="145"/>
+      <c r="EZ1" s="145"/>
+      <c r="FA1" s="145"/>
+      <c r="FB1" s="145"/>
+      <c r="FC1" s="145"/>
+      <c r="FD1" s="145"/>
+      <c r="FE1" s="145"/>
+      <c r="FF1" s="145"/>
+      <c r="FG1" s="145"/>
+      <c r="FH1" s="145"/>
+      <c r="FI1" s="145"/>
+      <c r="FJ1" s="145"/>
+      <c r="FK1" s="145"/>
+      <c r="FL1" s="145"/>
+      <c r="FM1" s="145"/>
+      <c r="FN1" s="145"/>
+      <c r="FO1" s="145"/>
+      <c r="FP1" s="145"/>
+      <c r="FQ1" s="145"/>
+      <c r="FR1" s="145"/>
+      <c r="FS1" s="145"/>
+      <c r="FT1" s="145"/>
+      <c r="FU1" s="145"/>
+      <c r="FV1" s="145"/>
+      <c r="FW1" s="145"/>
+      <c r="FX1" s="145"/>
+      <c r="FY1" s="145"/>
+      <c r="FZ1" s="145"/>
+      <c r="GA1" s="145"/>
+      <c r="GB1" s="145"/>
+      <c r="GC1" s="145"/>
+      <c r="GD1" s="145"/>
+      <c r="GE1" s="145"/>
+      <c r="GF1" s="145"/>
+      <c r="GG1" s="145"/>
+      <c r="GH1" s="145"/>
+      <c r="GI1" s="145"/>
+      <c r="GJ1" s="145"/>
+      <c r="GK1" s="145"/>
+      <c r="GL1" s="145"/>
+      <c r="GM1" s="145"/>
+      <c r="GN1" s="145"/>
+      <c r="GO1" s="145"/>
+      <c r="GP1" s="145"/>
+      <c r="GQ1" s="145"/>
+      <c r="GR1" s="145"/>
+      <c r="GS1" s="145"/>
+      <c r="GT1" s="145"/>
+      <c r="GU1" s="145"/>
+      <c r="GV1" s="145"/>
+      <c r="GW1" s="145"/>
+      <c r="GX1" s="145"/>
+      <c r="GY1" s="145"/>
+      <c r="GZ1" s="145"/>
+      <c r="HA1" s="145"/>
+      <c r="HB1" s="145"/>
+      <c r="HC1" s="145"/>
+      <c r="HD1" s="145"/>
+      <c r="HE1" s="145"/>
+      <c r="HF1" s="145"/>
+      <c r="HG1" s="145"/>
+      <c r="HH1" s="145"/>
+      <c r="HI1" s="145"/>
+      <c r="HJ1" s="145"/>
+      <c r="HK1" s="145"/>
+      <c r="HL1" s="145"/>
+      <c r="HM1" s="145"/>
+      <c r="HN1" s="145"/>
+      <c r="HO1" s="145"/>
+      <c r="HP1" s="145"/>
+      <c r="HQ1" s="145"/>
+      <c r="HR1" s="145"/>
+      <c r="HS1" s="145"/>
+      <c r="HT1" s="145"/>
+      <c r="HU1" s="145"/>
+      <c r="HV1" s="145"/>
+      <c r="HW1" s="145"/>
+      <c r="HX1" s="145"/>
+      <c r="HY1" s="145"/>
+      <c r="HZ1" s="145"/>
+      <c r="IA1" s="145"/>
+      <c r="IB1" s="145"/>
+      <c r="IC1" s="145"/>
+      <c r="ID1" s="145"/>
+      <c r="IE1" s="145"/>
+      <c r="IF1" s="145"/>
+      <c r="IG1" s="145"/>
+      <c r="IH1" s="145"/>
+      <c r="II1" s="145"/>
+      <c r="IJ1" s="145"/>
+      <c r="IK1" s="145"/>
+      <c r="IL1" s="145"/>
+      <c r="IM1" s="145"/>
+      <c r="IN1" s="145"/>
+      <c r="IO1" s="145"/>
+      <c r="IP1" s="145"/>
+      <c r="IQ1" s="145"/>
+      <c r="IR1" s="145"/>
+      <c r="IS1" s="145"/>
+      <c r="IT1" s="145"/>
+      <c r="IU1" s="145"/>
+      <c r="IV1" s="145"/>
+      <c r="IW1" s="145"/>
+      <c r="IX1" s="145"/>
+      <c r="IY1" s="145"/>
+      <c r="IZ1" s="145"/>
+      <c r="JA1" s="145"/>
+      <c r="JB1" s="145"/>
+      <c r="JC1" s="145"/>
+      <c r="JD1" s="145"/>
+      <c r="JE1" s="145"/>
+      <c r="JF1" s="145"/>
+      <c r="JG1" s="145"/>
+      <c r="JH1" s="145"/>
+      <c r="JI1" s="145"/>
+      <c r="JJ1" s="145"/>
+      <c r="JK1" s="145"/>
+      <c r="JL1" s="145"/>
+      <c r="JM1" s="145"/>
+      <c r="JN1" s="145"/>
+      <c r="JO1" s="145"/>
+      <c r="JP1" s="145"/>
+      <c r="JQ1" s="145"/>
+      <c r="JR1" s="145"/>
+      <c r="JS1" s="145"/>
+      <c r="JT1" s="145"/>
+      <c r="JU1" s="145"/>
+      <c r="JV1" s="145"/>
+      <c r="JW1" s="145"/>
+      <c r="JX1" s="145"/>
+      <c r="JY1" s="145"/>
+      <c r="JZ1" s="145"/>
+      <c r="KA1" s="145"/>
+      <c r="KB1" s="145"/>
+      <c r="KC1" s="145"/>
+      <c r="KD1" s="145"/>
+      <c r="KE1" s="145"/>
+      <c r="KF1" s="145"/>
+      <c r="KG1" s="145"/>
+      <c r="KH1" s="145"/>
+      <c r="KI1" s="145"/>
+      <c r="KJ1" s="145"/>
+      <c r="KK1" s="145"/>
+      <c r="KL1" s="145"/>
+      <c r="KM1" s="145"/>
+      <c r="KN1" s="145"/>
+      <c r="KO1" s="145"/>
+      <c r="KP1" s="145"/>
+      <c r="KQ1" s="145"/>
+      <c r="KR1" s="145"/>
+      <c r="KS1" s="145"/>
+      <c r="KT1" s="145"/>
+      <c r="KU1" s="145"/>
+      <c r="KV1" s="145"/>
+      <c r="KW1" s="145"/>
+      <c r="KX1" s="145"/>
+      <c r="KY1" s="145"/>
+      <c r="KZ1" s="145"/>
+      <c r="LA1" s="145"/>
+      <c r="LB1" s="145"/>
+      <c r="LC1" s="145"/>
+      <c r="LD1" s="145"/>
+      <c r="LE1" s="145"/>
+      <c r="LF1" s="145"/>
+      <c r="LG1" s="145"/>
+      <c r="LH1" s="145"/>
+      <c r="LI1" s="145"/>
+      <c r="LJ1" s="145"/>
+      <c r="LK1" s="145"/>
+      <c r="LL1" s="145"/>
+      <c r="LM1" s="145"/>
+      <c r="LN1" s="145"/>
+      <c r="LO1" s="145"/>
+      <c r="LP1" s="145"/>
+      <c r="LQ1" s="145"/>
+      <c r="LR1" s="145"/>
+      <c r="LS1" s="145"/>
+      <c r="LT1" s="145"/>
+      <c r="LU1" s="145"/>
+      <c r="LV1" s="145"/>
+      <c r="LW1" s="145"/>
+      <c r="LX1" s="145"/>
+      <c r="LY1" s="145"/>
+      <c r="LZ1" s="145"/>
+      <c r="MA1" s="145"/>
+      <c r="MB1" s="145"/>
+      <c r="MC1" s="145"/>
+      <c r="MD1" s="145"/>
+      <c r="ME1" s="145"/>
+      <c r="MF1" s="145"/>
+      <c r="MG1" s="145"/>
+      <c r="MH1" s="145"/>
+      <c r="MI1" s="145"/>
+      <c r="MJ1" s="145"/>
+      <c r="MK1" s="145"/>
+      <c r="ML1" s="145"/>
+      <c r="MM1" s="145"/>
+      <c r="MN1" s="145"/>
+      <c r="MO1" s="145"/>
+      <c r="MP1" s="145"/>
+      <c r="MQ1" s="145"/>
+      <c r="MR1" s="145"/>
+      <c r="MS1" s="145"/>
+      <c r="MT1" s="145"/>
+      <c r="MU1" s="145"/>
+      <c r="MV1" s="145"/>
+      <c r="MW1" s="145"/>
+      <c r="MX1" s="145"/>
+      <c r="MY1" s="145"/>
+      <c r="MZ1" s="145"/>
+      <c r="NA1" s="145"/>
+      <c r="NB1" s="145"/>
+      <c r="NC1" s="145"/>
+      <c r="ND1" s="145"/>
+      <c r="NE1" s="145"/>
+      <c r="NF1" s="145"/>
+      <c r="NG1" s="145"/>
+      <c r="NH1" s="145"/>
+      <c r="NI1" s="145"/>
+      <c r="NJ1" s="145"/>
+      <c r="NK1" s="145"/>
+      <c r="NL1" s="145"/>
+      <c r="NM1" s="145"/>
+      <c r="NN1" s="145"/>
+      <c r="NO1" s="145"/>
+      <c r="NP1" s="145"/>
+      <c r="NQ1" s="145"/>
+      <c r="NR1" s="145"/>
+      <c r="NS1" s="145"/>
+      <c r="NT1" s="145"/>
+      <c r="NU1" s="145"/>
+      <c r="NV1" s="145"/>
+      <c r="NW1" s="145"/>
+      <c r="NX1" s="145"/>
+      <c r="NY1" s="145"/>
+      <c r="NZ1" s="145"/>
+      <c r="OA1" s="145"/>
+      <c r="OB1" s="145"/>
+      <c r="OC1" s="145"/>
+      <c r="OD1" s="145"/>
+      <c r="OE1" s="145"/>
+      <c r="OF1" s="145"/>
+      <c r="OG1" s="145"/>
+      <c r="OH1" s="145"/>
+      <c r="OI1" s="145"/>
+      <c r="OJ1" s="145"/>
+      <c r="OK1" s="145"/>
+      <c r="OL1" s="145"/>
+      <c r="OM1" s="145"/>
+      <c r="ON1" s="145"/>
+      <c r="OO1" s="145"/>
+      <c r="OP1" s="145"/>
+      <c r="OQ1" s="145"/>
+      <c r="OR1" s="145"/>
+      <c r="OS1" s="145"/>
+      <c r="OT1" s="145"/>
+      <c r="OU1" s="145"/>
+      <c r="OV1" s="145"/>
+      <c r="OW1" s="145"/>
+      <c r="OX1" s="145"/>
+      <c r="OY1" s="145"/>
+      <c r="OZ1" s="145"/>
+      <c r="PA1" s="145"/>
+      <c r="PB1" s="145"/>
+      <c r="PC1" s="145"/>
+      <c r="PD1" s="145"/>
+      <c r="PE1" s="145"/>
+      <c r="PF1" s="145"/>
+      <c r="PG1" s="145"/>
+      <c r="PH1" s="145"/>
+      <c r="PI1" s="145"/>
+      <c r="PJ1" s="145"/>
+      <c r="PK1" s="145"/>
+      <c r="PL1" s="145"/>
+      <c r="PM1" s="145"/>
+      <c r="PN1" s="145"/>
+      <c r="PO1" s="145"/>
+      <c r="PP1" s="145"/>
+      <c r="PQ1" s="145"/>
+      <c r="PR1" s="145"/>
+      <c r="PS1" s="145"/>
+      <c r="PT1" s="145"/>
+      <c r="PU1" s="145"/>
+      <c r="PV1" s="145"/>
+      <c r="PW1" s="145"/>
+      <c r="PX1" s="145"/>
+      <c r="PY1" s="145"/>
+      <c r="PZ1" s="145"/>
+      <c r="QA1" s="145"/>
+      <c r="QB1" s="145"/>
+      <c r="QC1" s="145"/>
+      <c r="QD1" s="145"/>
+      <c r="QE1" s="145"/>
+      <c r="QF1" s="145"/>
+      <c r="QG1" s="145"/>
+      <c r="QH1" s="145"/>
+      <c r="QI1" s="145"/>
+      <c r="QJ1" s="145"/>
+      <c r="QK1" s="145"/>
+      <c r="QL1" s="145"/>
+      <c r="QM1" s="145"/>
+      <c r="QN1" s="145"/>
+      <c r="QO1" s="145"/>
+      <c r="QP1" s="145"/>
+      <c r="QQ1" s="145"/>
+      <c r="QR1" s="145"/>
+      <c r="QS1" s="145"/>
+      <c r="QT1" s="145"/>
+      <c r="QU1" s="145"/>
+      <c r="QV1" s="145"/>
+      <c r="QW1" s="145"/>
+      <c r="QX1" s="145"/>
+      <c r="QY1" s="145"/>
+      <c r="QZ1" s="145"/>
+      <c r="RA1" s="145"/>
+      <c r="RB1" s="145"/>
+      <c r="RC1" s="145"/>
+      <c r="RD1" s="145"/>
+      <c r="RE1" s="145"/>
+      <c r="RF1" s="145"/>
+      <c r="RG1" s="145"/>
+      <c r="RH1" s="145"/>
+      <c r="RI1" s="145"/>
+      <c r="RJ1" s="145"/>
+      <c r="RK1" s="145"/>
+      <c r="RL1" s="145"/>
+      <c r="RM1" s="145"/>
+      <c r="RN1" s="145"/>
+      <c r="RO1" s="145"/>
+      <c r="RP1" s="145"/>
+      <c r="RQ1" s="145"/>
+      <c r="RR1" s="145"/>
+      <c r="RS1" s="145"/>
+      <c r="RT1" s="145"/>
+      <c r="RU1" s="145"/>
+      <c r="RV1" s="145"/>
+      <c r="RW1" s="145"/>
+      <c r="RX1" s="145"/>
+      <c r="RY1" s="145"/>
+      <c r="RZ1" s="145"/>
+      <c r="SA1" s="145"/>
+      <c r="SB1" s="145"/>
+      <c r="SC1" s="145"/>
+      <c r="SD1" s="145"/>
+      <c r="SE1" s="145"/>
+      <c r="SF1" s="145"/>
+      <c r="SG1" s="145"/>
+      <c r="SH1" s="145"/>
+      <c r="SI1" s="145"/>
+      <c r="SJ1" s="145"/>
+      <c r="SK1" s="145"/>
+      <c r="SL1" s="145"/>
+      <c r="SM1" s="145"/>
+      <c r="SN1" s="145"/>
+      <c r="SO1" s="145"/>
+      <c r="SP1" s="145"/>
+      <c r="SQ1" s="145"/>
+      <c r="SR1" s="145"/>
+      <c r="SS1" s="145"/>
+      <c r="ST1" s="145"/>
+      <c r="SU1" s="145"/>
+      <c r="SV1" s="145"/>
+      <c r="SW1" s="145"/>
+      <c r="SX1" s="145"/>
+      <c r="SY1" s="145"/>
+      <c r="SZ1" s="145"/>
+      <c r="TA1" s="145"/>
+      <c r="TB1" s="145"/>
+      <c r="TC1" s="145"/>
+      <c r="TD1" s="145"/>
+      <c r="TE1" s="145"/>
+      <c r="TF1" s="145"/>
+      <c r="TG1" s="145"/>
+      <c r="TH1" s="145"/>
+      <c r="TI1" s="145"/>
+      <c r="TJ1" s="145"/>
+      <c r="TK1" s="145"/>
+      <c r="TL1" s="145"/>
+      <c r="TM1" s="145"/>
+      <c r="TN1" s="145"/>
+      <c r="TO1" s="145"/>
+      <c r="TP1" s="145"/>
+      <c r="TQ1" s="145"/>
+      <c r="TR1" s="145"/>
+      <c r="TS1" s="145"/>
+      <c r="TT1" s="145"/>
+      <c r="TU1" s="145"/>
+      <c r="TV1" s="145"/>
+      <c r="TW1" s="145"/>
+      <c r="TX1" s="145"/>
+      <c r="TY1" s="145"/>
+      <c r="TZ1" s="145"/>
+      <c r="UA1" s="145"/>
+      <c r="UB1" s="145"/>
+      <c r="UC1" s="145"/>
+      <c r="UD1" s="145"/>
+      <c r="UE1" s="145"/>
+      <c r="UF1" s="145"/>
+      <c r="UG1" s="145"/>
+      <c r="UH1" s="145"/>
+      <c r="UI1" s="145"/>
+      <c r="UJ1" s="145"/>
+      <c r="UK1" s="145"/>
+      <c r="UL1" s="145"/>
+      <c r="UM1" s="145"/>
+      <c r="UN1" s="145"/>
+      <c r="UO1" s="145"/>
+      <c r="UP1" s="145"/>
+      <c r="UQ1" s="145"/>
+      <c r="UR1" s="145"/>
+      <c r="US1" s="145"/>
+      <c r="UT1" s="145"/>
+      <c r="UU1" s="145"/>
+      <c r="UV1" s="145"/>
+      <c r="UW1" s="145"/>
+      <c r="UX1" s="145"/>
+      <c r="UY1" s="145"/>
+      <c r="UZ1" s="145"/>
+      <c r="VA1" s="145"/>
+      <c r="VB1" s="145"/>
+      <c r="VC1" s="145"/>
+      <c r="VD1" s="145"/>
+      <c r="VE1" s="145"/>
+      <c r="VF1" s="145"/>
+      <c r="VG1" s="145"/>
+      <c r="VH1" s="145"/>
+      <c r="VI1" s="145"/>
+      <c r="VJ1" s="145"/>
+      <c r="VK1" s="145"/>
+      <c r="VL1" s="145"/>
+      <c r="VM1" s="145"/>
+      <c r="VN1" s="145"/>
+      <c r="VO1" s="145"/>
+      <c r="VP1" s="145"/>
+      <c r="VQ1" s="145"/>
+      <c r="VR1" s="145"/>
+      <c r="VS1" s="145"/>
+      <c r="VT1" s="145"/>
+      <c r="VU1" s="145"/>
+      <c r="VV1" s="145"/>
+      <c r="VW1" s="145"/>
+      <c r="VX1" s="145"/>
+      <c r="VY1" s="145"/>
+      <c r="VZ1" s="145"/>
+      <c r="WA1" s="145"/>
+      <c r="WB1" s="145"/>
+      <c r="WC1" s="145"/>
+      <c r="WD1" s="145"/>
+      <c r="WE1" s="145"/>
+      <c r="WF1" s="145"/>
+      <c r="WG1" s="145"/>
+      <c r="WH1" s="145"/>
+      <c r="WI1" s="145"/>
+      <c r="WJ1" s="145"/>
+      <c r="WK1" s="145"/>
+      <c r="WL1" s="145"/>
+      <c r="WM1" s="145"/>
+      <c r="WN1" s="145"/>
+      <c r="WO1" s="145"/>
+      <c r="WP1" s="145"/>
+      <c r="WQ1" s="145"/>
+      <c r="WR1" s="145"/>
+      <c r="WS1" s="145"/>
+      <c r="WT1" s="145"/>
+      <c r="WU1" s="145"/>
+      <c r="WV1" s="145"/>
+      <c r="WW1" s="145"/>
+      <c r="WX1" s="145"/>
+      <c r="WY1" s="145"/>
+      <c r="WZ1" s="145"/>
+      <c r="XA1" s="145"/>
+      <c r="XB1" s="145"/>
+      <c r="XC1" s="145"/>
+      <c r="XD1" s="145"/>
+      <c r="XE1" s="145"/>
+      <c r="XF1" s="145"/>
+      <c r="XG1" s="145"/>
+      <c r="XH1" s="145"/>
+      <c r="XI1" s="145"/>
+      <c r="XJ1" s="145"/>
+      <c r="XK1" s="145"/>
+      <c r="XL1" s="145"/>
+      <c r="XM1" s="145"/>
+      <c r="XN1" s="145"/>
+      <c r="XO1" s="145"/>
+      <c r="XP1" s="145"/>
+      <c r="XQ1" s="145"/>
+      <c r="XR1" s="145"/>
+      <c r="XS1" s="145"/>
+      <c r="XT1" s="145"/>
+      <c r="XU1" s="145"/>
+      <c r="XV1" s="145"/>
+      <c r="XW1" s="145"/>
+      <c r="XX1" s="145"/>
+      <c r="XY1" s="145"/>
+      <c r="XZ1" s="145"/>
+      <c r="YA1" s="145"/>
+      <c r="YB1" s="145"/>
+      <c r="YC1" s="145"/>
+      <c r="YD1" s="145"/>
+      <c r="YE1" s="145"/>
+      <c r="YF1" s="145"/>
+      <c r="YG1" s="145"/>
+      <c r="YH1" s="145"/>
+      <c r="YI1" s="145"/>
+      <c r="YJ1" s="145"/>
+      <c r="YK1" s="145"/>
+      <c r="YL1" s="145"/>
+      <c r="YM1" s="145"/>
+      <c r="YN1" s="145"/>
+      <c r="YO1" s="145"/>
+      <c r="YP1" s="145"/>
+      <c r="YQ1" s="145"/>
+      <c r="YR1" s="145"/>
+      <c r="YS1" s="145"/>
+      <c r="YT1" s="145"/>
+      <c r="YU1" s="145"/>
+      <c r="YV1" s="145"/>
+      <c r="YW1" s="145"/>
+      <c r="YX1" s="145"/>
+      <c r="YY1" s="145"/>
+      <c r="YZ1" s="145"/>
+      <c r="ZA1" s="145"/>
+      <c r="ZB1" s="145"/>
+      <c r="ZC1" s="145"/>
+      <c r="ZD1" s="145"/>
+      <c r="ZE1" s="145"/>
+      <c r="ZF1" s="145"/>
+      <c r="ZG1" s="145"/>
+      <c r="ZH1" s="145"/>
+      <c r="ZI1" s="145"/>
+      <c r="ZJ1" s="145"/>
+      <c r="ZK1" s="145"/>
+      <c r="ZL1" s="145"/>
+      <c r="ZM1" s="145"/>
+      <c r="ZN1" s="145"/>
+      <c r="ZO1" s="145"/>
+      <c r="ZP1" s="145"/>
+      <c r="ZQ1" s="145"/>
+      <c r="ZR1" s="145"/>
+      <c r="ZS1" s="145"/>
+      <c r="ZT1" s="145"/>
+      <c r="ZU1" s="145"/>
+      <c r="ZV1" s="145"/>
+      <c r="ZW1" s="145"/>
+      <c r="ZX1" s="145"/>
+      <c r="ZY1" s="145"/>
+      <c r="ZZ1" s="145"/>
+      <c r="AAA1" s="145"/>
+      <c r="AAB1" s="145"/>
+      <c r="AAC1" s="145"/>
+      <c r="AAD1" s="145"/>
+      <c r="AAE1" s="145"/>
+      <c r="AAF1" s="145"/>
+      <c r="AAG1" s="145"/>
+      <c r="AAH1" s="145"/>
+      <c r="AAI1" s="145"/>
+      <c r="AAJ1" s="145"/>
+      <c r="AAK1" s="145"/>
+      <c r="AAL1" s="145"/>
+      <c r="AAM1" s="145"/>
+      <c r="AAN1" s="145"/>
+      <c r="AAO1" s="145"/>
+      <c r="AAP1" s="145"/>
+      <c r="AAQ1" s="145"/>
+      <c r="AAR1" s="145"/>
+      <c r="AAS1" s="145"/>
+      <c r="AAT1" s="145"/>
+      <c r="AAU1" s="145"/>
+      <c r="AAV1" s="145"/>
+      <c r="AAW1" s="145"/>
+      <c r="AAX1" s="145"/>
+      <c r="AAY1" s="145"/>
+      <c r="AAZ1" s="145"/>
+      <c r="ABA1" s="145"/>
+      <c r="ABB1" s="145"/>
+      <c r="ABC1" s="145"/>
+      <c r="ABD1" s="145"/>
+      <c r="ABE1" s="145"/>
+      <c r="ABF1" s="145"/>
+      <c r="ABG1" s="145"/>
+      <c r="ABH1" s="145"/>
+      <c r="ABI1" s="145"/>
+      <c r="ABJ1" s="145"/>
+      <c r="ABK1" s="145"/>
+      <c r="ABL1" s="145"/>
+      <c r="ABM1" s="145"/>
+      <c r="ABN1" s="145"/>
+      <c r="ABO1" s="145"/>
+      <c r="ABP1" s="145"/>
+      <c r="ABQ1" s="145"/>
+      <c r="ABR1" s="145"/>
+      <c r="ABS1" s="145"/>
+      <c r="ABT1" s="145"/>
+      <c r="ABU1" s="145"/>
+      <c r="ABV1" s="145"/>
+      <c r="ABW1" s="145"/>
+      <c r="ABX1" s="145"/>
+      <c r="ABY1" s="145"/>
+      <c r="ABZ1" s="145"/>
+      <c r="ACA1" s="145"/>
+      <c r="ACB1" s="145"/>
+      <c r="ACC1" s="145"/>
+      <c r="ACD1" s="145"/>
+      <c r="ACE1" s="145"/>
+      <c r="ACF1" s="145"/>
+      <c r="ACG1" s="145"/>
+      <c r="ACH1" s="145"/>
+      <c r="ACI1" s="145"/>
+      <c r="ACJ1" s="145"/>
+      <c r="ACK1" s="145"/>
+      <c r="ACL1" s="145"/>
+      <c r="ACM1" s="145"/>
+      <c r="ACN1" s="145"/>
+      <c r="ACO1" s="145"/>
+      <c r="ACP1" s="145"/>
+      <c r="ACQ1" s="145"/>
+      <c r="ACR1" s="145"/>
+      <c r="ACS1" s="145"/>
+      <c r="ACT1" s="145"/>
+      <c r="ACU1" s="145"/>
+      <c r="ACV1" s="145"/>
+      <c r="ACW1" s="145"/>
+      <c r="ACX1" s="145"/>
+      <c r="ACY1" s="145"/>
+      <c r="ACZ1" s="145"/>
+      <c r="ADA1" s="145"/>
+      <c r="ADB1" s="145"/>
+      <c r="ADC1" s="145"/>
+      <c r="ADD1" s="145"/>
+      <c r="ADE1" s="145"/>
+      <c r="ADF1" s="145"/>
+      <c r="ADG1" s="145"/>
+      <c r="ADH1" s="145"/>
+      <c r="ADI1" s="145"/>
+      <c r="ADJ1" s="145"/>
+      <c r="ADK1" s="145"/>
+      <c r="ADL1" s="145"/>
+      <c r="ADM1" s="145"/>
+      <c r="ADN1" s="145"/>
+      <c r="ADO1" s="145"/>
+      <c r="ADP1" s="145"/>
+      <c r="ADQ1" s="145"/>
+      <c r="ADR1" s="145"/>
+      <c r="ADS1" s="145"/>
+      <c r="ADT1" s="145"/>
+      <c r="ADU1" s="145"/>
+      <c r="ADV1" s="145"/>
+      <c r="ADW1" s="145"/>
+      <c r="ADX1" s="145"/>
+      <c r="ADY1" s="145"/>
+      <c r="ADZ1" s="145"/>
+      <c r="AEA1" s="145"/>
+      <c r="AEB1" s="145"/>
+      <c r="AEC1" s="145"/>
+      <c r="AED1" s="145"/>
+      <c r="AEE1" s="145"/>
+      <c r="AEF1" s="145"/>
+      <c r="AEG1" s="145"/>
+      <c r="AEH1" s="145"/>
+      <c r="AEI1" s="145"/>
+      <c r="AEJ1" s="145"/>
+      <c r="AEK1" s="145"/>
+      <c r="AEL1" s="145"/>
+      <c r="AEM1" s="145"/>
+      <c r="AEN1" s="145"/>
+      <c r="AEO1" s="145"/>
+      <c r="AEP1" s="145"/>
+      <c r="AEQ1" s="145"/>
+      <c r="AER1" s="145"/>
+      <c r="AES1" s="145"/>
+      <c r="AET1" s="145"/>
+      <c r="AEU1" s="145"/>
+      <c r="AEV1" s="145"/>
+      <c r="AEW1" s="145"/>
+      <c r="AEX1" s="145"/>
+      <c r="AEY1" s="145"/>
+      <c r="AEZ1" s="145"/>
+      <c r="AFA1" s="145"/>
+      <c r="AFB1" s="145"/>
+      <c r="AFC1" s="145"/>
+      <c r="AFD1" s="145"/>
+      <c r="AFE1" s="145"/>
+      <c r="AFF1" s="145"/>
+      <c r="AFG1" s="145"/>
+      <c r="AFH1" s="145"/>
+      <c r="AFI1" s="145"/>
+      <c r="AFJ1" s="145"/>
+      <c r="AFK1" s="145"/>
+      <c r="AFL1" s="145"/>
+      <c r="AFM1" s="145"/>
+      <c r="AFN1" s="145"/>
+      <c r="AFO1" s="145"/>
+      <c r="AFP1" s="145"/>
+      <c r="AFQ1" s="145"/>
+      <c r="AFR1" s="145"/>
+      <c r="AFS1" s="145"/>
+      <c r="AFT1" s="145"/>
+      <c r="AFU1" s="145"/>
+      <c r="AFV1" s="145"/>
+      <c r="AFW1" s="145"/>
+      <c r="AFX1" s="145"/>
+      <c r="AFY1" s="145"/>
+      <c r="AFZ1" s="145"/>
+      <c r="AGA1" s="145"/>
+      <c r="AGB1" s="145"/>
+      <c r="AGC1" s="145"/>
+      <c r="AGD1" s="145"/>
+      <c r="AGE1" s="145"/>
+      <c r="AGF1" s="145"/>
+      <c r="AGG1" s="145"/>
+      <c r="AGH1" s="145"/>
+      <c r="AGI1" s="145"/>
+      <c r="AGJ1" s="145"/>
+      <c r="AGK1" s="145"/>
+      <c r="AGL1" s="145"/>
+      <c r="AGM1" s="145"/>
+      <c r="AGN1" s="145"/>
+      <c r="AGO1" s="145"/>
+      <c r="AGP1" s="145"/>
+      <c r="AGQ1" s="145"/>
+      <c r="AGR1" s="145"/>
+      <c r="AGS1" s="145"/>
+      <c r="AGT1" s="145"/>
+      <c r="AGU1" s="145"/>
+      <c r="AGV1" s="145"/>
+      <c r="AGW1" s="145"/>
+      <c r="AGX1" s="145"/>
+      <c r="AGY1" s="145"/>
+      <c r="AGZ1" s="145"/>
+      <c r="AHA1" s="145"/>
+      <c r="AHB1" s="145"/>
+      <c r="AHC1" s="145"/>
+      <c r="AHD1" s="145"/>
+      <c r="AHE1" s="145"/>
+      <c r="AHF1" s="145"/>
+      <c r="AHG1" s="145"/>
+      <c r="AHH1" s="145"/>
+      <c r="AHI1" s="145"/>
+      <c r="AHJ1" s="145"/>
+      <c r="AHK1" s="145"/>
+      <c r="AHL1" s="145"/>
+      <c r="AHM1" s="145"/>
+      <c r="AHN1" s="145"/>
+      <c r="AHO1" s="145"/>
+      <c r="AHP1" s="145"/>
+      <c r="AHQ1" s="145"/>
+      <c r="AHR1" s="145"/>
+      <c r="AHS1" s="145"/>
+      <c r="AHT1" s="145"/>
+      <c r="AHU1" s="145"/>
+      <c r="AHV1" s="145"/>
+      <c r="AHW1" s="145"/>
+      <c r="AHX1" s="145"/>
+      <c r="AHY1" s="145"/>
+      <c r="AHZ1" s="145"/>
+      <c r="AIA1" s="145"/>
+      <c r="AIB1" s="145"/>
+      <c r="AIC1" s="145"/>
+      <c r="AID1" s="145"/>
+      <c r="AIE1" s="145"/>
+      <c r="AIF1" s="145"/>
+      <c r="AIG1" s="145"/>
+      <c r="AIH1" s="145"/>
+      <c r="AII1" s="145"/>
+      <c r="AIJ1" s="145"/>
+      <c r="AIK1" s="145"/>
+      <c r="AIL1" s="145"/>
+      <c r="AIM1" s="145"/>
+      <c r="AIN1" s="145"/>
+      <c r="AIO1" s="145"/>
+      <c r="AIP1" s="145"/>
+      <c r="AIQ1" s="145"/>
+      <c r="AIR1" s="145"/>
+      <c r="AIS1" s="145"/>
+      <c r="AIT1" s="145"/>
+      <c r="AIU1" s="145"/>
+      <c r="AIV1" s="145"/>
+      <c r="AIW1" s="145"/>
+      <c r="AIX1" s="145"/>
+      <c r="AIY1" s="145"/>
+      <c r="AIZ1" s="145"/>
+      <c r="AJA1" s="145"/>
+      <c r="AJB1" s="145"/>
+      <c r="AJC1" s="145"/>
+      <c r="AJD1" s="145"/>
+      <c r="AJE1" s="145"/>
+      <c r="AJF1" s="145"/>
+      <c r="AJG1" s="145"/>
+      <c r="AJH1" s="145"/>
+      <c r="AJI1" s="145"/>
+      <c r="AJJ1" s="145"/>
+      <c r="AJK1" s="145"/>
+      <c r="AJL1" s="145"/>
+      <c r="AJM1" s="145"/>
+      <c r="AJN1" s="145"/>
+      <c r="AJO1" s="145"/>
+      <c r="AJP1" s="145"/>
+      <c r="AJQ1" s="145"/>
+      <c r="AJR1" s="145"/>
+      <c r="AJS1" s="145"/>
+      <c r="AJT1" s="145"/>
+      <c r="AJU1" s="145"/>
+      <c r="AJV1" s="145"/>
+      <c r="AJW1" s="145"/>
+      <c r="AJX1" s="145"/>
+      <c r="AJY1" s="145"/>
+      <c r="AJZ1" s="145"/>
+      <c r="AKA1" s="145"/>
+      <c r="AKB1" s="145"/>
+      <c r="AKC1" s="145"/>
+      <c r="AKD1" s="145"/>
+      <c r="AKE1" s="145"/>
+      <c r="AKF1" s="145"/>
+      <c r="AKG1" s="145"/>
+      <c r="AKH1" s="145"/>
+      <c r="AKI1" s="145"/>
+      <c r="AKJ1" s="145"/>
+      <c r="AKK1" s="145"/>
+      <c r="AKL1" s="145"/>
+      <c r="AKM1" s="145"/>
+      <c r="AKN1" s="145"/>
+      <c r="AKO1" s="145"/>
+      <c r="AKP1" s="145"/>
+      <c r="AKQ1" s="145"/>
+      <c r="AKR1" s="145"/>
+      <c r="AKS1" s="145"/>
+      <c r="AKT1" s="145"/>
+      <c r="AKU1" s="145"/>
+      <c r="AKV1" s="145"/>
+      <c r="AKW1" s="145"/>
+      <c r="AKX1" s="145"/>
+      <c r="AKY1" s="145"/>
+      <c r="AKZ1" s="145"/>
+      <c r="ALA1" s="145"/>
+      <c r="ALB1" s="145"/>
+      <c r="ALC1" s="145"/>
+      <c r="ALD1" s="145"/>
+      <c r="ALE1" s="145"/>
+      <c r="ALF1" s="145"/>
+      <c r="ALG1" s="145"/>
+      <c r="ALH1" s="145"/>
+      <c r="ALI1" s="145"/>
+      <c r="ALJ1" s="145"/>
+      <c r="ALK1" s="145"/>
+      <c r="ALL1" s="145"/>
+      <c r="ALM1" s="145"/>
+      <c r="ALN1" s="145"/>
+      <c r="ALO1" s="145"/>
+      <c r="ALP1" s="145"/>
+      <c r="ALQ1" s="145"/>
+      <c r="ALR1" s="145"/>
+      <c r="ALS1" s="145"/>
+      <c r="ALT1" s="145"/>
+      <c r="ALU1" s="145"/>
+      <c r="ALV1" s="145"/>
+      <c r="ALW1" s="145"/>
+      <c r="ALX1" s="145"/>
+      <c r="ALY1" s="145"/>
+      <c r="ALZ1" s="145"/>
+      <c r="AMA1" s="145"/>
+      <c r="AMB1" s="145"/>
+      <c r="AMC1" s="145"/>
+      <c r="AMD1" s="145"/>
+      <c r="AME1" s="145"/>
+      <c r="AMF1" s="145"/>
+      <c r="AMG1" s="145"/>
+      <c r="AMH1" s="145"/>
+      <c r="AMI1" s="145"/>
+      <c r="AMJ1" s="145"/>
+      <c r="AMK1" s="145"/>
     </row>
     <row r="2" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>199</v>
+      <c r="B2" s="62" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="144" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="143" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="63" t="s">
-        <v>189</v>
+      <c r="B4" s="62" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -4022,271 +3983,271 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="21" customWidth="1"/>
-    <col min="4" max="6" width="20.7109375" style="45" customWidth="1"/>
-    <col min="7" max="8" width="15.7109375" style="21" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="26" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="21" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="17" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="45" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="44" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="20" customWidth="1"/>
+    <col min="4" max="6" width="20.7109375" style="44" customWidth="1"/>
+    <col min="7" max="8" width="15.7109375" style="20" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="25" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="20" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="16" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="19" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:12" s="18" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="J1" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="K1" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="86" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="D2" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="G2" s="86">
+        <v>326</v>
+      </c>
+      <c r="H2" s="86">
+        <v>5957</v>
+      </c>
+      <c r="I2" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" s="86">
+        <v>2009</v>
+      </c>
+      <c r="K2" s="86" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="G3" s="85">
+        <v>231</v>
+      </c>
+      <c r="H3" s="85">
+        <v>1</v>
+      </c>
+      <c r="I3" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="J3" s="85">
+        <v>1990</v>
+      </c>
+      <c r="K3" s="85" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="126" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="126" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="126" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="126" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126">
+        <v>2013</v>
+      </c>
+      <c r="K4" s="126"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="136" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="136" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="136" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="136" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="136" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="136" t="s">
         <v>153</v>
       </c>
-      <c r="J1" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="87" t="s">
-        <v>162</v>
-      </c>
-      <c r="F2" s="87" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" s="87">
-        <v>326</v>
-      </c>
-      <c r="H2" s="87">
-        <v>5957</v>
-      </c>
-      <c r="I2" s="87" t="s">
-        <v>163</v>
-      </c>
-      <c r="J2" s="87">
-        <v>2009</v>
-      </c>
-      <c r="K2" s="87" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="86" t="s">
+      <c r="G5" s="136">
+        <v>5</v>
+      </c>
+      <c r="H5" s="136">
+        <v>12</v>
+      </c>
+      <c r="I5" s="136" t="s">
+        <v>171</v>
+      </c>
+      <c r="J5" s="136">
+        <v>2006</v>
+      </c>
+      <c r="K5" s="136" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="137" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="137" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="137" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="137" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="137" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="137" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="86" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="86" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" s="86" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="86" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" s="86">
-        <v>231</v>
-      </c>
-      <c r="H3" s="86">
-        <v>1</v>
-      </c>
-      <c r="I3" s="86" t="s">
-        <v>168</v>
-      </c>
-      <c r="J3" s="86">
-        <v>1990</v>
-      </c>
-      <c r="K3" s="86" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="129" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="129" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="129" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="129" t="s">
-        <v>172</v>
-      </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129">
-        <v>2013</v>
-      </c>
-      <c r="K4" s="129"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="139" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="139" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="139" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="139" t="s">
-        <v>174</v>
-      </c>
-      <c r="E5" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" s="139" t="s">
-        <v>158</v>
-      </c>
-      <c r="G5" s="139">
-        <v>5</v>
-      </c>
-      <c r="H5" s="139">
-        <v>12</v>
-      </c>
-      <c r="I5" s="139" t="s">
+      <c r="G6" s="137">
+        <v>7</v>
+      </c>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137">
+        <v>511</v>
+      </c>
+      <c r="J6" s="137">
+        <v>2011</v>
+      </c>
+      <c r="K6" s="137" t="s">
         <v>176</v>
       </c>
-      <c r="J5" s="139">
-        <v>2006</v>
-      </c>
-      <c r="K5" s="139" t="s">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="138" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="138" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="140" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="140" t="s">
+      <c r="C7" s="138" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="138" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="140" t="s">
+      <c r="E7" s="138" t="s">
         <v>179</v>
       </c>
-      <c r="E6" s="140" t="s">
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138">
+        <v>2014</v>
+      </c>
+      <c r="K7" s="138"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="139" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="139" t="s">
         <v>180</v>
       </c>
-      <c r="F6" s="140" t="s">
-        <v>170</v>
-      </c>
-      <c r="G6" s="140">
-        <v>7</v>
-      </c>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140">
-        <v>511</v>
-      </c>
-      <c r="J6" s="140">
-        <v>2011</v>
-      </c>
-      <c r="K6" s="140" t="s">
+      <c r="C8" s="139" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="139" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="141" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" s="141" t="s">
+      <c r="E8" s="139" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="141" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="141" t="s">
-        <v>183</v>
-      </c>
-      <c r="E7" s="141" t="s">
-        <v>184</v>
-      </c>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141">
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139">
         <v>2014</v>
       </c>
-      <c r="K7" s="141"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="142" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="142" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" s="142" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="142" t="s">
-        <v>186</v>
-      </c>
-      <c r="E8" s="142" t="s">
-        <v>187</v>
-      </c>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="142">
-        <v>2014</v>
-      </c>
-      <c r="K8" s="142"/>
-      <c r="L8" s="142"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
     </row>
   </sheetData>
   <sortState ref="A2:L8">
@@ -4301,47 +4262,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="10" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" style="63" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" style="62" customWidth="1"/>
     <col min="4" max="5" width="20.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="63" customWidth="1"/>
-    <col min="7" max="1021" width="9.140625" style="63" customWidth="1"/>
-    <col min="1022" max="1024" width="9.140625" style="50" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="62" customWidth="1"/>
+    <col min="7" max="1021" width="9.140625" style="62" customWidth="1"/>
+    <col min="1022" max="1024" width="9.140625" style="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:1023" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="143" t="s">
-        <v>193</v>
-      </c>
-      <c r="E1" s="18" t="s">
+      <c r="D1" s="140" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AMH1" s="24"/>
-      <c r="AMI1" s="24"/>
+      <c r="AMH1" s="23"/>
+      <c r="AMI1" s="23"/>
     </row>
     <row r="2" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="62" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4349,7 +4310,7 @@
       <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="62" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4357,7 +4318,7 @@
       <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="62" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4383,38 +4344,38 @@
   <cols>
     <col min="1" max="1" width="20.7109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="3" customWidth="1"/>
-    <col min="3" max="9" width="20.7109375" style="63" customWidth="1"/>
-    <col min="10" max="1022" width="9.140625" style="63" customWidth="1"/>
-    <col min="1023" max="1033" width="9" style="63" customWidth="1"/>
-    <col min="1034" max="16384" width="9" style="63"/>
+    <col min="3" max="9" width="20.7109375" style="62" customWidth="1"/>
+    <col min="10" max="1022" width="9.140625" style="62" customWidth="1"/>
+    <col min="1023" max="1033" width="9" style="62" customWidth="1"/>
+    <col min="1034" max="16384" width="9" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="H1" s="35" t="s">
+      <c r="G1" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4425,7 +4386,7 @@
       <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="3">
@@ -6792,248 +6753,248 @@
     <col min="24" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:12" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="71" t="s">
-        <v>193</v>
-      </c>
-      <c r="K1" s="72" t="s">
+      <c r="J1" s="70" t="s">
+        <v>188</v>
+      </c>
+      <c r="K1" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="72" t="s">
+      <c r="L1" s="71" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="75">
+      <c r="E2" s="74">
         <v>278</v>
       </c>
-      <c r="F2" s="75">
+      <c r="F2" s="74">
         <v>287</v>
       </c>
-      <c r="G2" s="76">
+      <c r="G2" s="75">
         <v>130.58634910941501</v>
       </c>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="66"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
+      <c r="G3" s="65"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="66"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
+      <c r="G4" s="65"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="66"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
+      <c r="G5" s="65"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="66"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
+      <c r="G6" s="65"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="66"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
+      <c r="G7" s="65"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="66"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="66"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
+      <c r="G8" s="65"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="66"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="66"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
+      <c r="G9" s="65"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="66"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
+      <c r="G10" s="65"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="66"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="66"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
+      <c r="G11" s="65"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="66"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
+      <c r="G12" s="65"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="66"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="66"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
+      <c r="G13" s="65"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="66"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="66"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
+      <c r="G14" s="65"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="66"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="66"/>
+      <c r="G15" s="65"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="66"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="66"/>
+      <c r="G16" s="65"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="66"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="66"/>
+      <c r="G17" s="65"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="66"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="66"/>
+      <c r="G18" s="65"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="66"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="66"/>
+      <c r="G19" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7054,91 +7015,91 @@
     <col min="1" max="2" width="20.7109375" style="3" customWidth="1"/>
     <col min="3" max="9" width="15.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" style="2" customWidth="1"/>
-    <col min="11" max="12" width="20.7109375" style="63" customWidth="1"/>
+    <col min="11" max="12" width="20.7109375" style="62" customWidth="1"/>
     <col min="13" max="13" width="20.7109375" style="3" customWidth="1"/>
     <col min="14" max="15" width="9.140625" style="3" customWidth="1"/>
     <col min="16" max="1019" width="9.140625" style="7" customWidth="1"/>
-    <col min="1020" max="1023" width="9" style="63" customWidth="1"/>
-    <col min="1024" max="16384" width="9" style="63"/>
+    <col min="1020" max="1023" width="9" style="62" customWidth="1"/>
+    <col min="1024" max="16384" width="9" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:13" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="L1" s="42" t="s">
+      <c r="K1" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="80" t="s">
-        <v>201</v>
-      </c>
-      <c r="F2" s="80">
+      <c r="E2" s="79" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="79">
         <v>-35</v>
       </c>
-      <c r="G2" s="80">
+      <c r="G2" s="79">
         <v>-40</v>
       </c>
-      <c r="H2" s="80">
+      <c r="H2" s="79">
         <v>652</v>
       </c>
-      <c r="I2" s="80">
+      <c r="I2" s="79">
         <v>1900</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="J2" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="79"/>
-      <c r="L2" s="81" t="s">
+      <c r="K2" s="78"/>
+      <c r="L2" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="79"/>
+      <c r="M2" s="78"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1"/>
@@ -7168,1113 +7129,1113 @@
     <col min="2" max="3" width="20.7109375" style="4" customWidth="1"/>
     <col min="4" max="5" width="10.7109375" style="6" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="137" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" style="137" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" style="137" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="65" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="63" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="134" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="134" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" style="134" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="64" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="62" customWidth="1"/>
     <col min="14" max="14" width="20.7109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="9" style="65" customWidth="1"/>
-    <col min="16" max="1026" width="33" style="63" customWidth="1"/>
-    <col min="1027" max="1033" width="9" style="65" customWidth="1"/>
-    <col min="1034" max="16384" width="9" style="65"/>
+    <col min="15" max="15" width="9" style="64" customWidth="1"/>
+    <col min="16" max="1026" width="33" style="62" customWidth="1"/>
+    <col min="1027" max="1033" width="9" style="64" customWidth="1"/>
+    <col min="1034" max="16384" width="9" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" s="19" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:1026" s="18" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="F1" s="42" t="s">
+      <c r="E1" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="M1" s="42" t="s">
+      <c r="L1" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="M1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AMG1" s="30"/>
-      <c r="AMH1" s="30"/>
-      <c r="AMI1" s="30"/>
-      <c r="AMJ1" s="30"/>
-      <c r="AMK1" s="30"/>
-      <c r="AML1" s="30"/>
+      <c r="AMG1" s="29"/>
+      <c r="AMH1" s="29"/>
+      <c r="AMI1" s="29"/>
+      <c r="AMJ1" s="29"/>
+      <c r="AMK1" s="29"/>
+      <c r="AML1" s="29"/>
     </row>
     <row r="2" spans="1:1026" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="137" t="s">
+      <c r="C2" s="83"/>
+      <c r="D2" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="137"/>
-      <c r="F2" s="84" t="s">
+      <c r="E2" s="134"/>
+      <c r="F2" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="137" t="s">
+      <c r="G2" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="137">
+      <c r="H2" s="134">
         <v>692</v>
       </c>
-      <c r="I2" s="137">
+      <c r="I2" s="134">
         <v>1834</v>
       </c>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="84" t="s">
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="84" t="s">
+      <c r="M2" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="83"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="82"/>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="82"/>
-      <c r="AK2" s="82"/>
-      <c r="AL2" s="82"/>
-      <c r="AM2" s="82"/>
-      <c r="AN2" s="82"/>
-      <c r="AO2" s="82"/>
-      <c r="AP2" s="82"/>
-      <c r="AQ2" s="82"/>
-      <c r="AR2" s="82"/>
-      <c r="AS2" s="82"/>
-      <c r="AT2" s="82"/>
-      <c r="AU2" s="82"/>
-      <c r="AV2" s="82"/>
-      <c r="AW2" s="82"/>
-      <c r="AX2" s="82"/>
-      <c r="AY2" s="82"/>
-      <c r="AZ2" s="82"/>
-      <c r="BA2" s="82"/>
-      <c r="BB2" s="82"/>
-      <c r="BC2" s="82"/>
-      <c r="BD2" s="82"/>
-      <c r="BE2" s="82"/>
-      <c r="BF2" s="82"/>
-      <c r="BG2" s="82"/>
-      <c r="BH2" s="82"/>
-      <c r="BI2" s="82"/>
-      <c r="BJ2" s="82"/>
-      <c r="BK2" s="82"/>
-      <c r="BL2" s="82"/>
-      <c r="BM2" s="82"/>
-      <c r="BN2" s="82"/>
-      <c r="BO2" s="82"/>
-      <c r="BP2" s="82"/>
-      <c r="BQ2" s="82"/>
-      <c r="BR2" s="82"/>
-      <c r="BS2" s="82"/>
-      <c r="BT2" s="82"/>
-      <c r="BU2" s="82"/>
-      <c r="BV2" s="82"/>
-      <c r="BW2" s="82"/>
-      <c r="BX2" s="82"/>
-      <c r="BY2" s="82"/>
-      <c r="BZ2" s="82"/>
-      <c r="CA2" s="82"/>
-      <c r="CB2" s="82"/>
-      <c r="CC2" s="82"/>
-      <c r="CD2" s="82"/>
-      <c r="CE2" s="82"/>
-      <c r="CF2" s="82"/>
-      <c r="CG2" s="82"/>
-      <c r="CH2" s="82"/>
-      <c r="CI2" s="82"/>
-      <c r="CJ2" s="82"/>
-      <c r="CK2" s="82"/>
-      <c r="CL2" s="82"/>
-      <c r="CM2" s="82"/>
-      <c r="CN2" s="82"/>
-      <c r="CO2" s="82"/>
-      <c r="CP2" s="82"/>
-      <c r="CQ2" s="82"/>
-      <c r="CR2" s="82"/>
-      <c r="CS2" s="82"/>
-      <c r="CT2" s="82"/>
-      <c r="CU2" s="82"/>
-      <c r="CV2" s="82"/>
-      <c r="CW2" s="82"/>
-      <c r="CX2" s="82"/>
-      <c r="CY2" s="82"/>
-      <c r="CZ2" s="82"/>
-      <c r="DA2" s="82"/>
-      <c r="DB2" s="82"/>
-      <c r="DC2" s="82"/>
-      <c r="DD2" s="82"/>
-      <c r="DE2" s="82"/>
-      <c r="DF2" s="82"/>
-      <c r="DG2" s="82"/>
-      <c r="DH2" s="82"/>
-      <c r="DI2" s="82"/>
-      <c r="DJ2" s="82"/>
-      <c r="DK2" s="82"/>
-      <c r="DL2" s="82"/>
-      <c r="DM2" s="82"/>
-      <c r="DN2" s="82"/>
-      <c r="DO2" s="82"/>
-      <c r="DP2" s="82"/>
-      <c r="DQ2" s="82"/>
-      <c r="DR2" s="82"/>
-      <c r="DS2" s="82"/>
-      <c r="DT2" s="82"/>
-      <c r="DU2" s="82"/>
-      <c r="DV2" s="82"/>
-      <c r="DW2" s="82"/>
-      <c r="DX2" s="82"/>
-      <c r="DY2" s="82"/>
-      <c r="DZ2" s="82"/>
-      <c r="EA2" s="82"/>
-      <c r="EB2" s="82"/>
-      <c r="EC2" s="82"/>
-      <c r="ED2" s="82"/>
-      <c r="EE2" s="82"/>
-      <c r="EF2" s="82"/>
-      <c r="EG2" s="82"/>
-      <c r="EH2" s="82"/>
-      <c r="EI2" s="82"/>
-      <c r="EJ2" s="82"/>
-      <c r="EK2" s="82"/>
-      <c r="EL2" s="82"/>
-      <c r="EM2" s="82"/>
-      <c r="EN2" s="82"/>
-      <c r="EO2" s="82"/>
-      <c r="EP2" s="82"/>
-      <c r="EQ2" s="82"/>
-      <c r="ER2" s="82"/>
-      <c r="ES2" s="82"/>
-      <c r="ET2" s="82"/>
-      <c r="EU2" s="82"/>
-      <c r="EV2" s="82"/>
-      <c r="EW2" s="82"/>
-      <c r="EX2" s="82"/>
-      <c r="EY2" s="82"/>
-      <c r="EZ2" s="82"/>
-      <c r="FA2" s="82"/>
-      <c r="FB2" s="82"/>
-      <c r="FC2" s="82"/>
-      <c r="FD2" s="82"/>
-      <c r="FE2" s="82"/>
-      <c r="FF2" s="82"/>
-      <c r="FG2" s="82"/>
-      <c r="FH2" s="82"/>
-      <c r="FI2" s="82"/>
-      <c r="FJ2" s="82"/>
-      <c r="FK2" s="82"/>
-      <c r="FL2" s="82"/>
-      <c r="FM2" s="82"/>
-      <c r="FN2" s="82"/>
-      <c r="FO2" s="82"/>
-      <c r="FP2" s="82"/>
-      <c r="FQ2" s="82"/>
-      <c r="FR2" s="82"/>
-      <c r="FS2" s="82"/>
-      <c r="FT2" s="82"/>
-      <c r="FU2" s="82"/>
-      <c r="FV2" s="82"/>
-      <c r="FW2" s="82"/>
-      <c r="FX2" s="82"/>
-      <c r="FY2" s="82"/>
-      <c r="FZ2" s="82"/>
-      <c r="GA2" s="82"/>
-      <c r="GB2" s="82"/>
-      <c r="GC2" s="82"/>
-      <c r="GD2" s="82"/>
-      <c r="GE2" s="82"/>
-      <c r="GF2" s="82"/>
-      <c r="GG2" s="82"/>
-      <c r="GH2" s="82"/>
-      <c r="GI2" s="82"/>
-      <c r="GJ2" s="82"/>
-      <c r="GK2" s="82"/>
-      <c r="GL2" s="82"/>
-      <c r="GM2" s="82"/>
-      <c r="GN2" s="82"/>
-      <c r="GO2" s="82"/>
-      <c r="GP2" s="82"/>
-      <c r="GQ2" s="82"/>
-      <c r="GR2" s="82"/>
-      <c r="GS2" s="82"/>
-      <c r="GT2" s="82"/>
-      <c r="GU2" s="82"/>
-      <c r="GV2" s="82"/>
-      <c r="GW2" s="82"/>
-      <c r="GX2" s="82"/>
-      <c r="GY2" s="82"/>
-      <c r="GZ2" s="82"/>
-      <c r="HA2" s="82"/>
-      <c r="HB2" s="82"/>
-      <c r="HC2" s="82"/>
-      <c r="HD2" s="82"/>
-      <c r="HE2" s="82"/>
-      <c r="HF2" s="82"/>
-      <c r="HG2" s="82"/>
-      <c r="HH2" s="82"/>
-      <c r="HI2" s="82"/>
-      <c r="HJ2" s="82"/>
-      <c r="HK2" s="82"/>
-      <c r="HL2" s="82"/>
-      <c r="HM2" s="82"/>
-      <c r="HN2" s="82"/>
-      <c r="HO2" s="82"/>
-      <c r="HP2" s="82"/>
-      <c r="HQ2" s="82"/>
-      <c r="HR2" s="82"/>
-      <c r="HS2" s="82"/>
-      <c r="HT2" s="82"/>
-      <c r="HU2" s="82"/>
-      <c r="HV2" s="82"/>
-      <c r="HW2" s="82"/>
-      <c r="HX2" s="82"/>
-      <c r="HY2" s="82"/>
-      <c r="HZ2" s="82"/>
-      <c r="IA2" s="82"/>
-      <c r="IB2" s="82"/>
-      <c r="IC2" s="82"/>
-      <c r="ID2" s="82"/>
-      <c r="IE2" s="82"/>
-      <c r="IF2" s="82"/>
-      <c r="IG2" s="82"/>
-      <c r="IH2" s="82"/>
-      <c r="II2" s="82"/>
-      <c r="IJ2" s="82"/>
-      <c r="IK2" s="82"/>
-      <c r="IL2" s="82"/>
-      <c r="IM2" s="82"/>
-      <c r="IN2" s="82"/>
-      <c r="IO2" s="82"/>
-      <c r="IP2" s="82"/>
-      <c r="IQ2" s="82"/>
-      <c r="IR2" s="82"/>
-      <c r="IS2" s="82"/>
-      <c r="IT2" s="82"/>
-      <c r="IU2" s="82"/>
-      <c r="IV2" s="82"/>
-      <c r="IW2" s="82"/>
-      <c r="IX2" s="82"/>
-      <c r="IY2" s="82"/>
-      <c r="IZ2" s="82"/>
-      <c r="JA2" s="82"/>
-      <c r="JB2" s="82"/>
-      <c r="JC2" s="82"/>
-      <c r="JD2" s="82"/>
-      <c r="JE2" s="82"/>
-      <c r="JF2" s="82"/>
-      <c r="JG2" s="82"/>
-      <c r="JH2" s="82"/>
-      <c r="JI2" s="82"/>
-      <c r="JJ2" s="82"/>
-      <c r="JK2" s="82"/>
-      <c r="JL2" s="82"/>
-      <c r="JM2" s="82"/>
-      <c r="JN2" s="82"/>
-      <c r="JO2" s="82"/>
-      <c r="JP2" s="82"/>
-      <c r="JQ2" s="82"/>
-      <c r="JR2" s="82"/>
-      <c r="JS2" s="82"/>
-      <c r="JT2" s="82"/>
-      <c r="JU2" s="82"/>
-      <c r="JV2" s="82"/>
-      <c r="JW2" s="82"/>
-      <c r="JX2" s="82"/>
-      <c r="JY2" s="82"/>
-      <c r="JZ2" s="82"/>
-      <c r="KA2" s="82"/>
-      <c r="KB2" s="82"/>
-      <c r="KC2" s="82"/>
-      <c r="KD2" s="82"/>
-      <c r="KE2" s="82"/>
-      <c r="KF2" s="82"/>
-      <c r="KG2" s="82"/>
-      <c r="KH2" s="82"/>
-      <c r="KI2" s="82"/>
-      <c r="KJ2" s="82"/>
-      <c r="KK2" s="82"/>
-      <c r="KL2" s="82"/>
-      <c r="KM2" s="82"/>
-      <c r="KN2" s="82"/>
-      <c r="KO2" s="82"/>
-      <c r="KP2" s="82"/>
-      <c r="KQ2" s="82"/>
-      <c r="KR2" s="82"/>
-      <c r="KS2" s="82"/>
-      <c r="KT2" s="82"/>
-      <c r="KU2" s="82"/>
-      <c r="KV2" s="82"/>
-      <c r="KW2" s="82"/>
-      <c r="KX2" s="82"/>
-      <c r="KY2" s="82"/>
-      <c r="KZ2" s="82"/>
-      <c r="LA2" s="82"/>
-      <c r="LB2" s="82"/>
-      <c r="LC2" s="82"/>
-      <c r="LD2" s="82"/>
-      <c r="LE2" s="82"/>
-      <c r="LF2" s="82"/>
-      <c r="LG2" s="82"/>
-      <c r="LH2" s="82"/>
-      <c r="LI2" s="82"/>
-      <c r="LJ2" s="82"/>
-      <c r="LK2" s="82"/>
-      <c r="LL2" s="82"/>
-      <c r="LM2" s="82"/>
-      <c r="LN2" s="82"/>
-      <c r="LO2" s="82"/>
-      <c r="LP2" s="82"/>
-      <c r="LQ2" s="82"/>
-      <c r="LR2" s="82"/>
-      <c r="LS2" s="82"/>
-      <c r="LT2" s="82"/>
-      <c r="LU2" s="82"/>
-      <c r="LV2" s="82"/>
-      <c r="LW2" s="82"/>
-      <c r="LX2" s="82"/>
-      <c r="LY2" s="82"/>
-      <c r="LZ2" s="82"/>
-      <c r="MA2" s="82"/>
-      <c r="MB2" s="82"/>
-      <c r="MC2" s="82"/>
-      <c r="MD2" s="82"/>
-      <c r="ME2" s="82"/>
-      <c r="MF2" s="82"/>
-      <c r="MG2" s="82"/>
-      <c r="MH2" s="82"/>
-      <c r="MI2" s="82"/>
-      <c r="MJ2" s="82"/>
-      <c r="MK2" s="82"/>
-      <c r="ML2" s="82"/>
-      <c r="MM2" s="82"/>
-      <c r="MN2" s="82"/>
-      <c r="MO2" s="82"/>
-      <c r="MP2" s="82"/>
-      <c r="MQ2" s="82"/>
-      <c r="MR2" s="82"/>
-      <c r="MS2" s="82"/>
-      <c r="MT2" s="82"/>
-      <c r="MU2" s="82"/>
-      <c r="MV2" s="82"/>
-      <c r="MW2" s="82"/>
-      <c r="MX2" s="82"/>
-      <c r="MY2" s="82"/>
-      <c r="MZ2" s="82"/>
-      <c r="NA2" s="82"/>
-      <c r="NB2" s="82"/>
-      <c r="NC2" s="82"/>
-      <c r="ND2" s="82"/>
-      <c r="NE2" s="82"/>
-      <c r="NF2" s="82"/>
-      <c r="NG2" s="82"/>
-      <c r="NH2" s="82"/>
-      <c r="NI2" s="82"/>
-      <c r="NJ2" s="82"/>
-      <c r="NK2" s="82"/>
-      <c r="NL2" s="82"/>
-      <c r="NM2" s="82"/>
-      <c r="NN2" s="82"/>
-      <c r="NO2" s="82"/>
-      <c r="NP2" s="82"/>
-      <c r="NQ2" s="82"/>
-      <c r="NR2" s="82"/>
-      <c r="NS2" s="82"/>
-      <c r="NT2" s="82"/>
-      <c r="NU2" s="82"/>
-      <c r="NV2" s="82"/>
-      <c r="NW2" s="82"/>
-      <c r="NX2" s="82"/>
-      <c r="NY2" s="82"/>
-      <c r="NZ2" s="82"/>
-      <c r="OA2" s="82"/>
-      <c r="OB2" s="82"/>
-      <c r="OC2" s="82"/>
-      <c r="OD2" s="82"/>
-      <c r="OE2" s="82"/>
-      <c r="OF2" s="82"/>
-      <c r="OG2" s="82"/>
-      <c r="OH2" s="82"/>
-      <c r="OI2" s="82"/>
-      <c r="OJ2" s="82"/>
-      <c r="OK2" s="82"/>
-      <c r="OL2" s="82"/>
-      <c r="OM2" s="82"/>
-      <c r="ON2" s="82"/>
-      <c r="OO2" s="82"/>
-      <c r="OP2" s="82"/>
-      <c r="OQ2" s="82"/>
-      <c r="OR2" s="82"/>
-      <c r="OS2" s="82"/>
-      <c r="OT2" s="82"/>
-      <c r="OU2" s="82"/>
-      <c r="OV2" s="82"/>
-      <c r="OW2" s="82"/>
-      <c r="OX2" s="82"/>
-      <c r="OY2" s="82"/>
-      <c r="OZ2" s="82"/>
-      <c r="PA2" s="82"/>
-      <c r="PB2" s="82"/>
-      <c r="PC2" s="82"/>
-      <c r="PD2" s="82"/>
-      <c r="PE2" s="82"/>
-      <c r="PF2" s="82"/>
-      <c r="PG2" s="82"/>
-      <c r="PH2" s="82"/>
-      <c r="PI2" s="82"/>
-      <c r="PJ2" s="82"/>
-      <c r="PK2" s="82"/>
-      <c r="PL2" s="82"/>
-      <c r="PM2" s="82"/>
-      <c r="PN2" s="82"/>
-      <c r="PO2" s="82"/>
-      <c r="PP2" s="82"/>
-      <c r="PQ2" s="82"/>
-      <c r="PR2" s="82"/>
-      <c r="PS2" s="82"/>
-      <c r="PT2" s="82"/>
-      <c r="PU2" s="82"/>
-      <c r="PV2" s="82"/>
-      <c r="PW2" s="82"/>
-      <c r="PX2" s="82"/>
-      <c r="PY2" s="82"/>
-      <c r="PZ2" s="82"/>
-      <c r="QA2" s="82"/>
-      <c r="QB2" s="82"/>
-      <c r="QC2" s="82"/>
-      <c r="QD2" s="82"/>
-      <c r="QE2" s="82"/>
-      <c r="QF2" s="82"/>
-      <c r="QG2" s="82"/>
-      <c r="QH2" s="82"/>
-      <c r="QI2" s="82"/>
-      <c r="QJ2" s="82"/>
-      <c r="QK2" s="82"/>
-      <c r="QL2" s="82"/>
-      <c r="QM2" s="82"/>
-      <c r="QN2" s="82"/>
-      <c r="QO2" s="82"/>
-      <c r="QP2" s="82"/>
-      <c r="QQ2" s="82"/>
-      <c r="QR2" s="82"/>
-      <c r="QS2" s="82"/>
-      <c r="QT2" s="82"/>
-      <c r="QU2" s="82"/>
-      <c r="QV2" s="82"/>
-      <c r="QW2" s="82"/>
-      <c r="QX2" s="82"/>
-      <c r="QY2" s="82"/>
-      <c r="QZ2" s="82"/>
-      <c r="RA2" s="82"/>
-      <c r="RB2" s="82"/>
-      <c r="RC2" s="82"/>
-      <c r="RD2" s="82"/>
-      <c r="RE2" s="82"/>
-      <c r="RF2" s="82"/>
-      <c r="RG2" s="82"/>
-      <c r="RH2" s="82"/>
-      <c r="RI2" s="82"/>
-      <c r="RJ2" s="82"/>
-      <c r="RK2" s="82"/>
-      <c r="RL2" s="82"/>
-      <c r="RM2" s="82"/>
-      <c r="RN2" s="82"/>
-      <c r="RO2" s="82"/>
-      <c r="RP2" s="82"/>
-      <c r="RQ2" s="82"/>
-      <c r="RR2" s="82"/>
-      <c r="RS2" s="82"/>
-      <c r="RT2" s="82"/>
-      <c r="RU2" s="82"/>
-      <c r="RV2" s="82"/>
-      <c r="RW2" s="82"/>
-      <c r="RX2" s="82"/>
-      <c r="RY2" s="82"/>
-      <c r="RZ2" s="82"/>
-      <c r="SA2" s="82"/>
-      <c r="SB2" s="82"/>
-      <c r="SC2" s="82"/>
-      <c r="SD2" s="82"/>
-      <c r="SE2" s="82"/>
-      <c r="SF2" s="82"/>
-      <c r="SG2" s="82"/>
-      <c r="SH2" s="82"/>
-      <c r="SI2" s="82"/>
-      <c r="SJ2" s="82"/>
-      <c r="SK2" s="82"/>
-      <c r="SL2" s="82"/>
-      <c r="SM2" s="82"/>
-      <c r="SN2" s="82"/>
-      <c r="SO2" s="82"/>
-      <c r="SP2" s="82"/>
-      <c r="SQ2" s="82"/>
-      <c r="SR2" s="82"/>
-      <c r="SS2" s="82"/>
-      <c r="ST2" s="82"/>
-      <c r="SU2" s="82"/>
-      <c r="SV2" s="82"/>
-      <c r="SW2" s="82"/>
-      <c r="SX2" s="82"/>
-      <c r="SY2" s="82"/>
-      <c r="SZ2" s="82"/>
-      <c r="TA2" s="82"/>
-      <c r="TB2" s="82"/>
-      <c r="TC2" s="82"/>
-      <c r="TD2" s="82"/>
-      <c r="TE2" s="82"/>
-      <c r="TF2" s="82"/>
-      <c r="TG2" s="82"/>
-      <c r="TH2" s="82"/>
-      <c r="TI2" s="82"/>
-      <c r="TJ2" s="82"/>
-      <c r="TK2" s="82"/>
-      <c r="TL2" s="82"/>
-      <c r="TM2" s="82"/>
-      <c r="TN2" s="82"/>
-      <c r="TO2" s="82"/>
-      <c r="TP2" s="82"/>
-      <c r="TQ2" s="82"/>
-      <c r="TR2" s="82"/>
-      <c r="TS2" s="82"/>
-      <c r="TT2" s="82"/>
-      <c r="TU2" s="82"/>
-      <c r="TV2" s="82"/>
-      <c r="TW2" s="82"/>
-      <c r="TX2" s="82"/>
-      <c r="TY2" s="82"/>
-      <c r="TZ2" s="82"/>
-      <c r="UA2" s="82"/>
-      <c r="UB2" s="82"/>
-      <c r="UC2" s="82"/>
-      <c r="UD2" s="82"/>
-      <c r="UE2" s="82"/>
-      <c r="UF2" s="82"/>
-      <c r="UG2" s="82"/>
-      <c r="UH2" s="82"/>
-      <c r="UI2" s="82"/>
-      <c r="UJ2" s="82"/>
-      <c r="UK2" s="82"/>
-      <c r="UL2" s="82"/>
-      <c r="UM2" s="82"/>
-      <c r="UN2" s="82"/>
-      <c r="UO2" s="82"/>
-      <c r="UP2" s="82"/>
-      <c r="UQ2" s="82"/>
-      <c r="UR2" s="82"/>
-      <c r="US2" s="82"/>
-      <c r="UT2" s="82"/>
-      <c r="UU2" s="82"/>
-      <c r="UV2" s="82"/>
-      <c r="UW2" s="82"/>
-      <c r="UX2" s="82"/>
-      <c r="UY2" s="82"/>
-      <c r="UZ2" s="82"/>
-      <c r="VA2" s="82"/>
-      <c r="VB2" s="82"/>
-      <c r="VC2" s="82"/>
-      <c r="VD2" s="82"/>
-      <c r="VE2" s="82"/>
-      <c r="VF2" s="82"/>
-      <c r="VG2" s="82"/>
-      <c r="VH2" s="82"/>
-      <c r="VI2" s="82"/>
-      <c r="VJ2" s="82"/>
-      <c r="VK2" s="82"/>
-      <c r="VL2" s="82"/>
-      <c r="VM2" s="82"/>
-      <c r="VN2" s="82"/>
-      <c r="VO2" s="82"/>
-      <c r="VP2" s="82"/>
-      <c r="VQ2" s="82"/>
-      <c r="VR2" s="82"/>
-      <c r="VS2" s="82"/>
-      <c r="VT2" s="82"/>
-      <c r="VU2" s="82"/>
-      <c r="VV2" s="82"/>
-      <c r="VW2" s="82"/>
-      <c r="VX2" s="82"/>
-      <c r="VY2" s="82"/>
-      <c r="VZ2" s="82"/>
-      <c r="WA2" s="82"/>
-      <c r="WB2" s="82"/>
-      <c r="WC2" s="82"/>
-      <c r="WD2" s="82"/>
-      <c r="WE2" s="82"/>
-      <c r="WF2" s="82"/>
-      <c r="WG2" s="82"/>
-      <c r="WH2" s="82"/>
-      <c r="WI2" s="82"/>
-      <c r="WJ2" s="82"/>
-      <c r="WK2" s="82"/>
-      <c r="WL2" s="82"/>
-      <c r="WM2" s="82"/>
-      <c r="WN2" s="82"/>
-      <c r="WO2" s="82"/>
-      <c r="WP2" s="82"/>
-      <c r="WQ2" s="82"/>
-      <c r="WR2" s="82"/>
-      <c r="WS2" s="82"/>
-      <c r="WT2" s="82"/>
-      <c r="WU2" s="82"/>
-      <c r="WV2" s="82"/>
-      <c r="WW2" s="82"/>
-      <c r="WX2" s="82"/>
-      <c r="WY2" s="82"/>
-      <c r="WZ2" s="82"/>
-      <c r="XA2" s="82"/>
-      <c r="XB2" s="82"/>
-      <c r="XC2" s="82"/>
-      <c r="XD2" s="82"/>
-      <c r="XE2" s="82"/>
-      <c r="XF2" s="82"/>
-      <c r="XG2" s="82"/>
-      <c r="XH2" s="82"/>
-      <c r="XI2" s="82"/>
-      <c r="XJ2" s="82"/>
-      <c r="XK2" s="82"/>
-      <c r="XL2" s="82"/>
-      <c r="XM2" s="82"/>
-      <c r="XN2" s="82"/>
-      <c r="XO2" s="82"/>
-      <c r="XP2" s="82"/>
-      <c r="XQ2" s="82"/>
-      <c r="XR2" s="82"/>
-      <c r="XS2" s="82"/>
-      <c r="XT2" s="82"/>
-      <c r="XU2" s="82"/>
-      <c r="XV2" s="82"/>
-      <c r="XW2" s="82"/>
-      <c r="XX2" s="82"/>
-      <c r="XY2" s="82"/>
-      <c r="XZ2" s="82"/>
-      <c r="YA2" s="82"/>
-      <c r="YB2" s="82"/>
-      <c r="YC2" s="82"/>
-      <c r="YD2" s="82"/>
-      <c r="YE2" s="82"/>
-      <c r="YF2" s="82"/>
-      <c r="YG2" s="82"/>
-      <c r="YH2" s="82"/>
-      <c r="YI2" s="82"/>
-      <c r="YJ2" s="82"/>
-      <c r="YK2" s="82"/>
-      <c r="YL2" s="82"/>
-      <c r="YM2" s="82"/>
-      <c r="YN2" s="82"/>
-      <c r="YO2" s="82"/>
-      <c r="YP2" s="82"/>
-      <c r="YQ2" s="82"/>
-      <c r="YR2" s="82"/>
-      <c r="YS2" s="82"/>
-      <c r="YT2" s="82"/>
-      <c r="YU2" s="82"/>
-      <c r="YV2" s="82"/>
-      <c r="YW2" s="82"/>
-      <c r="YX2" s="82"/>
-      <c r="YY2" s="82"/>
-      <c r="YZ2" s="82"/>
-      <c r="ZA2" s="82"/>
-      <c r="ZB2" s="82"/>
-      <c r="ZC2" s="82"/>
-      <c r="ZD2" s="82"/>
-      <c r="ZE2" s="82"/>
-      <c r="ZF2" s="82"/>
-      <c r="ZG2" s="82"/>
-      <c r="ZH2" s="82"/>
-      <c r="ZI2" s="82"/>
-      <c r="ZJ2" s="82"/>
-      <c r="ZK2" s="82"/>
-      <c r="ZL2" s="82"/>
-      <c r="ZM2" s="82"/>
-      <c r="ZN2" s="82"/>
-      <c r="ZO2" s="82"/>
-      <c r="ZP2" s="82"/>
-      <c r="ZQ2" s="82"/>
-      <c r="ZR2" s="82"/>
-      <c r="ZS2" s="82"/>
-      <c r="ZT2" s="82"/>
-      <c r="ZU2" s="82"/>
-      <c r="ZV2" s="82"/>
-      <c r="ZW2" s="82"/>
-      <c r="ZX2" s="82"/>
-      <c r="ZY2" s="82"/>
-      <c r="ZZ2" s="82"/>
-      <c r="AAA2" s="82"/>
-      <c r="AAB2" s="82"/>
-      <c r="AAC2" s="82"/>
-      <c r="AAD2" s="82"/>
-      <c r="AAE2" s="82"/>
-      <c r="AAF2" s="82"/>
-      <c r="AAG2" s="82"/>
-      <c r="AAH2" s="82"/>
-      <c r="AAI2" s="82"/>
-      <c r="AAJ2" s="82"/>
-      <c r="AAK2" s="82"/>
-      <c r="AAL2" s="82"/>
-      <c r="AAM2" s="82"/>
-      <c r="AAN2" s="82"/>
-      <c r="AAO2" s="82"/>
-      <c r="AAP2" s="82"/>
-      <c r="AAQ2" s="82"/>
-      <c r="AAR2" s="82"/>
-      <c r="AAS2" s="82"/>
-      <c r="AAT2" s="82"/>
-      <c r="AAU2" s="82"/>
-      <c r="AAV2" s="82"/>
-      <c r="AAW2" s="82"/>
-      <c r="AAX2" s="82"/>
-      <c r="AAY2" s="82"/>
-      <c r="AAZ2" s="82"/>
-      <c r="ABA2" s="82"/>
-      <c r="ABB2" s="82"/>
-      <c r="ABC2" s="82"/>
-      <c r="ABD2" s="82"/>
-      <c r="ABE2" s="82"/>
-      <c r="ABF2" s="82"/>
-      <c r="ABG2" s="82"/>
-      <c r="ABH2" s="82"/>
-      <c r="ABI2" s="82"/>
-      <c r="ABJ2" s="82"/>
-      <c r="ABK2" s="82"/>
-      <c r="ABL2" s="82"/>
-      <c r="ABM2" s="82"/>
-      <c r="ABN2" s="82"/>
-      <c r="ABO2" s="82"/>
-      <c r="ABP2" s="82"/>
-      <c r="ABQ2" s="82"/>
-      <c r="ABR2" s="82"/>
-      <c r="ABS2" s="82"/>
-      <c r="ABT2" s="82"/>
-      <c r="ABU2" s="82"/>
-      <c r="ABV2" s="82"/>
-      <c r="ABW2" s="82"/>
-      <c r="ABX2" s="82"/>
-      <c r="ABY2" s="82"/>
-      <c r="ABZ2" s="82"/>
-      <c r="ACA2" s="82"/>
-      <c r="ACB2" s="82"/>
-      <c r="ACC2" s="82"/>
-      <c r="ACD2" s="82"/>
-      <c r="ACE2" s="82"/>
-      <c r="ACF2" s="82"/>
-      <c r="ACG2" s="82"/>
-      <c r="ACH2" s="82"/>
-      <c r="ACI2" s="82"/>
-      <c r="ACJ2" s="82"/>
-      <c r="ACK2" s="82"/>
-      <c r="ACL2" s="82"/>
-      <c r="ACM2" s="82"/>
-      <c r="ACN2" s="82"/>
-      <c r="ACO2" s="82"/>
-      <c r="ACP2" s="82"/>
-      <c r="ACQ2" s="82"/>
-      <c r="ACR2" s="82"/>
-      <c r="ACS2" s="82"/>
-      <c r="ACT2" s="82"/>
-      <c r="ACU2" s="82"/>
-      <c r="ACV2" s="82"/>
-      <c r="ACW2" s="82"/>
-      <c r="ACX2" s="82"/>
-      <c r="ACY2" s="82"/>
-      <c r="ACZ2" s="82"/>
-      <c r="ADA2" s="82"/>
-      <c r="ADB2" s="82"/>
-      <c r="ADC2" s="82"/>
-      <c r="ADD2" s="82"/>
-      <c r="ADE2" s="82"/>
-      <c r="ADF2" s="82"/>
-      <c r="ADG2" s="82"/>
-      <c r="ADH2" s="82"/>
-      <c r="ADI2" s="82"/>
-      <c r="ADJ2" s="82"/>
-      <c r="ADK2" s="82"/>
-      <c r="ADL2" s="82"/>
-      <c r="ADM2" s="82"/>
-      <c r="ADN2" s="82"/>
-      <c r="ADO2" s="82"/>
-      <c r="ADP2" s="82"/>
-      <c r="ADQ2" s="82"/>
-      <c r="ADR2" s="82"/>
-      <c r="ADS2" s="82"/>
-      <c r="ADT2" s="82"/>
-      <c r="ADU2" s="82"/>
-      <c r="ADV2" s="82"/>
-      <c r="ADW2" s="82"/>
-      <c r="ADX2" s="82"/>
-      <c r="ADY2" s="82"/>
-      <c r="ADZ2" s="82"/>
-      <c r="AEA2" s="82"/>
-      <c r="AEB2" s="82"/>
-      <c r="AEC2" s="82"/>
-      <c r="AED2" s="82"/>
-      <c r="AEE2" s="82"/>
-      <c r="AEF2" s="82"/>
-      <c r="AEG2" s="82"/>
-      <c r="AEH2" s="82"/>
-      <c r="AEI2" s="82"/>
-      <c r="AEJ2" s="82"/>
-      <c r="AEK2" s="82"/>
-      <c r="AEL2" s="82"/>
-      <c r="AEM2" s="82"/>
-      <c r="AEN2" s="82"/>
-      <c r="AEO2" s="82"/>
-      <c r="AEP2" s="82"/>
-      <c r="AEQ2" s="82"/>
-      <c r="AER2" s="82"/>
-      <c r="AES2" s="82"/>
-      <c r="AET2" s="82"/>
-      <c r="AEU2" s="82"/>
-      <c r="AEV2" s="82"/>
-      <c r="AEW2" s="82"/>
-      <c r="AEX2" s="82"/>
-      <c r="AEY2" s="82"/>
-      <c r="AEZ2" s="82"/>
-      <c r="AFA2" s="82"/>
-      <c r="AFB2" s="82"/>
-      <c r="AFC2" s="82"/>
-      <c r="AFD2" s="82"/>
-      <c r="AFE2" s="82"/>
-      <c r="AFF2" s="82"/>
-      <c r="AFG2" s="82"/>
-      <c r="AFH2" s="82"/>
-      <c r="AFI2" s="82"/>
-      <c r="AFJ2" s="82"/>
-      <c r="AFK2" s="82"/>
-      <c r="AFL2" s="82"/>
-      <c r="AFM2" s="82"/>
-      <c r="AFN2" s="82"/>
-      <c r="AFO2" s="82"/>
-      <c r="AFP2" s="82"/>
-      <c r="AFQ2" s="82"/>
-      <c r="AFR2" s="82"/>
-      <c r="AFS2" s="82"/>
-      <c r="AFT2" s="82"/>
-      <c r="AFU2" s="82"/>
-      <c r="AFV2" s="82"/>
-      <c r="AFW2" s="82"/>
-      <c r="AFX2" s="82"/>
-      <c r="AFY2" s="82"/>
-      <c r="AFZ2" s="82"/>
-      <c r="AGA2" s="82"/>
-      <c r="AGB2" s="82"/>
-      <c r="AGC2" s="82"/>
-      <c r="AGD2" s="82"/>
-      <c r="AGE2" s="82"/>
-      <c r="AGF2" s="82"/>
-      <c r="AGG2" s="82"/>
-      <c r="AGH2" s="82"/>
-      <c r="AGI2" s="82"/>
-      <c r="AGJ2" s="82"/>
-      <c r="AGK2" s="82"/>
-      <c r="AGL2" s="82"/>
-      <c r="AGM2" s="82"/>
-      <c r="AGN2" s="82"/>
-      <c r="AGO2" s="82"/>
-      <c r="AGP2" s="82"/>
-      <c r="AGQ2" s="82"/>
-      <c r="AGR2" s="82"/>
-      <c r="AGS2" s="82"/>
-      <c r="AGT2" s="82"/>
-      <c r="AGU2" s="82"/>
-      <c r="AGV2" s="82"/>
-      <c r="AGW2" s="82"/>
-      <c r="AGX2" s="82"/>
-      <c r="AGY2" s="82"/>
-      <c r="AGZ2" s="82"/>
-      <c r="AHA2" s="82"/>
-      <c r="AHB2" s="82"/>
-      <c r="AHC2" s="82"/>
-      <c r="AHD2" s="82"/>
-      <c r="AHE2" s="82"/>
-      <c r="AHF2" s="82"/>
-      <c r="AHG2" s="82"/>
-      <c r="AHH2" s="82"/>
-      <c r="AHI2" s="82"/>
-      <c r="AHJ2" s="82"/>
-      <c r="AHK2" s="82"/>
-      <c r="AHL2" s="82"/>
-      <c r="AHM2" s="82"/>
-      <c r="AHN2" s="82"/>
-      <c r="AHO2" s="82"/>
-      <c r="AHP2" s="82"/>
-      <c r="AHQ2" s="82"/>
-      <c r="AHR2" s="82"/>
-      <c r="AHS2" s="82"/>
-      <c r="AHT2" s="82"/>
-      <c r="AHU2" s="82"/>
-      <c r="AHV2" s="82"/>
-      <c r="AHW2" s="82"/>
-      <c r="AHX2" s="82"/>
-      <c r="AHY2" s="82"/>
-      <c r="AHZ2" s="82"/>
-      <c r="AIA2" s="82"/>
-      <c r="AIB2" s="82"/>
-      <c r="AIC2" s="82"/>
-      <c r="AID2" s="82"/>
-      <c r="AIE2" s="82"/>
-      <c r="AIF2" s="82"/>
-      <c r="AIG2" s="82"/>
-      <c r="AIH2" s="82"/>
-      <c r="AII2" s="82"/>
-      <c r="AIJ2" s="82"/>
-      <c r="AIK2" s="82"/>
-      <c r="AIL2" s="82"/>
-      <c r="AIM2" s="82"/>
-      <c r="AIN2" s="82"/>
-      <c r="AIO2" s="82"/>
-      <c r="AIP2" s="82"/>
-      <c r="AIQ2" s="82"/>
-      <c r="AIR2" s="82"/>
-      <c r="AIS2" s="82"/>
-      <c r="AIT2" s="82"/>
-      <c r="AIU2" s="82"/>
-      <c r="AIV2" s="82"/>
-      <c r="AIW2" s="82"/>
-      <c r="AIX2" s="82"/>
-      <c r="AIY2" s="82"/>
-      <c r="AIZ2" s="82"/>
-      <c r="AJA2" s="82"/>
-      <c r="AJB2" s="82"/>
-      <c r="AJC2" s="82"/>
-      <c r="AJD2" s="82"/>
-      <c r="AJE2" s="82"/>
-      <c r="AJF2" s="82"/>
-      <c r="AJG2" s="82"/>
-      <c r="AJH2" s="82"/>
-      <c r="AJI2" s="82"/>
-      <c r="AJJ2" s="82"/>
-      <c r="AJK2" s="82"/>
-      <c r="AJL2" s="82"/>
-      <c r="AJM2" s="82"/>
-      <c r="AJN2" s="82"/>
-      <c r="AJO2" s="82"/>
-      <c r="AJP2" s="82"/>
-      <c r="AJQ2" s="82"/>
-      <c r="AJR2" s="82"/>
-      <c r="AJS2" s="82"/>
-      <c r="AJT2" s="82"/>
-      <c r="AJU2" s="82"/>
-      <c r="AJV2" s="82"/>
-      <c r="AJW2" s="82"/>
-      <c r="AJX2" s="82"/>
-      <c r="AJY2" s="82"/>
-      <c r="AJZ2" s="82"/>
-      <c r="AKA2" s="82"/>
-      <c r="AKB2" s="82"/>
-      <c r="AKC2" s="82"/>
-      <c r="AKD2" s="82"/>
-      <c r="AKE2" s="82"/>
-      <c r="AKF2" s="82"/>
-      <c r="AKG2" s="82"/>
-      <c r="AKH2" s="82"/>
-      <c r="AKI2" s="82"/>
-      <c r="AKJ2" s="82"/>
-      <c r="AKK2" s="82"/>
-      <c r="AKL2" s="82"/>
-      <c r="AKM2" s="82"/>
-      <c r="AKN2" s="82"/>
-      <c r="AKO2" s="82"/>
-      <c r="AKP2" s="82"/>
-      <c r="AKQ2" s="82"/>
-      <c r="AKR2" s="82"/>
-      <c r="AKS2" s="82"/>
-      <c r="AKT2" s="82"/>
-      <c r="AKU2" s="82"/>
-      <c r="AKV2" s="82"/>
-      <c r="AKW2" s="82"/>
-      <c r="AKX2" s="82"/>
-      <c r="AKY2" s="82"/>
-      <c r="AKZ2" s="82"/>
-      <c r="ALA2" s="82"/>
-      <c r="ALB2" s="82"/>
-      <c r="ALC2" s="82"/>
-      <c r="ALD2" s="82"/>
-      <c r="ALE2" s="82"/>
-      <c r="ALF2" s="82"/>
-      <c r="ALG2" s="82"/>
-      <c r="ALH2" s="82"/>
-      <c r="ALI2" s="82"/>
-      <c r="ALJ2" s="82"/>
-      <c r="ALK2" s="82"/>
-      <c r="ALL2" s="82"/>
-      <c r="ALM2" s="82"/>
-      <c r="ALN2" s="82"/>
-      <c r="ALO2" s="82"/>
-      <c r="ALP2" s="82"/>
-      <c r="ALQ2" s="82"/>
-      <c r="ALR2" s="82"/>
-      <c r="ALS2" s="82"/>
-      <c r="ALT2" s="82"/>
-      <c r="ALU2" s="82"/>
-      <c r="ALV2" s="82"/>
-      <c r="ALW2" s="82"/>
-      <c r="ALX2" s="82"/>
-      <c r="ALY2" s="82"/>
-      <c r="ALZ2" s="82"/>
-      <c r="AMA2" s="82"/>
-      <c r="AMB2" s="82"/>
-      <c r="AMC2" s="82"/>
-      <c r="AMD2" s="82"/>
-      <c r="AME2" s="82"/>
-      <c r="AMF2" s="82"/>
-      <c r="AMG2" s="82"/>
-      <c r="AMH2" s="82"/>
-      <c r="AMI2" s="82"/>
-      <c r="AMJ2" s="82"/>
-      <c r="AMK2" s="82"/>
-      <c r="AML2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="81"/>
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="81"/>
+      <c r="AJ2" s="81"/>
+      <c r="AK2" s="81"/>
+      <c r="AL2" s="81"/>
+      <c r="AM2" s="81"/>
+      <c r="AN2" s="81"/>
+      <c r="AO2" s="81"/>
+      <c r="AP2" s="81"/>
+      <c r="AQ2" s="81"/>
+      <c r="AR2" s="81"/>
+      <c r="AS2" s="81"/>
+      <c r="AT2" s="81"/>
+      <c r="AU2" s="81"/>
+      <c r="AV2" s="81"/>
+      <c r="AW2" s="81"/>
+      <c r="AX2" s="81"/>
+      <c r="AY2" s="81"/>
+      <c r="AZ2" s="81"/>
+      <c r="BA2" s="81"/>
+      <c r="BB2" s="81"/>
+      <c r="BC2" s="81"/>
+      <c r="BD2" s="81"/>
+      <c r="BE2" s="81"/>
+      <c r="BF2" s="81"/>
+      <c r="BG2" s="81"/>
+      <c r="BH2" s="81"/>
+      <c r="BI2" s="81"/>
+      <c r="BJ2" s="81"/>
+      <c r="BK2" s="81"/>
+      <c r="BL2" s="81"/>
+      <c r="BM2" s="81"/>
+      <c r="BN2" s="81"/>
+      <c r="BO2" s="81"/>
+      <c r="BP2" s="81"/>
+      <c r="BQ2" s="81"/>
+      <c r="BR2" s="81"/>
+      <c r="BS2" s="81"/>
+      <c r="BT2" s="81"/>
+      <c r="BU2" s="81"/>
+      <c r="BV2" s="81"/>
+      <c r="BW2" s="81"/>
+      <c r="BX2" s="81"/>
+      <c r="BY2" s="81"/>
+      <c r="BZ2" s="81"/>
+      <c r="CA2" s="81"/>
+      <c r="CB2" s="81"/>
+      <c r="CC2" s="81"/>
+      <c r="CD2" s="81"/>
+      <c r="CE2" s="81"/>
+      <c r="CF2" s="81"/>
+      <c r="CG2" s="81"/>
+      <c r="CH2" s="81"/>
+      <c r="CI2" s="81"/>
+      <c r="CJ2" s="81"/>
+      <c r="CK2" s="81"/>
+      <c r="CL2" s="81"/>
+      <c r="CM2" s="81"/>
+      <c r="CN2" s="81"/>
+      <c r="CO2" s="81"/>
+      <c r="CP2" s="81"/>
+      <c r="CQ2" s="81"/>
+      <c r="CR2" s="81"/>
+      <c r="CS2" s="81"/>
+      <c r="CT2" s="81"/>
+      <c r="CU2" s="81"/>
+      <c r="CV2" s="81"/>
+      <c r="CW2" s="81"/>
+      <c r="CX2" s="81"/>
+      <c r="CY2" s="81"/>
+      <c r="CZ2" s="81"/>
+      <c r="DA2" s="81"/>
+      <c r="DB2" s="81"/>
+      <c r="DC2" s="81"/>
+      <c r="DD2" s="81"/>
+      <c r="DE2" s="81"/>
+      <c r="DF2" s="81"/>
+      <c r="DG2" s="81"/>
+      <c r="DH2" s="81"/>
+      <c r="DI2" s="81"/>
+      <c r="DJ2" s="81"/>
+      <c r="DK2" s="81"/>
+      <c r="DL2" s="81"/>
+      <c r="DM2" s="81"/>
+      <c r="DN2" s="81"/>
+      <c r="DO2" s="81"/>
+      <c r="DP2" s="81"/>
+      <c r="DQ2" s="81"/>
+      <c r="DR2" s="81"/>
+      <c r="DS2" s="81"/>
+      <c r="DT2" s="81"/>
+      <c r="DU2" s="81"/>
+      <c r="DV2" s="81"/>
+      <c r="DW2" s="81"/>
+      <c r="DX2" s="81"/>
+      <c r="DY2" s="81"/>
+      <c r="DZ2" s="81"/>
+      <c r="EA2" s="81"/>
+      <c r="EB2" s="81"/>
+      <c r="EC2" s="81"/>
+      <c r="ED2" s="81"/>
+      <c r="EE2" s="81"/>
+      <c r="EF2" s="81"/>
+      <c r="EG2" s="81"/>
+      <c r="EH2" s="81"/>
+      <c r="EI2" s="81"/>
+      <c r="EJ2" s="81"/>
+      <c r="EK2" s="81"/>
+      <c r="EL2" s="81"/>
+      <c r="EM2" s="81"/>
+      <c r="EN2" s="81"/>
+      <c r="EO2" s="81"/>
+      <c r="EP2" s="81"/>
+      <c r="EQ2" s="81"/>
+      <c r="ER2" s="81"/>
+      <c r="ES2" s="81"/>
+      <c r="ET2" s="81"/>
+      <c r="EU2" s="81"/>
+      <c r="EV2" s="81"/>
+      <c r="EW2" s="81"/>
+      <c r="EX2" s="81"/>
+      <c r="EY2" s="81"/>
+      <c r="EZ2" s="81"/>
+      <c r="FA2" s="81"/>
+      <c r="FB2" s="81"/>
+      <c r="FC2" s="81"/>
+      <c r="FD2" s="81"/>
+      <c r="FE2" s="81"/>
+      <c r="FF2" s="81"/>
+      <c r="FG2" s="81"/>
+      <c r="FH2" s="81"/>
+      <c r="FI2" s="81"/>
+      <c r="FJ2" s="81"/>
+      <c r="FK2" s="81"/>
+      <c r="FL2" s="81"/>
+      <c r="FM2" s="81"/>
+      <c r="FN2" s="81"/>
+      <c r="FO2" s="81"/>
+      <c r="FP2" s="81"/>
+      <c r="FQ2" s="81"/>
+      <c r="FR2" s="81"/>
+      <c r="FS2" s="81"/>
+      <c r="FT2" s="81"/>
+      <c r="FU2" s="81"/>
+      <c r="FV2" s="81"/>
+      <c r="FW2" s="81"/>
+      <c r="FX2" s="81"/>
+      <c r="FY2" s="81"/>
+      <c r="FZ2" s="81"/>
+      <c r="GA2" s="81"/>
+      <c r="GB2" s="81"/>
+      <c r="GC2" s="81"/>
+      <c r="GD2" s="81"/>
+      <c r="GE2" s="81"/>
+      <c r="GF2" s="81"/>
+      <c r="GG2" s="81"/>
+      <c r="GH2" s="81"/>
+      <c r="GI2" s="81"/>
+      <c r="GJ2" s="81"/>
+      <c r="GK2" s="81"/>
+      <c r="GL2" s="81"/>
+      <c r="GM2" s="81"/>
+      <c r="GN2" s="81"/>
+      <c r="GO2" s="81"/>
+      <c r="GP2" s="81"/>
+      <c r="GQ2" s="81"/>
+      <c r="GR2" s="81"/>
+      <c r="GS2" s="81"/>
+      <c r="GT2" s="81"/>
+      <c r="GU2" s="81"/>
+      <c r="GV2" s="81"/>
+      <c r="GW2" s="81"/>
+      <c r="GX2" s="81"/>
+      <c r="GY2" s="81"/>
+      <c r="GZ2" s="81"/>
+      <c r="HA2" s="81"/>
+      <c r="HB2" s="81"/>
+      <c r="HC2" s="81"/>
+      <c r="HD2" s="81"/>
+      <c r="HE2" s="81"/>
+      <c r="HF2" s="81"/>
+      <c r="HG2" s="81"/>
+      <c r="HH2" s="81"/>
+      <c r="HI2" s="81"/>
+      <c r="HJ2" s="81"/>
+      <c r="HK2" s="81"/>
+      <c r="HL2" s="81"/>
+      <c r="HM2" s="81"/>
+      <c r="HN2" s="81"/>
+      <c r="HO2" s="81"/>
+      <c r="HP2" s="81"/>
+      <c r="HQ2" s="81"/>
+      <c r="HR2" s="81"/>
+      <c r="HS2" s="81"/>
+      <c r="HT2" s="81"/>
+      <c r="HU2" s="81"/>
+      <c r="HV2" s="81"/>
+      <c r="HW2" s="81"/>
+      <c r="HX2" s="81"/>
+      <c r="HY2" s="81"/>
+      <c r="HZ2" s="81"/>
+      <c r="IA2" s="81"/>
+      <c r="IB2" s="81"/>
+      <c r="IC2" s="81"/>
+      <c r="ID2" s="81"/>
+      <c r="IE2" s="81"/>
+      <c r="IF2" s="81"/>
+      <c r="IG2" s="81"/>
+      <c r="IH2" s="81"/>
+      <c r="II2" s="81"/>
+      <c r="IJ2" s="81"/>
+      <c r="IK2" s="81"/>
+      <c r="IL2" s="81"/>
+      <c r="IM2" s="81"/>
+      <c r="IN2" s="81"/>
+      <c r="IO2" s="81"/>
+      <c r="IP2" s="81"/>
+      <c r="IQ2" s="81"/>
+      <c r="IR2" s="81"/>
+      <c r="IS2" s="81"/>
+      <c r="IT2" s="81"/>
+      <c r="IU2" s="81"/>
+      <c r="IV2" s="81"/>
+      <c r="IW2" s="81"/>
+      <c r="IX2" s="81"/>
+      <c r="IY2" s="81"/>
+      <c r="IZ2" s="81"/>
+      <c r="JA2" s="81"/>
+      <c r="JB2" s="81"/>
+      <c r="JC2" s="81"/>
+      <c r="JD2" s="81"/>
+      <c r="JE2" s="81"/>
+      <c r="JF2" s="81"/>
+      <c r="JG2" s="81"/>
+      <c r="JH2" s="81"/>
+      <c r="JI2" s="81"/>
+      <c r="JJ2" s="81"/>
+      <c r="JK2" s="81"/>
+      <c r="JL2" s="81"/>
+      <c r="JM2" s="81"/>
+      <c r="JN2" s="81"/>
+      <c r="JO2" s="81"/>
+      <c r="JP2" s="81"/>
+      <c r="JQ2" s="81"/>
+      <c r="JR2" s="81"/>
+      <c r="JS2" s="81"/>
+      <c r="JT2" s="81"/>
+      <c r="JU2" s="81"/>
+      <c r="JV2" s="81"/>
+      <c r="JW2" s="81"/>
+      <c r="JX2" s="81"/>
+      <c r="JY2" s="81"/>
+      <c r="JZ2" s="81"/>
+      <c r="KA2" s="81"/>
+      <c r="KB2" s="81"/>
+      <c r="KC2" s="81"/>
+      <c r="KD2" s="81"/>
+      <c r="KE2" s="81"/>
+      <c r="KF2" s="81"/>
+      <c r="KG2" s="81"/>
+      <c r="KH2" s="81"/>
+      <c r="KI2" s="81"/>
+      <c r="KJ2" s="81"/>
+      <c r="KK2" s="81"/>
+      <c r="KL2" s="81"/>
+      <c r="KM2" s="81"/>
+      <c r="KN2" s="81"/>
+      <c r="KO2" s="81"/>
+      <c r="KP2" s="81"/>
+      <c r="KQ2" s="81"/>
+      <c r="KR2" s="81"/>
+      <c r="KS2" s="81"/>
+      <c r="KT2" s="81"/>
+      <c r="KU2" s="81"/>
+      <c r="KV2" s="81"/>
+      <c r="KW2" s="81"/>
+      <c r="KX2" s="81"/>
+      <c r="KY2" s="81"/>
+      <c r="KZ2" s="81"/>
+      <c r="LA2" s="81"/>
+      <c r="LB2" s="81"/>
+      <c r="LC2" s="81"/>
+      <c r="LD2" s="81"/>
+      <c r="LE2" s="81"/>
+      <c r="LF2" s="81"/>
+      <c r="LG2" s="81"/>
+      <c r="LH2" s="81"/>
+      <c r="LI2" s="81"/>
+      <c r="LJ2" s="81"/>
+      <c r="LK2" s="81"/>
+      <c r="LL2" s="81"/>
+      <c r="LM2" s="81"/>
+      <c r="LN2" s="81"/>
+      <c r="LO2" s="81"/>
+      <c r="LP2" s="81"/>
+      <c r="LQ2" s="81"/>
+      <c r="LR2" s="81"/>
+      <c r="LS2" s="81"/>
+      <c r="LT2" s="81"/>
+      <c r="LU2" s="81"/>
+      <c r="LV2" s="81"/>
+      <c r="LW2" s="81"/>
+      <c r="LX2" s="81"/>
+      <c r="LY2" s="81"/>
+      <c r="LZ2" s="81"/>
+      <c r="MA2" s="81"/>
+      <c r="MB2" s="81"/>
+      <c r="MC2" s="81"/>
+      <c r="MD2" s="81"/>
+      <c r="ME2" s="81"/>
+      <c r="MF2" s="81"/>
+      <c r="MG2" s="81"/>
+      <c r="MH2" s="81"/>
+      <c r="MI2" s="81"/>
+      <c r="MJ2" s="81"/>
+      <c r="MK2" s="81"/>
+      <c r="ML2" s="81"/>
+      <c r="MM2" s="81"/>
+      <c r="MN2" s="81"/>
+      <c r="MO2" s="81"/>
+      <c r="MP2" s="81"/>
+      <c r="MQ2" s="81"/>
+      <c r="MR2" s="81"/>
+      <c r="MS2" s="81"/>
+      <c r="MT2" s="81"/>
+      <c r="MU2" s="81"/>
+      <c r="MV2" s="81"/>
+      <c r="MW2" s="81"/>
+      <c r="MX2" s="81"/>
+      <c r="MY2" s="81"/>
+      <c r="MZ2" s="81"/>
+      <c r="NA2" s="81"/>
+      <c r="NB2" s="81"/>
+      <c r="NC2" s="81"/>
+      <c r="ND2" s="81"/>
+      <c r="NE2" s="81"/>
+      <c r="NF2" s="81"/>
+      <c r="NG2" s="81"/>
+      <c r="NH2" s="81"/>
+      <c r="NI2" s="81"/>
+      <c r="NJ2" s="81"/>
+      <c r="NK2" s="81"/>
+      <c r="NL2" s="81"/>
+      <c r="NM2" s="81"/>
+      <c r="NN2" s="81"/>
+      <c r="NO2" s="81"/>
+      <c r="NP2" s="81"/>
+      <c r="NQ2" s="81"/>
+      <c r="NR2" s="81"/>
+      <c r="NS2" s="81"/>
+      <c r="NT2" s="81"/>
+      <c r="NU2" s="81"/>
+      <c r="NV2" s="81"/>
+      <c r="NW2" s="81"/>
+      <c r="NX2" s="81"/>
+      <c r="NY2" s="81"/>
+      <c r="NZ2" s="81"/>
+      <c r="OA2" s="81"/>
+      <c r="OB2" s="81"/>
+      <c r="OC2" s="81"/>
+      <c r="OD2" s="81"/>
+      <c r="OE2" s="81"/>
+      <c r="OF2" s="81"/>
+      <c r="OG2" s="81"/>
+      <c r="OH2" s="81"/>
+      <c r="OI2" s="81"/>
+      <c r="OJ2" s="81"/>
+      <c r="OK2" s="81"/>
+      <c r="OL2" s="81"/>
+      <c r="OM2" s="81"/>
+      <c r="ON2" s="81"/>
+      <c r="OO2" s="81"/>
+      <c r="OP2" s="81"/>
+      <c r="OQ2" s="81"/>
+      <c r="OR2" s="81"/>
+      <c r="OS2" s="81"/>
+      <c r="OT2" s="81"/>
+      <c r="OU2" s="81"/>
+      <c r="OV2" s="81"/>
+      <c r="OW2" s="81"/>
+      <c r="OX2" s="81"/>
+      <c r="OY2" s="81"/>
+      <c r="OZ2" s="81"/>
+      <c r="PA2" s="81"/>
+      <c r="PB2" s="81"/>
+      <c r="PC2" s="81"/>
+      <c r="PD2" s="81"/>
+      <c r="PE2" s="81"/>
+      <c r="PF2" s="81"/>
+      <c r="PG2" s="81"/>
+      <c r="PH2" s="81"/>
+      <c r="PI2" s="81"/>
+      <c r="PJ2" s="81"/>
+      <c r="PK2" s="81"/>
+      <c r="PL2" s="81"/>
+      <c r="PM2" s="81"/>
+      <c r="PN2" s="81"/>
+      <c r="PO2" s="81"/>
+      <c r="PP2" s="81"/>
+      <c r="PQ2" s="81"/>
+      <c r="PR2" s="81"/>
+      <c r="PS2" s="81"/>
+      <c r="PT2" s="81"/>
+      <c r="PU2" s="81"/>
+      <c r="PV2" s="81"/>
+      <c r="PW2" s="81"/>
+      <c r="PX2" s="81"/>
+      <c r="PY2" s="81"/>
+      <c r="PZ2" s="81"/>
+      <c r="QA2" s="81"/>
+      <c r="QB2" s="81"/>
+      <c r="QC2" s="81"/>
+      <c r="QD2" s="81"/>
+      <c r="QE2" s="81"/>
+      <c r="QF2" s="81"/>
+      <c r="QG2" s="81"/>
+      <c r="QH2" s="81"/>
+      <c r="QI2" s="81"/>
+      <c r="QJ2" s="81"/>
+      <c r="QK2" s="81"/>
+      <c r="QL2" s="81"/>
+      <c r="QM2" s="81"/>
+      <c r="QN2" s="81"/>
+      <c r="QO2" s="81"/>
+      <c r="QP2" s="81"/>
+      <c r="QQ2" s="81"/>
+      <c r="QR2" s="81"/>
+      <c r="QS2" s="81"/>
+      <c r="QT2" s="81"/>
+      <c r="QU2" s="81"/>
+      <c r="QV2" s="81"/>
+      <c r="QW2" s="81"/>
+      <c r="QX2" s="81"/>
+      <c r="QY2" s="81"/>
+      <c r="QZ2" s="81"/>
+      <c r="RA2" s="81"/>
+      <c r="RB2" s="81"/>
+      <c r="RC2" s="81"/>
+      <c r="RD2" s="81"/>
+      <c r="RE2" s="81"/>
+      <c r="RF2" s="81"/>
+      <c r="RG2" s="81"/>
+      <c r="RH2" s="81"/>
+      <c r="RI2" s="81"/>
+      <c r="RJ2" s="81"/>
+      <c r="RK2" s="81"/>
+      <c r="RL2" s="81"/>
+      <c r="RM2" s="81"/>
+      <c r="RN2" s="81"/>
+      <c r="RO2" s="81"/>
+      <c r="RP2" s="81"/>
+      <c r="RQ2" s="81"/>
+      <c r="RR2" s="81"/>
+      <c r="RS2" s="81"/>
+      <c r="RT2" s="81"/>
+      <c r="RU2" s="81"/>
+      <c r="RV2" s="81"/>
+      <c r="RW2" s="81"/>
+      <c r="RX2" s="81"/>
+      <c r="RY2" s="81"/>
+      <c r="RZ2" s="81"/>
+      <c r="SA2" s="81"/>
+      <c r="SB2" s="81"/>
+      <c r="SC2" s="81"/>
+      <c r="SD2" s="81"/>
+      <c r="SE2" s="81"/>
+      <c r="SF2" s="81"/>
+      <c r="SG2" s="81"/>
+      <c r="SH2" s="81"/>
+      <c r="SI2" s="81"/>
+      <c r="SJ2" s="81"/>
+      <c r="SK2" s="81"/>
+      <c r="SL2" s="81"/>
+      <c r="SM2" s="81"/>
+      <c r="SN2" s="81"/>
+      <c r="SO2" s="81"/>
+      <c r="SP2" s="81"/>
+      <c r="SQ2" s="81"/>
+      <c r="SR2" s="81"/>
+      <c r="SS2" s="81"/>
+      <c r="ST2" s="81"/>
+      <c r="SU2" s="81"/>
+      <c r="SV2" s="81"/>
+      <c r="SW2" s="81"/>
+      <c r="SX2" s="81"/>
+      <c r="SY2" s="81"/>
+      <c r="SZ2" s="81"/>
+      <c r="TA2" s="81"/>
+      <c r="TB2" s="81"/>
+      <c r="TC2" s="81"/>
+      <c r="TD2" s="81"/>
+      <c r="TE2" s="81"/>
+      <c r="TF2" s="81"/>
+      <c r="TG2" s="81"/>
+      <c r="TH2" s="81"/>
+      <c r="TI2" s="81"/>
+      <c r="TJ2" s="81"/>
+      <c r="TK2" s="81"/>
+      <c r="TL2" s="81"/>
+      <c r="TM2" s="81"/>
+      <c r="TN2" s="81"/>
+      <c r="TO2" s="81"/>
+      <c r="TP2" s="81"/>
+      <c r="TQ2" s="81"/>
+      <c r="TR2" s="81"/>
+      <c r="TS2" s="81"/>
+      <c r="TT2" s="81"/>
+      <c r="TU2" s="81"/>
+      <c r="TV2" s="81"/>
+      <c r="TW2" s="81"/>
+      <c r="TX2" s="81"/>
+      <c r="TY2" s="81"/>
+      <c r="TZ2" s="81"/>
+      <c r="UA2" s="81"/>
+      <c r="UB2" s="81"/>
+      <c r="UC2" s="81"/>
+      <c r="UD2" s="81"/>
+      <c r="UE2" s="81"/>
+      <c r="UF2" s="81"/>
+      <c r="UG2" s="81"/>
+      <c r="UH2" s="81"/>
+      <c r="UI2" s="81"/>
+      <c r="UJ2" s="81"/>
+      <c r="UK2" s="81"/>
+      <c r="UL2" s="81"/>
+      <c r="UM2" s="81"/>
+      <c r="UN2" s="81"/>
+      <c r="UO2" s="81"/>
+      <c r="UP2" s="81"/>
+      <c r="UQ2" s="81"/>
+      <c r="UR2" s="81"/>
+      <c r="US2" s="81"/>
+      <c r="UT2" s="81"/>
+      <c r="UU2" s="81"/>
+      <c r="UV2" s="81"/>
+      <c r="UW2" s="81"/>
+      <c r="UX2" s="81"/>
+      <c r="UY2" s="81"/>
+      <c r="UZ2" s="81"/>
+      <c r="VA2" s="81"/>
+      <c r="VB2" s="81"/>
+      <c r="VC2" s="81"/>
+      <c r="VD2" s="81"/>
+      <c r="VE2" s="81"/>
+      <c r="VF2" s="81"/>
+      <c r="VG2" s="81"/>
+      <c r="VH2" s="81"/>
+      <c r="VI2" s="81"/>
+      <c r="VJ2" s="81"/>
+      <c r="VK2" s="81"/>
+      <c r="VL2" s="81"/>
+      <c r="VM2" s="81"/>
+      <c r="VN2" s="81"/>
+      <c r="VO2" s="81"/>
+      <c r="VP2" s="81"/>
+      <c r="VQ2" s="81"/>
+      <c r="VR2" s="81"/>
+      <c r="VS2" s="81"/>
+      <c r="VT2" s="81"/>
+      <c r="VU2" s="81"/>
+      <c r="VV2" s="81"/>
+      <c r="VW2" s="81"/>
+      <c r="VX2" s="81"/>
+      <c r="VY2" s="81"/>
+      <c r="VZ2" s="81"/>
+      <c r="WA2" s="81"/>
+      <c r="WB2" s="81"/>
+      <c r="WC2" s="81"/>
+      <c r="WD2" s="81"/>
+      <c r="WE2" s="81"/>
+      <c r="WF2" s="81"/>
+      <c r="WG2" s="81"/>
+      <c r="WH2" s="81"/>
+      <c r="WI2" s="81"/>
+      <c r="WJ2" s="81"/>
+      <c r="WK2" s="81"/>
+      <c r="WL2" s="81"/>
+      <c r="WM2" s="81"/>
+      <c r="WN2" s="81"/>
+      <c r="WO2" s="81"/>
+      <c r="WP2" s="81"/>
+      <c r="WQ2" s="81"/>
+      <c r="WR2" s="81"/>
+      <c r="WS2" s="81"/>
+      <c r="WT2" s="81"/>
+      <c r="WU2" s="81"/>
+      <c r="WV2" s="81"/>
+      <c r="WW2" s="81"/>
+      <c r="WX2" s="81"/>
+      <c r="WY2" s="81"/>
+      <c r="WZ2" s="81"/>
+      <c r="XA2" s="81"/>
+      <c r="XB2" s="81"/>
+      <c r="XC2" s="81"/>
+      <c r="XD2" s="81"/>
+      <c r="XE2" s="81"/>
+      <c r="XF2" s="81"/>
+      <c r="XG2" s="81"/>
+      <c r="XH2" s="81"/>
+      <c r="XI2" s="81"/>
+      <c r="XJ2" s="81"/>
+      <c r="XK2" s="81"/>
+      <c r="XL2" s="81"/>
+      <c r="XM2" s="81"/>
+      <c r="XN2" s="81"/>
+      <c r="XO2" s="81"/>
+      <c r="XP2" s="81"/>
+      <c r="XQ2" s="81"/>
+      <c r="XR2" s="81"/>
+      <c r="XS2" s="81"/>
+      <c r="XT2" s="81"/>
+      <c r="XU2" s="81"/>
+      <c r="XV2" s="81"/>
+      <c r="XW2" s="81"/>
+      <c r="XX2" s="81"/>
+      <c r="XY2" s="81"/>
+      <c r="XZ2" s="81"/>
+      <c r="YA2" s="81"/>
+      <c r="YB2" s="81"/>
+      <c r="YC2" s="81"/>
+      <c r="YD2" s="81"/>
+      <c r="YE2" s="81"/>
+      <c r="YF2" s="81"/>
+      <c r="YG2" s="81"/>
+      <c r="YH2" s="81"/>
+      <c r="YI2" s="81"/>
+      <c r="YJ2" s="81"/>
+      <c r="YK2" s="81"/>
+      <c r="YL2" s="81"/>
+      <c r="YM2" s="81"/>
+      <c r="YN2" s="81"/>
+      <c r="YO2" s="81"/>
+      <c r="YP2" s="81"/>
+      <c r="YQ2" s="81"/>
+      <c r="YR2" s="81"/>
+      <c r="YS2" s="81"/>
+      <c r="YT2" s="81"/>
+      <c r="YU2" s="81"/>
+      <c r="YV2" s="81"/>
+      <c r="YW2" s="81"/>
+      <c r="YX2" s="81"/>
+      <c r="YY2" s="81"/>
+      <c r="YZ2" s="81"/>
+      <c r="ZA2" s="81"/>
+      <c r="ZB2" s="81"/>
+      <c r="ZC2" s="81"/>
+      <c r="ZD2" s="81"/>
+      <c r="ZE2" s="81"/>
+      <c r="ZF2" s="81"/>
+      <c r="ZG2" s="81"/>
+      <c r="ZH2" s="81"/>
+      <c r="ZI2" s="81"/>
+      <c r="ZJ2" s="81"/>
+      <c r="ZK2" s="81"/>
+      <c r="ZL2" s="81"/>
+      <c r="ZM2" s="81"/>
+      <c r="ZN2" s="81"/>
+      <c r="ZO2" s="81"/>
+      <c r="ZP2" s="81"/>
+      <c r="ZQ2" s="81"/>
+      <c r="ZR2" s="81"/>
+      <c r="ZS2" s="81"/>
+      <c r="ZT2" s="81"/>
+      <c r="ZU2" s="81"/>
+      <c r="ZV2" s="81"/>
+      <c r="ZW2" s="81"/>
+      <c r="ZX2" s="81"/>
+      <c r="ZY2" s="81"/>
+      <c r="ZZ2" s="81"/>
+      <c r="AAA2" s="81"/>
+      <c r="AAB2" s="81"/>
+      <c r="AAC2" s="81"/>
+      <c r="AAD2" s="81"/>
+      <c r="AAE2" s="81"/>
+      <c r="AAF2" s="81"/>
+      <c r="AAG2" s="81"/>
+      <c r="AAH2" s="81"/>
+      <c r="AAI2" s="81"/>
+      <c r="AAJ2" s="81"/>
+      <c r="AAK2" s="81"/>
+      <c r="AAL2" s="81"/>
+      <c r="AAM2" s="81"/>
+      <c r="AAN2" s="81"/>
+      <c r="AAO2" s="81"/>
+      <c r="AAP2" s="81"/>
+      <c r="AAQ2" s="81"/>
+      <c r="AAR2" s="81"/>
+      <c r="AAS2" s="81"/>
+      <c r="AAT2" s="81"/>
+      <c r="AAU2" s="81"/>
+      <c r="AAV2" s="81"/>
+      <c r="AAW2" s="81"/>
+      <c r="AAX2" s="81"/>
+      <c r="AAY2" s="81"/>
+      <c r="AAZ2" s="81"/>
+      <c r="ABA2" s="81"/>
+      <c r="ABB2" s="81"/>
+      <c r="ABC2" s="81"/>
+      <c r="ABD2" s="81"/>
+      <c r="ABE2" s="81"/>
+      <c r="ABF2" s="81"/>
+      <c r="ABG2" s="81"/>
+      <c r="ABH2" s="81"/>
+      <c r="ABI2" s="81"/>
+      <c r="ABJ2" s="81"/>
+      <c r="ABK2" s="81"/>
+      <c r="ABL2" s="81"/>
+      <c r="ABM2" s="81"/>
+      <c r="ABN2" s="81"/>
+      <c r="ABO2" s="81"/>
+      <c r="ABP2" s="81"/>
+      <c r="ABQ2" s="81"/>
+      <c r="ABR2" s="81"/>
+      <c r="ABS2" s="81"/>
+      <c r="ABT2" s="81"/>
+      <c r="ABU2" s="81"/>
+      <c r="ABV2" s="81"/>
+      <c r="ABW2" s="81"/>
+      <c r="ABX2" s="81"/>
+      <c r="ABY2" s="81"/>
+      <c r="ABZ2" s="81"/>
+      <c r="ACA2" s="81"/>
+      <c r="ACB2" s="81"/>
+      <c r="ACC2" s="81"/>
+      <c r="ACD2" s="81"/>
+      <c r="ACE2" s="81"/>
+      <c r="ACF2" s="81"/>
+      <c r="ACG2" s="81"/>
+      <c r="ACH2" s="81"/>
+      <c r="ACI2" s="81"/>
+      <c r="ACJ2" s="81"/>
+      <c r="ACK2" s="81"/>
+      <c r="ACL2" s="81"/>
+      <c r="ACM2" s="81"/>
+      <c r="ACN2" s="81"/>
+      <c r="ACO2" s="81"/>
+      <c r="ACP2" s="81"/>
+      <c r="ACQ2" s="81"/>
+      <c r="ACR2" s="81"/>
+      <c r="ACS2" s="81"/>
+      <c r="ACT2" s="81"/>
+      <c r="ACU2" s="81"/>
+      <c r="ACV2" s="81"/>
+      <c r="ACW2" s="81"/>
+      <c r="ACX2" s="81"/>
+      <c r="ACY2" s="81"/>
+      <c r="ACZ2" s="81"/>
+      <c r="ADA2" s="81"/>
+      <c r="ADB2" s="81"/>
+      <c r="ADC2" s="81"/>
+      <c r="ADD2" s="81"/>
+      <c r="ADE2" s="81"/>
+      <c r="ADF2" s="81"/>
+      <c r="ADG2" s="81"/>
+      <c r="ADH2" s="81"/>
+      <c r="ADI2" s="81"/>
+      <c r="ADJ2" s="81"/>
+      <c r="ADK2" s="81"/>
+      <c r="ADL2" s="81"/>
+      <c r="ADM2" s="81"/>
+      <c r="ADN2" s="81"/>
+      <c r="ADO2" s="81"/>
+      <c r="ADP2" s="81"/>
+      <c r="ADQ2" s="81"/>
+      <c r="ADR2" s="81"/>
+      <c r="ADS2" s="81"/>
+      <c r="ADT2" s="81"/>
+      <c r="ADU2" s="81"/>
+      <c r="ADV2" s="81"/>
+      <c r="ADW2" s="81"/>
+      <c r="ADX2" s="81"/>
+      <c r="ADY2" s="81"/>
+      <c r="ADZ2" s="81"/>
+      <c r="AEA2" s="81"/>
+      <c r="AEB2" s="81"/>
+      <c r="AEC2" s="81"/>
+      <c r="AED2" s="81"/>
+      <c r="AEE2" s="81"/>
+      <c r="AEF2" s="81"/>
+      <c r="AEG2" s="81"/>
+      <c r="AEH2" s="81"/>
+      <c r="AEI2" s="81"/>
+      <c r="AEJ2" s="81"/>
+      <c r="AEK2" s="81"/>
+      <c r="AEL2" s="81"/>
+      <c r="AEM2" s="81"/>
+      <c r="AEN2" s="81"/>
+      <c r="AEO2" s="81"/>
+      <c r="AEP2" s="81"/>
+      <c r="AEQ2" s="81"/>
+      <c r="AER2" s="81"/>
+      <c r="AES2" s="81"/>
+      <c r="AET2" s="81"/>
+      <c r="AEU2" s="81"/>
+      <c r="AEV2" s="81"/>
+      <c r="AEW2" s="81"/>
+      <c r="AEX2" s="81"/>
+      <c r="AEY2" s="81"/>
+      <c r="AEZ2" s="81"/>
+      <c r="AFA2" s="81"/>
+      <c r="AFB2" s="81"/>
+      <c r="AFC2" s="81"/>
+      <c r="AFD2" s="81"/>
+      <c r="AFE2" s="81"/>
+      <c r="AFF2" s="81"/>
+      <c r="AFG2" s="81"/>
+      <c r="AFH2" s="81"/>
+      <c r="AFI2" s="81"/>
+      <c r="AFJ2" s="81"/>
+      <c r="AFK2" s="81"/>
+      <c r="AFL2" s="81"/>
+      <c r="AFM2" s="81"/>
+      <c r="AFN2" s="81"/>
+      <c r="AFO2" s="81"/>
+      <c r="AFP2" s="81"/>
+      <c r="AFQ2" s="81"/>
+      <c r="AFR2" s="81"/>
+      <c r="AFS2" s="81"/>
+      <c r="AFT2" s="81"/>
+      <c r="AFU2" s="81"/>
+      <c r="AFV2" s="81"/>
+      <c r="AFW2" s="81"/>
+      <c r="AFX2" s="81"/>
+      <c r="AFY2" s="81"/>
+      <c r="AFZ2" s="81"/>
+      <c r="AGA2" s="81"/>
+      <c r="AGB2" s="81"/>
+      <c r="AGC2" s="81"/>
+      <c r="AGD2" s="81"/>
+      <c r="AGE2" s="81"/>
+      <c r="AGF2" s="81"/>
+      <c r="AGG2" s="81"/>
+      <c r="AGH2" s="81"/>
+      <c r="AGI2" s="81"/>
+      <c r="AGJ2" s="81"/>
+      <c r="AGK2" s="81"/>
+      <c r="AGL2" s="81"/>
+      <c r="AGM2" s="81"/>
+      <c r="AGN2" s="81"/>
+      <c r="AGO2" s="81"/>
+      <c r="AGP2" s="81"/>
+      <c r="AGQ2" s="81"/>
+      <c r="AGR2" s="81"/>
+      <c r="AGS2" s="81"/>
+      <c r="AGT2" s="81"/>
+      <c r="AGU2" s="81"/>
+      <c r="AGV2" s="81"/>
+      <c r="AGW2" s="81"/>
+      <c r="AGX2" s="81"/>
+      <c r="AGY2" s="81"/>
+      <c r="AGZ2" s="81"/>
+      <c r="AHA2" s="81"/>
+      <c r="AHB2" s="81"/>
+      <c r="AHC2" s="81"/>
+      <c r="AHD2" s="81"/>
+      <c r="AHE2" s="81"/>
+      <c r="AHF2" s="81"/>
+      <c r="AHG2" s="81"/>
+      <c r="AHH2" s="81"/>
+      <c r="AHI2" s="81"/>
+      <c r="AHJ2" s="81"/>
+      <c r="AHK2" s="81"/>
+      <c r="AHL2" s="81"/>
+      <c r="AHM2" s="81"/>
+      <c r="AHN2" s="81"/>
+      <c r="AHO2" s="81"/>
+      <c r="AHP2" s="81"/>
+      <c r="AHQ2" s="81"/>
+      <c r="AHR2" s="81"/>
+      <c r="AHS2" s="81"/>
+      <c r="AHT2" s="81"/>
+      <c r="AHU2" s="81"/>
+      <c r="AHV2" s="81"/>
+      <c r="AHW2" s="81"/>
+      <c r="AHX2" s="81"/>
+      <c r="AHY2" s="81"/>
+      <c r="AHZ2" s="81"/>
+      <c r="AIA2" s="81"/>
+      <c r="AIB2" s="81"/>
+      <c r="AIC2" s="81"/>
+      <c r="AID2" s="81"/>
+      <c r="AIE2" s="81"/>
+      <c r="AIF2" s="81"/>
+      <c r="AIG2" s="81"/>
+      <c r="AIH2" s="81"/>
+      <c r="AII2" s="81"/>
+      <c r="AIJ2" s="81"/>
+      <c r="AIK2" s="81"/>
+      <c r="AIL2" s="81"/>
+      <c r="AIM2" s="81"/>
+      <c r="AIN2" s="81"/>
+      <c r="AIO2" s="81"/>
+      <c r="AIP2" s="81"/>
+      <c r="AIQ2" s="81"/>
+      <c r="AIR2" s="81"/>
+      <c r="AIS2" s="81"/>
+      <c r="AIT2" s="81"/>
+      <c r="AIU2" s="81"/>
+      <c r="AIV2" s="81"/>
+      <c r="AIW2" s="81"/>
+      <c r="AIX2" s="81"/>
+      <c r="AIY2" s="81"/>
+      <c r="AIZ2" s="81"/>
+      <c r="AJA2" s="81"/>
+      <c r="AJB2" s="81"/>
+      <c r="AJC2" s="81"/>
+      <c r="AJD2" s="81"/>
+      <c r="AJE2" s="81"/>
+      <c r="AJF2" s="81"/>
+      <c r="AJG2" s="81"/>
+      <c r="AJH2" s="81"/>
+      <c r="AJI2" s="81"/>
+      <c r="AJJ2" s="81"/>
+      <c r="AJK2" s="81"/>
+      <c r="AJL2" s="81"/>
+      <c r="AJM2" s="81"/>
+      <c r="AJN2" s="81"/>
+      <c r="AJO2" s="81"/>
+      <c r="AJP2" s="81"/>
+      <c r="AJQ2" s="81"/>
+      <c r="AJR2" s="81"/>
+      <c r="AJS2" s="81"/>
+      <c r="AJT2" s="81"/>
+      <c r="AJU2" s="81"/>
+      <c r="AJV2" s="81"/>
+      <c r="AJW2" s="81"/>
+      <c r="AJX2" s="81"/>
+      <c r="AJY2" s="81"/>
+      <c r="AJZ2" s="81"/>
+      <c r="AKA2" s="81"/>
+      <c r="AKB2" s="81"/>
+      <c r="AKC2" s="81"/>
+      <c r="AKD2" s="81"/>
+      <c r="AKE2" s="81"/>
+      <c r="AKF2" s="81"/>
+      <c r="AKG2" s="81"/>
+      <c r="AKH2" s="81"/>
+      <c r="AKI2" s="81"/>
+      <c r="AKJ2" s="81"/>
+      <c r="AKK2" s="81"/>
+      <c r="AKL2" s="81"/>
+      <c r="AKM2" s="81"/>
+      <c r="AKN2" s="81"/>
+      <c r="AKO2" s="81"/>
+      <c r="AKP2" s="81"/>
+      <c r="AKQ2" s="81"/>
+      <c r="AKR2" s="81"/>
+      <c r="AKS2" s="81"/>
+      <c r="AKT2" s="81"/>
+      <c r="AKU2" s="81"/>
+      <c r="AKV2" s="81"/>
+      <c r="AKW2" s="81"/>
+      <c r="AKX2" s="81"/>
+      <c r="AKY2" s="81"/>
+      <c r="AKZ2" s="81"/>
+      <c r="ALA2" s="81"/>
+      <c r="ALB2" s="81"/>
+      <c r="ALC2" s="81"/>
+      <c r="ALD2" s="81"/>
+      <c r="ALE2" s="81"/>
+      <c r="ALF2" s="81"/>
+      <c r="ALG2" s="81"/>
+      <c r="ALH2" s="81"/>
+      <c r="ALI2" s="81"/>
+      <c r="ALJ2" s="81"/>
+      <c r="ALK2" s="81"/>
+      <c r="ALL2" s="81"/>
+      <c r="ALM2" s="81"/>
+      <c r="ALN2" s="81"/>
+      <c r="ALO2" s="81"/>
+      <c r="ALP2" s="81"/>
+      <c r="ALQ2" s="81"/>
+      <c r="ALR2" s="81"/>
+      <c r="ALS2" s="81"/>
+      <c r="ALT2" s="81"/>
+      <c r="ALU2" s="81"/>
+      <c r="ALV2" s="81"/>
+      <c r="ALW2" s="81"/>
+      <c r="ALX2" s="81"/>
+      <c r="ALY2" s="81"/>
+      <c r="ALZ2" s="81"/>
+      <c r="AMA2" s="81"/>
+      <c r="AMB2" s="81"/>
+      <c r="AMC2" s="81"/>
+      <c r="AMD2" s="81"/>
+      <c r="AME2" s="81"/>
+      <c r="AMF2" s="81"/>
+      <c r="AMG2" s="81"/>
+      <c r="AMH2" s="81"/>
+      <c r="AMI2" s="81"/>
+      <c r="AMJ2" s="81"/>
+      <c r="AMK2" s="81"/>
+      <c r="AML2" s="81"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1"/>
@@ -8289,78 +8250,65 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ALR2"/>
+  <dimension ref="A1:ALP2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="43" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="43" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="43" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="64" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="14" style="43" customWidth="1"/>
-    <col min="10" max="1006" width="9.140625" style="1" customWidth="1"/>
-    <col min="1007" max="1008" width="9.140625" style="22" customWidth="1"/>
-    <col min="1009" max="1019" width="9" style="22" customWidth="1"/>
-    <col min="1020" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="36.85546875" style="42" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="42" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="42" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="63" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="14" style="42" customWidth="1"/>
+    <col min="8" max="1004" width="9.140625" style="1" customWidth="1"/>
+    <col min="1005" max="1006" width="9.140625" style="21" customWidth="1"/>
+    <col min="1007" max="1017" width="9" style="21" customWidth="1"/>
+    <col min="1018" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="42" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:7" s="41" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="92"/>
+      <c r="E2" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="92" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -8374,108 +8322,95 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AML2"/>
+  <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" style="25" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="25" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" style="25" customWidth="1"/>
-    <col min="7" max="8" width="15.7109375" style="25" customWidth="1"/>
-    <col min="9" max="10" width="20.7109375" style="25" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="58" customWidth="1"/>
-    <col min="12" max="13" width="20.7109375" style="59" customWidth="1"/>
-    <col min="14" max="14" width="9" style="58" customWidth="1"/>
-    <col min="15" max="1024" width="9.140625" style="59" customWidth="1"/>
-    <col min="1025" max="1027" width="9.140625" style="58" customWidth="1"/>
-    <col min="1028" max="1038" width="9" style="58" customWidth="1"/>
-    <col min="1039" max="16384" width="9" style="58"/>
+    <col min="1" max="3" width="20.7109375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="24" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" style="24" customWidth="1"/>
+    <col min="7" max="8" width="15.7109375" style="24" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="57" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" style="58" customWidth="1"/>
+    <col min="12" max="12" width="9" style="57" customWidth="1"/>
+    <col min="13" max="1022" width="9.140625" style="58" customWidth="1"/>
+    <col min="1023" max="1025" width="9.140625" style="57" customWidth="1"/>
+    <col min="1026" max="1036" width="9" style="57" customWidth="1"/>
+    <col min="1037" max="16384" width="9" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13 1025:1026" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:1024" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMI1" s="61"/>
+      <c r="AMJ1" s="61"/>
+    </row>
+    <row r="2" spans="1:1024" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="L1" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="AMK1" s="62"/>
-      <c r="AML1" s="62"/>
-    </row>
-    <row r="2" spans="1:13 1025:1026" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="100" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="101" t="s">
+      <c r="C2" s="98"/>
+      <c r="D2" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="101" t="s">
+      <c r="E2" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="101">
+      <c r="G2" s="100">
         <v>652</v>
       </c>
-      <c r="H2" s="101">
+      <c r="H2" s="100">
         <v>1249</v>
       </c>
-      <c r="I2" s="99" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="99" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="AMK2" s="99"/>
-      <c r="AML2" s="99"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="AMI2" s="98"/>
+      <c r="AMJ2" s="98"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1"/>
+  <autoFilter ref="A1:H1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>

--- a/tests/fixtures/prokaryote_core.xlsx
+++ b/tests/fixtures/prokaryote_core.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="495" windowWidth="23250" windowHeight="11970" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="375" yWindow="-225" windowWidth="23250" windowHeight="11970" tabRatio="1000" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="RNAs" sheetId="9" r:id="rId9"/>
     <sheet name="Proteins" sheetId="10" r:id="rId10"/>
     <sheet name="Complexes" sheetId="11" r:id="rId11"/>
-    <sheet name="SpeciesType properties" sheetId="12" r:id="rId12"/>
+    <sheet name="Species type properties" sheetId="12" r:id="rId12"/>
     <sheet name="Concentrations" sheetId="13" r:id="rId13"/>
     <sheet name="Observables" sheetId="14" r:id="rId14"/>
     <sheet name="Reactions" sheetId="15" r:id="rId15"/>
@@ -1871,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4262,7 +4262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>

--- a/tests/fixtures/prokaryote_core.xlsx
+++ b/tests/fixtures/prokaryote_core.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="-225" windowWidth="23250" windowHeight="11970" tabRatio="1000" activeTab="11"/>
+    <workbookView xWindow="-255" yWindow="105" windowWidth="23250" windowHeight="11970" tabRatio="1000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
     <sheet name="Cell" sheetId="2" r:id="rId2"/>
     <sheet name="Compartment" sheetId="3" r:id="rId3"/>
-    <sheet name="DNA" sheetId="4" r:id="rId4"/>
+    <sheet name="Chromosomes" sheetId="4" r:id="rId4"/>
     <sheet name="Chromosome features" sheetId="5" r:id="rId5"/>
     <sheet name="Transcription units" sheetId="6" r:id="rId6"/>
     <sheet name="Genes" sheetId="7" r:id="rId7"/>
@@ -1871,7 +1871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
@@ -4336,8 +4336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I776"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/tests/fixtures/prokaryote_core.xlsx
+++ b/tests/fixtures/prokaryote_core.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-255" yWindow="105" windowWidth="23250" windowHeight="11970" tabRatio="1000" activeTab="3"/>
+    <workbookView xWindow="-255" yWindow="105" windowWidth="23250" windowHeight="11970" tabRatio="1000" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -31,31 +31,31 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cell!$A$1:$B$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Chromosome features'!$G$1:$G$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Complexes!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Complexes!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Genes!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KB!$A$1:$B$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Proteins!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Proteins!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Reactions!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">RNAs!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Transcription units'!$A$1:$K$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="10">Complexes!$A$1:$I$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="10">Complexes!$A$1:$K$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="6">Genes!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">KB!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Proteins!$A$1:$I$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="9">Proteins!$A$1:$K$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="14">Reactions!$A$1:$O$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="8">RNAs!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="5">'Transcription units'!$A$1:$M$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="10">Complexes!$A$1:$I$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="10">Complexes!$A$1:$K$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="6">Genes!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Proteins!$A$1:$I$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="9">Proteins!$A$1:$K$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="14">Reactions!$A$1:$O$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="8">RNAs!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="5">'Transcription units'!$A$1:$M$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">Complexes!$A$1:$I$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">Complexes!$A$1:$K$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="6">Genes!$N$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="14">Reactions!$A$1:$O$1</definedName>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="204">
   <si>
     <t>Id</t>
   </si>
@@ -695,18 +695,31 @@
   </si>
   <si>
     <t>Enzymes</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Species properties</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -841,6 +854,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -898,7 +917,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -906,51 +925,90 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF306EFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="56">
+  <cellStyleXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -973,239 +1031,230 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="16" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="16" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="6" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1214,16 +1263,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1234,23 +1276,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="47" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="48" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="47" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="48" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="48" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1264,7 +1306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1275,7 +1317,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1285,84 +1327,211 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="56">
+  <cellStyles count="121">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="12"/>
     <cellStyle name="Normal 10 2" xfId="27"/>
     <cellStyle name="Normal 10 2 2" xfId="51"/>
+    <cellStyle name="Normal 10 2 2 2" xfId="111"/>
+    <cellStyle name="Normal 10 2 3" xfId="89"/>
     <cellStyle name="Normal 10 3" xfId="40"/>
+    <cellStyle name="Normal 10 3 2" xfId="100"/>
+    <cellStyle name="Normal 10 4" xfId="76"/>
+    <cellStyle name="Normal 10 5" xfId="62"/>
     <cellStyle name="Normal 11" xfId="13"/>
     <cellStyle name="Normal 11 2" xfId="28"/>
     <cellStyle name="Normal 11 2 2" xfId="52"/>
+    <cellStyle name="Normal 11 2 2 2" xfId="112"/>
+    <cellStyle name="Normal 11 2 3" xfId="90"/>
     <cellStyle name="Normal 11 3" xfId="41"/>
+    <cellStyle name="Normal 11 3 2" xfId="101"/>
+    <cellStyle name="Normal 11 4" xfId="77"/>
+    <cellStyle name="Normal 11 5" xfId="63"/>
     <cellStyle name="Normal 12" xfId="16"/>
     <cellStyle name="Normal 12 2" xfId="31"/>
     <cellStyle name="Normal 12 2 2" xfId="54"/>
+    <cellStyle name="Normal 12 2 2 2" xfId="114"/>
+    <cellStyle name="Normal 12 2 3" xfId="92"/>
     <cellStyle name="Normal 12 3" xfId="43"/>
+    <cellStyle name="Normal 12 3 2" xfId="103"/>
+    <cellStyle name="Normal 12 4" xfId="80"/>
+    <cellStyle name="Normal 12 5" xfId="65"/>
+    <cellStyle name="Normal 13" xfId="67"/>
+    <cellStyle name="Normal 14" xfId="116"/>
+    <cellStyle name="Normal 15" xfId="119"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Normal 3 2" xfId="10"/>
     <cellStyle name="Normal 3 2 2" xfId="25"/>
+    <cellStyle name="Normal 3 2 3" xfId="74"/>
     <cellStyle name="Normal 3 3" xfId="14"/>
     <cellStyle name="Normal 3 3 2" xfId="29"/>
+    <cellStyle name="Normal 3 3 3" xfId="78"/>
     <cellStyle name="Normal 3 4" xfId="17"/>
     <cellStyle name="Normal 3 4 2" xfId="32"/>
+    <cellStyle name="Normal 3 4 3" xfId="81"/>
     <cellStyle name="Normal 3 5" xfId="20"/>
+    <cellStyle name="Normal 3 6" xfId="69"/>
+    <cellStyle name="Normal 3 7" xfId="117"/>
     <cellStyle name="Normal 4" xfId="4"/>
     <cellStyle name="Normal 5" xfId="5"/>
     <cellStyle name="Normal 6" xfId="6"/>
+    <cellStyle name="Normal 6 10" xfId="120"/>
+    <cellStyle name="Normal 6 11" xfId="57"/>
     <cellStyle name="Normal 6 2" xfId="8"/>
     <cellStyle name="Normal 6 2 2" xfId="23"/>
     <cellStyle name="Normal 6 2 2 2" xfId="48"/>
+    <cellStyle name="Normal 6 2 2 2 2" xfId="108"/>
+    <cellStyle name="Normal 6 2 2 3" xfId="86"/>
     <cellStyle name="Normal 6 2 3" xfId="37"/>
+    <cellStyle name="Normal 6 2 3 2" xfId="97"/>
+    <cellStyle name="Normal 6 2 4" xfId="72"/>
+    <cellStyle name="Normal 6 2 5" xfId="59"/>
     <cellStyle name="Normal 6 3" xfId="11"/>
     <cellStyle name="Normal 6 3 2" xfId="26"/>
     <cellStyle name="Normal 6 3 2 2" xfId="50"/>
+    <cellStyle name="Normal 6 3 2 2 2" xfId="110"/>
+    <cellStyle name="Normal 6 3 2 3" xfId="88"/>
     <cellStyle name="Normal 6 3 3" xfId="39"/>
+    <cellStyle name="Normal 6 3 3 2" xfId="99"/>
+    <cellStyle name="Normal 6 3 4" xfId="75"/>
+    <cellStyle name="Normal 6 3 5" xfId="61"/>
     <cellStyle name="Normal 6 4" xfId="15"/>
     <cellStyle name="Normal 6 4 2" xfId="30"/>
     <cellStyle name="Normal 6 4 2 2" xfId="53"/>
+    <cellStyle name="Normal 6 4 2 2 2" xfId="113"/>
+    <cellStyle name="Normal 6 4 2 3" xfId="91"/>
     <cellStyle name="Normal 6 4 3" xfId="42"/>
+    <cellStyle name="Normal 6 4 3 2" xfId="102"/>
+    <cellStyle name="Normal 6 4 4" xfId="79"/>
+    <cellStyle name="Normal 6 4 5" xfId="64"/>
     <cellStyle name="Normal 6 5" xfId="18"/>
     <cellStyle name="Normal 6 5 2" xfId="33"/>
     <cellStyle name="Normal 6 5 2 2" xfId="55"/>
+    <cellStyle name="Normal 6 5 2 2 2" xfId="115"/>
+    <cellStyle name="Normal 6 5 2 3" xfId="93"/>
     <cellStyle name="Normal 6 5 3" xfId="44"/>
+    <cellStyle name="Normal 6 5 3 2" xfId="104"/>
+    <cellStyle name="Normal 6 5 4" xfId="82"/>
+    <cellStyle name="Normal 6 5 5" xfId="66"/>
     <cellStyle name="Normal 6 6" xfId="21"/>
     <cellStyle name="Normal 6 6 2" xfId="46"/>
+    <cellStyle name="Normal 6 6 2 2" xfId="106"/>
+    <cellStyle name="Normal 6 6 3" xfId="84"/>
     <cellStyle name="Normal 6 7" xfId="35"/>
+    <cellStyle name="Normal 6 7 2" xfId="95"/>
+    <cellStyle name="Normal 6 8" xfId="70"/>
+    <cellStyle name="Normal 6 9" xfId="118"/>
     <cellStyle name="Normal 7" xfId="1"/>
     <cellStyle name="Normal 7 2" xfId="19"/>
     <cellStyle name="Normal 7 2 2" xfId="45"/>
+    <cellStyle name="Normal 7 2 2 2" xfId="105"/>
+    <cellStyle name="Normal 7 2 3" xfId="83"/>
     <cellStyle name="Normal 7 3" xfId="34"/>
+    <cellStyle name="Normal 7 3 2" xfId="94"/>
+    <cellStyle name="Normal 7 4" xfId="68"/>
+    <cellStyle name="Normal 7 5" xfId="56"/>
     <cellStyle name="Normal 8" xfId="7"/>
     <cellStyle name="Normal 8 2" xfId="22"/>
     <cellStyle name="Normal 8 2 2" xfId="47"/>
+    <cellStyle name="Normal 8 2 2 2" xfId="107"/>
+    <cellStyle name="Normal 8 2 3" xfId="85"/>
     <cellStyle name="Normal 8 3" xfId="36"/>
+    <cellStyle name="Normal 8 3 2" xfId="96"/>
+    <cellStyle name="Normal 8 4" xfId="71"/>
+    <cellStyle name="Normal 8 5" xfId="58"/>
     <cellStyle name="Normal 9" xfId="9"/>
     <cellStyle name="Normal 9 2" xfId="24"/>
     <cellStyle name="Normal 9 2 2" xfId="49"/>
+    <cellStyle name="Normal 9 2 2 2" xfId="109"/>
+    <cellStyle name="Normal 9 2 3" xfId="87"/>
     <cellStyle name="Normal 9 3" xfId="38"/>
+    <cellStyle name="Normal 9 3 2" xfId="98"/>
+    <cellStyle name="Normal 9 4" xfId="73"/>
+    <cellStyle name="Normal 9 5" xfId="60"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1644,8 +1813,8 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" style="62" customWidth="1"/>
-    <col min="3" max="1025" width="8.5703125" style="62" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="55" customWidth="1"/>
+    <col min="3" max="1025" width="8.5703125" style="55" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1676,7 +1845,7 @@
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="55" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1699,7 +1868,7 @@
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="55" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1707,7 +1876,7 @@
       <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="55" t="s">
         <v>193</v>
       </c>
     </row>
@@ -1720,84 +1889,93 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMG2"/>
+  <dimension ref="A1:AMI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="62" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="62" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="62" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="55" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="55" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="55" customWidth="1"/>
     <col min="4" max="5" width="15.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="62" customWidth="1"/>
-    <col min="7" max="7" width="64.85546875" style="64" customWidth="1"/>
-    <col min="8" max="9" width="20.7109375" style="62" customWidth="1"/>
-    <col min="10" max="1020" width="58.5703125" style="62" customWidth="1"/>
-    <col min="1021" max="1024" width="58.5703125" style="64" customWidth="1"/>
-    <col min="1025" max="16384" width="58.5703125" style="64"/>
+    <col min="6" max="7" width="15.7109375" style="153" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="55" customWidth="1"/>
+    <col min="9" max="9" width="64.85546875" style="57" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" style="55" customWidth="1"/>
+    <col min="12" max="1022" width="58.5703125" style="55" customWidth="1"/>
+    <col min="1023" max="1026" width="58.5703125" style="57" customWidth="1"/>
+    <col min="1027" max="16384" width="58.5703125" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1021" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:1023" s="156" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="156" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="156" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="156" t="s">
+        <v>202</v>
+      </c>
+      <c r="H1" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="I1" s="156" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="J1" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="K1" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="AMG1" s="141"/>
-    </row>
-    <row r="2" spans="1:1021" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="AMI1" s="155"/>
+    </row>
+    <row r="2" spans="1:1023" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="109" t="s">
+      <c r="C2" s="95"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="110" t="s">
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="115" t="s">
+      <c r="I2" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="H2" s="113" t="s">
+      <c r="J2" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="AMG2" s="108"/>
+      <c r="K2" s="101"/>
+      <c r="AMI2" s="95"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:I1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -1807,61 +1985,68 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMG1"/>
+  <dimension ref="A1:AMI1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="48" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="44" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="46" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="48" customWidth="1"/>
-    <col min="6" max="6" width="59.140625" style="47" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="49" customWidth="1"/>
-    <col min="8" max="9" width="15.7109375" style="62" customWidth="1"/>
-    <col min="10" max="10" width="33.5703125" style="49" customWidth="1"/>
-    <col min="11" max="1019" width="33.5703125" style="62" customWidth="1"/>
-    <col min="1020" max="1024" width="33.5703125" style="49" customWidth="1"/>
-    <col min="1025" max="16384" width="33.5703125" style="49"/>
+    <col min="1" max="1" width="25.7109375" style="47" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="44" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="43" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="45" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="47" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="46" customWidth="1"/>
+    <col min="7" max="8" width="25.7109375" style="144" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" style="48" customWidth="1"/>
+    <col min="10" max="11" width="25.7109375" style="55" customWidth="1"/>
+    <col min="12" max="12" width="33.5703125" style="48" customWidth="1"/>
+    <col min="13" max="1021" width="33.5703125" style="55" customWidth="1"/>
+    <col min="1022" max="1026" width="33.5703125" style="48" customWidth="1"/>
+    <col min="1027" max="16384" width="33.5703125" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1021" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:1023" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="152" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" s="152" t="s">
+        <v>202</v>
+      </c>
+      <c r="I1" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="J1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="K1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="AMF1" s="56"/>
-      <c r="AMG1" s="56"/>
+      <c r="AMH1" s="54"/>
+      <c r="AMI1" s="54"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:I1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -1877,15 +2062,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="62" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="62" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="55" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="55" customWidth="1"/>
     <col min="3" max="4" width="15.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" style="134" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="62" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" style="121" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="55" customWidth="1"/>
     <col min="7" max="9" width="20.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="62" customWidth="1"/>
-    <col min="11" max="21" width="9.140625" style="62" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="62"/>
+    <col min="10" max="10" width="20.7109375" style="55" customWidth="1"/>
+    <col min="11" max="21" width="9.140625" style="55" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2">
@@ -1921,90 +2106,90 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="121" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="134" t="s">
+      <c r="E2" s="121" t="s">
         <v>198</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="J2" s="119"/>
+      <c r="J2" s="106"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="119">
+      <c r="D3" s="106">
         <v>4.8828698208797903</v>
       </c>
-      <c r="E3" s="134" t="s">
+      <c r="E3" s="121" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="119" t="s">
+      <c r="F3" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="119" t="s">
+      <c r="G3" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="119"/>
+      <c r="J3" s="106"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="119">
+      <c r="D4" s="106">
         <v>992.98255190377824</v>
       </c>
-      <c r="E4" s="134" t="s">
+      <c r="E4" s="121" t="s">
         <v>197</v>
       </c>
-      <c r="F4" s="119" t="s">
+      <c r="F4" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="119" t="s">
+      <c r="G4" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="119"/>
+      <c r="J4" s="106"/>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D15" s="96"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="97"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="87"/>
     </row>
     <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="102"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="101"/>
+      <c r="B16" s="89"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="88"/>
     </row>
     <row r="17" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="119"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="118"/>
+      <c r="B17" s="106"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="105"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2022,12 +2207,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="62" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="62" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="55" customWidth="1"/>
     <col min="3" max="5" width="15.7109375" style="3" customWidth="1"/>
     <col min="6" max="8" width="20.7109375" style="3" customWidth="1"/>
-    <col min="9" max="19" width="9.140625" style="62" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="62"/>
+    <col min="9" max="19" width="9.140625" style="55" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.2">
@@ -2057,58 +2242,58 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="93">
+      <c r="C2" s="83">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="83" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="105">
+      <c r="C3" s="92">
         <v>2.2584973866611409E-2</v>
       </c>
-      <c r="D3" s="105" t="s">
+      <c r="D3" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="105" t="s">
+      <c r="E3" s="92" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="122">
+      <c r="C4" s="109">
         <v>489.45</v>
       </c>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="122" t="s">
+      <c r="E4" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2126,10 +2311,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" style="49" customWidth="1"/>
+    <col min="1" max="4" width="20.7109375" style="48" customWidth="1"/>
     <col min="5" max="6" width="20.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="49" customWidth="1"/>
-    <col min="8" max="1023" width="9.140625" style="49" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="48" customWidth="1"/>
+    <col min="8" max="1023" width="9.140625" style="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -2233,37 +2418,37 @@
       <c r="AMN1" s="37"/>
     </row>
     <row r="2" spans="1:14 1028:1028" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115" t="s">
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115" t="b">
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102" t="b">
         <v>0</v>
       </c>
-      <c r="I2" s="115" t="b">
+      <c r="I2" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="115" t="s">
+      <c r="J2" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115" t="s">
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="115" t="s">
+      <c r="N2" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="AMN2" s="125"/>
+      <c r="AMN2" s="112"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1"/>
@@ -2286,12 +2471,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="20.7109375" style="62" customWidth="1"/>
+    <col min="1" max="5" width="20.7109375" style="55" customWidth="1"/>
     <col min="6" max="7" width="20.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="62" customWidth="1"/>
-    <col min="10" max="1026" width="9.140625" style="62" customWidth="1"/>
-    <col min="1027" max="1037" width="9" style="62" customWidth="1"/>
-    <col min="1038" max="16384" width="9" style="62"/>
+    <col min="8" max="8" width="20.7109375" style="55" customWidth="1"/>
+    <col min="10" max="1026" width="9.140625" style="55" customWidth="1"/>
+    <col min="1027" max="1037" width="9" style="55" customWidth="1"/>
+    <col min="1038" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2344,10 +2529,10 @@
     <col min="2" max="2" width="20.7109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="7" customWidth="1"/>
     <col min="4" max="5" width="10.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="62" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="55" customWidth="1"/>
     <col min="7" max="9" width="20.7109375" style="7" customWidth="1"/>
-    <col min="10" max="20" width="9.140625" style="62" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="62"/>
+    <col min="10" max="20" width="9.140625" style="55" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -2380,17 +2565,17 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127">
+      <c r="C2" s="114"/>
+      <c r="D2" s="114">
         <v>2</v>
       </c>
-      <c r="E2" s="127" t="s">
+      <c r="E2" s="114" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2409,11 +2594,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="62" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="55" customWidth="1"/>
     <col min="2" max="7" width="15.7109375" style="3" customWidth="1"/>
-    <col min="8" max="10" width="20.7109375" style="62" customWidth="1"/>
-    <col min="11" max="21" width="9.140625" style="62" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="62"/>
+    <col min="8" max="10" width="20.7109375" style="55" customWidth="1"/>
+    <col min="11" max="21" width="9.140625" style="55" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -2449,216 +2634,216 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="88">
+      <c r="E2" s="81">
         <v>1</v>
       </c>
-      <c r="F2" s="88" t="s">
+      <c r="F2" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="88" t="s">
+      <c r="G2" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="D3" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="95">
+      <c r="E3" s="85">
         <v>992.98255190377802</v>
       </c>
-      <c r="F3" s="95" t="s">
+      <c r="F3" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="95" t="s">
+      <c r="G3" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="104" t="s">
+      <c r="D4" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="104">
+      <c r="E4" s="91">
         <v>489.45</v>
       </c>
-      <c r="F4" s="104" t="s">
+      <c r="F4" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="104" t="s">
+      <c r="G4" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103" t="s">
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="107">
+      <c r="E5" s="94">
         <v>5.5313109099319684</v>
       </c>
-      <c r="F5" s="107" t="s">
+      <c r="F5" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="107" t="s">
+      <c r="G5" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="117" t="s">
+      <c r="D6" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="117" t="b">
+      <c r="E6" s="104" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="117" t="s">
+      <c r="F6" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="G6" s="117" t="s">
+      <c r="G6" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="117" t="s">
+      <c r="D7" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="117">
+      <c r="E7" s="104">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="F7" s="117" t="s">
+      <c r="F7" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="117" t="s">
+      <c r="G7" s="104" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116" t="s">
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="121" t="s">
+      <c r="D8" s="108" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="121">
+      <c r="E8" s="108">
         <v>4.8828698208797903</v>
       </c>
-      <c r="F8" s="121" t="s">
+      <c r="F8" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="121" t="s">
+      <c r="G8" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="123" t="s">
+      <c r="A9" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="124" t="s">
+      <c r="D9" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="124">
+      <c r="E9" s="111">
         <v>2.2584973866611409E-2</v>
       </c>
-      <c r="F9" s="124" t="s">
+      <c r="F9" s="111" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
     </row>
   </sheetData>
   <sortState ref="A2:J9">
@@ -2678,15 +2863,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="62" customWidth="1"/>
-    <col min="2" max="4" width="25.7109375" style="62" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="62" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="55" customWidth="1"/>
+    <col min="2" max="4" width="25.7109375" style="55" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="55" customWidth="1"/>
     <col min="6" max="9" width="15.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="62" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" style="62" customWidth="1"/>
-    <col min="12" max="13" width="15.7109375" style="62" customWidth="1"/>
-    <col min="14" max="24" width="9.140625" style="62" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="62"/>
+    <col min="10" max="10" width="15.7109375" style="55" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" style="55" customWidth="1"/>
+    <col min="12" max="13" width="15.7109375" style="55" customWidth="1"/>
+    <col min="14" max="24" width="9.140625" style="55" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -2731,165 +2916,165 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="130" t="s">
+      <c r="F2" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="130" t="s">
+      <c r="G2" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="130">
+      <c r="H2" s="117">
         <v>37</v>
       </c>
-      <c r="I2" s="129" t="s">
+      <c r="I2" s="116" t="s">
         <v>136</v>
       </c>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128" t="s">
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="128"/>
+      <c r="M2" s="115"/>
     </row>
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="115" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="130" t="s">
+      <c r="F3" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="G3" s="130" t="s">
+      <c r="G3" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="130">
+      <c r="H3" s="117">
         <v>37</v>
       </c>
-      <c r="I3" s="130" t="s">
+      <c r="I3" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128" t="s">
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="128" t="s">
+      <c r="M3" s="115" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128" t="s">
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="130" t="s">
+      <c r="F4" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="130" t="s">
+      <c r="G4" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="H4" s="130">
+      <c r="H4" s="117">
         <v>37</v>
       </c>
-      <c r="I4" s="130" t="s">
+      <c r="I4" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128" t="s">
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115" t="s">
         <v>139</v>
       </c>
-      <c r="M4" s="128"/>
+      <c r="M4" s="115"/>
     </row>
     <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="115" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128" t="s">
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128" t="s">
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="M5" s="128"/>
+      <c r="M5" s="115"/>
     </row>
     <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="118" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="131"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131" t="s">
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="132" t="s">
+      <c r="F6" s="119" t="s">
         <v>134</v>
       </c>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131" t="s">
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="M6" s="131"/>
+      <c r="M6" s="118"/>
     </row>
     <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="133" t="s">
+      <c r="A7" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="133"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133" t="s">
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120" t="s">
         <v>133</v>
       </c>
-      <c r="F7" s="135" t="s">
+      <c r="F7" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="135" t="s">
+      <c r="G7" s="122" t="s">
         <v>135</v>
       </c>
-      <c r="H7" s="134">
+      <c r="H7" s="121">
         <v>37</v>
       </c>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133" t="s">
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2914,1060 +3099,1060 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="143" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="62" customWidth="1"/>
-    <col min="3" max="1025" width="8.5703125" style="62" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="129" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="55" customWidth="1"/>
+    <col min="3" max="1025" width="8.5703125" style="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="146" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+    <row r="1" spans="1:1025" s="132" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
-      <c r="O1" s="145"/>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="145"/>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="145"/>
-      <c r="AA1" s="145"/>
-      <c r="AB1" s="145"/>
-      <c r="AC1" s="145"/>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="145"/>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="145"/>
-      <c r="AJ1" s="145"/>
-      <c r="AK1" s="145"/>
-      <c r="AL1" s="145"/>
-      <c r="AM1" s="145"/>
-      <c r="AN1" s="145"/>
-      <c r="AO1" s="145"/>
-      <c r="AP1" s="145"/>
-      <c r="AQ1" s="145"/>
-      <c r="AR1" s="145"/>
-      <c r="AS1" s="145"/>
-      <c r="AT1" s="145"/>
-      <c r="AU1" s="145"/>
-      <c r="AV1" s="145"/>
-      <c r="AW1" s="145"/>
-      <c r="AX1" s="145"/>
-      <c r="AY1" s="145"/>
-      <c r="AZ1" s="145"/>
-      <c r="BA1" s="145"/>
-      <c r="BB1" s="145"/>
-      <c r="BC1" s="145"/>
-      <c r="BD1" s="145"/>
-      <c r="BE1" s="145"/>
-      <c r="BF1" s="145"/>
-      <c r="BG1" s="145"/>
-      <c r="BH1" s="145"/>
-      <c r="BI1" s="145"/>
-      <c r="BJ1" s="145"/>
-      <c r="BK1" s="145"/>
-      <c r="BL1" s="145"/>
-      <c r="BM1" s="145"/>
-      <c r="BN1" s="145"/>
-      <c r="BO1" s="145"/>
-      <c r="BP1" s="145"/>
-      <c r="BQ1" s="145"/>
-      <c r="BR1" s="145"/>
-      <c r="BS1" s="145"/>
-      <c r="BT1" s="145"/>
-      <c r="BU1" s="145"/>
-      <c r="BV1" s="145"/>
-      <c r="BW1" s="145"/>
-      <c r="BX1" s="145"/>
-      <c r="BY1" s="145"/>
-      <c r="BZ1" s="145"/>
-      <c r="CA1" s="145"/>
-      <c r="CB1" s="145"/>
-      <c r="CC1" s="145"/>
-      <c r="CD1" s="145"/>
-      <c r="CE1" s="145"/>
-      <c r="CF1" s="145"/>
-      <c r="CG1" s="145"/>
-      <c r="CH1" s="145"/>
-      <c r="CI1" s="145"/>
-      <c r="CJ1" s="145"/>
-      <c r="CK1" s="145"/>
-      <c r="CL1" s="145"/>
-      <c r="CM1" s="145"/>
-      <c r="CN1" s="145"/>
-      <c r="CO1" s="145"/>
-      <c r="CP1" s="145"/>
-      <c r="CQ1" s="145"/>
-      <c r="CR1" s="145"/>
-      <c r="CS1" s="145"/>
-      <c r="CT1" s="145"/>
-      <c r="CU1" s="145"/>
-      <c r="CV1" s="145"/>
-      <c r="CW1" s="145"/>
-      <c r="CX1" s="145"/>
-      <c r="CY1" s="145"/>
-      <c r="CZ1" s="145"/>
-      <c r="DA1" s="145"/>
-      <c r="DB1" s="145"/>
-      <c r="DC1" s="145"/>
-      <c r="DD1" s="145"/>
-      <c r="DE1" s="145"/>
-      <c r="DF1" s="145"/>
-      <c r="DG1" s="145"/>
-      <c r="DH1" s="145"/>
-      <c r="DI1" s="145"/>
-      <c r="DJ1" s="145"/>
-      <c r="DK1" s="145"/>
-      <c r="DL1" s="145"/>
-      <c r="DM1" s="145"/>
-      <c r="DN1" s="145"/>
-      <c r="DO1" s="145"/>
-      <c r="DP1" s="145"/>
-      <c r="DQ1" s="145"/>
-      <c r="DR1" s="145"/>
-      <c r="DS1" s="145"/>
-      <c r="DT1" s="145"/>
-      <c r="DU1" s="145"/>
-      <c r="DV1" s="145"/>
-      <c r="DW1" s="145"/>
-      <c r="DX1" s="145"/>
-      <c r="DY1" s="145"/>
-      <c r="DZ1" s="145"/>
-      <c r="EA1" s="145"/>
-      <c r="EB1" s="145"/>
-      <c r="EC1" s="145"/>
-      <c r="ED1" s="145"/>
-      <c r="EE1" s="145"/>
-      <c r="EF1" s="145"/>
-      <c r="EG1" s="145"/>
-      <c r="EH1" s="145"/>
-      <c r="EI1" s="145"/>
-      <c r="EJ1" s="145"/>
-      <c r="EK1" s="145"/>
-      <c r="EL1" s="145"/>
-      <c r="EM1" s="145"/>
-      <c r="EN1" s="145"/>
-      <c r="EO1" s="145"/>
-      <c r="EP1" s="145"/>
-      <c r="EQ1" s="145"/>
-      <c r="ER1" s="145"/>
-      <c r="ES1" s="145"/>
-      <c r="ET1" s="145"/>
-      <c r="EU1" s="145"/>
-      <c r="EV1" s="145"/>
-      <c r="EW1" s="145"/>
-      <c r="EX1" s="145"/>
-      <c r="EY1" s="145"/>
-      <c r="EZ1" s="145"/>
-      <c r="FA1" s="145"/>
-      <c r="FB1" s="145"/>
-      <c r="FC1" s="145"/>
-      <c r="FD1" s="145"/>
-      <c r="FE1" s="145"/>
-      <c r="FF1" s="145"/>
-      <c r="FG1" s="145"/>
-      <c r="FH1" s="145"/>
-      <c r="FI1" s="145"/>
-      <c r="FJ1" s="145"/>
-      <c r="FK1" s="145"/>
-      <c r="FL1" s="145"/>
-      <c r="FM1" s="145"/>
-      <c r="FN1" s="145"/>
-      <c r="FO1" s="145"/>
-      <c r="FP1" s="145"/>
-      <c r="FQ1" s="145"/>
-      <c r="FR1" s="145"/>
-      <c r="FS1" s="145"/>
-      <c r="FT1" s="145"/>
-      <c r="FU1" s="145"/>
-      <c r="FV1" s="145"/>
-      <c r="FW1" s="145"/>
-      <c r="FX1" s="145"/>
-      <c r="FY1" s="145"/>
-      <c r="FZ1" s="145"/>
-      <c r="GA1" s="145"/>
-      <c r="GB1" s="145"/>
-      <c r="GC1" s="145"/>
-      <c r="GD1" s="145"/>
-      <c r="GE1" s="145"/>
-      <c r="GF1" s="145"/>
-      <c r="GG1" s="145"/>
-      <c r="GH1" s="145"/>
-      <c r="GI1" s="145"/>
-      <c r="GJ1" s="145"/>
-      <c r="GK1" s="145"/>
-      <c r="GL1" s="145"/>
-      <c r="GM1" s="145"/>
-      <c r="GN1" s="145"/>
-      <c r="GO1" s="145"/>
-      <c r="GP1" s="145"/>
-      <c r="GQ1" s="145"/>
-      <c r="GR1" s="145"/>
-      <c r="GS1" s="145"/>
-      <c r="GT1" s="145"/>
-      <c r="GU1" s="145"/>
-      <c r="GV1" s="145"/>
-      <c r="GW1" s="145"/>
-      <c r="GX1" s="145"/>
-      <c r="GY1" s="145"/>
-      <c r="GZ1" s="145"/>
-      <c r="HA1" s="145"/>
-      <c r="HB1" s="145"/>
-      <c r="HC1" s="145"/>
-      <c r="HD1" s="145"/>
-      <c r="HE1" s="145"/>
-      <c r="HF1" s="145"/>
-      <c r="HG1" s="145"/>
-      <c r="HH1" s="145"/>
-      <c r="HI1" s="145"/>
-      <c r="HJ1" s="145"/>
-      <c r="HK1" s="145"/>
-      <c r="HL1" s="145"/>
-      <c r="HM1" s="145"/>
-      <c r="HN1" s="145"/>
-      <c r="HO1" s="145"/>
-      <c r="HP1" s="145"/>
-      <c r="HQ1" s="145"/>
-      <c r="HR1" s="145"/>
-      <c r="HS1" s="145"/>
-      <c r="HT1" s="145"/>
-      <c r="HU1" s="145"/>
-      <c r="HV1" s="145"/>
-      <c r="HW1" s="145"/>
-      <c r="HX1" s="145"/>
-      <c r="HY1" s="145"/>
-      <c r="HZ1" s="145"/>
-      <c r="IA1" s="145"/>
-      <c r="IB1" s="145"/>
-      <c r="IC1" s="145"/>
-      <c r="ID1" s="145"/>
-      <c r="IE1" s="145"/>
-      <c r="IF1" s="145"/>
-      <c r="IG1" s="145"/>
-      <c r="IH1" s="145"/>
-      <c r="II1" s="145"/>
-      <c r="IJ1" s="145"/>
-      <c r="IK1" s="145"/>
-      <c r="IL1" s="145"/>
-      <c r="IM1" s="145"/>
-      <c r="IN1" s="145"/>
-      <c r="IO1" s="145"/>
-      <c r="IP1" s="145"/>
-      <c r="IQ1" s="145"/>
-      <c r="IR1" s="145"/>
-      <c r="IS1" s="145"/>
-      <c r="IT1" s="145"/>
-      <c r="IU1" s="145"/>
-      <c r="IV1" s="145"/>
-      <c r="IW1" s="145"/>
-      <c r="IX1" s="145"/>
-      <c r="IY1" s="145"/>
-      <c r="IZ1" s="145"/>
-      <c r="JA1" s="145"/>
-      <c r="JB1" s="145"/>
-      <c r="JC1" s="145"/>
-      <c r="JD1" s="145"/>
-      <c r="JE1" s="145"/>
-      <c r="JF1" s="145"/>
-      <c r="JG1" s="145"/>
-      <c r="JH1" s="145"/>
-      <c r="JI1" s="145"/>
-      <c r="JJ1" s="145"/>
-      <c r="JK1" s="145"/>
-      <c r="JL1" s="145"/>
-      <c r="JM1" s="145"/>
-      <c r="JN1" s="145"/>
-      <c r="JO1" s="145"/>
-      <c r="JP1" s="145"/>
-      <c r="JQ1" s="145"/>
-      <c r="JR1" s="145"/>
-      <c r="JS1" s="145"/>
-      <c r="JT1" s="145"/>
-      <c r="JU1" s="145"/>
-      <c r="JV1" s="145"/>
-      <c r="JW1" s="145"/>
-      <c r="JX1" s="145"/>
-      <c r="JY1" s="145"/>
-      <c r="JZ1" s="145"/>
-      <c r="KA1" s="145"/>
-      <c r="KB1" s="145"/>
-      <c r="KC1" s="145"/>
-      <c r="KD1" s="145"/>
-      <c r="KE1" s="145"/>
-      <c r="KF1" s="145"/>
-      <c r="KG1" s="145"/>
-      <c r="KH1" s="145"/>
-      <c r="KI1" s="145"/>
-      <c r="KJ1" s="145"/>
-      <c r="KK1" s="145"/>
-      <c r="KL1" s="145"/>
-      <c r="KM1" s="145"/>
-      <c r="KN1" s="145"/>
-      <c r="KO1" s="145"/>
-      <c r="KP1" s="145"/>
-      <c r="KQ1" s="145"/>
-      <c r="KR1" s="145"/>
-      <c r="KS1" s="145"/>
-      <c r="KT1" s="145"/>
-      <c r="KU1" s="145"/>
-      <c r="KV1" s="145"/>
-      <c r="KW1" s="145"/>
-      <c r="KX1" s="145"/>
-      <c r="KY1" s="145"/>
-      <c r="KZ1" s="145"/>
-      <c r="LA1" s="145"/>
-      <c r="LB1" s="145"/>
-      <c r="LC1" s="145"/>
-      <c r="LD1" s="145"/>
-      <c r="LE1" s="145"/>
-      <c r="LF1" s="145"/>
-      <c r="LG1" s="145"/>
-      <c r="LH1" s="145"/>
-      <c r="LI1" s="145"/>
-      <c r="LJ1" s="145"/>
-      <c r="LK1" s="145"/>
-      <c r="LL1" s="145"/>
-      <c r="LM1" s="145"/>
-      <c r="LN1" s="145"/>
-      <c r="LO1" s="145"/>
-      <c r="LP1" s="145"/>
-      <c r="LQ1" s="145"/>
-      <c r="LR1" s="145"/>
-      <c r="LS1" s="145"/>
-      <c r="LT1" s="145"/>
-      <c r="LU1" s="145"/>
-      <c r="LV1" s="145"/>
-      <c r="LW1" s="145"/>
-      <c r="LX1" s="145"/>
-      <c r="LY1" s="145"/>
-      <c r="LZ1" s="145"/>
-      <c r="MA1" s="145"/>
-      <c r="MB1" s="145"/>
-      <c r="MC1" s="145"/>
-      <c r="MD1" s="145"/>
-      <c r="ME1" s="145"/>
-      <c r="MF1" s="145"/>
-      <c r="MG1" s="145"/>
-      <c r="MH1" s="145"/>
-      <c r="MI1" s="145"/>
-      <c r="MJ1" s="145"/>
-      <c r="MK1" s="145"/>
-      <c r="ML1" s="145"/>
-      <c r="MM1" s="145"/>
-      <c r="MN1" s="145"/>
-      <c r="MO1" s="145"/>
-      <c r="MP1" s="145"/>
-      <c r="MQ1" s="145"/>
-      <c r="MR1" s="145"/>
-      <c r="MS1" s="145"/>
-      <c r="MT1" s="145"/>
-      <c r="MU1" s="145"/>
-      <c r="MV1" s="145"/>
-      <c r="MW1" s="145"/>
-      <c r="MX1" s="145"/>
-      <c r="MY1" s="145"/>
-      <c r="MZ1" s="145"/>
-      <c r="NA1" s="145"/>
-      <c r="NB1" s="145"/>
-      <c r="NC1" s="145"/>
-      <c r="ND1" s="145"/>
-      <c r="NE1" s="145"/>
-      <c r="NF1" s="145"/>
-      <c r="NG1" s="145"/>
-      <c r="NH1" s="145"/>
-      <c r="NI1" s="145"/>
-      <c r="NJ1" s="145"/>
-      <c r="NK1" s="145"/>
-      <c r="NL1" s="145"/>
-      <c r="NM1" s="145"/>
-      <c r="NN1" s="145"/>
-      <c r="NO1" s="145"/>
-      <c r="NP1" s="145"/>
-      <c r="NQ1" s="145"/>
-      <c r="NR1" s="145"/>
-      <c r="NS1" s="145"/>
-      <c r="NT1" s="145"/>
-      <c r="NU1" s="145"/>
-      <c r="NV1" s="145"/>
-      <c r="NW1" s="145"/>
-      <c r="NX1" s="145"/>
-      <c r="NY1" s="145"/>
-      <c r="NZ1" s="145"/>
-      <c r="OA1" s="145"/>
-      <c r="OB1" s="145"/>
-      <c r="OC1" s="145"/>
-      <c r="OD1" s="145"/>
-      <c r="OE1" s="145"/>
-      <c r="OF1" s="145"/>
-      <c r="OG1" s="145"/>
-      <c r="OH1" s="145"/>
-      <c r="OI1" s="145"/>
-      <c r="OJ1" s="145"/>
-      <c r="OK1" s="145"/>
-      <c r="OL1" s="145"/>
-      <c r="OM1" s="145"/>
-      <c r="ON1" s="145"/>
-      <c r="OO1" s="145"/>
-      <c r="OP1" s="145"/>
-      <c r="OQ1" s="145"/>
-      <c r="OR1" s="145"/>
-      <c r="OS1" s="145"/>
-      <c r="OT1" s="145"/>
-      <c r="OU1" s="145"/>
-      <c r="OV1" s="145"/>
-      <c r="OW1" s="145"/>
-      <c r="OX1" s="145"/>
-      <c r="OY1" s="145"/>
-      <c r="OZ1" s="145"/>
-      <c r="PA1" s="145"/>
-      <c r="PB1" s="145"/>
-      <c r="PC1" s="145"/>
-      <c r="PD1" s="145"/>
-      <c r="PE1" s="145"/>
-      <c r="PF1" s="145"/>
-      <c r="PG1" s="145"/>
-      <c r="PH1" s="145"/>
-      <c r="PI1" s="145"/>
-      <c r="PJ1" s="145"/>
-      <c r="PK1" s="145"/>
-      <c r="PL1" s="145"/>
-      <c r="PM1" s="145"/>
-      <c r="PN1" s="145"/>
-      <c r="PO1" s="145"/>
-      <c r="PP1" s="145"/>
-      <c r="PQ1" s="145"/>
-      <c r="PR1" s="145"/>
-      <c r="PS1" s="145"/>
-      <c r="PT1" s="145"/>
-      <c r="PU1" s="145"/>
-      <c r="PV1" s="145"/>
-      <c r="PW1" s="145"/>
-      <c r="PX1" s="145"/>
-      <c r="PY1" s="145"/>
-      <c r="PZ1" s="145"/>
-      <c r="QA1" s="145"/>
-      <c r="QB1" s="145"/>
-      <c r="QC1" s="145"/>
-      <c r="QD1" s="145"/>
-      <c r="QE1" s="145"/>
-      <c r="QF1" s="145"/>
-      <c r="QG1" s="145"/>
-      <c r="QH1" s="145"/>
-      <c r="QI1" s="145"/>
-      <c r="QJ1" s="145"/>
-      <c r="QK1" s="145"/>
-      <c r="QL1" s="145"/>
-      <c r="QM1" s="145"/>
-      <c r="QN1" s="145"/>
-      <c r="QO1" s="145"/>
-      <c r="QP1" s="145"/>
-      <c r="QQ1" s="145"/>
-      <c r="QR1" s="145"/>
-      <c r="QS1" s="145"/>
-      <c r="QT1" s="145"/>
-      <c r="QU1" s="145"/>
-      <c r="QV1" s="145"/>
-      <c r="QW1" s="145"/>
-      <c r="QX1" s="145"/>
-      <c r="QY1" s="145"/>
-      <c r="QZ1" s="145"/>
-      <c r="RA1" s="145"/>
-      <c r="RB1" s="145"/>
-      <c r="RC1" s="145"/>
-      <c r="RD1" s="145"/>
-      <c r="RE1" s="145"/>
-      <c r="RF1" s="145"/>
-      <c r="RG1" s="145"/>
-      <c r="RH1" s="145"/>
-      <c r="RI1" s="145"/>
-      <c r="RJ1" s="145"/>
-      <c r="RK1" s="145"/>
-      <c r="RL1" s="145"/>
-      <c r="RM1" s="145"/>
-      <c r="RN1" s="145"/>
-      <c r="RO1" s="145"/>
-      <c r="RP1" s="145"/>
-      <c r="RQ1" s="145"/>
-      <c r="RR1" s="145"/>
-      <c r="RS1" s="145"/>
-      <c r="RT1" s="145"/>
-      <c r="RU1" s="145"/>
-      <c r="RV1" s="145"/>
-      <c r="RW1" s="145"/>
-      <c r="RX1" s="145"/>
-      <c r="RY1" s="145"/>
-      <c r="RZ1" s="145"/>
-      <c r="SA1" s="145"/>
-      <c r="SB1" s="145"/>
-      <c r="SC1" s="145"/>
-      <c r="SD1" s="145"/>
-      <c r="SE1" s="145"/>
-      <c r="SF1" s="145"/>
-      <c r="SG1" s="145"/>
-      <c r="SH1" s="145"/>
-      <c r="SI1" s="145"/>
-      <c r="SJ1" s="145"/>
-      <c r="SK1" s="145"/>
-      <c r="SL1" s="145"/>
-      <c r="SM1" s="145"/>
-      <c r="SN1" s="145"/>
-      <c r="SO1" s="145"/>
-      <c r="SP1" s="145"/>
-      <c r="SQ1" s="145"/>
-      <c r="SR1" s="145"/>
-      <c r="SS1" s="145"/>
-      <c r="ST1" s="145"/>
-      <c r="SU1" s="145"/>
-      <c r="SV1" s="145"/>
-      <c r="SW1" s="145"/>
-      <c r="SX1" s="145"/>
-      <c r="SY1" s="145"/>
-      <c r="SZ1" s="145"/>
-      <c r="TA1" s="145"/>
-      <c r="TB1" s="145"/>
-      <c r="TC1" s="145"/>
-      <c r="TD1" s="145"/>
-      <c r="TE1" s="145"/>
-      <c r="TF1" s="145"/>
-      <c r="TG1" s="145"/>
-      <c r="TH1" s="145"/>
-      <c r="TI1" s="145"/>
-      <c r="TJ1" s="145"/>
-      <c r="TK1" s="145"/>
-      <c r="TL1" s="145"/>
-      <c r="TM1" s="145"/>
-      <c r="TN1" s="145"/>
-      <c r="TO1" s="145"/>
-      <c r="TP1" s="145"/>
-      <c r="TQ1" s="145"/>
-      <c r="TR1" s="145"/>
-      <c r="TS1" s="145"/>
-      <c r="TT1" s="145"/>
-      <c r="TU1" s="145"/>
-      <c r="TV1" s="145"/>
-      <c r="TW1" s="145"/>
-      <c r="TX1" s="145"/>
-      <c r="TY1" s="145"/>
-      <c r="TZ1" s="145"/>
-      <c r="UA1" s="145"/>
-      <c r="UB1" s="145"/>
-      <c r="UC1" s="145"/>
-      <c r="UD1" s="145"/>
-      <c r="UE1" s="145"/>
-      <c r="UF1" s="145"/>
-      <c r="UG1" s="145"/>
-      <c r="UH1" s="145"/>
-      <c r="UI1" s="145"/>
-      <c r="UJ1" s="145"/>
-      <c r="UK1" s="145"/>
-      <c r="UL1" s="145"/>
-      <c r="UM1" s="145"/>
-      <c r="UN1" s="145"/>
-      <c r="UO1" s="145"/>
-      <c r="UP1" s="145"/>
-      <c r="UQ1" s="145"/>
-      <c r="UR1" s="145"/>
-      <c r="US1" s="145"/>
-      <c r="UT1" s="145"/>
-      <c r="UU1" s="145"/>
-      <c r="UV1" s="145"/>
-      <c r="UW1" s="145"/>
-      <c r="UX1" s="145"/>
-      <c r="UY1" s="145"/>
-      <c r="UZ1" s="145"/>
-      <c r="VA1" s="145"/>
-      <c r="VB1" s="145"/>
-      <c r="VC1" s="145"/>
-      <c r="VD1" s="145"/>
-      <c r="VE1" s="145"/>
-      <c r="VF1" s="145"/>
-      <c r="VG1" s="145"/>
-      <c r="VH1" s="145"/>
-      <c r="VI1" s="145"/>
-      <c r="VJ1" s="145"/>
-      <c r="VK1" s="145"/>
-      <c r="VL1" s="145"/>
-      <c r="VM1" s="145"/>
-      <c r="VN1" s="145"/>
-      <c r="VO1" s="145"/>
-      <c r="VP1" s="145"/>
-      <c r="VQ1" s="145"/>
-      <c r="VR1" s="145"/>
-      <c r="VS1" s="145"/>
-      <c r="VT1" s="145"/>
-      <c r="VU1" s="145"/>
-      <c r="VV1" s="145"/>
-      <c r="VW1" s="145"/>
-      <c r="VX1" s="145"/>
-      <c r="VY1" s="145"/>
-      <c r="VZ1" s="145"/>
-      <c r="WA1" s="145"/>
-      <c r="WB1" s="145"/>
-      <c r="WC1" s="145"/>
-      <c r="WD1" s="145"/>
-      <c r="WE1" s="145"/>
-      <c r="WF1" s="145"/>
-      <c r="WG1" s="145"/>
-      <c r="WH1" s="145"/>
-      <c r="WI1" s="145"/>
-      <c r="WJ1" s="145"/>
-      <c r="WK1" s="145"/>
-      <c r="WL1" s="145"/>
-      <c r="WM1" s="145"/>
-      <c r="WN1" s="145"/>
-      <c r="WO1" s="145"/>
-      <c r="WP1" s="145"/>
-      <c r="WQ1" s="145"/>
-      <c r="WR1" s="145"/>
-      <c r="WS1" s="145"/>
-      <c r="WT1" s="145"/>
-      <c r="WU1" s="145"/>
-      <c r="WV1" s="145"/>
-      <c r="WW1" s="145"/>
-      <c r="WX1" s="145"/>
-      <c r="WY1" s="145"/>
-      <c r="WZ1" s="145"/>
-      <c r="XA1" s="145"/>
-      <c r="XB1" s="145"/>
-      <c r="XC1" s="145"/>
-      <c r="XD1" s="145"/>
-      <c r="XE1" s="145"/>
-      <c r="XF1" s="145"/>
-      <c r="XG1" s="145"/>
-      <c r="XH1" s="145"/>
-      <c r="XI1" s="145"/>
-      <c r="XJ1" s="145"/>
-      <c r="XK1" s="145"/>
-      <c r="XL1" s="145"/>
-      <c r="XM1" s="145"/>
-      <c r="XN1" s="145"/>
-      <c r="XO1" s="145"/>
-      <c r="XP1" s="145"/>
-      <c r="XQ1" s="145"/>
-      <c r="XR1" s="145"/>
-      <c r="XS1" s="145"/>
-      <c r="XT1" s="145"/>
-      <c r="XU1" s="145"/>
-      <c r="XV1" s="145"/>
-      <c r="XW1" s="145"/>
-      <c r="XX1" s="145"/>
-      <c r="XY1" s="145"/>
-      <c r="XZ1" s="145"/>
-      <c r="YA1" s="145"/>
-      <c r="YB1" s="145"/>
-      <c r="YC1" s="145"/>
-      <c r="YD1" s="145"/>
-      <c r="YE1" s="145"/>
-      <c r="YF1" s="145"/>
-      <c r="YG1" s="145"/>
-      <c r="YH1" s="145"/>
-      <c r="YI1" s="145"/>
-      <c r="YJ1" s="145"/>
-      <c r="YK1" s="145"/>
-      <c r="YL1" s="145"/>
-      <c r="YM1" s="145"/>
-      <c r="YN1" s="145"/>
-      <c r="YO1" s="145"/>
-      <c r="YP1" s="145"/>
-      <c r="YQ1" s="145"/>
-      <c r="YR1" s="145"/>
-      <c r="YS1" s="145"/>
-      <c r="YT1" s="145"/>
-      <c r="YU1" s="145"/>
-      <c r="YV1" s="145"/>
-      <c r="YW1" s="145"/>
-      <c r="YX1" s="145"/>
-      <c r="YY1" s="145"/>
-      <c r="YZ1" s="145"/>
-      <c r="ZA1" s="145"/>
-      <c r="ZB1" s="145"/>
-      <c r="ZC1" s="145"/>
-      <c r="ZD1" s="145"/>
-      <c r="ZE1" s="145"/>
-      <c r="ZF1" s="145"/>
-      <c r="ZG1" s="145"/>
-      <c r="ZH1" s="145"/>
-      <c r="ZI1" s="145"/>
-      <c r="ZJ1" s="145"/>
-      <c r="ZK1" s="145"/>
-      <c r="ZL1" s="145"/>
-      <c r="ZM1" s="145"/>
-      <c r="ZN1" s="145"/>
-      <c r="ZO1" s="145"/>
-      <c r="ZP1" s="145"/>
-      <c r="ZQ1" s="145"/>
-      <c r="ZR1" s="145"/>
-      <c r="ZS1" s="145"/>
-      <c r="ZT1" s="145"/>
-      <c r="ZU1" s="145"/>
-      <c r="ZV1" s="145"/>
-      <c r="ZW1" s="145"/>
-      <c r="ZX1" s="145"/>
-      <c r="ZY1" s="145"/>
-      <c r="ZZ1" s="145"/>
-      <c r="AAA1" s="145"/>
-      <c r="AAB1" s="145"/>
-      <c r="AAC1" s="145"/>
-      <c r="AAD1" s="145"/>
-      <c r="AAE1" s="145"/>
-      <c r="AAF1" s="145"/>
-      <c r="AAG1" s="145"/>
-      <c r="AAH1" s="145"/>
-      <c r="AAI1" s="145"/>
-      <c r="AAJ1" s="145"/>
-      <c r="AAK1" s="145"/>
-      <c r="AAL1" s="145"/>
-      <c r="AAM1" s="145"/>
-      <c r="AAN1" s="145"/>
-      <c r="AAO1" s="145"/>
-      <c r="AAP1" s="145"/>
-      <c r="AAQ1" s="145"/>
-      <c r="AAR1" s="145"/>
-      <c r="AAS1" s="145"/>
-      <c r="AAT1" s="145"/>
-      <c r="AAU1" s="145"/>
-      <c r="AAV1" s="145"/>
-      <c r="AAW1" s="145"/>
-      <c r="AAX1" s="145"/>
-      <c r="AAY1" s="145"/>
-      <c r="AAZ1" s="145"/>
-      <c r="ABA1" s="145"/>
-      <c r="ABB1" s="145"/>
-      <c r="ABC1" s="145"/>
-      <c r="ABD1" s="145"/>
-      <c r="ABE1" s="145"/>
-      <c r="ABF1" s="145"/>
-      <c r="ABG1" s="145"/>
-      <c r="ABH1" s="145"/>
-      <c r="ABI1" s="145"/>
-      <c r="ABJ1" s="145"/>
-      <c r="ABK1" s="145"/>
-      <c r="ABL1" s="145"/>
-      <c r="ABM1" s="145"/>
-      <c r="ABN1" s="145"/>
-      <c r="ABO1" s="145"/>
-      <c r="ABP1" s="145"/>
-      <c r="ABQ1" s="145"/>
-      <c r="ABR1" s="145"/>
-      <c r="ABS1" s="145"/>
-      <c r="ABT1" s="145"/>
-      <c r="ABU1" s="145"/>
-      <c r="ABV1" s="145"/>
-      <c r="ABW1" s="145"/>
-      <c r="ABX1" s="145"/>
-      <c r="ABY1" s="145"/>
-      <c r="ABZ1" s="145"/>
-      <c r="ACA1" s="145"/>
-      <c r="ACB1" s="145"/>
-      <c r="ACC1" s="145"/>
-      <c r="ACD1" s="145"/>
-      <c r="ACE1" s="145"/>
-      <c r="ACF1" s="145"/>
-      <c r="ACG1" s="145"/>
-      <c r="ACH1" s="145"/>
-      <c r="ACI1" s="145"/>
-      <c r="ACJ1" s="145"/>
-      <c r="ACK1" s="145"/>
-      <c r="ACL1" s="145"/>
-      <c r="ACM1" s="145"/>
-      <c r="ACN1" s="145"/>
-      <c r="ACO1" s="145"/>
-      <c r="ACP1" s="145"/>
-      <c r="ACQ1" s="145"/>
-      <c r="ACR1" s="145"/>
-      <c r="ACS1" s="145"/>
-      <c r="ACT1" s="145"/>
-      <c r="ACU1" s="145"/>
-      <c r="ACV1" s="145"/>
-      <c r="ACW1" s="145"/>
-      <c r="ACX1" s="145"/>
-      <c r="ACY1" s="145"/>
-      <c r="ACZ1" s="145"/>
-      <c r="ADA1" s="145"/>
-      <c r="ADB1" s="145"/>
-      <c r="ADC1" s="145"/>
-      <c r="ADD1" s="145"/>
-      <c r="ADE1" s="145"/>
-      <c r="ADF1" s="145"/>
-      <c r="ADG1" s="145"/>
-      <c r="ADH1" s="145"/>
-      <c r="ADI1" s="145"/>
-      <c r="ADJ1" s="145"/>
-      <c r="ADK1" s="145"/>
-      <c r="ADL1" s="145"/>
-      <c r="ADM1" s="145"/>
-      <c r="ADN1" s="145"/>
-      <c r="ADO1" s="145"/>
-      <c r="ADP1" s="145"/>
-      <c r="ADQ1" s="145"/>
-      <c r="ADR1" s="145"/>
-      <c r="ADS1" s="145"/>
-      <c r="ADT1" s="145"/>
-      <c r="ADU1" s="145"/>
-      <c r="ADV1" s="145"/>
-      <c r="ADW1" s="145"/>
-      <c r="ADX1" s="145"/>
-      <c r="ADY1" s="145"/>
-      <c r="ADZ1" s="145"/>
-      <c r="AEA1" s="145"/>
-      <c r="AEB1" s="145"/>
-      <c r="AEC1" s="145"/>
-      <c r="AED1" s="145"/>
-      <c r="AEE1" s="145"/>
-      <c r="AEF1" s="145"/>
-      <c r="AEG1" s="145"/>
-      <c r="AEH1" s="145"/>
-      <c r="AEI1" s="145"/>
-      <c r="AEJ1" s="145"/>
-      <c r="AEK1" s="145"/>
-      <c r="AEL1" s="145"/>
-      <c r="AEM1" s="145"/>
-      <c r="AEN1" s="145"/>
-      <c r="AEO1" s="145"/>
-      <c r="AEP1" s="145"/>
-      <c r="AEQ1" s="145"/>
-      <c r="AER1" s="145"/>
-      <c r="AES1" s="145"/>
-      <c r="AET1" s="145"/>
-      <c r="AEU1" s="145"/>
-      <c r="AEV1" s="145"/>
-      <c r="AEW1" s="145"/>
-      <c r="AEX1" s="145"/>
-      <c r="AEY1" s="145"/>
-      <c r="AEZ1" s="145"/>
-      <c r="AFA1" s="145"/>
-      <c r="AFB1" s="145"/>
-      <c r="AFC1" s="145"/>
-      <c r="AFD1" s="145"/>
-      <c r="AFE1" s="145"/>
-      <c r="AFF1" s="145"/>
-      <c r="AFG1" s="145"/>
-      <c r="AFH1" s="145"/>
-      <c r="AFI1" s="145"/>
-      <c r="AFJ1" s="145"/>
-      <c r="AFK1" s="145"/>
-      <c r="AFL1" s="145"/>
-      <c r="AFM1" s="145"/>
-      <c r="AFN1" s="145"/>
-      <c r="AFO1" s="145"/>
-      <c r="AFP1" s="145"/>
-      <c r="AFQ1" s="145"/>
-      <c r="AFR1" s="145"/>
-      <c r="AFS1" s="145"/>
-      <c r="AFT1" s="145"/>
-      <c r="AFU1" s="145"/>
-      <c r="AFV1" s="145"/>
-      <c r="AFW1" s="145"/>
-      <c r="AFX1" s="145"/>
-      <c r="AFY1" s="145"/>
-      <c r="AFZ1" s="145"/>
-      <c r="AGA1" s="145"/>
-      <c r="AGB1" s="145"/>
-      <c r="AGC1" s="145"/>
-      <c r="AGD1" s="145"/>
-      <c r="AGE1" s="145"/>
-      <c r="AGF1" s="145"/>
-      <c r="AGG1" s="145"/>
-      <c r="AGH1" s="145"/>
-      <c r="AGI1" s="145"/>
-      <c r="AGJ1" s="145"/>
-      <c r="AGK1" s="145"/>
-      <c r="AGL1" s="145"/>
-      <c r="AGM1" s="145"/>
-      <c r="AGN1" s="145"/>
-      <c r="AGO1" s="145"/>
-      <c r="AGP1" s="145"/>
-      <c r="AGQ1" s="145"/>
-      <c r="AGR1" s="145"/>
-      <c r="AGS1" s="145"/>
-      <c r="AGT1" s="145"/>
-      <c r="AGU1" s="145"/>
-      <c r="AGV1" s="145"/>
-      <c r="AGW1" s="145"/>
-      <c r="AGX1" s="145"/>
-      <c r="AGY1" s="145"/>
-      <c r="AGZ1" s="145"/>
-      <c r="AHA1" s="145"/>
-      <c r="AHB1" s="145"/>
-      <c r="AHC1" s="145"/>
-      <c r="AHD1" s="145"/>
-      <c r="AHE1" s="145"/>
-      <c r="AHF1" s="145"/>
-      <c r="AHG1" s="145"/>
-      <c r="AHH1" s="145"/>
-      <c r="AHI1" s="145"/>
-      <c r="AHJ1" s="145"/>
-      <c r="AHK1" s="145"/>
-      <c r="AHL1" s="145"/>
-      <c r="AHM1" s="145"/>
-      <c r="AHN1" s="145"/>
-      <c r="AHO1" s="145"/>
-      <c r="AHP1" s="145"/>
-      <c r="AHQ1" s="145"/>
-      <c r="AHR1" s="145"/>
-      <c r="AHS1" s="145"/>
-      <c r="AHT1" s="145"/>
-      <c r="AHU1" s="145"/>
-      <c r="AHV1" s="145"/>
-      <c r="AHW1" s="145"/>
-      <c r="AHX1" s="145"/>
-      <c r="AHY1" s="145"/>
-      <c r="AHZ1" s="145"/>
-      <c r="AIA1" s="145"/>
-      <c r="AIB1" s="145"/>
-      <c r="AIC1" s="145"/>
-      <c r="AID1" s="145"/>
-      <c r="AIE1" s="145"/>
-      <c r="AIF1" s="145"/>
-      <c r="AIG1" s="145"/>
-      <c r="AIH1" s="145"/>
-      <c r="AII1" s="145"/>
-      <c r="AIJ1" s="145"/>
-      <c r="AIK1" s="145"/>
-      <c r="AIL1" s="145"/>
-      <c r="AIM1" s="145"/>
-      <c r="AIN1" s="145"/>
-      <c r="AIO1" s="145"/>
-      <c r="AIP1" s="145"/>
-      <c r="AIQ1" s="145"/>
-      <c r="AIR1" s="145"/>
-      <c r="AIS1" s="145"/>
-      <c r="AIT1" s="145"/>
-      <c r="AIU1" s="145"/>
-      <c r="AIV1" s="145"/>
-      <c r="AIW1" s="145"/>
-      <c r="AIX1" s="145"/>
-      <c r="AIY1" s="145"/>
-      <c r="AIZ1" s="145"/>
-      <c r="AJA1" s="145"/>
-      <c r="AJB1" s="145"/>
-      <c r="AJC1" s="145"/>
-      <c r="AJD1" s="145"/>
-      <c r="AJE1" s="145"/>
-      <c r="AJF1" s="145"/>
-      <c r="AJG1" s="145"/>
-      <c r="AJH1" s="145"/>
-      <c r="AJI1" s="145"/>
-      <c r="AJJ1" s="145"/>
-      <c r="AJK1" s="145"/>
-      <c r="AJL1" s="145"/>
-      <c r="AJM1" s="145"/>
-      <c r="AJN1" s="145"/>
-      <c r="AJO1" s="145"/>
-      <c r="AJP1" s="145"/>
-      <c r="AJQ1" s="145"/>
-      <c r="AJR1" s="145"/>
-      <c r="AJS1" s="145"/>
-      <c r="AJT1" s="145"/>
-      <c r="AJU1" s="145"/>
-      <c r="AJV1" s="145"/>
-      <c r="AJW1" s="145"/>
-      <c r="AJX1" s="145"/>
-      <c r="AJY1" s="145"/>
-      <c r="AJZ1" s="145"/>
-      <c r="AKA1" s="145"/>
-      <c r="AKB1" s="145"/>
-      <c r="AKC1" s="145"/>
-      <c r="AKD1" s="145"/>
-      <c r="AKE1" s="145"/>
-      <c r="AKF1" s="145"/>
-      <c r="AKG1" s="145"/>
-      <c r="AKH1" s="145"/>
-      <c r="AKI1" s="145"/>
-      <c r="AKJ1" s="145"/>
-      <c r="AKK1" s="145"/>
-      <c r="AKL1" s="145"/>
-      <c r="AKM1" s="145"/>
-      <c r="AKN1" s="145"/>
-      <c r="AKO1" s="145"/>
-      <c r="AKP1" s="145"/>
-      <c r="AKQ1" s="145"/>
-      <c r="AKR1" s="145"/>
-      <c r="AKS1" s="145"/>
-      <c r="AKT1" s="145"/>
-      <c r="AKU1" s="145"/>
-      <c r="AKV1" s="145"/>
-      <c r="AKW1" s="145"/>
-      <c r="AKX1" s="145"/>
-      <c r="AKY1" s="145"/>
-      <c r="AKZ1" s="145"/>
-      <c r="ALA1" s="145"/>
-      <c r="ALB1" s="145"/>
-      <c r="ALC1" s="145"/>
-      <c r="ALD1" s="145"/>
-      <c r="ALE1" s="145"/>
-      <c r="ALF1" s="145"/>
-      <c r="ALG1" s="145"/>
-      <c r="ALH1" s="145"/>
-      <c r="ALI1" s="145"/>
-      <c r="ALJ1" s="145"/>
-      <c r="ALK1" s="145"/>
-      <c r="ALL1" s="145"/>
-      <c r="ALM1" s="145"/>
-      <c r="ALN1" s="145"/>
-      <c r="ALO1" s="145"/>
-      <c r="ALP1" s="145"/>
-      <c r="ALQ1" s="145"/>
-      <c r="ALR1" s="145"/>
-      <c r="ALS1" s="145"/>
-      <c r="ALT1" s="145"/>
-      <c r="ALU1" s="145"/>
-      <c r="ALV1" s="145"/>
-      <c r="ALW1" s="145"/>
-      <c r="ALX1" s="145"/>
-      <c r="ALY1" s="145"/>
-      <c r="ALZ1" s="145"/>
-      <c r="AMA1" s="145"/>
-      <c r="AMB1" s="145"/>
-      <c r="AMC1" s="145"/>
-      <c r="AMD1" s="145"/>
-      <c r="AME1" s="145"/>
-      <c r="AMF1" s="145"/>
-      <c r="AMG1" s="145"/>
-      <c r="AMH1" s="145"/>
-      <c r="AMI1" s="145"/>
-      <c r="AMJ1" s="145"/>
-      <c r="AMK1" s="145"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="131"/>
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="131"/>
+      <c r="AG1" s="131"/>
+      <c r="AH1" s="131"/>
+      <c r="AI1" s="131"/>
+      <c r="AJ1" s="131"/>
+      <c r="AK1" s="131"/>
+      <c r="AL1" s="131"/>
+      <c r="AM1" s="131"/>
+      <c r="AN1" s="131"/>
+      <c r="AO1" s="131"/>
+      <c r="AP1" s="131"/>
+      <c r="AQ1" s="131"/>
+      <c r="AR1" s="131"/>
+      <c r="AS1" s="131"/>
+      <c r="AT1" s="131"/>
+      <c r="AU1" s="131"/>
+      <c r="AV1" s="131"/>
+      <c r="AW1" s="131"/>
+      <c r="AX1" s="131"/>
+      <c r="AY1" s="131"/>
+      <c r="AZ1" s="131"/>
+      <c r="BA1" s="131"/>
+      <c r="BB1" s="131"/>
+      <c r="BC1" s="131"/>
+      <c r="BD1" s="131"/>
+      <c r="BE1" s="131"/>
+      <c r="BF1" s="131"/>
+      <c r="BG1" s="131"/>
+      <c r="BH1" s="131"/>
+      <c r="BI1" s="131"/>
+      <c r="BJ1" s="131"/>
+      <c r="BK1" s="131"/>
+      <c r="BL1" s="131"/>
+      <c r="BM1" s="131"/>
+      <c r="BN1" s="131"/>
+      <c r="BO1" s="131"/>
+      <c r="BP1" s="131"/>
+      <c r="BQ1" s="131"/>
+      <c r="BR1" s="131"/>
+      <c r="BS1" s="131"/>
+      <c r="BT1" s="131"/>
+      <c r="BU1" s="131"/>
+      <c r="BV1" s="131"/>
+      <c r="BW1" s="131"/>
+      <c r="BX1" s="131"/>
+      <c r="BY1" s="131"/>
+      <c r="BZ1" s="131"/>
+      <c r="CA1" s="131"/>
+      <c r="CB1" s="131"/>
+      <c r="CC1" s="131"/>
+      <c r="CD1" s="131"/>
+      <c r="CE1" s="131"/>
+      <c r="CF1" s="131"/>
+      <c r="CG1" s="131"/>
+      <c r="CH1" s="131"/>
+      <c r="CI1" s="131"/>
+      <c r="CJ1" s="131"/>
+      <c r="CK1" s="131"/>
+      <c r="CL1" s="131"/>
+      <c r="CM1" s="131"/>
+      <c r="CN1" s="131"/>
+      <c r="CO1" s="131"/>
+      <c r="CP1" s="131"/>
+      <c r="CQ1" s="131"/>
+      <c r="CR1" s="131"/>
+      <c r="CS1" s="131"/>
+      <c r="CT1" s="131"/>
+      <c r="CU1" s="131"/>
+      <c r="CV1" s="131"/>
+      <c r="CW1" s="131"/>
+      <c r="CX1" s="131"/>
+      <c r="CY1" s="131"/>
+      <c r="CZ1" s="131"/>
+      <c r="DA1" s="131"/>
+      <c r="DB1" s="131"/>
+      <c r="DC1" s="131"/>
+      <c r="DD1" s="131"/>
+      <c r="DE1" s="131"/>
+      <c r="DF1" s="131"/>
+      <c r="DG1" s="131"/>
+      <c r="DH1" s="131"/>
+      <c r="DI1" s="131"/>
+      <c r="DJ1" s="131"/>
+      <c r="DK1" s="131"/>
+      <c r="DL1" s="131"/>
+      <c r="DM1" s="131"/>
+      <c r="DN1" s="131"/>
+      <c r="DO1" s="131"/>
+      <c r="DP1" s="131"/>
+      <c r="DQ1" s="131"/>
+      <c r="DR1" s="131"/>
+      <c r="DS1" s="131"/>
+      <c r="DT1" s="131"/>
+      <c r="DU1" s="131"/>
+      <c r="DV1" s="131"/>
+      <c r="DW1" s="131"/>
+      <c r="DX1" s="131"/>
+      <c r="DY1" s="131"/>
+      <c r="DZ1" s="131"/>
+      <c r="EA1" s="131"/>
+      <c r="EB1" s="131"/>
+      <c r="EC1" s="131"/>
+      <c r="ED1" s="131"/>
+      <c r="EE1" s="131"/>
+      <c r="EF1" s="131"/>
+      <c r="EG1" s="131"/>
+      <c r="EH1" s="131"/>
+      <c r="EI1" s="131"/>
+      <c r="EJ1" s="131"/>
+      <c r="EK1" s="131"/>
+      <c r="EL1" s="131"/>
+      <c r="EM1" s="131"/>
+      <c r="EN1" s="131"/>
+      <c r="EO1" s="131"/>
+      <c r="EP1" s="131"/>
+      <c r="EQ1" s="131"/>
+      <c r="ER1" s="131"/>
+      <c r="ES1" s="131"/>
+      <c r="ET1" s="131"/>
+      <c r="EU1" s="131"/>
+      <c r="EV1" s="131"/>
+      <c r="EW1" s="131"/>
+      <c r="EX1" s="131"/>
+      <c r="EY1" s="131"/>
+      <c r="EZ1" s="131"/>
+      <c r="FA1" s="131"/>
+      <c r="FB1" s="131"/>
+      <c r="FC1" s="131"/>
+      <c r="FD1" s="131"/>
+      <c r="FE1" s="131"/>
+      <c r="FF1" s="131"/>
+      <c r="FG1" s="131"/>
+      <c r="FH1" s="131"/>
+      <c r="FI1" s="131"/>
+      <c r="FJ1" s="131"/>
+      <c r="FK1" s="131"/>
+      <c r="FL1" s="131"/>
+      <c r="FM1" s="131"/>
+      <c r="FN1" s="131"/>
+      <c r="FO1" s="131"/>
+      <c r="FP1" s="131"/>
+      <c r="FQ1" s="131"/>
+      <c r="FR1" s="131"/>
+      <c r="FS1" s="131"/>
+      <c r="FT1" s="131"/>
+      <c r="FU1" s="131"/>
+      <c r="FV1" s="131"/>
+      <c r="FW1" s="131"/>
+      <c r="FX1" s="131"/>
+      <c r="FY1" s="131"/>
+      <c r="FZ1" s="131"/>
+      <c r="GA1" s="131"/>
+      <c r="GB1" s="131"/>
+      <c r="GC1" s="131"/>
+      <c r="GD1" s="131"/>
+      <c r="GE1" s="131"/>
+      <c r="GF1" s="131"/>
+      <c r="GG1" s="131"/>
+      <c r="GH1" s="131"/>
+      <c r="GI1" s="131"/>
+      <c r="GJ1" s="131"/>
+      <c r="GK1" s="131"/>
+      <c r="GL1" s="131"/>
+      <c r="GM1" s="131"/>
+      <c r="GN1" s="131"/>
+      <c r="GO1" s="131"/>
+      <c r="GP1" s="131"/>
+      <c r="GQ1" s="131"/>
+      <c r="GR1" s="131"/>
+      <c r="GS1" s="131"/>
+      <c r="GT1" s="131"/>
+      <c r="GU1" s="131"/>
+      <c r="GV1" s="131"/>
+      <c r="GW1" s="131"/>
+      <c r="GX1" s="131"/>
+      <c r="GY1" s="131"/>
+      <c r="GZ1" s="131"/>
+      <c r="HA1" s="131"/>
+      <c r="HB1" s="131"/>
+      <c r="HC1" s="131"/>
+      <c r="HD1" s="131"/>
+      <c r="HE1" s="131"/>
+      <c r="HF1" s="131"/>
+      <c r="HG1" s="131"/>
+      <c r="HH1" s="131"/>
+      <c r="HI1" s="131"/>
+      <c r="HJ1" s="131"/>
+      <c r="HK1" s="131"/>
+      <c r="HL1" s="131"/>
+      <c r="HM1" s="131"/>
+      <c r="HN1" s="131"/>
+      <c r="HO1" s="131"/>
+      <c r="HP1" s="131"/>
+      <c r="HQ1" s="131"/>
+      <c r="HR1" s="131"/>
+      <c r="HS1" s="131"/>
+      <c r="HT1" s="131"/>
+      <c r="HU1" s="131"/>
+      <c r="HV1" s="131"/>
+      <c r="HW1" s="131"/>
+      <c r="HX1" s="131"/>
+      <c r="HY1" s="131"/>
+      <c r="HZ1" s="131"/>
+      <c r="IA1" s="131"/>
+      <c r="IB1" s="131"/>
+      <c r="IC1" s="131"/>
+      <c r="ID1" s="131"/>
+      <c r="IE1" s="131"/>
+      <c r="IF1" s="131"/>
+      <c r="IG1" s="131"/>
+      <c r="IH1" s="131"/>
+      <c r="II1" s="131"/>
+      <c r="IJ1" s="131"/>
+      <c r="IK1" s="131"/>
+      <c r="IL1" s="131"/>
+      <c r="IM1" s="131"/>
+      <c r="IN1" s="131"/>
+      <c r="IO1" s="131"/>
+      <c r="IP1" s="131"/>
+      <c r="IQ1" s="131"/>
+      <c r="IR1" s="131"/>
+      <c r="IS1" s="131"/>
+      <c r="IT1" s="131"/>
+      <c r="IU1" s="131"/>
+      <c r="IV1" s="131"/>
+      <c r="IW1" s="131"/>
+      <c r="IX1" s="131"/>
+      <c r="IY1" s="131"/>
+      <c r="IZ1" s="131"/>
+      <c r="JA1" s="131"/>
+      <c r="JB1" s="131"/>
+      <c r="JC1" s="131"/>
+      <c r="JD1" s="131"/>
+      <c r="JE1" s="131"/>
+      <c r="JF1" s="131"/>
+      <c r="JG1" s="131"/>
+      <c r="JH1" s="131"/>
+      <c r="JI1" s="131"/>
+      <c r="JJ1" s="131"/>
+      <c r="JK1" s="131"/>
+      <c r="JL1" s="131"/>
+      <c r="JM1" s="131"/>
+      <c r="JN1" s="131"/>
+      <c r="JO1" s="131"/>
+      <c r="JP1" s="131"/>
+      <c r="JQ1" s="131"/>
+      <c r="JR1" s="131"/>
+      <c r="JS1" s="131"/>
+      <c r="JT1" s="131"/>
+      <c r="JU1" s="131"/>
+      <c r="JV1" s="131"/>
+      <c r="JW1" s="131"/>
+      <c r="JX1" s="131"/>
+      <c r="JY1" s="131"/>
+      <c r="JZ1" s="131"/>
+      <c r="KA1" s="131"/>
+      <c r="KB1" s="131"/>
+      <c r="KC1" s="131"/>
+      <c r="KD1" s="131"/>
+      <c r="KE1" s="131"/>
+      <c r="KF1" s="131"/>
+      <c r="KG1" s="131"/>
+      <c r="KH1" s="131"/>
+      <c r="KI1" s="131"/>
+      <c r="KJ1" s="131"/>
+      <c r="KK1" s="131"/>
+      <c r="KL1" s="131"/>
+      <c r="KM1" s="131"/>
+      <c r="KN1" s="131"/>
+      <c r="KO1" s="131"/>
+      <c r="KP1" s="131"/>
+      <c r="KQ1" s="131"/>
+      <c r="KR1" s="131"/>
+      <c r="KS1" s="131"/>
+      <c r="KT1" s="131"/>
+      <c r="KU1" s="131"/>
+      <c r="KV1" s="131"/>
+      <c r="KW1" s="131"/>
+      <c r="KX1" s="131"/>
+      <c r="KY1" s="131"/>
+      <c r="KZ1" s="131"/>
+      <c r="LA1" s="131"/>
+      <c r="LB1" s="131"/>
+      <c r="LC1" s="131"/>
+      <c r="LD1" s="131"/>
+      <c r="LE1" s="131"/>
+      <c r="LF1" s="131"/>
+      <c r="LG1" s="131"/>
+      <c r="LH1" s="131"/>
+      <c r="LI1" s="131"/>
+      <c r="LJ1" s="131"/>
+      <c r="LK1" s="131"/>
+      <c r="LL1" s="131"/>
+      <c r="LM1" s="131"/>
+      <c r="LN1" s="131"/>
+      <c r="LO1" s="131"/>
+      <c r="LP1" s="131"/>
+      <c r="LQ1" s="131"/>
+      <c r="LR1" s="131"/>
+      <c r="LS1" s="131"/>
+      <c r="LT1" s="131"/>
+      <c r="LU1" s="131"/>
+      <c r="LV1" s="131"/>
+      <c r="LW1" s="131"/>
+      <c r="LX1" s="131"/>
+      <c r="LY1" s="131"/>
+      <c r="LZ1" s="131"/>
+      <c r="MA1" s="131"/>
+      <c r="MB1" s="131"/>
+      <c r="MC1" s="131"/>
+      <c r="MD1" s="131"/>
+      <c r="ME1" s="131"/>
+      <c r="MF1" s="131"/>
+      <c r="MG1" s="131"/>
+      <c r="MH1" s="131"/>
+      <c r="MI1" s="131"/>
+      <c r="MJ1" s="131"/>
+      <c r="MK1" s="131"/>
+      <c r="ML1" s="131"/>
+      <c r="MM1" s="131"/>
+      <c r="MN1" s="131"/>
+      <c r="MO1" s="131"/>
+      <c r="MP1" s="131"/>
+      <c r="MQ1" s="131"/>
+      <c r="MR1" s="131"/>
+      <c r="MS1" s="131"/>
+      <c r="MT1" s="131"/>
+      <c r="MU1" s="131"/>
+      <c r="MV1" s="131"/>
+      <c r="MW1" s="131"/>
+      <c r="MX1" s="131"/>
+      <c r="MY1" s="131"/>
+      <c r="MZ1" s="131"/>
+      <c r="NA1" s="131"/>
+      <c r="NB1" s="131"/>
+      <c r="NC1" s="131"/>
+      <c r="ND1" s="131"/>
+      <c r="NE1" s="131"/>
+      <c r="NF1" s="131"/>
+      <c r="NG1" s="131"/>
+      <c r="NH1" s="131"/>
+      <c r="NI1" s="131"/>
+      <c r="NJ1" s="131"/>
+      <c r="NK1" s="131"/>
+      <c r="NL1" s="131"/>
+      <c r="NM1" s="131"/>
+      <c r="NN1" s="131"/>
+      <c r="NO1" s="131"/>
+      <c r="NP1" s="131"/>
+      <c r="NQ1" s="131"/>
+      <c r="NR1" s="131"/>
+      <c r="NS1" s="131"/>
+      <c r="NT1" s="131"/>
+      <c r="NU1" s="131"/>
+      <c r="NV1" s="131"/>
+      <c r="NW1" s="131"/>
+      <c r="NX1" s="131"/>
+      <c r="NY1" s="131"/>
+      <c r="NZ1" s="131"/>
+      <c r="OA1" s="131"/>
+      <c r="OB1" s="131"/>
+      <c r="OC1" s="131"/>
+      <c r="OD1" s="131"/>
+      <c r="OE1" s="131"/>
+      <c r="OF1" s="131"/>
+      <c r="OG1" s="131"/>
+      <c r="OH1" s="131"/>
+      <c r="OI1" s="131"/>
+      <c r="OJ1" s="131"/>
+      <c r="OK1" s="131"/>
+      <c r="OL1" s="131"/>
+      <c r="OM1" s="131"/>
+      <c r="ON1" s="131"/>
+      <c r="OO1" s="131"/>
+      <c r="OP1" s="131"/>
+      <c r="OQ1" s="131"/>
+      <c r="OR1" s="131"/>
+      <c r="OS1" s="131"/>
+      <c r="OT1" s="131"/>
+      <c r="OU1" s="131"/>
+      <c r="OV1" s="131"/>
+      <c r="OW1" s="131"/>
+      <c r="OX1" s="131"/>
+      <c r="OY1" s="131"/>
+      <c r="OZ1" s="131"/>
+      <c r="PA1" s="131"/>
+      <c r="PB1" s="131"/>
+      <c r="PC1" s="131"/>
+      <c r="PD1" s="131"/>
+      <c r="PE1" s="131"/>
+      <c r="PF1" s="131"/>
+      <c r="PG1" s="131"/>
+      <c r="PH1" s="131"/>
+      <c r="PI1" s="131"/>
+      <c r="PJ1" s="131"/>
+      <c r="PK1" s="131"/>
+      <c r="PL1" s="131"/>
+      <c r="PM1" s="131"/>
+      <c r="PN1" s="131"/>
+      <c r="PO1" s="131"/>
+      <c r="PP1" s="131"/>
+      <c r="PQ1" s="131"/>
+      <c r="PR1" s="131"/>
+      <c r="PS1" s="131"/>
+      <c r="PT1" s="131"/>
+      <c r="PU1" s="131"/>
+      <c r="PV1" s="131"/>
+      <c r="PW1" s="131"/>
+      <c r="PX1" s="131"/>
+      <c r="PY1" s="131"/>
+      <c r="PZ1" s="131"/>
+      <c r="QA1" s="131"/>
+      <c r="QB1" s="131"/>
+      <c r="QC1" s="131"/>
+      <c r="QD1" s="131"/>
+      <c r="QE1" s="131"/>
+      <c r="QF1" s="131"/>
+      <c r="QG1" s="131"/>
+      <c r="QH1" s="131"/>
+      <c r="QI1" s="131"/>
+      <c r="QJ1" s="131"/>
+      <c r="QK1" s="131"/>
+      <c r="QL1" s="131"/>
+      <c r="QM1" s="131"/>
+      <c r="QN1" s="131"/>
+      <c r="QO1" s="131"/>
+      <c r="QP1" s="131"/>
+      <c r="QQ1" s="131"/>
+      <c r="QR1" s="131"/>
+      <c r="QS1" s="131"/>
+      <c r="QT1" s="131"/>
+      <c r="QU1" s="131"/>
+      <c r="QV1" s="131"/>
+      <c r="QW1" s="131"/>
+      <c r="QX1" s="131"/>
+      <c r="QY1" s="131"/>
+      <c r="QZ1" s="131"/>
+      <c r="RA1" s="131"/>
+      <c r="RB1" s="131"/>
+      <c r="RC1" s="131"/>
+      <c r="RD1" s="131"/>
+      <c r="RE1" s="131"/>
+      <c r="RF1" s="131"/>
+      <c r="RG1" s="131"/>
+      <c r="RH1" s="131"/>
+      <c r="RI1" s="131"/>
+      <c r="RJ1" s="131"/>
+      <c r="RK1" s="131"/>
+      <c r="RL1" s="131"/>
+      <c r="RM1" s="131"/>
+      <c r="RN1" s="131"/>
+      <c r="RO1" s="131"/>
+      <c r="RP1" s="131"/>
+      <c r="RQ1" s="131"/>
+      <c r="RR1" s="131"/>
+      <c r="RS1" s="131"/>
+      <c r="RT1" s="131"/>
+      <c r="RU1" s="131"/>
+      <c r="RV1" s="131"/>
+      <c r="RW1" s="131"/>
+      <c r="RX1" s="131"/>
+      <c r="RY1" s="131"/>
+      <c r="RZ1" s="131"/>
+      <c r="SA1" s="131"/>
+      <c r="SB1" s="131"/>
+      <c r="SC1" s="131"/>
+      <c r="SD1" s="131"/>
+      <c r="SE1" s="131"/>
+      <c r="SF1" s="131"/>
+      <c r="SG1" s="131"/>
+      <c r="SH1" s="131"/>
+      <c r="SI1" s="131"/>
+      <c r="SJ1" s="131"/>
+      <c r="SK1" s="131"/>
+      <c r="SL1" s="131"/>
+      <c r="SM1" s="131"/>
+      <c r="SN1" s="131"/>
+      <c r="SO1" s="131"/>
+      <c r="SP1" s="131"/>
+      <c r="SQ1" s="131"/>
+      <c r="SR1" s="131"/>
+      <c r="SS1" s="131"/>
+      <c r="ST1" s="131"/>
+      <c r="SU1" s="131"/>
+      <c r="SV1" s="131"/>
+      <c r="SW1" s="131"/>
+      <c r="SX1" s="131"/>
+      <c r="SY1" s="131"/>
+      <c r="SZ1" s="131"/>
+      <c r="TA1" s="131"/>
+      <c r="TB1" s="131"/>
+      <c r="TC1" s="131"/>
+      <c r="TD1" s="131"/>
+      <c r="TE1" s="131"/>
+      <c r="TF1" s="131"/>
+      <c r="TG1" s="131"/>
+      <c r="TH1" s="131"/>
+      <c r="TI1" s="131"/>
+      <c r="TJ1" s="131"/>
+      <c r="TK1" s="131"/>
+      <c r="TL1" s="131"/>
+      <c r="TM1" s="131"/>
+      <c r="TN1" s="131"/>
+      <c r="TO1" s="131"/>
+      <c r="TP1" s="131"/>
+      <c r="TQ1" s="131"/>
+      <c r="TR1" s="131"/>
+      <c r="TS1" s="131"/>
+      <c r="TT1" s="131"/>
+      <c r="TU1" s="131"/>
+      <c r="TV1" s="131"/>
+      <c r="TW1" s="131"/>
+      <c r="TX1" s="131"/>
+      <c r="TY1" s="131"/>
+      <c r="TZ1" s="131"/>
+      <c r="UA1" s="131"/>
+      <c r="UB1" s="131"/>
+      <c r="UC1" s="131"/>
+      <c r="UD1" s="131"/>
+      <c r="UE1" s="131"/>
+      <c r="UF1" s="131"/>
+      <c r="UG1" s="131"/>
+      <c r="UH1" s="131"/>
+      <c r="UI1" s="131"/>
+      <c r="UJ1" s="131"/>
+      <c r="UK1" s="131"/>
+      <c r="UL1" s="131"/>
+      <c r="UM1" s="131"/>
+      <c r="UN1" s="131"/>
+      <c r="UO1" s="131"/>
+      <c r="UP1" s="131"/>
+      <c r="UQ1" s="131"/>
+      <c r="UR1" s="131"/>
+      <c r="US1" s="131"/>
+      <c r="UT1" s="131"/>
+      <c r="UU1" s="131"/>
+      <c r="UV1" s="131"/>
+      <c r="UW1" s="131"/>
+      <c r="UX1" s="131"/>
+      <c r="UY1" s="131"/>
+      <c r="UZ1" s="131"/>
+      <c r="VA1" s="131"/>
+      <c r="VB1" s="131"/>
+      <c r="VC1" s="131"/>
+      <c r="VD1" s="131"/>
+      <c r="VE1" s="131"/>
+      <c r="VF1" s="131"/>
+      <c r="VG1" s="131"/>
+      <c r="VH1" s="131"/>
+      <c r="VI1" s="131"/>
+      <c r="VJ1" s="131"/>
+      <c r="VK1" s="131"/>
+      <c r="VL1" s="131"/>
+      <c r="VM1" s="131"/>
+      <c r="VN1" s="131"/>
+      <c r="VO1" s="131"/>
+      <c r="VP1" s="131"/>
+      <c r="VQ1" s="131"/>
+      <c r="VR1" s="131"/>
+      <c r="VS1" s="131"/>
+      <c r="VT1" s="131"/>
+      <c r="VU1" s="131"/>
+      <c r="VV1" s="131"/>
+      <c r="VW1" s="131"/>
+      <c r="VX1" s="131"/>
+      <c r="VY1" s="131"/>
+      <c r="VZ1" s="131"/>
+      <c r="WA1" s="131"/>
+      <c r="WB1" s="131"/>
+      <c r="WC1" s="131"/>
+      <c r="WD1" s="131"/>
+      <c r="WE1" s="131"/>
+      <c r="WF1" s="131"/>
+      <c r="WG1" s="131"/>
+      <c r="WH1" s="131"/>
+      <c r="WI1" s="131"/>
+      <c r="WJ1" s="131"/>
+      <c r="WK1" s="131"/>
+      <c r="WL1" s="131"/>
+      <c r="WM1" s="131"/>
+      <c r="WN1" s="131"/>
+      <c r="WO1" s="131"/>
+      <c r="WP1" s="131"/>
+      <c r="WQ1" s="131"/>
+      <c r="WR1" s="131"/>
+      <c r="WS1" s="131"/>
+      <c r="WT1" s="131"/>
+      <c r="WU1" s="131"/>
+      <c r="WV1" s="131"/>
+      <c r="WW1" s="131"/>
+      <c r="WX1" s="131"/>
+      <c r="WY1" s="131"/>
+      <c r="WZ1" s="131"/>
+      <c r="XA1" s="131"/>
+      <c r="XB1" s="131"/>
+      <c r="XC1" s="131"/>
+      <c r="XD1" s="131"/>
+      <c r="XE1" s="131"/>
+      <c r="XF1" s="131"/>
+      <c r="XG1" s="131"/>
+      <c r="XH1" s="131"/>
+      <c r="XI1" s="131"/>
+      <c r="XJ1" s="131"/>
+      <c r="XK1" s="131"/>
+      <c r="XL1" s="131"/>
+      <c r="XM1" s="131"/>
+      <c r="XN1" s="131"/>
+      <c r="XO1" s="131"/>
+      <c r="XP1" s="131"/>
+      <c r="XQ1" s="131"/>
+      <c r="XR1" s="131"/>
+      <c r="XS1" s="131"/>
+      <c r="XT1" s="131"/>
+      <c r="XU1" s="131"/>
+      <c r="XV1" s="131"/>
+      <c r="XW1" s="131"/>
+      <c r="XX1" s="131"/>
+      <c r="XY1" s="131"/>
+      <c r="XZ1" s="131"/>
+      <c r="YA1" s="131"/>
+      <c r="YB1" s="131"/>
+      <c r="YC1" s="131"/>
+      <c r="YD1" s="131"/>
+      <c r="YE1" s="131"/>
+      <c r="YF1" s="131"/>
+      <c r="YG1" s="131"/>
+      <c r="YH1" s="131"/>
+      <c r="YI1" s="131"/>
+      <c r="YJ1" s="131"/>
+      <c r="YK1" s="131"/>
+      <c r="YL1" s="131"/>
+      <c r="YM1" s="131"/>
+      <c r="YN1" s="131"/>
+      <c r="YO1" s="131"/>
+      <c r="YP1" s="131"/>
+      <c r="YQ1" s="131"/>
+      <c r="YR1" s="131"/>
+      <c r="YS1" s="131"/>
+      <c r="YT1" s="131"/>
+      <c r="YU1" s="131"/>
+      <c r="YV1" s="131"/>
+      <c r="YW1" s="131"/>
+      <c r="YX1" s="131"/>
+      <c r="YY1" s="131"/>
+      <c r="YZ1" s="131"/>
+      <c r="ZA1" s="131"/>
+      <c r="ZB1" s="131"/>
+      <c r="ZC1" s="131"/>
+      <c r="ZD1" s="131"/>
+      <c r="ZE1" s="131"/>
+      <c r="ZF1" s="131"/>
+      <c r="ZG1" s="131"/>
+      <c r="ZH1" s="131"/>
+      <c r="ZI1" s="131"/>
+      <c r="ZJ1" s="131"/>
+      <c r="ZK1" s="131"/>
+      <c r="ZL1" s="131"/>
+      <c r="ZM1" s="131"/>
+      <c r="ZN1" s="131"/>
+      <c r="ZO1" s="131"/>
+      <c r="ZP1" s="131"/>
+      <c r="ZQ1" s="131"/>
+      <c r="ZR1" s="131"/>
+      <c r="ZS1" s="131"/>
+      <c r="ZT1" s="131"/>
+      <c r="ZU1" s="131"/>
+      <c r="ZV1" s="131"/>
+      <c r="ZW1" s="131"/>
+      <c r="ZX1" s="131"/>
+      <c r="ZY1" s="131"/>
+      <c r="ZZ1" s="131"/>
+      <c r="AAA1" s="131"/>
+      <c r="AAB1" s="131"/>
+      <c r="AAC1" s="131"/>
+      <c r="AAD1" s="131"/>
+      <c r="AAE1" s="131"/>
+      <c r="AAF1" s="131"/>
+      <c r="AAG1" s="131"/>
+      <c r="AAH1" s="131"/>
+      <c r="AAI1" s="131"/>
+      <c r="AAJ1" s="131"/>
+      <c r="AAK1" s="131"/>
+      <c r="AAL1" s="131"/>
+      <c r="AAM1" s="131"/>
+      <c r="AAN1" s="131"/>
+      <c r="AAO1" s="131"/>
+      <c r="AAP1" s="131"/>
+      <c r="AAQ1" s="131"/>
+      <c r="AAR1" s="131"/>
+      <c r="AAS1" s="131"/>
+      <c r="AAT1" s="131"/>
+      <c r="AAU1" s="131"/>
+      <c r="AAV1" s="131"/>
+      <c r="AAW1" s="131"/>
+      <c r="AAX1" s="131"/>
+      <c r="AAY1" s="131"/>
+      <c r="AAZ1" s="131"/>
+      <c r="ABA1" s="131"/>
+      <c r="ABB1" s="131"/>
+      <c r="ABC1" s="131"/>
+      <c r="ABD1" s="131"/>
+      <c r="ABE1" s="131"/>
+      <c r="ABF1" s="131"/>
+      <c r="ABG1" s="131"/>
+      <c r="ABH1" s="131"/>
+      <c r="ABI1" s="131"/>
+      <c r="ABJ1" s="131"/>
+      <c r="ABK1" s="131"/>
+      <c r="ABL1" s="131"/>
+      <c r="ABM1" s="131"/>
+      <c r="ABN1" s="131"/>
+      <c r="ABO1" s="131"/>
+      <c r="ABP1" s="131"/>
+      <c r="ABQ1" s="131"/>
+      <c r="ABR1" s="131"/>
+      <c r="ABS1" s="131"/>
+      <c r="ABT1" s="131"/>
+      <c r="ABU1" s="131"/>
+      <c r="ABV1" s="131"/>
+      <c r="ABW1" s="131"/>
+      <c r="ABX1" s="131"/>
+      <c r="ABY1" s="131"/>
+      <c r="ABZ1" s="131"/>
+      <c r="ACA1" s="131"/>
+      <c r="ACB1" s="131"/>
+      <c r="ACC1" s="131"/>
+      <c r="ACD1" s="131"/>
+      <c r="ACE1" s="131"/>
+      <c r="ACF1" s="131"/>
+      <c r="ACG1" s="131"/>
+      <c r="ACH1" s="131"/>
+      <c r="ACI1" s="131"/>
+      <c r="ACJ1" s="131"/>
+      <c r="ACK1" s="131"/>
+      <c r="ACL1" s="131"/>
+      <c r="ACM1" s="131"/>
+      <c r="ACN1" s="131"/>
+      <c r="ACO1" s="131"/>
+      <c r="ACP1" s="131"/>
+      <c r="ACQ1" s="131"/>
+      <c r="ACR1" s="131"/>
+      <c r="ACS1" s="131"/>
+      <c r="ACT1" s="131"/>
+      <c r="ACU1" s="131"/>
+      <c r="ACV1" s="131"/>
+      <c r="ACW1" s="131"/>
+      <c r="ACX1" s="131"/>
+      <c r="ACY1" s="131"/>
+      <c r="ACZ1" s="131"/>
+      <c r="ADA1" s="131"/>
+      <c r="ADB1" s="131"/>
+      <c r="ADC1" s="131"/>
+      <c r="ADD1" s="131"/>
+      <c r="ADE1" s="131"/>
+      <c r="ADF1" s="131"/>
+      <c r="ADG1" s="131"/>
+      <c r="ADH1" s="131"/>
+      <c r="ADI1" s="131"/>
+      <c r="ADJ1" s="131"/>
+      <c r="ADK1" s="131"/>
+      <c r="ADL1" s="131"/>
+      <c r="ADM1" s="131"/>
+      <c r="ADN1" s="131"/>
+      <c r="ADO1" s="131"/>
+      <c r="ADP1" s="131"/>
+      <c r="ADQ1" s="131"/>
+      <c r="ADR1" s="131"/>
+      <c r="ADS1" s="131"/>
+      <c r="ADT1" s="131"/>
+      <c r="ADU1" s="131"/>
+      <c r="ADV1" s="131"/>
+      <c r="ADW1" s="131"/>
+      <c r="ADX1" s="131"/>
+      <c r="ADY1" s="131"/>
+      <c r="ADZ1" s="131"/>
+      <c r="AEA1" s="131"/>
+      <c r="AEB1" s="131"/>
+      <c r="AEC1" s="131"/>
+      <c r="AED1" s="131"/>
+      <c r="AEE1" s="131"/>
+      <c r="AEF1" s="131"/>
+      <c r="AEG1" s="131"/>
+      <c r="AEH1" s="131"/>
+      <c r="AEI1" s="131"/>
+      <c r="AEJ1" s="131"/>
+      <c r="AEK1" s="131"/>
+      <c r="AEL1" s="131"/>
+      <c r="AEM1" s="131"/>
+      <c r="AEN1" s="131"/>
+      <c r="AEO1" s="131"/>
+      <c r="AEP1" s="131"/>
+      <c r="AEQ1" s="131"/>
+      <c r="AER1" s="131"/>
+      <c r="AES1" s="131"/>
+      <c r="AET1" s="131"/>
+      <c r="AEU1" s="131"/>
+      <c r="AEV1" s="131"/>
+      <c r="AEW1" s="131"/>
+      <c r="AEX1" s="131"/>
+      <c r="AEY1" s="131"/>
+      <c r="AEZ1" s="131"/>
+      <c r="AFA1" s="131"/>
+      <c r="AFB1" s="131"/>
+      <c r="AFC1" s="131"/>
+      <c r="AFD1" s="131"/>
+      <c r="AFE1" s="131"/>
+      <c r="AFF1" s="131"/>
+      <c r="AFG1" s="131"/>
+      <c r="AFH1" s="131"/>
+      <c r="AFI1" s="131"/>
+      <c r="AFJ1" s="131"/>
+      <c r="AFK1" s="131"/>
+      <c r="AFL1" s="131"/>
+      <c r="AFM1" s="131"/>
+      <c r="AFN1" s="131"/>
+      <c r="AFO1" s="131"/>
+      <c r="AFP1" s="131"/>
+      <c r="AFQ1" s="131"/>
+      <c r="AFR1" s="131"/>
+      <c r="AFS1" s="131"/>
+      <c r="AFT1" s="131"/>
+      <c r="AFU1" s="131"/>
+      <c r="AFV1" s="131"/>
+      <c r="AFW1" s="131"/>
+      <c r="AFX1" s="131"/>
+      <c r="AFY1" s="131"/>
+      <c r="AFZ1" s="131"/>
+      <c r="AGA1" s="131"/>
+      <c r="AGB1" s="131"/>
+      <c r="AGC1" s="131"/>
+      <c r="AGD1" s="131"/>
+      <c r="AGE1" s="131"/>
+      <c r="AGF1" s="131"/>
+      <c r="AGG1" s="131"/>
+      <c r="AGH1" s="131"/>
+      <c r="AGI1" s="131"/>
+      <c r="AGJ1" s="131"/>
+      <c r="AGK1" s="131"/>
+      <c r="AGL1" s="131"/>
+      <c r="AGM1" s="131"/>
+      <c r="AGN1" s="131"/>
+      <c r="AGO1" s="131"/>
+      <c r="AGP1" s="131"/>
+      <c r="AGQ1" s="131"/>
+      <c r="AGR1" s="131"/>
+      <c r="AGS1" s="131"/>
+      <c r="AGT1" s="131"/>
+      <c r="AGU1" s="131"/>
+      <c r="AGV1" s="131"/>
+      <c r="AGW1" s="131"/>
+      <c r="AGX1" s="131"/>
+      <c r="AGY1" s="131"/>
+      <c r="AGZ1" s="131"/>
+      <c r="AHA1" s="131"/>
+      <c r="AHB1" s="131"/>
+      <c r="AHC1" s="131"/>
+      <c r="AHD1" s="131"/>
+      <c r="AHE1" s="131"/>
+      <c r="AHF1" s="131"/>
+      <c r="AHG1" s="131"/>
+      <c r="AHH1" s="131"/>
+      <c r="AHI1" s="131"/>
+      <c r="AHJ1" s="131"/>
+      <c r="AHK1" s="131"/>
+      <c r="AHL1" s="131"/>
+      <c r="AHM1" s="131"/>
+      <c r="AHN1" s="131"/>
+      <c r="AHO1" s="131"/>
+      <c r="AHP1" s="131"/>
+      <c r="AHQ1" s="131"/>
+      <c r="AHR1" s="131"/>
+      <c r="AHS1" s="131"/>
+      <c r="AHT1" s="131"/>
+      <c r="AHU1" s="131"/>
+      <c r="AHV1" s="131"/>
+      <c r="AHW1" s="131"/>
+      <c r="AHX1" s="131"/>
+      <c r="AHY1" s="131"/>
+      <c r="AHZ1" s="131"/>
+      <c r="AIA1" s="131"/>
+      <c r="AIB1" s="131"/>
+      <c r="AIC1" s="131"/>
+      <c r="AID1" s="131"/>
+      <c r="AIE1" s="131"/>
+      <c r="AIF1" s="131"/>
+      <c r="AIG1" s="131"/>
+      <c r="AIH1" s="131"/>
+      <c r="AII1" s="131"/>
+      <c r="AIJ1" s="131"/>
+      <c r="AIK1" s="131"/>
+      <c r="AIL1" s="131"/>
+      <c r="AIM1" s="131"/>
+      <c r="AIN1" s="131"/>
+      <c r="AIO1" s="131"/>
+      <c r="AIP1" s="131"/>
+      <c r="AIQ1" s="131"/>
+      <c r="AIR1" s="131"/>
+      <c r="AIS1" s="131"/>
+      <c r="AIT1" s="131"/>
+      <c r="AIU1" s="131"/>
+      <c r="AIV1" s="131"/>
+      <c r="AIW1" s="131"/>
+      <c r="AIX1" s="131"/>
+      <c r="AIY1" s="131"/>
+      <c r="AIZ1" s="131"/>
+      <c r="AJA1" s="131"/>
+      <c r="AJB1" s="131"/>
+      <c r="AJC1" s="131"/>
+      <c r="AJD1" s="131"/>
+      <c r="AJE1" s="131"/>
+      <c r="AJF1" s="131"/>
+      <c r="AJG1" s="131"/>
+      <c r="AJH1" s="131"/>
+      <c r="AJI1" s="131"/>
+      <c r="AJJ1" s="131"/>
+      <c r="AJK1" s="131"/>
+      <c r="AJL1" s="131"/>
+      <c r="AJM1" s="131"/>
+      <c r="AJN1" s="131"/>
+      <c r="AJO1" s="131"/>
+      <c r="AJP1" s="131"/>
+      <c r="AJQ1" s="131"/>
+      <c r="AJR1" s="131"/>
+      <c r="AJS1" s="131"/>
+      <c r="AJT1" s="131"/>
+      <c r="AJU1" s="131"/>
+      <c r="AJV1" s="131"/>
+      <c r="AJW1" s="131"/>
+      <c r="AJX1" s="131"/>
+      <c r="AJY1" s="131"/>
+      <c r="AJZ1" s="131"/>
+      <c r="AKA1" s="131"/>
+      <c r="AKB1" s="131"/>
+      <c r="AKC1" s="131"/>
+      <c r="AKD1" s="131"/>
+      <c r="AKE1" s="131"/>
+      <c r="AKF1" s="131"/>
+      <c r="AKG1" s="131"/>
+      <c r="AKH1" s="131"/>
+      <c r="AKI1" s="131"/>
+      <c r="AKJ1" s="131"/>
+      <c r="AKK1" s="131"/>
+      <c r="AKL1" s="131"/>
+      <c r="AKM1" s="131"/>
+      <c r="AKN1" s="131"/>
+      <c r="AKO1" s="131"/>
+      <c r="AKP1" s="131"/>
+      <c r="AKQ1" s="131"/>
+      <c r="AKR1" s="131"/>
+      <c r="AKS1" s="131"/>
+      <c r="AKT1" s="131"/>
+      <c r="AKU1" s="131"/>
+      <c r="AKV1" s="131"/>
+      <c r="AKW1" s="131"/>
+      <c r="AKX1" s="131"/>
+      <c r="AKY1" s="131"/>
+      <c r="AKZ1" s="131"/>
+      <c r="ALA1" s="131"/>
+      <c r="ALB1" s="131"/>
+      <c r="ALC1" s="131"/>
+      <c r="ALD1" s="131"/>
+      <c r="ALE1" s="131"/>
+      <c r="ALF1" s="131"/>
+      <c r="ALG1" s="131"/>
+      <c r="ALH1" s="131"/>
+      <c r="ALI1" s="131"/>
+      <c r="ALJ1" s="131"/>
+      <c r="ALK1" s="131"/>
+      <c r="ALL1" s="131"/>
+      <c r="ALM1" s="131"/>
+      <c r="ALN1" s="131"/>
+      <c r="ALO1" s="131"/>
+      <c r="ALP1" s="131"/>
+      <c r="ALQ1" s="131"/>
+      <c r="ALR1" s="131"/>
+      <c r="ALS1" s="131"/>
+      <c r="ALT1" s="131"/>
+      <c r="ALU1" s="131"/>
+      <c r="ALV1" s="131"/>
+      <c r="ALW1" s="131"/>
+      <c r="ALX1" s="131"/>
+      <c r="ALY1" s="131"/>
+      <c r="ALZ1" s="131"/>
+      <c r="AMA1" s="131"/>
+      <c r="AMB1" s="131"/>
+      <c r="AMC1" s="131"/>
+      <c r="AMD1" s="131"/>
+      <c r="AME1" s="131"/>
+      <c r="AMF1" s="131"/>
+      <c r="AMG1" s="131"/>
+      <c r="AMH1" s="131"/>
+      <c r="AMI1" s="131"/>
+      <c r="AMJ1" s="131"/>
+      <c r="AMK1" s="131"/>
     </row>
     <row r="2" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="55" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="130" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="55" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3989,14 +4174,14 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="44" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="43" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="20" customWidth="1"/>
-    <col min="4" max="6" width="20.7109375" style="44" customWidth="1"/>
+    <col min="4" max="6" width="20.7109375" style="43" customWidth="1"/>
     <col min="7" max="8" width="15.7109375" style="20" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="25" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" style="20" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" style="16" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="44" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="18" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4038,216 +4223,216 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="79" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="86">
+      <c r="G2" s="79">
         <v>326</v>
       </c>
-      <c r="H2" s="86">
+      <c r="H2" s="79">
         <v>5957</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="J2" s="86">
+      <c r="J2" s="79">
         <v>2009</v>
       </c>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="79" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="78">
         <v>231</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="78">
         <v>1</v>
       </c>
-      <c r="I3" s="85" t="s">
+      <c r="I3" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="J3" s="85">
+      <c r="J3" s="78">
         <v>1990</v>
       </c>
-      <c r="K3" s="85" t="s">
+      <c r="K3" s="78" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="113" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="126" t="s">
+      <c r="D4" s="113" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126">
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113">
         <v>2013</v>
       </c>
-      <c r="K4" s="126"/>
+      <c r="K4" s="113"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="123" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="123" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="136" t="s">
+      <c r="E5" s="123" t="s">
         <v>170</v>
       </c>
-      <c r="F5" s="136" t="s">
+      <c r="F5" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="136">
+      <c r="G5" s="123">
         <v>5</v>
       </c>
-      <c r="H5" s="136">
+      <c r="H5" s="123">
         <v>12</v>
       </c>
-      <c r="I5" s="136" t="s">
+      <c r="I5" s="123" t="s">
         <v>171</v>
       </c>
-      <c r="J5" s="136">
+      <c r="J5" s="123">
         <v>2006</v>
       </c>
-      <c r="K5" s="136" t="s">
+      <c r="K5" s="123" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="124" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="124" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="124" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="137" t="s">
+      <c r="D6" s="124" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="137" t="s">
+      <c r="E6" s="124" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="137" t="s">
+      <c r="F6" s="124" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="137">
+      <c r="G6" s="124">
         <v>7</v>
       </c>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137">
+      <c r="H6" s="124"/>
+      <c r="I6" s="124">
         <v>511</v>
       </c>
-      <c r="J6" s="137">
+      <c r="J6" s="124">
         <v>2011</v>
       </c>
-      <c r="K6" s="137" t="s">
+      <c r="K6" s="124" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="138" t="s">
+      <c r="A7" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="125" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="138" t="s">
+      <c r="C7" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="138" t="s">
+      <c r="D7" s="125" t="s">
         <v>178</v>
       </c>
-      <c r="E7" s="138" t="s">
+      <c r="E7" s="125" t="s">
         <v>179</v>
       </c>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138">
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125">
         <v>2014</v>
       </c>
-      <c r="K7" s="138"/>
+      <c r="K7" s="125"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="126" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="126" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="139" t="s">
+      <c r="D8" s="126" t="s">
         <v>181</v>
       </c>
-      <c r="E8" s="139" t="s">
+      <c r="E8" s="126" t="s">
         <v>182</v>
       </c>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="139">
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126">
         <v>2014</v>
       </c>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
     </row>
   </sheetData>
   <sortState ref="A2:L8">
@@ -4269,11 +4454,11 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="10" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" style="62" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" style="55" customWidth="1"/>
     <col min="4" max="5" width="20.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="62" customWidth="1"/>
-    <col min="7" max="1021" width="9.140625" style="62" customWidth="1"/>
-    <col min="1022" max="1024" width="9.140625" style="49" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="55" customWidth="1"/>
+    <col min="7" max="1021" width="9.140625" style="55" customWidth="1"/>
+    <col min="1022" max="1024" width="9.140625" style="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1023" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -4286,7 +4471,7 @@
       <c r="C1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="140" t="s">
+      <c r="D1" s="127" t="s">
         <v>188</v>
       </c>
       <c r="E1" s="17" t="s">
@@ -4302,7 +4487,7 @@
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="55" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4310,7 +4495,7 @@
       <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="55" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4318,7 +4503,7 @@
       <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="55" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4336,7 +4521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I776"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -4344,10 +4529,10 @@
   <cols>
     <col min="1" max="1" width="20.7109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="3" customWidth="1"/>
-    <col min="3" max="9" width="20.7109375" style="62" customWidth="1"/>
-    <col min="10" max="1022" width="9.140625" style="62" customWidth="1"/>
-    <col min="1023" max="1033" width="9" style="62" customWidth="1"/>
-    <col min="1034" max="16384" width="9" style="62"/>
+    <col min="3" max="9" width="20.7109375" style="55" customWidth="1"/>
+    <col min="10" max="1022" width="9.140625" style="55" customWidth="1"/>
+    <col min="1023" max="1033" width="9" style="55" customWidth="1"/>
+    <col min="1034" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -6753,248 +6938,248 @@
     <col min="24" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:12" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="63" t="s">
         <v>188</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="71" t="s">
+      <c r="L1" s="64" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="74">
+      <c r="E2" s="67">
         <v>278</v>
       </c>
-      <c r="F2" s="74">
+      <c r="F2" s="67">
         <v>287</v>
       </c>
-      <c r="G2" s="75">
+      <c r="G2" s="68">
         <v>130.58634910941501</v>
       </c>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="65"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
+      <c r="G3" s="58"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="65"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
+      <c r="G4" s="58"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="65"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
+      <c r="G5" s="58"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="65"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
+      <c r="G6" s="58"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="65"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
+      <c r="G7" s="58"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="65"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
+      <c r="G8" s="58"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="65"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
+      <c r="G9" s="58"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="65"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
+      <c r="G10" s="58"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="65"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
+      <c r="G11" s="58"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="65"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
+      <c r="G12" s="58"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="65"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
+      <c r="G13" s="58"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="65"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
+      <c r="G14" s="58"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="65"/>
+      <c r="G15" s="58"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="65"/>
+      <c r="G16" s="58"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="65"/>
+      <c r="G17" s="58"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="65"/>
+      <c r="G18" s="58"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="65"/>
+      <c r="G19" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7015,12 +7200,12 @@
     <col min="1" max="2" width="20.7109375" style="3" customWidth="1"/>
     <col min="3" max="9" width="15.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" style="2" customWidth="1"/>
-    <col min="11" max="12" width="20.7109375" style="62" customWidth="1"/>
+    <col min="11" max="12" width="20.7109375" style="55" customWidth="1"/>
     <col min="13" max="13" width="20.7109375" style="3" customWidth="1"/>
     <col min="14" max="15" width="9.140625" style="3" customWidth="1"/>
     <col min="16" max="1019" width="9.140625" style="7" customWidth="1"/>
-    <col min="1020" max="1023" width="9" style="62" customWidth="1"/>
-    <col min="1024" max="16384" width="9" style="62"/>
+    <col min="1020" max="1023" width="9" style="55" customWidth="1"/>
+    <col min="1024" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7065,41 +7250,41 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="72" t="s">
         <v>196</v>
       </c>
-      <c r="F2" s="79">
+      <c r="F2" s="72">
         <v>-35</v>
       </c>
-      <c r="G2" s="79">
+      <c r="G2" s="72">
         <v>-40</v>
       </c>
-      <c r="H2" s="79">
+      <c r="H2" s="72">
         <v>652</v>
       </c>
-      <c r="I2" s="79">
+      <c r="I2" s="72">
         <v>1900</v>
       </c>
-      <c r="J2" s="80" t="s">
+      <c r="J2" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="78"/>
-      <c r="L2" s="80" t="s">
+      <c r="K2" s="71"/>
+      <c r="L2" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="78"/>
+      <c r="M2" s="71"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1"/>
@@ -7129,16 +7314,16 @@
     <col min="2" max="3" width="20.7109375" style="4" customWidth="1"/>
     <col min="4" max="5" width="10.7109375" style="6" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="134" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" style="134" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" style="134" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="64" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="62" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="121" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="121" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" style="121" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="57" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="55" customWidth="1"/>
     <col min="14" max="14" width="20.7109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="9" style="64" customWidth="1"/>
-    <col min="16" max="1026" width="33" style="62" customWidth="1"/>
-    <col min="1027" max="1033" width="9" style="64" customWidth="1"/>
-    <col min="1034" max="16384" width="9" style="64"/>
+    <col min="15" max="15" width="9" style="57" customWidth="1"/>
+    <col min="16" max="1026" width="33" style="55" customWidth="1"/>
+    <col min="1027" max="1033" width="9" style="57" customWidth="1"/>
+    <col min="1034" max="16384" width="9" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1026" s="18" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7192,1050 +7377,1050 @@
       <c r="AML1" s="29"/>
     </row>
     <row r="2" spans="1:1026" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="134" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="134"/>
-      <c r="F2" s="83" t="s">
+      <c r="E2" s="121"/>
+      <c r="F2" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="134" t="s">
+      <c r="G2" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="134">
+      <c r="H2" s="121">
         <v>692</v>
       </c>
-      <c r="I2" s="134">
+      <c r="I2" s="121">
         <v>1834</v>
       </c>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="83" t="s">
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="83" t="s">
+      <c r="M2" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="82"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="81"/>
-      <c r="AG2" s="81"/>
-      <c r="AH2" s="81"/>
-      <c r="AI2" s="81"/>
-      <c r="AJ2" s="81"/>
-      <c r="AK2" s="81"/>
-      <c r="AL2" s="81"/>
-      <c r="AM2" s="81"/>
-      <c r="AN2" s="81"/>
-      <c r="AO2" s="81"/>
-      <c r="AP2" s="81"/>
-      <c r="AQ2" s="81"/>
-      <c r="AR2" s="81"/>
-      <c r="AS2" s="81"/>
-      <c r="AT2" s="81"/>
-      <c r="AU2" s="81"/>
-      <c r="AV2" s="81"/>
-      <c r="AW2" s="81"/>
-      <c r="AX2" s="81"/>
-      <c r="AY2" s="81"/>
-      <c r="AZ2" s="81"/>
-      <c r="BA2" s="81"/>
-      <c r="BB2" s="81"/>
-      <c r="BC2" s="81"/>
-      <c r="BD2" s="81"/>
-      <c r="BE2" s="81"/>
-      <c r="BF2" s="81"/>
-      <c r="BG2" s="81"/>
-      <c r="BH2" s="81"/>
-      <c r="BI2" s="81"/>
-      <c r="BJ2" s="81"/>
-      <c r="BK2" s="81"/>
-      <c r="BL2" s="81"/>
-      <c r="BM2" s="81"/>
-      <c r="BN2" s="81"/>
-      <c r="BO2" s="81"/>
-      <c r="BP2" s="81"/>
-      <c r="BQ2" s="81"/>
-      <c r="BR2" s="81"/>
-      <c r="BS2" s="81"/>
-      <c r="BT2" s="81"/>
-      <c r="BU2" s="81"/>
-      <c r="BV2" s="81"/>
-      <c r="BW2" s="81"/>
-      <c r="BX2" s="81"/>
-      <c r="BY2" s="81"/>
-      <c r="BZ2" s="81"/>
-      <c r="CA2" s="81"/>
-      <c r="CB2" s="81"/>
-      <c r="CC2" s="81"/>
-      <c r="CD2" s="81"/>
-      <c r="CE2" s="81"/>
-      <c r="CF2" s="81"/>
-      <c r="CG2" s="81"/>
-      <c r="CH2" s="81"/>
-      <c r="CI2" s="81"/>
-      <c r="CJ2" s="81"/>
-      <c r="CK2" s="81"/>
-      <c r="CL2" s="81"/>
-      <c r="CM2" s="81"/>
-      <c r="CN2" s="81"/>
-      <c r="CO2" s="81"/>
-      <c r="CP2" s="81"/>
-      <c r="CQ2" s="81"/>
-      <c r="CR2" s="81"/>
-      <c r="CS2" s="81"/>
-      <c r="CT2" s="81"/>
-      <c r="CU2" s="81"/>
-      <c r="CV2" s="81"/>
-      <c r="CW2" s="81"/>
-      <c r="CX2" s="81"/>
-      <c r="CY2" s="81"/>
-      <c r="CZ2" s="81"/>
-      <c r="DA2" s="81"/>
-      <c r="DB2" s="81"/>
-      <c r="DC2" s="81"/>
-      <c r="DD2" s="81"/>
-      <c r="DE2" s="81"/>
-      <c r="DF2" s="81"/>
-      <c r="DG2" s="81"/>
-      <c r="DH2" s="81"/>
-      <c r="DI2" s="81"/>
-      <c r="DJ2" s="81"/>
-      <c r="DK2" s="81"/>
-      <c r="DL2" s="81"/>
-      <c r="DM2" s="81"/>
-      <c r="DN2" s="81"/>
-      <c r="DO2" s="81"/>
-      <c r="DP2" s="81"/>
-      <c r="DQ2" s="81"/>
-      <c r="DR2" s="81"/>
-      <c r="DS2" s="81"/>
-      <c r="DT2" s="81"/>
-      <c r="DU2" s="81"/>
-      <c r="DV2" s="81"/>
-      <c r="DW2" s="81"/>
-      <c r="DX2" s="81"/>
-      <c r="DY2" s="81"/>
-      <c r="DZ2" s="81"/>
-      <c r="EA2" s="81"/>
-      <c r="EB2" s="81"/>
-      <c r="EC2" s="81"/>
-      <c r="ED2" s="81"/>
-      <c r="EE2" s="81"/>
-      <c r="EF2" s="81"/>
-      <c r="EG2" s="81"/>
-      <c r="EH2" s="81"/>
-      <c r="EI2" s="81"/>
-      <c r="EJ2" s="81"/>
-      <c r="EK2" s="81"/>
-      <c r="EL2" s="81"/>
-      <c r="EM2" s="81"/>
-      <c r="EN2" s="81"/>
-      <c r="EO2" s="81"/>
-      <c r="EP2" s="81"/>
-      <c r="EQ2" s="81"/>
-      <c r="ER2" s="81"/>
-      <c r="ES2" s="81"/>
-      <c r="ET2" s="81"/>
-      <c r="EU2" s="81"/>
-      <c r="EV2" s="81"/>
-      <c r="EW2" s="81"/>
-      <c r="EX2" s="81"/>
-      <c r="EY2" s="81"/>
-      <c r="EZ2" s="81"/>
-      <c r="FA2" s="81"/>
-      <c r="FB2" s="81"/>
-      <c r="FC2" s="81"/>
-      <c r="FD2" s="81"/>
-      <c r="FE2" s="81"/>
-      <c r="FF2" s="81"/>
-      <c r="FG2" s="81"/>
-      <c r="FH2" s="81"/>
-      <c r="FI2" s="81"/>
-      <c r="FJ2" s="81"/>
-      <c r="FK2" s="81"/>
-      <c r="FL2" s="81"/>
-      <c r="FM2" s="81"/>
-      <c r="FN2" s="81"/>
-      <c r="FO2" s="81"/>
-      <c r="FP2" s="81"/>
-      <c r="FQ2" s="81"/>
-      <c r="FR2" s="81"/>
-      <c r="FS2" s="81"/>
-      <c r="FT2" s="81"/>
-      <c r="FU2" s="81"/>
-      <c r="FV2" s="81"/>
-      <c r="FW2" s="81"/>
-      <c r="FX2" s="81"/>
-      <c r="FY2" s="81"/>
-      <c r="FZ2" s="81"/>
-      <c r="GA2" s="81"/>
-      <c r="GB2" s="81"/>
-      <c r="GC2" s="81"/>
-      <c r="GD2" s="81"/>
-      <c r="GE2" s="81"/>
-      <c r="GF2" s="81"/>
-      <c r="GG2" s="81"/>
-      <c r="GH2" s="81"/>
-      <c r="GI2" s="81"/>
-      <c r="GJ2" s="81"/>
-      <c r="GK2" s="81"/>
-      <c r="GL2" s="81"/>
-      <c r="GM2" s="81"/>
-      <c r="GN2" s="81"/>
-      <c r="GO2" s="81"/>
-      <c r="GP2" s="81"/>
-      <c r="GQ2" s="81"/>
-      <c r="GR2" s="81"/>
-      <c r="GS2" s="81"/>
-      <c r="GT2" s="81"/>
-      <c r="GU2" s="81"/>
-      <c r="GV2" s="81"/>
-      <c r="GW2" s="81"/>
-      <c r="GX2" s="81"/>
-      <c r="GY2" s="81"/>
-      <c r="GZ2" s="81"/>
-      <c r="HA2" s="81"/>
-      <c r="HB2" s="81"/>
-      <c r="HC2" s="81"/>
-      <c r="HD2" s="81"/>
-      <c r="HE2" s="81"/>
-      <c r="HF2" s="81"/>
-      <c r="HG2" s="81"/>
-      <c r="HH2" s="81"/>
-      <c r="HI2" s="81"/>
-      <c r="HJ2" s="81"/>
-      <c r="HK2" s="81"/>
-      <c r="HL2" s="81"/>
-      <c r="HM2" s="81"/>
-      <c r="HN2" s="81"/>
-      <c r="HO2" s="81"/>
-      <c r="HP2" s="81"/>
-      <c r="HQ2" s="81"/>
-      <c r="HR2" s="81"/>
-      <c r="HS2" s="81"/>
-      <c r="HT2" s="81"/>
-      <c r="HU2" s="81"/>
-      <c r="HV2" s="81"/>
-      <c r="HW2" s="81"/>
-      <c r="HX2" s="81"/>
-      <c r="HY2" s="81"/>
-      <c r="HZ2" s="81"/>
-      <c r="IA2" s="81"/>
-      <c r="IB2" s="81"/>
-      <c r="IC2" s="81"/>
-      <c r="ID2" s="81"/>
-      <c r="IE2" s="81"/>
-      <c r="IF2" s="81"/>
-      <c r="IG2" s="81"/>
-      <c r="IH2" s="81"/>
-      <c r="II2" s="81"/>
-      <c r="IJ2" s="81"/>
-      <c r="IK2" s="81"/>
-      <c r="IL2" s="81"/>
-      <c r="IM2" s="81"/>
-      <c r="IN2" s="81"/>
-      <c r="IO2" s="81"/>
-      <c r="IP2" s="81"/>
-      <c r="IQ2" s="81"/>
-      <c r="IR2" s="81"/>
-      <c r="IS2" s="81"/>
-      <c r="IT2" s="81"/>
-      <c r="IU2" s="81"/>
-      <c r="IV2" s="81"/>
-      <c r="IW2" s="81"/>
-      <c r="IX2" s="81"/>
-      <c r="IY2" s="81"/>
-      <c r="IZ2" s="81"/>
-      <c r="JA2" s="81"/>
-      <c r="JB2" s="81"/>
-      <c r="JC2" s="81"/>
-      <c r="JD2" s="81"/>
-      <c r="JE2" s="81"/>
-      <c r="JF2" s="81"/>
-      <c r="JG2" s="81"/>
-      <c r="JH2" s="81"/>
-      <c r="JI2" s="81"/>
-      <c r="JJ2" s="81"/>
-      <c r="JK2" s="81"/>
-      <c r="JL2" s="81"/>
-      <c r="JM2" s="81"/>
-      <c r="JN2" s="81"/>
-      <c r="JO2" s="81"/>
-      <c r="JP2" s="81"/>
-      <c r="JQ2" s="81"/>
-      <c r="JR2" s="81"/>
-      <c r="JS2" s="81"/>
-      <c r="JT2" s="81"/>
-      <c r="JU2" s="81"/>
-      <c r="JV2" s="81"/>
-      <c r="JW2" s="81"/>
-      <c r="JX2" s="81"/>
-      <c r="JY2" s="81"/>
-      <c r="JZ2" s="81"/>
-      <c r="KA2" s="81"/>
-      <c r="KB2" s="81"/>
-      <c r="KC2" s="81"/>
-      <c r="KD2" s="81"/>
-      <c r="KE2" s="81"/>
-      <c r="KF2" s="81"/>
-      <c r="KG2" s="81"/>
-      <c r="KH2" s="81"/>
-      <c r="KI2" s="81"/>
-      <c r="KJ2" s="81"/>
-      <c r="KK2" s="81"/>
-      <c r="KL2" s="81"/>
-      <c r="KM2" s="81"/>
-      <c r="KN2" s="81"/>
-      <c r="KO2" s="81"/>
-      <c r="KP2" s="81"/>
-      <c r="KQ2" s="81"/>
-      <c r="KR2" s="81"/>
-      <c r="KS2" s="81"/>
-      <c r="KT2" s="81"/>
-      <c r="KU2" s="81"/>
-      <c r="KV2" s="81"/>
-      <c r="KW2" s="81"/>
-      <c r="KX2" s="81"/>
-      <c r="KY2" s="81"/>
-      <c r="KZ2" s="81"/>
-      <c r="LA2" s="81"/>
-      <c r="LB2" s="81"/>
-      <c r="LC2" s="81"/>
-      <c r="LD2" s="81"/>
-      <c r="LE2" s="81"/>
-      <c r="LF2" s="81"/>
-      <c r="LG2" s="81"/>
-      <c r="LH2" s="81"/>
-      <c r="LI2" s="81"/>
-      <c r="LJ2" s="81"/>
-      <c r="LK2" s="81"/>
-      <c r="LL2" s="81"/>
-      <c r="LM2" s="81"/>
-      <c r="LN2" s="81"/>
-      <c r="LO2" s="81"/>
-      <c r="LP2" s="81"/>
-      <c r="LQ2" s="81"/>
-      <c r="LR2" s="81"/>
-      <c r="LS2" s="81"/>
-      <c r="LT2" s="81"/>
-      <c r="LU2" s="81"/>
-      <c r="LV2" s="81"/>
-      <c r="LW2" s="81"/>
-      <c r="LX2" s="81"/>
-      <c r="LY2" s="81"/>
-      <c r="LZ2" s="81"/>
-      <c r="MA2" s="81"/>
-      <c r="MB2" s="81"/>
-      <c r="MC2" s="81"/>
-      <c r="MD2" s="81"/>
-      <c r="ME2" s="81"/>
-      <c r="MF2" s="81"/>
-      <c r="MG2" s="81"/>
-      <c r="MH2" s="81"/>
-      <c r="MI2" s="81"/>
-      <c r="MJ2" s="81"/>
-      <c r="MK2" s="81"/>
-      <c r="ML2" s="81"/>
-      <c r="MM2" s="81"/>
-      <c r="MN2" s="81"/>
-      <c r="MO2" s="81"/>
-      <c r="MP2" s="81"/>
-      <c r="MQ2" s="81"/>
-      <c r="MR2" s="81"/>
-      <c r="MS2" s="81"/>
-      <c r="MT2" s="81"/>
-      <c r="MU2" s="81"/>
-      <c r="MV2" s="81"/>
-      <c r="MW2" s="81"/>
-      <c r="MX2" s="81"/>
-      <c r="MY2" s="81"/>
-      <c r="MZ2" s="81"/>
-      <c r="NA2" s="81"/>
-      <c r="NB2" s="81"/>
-      <c r="NC2" s="81"/>
-      <c r="ND2" s="81"/>
-      <c r="NE2" s="81"/>
-      <c r="NF2" s="81"/>
-      <c r="NG2" s="81"/>
-      <c r="NH2" s="81"/>
-      <c r="NI2" s="81"/>
-      <c r="NJ2" s="81"/>
-      <c r="NK2" s="81"/>
-      <c r="NL2" s="81"/>
-      <c r="NM2" s="81"/>
-      <c r="NN2" s="81"/>
-      <c r="NO2" s="81"/>
-      <c r="NP2" s="81"/>
-      <c r="NQ2" s="81"/>
-      <c r="NR2" s="81"/>
-      <c r="NS2" s="81"/>
-      <c r="NT2" s="81"/>
-      <c r="NU2" s="81"/>
-      <c r="NV2" s="81"/>
-      <c r="NW2" s="81"/>
-      <c r="NX2" s="81"/>
-      <c r="NY2" s="81"/>
-      <c r="NZ2" s="81"/>
-      <c r="OA2" s="81"/>
-      <c r="OB2" s="81"/>
-      <c r="OC2" s="81"/>
-      <c r="OD2" s="81"/>
-      <c r="OE2" s="81"/>
-      <c r="OF2" s="81"/>
-      <c r="OG2" s="81"/>
-      <c r="OH2" s="81"/>
-      <c r="OI2" s="81"/>
-      <c r="OJ2" s="81"/>
-      <c r="OK2" s="81"/>
-      <c r="OL2" s="81"/>
-      <c r="OM2" s="81"/>
-      <c r="ON2" s="81"/>
-      <c r="OO2" s="81"/>
-      <c r="OP2" s="81"/>
-      <c r="OQ2" s="81"/>
-      <c r="OR2" s="81"/>
-      <c r="OS2" s="81"/>
-      <c r="OT2" s="81"/>
-      <c r="OU2" s="81"/>
-      <c r="OV2" s="81"/>
-      <c r="OW2" s="81"/>
-      <c r="OX2" s="81"/>
-      <c r="OY2" s="81"/>
-      <c r="OZ2" s="81"/>
-      <c r="PA2" s="81"/>
-      <c r="PB2" s="81"/>
-      <c r="PC2" s="81"/>
-      <c r="PD2" s="81"/>
-      <c r="PE2" s="81"/>
-      <c r="PF2" s="81"/>
-      <c r="PG2" s="81"/>
-      <c r="PH2" s="81"/>
-      <c r="PI2" s="81"/>
-      <c r="PJ2" s="81"/>
-      <c r="PK2" s="81"/>
-      <c r="PL2" s="81"/>
-      <c r="PM2" s="81"/>
-      <c r="PN2" s="81"/>
-      <c r="PO2" s="81"/>
-      <c r="PP2" s="81"/>
-      <c r="PQ2" s="81"/>
-      <c r="PR2" s="81"/>
-      <c r="PS2" s="81"/>
-      <c r="PT2" s="81"/>
-      <c r="PU2" s="81"/>
-      <c r="PV2" s="81"/>
-      <c r="PW2" s="81"/>
-      <c r="PX2" s="81"/>
-      <c r="PY2" s="81"/>
-      <c r="PZ2" s="81"/>
-      <c r="QA2" s="81"/>
-      <c r="QB2" s="81"/>
-      <c r="QC2" s="81"/>
-      <c r="QD2" s="81"/>
-      <c r="QE2" s="81"/>
-      <c r="QF2" s="81"/>
-      <c r="QG2" s="81"/>
-      <c r="QH2" s="81"/>
-      <c r="QI2" s="81"/>
-      <c r="QJ2" s="81"/>
-      <c r="QK2" s="81"/>
-      <c r="QL2" s="81"/>
-      <c r="QM2" s="81"/>
-      <c r="QN2" s="81"/>
-      <c r="QO2" s="81"/>
-      <c r="QP2" s="81"/>
-      <c r="QQ2" s="81"/>
-      <c r="QR2" s="81"/>
-      <c r="QS2" s="81"/>
-      <c r="QT2" s="81"/>
-      <c r="QU2" s="81"/>
-      <c r="QV2" s="81"/>
-      <c r="QW2" s="81"/>
-      <c r="QX2" s="81"/>
-      <c r="QY2" s="81"/>
-      <c r="QZ2" s="81"/>
-      <c r="RA2" s="81"/>
-      <c r="RB2" s="81"/>
-      <c r="RC2" s="81"/>
-      <c r="RD2" s="81"/>
-      <c r="RE2" s="81"/>
-      <c r="RF2" s="81"/>
-      <c r="RG2" s="81"/>
-      <c r="RH2" s="81"/>
-      <c r="RI2" s="81"/>
-      <c r="RJ2" s="81"/>
-      <c r="RK2" s="81"/>
-      <c r="RL2" s="81"/>
-      <c r="RM2" s="81"/>
-      <c r="RN2" s="81"/>
-      <c r="RO2" s="81"/>
-      <c r="RP2" s="81"/>
-      <c r="RQ2" s="81"/>
-      <c r="RR2" s="81"/>
-      <c r="RS2" s="81"/>
-      <c r="RT2" s="81"/>
-      <c r="RU2" s="81"/>
-      <c r="RV2" s="81"/>
-      <c r="RW2" s="81"/>
-      <c r="RX2" s="81"/>
-      <c r="RY2" s="81"/>
-      <c r="RZ2" s="81"/>
-      <c r="SA2" s="81"/>
-      <c r="SB2" s="81"/>
-      <c r="SC2" s="81"/>
-      <c r="SD2" s="81"/>
-      <c r="SE2" s="81"/>
-      <c r="SF2" s="81"/>
-      <c r="SG2" s="81"/>
-      <c r="SH2" s="81"/>
-      <c r="SI2" s="81"/>
-      <c r="SJ2" s="81"/>
-      <c r="SK2" s="81"/>
-      <c r="SL2" s="81"/>
-      <c r="SM2" s="81"/>
-      <c r="SN2" s="81"/>
-      <c r="SO2" s="81"/>
-      <c r="SP2" s="81"/>
-      <c r="SQ2" s="81"/>
-      <c r="SR2" s="81"/>
-      <c r="SS2" s="81"/>
-      <c r="ST2" s="81"/>
-      <c r="SU2" s="81"/>
-      <c r="SV2" s="81"/>
-      <c r="SW2" s="81"/>
-      <c r="SX2" s="81"/>
-      <c r="SY2" s="81"/>
-      <c r="SZ2" s="81"/>
-      <c r="TA2" s="81"/>
-      <c r="TB2" s="81"/>
-      <c r="TC2" s="81"/>
-      <c r="TD2" s="81"/>
-      <c r="TE2" s="81"/>
-      <c r="TF2" s="81"/>
-      <c r="TG2" s="81"/>
-      <c r="TH2" s="81"/>
-      <c r="TI2" s="81"/>
-      <c r="TJ2" s="81"/>
-      <c r="TK2" s="81"/>
-      <c r="TL2" s="81"/>
-      <c r="TM2" s="81"/>
-      <c r="TN2" s="81"/>
-      <c r="TO2" s="81"/>
-      <c r="TP2" s="81"/>
-      <c r="TQ2" s="81"/>
-      <c r="TR2" s="81"/>
-      <c r="TS2" s="81"/>
-      <c r="TT2" s="81"/>
-      <c r="TU2" s="81"/>
-      <c r="TV2" s="81"/>
-      <c r="TW2" s="81"/>
-      <c r="TX2" s="81"/>
-      <c r="TY2" s="81"/>
-      <c r="TZ2" s="81"/>
-      <c r="UA2" s="81"/>
-      <c r="UB2" s="81"/>
-      <c r="UC2" s="81"/>
-      <c r="UD2" s="81"/>
-      <c r="UE2" s="81"/>
-      <c r="UF2" s="81"/>
-      <c r="UG2" s="81"/>
-      <c r="UH2" s="81"/>
-      <c r="UI2" s="81"/>
-      <c r="UJ2" s="81"/>
-      <c r="UK2" s="81"/>
-      <c r="UL2" s="81"/>
-      <c r="UM2" s="81"/>
-      <c r="UN2" s="81"/>
-      <c r="UO2" s="81"/>
-      <c r="UP2" s="81"/>
-      <c r="UQ2" s="81"/>
-      <c r="UR2" s="81"/>
-      <c r="US2" s="81"/>
-      <c r="UT2" s="81"/>
-      <c r="UU2" s="81"/>
-      <c r="UV2" s="81"/>
-      <c r="UW2" s="81"/>
-      <c r="UX2" s="81"/>
-      <c r="UY2" s="81"/>
-      <c r="UZ2" s="81"/>
-      <c r="VA2" s="81"/>
-      <c r="VB2" s="81"/>
-      <c r="VC2" s="81"/>
-      <c r="VD2" s="81"/>
-      <c r="VE2" s="81"/>
-      <c r="VF2" s="81"/>
-      <c r="VG2" s="81"/>
-      <c r="VH2" s="81"/>
-      <c r="VI2" s="81"/>
-      <c r="VJ2" s="81"/>
-      <c r="VK2" s="81"/>
-      <c r="VL2" s="81"/>
-      <c r="VM2" s="81"/>
-      <c r="VN2" s="81"/>
-      <c r="VO2" s="81"/>
-      <c r="VP2" s="81"/>
-      <c r="VQ2" s="81"/>
-      <c r="VR2" s="81"/>
-      <c r="VS2" s="81"/>
-      <c r="VT2" s="81"/>
-      <c r="VU2" s="81"/>
-      <c r="VV2" s="81"/>
-      <c r="VW2" s="81"/>
-      <c r="VX2" s="81"/>
-      <c r="VY2" s="81"/>
-      <c r="VZ2" s="81"/>
-      <c r="WA2" s="81"/>
-      <c r="WB2" s="81"/>
-      <c r="WC2" s="81"/>
-      <c r="WD2" s="81"/>
-      <c r="WE2" s="81"/>
-      <c r="WF2" s="81"/>
-      <c r="WG2" s="81"/>
-      <c r="WH2" s="81"/>
-      <c r="WI2" s="81"/>
-      <c r="WJ2" s="81"/>
-      <c r="WK2" s="81"/>
-      <c r="WL2" s="81"/>
-      <c r="WM2" s="81"/>
-      <c r="WN2" s="81"/>
-      <c r="WO2" s="81"/>
-      <c r="WP2" s="81"/>
-      <c r="WQ2" s="81"/>
-      <c r="WR2" s="81"/>
-      <c r="WS2" s="81"/>
-      <c r="WT2" s="81"/>
-      <c r="WU2" s="81"/>
-      <c r="WV2" s="81"/>
-      <c r="WW2" s="81"/>
-      <c r="WX2" s="81"/>
-      <c r="WY2" s="81"/>
-      <c r="WZ2" s="81"/>
-      <c r="XA2" s="81"/>
-      <c r="XB2" s="81"/>
-      <c r="XC2" s="81"/>
-      <c r="XD2" s="81"/>
-      <c r="XE2" s="81"/>
-      <c r="XF2" s="81"/>
-      <c r="XG2" s="81"/>
-      <c r="XH2" s="81"/>
-      <c r="XI2" s="81"/>
-      <c r="XJ2" s="81"/>
-      <c r="XK2" s="81"/>
-      <c r="XL2" s="81"/>
-      <c r="XM2" s="81"/>
-      <c r="XN2" s="81"/>
-      <c r="XO2" s="81"/>
-      <c r="XP2" s="81"/>
-      <c r="XQ2" s="81"/>
-      <c r="XR2" s="81"/>
-      <c r="XS2" s="81"/>
-      <c r="XT2" s="81"/>
-      <c r="XU2" s="81"/>
-      <c r="XV2" s="81"/>
-      <c r="XW2" s="81"/>
-      <c r="XX2" s="81"/>
-      <c r="XY2" s="81"/>
-      <c r="XZ2" s="81"/>
-      <c r="YA2" s="81"/>
-      <c r="YB2" s="81"/>
-      <c r="YC2" s="81"/>
-      <c r="YD2" s="81"/>
-      <c r="YE2" s="81"/>
-      <c r="YF2" s="81"/>
-      <c r="YG2" s="81"/>
-      <c r="YH2" s="81"/>
-      <c r="YI2" s="81"/>
-      <c r="YJ2" s="81"/>
-      <c r="YK2" s="81"/>
-      <c r="YL2" s="81"/>
-      <c r="YM2" s="81"/>
-      <c r="YN2" s="81"/>
-      <c r="YO2" s="81"/>
-      <c r="YP2" s="81"/>
-      <c r="YQ2" s="81"/>
-      <c r="YR2" s="81"/>
-      <c r="YS2" s="81"/>
-      <c r="YT2" s="81"/>
-      <c r="YU2" s="81"/>
-      <c r="YV2" s="81"/>
-      <c r="YW2" s="81"/>
-      <c r="YX2" s="81"/>
-      <c r="YY2" s="81"/>
-      <c r="YZ2" s="81"/>
-      <c r="ZA2" s="81"/>
-      <c r="ZB2" s="81"/>
-      <c r="ZC2" s="81"/>
-      <c r="ZD2" s="81"/>
-      <c r="ZE2" s="81"/>
-      <c r="ZF2" s="81"/>
-      <c r="ZG2" s="81"/>
-      <c r="ZH2" s="81"/>
-      <c r="ZI2" s="81"/>
-      <c r="ZJ2" s="81"/>
-      <c r="ZK2" s="81"/>
-      <c r="ZL2" s="81"/>
-      <c r="ZM2" s="81"/>
-      <c r="ZN2" s="81"/>
-      <c r="ZO2" s="81"/>
-      <c r="ZP2" s="81"/>
-      <c r="ZQ2" s="81"/>
-      <c r="ZR2" s="81"/>
-      <c r="ZS2" s="81"/>
-      <c r="ZT2" s="81"/>
-      <c r="ZU2" s="81"/>
-      <c r="ZV2" s="81"/>
-      <c r="ZW2" s="81"/>
-      <c r="ZX2" s="81"/>
-      <c r="ZY2" s="81"/>
-      <c r="ZZ2" s="81"/>
-      <c r="AAA2" s="81"/>
-      <c r="AAB2" s="81"/>
-      <c r="AAC2" s="81"/>
-      <c r="AAD2" s="81"/>
-      <c r="AAE2" s="81"/>
-      <c r="AAF2" s="81"/>
-      <c r="AAG2" s="81"/>
-      <c r="AAH2" s="81"/>
-      <c r="AAI2" s="81"/>
-      <c r="AAJ2" s="81"/>
-      <c r="AAK2" s="81"/>
-      <c r="AAL2" s="81"/>
-      <c r="AAM2" s="81"/>
-      <c r="AAN2" s="81"/>
-      <c r="AAO2" s="81"/>
-      <c r="AAP2" s="81"/>
-      <c r="AAQ2" s="81"/>
-      <c r="AAR2" s="81"/>
-      <c r="AAS2" s="81"/>
-      <c r="AAT2" s="81"/>
-      <c r="AAU2" s="81"/>
-      <c r="AAV2" s="81"/>
-      <c r="AAW2" s="81"/>
-      <c r="AAX2" s="81"/>
-      <c r="AAY2" s="81"/>
-      <c r="AAZ2" s="81"/>
-      <c r="ABA2" s="81"/>
-      <c r="ABB2" s="81"/>
-      <c r="ABC2" s="81"/>
-      <c r="ABD2" s="81"/>
-      <c r="ABE2" s="81"/>
-      <c r="ABF2" s="81"/>
-      <c r="ABG2" s="81"/>
-      <c r="ABH2" s="81"/>
-      <c r="ABI2" s="81"/>
-      <c r="ABJ2" s="81"/>
-      <c r="ABK2" s="81"/>
-      <c r="ABL2" s="81"/>
-      <c r="ABM2" s="81"/>
-      <c r="ABN2" s="81"/>
-      <c r="ABO2" s="81"/>
-      <c r="ABP2" s="81"/>
-      <c r="ABQ2" s="81"/>
-      <c r="ABR2" s="81"/>
-      <c r="ABS2" s="81"/>
-      <c r="ABT2" s="81"/>
-      <c r="ABU2" s="81"/>
-      <c r="ABV2" s="81"/>
-      <c r="ABW2" s="81"/>
-      <c r="ABX2" s="81"/>
-      <c r="ABY2" s="81"/>
-      <c r="ABZ2" s="81"/>
-      <c r="ACA2" s="81"/>
-      <c r="ACB2" s="81"/>
-      <c r="ACC2" s="81"/>
-      <c r="ACD2" s="81"/>
-      <c r="ACE2" s="81"/>
-      <c r="ACF2" s="81"/>
-      <c r="ACG2" s="81"/>
-      <c r="ACH2" s="81"/>
-      <c r="ACI2" s="81"/>
-      <c r="ACJ2" s="81"/>
-      <c r="ACK2" s="81"/>
-      <c r="ACL2" s="81"/>
-      <c r="ACM2" s="81"/>
-      <c r="ACN2" s="81"/>
-      <c r="ACO2" s="81"/>
-      <c r="ACP2" s="81"/>
-      <c r="ACQ2" s="81"/>
-      <c r="ACR2" s="81"/>
-      <c r="ACS2" s="81"/>
-      <c r="ACT2" s="81"/>
-      <c r="ACU2" s="81"/>
-      <c r="ACV2" s="81"/>
-      <c r="ACW2" s="81"/>
-      <c r="ACX2" s="81"/>
-      <c r="ACY2" s="81"/>
-      <c r="ACZ2" s="81"/>
-      <c r="ADA2" s="81"/>
-      <c r="ADB2" s="81"/>
-      <c r="ADC2" s="81"/>
-      <c r="ADD2" s="81"/>
-      <c r="ADE2" s="81"/>
-      <c r="ADF2" s="81"/>
-      <c r="ADG2" s="81"/>
-      <c r="ADH2" s="81"/>
-      <c r="ADI2" s="81"/>
-      <c r="ADJ2" s="81"/>
-      <c r="ADK2" s="81"/>
-      <c r="ADL2" s="81"/>
-      <c r="ADM2" s="81"/>
-      <c r="ADN2" s="81"/>
-      <c r="ADO2" s="81"/>
-      <c r="ADP2" s="81"/>
-      <c r="ADQ2" s="81"/>
-      <c r="ADR2" s="81"/>
-      <c r="ADS2" s="81"/>
-      <c r="ADT2" s="81"/>
-      <c r="ADU2" s="81"/>
-      <c r="ADV2" s="81"/>
-      <c r="ADW2" s="81"/>
-      <c r="ADX2" s="81"/>
-      <c r="ADY2" s="81"/>
-      <c r="ADZ2" s="81"/>
-      <c r="AEA2" s="81"/>
-      <c r="AEB2" s="81"/>
-      <c r="AEC2" s="81"/>
-      <c r="AED2" s="81"/>
-      <c r="AEE2" s="81"/>
-      <c r="AEF2" s="81"/>
-      <c r="AEG2" s="81"/>
-      <c r="AEH2" s="81"/>
-      <c r="AEI2" s="81"/>
-      <c r="AEJ2" s="81"/>
-      <c r="AEK2" s="81"/>
-      <c r="AEL2" s="81"/>
-      <c r="AEM2" s="81"/>
-      <c r="AEN2" s="81"/>
-      <c r="AEO2" s="81"/>
-      <c r="AEP2" s="81"/>
-      <c r="AEQ2" s="81"/>
-      <c r="AER2" s="81"/>
-      <c r="AES2" s="81"/>
-      <c r="AET2" s="81"/>
-      <c r="AEU2" s="81"/>
-      <c r="AEV2" s="81"/>
-      <c r="AEW2" s="81"/>
-      <c r="AEX2" s="81"/>
-      <c r="AEY2" s="81"/>
-      <c r="AEZ2" s="81"/>
-      <c r="AFA2" s="81"/>
-      <c r="AFB2" s="81"/>
-      <c r="AFC2" s="81"/>
-      <c r="AFD2" s="81"/>
-      <c r="AFE2" s="81"/>
-      <c r="AFF2" s="81"/>
-      <c r="AFG2" s="81"/>
-      <c r="AFH2" s="81"/>
-      <c r="AFI2" s="81"/>
-      <c r="AFJ2" s="81"/>
-      <c r="AFK2" s="81"/>
-      <c r="AFL2" s="81"/>
-      <c r="AFM2" s="81"/>
-      <c r="AFN2" s="81"/>
-      <c r="AFO2" s="81"/>
-      <c r="AFP2" s="81"/>
-      <c r="AFQ2" s="81"/>
-      <c r="AFR2" s="81"/>
-      <c r="AFS2" s="81"/>
-      <c r="AFT2" s="81"/>
-      <c r="AFU2" s="81"/>
-      <c r="AFV2" s="81"/>
-      <c r="AFW2" s="81"/>
-      <c r="AFX2" s="81"/>
-      <c r="AFY2" s="81"/>
-      <c r="AFZ2" s="81"/>
-      <c r="AGA2" s="81"/>
-      <c r="AGB2" s="81"/>
-      <c r="AGC2" s="81"/>
-      <c r="AGD2" s="81"/>
-      <c r="AGE2" s="81"/>
-      <c r="AGF2" s="81"/>
-      <c r="AGG2" s="81"/>
-      <c r="AGH2" s="81"/>
-      <c r="AGI2" s="81"/>
-      <c r="AGJ2" s="81"/>
-      <c r="AGK2" s="81"/>
-      <c r="AGL2" s="81"/>
-      <c r="AGM2" s="81"/>
-      <c r="AGN2" s="81"/>
-      <c r="AGO2" s="81"/>
-      <c r="AGP2" s="81"/>
-      <c r="AGQ2" s="81"/>
-      <c r="AGR2" s="81"/>
-      <c r="AGS2" s="81"/>
-      <c r="AGT2" s="81"/>
-      <c r="AGU2" s="81"/>
-      <c r="AGV2" s="81"/>
-      <c r="AGW2" s="81"/>
-      <c r="AGX2" s="81"/>
-      <c r="AGY2" s="81"/>
-      <c r="AGZ2" s="81"/>
-      <c r="AHA2" s="81"/>
-      <c r="AHB2" s="81"/>
-      <c r="AHC2" s="81"/>
-      <c r="AHD2" s="81"/>
-      <c r="AHE2" s="81"/>
-      <c r="AHF2" s="81"/>
-      <c r="AHG2" s="81"/>
-      <c r="AHH2" s="81"/>
-      <c r="AHI2" s="81"/>
-      <c r="AHJ2" s="81"/>
-      <c r="AHK2" s="81"/>
-      <c r="AHL2" s="81"/>
-      <c r="AHM2" s="81"/>
-      <c r="AHN2" s="81"/>
-      <c r="AHO2" s="81"/>
-      <c r="AHP2" s="81"/>
-      <c r="AHQ2" s="81"/>
-      <c r="AHR2" s="81"/>
-      <c r="AHS2" s="81"/>
-      <c r="AHT2" s="81"/>
-      <c r="AHU2" s="81"/>
-      <c r="AHV2" s="81"/>
-      <c r="AHW2" s="81"/>
-      <c r="AHX2" s="81"/>
-      <c r="AHY2" s="81"/>
-      <c r="AHZ2" s="81"/>
-      <c r="AIA2" s="81"/>
-      <c r="AIB2" s="81"/>
-      <c r="AIC2" s="81"/>
-      <c r="AID2" s="81"/>
-      <c r="AIE2" s="81"/>
-      <c r="AIF2" s="81"/>
-      <c r="AIG2" s="81"/>
-      <c r="AIH2" s="81"/>
-      <c r="AII2" s="81"/>
-      <c r="AIJ2" s="81"/>
-      <c r="AIK2" s="81"/>
-      <c r="AIL2" s="81"/>
-      <c r="AIM2" s="81"/>
-      <c r="AIN2" s="81"/>
-      <c r="AIO2" s="81"/>
-      <c r="AIP2" s="81"/>
-      <c r="AIQ2" s="81"/>
-      <c r="AIR2" s="81"/>
-      <c r="AIS2" s="81"/>
-      <c r="AIT2" s="81"/>
-      <c r="AIU2" s="81"/>
-      <c r="AIV2" s="81"/>
-      <c r="AIW2" s="81"/>
-      <c r="AIX2" s="81"/>
-      <c r="AIY2" s="81"/>
-      <c r="AIZ2" s="81"/>
-      <c r="AJA2" s="81"/>
-      <c r="AJB2" s="81"/>
-      <c r="AJC2" s="81"/>
-      <c r="AJD2" s="81"/>
-      <c r="AJE2" s="81"/>
-      <c r="AJF2" s="81"/>
-      <c r="AJG2" s="81"/>
-      <c r="AJH2" s="81"/>
-      <c r="AJI2" s="81"/>
-      <c r="AJJ2" s="81"/>
-      <c r="AJK2" s="81"/>
-      <c r="AJL2" s="81"/>
-      <c r="AJM2" s="81"/>
-      <c r="AJN2" s="81"/>
-      <c r="AJO2" s="81"/>
-      <c r="AJP2" s="81"/>
-      <c r="AJQ2" s="81"/>
-      <c r="AJR2" s="81"/>
-      <c r="AJS2" s="81"/>
-      <c r="AJT2" s="81"/>
-      <c r="AJU2" s="81"/>
-      <c r="AJV2" s="81"/>
-      <c r="AJW2" s="81"/>
-      <c r="AJX2" s="81"/>
-      <c r="AJY2" s="81"/>
-      <c r="AJZ2" s="81"/>
-      <c r="AKA2" s="81"/>
-      <c r="AKB2" s="81"/>
-      <c r="AKC2" s="81"/>
-      <c r="AKD2" s="81"/>
-      <c r="AKE2" s="81"/>
-      <c r="AKF2" s="81"/>
-      <c r="AKG2" s="81"/>
-      <c r="AKH2" s="81"/>
-      <c r="AKI2" s="81"/>
-      <c r="AKJ2" s="81"/>
-      <c r="AKK2" s="81"/>
-      <c r="AKL2" s="81"/>
-      <c r="AKM2" s="81"/>
-      <c r="AKN2" s="81"/>
-      <c r="AKO2" s="81"/>
-      <c r="AKP2" s="81"/>
-      <c r="AKQ2" s="81"/>
-      <c r="AKR2" s="81"/>
-      <c r="AKS2" s="81"/>
-      <c r="AKT2" s="81"/>
-      <c r="AKU2" s="81"/>
-      <c r="AKV2" s="81"/>
-      <c r="AKW2" s="81"/>
-      <c r="AKX2" s="81"/>
-      <c r="AKY2" s="81"/>
-      <c r="AKZ2" s="81"/>
-      <c r="ALA2" s="81"/>
-      <c r="ALB2" s="81"/>
-      <c r="ALC2" s="81"/>
-      <c r="ALD2" s="81"/>
-      <c r="ALE2" s="81"/>
-      <c r="ALF2" s="81"/>
-      <c r="ALG2" s="81"/>
-      <c r="ALH2" s="81"/>
-      <c r="ALI2" s="81"/>
-      <c r="ALJ2" s="81"/>
-      <c r="ALK2" s="81"/>
-      <c r="ALL2" s="81"/>
-      <c r="ALM2" s="81"/>
-      <c r="ALN2" s="81"/>
-      <c r="ALO2" s="81"/>
-      <c r="ALP2" s="81"/>
-      <c r="ALQ2" s="81"/>
-      <c r="ALR2" s="81"/>
-      <c r="ALS2" s="81"/>
-      <c r="ALT2" s="81"/>
-      <c r="ALU2" s="81"/>
-      <c r="ALV2" s="81"/>
-      <c r="ALW2" s="81"/>
-      <c r="ALX2" s="81"/>
-      <c r="ALY2" s="81"/>
-      <c r="ALZ2" s="81"/>
-      <c r="AMA2" s="81"/>
-      <c r="AMB2" s="81"/>
-      <c r="AMC2" s="81"/>
-      <c r="AMD2" s="81"/>
-      <c r="AME2" s="81"/>
-      <c r="AMF2" s="81"/>
-      <c r="AMG2" s="81"/>
-      <c r="AMH2" s="81"/>
-      <c r="AMI2" s="81"/>
-      <c r="AMJ2" s="81"/>
-      <c r="AMK2" s="81"/>
-      <c r="AML2" s="81"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="74"/>
+      <c r="AO2" s="74"/>
+      <c r="AP2" s="74"/>
+      <c r="AQ2" s="74"/>
+      <c r="AR2" s="74"/>
+      <c r="AS2" s="74"/>
+      <c r="AT2" s="74"/>
+      <c r="AU2" s="74"/>
+      <c r="AV2" s="74"/>
+      <c r="AW2" s="74"/>
+      <c r="AX2" s="74"/>
+      <c r="AY2" s="74"/>
+      <c r="AZ2" s="74"/>
+      <c r="BA2" s="74"/>
+      <c r="BB2" s="74"/>
+      <c r="BC2" s="74"/>
+      <c r="BD2" s="74"/>
+      <c r="BE2" s="74"/>
+      <c r="BF2" s="74"/>
+      <c r="BG2" s="74"/>
+      <c r="BH2" s="74"/>
+      <c r="BI2" s="74"/>
+      <c r="BJ2" s="74"/>
+      <c r="BK2" s="74"/>
+      <c r="BL2" s="74"/>
+      <c r="BM2" s="74"/>
+      <c r="BN2" s="74"/>
+      <c r="BO2" s="74"/>
+      <c r="BP2" s="74"/>
+      <c r="BQ2" s="74"/>
+      <c r="BR2" s="74"/>
+      <c r="BS2" s="74"/>
+      <c r="BT2" s="74"/>
+      <c r="BU2" s="74"/>
+      <c r="BV2" s="74"/>
+      <c r="BW2" s="74"/>
+      <c r="BX2" s="74"/>
+      <c r="BY2" s="74"/>
+      <c r="BZ2" s="74"/>
+      <c r="CA2" s="74"/>
+      <c r="CB2" s="74"/>
+      <c r="CC2" s="74"/>
+      <c r="CD2" s="74"/>
+      <c r="CE2" s="74"/>
+      <c r="CF2" s="74"/>
+      <c r="CG2" s="74"/>
+      <c r="CH2" s="74"/>
+      <c r="CI2" s="74"/>
+      <c r="CJ2" s="74"/>
+      <c r="CK2" s="74"/>
+      <c r="CL2" s="74"/>
+      <c r="CM2" s="74"/>
+      <c r="CN2" s="74"/>
+      <c r="CO2" s="74"/>
+      <c r="CP2" s="74"/>
+      <c r="CQ2" s="74"/>
+      <c r="CR2" s="74"/>
+      <c r="CS2" s="74"/>
+      <c r="CT2" s="74"/>
+      <c r="CU2" s="74"/>
+      <c r="CV2" s="74"/>
+      <c r="CW2" s="74"/>
+      <c r="CX2" s="74"/>
+      <c r="CY2" s="74"/>
+      <c r="CZ2" s="74"/>
+      <c r="DA2" s="74"/>
+      <c r="DB2" s="74"/>
+      <c r="DC2" s="74"/>
+      <c r="DD2" s="74"/>
+      <c r="DE2" s="74"/>
+      <c r="DF2" s="74"/>
+      <c r="DG2" s="74"/>
+      <c r="DH2" s="74"/>
+      <c r="DI2" s="74"/>
+      <c r="DJ2" s="74"/>
+      <c r="DK2" s="74"/>
+      <c r="DL2" s="74"/>
+      <c r="DM2" s="74"/>
+      <c r="DN2" s="74"/>
+      <c r="DO2" s="74"/>
+      <c r="DP2" s="74"/>
+      <c r="DQ2" s="74"/>
+      <c r="DR2" s="74"/>
+      <c r="DS2" s="74"/>
+      <c r="DT2" s="74"/>
+      <c r="DU2" s="74"/>
+      <c r="DV2" s="74"/>
+      <c r="DW2" s="74"/>
+      <c r="DX2" s="74"/>
+      <c r="DY2" s="74"/>
+      <c r="DZ2" s="74"/>
+      <c r="EA2" s="74"/>
+      <c r="EB2" s="74"/>
+      <c r="EC2" s="74"/>
+      <c r="ED2" s="74"/>
+      <c r="EE2" s="74"/>
+      <c r="EF2" s="74"/>
+      <c r="EG2" s="74"/>
+      <c r="EH2" s="74"/>
+      <c r="EI2" s="74"/>
+      <c r="EJ2" s="74"/>
+      <c r="EK2" s="74"/>
+      <c r="EL2" s="74"/>
+      <c r="EM2" s="74"/>
+      <c r="EN2" s="74"/>
+      <c r="EO2" s="74"/>
+      <c r="EP2" s="74"/>
+      <c r="EQ2" s="74"/>
+      <c r="ER2" s="74"/>
+      <c r="ES2" s="74"/>
+      <c r="ET2" s="74"/>
+      <c r="EU2" s="74"/>
+      <c r="EV2" s="74"/>
+      <c r="EW2" s="74"/>
+      <c r="EX2" s="74"/>
+      <c r="EY2" s="74"/>
+      <c r="EZ2" s="74"/>
+      <c r="FA2" s="74"/>
+      <c r="FB2" s="74"/>
+      <c r="FC2" s="74"/>
+      <c r="FD2" s="74"/>
+      <c r="FE2" s="74"/>
+      <c r="FF2" s="74"/>
+      <c r="FG2" s="74"/>
+      <c r="FH2" s="74"/>
+      <c r="FI2" s="74"/>
+      <c r="FJ2" s="74"/>
+      <c r="FK2" s="74"/>
+      <c r="FL2" s="74"/>
+      <c r="FM2" s="74"/>
+      <c r="FN2" s="74"/>
+      <c r="FO2" s="74"/>
+      <c r="FP2" s="74"/>
+      <c r="FQ2" s="74"/>
+      <c r="FR2" s="74"/>
+      <c r="FS2" s="74"/>
+      <c r="FT2" s="74"/>
+      <c r="FU2" s="74"/>
+      <c r="FV2" s="74"/>
+      <c r="FW2" s="74"/>
+      <c r="FX2" s="74"/>
+      <c r="FY2" s="74"/>
+      <c r="FZ2" s="74"/>
+      <c r="GA2" s="74"/>
+      <c r="GB2" s="74"/>
+      <c r="GC2" s="74"/>
+      <c r="GD2" s="74"/>
+      <c r="GE2" s="74"/>
+      <c r="GF2" s="74"/>
+      <c r="GG2" s="74"/>
+      <c r="GH2" s="74"/>
+      <c r="GI2" s="74"/>
+      <c r="GJ2" s="74"/>
+      <c r="GK2" s="74"/>
+      <c r="GL2" s="74"/>
+      <c r="GM2" s="74"/>
+      <c r="GN2" s="74"/>
+      <c r="GO2" s="74"/>
+      <c r="GP2" s="74"/>
+      <c r="GQ2" s="74"/>
+      <c r="GR2" s="74"/>
+      <c r="GS2" s="74"/>
+      <c r="GT2" s="74"/>
+      <c r="GU2" s="74"/>
+      <c r="GV2" s="74"/>
+      <c r="GW2" s="74"/>
+      <c r="GX2" s="74"/>
+      <c r="GY2" s="74"/>
+      <c r="GZ2" s="74"/>
+      <c r="HA2" s="74"/>
+      <c r="HB2" s="74"/>
+      <c r="HC2" s="74"/>
+      <c r="HD2" s="74"/>
+      <c r="HE2" s="74"/>
+      <c r="HF2" s="74"/>
+      <c r="HG2" s="74"/>
+      <c r="HH2" s="74"/>
+      <c r="HI2" s="74"/>
+      <c r="HJ2" s="74"/>
+      <c r="HK2" s="74"/>
+      <c r="HL2" s="74"/>
+      <c r="HM2" s="74"/>
+      <c r="HN2" s="74"/>
+      <c r="HO2" s="74"/>
+      <c r="HP2" s="74"/>
+      <c r="HQ2" s="74"/>
+      <c r="HR2" s="74"/>
+      <c r="HS2" s="74"/>
+      <c r="HT2" s="74"/>
+      <c r="HU2" s="74"/>
+      <c r="HV2" s="74"/>
+      <c r="HW2" s="74"/>
+      <c r="HX2" s="74"/>
+      <c r="HY2" s="74"/>
+      <c r="HZ2" s="74"/>
+      <c r="IA2" s="74"/>
+      <c r="IB2" s="74"/>
+      <c r="IC2" s="74"/>
+      <c r="ID2" s="74"/>
+      <c r="IE2" s="74"/>
+      <c r="IF2" s="74"/>
+      <c r="IG2" s="74"/>
+      <c r="IH2" s="74"/>
+      <c r="II2" s="74"/>
+      <c r="IJ2" s="74"/>
+      <c r="IK2" s="74"/>
+      <c r="IL2" s="74"/>
+      <c r="IM2" s="74"/>
+      <c r="IN2" s="74"/>
+      <c r="IO2" s="74"/>
+      <c r="IP2" s="74"/>
+      <c r="IQ2" s="74"/>
+      <c r="IR2" s="74"/>
+      <c r="IS2" s="74"/>
+      <c r="IT2" s="74"/>
+      <c r="IU2" s="74"/>
+      <c r="IV2" s="74"/>
+      <c r="IW2" s="74"/>
+      <c r="IX2" s="74"/>
+      <c r="IY2" s="74"/>
+      <c r="IZ2" s="74"/>
+      <c r="JA2" s="74"/>
+      <c r="JB2" s="74"/>
+      <c r="JC2" s="74"/>
+      <c r="JD2" s="74"/>
+      <c r="JE2" s="74"/>
+      <c r="JF2" s="74"/>
+      <c r="JG2" s="74"/>
+      <c r="JH2" s="74"/>
+      <c r="JI2" s="74"/>
+      <c r="JJ2" s="74"/>
+      <c r="JK2" s="74"/>
+      <c r="JL2" s="74"/>
+      <c r="JM2" s="74"/>
+      <c r="JN2" s="74"/>
+      <c r="JO2" s="74"/>
+      <c r="JP2" s="74"/>
+      <c r="JQ2" s="74"/>
+      <c r="JR2" s="74"/>
+      <c r="JS2" s="74"/>
+      <c r="JT2" s="74"/>
+      <c r="JU2" s="74"/>
+      <c r="JV2" s="74"/>
+      <c r="JW2" s="74"/>
+      <c r="JX2" s="74"/>
+      <c r="JY2" s="74"/>
+      <c r="JZ2" s="74"/>
+      <c r="KA2" s="74"/>
+      <c r="KB2" s="74"/>
+      <c r="KC2" s="74"/>
+      <c r="KD2" s="74"/>
+      <c r="KE2" s="74"/>
+      <c r="KF2" s="74"/>
+      <c r="KG2" s="74"/>
+      <c r="KH2" s="74"/>
+      <c r="KI2" s="74"/>
+      <c r="KJ2" s="74"/>
+      <c r="KK2" s="74"/>
+      <c r="KL2" s="74"/>
+      <c r="KM2" s="74"/>
+      <c r="KN2" s="74"/>
+      <c r="KO2" s="74"/>
+      <c r="KP2" s="74"/>
+      <c r="KQ2" s="74"/>
+      <c r="KR2" s="74"/>
+      <c r="KS2" s="74"/>
+      <c r="KT2" s="74"/>
+      <c r="KU2" s="74"/>
+      <c r="KV2" s="74"/>
+      <c r="KW2" s="74"/>
+      <c r="KX2" s="74"/>
+      <c r="KY2" s="74"/>
+      <c r="KZ2" s="74"/>
+      <c r="LA2" s="74"/>
+      <c r="LB2" s="74"/>
+      <c r="LC2" s="74"/>
+      <c r="LD2" s="74"/>
+      <c r="LE2" s="74"/>
+      <c r="LF2" s="74"/>
+      <c r="LG2" s="74"/>
+      <c r="LH2" s="74"/>
+      <c r="LI2" s="74"/>
+      <c r="LJ2" s="74"/>
+      <c r="LK2" s="74"/>
+      <c r="LL2" s="74"/>
+      <c r="LM2" s="74"/>
+      <c r="LN2" s="74"/>
+      <c r="LO2" s="74"/>
+      <c r="LP2" s="74"/>
+      <c r="LQ2" s="74"/>
+      <c r="LR2" s="74"/>
+      <c r="LS2" s="74"/>
+      <c r="LT2" s="74"/>
+      <c r="LU2" s="74"/>
+      <c r="LV2" s="74"/>
+      <c r="LW2" s="74"/>
+      <c r="LX2" s="74"/>
+      <c r="LY2" s="74"/>
+      <c r="LZ2" s="74"/>
+      <c r="MA2" s="74"/>
+      <c r="MB2" s="74"/>
+      <c r="MC2" s="74"/>
+      <c r="MD2" s="74"/>
+      <c r="ME2" s="74"/>
+      <c r="MF2" s="74"/>
+      <c r="MG2" s="74"/>
+      <c r="MH2" s="74"/>
+      <c r="MI2" s="74"/>
+      <c r="MJ2" s="74"/>
+      <c r="MK2" s="74"/>
+      <c r="ML2" s="74"/>
+      <c r="MM2" s="74"/>
+      <c r="MN2" s="74"/>
+      <c r="MO2" s="74"/>
+      <c r="MP2" s="74"/>
+      <c r="MQ2" s="74"/>
+      <c r="MR2" s="74"/>
+      <c r="MS2" s="74"/>
+      <c r="MT2" s="74"/>
+      <c r="MU2" s="74"/>
+      <c r="MV2" s="74"/>
+      <c r="MW2" s="74"/>
+      <c r="MX2" s="74"/>
+      <c r="MY2" s="74"/>
+      <c r="MZ2" s="74"/>
+      <c r="NA2" s="74"/>
+      <c r="NB2" s="74"/>
+      <c r="NC2" s="74"/>
+      <c r="ND2" s="74"/>
+      <c r="NE2" s="74"/>
+      <c r="NF2" s="74"/>
+      <c r="NG2" s="74"/>
+      <c r="NH2" s="74"/>
+      <c r="NI2" s="74"/>
+      <c r="NJ2" s="74"/>
+      <c r="NK2" s="74"/>
+      <c r="NL2" s="74"/>
+      <c r="NM2" s="74"/>
+      <c r="NN2" s="74"/>
+      <c r="NO2" s="74"/>
+      <c r="NP2" s="74"/>
+      <c r="NQ2" s="74"/>
+      <c r="NR2" s="74"/>
+      <c r="NS2" s="74"/>
+      <c r="NT2" s="74"/>
+      <c r="NU2" s="74"/>
+      <c r="NV2" s="74"/>
+      <c r="NW2" s="74"/>
+      <c r="NX2" s="74"/>
+      <c r="NY2" s="74"/>
+      <c r="NZ2" s="74"/>
+      <c r="OA2" s="74"/>
+      <c r="OB2" s="74"/>
+      <c r="OC2" s="74"/>
+      <c r="OD2" s="74"/>
+      <c r="OE2" s="74"/>
+      <c r="OF2" s="74"/>
+      <c r="OG2" s="74"/>
+      <c r="OH2" s="74"/>
+      <c r="OI2" s="74"/>
+      <c r="OJ2" s="74"/>
+      <c r="OK2" s="74"/>
+      <c r="OL2" s="74"/>
+      <c r="OM2" s="74"/>
+      <c r="ON2" s="74"/>
+      <c r="OO2" s="74"/>
+      <c r="OP2" s="74"/>
+      <c r="OQ2" s="74"/>
+      <c r="OR2" s="74"/>
+      <c r="OS2" s="74"/>
+      <c r="OT2" s="74"/>
+      <c r="OU2" s="74"/>
+      <c r="OV2" s="74"/>
+      <c r="OW2" s="74"/>
+      <c r="OX2" s="74"/>
+      <c r="OY2" s="74"/>
+      <c r="OZ2" s="74"/>
+      <c r="PA2" s="74"/>
+      <c r="PB2" s="74"/>
+      <c r="PC2" s="74"/>
+      <c r="PD2" s="74"/>
+      <c r="PE2" s="74"/>
+      <c r="PF2" s="74"/>
+      <c r="PG2" s="74"/>
+      <c r="PH2" s="74"/>
+      <c r="PI2" s="74"/>
+      <c r="PJ2" s="74"/>
+      <c r="PK2" s="74"/>
+      <c r="PL2" s="74"/>
+      <c r="PM2" s="74"/>
+      <c r="PN2" s="74"/>
+      <c r="PO2" s="74"/>
+      <c r="PP2" s="74"/>
+      <c r="PQ2" s="74"/>
+      <c r="PR2" s="74"/>
+      <c r="PS2" s="74"/>
+      <c r="PT2" s="74"/>
+      <c r="PU2" s="74"/>
+      <c r="PV2" s="74"/>
+      <c r="PW2" s="74"/>
+      <c r="PX2" s="74"/>
+      <c r="PY2" s="74"/>
+      <c r="PZ2" s="74"/>
+      <c r="QA2" s="74"/>
+      <c r="QB2" s="74"/>
+      <c r="QC2" s="74"/>
+      <c r="QD2" s="74"/>
+      <c r="QE2" s="74"/>
+      <c r="QF2" s="74"/>
+      <c r="QG2" s="74"/>
+      <c r="QH2" s="74"/>
+      <c r="QI2" s="74"/>
+      <c r="QJ2" s="74"/>
+      <c r="QK2" s="74"/>
+      <c r="QL2" s="74"/>
+      <c r="QM2" s="74"/>
+      <c r="QN2" s="74"/>
+      <c r="QO2" s="74"/>
+      <c r="QP2" s="74"/>
+      <c r="QQ2" s="74"/>
+      <c r="QR2" s="74"/>
+      <c r="QS2" s="74"/>
+      <c r="QT2" s="74"/>
+      <c r="QU2" s="74"/>
+      <c r="QV2" s="74"/>
+      <c r="QW2" s="74"/>
+      <c r="QX2" s="74"/>
+      <c r="QY2" s="74"/>
+      <c r="QZ2" s="74"/>
+      <c r="RA2" s="74"/>
+      <c r="RB2" s="74"/>
+      <c r="RC2" s="74"/>
+      <c r="RD2" s="74"/>
+      <c r="RE2" s="74"/>
+      <c r="RF2" s="74"/>
+      <c r="RG2" s="74"/>
+      <c r="RH2" s="74"/>
+      <c r="RI2" s="74"/>
+      <c r="RJ2" s="74"/>
+      <c r="RK2" s="74"/>
+      <c r="RL2" s="74"/>
+      <c r="RM2" s="74"/>
+      <c r="RN2" s="74"/>
+      <c r="RO2" s="74"/>
+      <c r="RP2" s="74"/>
+      <c r="RQ2" s="74"/>
+      <c r="RR2" s="74"/>
+      <c r="RS2" s="74"/>
+      <c r="RT2" s="74"/>
+      <c r="RU2" s="74"/>
+      <c r="RV2" s="74"/>
+      <c r="RW2" s="74"/>
+      <c r="RX2" s="74"/>
+      <c r="RY2" s="74"/>
+      <c r="RZ2" s="74"/>
+      <c r="SA2" s="74"/>
+      <c r="SB2" s="74"/>
+      <c r="SC2" s="74"/>
+      <c r="SD2" s="74"/>
+      <c r="SE2" s="74"/>
+      <c r="SF2" s="74"/>
+      <c r="SG2" s="74"/>
+      <c r="SH2" s="74"/>
+      <c r="SI2" s="74"/>
+      <c r="SJ2" s="74"/>
+      <c r="SK2" s="74"/>
+      <c r="SL2" s="74"/>
+      <c r="SM2" s="74"/>
+      <c r="SN2" s="74"/>
+      <c r="SO2" s="74"/>
+      <c r="SP2" s="74"/>
+      <c r="SQ2" s="74"/>
+      <c r="SR2" s="74"/>
+      <c r="SS2" s="74"/>
+      <c r="ST2" s="74"/>
+      <c r="SU2" s="74"/>
+      <c r="SV2" s="74"/>
+      <c r="SW2" s="74"/>
+      <c r="SX2" s="74"/>
+      <c r="SY2" s="74"/>
+      <c r="SZ2" s="74"/>
+      <c r="TA2" s="74"/>
+      <c r="TB2" s="74"/>
+      <c r="TC2" s="74"/>
+      <c r="TD2" s="74"/>
+      <c r="TE2" s="74"/>
+      <c r="TF2" s="74"/>
+      <c r="TG2" s="74"/>
+      <c r="TH2" s="74"/>
+      <c r="TI2" s="74"/>
+      <c r="TJ2" s="74"/>
+      <c r="TK2" s="74"/>
+      <c r="TL2" s="74"/>
+      <c r="TM2" s="74"/>
+      <c r="TN2" s="74"/>
+      <c r="TO2" s="74"/>
+      <c r="TP2" s="74"/>
+      <c r="TQ2" s="74"/>
+      <c r="TR2" s="74"/>
+      <c r="TS2" s="74"/>
+      <c r="TT2" s="74"/>
+      <c r="TU2" s="74"/>
+      <c r="TV2" s="74"/>
+      <c r="TW2" s="74"/>
+      <c r="TX2" s="74"/>
+      <c r="TY2" s="74"/>
+      <c r="TZ2" s="74"/>
+      <c r="UA2" s="74"/>
+      <c r="UB2" s="74"/>
+      <c r="UC2" s="74"/>
+      <c r="UD2" s="74"/>
+      <c r="UE2" s="74"/>
+      <c r="UF2" s="74"/>
+      <c r="UG2" s="74"/>
+      <c r="UH2" s="74"/>
+      <c r="UI2" s="74"/>
+      <c r="UJ2" s="74"/>
+      <c r="UK2" s="74"/>
+      <c r="UL2" s="74"/>
+      <c r="UM2" s="74"/>
+      <c r="UN2" s="74"/>
+      <c r="UO2" s="74"/>
+      <c r="UP2" s="74"/>
+      <c r="UQ2" s="74"/>
+      <c r="UR2" s="74"/>
+      <c r="US2" s="74"/>
+      <c r="UT2" s="74"/>
+      <c r="UU2" s="74"/>
+      <c r="UV2" s="74"/>
+      <c r="UW2" s="74"/>
+      <c r="UX2" s="74"/>
+      <c r="UY2" s="74"/>
+      <c r="UZ2" s="74"/>
+      <c r="VA2" s="74"/>
+      <c r="VB2" s="74"/>
+      <c r="VC2" s="74"/>
+      <c r="VD2" s="74"/>
+      <c r="VE2" s="74"/>
+      <c r="VF2" s="74"/>
+      <c r="VG2" s="74"/>
+      <c r="VH2" s="74"/>
+      <c r="VI2" s="74"/>
+      <c r="VJ2" s="74"/>
+      <c r="VK2" s="74"/>
+      <c r="VL2" s="74"/>
+      <c r="VM2" s="74"/>
+      <c r="VN2" s="74"/>
+      <c r="VO2" s="74"/>
+      <c r="VP2" s="74"/>
+      <c r="VQ2" s="74"/>
+      <c r="VR2" s="74"/>
+      <c r="VS2" s="74"/>
+      <c r="VT2" s="74"/>
+      <c r="VU2" s="74"/>
+      <c r="VV2" s="74"/>
+      <c r="VW2" s="74"/>
+      <c r="VX2" s="74"/>
+      <c r="VY2" s="74"/>
+      <c r="VZ2" s="74"/>
+      <c r="WA2" s="74"/>
+      <c r="WB2" s="74"/>
+      <c r="WC2" s="74"/>
+      <c r="WD2" s="74"/>
+      <c r="WE2" s="74"/>
+      <c r="WF2" s="74"/>
+      <c r="WG2" s="74"/>
+      <c r="WH2" s="74"/>
+      <c r="WI2" s="74"/>
+      <c r="WJ2" s="74"/>
+      <c r="WK2" s="74"/>
+      <c r="WL2" s="74"/>
+      <c r="WM2" s="74"/>
+      <c r="WN2" s="74"/>
+      <c r="WO2" s="74"/>
+      <c r="WP2" s="74"/>
+      <c r="WQ2" s="74"/>
+      <c r="WR2" s="74"/>
+      <c r="WS2" s="74"/>
+      <c r="WT2" s="74"/>
+      <c r="WU2" s="74"/>
+      <c r="WV2" s="74"/>
+      <c r="WW2" s="74"/>
+      <c r="WX2" s="74"/>
+      <c r="WY2" s="74"/>
+      <c r="WZ2" s="74"/>
+      <c r="XA2" s="74"/>
+      <c r="XB2" s="74"/>
+      <c r="XC2" s="74"/>
+      <c r="XD2" s="74"/>
+      <c r="XE2" s="74"/>
+      <c r="XF2" s="74"/>
+      <c r="XG2" s="74"/>
+      <c r="XH2" s="74"/>
+      <c r="XI2" s="74"/>
+      <c r="XJ2" s="74"/>
+      <c r="XK2" s="74"/>
+      <c r="XL2" s="74"/>
+      <c r="XM2" s="74"/>
+      <c r="XN2" s="74"/>
+      <c r="XO2" s="74"/>
+      <c r="XP2" s="74"/>
+      <c r="XQ2" s="74"/>
+      <c r="XR2" s="74"/>
+      <c r="XS2" s="74"/>
+      <c r="XT2" s="74"/>
+      <c r="XU2" s="74"/>
+      <c r="XV2" s="74"/>
+      <c r="XW2" s="74"/>
+      <c r="XX2" s="74"/>
+      <c r="XY2" s="74"/>
+      <c r="XZ2" s="74"/>
+      <c r="YA2" s="74"/>
+      <c r="YB2" s="74"/>
+      <c r="YC2" s="74"/>
+      <c r="YD2" s="74"/>
+      <c r="YE2" s="74"/>
+      <c r="YF2" s="74"/>
+      <c r="YG2" s="74"/>
+      <c r="YH2" s="74"/>
+      <c r="YI2" s="74"/>
+      <c r="YJ2" s="74"/>
+      <c r="YK2" s="74"/>
+      <c r="YL2" s="74"/>
+      <c r="YM2" s="74"/>
+      <c r="YN2" s="74"/>
+      <c r="YO2" s="74"/>
+      <c r="YP2" s="74"/>
+      <c r="YQ2" s="74"/>
+      <c r="YR2" s="74"/>
+      <c r="YS2" s="74"/>
+      <c r="YT2" s="74"/>
+      <c r="YU2" s="74"/>
+      <c r="YV2" s="74"/>
+      <c r="YW2" s="74"/>
+      <c r="YX2" s="74"/>
+      <c r="YY2" s="74"/>
+      <c r="YZ2" s="74"/>
+      <c r="ZA2" s="74"/>
+      <c r="ZB2" s="74"/>
+      <c r="ZC2" s="74"/>
+      <c r="ZD2" s="74"/>
+      <c r="ZE2" s="74"/>
+      <c r="ZF2" s="74"/>
+      <c r="ZG2" s="74"/>
+      <c r="ZH2" s="74"/>
+      <c r="ZI2" s="74"/>
+      <c r="ZJ2" s="74"/>
+      <c r="ZK2" s="74"/>
+      <c r="ZL2" s="74"/>
+      <c r="ZM2" s="74"/>
+      <c r="ZN2" s="74"/>
+      <c r="ZO2" s="74"/>
+      <c r="ZP2" s="74"/>
+      <c r="ZQ2" s="74"/>
+      <c r="ZR2" s="74"/>
+      <c r="ZS2" s="74"/>
+      <c r="ZT2" s="74"/>
+      <c r="ZU2" s="74"/>
+      <c r="ZV2" s="74"/>
+      <c r="ZW2" s="74"/>
+      <c r="ZX2" s="74"/>
+      <c r="ZY2" s="74"/>
+      <c r="ZZ2" s="74"/>
+      <c r="AAA2" s="74"/>
+      <c r="AAB2" s="74"/>
+      <c r="AAC2" s="74"/>
+      <c r="AAD2" s="74"/>
+      <c r="AAE2" s="74"/>
+      <c r="AAF2" s="74"/>
+      <c r="AAG2" s="74"/>
+      <c r="AAH2" s="74"/>
+      <c r="AAI2" s="74"/>
+      <c r="AAJ2" s="74"/>
+      <c r="AAK2" s="74"/>
+      <c r="AAL2" s="74"/>
+      <c r="AAM2" s="74"/>
+      <c r="AAN2" s="74"/>
+      <c r="AAO2" s="74"/>
+      <c r="AAP2" s="74"/>
+      <c r="AAQ2" s="74"/>
+      <c r="AAR2" s="74"/>
+      <c r="AAS2" s="74"/>
+      <c r="AAT2" s="74"/>
+      <c r="AAU2" s="74"/>
+      <c r="AAV2" s="74"/>
+      <c r="AAW2" s="74"/>
+      <c r="AAX2" s="74"/>
+      <c r="AAY2" s="74"/>
+      <c r="AAZ2" s="74"/>
+      <c r="ABA2" s="74"/>
+      <c r="ABB2" s="74"/>
+      <c r="ABC2" s="74"/>
+      <c r="ABD2" s="74"/>
+      <c r="ABE2" s="74"/>
+      <c r="ABF2" s="74"/>
+      <c r="ABG2" s="74"/>
+      <c r="ABH2" s="74"/>
+      <c r="ABI2" s="74"/>
+      <c r="ABJ2" s="74"/>
+      <c r="ABK2" s="74"/>
+      <c r="ABL2" s="74"/>
+      <c r="ABM2" s="74"/>
+      <c r="ABN2" s="74"/>
+      <c r="ABO2" s="74"/>
+      <c r="ABP2" s="74"/>
+      <c r="ABQ2" s="74"/>
+      <c r="ABR2" s="74"/>
+      <c r="ABS2" s="74"/>
+      <c r="ABT2" s="74"/>
+      <c r="ABU2" s="74"/>
+      <c r="ABV2" s="74"/>
+      <c r="ABW2" s="74"/>
+      <c r="ABX2" s="74"/>
+      <c r="ABY2" s="74"/>
+      <c r="ABZ2" s="74"/>
+      <c r="ACA2" s="74"/>
+      <c r="ACB2" s="74"/>
+      <c r="ACC2" s="74"/>
+      <c r="ACD2" s="74"/>
+      <c r="ACE2" s="74"/>
+      <c r="ACF2" s="74"/>
+      <c r="ACG2" s="74"/>
+      <c r="ACH2" s="74"/>
+      <c r="ACI2" s="74"/>
+      <c r="ACJ2" s="74"/>
+      <c r="ACK2" s="74"/>
+      <c r="ACL2" s="74"/>
+      <c r="ACM2" s="74"/>
+      <c r="ACN2" s="74"/>
+      <c r="ACO2" s="74"/>
+      <c r="ACP2" s="74"/>
+      <c r="ACQ2" s="74"/>
+      <c r="ACR2" s="74"/>
+      <c r="ACS2" s="74"/>
+      <c r="ACT2" s="74"/>
+      <c r="ACU2" s="74"/>
+      <c r="ACV2" s="74"/>
+      <c r="ACW2" s="74"/>
+      <c r="ACX2" s="74"/>
+      <c r="ACY2" s="74"/>
+      <c r="ACZ2" s="74"/>
+      <c r="ADA2" s="74"/>
+      <c r="ADB2" s="74"/>
+      <c r="ADC2" s="74"/>
+      <c r="ADD2" s="74"/>
+      <c r="ADE2" s="74"/>
+      <c r="ADF2" s="74"/>
+      <c r="ADG2" s="74"/>
+      <c r="ADH2" s="74"/>
+      <c r="ADI2" s="74"/>
+      <c r="ADJ2" s="74"/>
+      <c r="ADK2" s="74"/>
+      <c r="ADL2" s="74"/>
+      <c r="ADM2" s="74"/>
+      <c r="ADN2" s="74"/>
+      <c r="ADO2" s="74"/>
+      <c r="ADP2" s="74"/>
+      <c r="ADQ2" s="74"/>
+      <c r="ADR2" s="74"/>
+      <c r="ADS2" s="74"/>
+      <c r="ADT2" s="74"/>
+      <c r="ADU2" s="74"/>
+      <c r="ADV2" s="74"/>
+      <c r="ADW2" s="74"/>
+      <c r="ADX2" s="74"/>
+      <c r="ADY2" s="74"/>
+      <c r="ADZ2" s="74"/>
+      <c r="AEA2" s="74"/>
+      <c r="AEB2" s="74"/>
+      <c r="AEC2" s="74"/>
+      <c r="AED2" s="74"/>
+      <c r="AEE2" s="74"/>
+      <c r="AEF2" s="74"/>
+      <c r="AEG2" s="74"/>
+      <c r="AEH2" s="74"/>
+      <c r="AEI2" s="74"/>
+      <c r="AEJ2" s="74"/>
+      <c r="AEK2" s="74"/>
+      <c r="AEL2" s="74"/>
+      <c r="AEM2" s="74"/>
+      <c r="AEN2" s="74"/>
+      <c r="AEO2" s="74"/>
+      <c r="AEP2" s="74"/>
+      <c r="AEQ2" s="74"/>
+      <c r="AER2" s="74"/>
+      <c r="AES2" s="74"/>
+      <c r="AET2" s="74"/>
+      <c r="AEU2" s="74"/>
+      <c r="AEV2" s="74"/>
+      <c r="AEW2" s="74"/>
+      <c r="AEX2" s="74"/>
+      <c r="AEY2" s="74"/>
+      <c r="AEZ2" s="74"/>
+      <c r="AFA2" s="74"/>
+      <c r="AFB2" s="74"/>
+      <c r="AFC2" s="74"/>
+      <c r="AFD2" s="74"/>
+      <c r="AFE2" s="74"/>
+      <c r="AFF2" s="74"/>
+      <c r="AFG2" s="74"/>
+      <c r="AFH2" s="74"/>
+      <c r="AFI2" s="74"/>
+      <c r="AFJ2" s="74"/>
+      <c r="AFK2" s="74"/>
+      <c r="AFL2" s="74"/>
+      <c r="AFM2" s="74"/>
+      <c r="AFN2" s="74"/>
+      <c r="AFO2" s="74"/>
+      <c r="AFP2" s="74"/>
+      <c r="AFQ2" s="74"/>
+      <c r="AFR2" s="74"/>
+      <c r="AFS2" s="74"/>
+      <c r="AFT2" s="74"/>
+      <c r="AFU2" s="74"/>
+      <c r="AFV2" s="74"/>
+      <c r="AFW2" s="74"/>
+      <c r="AFX2" s="74"/>
+      <c r="AFY2" s="74"/>
+      <c r="AFZ2" s="74"/>
+      <c r="AGA2" s="74"/>
+      <c r="AGB2" s="74"/>
+      <c r="AGC2" s="74"/>
+      <c r="AGD2" s="74"/>
+      <c r="AGE2" s="74"/>
+      <c r="AGF2" s="74"/>
+      <c r="AGG2" s="74"/>
+      <c r="AGH2" s="74"/>
+      <c r="AGI2" s="74"/>
+      <c r="AGJ2" s="74"/>
+      <c r="AGK2" s="74"/>
+      <c r="AGL2" s="74"/>
+      <c r="AGM2" s="74"/>
+      <c r="AGN2" s="74"/>
+      <c r="AGO2" s="74"/>
+      <c r="AGP2" s="74"/>
+      <c r="AGQ2" s="74"/>
+      <c r="AGR2" s="74"/>
+      <c r="AGS2" s="74"/>
+      <c r="AGT2" s="74"/>
+      <c r="AGU2" s="74"/>
+      <c r="AGV2" s="74"/>
+      <c r="AGW2" s="74"/>
+      <c r="AGX2" s="74"/>
+      <c r="AGY2" s="74"/>
+      <c r="AGZ2" s="74"/>
+      <c r="AHA2" s="74"/>
+      <c r="AHB2" s="74"/>
+      <c r="AHC2" s="74"/>
+      <c r="AHD2" s="74"/>
+      <c r="AHE2" s="74"/>
+      <c r="AHF2" s="74"/>
+      <c r="AHG2" s="74"/>
+      <c r="AHH2" s="74"/>
+      <c r="AHI2" s="74"/>
+      <c r="AHJ2" s="74"/>
+      <c r="AHK2" s="74"/>
+      <c r="AHL2" s="74"/>
+      <c r="AHM2" s="74"/>
+      <c r="AHN2" s="74"/>
+      <c r="AHO2" s="74"/>
+      <c r="AHP2" s="74"/>
+      <c r="AHQ2" s="74"/>
+      <c r="AHR2" s="74"/>
+      <c r="AHS2" s="74"/>
+      <c r="AHT2" s="74"/>
+      <c r="AHU2" s="74"/>
+      <c r="AHV2" s="74"/>
+      <c r="AHW2" s="74"/>
+      <c r="AHX2" s="74"/>
+      <c r="AHY2" s="74"/>
+      <c r="AHZ2" s="74"/>
+      <c r="AIA2" s="74"/>
+      <c r="AIB2" s="74"/>
+      <c r="AIC2" s="74"/>
+      <c r="AID2" s="74"/>
+      <c r="AIE2" s="74"/>
+      <c r="AIF2" s="74"/>
+      <c r="AIG2" s="74"/>
+      <c r="AIH2" s="74"/>
+      <c r="AII2" s="74"/>
+      <c r="AIJ2" s="74"/>
+      <c r="AIK2" s="74"/>
+      <c r="AIL2" s="74"/>
+      <c r="AIM2" s="74"/>
+      <c r="AIN2" s="74"/>
+      <c r="AIO2" s="74"/>
+      <c r="AIP2" s="74"/>
+      <c r="AIQ2" s="74"/>
+      <c r="AIR2" s="74"/>
+      <c r="AIS2" s="74"/>
+      <c r="AIT2" s="74"/>
+      <c r="AIU2" s="74"/>
+      <c r="AIV2" s="74"/>
+      <c r="AIW2" s="74"/>
+      <c r="AIX2" s="74"/>
+      <c r="AIY2" s="74"/>
+      <c r="AIZ2" s="74"/>
+      <c r="AJA2" s="74"/>
+      <c r="AJB2" s="74"/>
+      <c r="AJC2" s="74"/>
+      <c r="AJD2" s="74"/>
+      <c r="AJE2" s="74"/>
+      <c r="AJF2" s="74"/>
+      <c r="AJG2" s="74"/>
+      <c r="AJH2" s="74"/>
+      <c r="AJI2" s="74"/>
+      <c r="AJJ2" s="74"/>
+      <c r="AJK2" s="74"/>
+      <c r="AJL2" s="74"/>
+      <c r="AJM2" s="74"/>
+      <c r="AJN2" s="74"/>
+      <c r="AJO2" s="74"/>
+      <c r="AJP2" s="74"/>
+      <c r="AJQ2" s="74"/>
+      <c r="AJR2" s="74"/>
+      <c r="AJS2" s="74"/>
+      <c r="AJT2" s="74"/>
+      <c r="AJU2" s="74"/>
+      <c r="AJV2" s="74"/>
+      <c r="AJW2" s="74"/>
+      <c r="AJX2" s="74"/>
+      <c r="AJY2" s="74"/>
+      <c r="AJZ2" s="74"/>
+      <c r="AKA2" s="74"/>
+      <c r="AKB2" s="74"/>
+      <c r="AKC2" s="74"/>
+      <c r="AKD2" s="74"/>
+      <c r="AKE2" s="74"/>
+      <c r="AKF2" s="74"/>
+      <c r="AKG2" s="74"/>
+      <c r="AKH2" s="74"/>
+      <c r="AKI2" s="74"/>
+      <c r="AKJ2" s="74"/>
+      <c r="AKK2" s="74"/>
+      <c r="AKL2" s="74"/>
+      <c r="AKM2" s="74"/>
+      <c r="AKN2" s="74"/>
+      <c r="AKO2" s="74"/>
+      <c r="AKP2" s="74"/>
+      <c r="AKQ2" s="74"/>
+      <c r="AKR2" s="74"/>
+      <c r="AKS2" s="74"/>
+      <c r="AKT2" s="74"/>
+      <c r="AKU2" s="74"/>
+      <c r="AKV2" s="74"/>
+      <c r="AKW2" s="74"/>
+      <c r="AKX2" s="74"/>
+      <c r="AKY2" s="74"/>
+      <c r="AKZ2" s="74"/>
+      <c r="ALA2" s="74"/>
+      <c r="ALB2" s="74"/>
+      <c r="ALC2" s="74"/>
+      <c r="ALD2" s="74"/>
+      <c r="ALE2" s="74"/>
+      <c r="ALF2" s="74"/>
+      <c r="ALG2" s="74"/>
+      <c r="ALH2" s="74"/>
+      <c r="ALI2" s="74"/>
+      <c r="ALJ2" s="74"/>
+      <c r="ALK2" s="74"/>
+      <c r="ALL2" s="74"/>
+      <c r="ALM2" s="74"/>
+      <c r="ALN2" s="74"/>
+      <c r="ALO2" s="74"/>
+      <c r="ALP2" s="74"/>
+      <c r="ALQ2" s="74"/>
+      <c r="ALR2" s="74"/>
+      <c r="ALS2" s="74"/>
+      <c r="ALT2" s="74"/>
+      <c r="ALU2" s="74"/>
+      <c r="ALV2" s="74"/>
+      <c r="ALW2" s="74"/>
+      <c r="ALX2" s="74"/>
+      <c r="ALY2" s="74"/>
+      <c r="ALZ2" s="74"/>
+      <c r="AMA2" s="74"/>
+      <c r="AMB2" s="74"/>
+      <c r="AMC2" s="74"/>
+      <c r="AMD2" s="74"/>
+      <c r="AME2" s="74"/>
+      <c r="AMF2" s="74"/>
+      <c r="AMG2" s="74"/>
+      <c r="AMH2" s="74"/>
+      <c r="AMI2" s="74"/>
+      <c r="AMJ2" s="74"/>
+      <c r="AMK2" s="74"/>
+      <c r="AML2" s="74"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1"/>
@@ -8250,65 +8435,230 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ALP2"/>
+  <dimension ref="A1:ALR12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="42" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="42" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="42" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="63" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="14" style="42" customWidth="1"/>
-    <col min="8" max="1004" width="9.140625" style="1" customWidth="1"/>
-    <col min="1005" max="1006" width="9.140625" style="21" customWidth="1"/>
-    <col min="1007" max="1017" width="9" style="21" customWidth="1"/>
-    <col min="1018" max="16384" width="9" style="21"/>
+    <col min="1" max="3" width="25.7109375" style="42" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="56" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="82" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="25.7109375" style="42" customWidth="1"/>
+    <col min="10" max="1006" width="9.140625" style="1" customWidth="1"/>
+    <col min="1007" max="1008" width="9.140625" style="21" customWidth="1"/>
+    <col min="1009" max="1019" width="9" style="21" customWidth="1"/>
+    <col min="1020" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="41" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:13" s="41" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="145" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="145" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="135" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="H1" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="I1" s="134" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="91" t="s">
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="137"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="137"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="137"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="137"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="137"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="137"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="141"/>
+      <c r="M8" s="141"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="137"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="141"/>
+      <c r="M9" s="141"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="137"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="141"/>
+      <c r="M10" s="141"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="137"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="141"/>
+      <c r="L11" s="141"/>
+      <c r="M11" s="141"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="137"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="141"/>
+      <c r="L12" s="141"/>
+      <c r="M12" s="141"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -8322,92 +8672,1110 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ2"/>
+  <dimension ref="A1:AML2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" style="24" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="24" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" style="24" customWidth="1"/>
-    <col min="7" max="8" width="15.7109375" style="24" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="57" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" style="58" customWidth="1"/>
-    <col min="12" max="12" width="9" style="57" customWidth="1"/>
-    <col min="13" max="1022" width="9.140625" style="58" customWidth="1"/>
-    <col min="1023" max="1025" width="9.140625" style="57" customWidth="1"/>
-    <col min="1026" max="1036" width="9" style="57" customWidth="1"/>
-    <col min="1037" max="16384" width="9" style="57"/>
+    <col min="1" max="3" width="20.7109375" style="154" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="154" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" style="154" customWidth="1"/>
+    <col min="7" max="10" width="15.7109375" style="154" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="146" customWidth="1"/>
+    <col min="12" max="13" width="20.7109375" style="149" customWidth="1"/>
+    <col min="14" max="14" width="9" style="146" customWidth="1"/>
+    <col min="15" max="1024" width="9.140625" style="149" customWidth="1"/>
+    <col min="1025" max="1027" width="9.140625" style="146" customWidth="1"/>
+    <col min="1028" max="1038" width="9" style="146" customWidth="1"/>
+    <col min="1039" max="16384" width="9" style="146"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:1026" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="148" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="148" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="142" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1" s="142" t="s">
+        <v>202</v>
+      </c>
+      <c r="K1" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="L1" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="M1" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="AMI1" s="61"/>
-      <c r="AMJ1" s="61"/>
-    </row>
-    <row r="2" spans="1:1024" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="AMK1" s="150"/>
+      <c r="AML1" s="150"/>
+    </row>
+    <row r="2" spans="1:1026" s="146" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="100" t="s">
+      <c r="C2" s="140"/>
+      <c r="D2" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="100" t="s">
+      <c r="E2" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="100">
+      <c r="G2" s="147">
         <v>652</v>
       </c>
-      <c r="H2" s="100">
+      <c r="H2" s="147">
         <v>1249</v>
       </c>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="AMI2" s="98"/>
-      <c r="AMJ2" s="98"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="149"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="149"/>
+      <c r="AH2" s="149"/>
+      <c r="AI2" s="149"/>
+      <c r="AJ2" s="149"/>
+      <c r="AK2" s="149"/>
+      <c r="AL2" s="149"/>
+      <c r="AM2" s="149"/>
+      <c r="AN2" s="149"/>
+      <c r="AO2" s="149"/>
+      <c r="AP2" s="149"/>
+      <c r="AQ2" s="149"/>
+      <c r="AR2" s="149"/>
+      <c r="AS2" s="149"/>
+      <c r="AT2" s="149"/>
+      <c r="AU2" s="149"/>
+      <c r="AV2" s="149"/>
+      <c r="AW2" s="149"/>
+      <c r="AX2" s="149"/>
+      <c r="AY2" s="149"/>
+      <c r="AZ2" s="149"/>
+      <c r="BA2" s="149"/>
+      <c r="BB2" s="149"/>
+      <c r="BC2" s="149"/>
+      <c r="BD2" s="149"/>
+      <c r="BE2" s="149"/>
+      <c r="BF2" s="149"/>
+      <c r="BG2" s="149"/>
+      <c r="BH2" s="149"/>
+      <c r="BI2" s="149"/>
+      <c r="BJ2" s="149"/>
+      <c r="BK2" s="149"/>
+      <c r="BL2" s="149"/>
+      <c r="BM2" s="149"/>
+      <c r="BN2" s="149"/>
+      <c r="BO2" s="149"/>
+      <c r="BP2" s="149"/>
+      <c r="BQ2" s="149"/>
+      <c r="BR2" s="149"/>
+      <c r="BS2" s="149"/>
+      <c r="BT2" s="149"/>
+      <c r="BU2" s="149"/>
+      <c r="BV2" s="149"/>
+      <c r="BW2" s="149"/>
+      <c r="BX2" s="149"/>
+      <c r="BY2" s="149"/>
+      <c r="BZ2" s="149"/>
+      <c r="CA2" s="149"/>
+      <c r="CB2" s="149"/>
+      <c r="CC2" s="149"/>
+      <c r="CD2" s="149"/>
+      <c r="CE2" s="149"/>
+      <c r="CF2" s="149"/>
+      <c r="CG2" s="149"/>
+      <c r="CH2" s="149"/>
+      <c r="CI2" s="149"/>
+      <c r="CJ2" s="149"/>
+      <c r="CK2" s="149"/>
+      <c r="CL2" s="149"/>
+      <c r="CM2" s="149"/>
+      <c r="CN2" s="149"/>
+      <c r="CO2" s="149"/>
+      <c r="CP2" s="149"/>
+      <c r="CQ2" s="149"/>
+      <c r="CR2" s="149"/>
+      <c r="CS2" s="149"/>
+      <c r="CT2" s="149"/>
+      <c r="CU2" s="149"/>
+      <c r="CV2" s="149"/>
+      <c r="CW2" s="149"/>
+      <c r="CX2" s="149"/>
+      <c r="CY2" s="149"/>
+      <c r="CZ2" s="149"/>
+      <c r="DA2" s="149"/>
+      <c r="DB2" s="149"/>
+      <c r="DC2" s="149"/>
+      <c r="DD2" s="149"/>
+      <c r="DE2" s="149"/>
+      <c r="DF2" s="149"/>
+      <c r="DG2" s="149"/>
+      <c r="DH2" s="149"/>
+      <c r="DI2" s="149"/>
+      <c r="DJ2" s="149"/>
+      <c r="DK2" s="149"/>
+      <c r="DL2" s="149"/>
+      <c r="DM2" s="149"/>
+      <c r="DN2" s="149"/>
+      <c r="DO2" s="149"/>
+      <c r="DP2" s="149"/>
+      <c r="DQ2" s="149"/>
+      <c r="DR2" s="149"/>
+      <c r="DS2" s="149"/>
+      <c r="DT2" s="149"/>
+      <c r="DU2" s="149"/>
+      <c r="DV2" s="149"/>
+      <c r="DW2" s="149"/>
+      <c r="DX2" s="149"/>
+      <c r="DY2" s="149"/>
+      <c r="DZ2" s="149"/>
+      <c r="EA2" s="149"/>
+      <c r="EB2" s="149"/>
+      <c r="EC2" s="149"/>
+      <c r="ED2" s="149"/>
+      <c r="EE2" s="149"/>
+      <c r="EF2" s="149"/>
+      <c r="EG2" s="149"/>
+      <c r="EH2" s="149"/>
+      <c r="EI2" s="149"/>
+      <c r="EJ2" s="149"/>
+      <c r="EK2" s="149"/>
+      <c r="EL2" s="149"/>
+      <c r="EM2" s="149"/>
+      <c r="EN2" s="149"/>
+      <c r="EO2" s="149"/>
+      <c r="EP2" s="149"/>
+      <c r="EQ2" s="149"/>
+      <c r="ER2" s="149"/>
+      <c r="ES2" s="149"/>
+      <c r="ET2" s="149"/>
+      <c r="EU2" s="149"/>
+      <c r="EV2" s="149"/>
+      <c r="EW2" s="149"/>
+      <c r="EX2" s="149"/>
+      <c r="EY2" s="149"/>
+      <c r="EZ2" s="149"/>
+      <c r="FA2" s="149"/>
+      <c r="FB2" s="149"/>
+      <c r="FC2" s="149"/>
+      <c r="FD2" s="149"/>
+      <c r="FE2" s="149"/>
+      <c r="FF2" s="149"/>
+      <c r="FG2" s="149"/>
+      <c r="FH2" s="149"/>
+      <c r="FI2" s="149"/>
+      <c r="FJ2" s="149"/>
+      <c r="FK2" s="149"/>
+      <c r="FL2" s="149"/>
+      <c r="FM2" s="149"/>
+      <c r="FN2" s="149"/>
+      <c r="FO2" s="149"/>
+      <c r="FP2" s="149"/>
+      <c r="FQ2" s="149"/>
+      <c r="FR2" s="149"/>
+      <c r="FS2" s="149"/>
+      <c r="FT2" s="149"/>
+      <c r="FU2" s="149"/>
+      <c r="FV2" s="149"/>
+      <c r="FW2" s="149"/>
+      <c r="FX2" s="149"/>
+      <c r="FY2" s="149"/>
+      <c r="FZ2" s="149"/>
+      <c r="GA2" s="149"/>
+      <c r="GB2" s="149"/>
+      <c r="GC2" s="149"/>
+      <c r="GD2" s="149"/>
+      <c r="GE2" s="149"/>
+      <c r="GF2" s="149"/>
+      <c r="GG2" s="149"/>
+      <c r="GH2" s="149"/>
+      <c r="GI2" s="149"/>
+      <c r="GJ2" s="149"/>
+      <c r="GK2" s="149"/>
+      <c r="GL2" s="149"/>
+      <c r="GM2" s="149"/>
+      <c r="GN2" s="149"/>
+      <c r="GO2" s="149"/>
+      <c r="GP2" s="149"/>
+      <c r="GQ2" s="149"/>
+      <c r="GR2" s="149"/>
+      <c r="GS2" s="149"/>
+      <c r="GT2" s="149"/>
+      <c r="GU2" s="149"/>
+      <c r="GV2" s="149"/>
+      <c r="GW2" s="149"/>
+      <c r="GX2" s="149"/>
+      <c r="GY2" s="149"/>
+      <c r="GZ2" s="149"/>
+      <c r="HA2" s="149"/>
+      <c r="HB2" s="149"/>
+      <c r="HC2" s="149"/>
+      <c r="HD2" s="149"/>
+      <c r="HE2" s="149"/>
+      <c r="HF2" s="149"/>
+      <c r="HG2" s="149"/>
+      <c r="HH2" s="149"/>
+      <c r="HI2" s="149"/>
+      <c r="HJ2" s="149"/>
+      <c r="HK2" s="149"/>
+      <c r="HL2" s="149"/>
+      <c r="HM2" s="149"/>
+      <c r="HN2" s="149"/>
+      <c r="HO2" s="149"/>
+      <c r="HP2" s="149"/>
+      <c r="HQ2" s="149"/>
+      <c r="HR2" s="149"/>
+      <c r="HS2" s="149"/>
+      <c r="HT2" s="149"/>
+      <c r="HU2" s="149"/>
+      <c r="HV2" s="149"/>
+      <c r="HW2" s="149"/>
+      <c r="HX2" s="149"/>
+      <c r="HY2" s="149"/>
+      <c r="HZ2" s="149"/>
+      <c r="IA2" s="149"/>
+      <c r="IB2" s="149"/>
+      <c r="IC2" s="149"/>
+      <c r="ID2" s="149"/>
+      <c r="IE2" s="149"/>
+      <c r="IF2" s="149"/>
+      <c r="IG2" s="149"/>
+      <c r="IH2" s="149"/>
+      <c r="II2" s="149"/>
+      <c r="IJ2" s="149"/>
+      <c r="IK2" s="149"/>
+      <c r="IL2" s="149"/>
+      <c r="IM2" s="149"/>
+      <c r="IN2" s="149"/>
+      <c r="IO2" s="149"/>
+      <c r="IP2" s="149"/>
+      <c r="IQ2" s="149"/>
+      <c r="IR2" s="149"/>
+      <c r="IS2" s="149"/>
+      <c r="IT2" s="149"/>
+      <c r="IU2" s="149"/>
+      <c r="IV2" s="149"/>
+      <c r="IW2" s="149"/>
+      <c r="IX2" s="149"/>
+      <c r="IY2" s="149"/>
+      <c r="IZ2" s="149"/>
+      <c r="JA2" s="149"/>
+      <c r="JB2" s="149"/>
+      <c r="JC2" s="149"/>
+      <c r="JD2" s="149"/>
+      <c r="JE2" s="149"/>
+      <c r="JF2" s="149"/>
+      <c r="JG2" s="149"/>
+      <c r="JH2" s="149"/>
+      <c r="JI2" s="149"/>
+      <c r="JJ2" s="149"/>
+      <c r="JK2" s="149"/>
+      <c r="JL2" s="149"/>
+      <c r="JM2" s="149"/>
+      <c r="JN2" s="149"/>
+      <c r="JO2" s="149"/>
+      <c r="JP2" s="149"/>
+      <c r="JQ2" s="149"/>
+      <c r="JR2" s="149"/>
+      <c r="JS2" s="149"/>
+      <c r="JT2" s="149"/>
+      <c r="JU2" s="149"/>
+      <c r="JV2" s="149"/>
+      <c r="JW2" s="149"/>
+      <c r="JX2" s="149"/>
+      <c r="JY2" s="149"/>
+      <c r="JZ2" s="149"/>
+      <c r="KA2" s="149"/>
+      <c r="KB2" s="149"/>
+      <c r="KC2" s="149"/>
+      <c r="KD2" s="149"/>
+      <c r="KE2" s="149"/>
+      <c r="KF2" s="149"/>
+      <c r="KG2" s="149"/>
+      <c r="KH2" s="149"/>
+      <c r="KI2" s="149"/>
+      <c r="KJ2" s="149"/>
+      <c r="KK2" s="149"/>
+      <c r="KL2" s="149"/>
+      <c r="KM2" s="149"/>
+      <c r="KN2" s="149"/>
+      <c r="KO2" s="149"/>
+      <c r="KP2" s="149"/>
+      <c r="KQ2" s="149"/>
+      <c r="KR2" s="149"/>
+      <c r="KS2" s="149"/>
+      <c r="KT2" s="149"/>
+      <c r="KU2" s="149"/>
+      <c r="KV2" s="149"/>
+      <c r="KW2" s="149"/>
+      <c r="KX2" s="149"/>
+      <c r="KY2" s="149"/>
+      <c r="KZ2" s="149"/>
+      <c r="LA2" s="149"/>
+      <c r="LB2" s="149"/>
+      <c r="LC2" s="149"/>
+      <c r="LD2" s="149"/>
+      <c r="LE2" s="149"/>
+      <c r="LF2" s="149"/>
+      <c r="LG2" s="149"/>
+      <c r="LH2" s="149"/>
+      <c r="LI2" s="149"/>
+      <c r="LJ2" s="149"/>
+      <c r="LK2" s="149"/>
+      <c r="LL2" s="149"/>
+      <c r="LM2" s="149"/>
+      <c r="LN2" s="149"/>
+      <c r="LO2" s="149"/>
+      <c r="LP2" s="149"/>
+      <c r="LQ2" s="149"/>
+      <c r="LR2" s="149"/>
+      <c r="LS2" s="149"/>
+      <c r="LT2" s="149"/>
+      <c r="LU2" s="149"/>
+      <c r="LV2" s="149"/>
+      <c r="LW2" s="149"/>
+      <c r="LX2" s="149"/>
+      <c r="LY2" s="149"/>
+      <c r="LZ2" s="149"/>
+      <c r="MA2" s="149"/>
+      <c r="MB2" s="149"/>
+      <c r="MC2" s="149"/>
+      <c r="MD2" s="149"/>
+      <c r="ME2" s="149"/>
+      <c r="MF2" s="149"/>
+      <c r="MG2" s="149"/>
+      <c r="MH2" s="149"/>
+      <c r="MI2" s="149"/>
+      <c r="MJ2" s="149"/>
+      <c r="MK2" s="149"/>
+      <c r="ML2" s="149"/>
+      <c r="MM2" s="149"/>
+      <c r="MN2" s="149"/>
+      <c r="MO2" s="149"/>
+      <c r="MP2" s="149"/>
+      <c r="MQ2" s="149"/>
+      <c r="MR2" s="149"/>
+      <c r="MS2" s="149"/>
+      <c r="MT2" s="149"/>
+      <c r="MU2" s="149"/>
+      <c r="MV2" s="149"/>
+      <c r="MW2" s="149"/>
+      <c r="MX2" s="149"/>
+      <c r="MY2" s="149"/>
+      <c r="MZ2" s="149"/>
+      <c r="NA2" s="149"/>
+      <c r="NB2" s="149"/>
+      <c r="NC2" s="149"/>
+      <c r="ND2" s="149"/>
+      <c r="NE2" s="149"/>
+      <c r="NF2" s="149"/>
+      <c r="NG2" s="149"/>
+      <c r="NH2" s="149"/>
+      <c r="NI2" s="149"/>
+      <c r="NJ2" s="149"/>
+      <c r="NK2" s="149"/>
+      <c r="NL2" s="149"/>
+      <c r="NM2" s="149"/>
+      <c r="NN2" s="149"/>
+      <c r="NO2" s="149"/>
+      <c r="NP2" s="149"/>
+      <c r="NQ2" s="149"/>
+      <c r="NR2" s="149"/>
+      <c r="NS2" s="149"/>
+      <c r="NT2" s="149"/>
+      <c r="NU2" s="149"/>
+      <c r="NV2" s="149"/>
+      <c r="NW2" s="149"/>
+      <c r="NX2" s="149"/>
+      <c r="NY2" s="149"/>
+      <c r="NZ2" s="149"/>
+      <c r="OA2" s="149"/>
+      <c r="OB2" s="149"/>
+      <c r="OC2" s="149"/>
+      <c r="OD2" s="149"/>
+      <c r="OE2" s="149"/>
+      <c r="OF2" s="149"/>
+      <c r="OG2" s="149"/>
+      <c r="OH2" s="149"/>
+      <c r="OI2" s="149"/>
+      <c r="OJ2" s="149"/>
+      <c r="OK2" s="149"/>
+      <c r="OL2" s="149"/>
+      <c r="OM2" s="149"/>
+      <c r="ON2" s="149"/>
+      <c r="OO2" s="149"/>
+      <c r="OP2" s="149"/>
+      <c r="OQ2" s="149"/>
+      <c r="OR2" s="149"/>
+      <c r="OS2" s="149"/>
+      <c r="OT2" s="149"/>
+      <c r="OU2" s="149"/>
+      <c r="OV2" s="149"/>
+      <c r="OW2" s="149"/>
+      <c r="OX2" s="149"/>
+      <c r="OY2" s="149"/>
+      <c r="OZ2" s="149"/>
+      <c r="PA2" s="149"/>
+      <c r="PB2" s="149"/>
+      <c r="PC2" s="149"/>
+      <c r="PD2" s="149"/>
+      <c r="PE2" s="149"/>
+      <c r="PF2" s="149"/>
+      <c r="PG2" s="149"/>
+      <c r="PH2" s="149"/>
+      <c r="PI2" s="149"/>
+      <c r="PJ2" s="149"/>
+      <c r="PK2" s="149"/>
+      <c r="PL2" s="149"/>
+      <c r="PM2" s="149"/>
+      <c r="PN2" s="149"/>
+      <c r="PO2" s="149"/>
+      <c r="PP2" s="149"/>
+      <c r="PQ2" s="149"/>
+      <c r="PR2" s="149"/>
+      <c r="PS2" s="149"/>
+      <c r="PT2" s="149"/>
+      <c r="PU2" s="149"/>
+      <c r="PV2" s="149"/>
+      <c r="PW2" s="149"/>
+      <c r="PX2" s="149"/>
+      <c r="PY2" s="149"/>
+      <c r="PZ2" s="149"/>
+      <c r="QA2" s="149"/>
+      <c r="QB2" s="149"/>
+      <c r="QC2" s="149"/>
+      <c r="QD2" s="149"/>
+      <c r="QE2" s="149"/>
+      <c r="QF2" s="149"/>
+      <c r="QG2" s="149"/>
+      <c r="QH2" s="149"/>
+      <c r="QI2" s="149"/>
+      <c r="QJ2" s="149"/>
+      <c r="QK2" s="149"/>
+      <c r="QL2" s="149"/>
+      <c r="QM2" s="149"/>
+      <c r="QN2" s="149"/>
+      <c r="QO2" s="149"/>
+      <c r="QP2" s="149"/>
+      <c r="QQ2" s="149"/>
+      <c r="QR2" s="149"/>
+      <c r="QS2" s="149"/>
+      <c r="QT2" s="149"/>
+      <c r="QU2" s="149"/>
+      <c r="QV2" s="149"/>
+      <c r="QW2" s="149"/>
+      <c r="QX2" s="149"/>
+      <c r="QY2" s="149"/>
+      <c r="QZ2" s="149"/>
+      <c r="RA2" s="149"/>
+      <c r="RB2" s="149"/>
+      <c r="RC2" s="149"/>
+      <c r="RD2" s="149"/>
+      <c r="RE2" s="149"/>
+      <c r="RF2" s="149"/>
+      <c r="RG2" s="149"/>
+      <c r="RH2" s="149"/>
+      <c r="RI2" s="149"/>
+      <c r="RJ2" s="149"/>
+      <c r="RK2" s="149"/>
+      <c r="RL2" s="149"/>
+      <c r="RM2" s="149"/>
+      <c r="RN2" s="149"/>
+      <c r="RO2" s="149"/>
+      <c r="RP2" s="149"/>
+      <c r="RQ2" s="149"/>
+      <c r="RR2" s="149"/>
+      <c r="RS2" s="149"/>
+      <c r="RT2" s="149"/>
+      <c r="RU2" s="149"/>
+      <c r="RV2" s="149"/>
+      <c r="RW2" s="149"/>
+      <c r="RX2" s="149"/>
+      <c r="RY2" s="149"/>
+      <c r="RZ2" s="149"/>
+      <c r="SA2" s="149"/>
+      <c r="SB2" s="149"/>
+      <c r="SC2" s="149"/>
+      <c r="SD2" s="149"/>
+      <c r="SE2" s="149"/>
+      <c r="SF2" s="149"/>
+      <c r="SG2" s="149"/>
+      <c r="SH2" s="149"/>
+      <c r="SI2" s="149"/>
+      <c r="SJ2" s="149"/>
+      <c r="SK2" s="149"/>
+      <c r="SL2" s="149"/>
+      <c r="SM2" s="149"/>
+      <c r="SN2" s="149"/>
+      <c r="SO2" s="149"/>
+      <c r="SP2" s="149"/>
+      <c r="SQ2" s="149"/>
+      <c r="SR2" s="149"/>
+      <c r="SS2" s="149"/>
+      <c r="ST2" s="149"/>
+      <c r="SU2" s="149"/>
+      <c r="SV2" s="149"/>
+      <c r="SW2" s="149"/>
+      <c r="SX2" s="149"/>
+      <c r="SY2" s="149"/>
+      <c r="SZ2" s="149"/>
+      <c r="TA2" s="149"/>
+      <c r="TB2" s="149"/>
+      <c r="TC2" s="149"/>
+      <c r="TD2" s="149"/>
+      <c r="TE2" s="149"/>
+      <c r="TF2" s="149"/>
+      <c r="TG2" s="149"/>
+      <c r="TH2" s="149"/>
+      <c r="TI2" s="149"/>
+      <c r="TJ2" s="149"/>
+      <c r="TK2" s="149"/>
+      <c r="TL2" s="149"/>
+      <c r="TM2" s="149"/>
+      <c r="TN2" s="149"/>
+      <c r="TO2" s="149"/>
+      <c r="TP2" s="149"/>
+      <c r="TQ2" s="149"/>
+      <c r="TR2" s="149"/>
+      <c r="TS2" s="149"/>
+      <c r="TT2" s="149"/>
+      <c r="TU2" s="149"/>
+      <c r="TV2" s="149"/>
+      <c r="TW2" s="149"/>
+      <c r="TX2" s="149"/>
+      <c r="TY2" s="149"/>
+      <c r="TZ2" s="149"/>
+      <c r="UA2" s="149"/>
+      <c r="UB2" s="149"/>
+      <c r="UC2" s="149"/>
+      <c r="UD2" s="149"/>
+      <c r="UE2" s="149"/>
+      <c r="UF2" s="149"/>
+      <c r="UG2" s="149"/>
+      <c r="UH2" s="149"/>
+      <c r="UI2" s="149"/>
+      <c r="UJ2" s="149"/>
+      <c r="UK2" s="149"/>
+      <c r="UL2" s="149"/>
+      <c r="UM2" s="149"/>
+      <c r="UN2" s="149"/>
+      <c r="UO2" s="149"/>
+      <c r="UP2" s="149"/>
+      <c r="UQ2" s="149"/>
+      <c r="UR2" s="149"/>
+      <c r="US2" s="149"/>
+      <c r="UT2" s="149"/>
+      <c r="UU2" s="149"/>
+      <c r="UV2" s="149"/>
+      <c r="UW2" s="149"/>
+      <c r="UX2" s="149"/>
+      <c r="UY2" s="149"/>
+      <c r="UZ2" s="149"/>
+      <c r="VA2" s="149"/>
+      <c r="VB2" s="149"/>
+      <c r="VC2" s="149"/>
+      <c r="VD2" s="149"/>
+      <c r="VE2" s="149"/>
+      <c r="VF2" s="149"/>
+      <c r="VG2" s="149"/>
+      <c r="VH2" s="149"/>
+      <c r="VI2" s="149"/>
+      <c r="VJ2" s="149"/>
+      <c r="VK2" s="149"/>
+      <c r="VL2" s="149"/>
+      <c r="VM2" s="149"/>
+      <c r="VN2" s="149"/>
+      <c r="VO2" s="149"/>
+      <c r="VP2" s="149"/>
+      <c r="VQ2" s="149"/>
+      <c r="VR2" s="149"/>
+      <c r="VS2" s="149"/>
+      <c r="VT2" s="149"/>
+      <c r="VU2" s="149"/>
+      <c r="VV2" s="149"/>
+      <c r="VW2" s="149"/>
+      <c r="VX2" s="149"/>
+      <c r="VY2" s="149"/>
+      <c r="VZ2" s="149"/>
+      <c r="WA2" s="149"/>
+      <c r="WB2" s="149"/>
+      <c r="WC2" s="149"/>
+      <c r="WD2" s="149"/>
+      <c r="WE2" s="149"/>
+      <c r="WF2" s="149"/>
+      <c r="WG2" s="149"/>
+      <c r="WH2" s="149"/>
+      <c r="WI2" s="149"/>
+      <c r="WJ2" s="149"/>
+      <c r="WK2" s="149"/>
+      <c r="WL2" s="149"/>
+      <c r="WM2" s="149"/>
+      <c r="WN2" s="149"/>
+      <c r="WO2" s="149"/>
+      <c r="WP2" s="149"/>
+      <c r="WQ2" s="149"/>
+      <c r="WR2" s="149"/>
+      <c r="WS2" s="149"/>
+      <c r="WT2" s="149"/>
+      <c r="WU2" s="149"/>
+      <c r="WV2" s="149"/>
+      <c r="WW2" s="149"/>
+      <c r="WX2" s="149"/>
+      <c r="WY2" s="149"/>
+      <c r="WZ2" s="149"/>
+      <c r="XA2" s="149"/>
+      <c r="XB2" s="149"/>
+      <c r="XC2" s="149"/>
+      <c r="XD2" s="149"/>
+      <c r="XE2" s="149"/>
+      <c r="XF2" s="149"/>
+      <c r="XG2" s="149"/>
+      <c r="XH2" s="149"/>
+      <c r="XI2" s="149"/>
+      <c r="XJ2" s="149"/>
+      <c r="XK2" s="149"/>
+      <c r="XL2" s="149"/>
+      <c r="XM2" s="149"/>
+      <c r="XN2" s="149"/>
+      <c r="XO2" s="149"/>
+      <c r="XP2" s="149"/>
+      <c r="XQ2" s="149"/>
+      <c r="XR2" s="149"/>
+      <c r="XS2" s="149"/>
+      <c r="XT2" s="149"/>
+      <c r="XU2" s="149"/>
+      <c r="XV2" s="149"/>
+      <c r="XW2" s="149"/>
+      <c r="XX2" s="149"/>
+      <c r="XY2" s="149"/>
+      <c r="XZ2" s="149"/>
+      <c r="YA2" s="149"/>
+      <c r="YB2" s="149"/>
+      <c r="YC2" s="149"/>
+      <c r="YD2" s="149"/>
+      <c r="YE2" s="149"/>
+      <c r="YF2" s="149"/>
+      <c r="YG2" s="149"/>
+      <c r="YH2" s="149"/>
+      <c r="YI2" s="149"/>
+      <c r="YJ2" s="149"/>
+      <c r="YK2" s="149"/>
+      <c r="YL2" s="149"/>
+      <c r="YM2" s="149"/>
+      <c r="YN2" s="149"/>
+      <c r="YO2" s="149"/>
+      <c r="YP2" s="149"/>
+      <c r="YQ2" s="149"/>
+      <c r="YR2" s="149"/>
+      <c r="YS2" s="149"/>
+      <c r="YT2" s="149"/>
+      <c r="YU2" s="149"/>
+      <c r="YV2" s="149"/>
+      <c r="YW2" s="149"/>
+      <c r="YX2" s="149"/>
+      <c r="YY2" s="149"/>
+      <c r="YZ2" s="149"/>
+      <c r="ZA2" s="149"/>
+      <c r="ZB2" s="149"/>
+      <c r="ZC2" s="149"/>
+      <c r="ZD2" s="149"/>
+      <c r="ZE2" s="149"/>
+      <c r="ZF2" s="149"/>
+      <c r="ZG2" s="149"/>
+      <c r="ZH2" s="149"/>
+      <c r="ZI2" s="149"/>
+      <c r="ZJ2" s="149"/>
+      <c r="ZK2" s="149"/>
+      <c r="ZL2" s="149"/>
+      <c r="ZM2" s="149"/>
+      <c r="ZN2" s="149"/>
+      <c r="ZO2" s="149"/>
+      <c r="ZP2" s="149"/>
+      <c r="ZQ2" s="149"/>
+      <c r="ZR2" s="149"/>
+      <c r="ZS2" s="149"/>
+      <c r="ZT2" s="149"/>
+      <c r="ZU2" s="149"/>
+      <c r="ZV2" s="149"/>
+      <c r="ZW2" s="149"/>
+      <c r="ZX2" s="149"/>
+      <c r="ZY2" s="149"/>
+      <c r="ZZ2" s="149"/>
+      <c r="AAA2" s="149"/>
+      <c r="AAB2" s="149"/>
+      <c r="AAC2" s="149"/>
+      <c r="AAD2" s="149"/>
+      <c r="AAE2" s="149"/>
+      <c r="AAF2" s="149"/>
+      <c r="AAG2" s="149"/>
+      <c r="AAH2" s="149"/>
+      <c r="AAI2" s="149"/>
+      <c r="AAJ2" s="149"/>
+      <c r="AAK2" s="149"/>
+      <c r="AAL2" s="149"/>
+      <c r="AAM2" s="149"/>
+      <c r="AAN2" s="149"/>
+      <c r="AAO2" s="149"/>
+      <c r="AAP2" s="149"/>
+      <c r="AAQ2" s="149"/>
+      <c r="AAR2" s="149"/>
+      <c r="AAS2" s="149"/>
+      <c r="AAT2" s="149"/>
+      <c r="AAU2" s="149"/>
+      <c r="AAV2" s="149"/>
+      <c r="AAW2" s="149"/>
+      <c r="AAX2" s="149"/>
+      <c r="AAY2" s="149"/>
+      <c r="AAZ2" s="149"/>
+      <c r="ABA2" s="149"/>
+      <c r="ABB2" s="149"/>
+      <c r="ABC2" s="149"/>
+      <c r="ABD2" s="149"/>
+      <c r="ABE2" s="149"/>
+      <c r="ABF2" s="149"/>
+      <c r="ABG2" s="149"/>
+      <c r="ABH2" s="149"/>
+      <c r="ABI2" s="149"/>
+      <c r="ABJ2" s="149"/>
+      <c r="ABK2" s="149"/>
+      <c r="ABL2" s="149"/>
+      <c r="ABM2" s="149"/>
+      <c r="ABN2" s="149"/>
+      <c r="ABO2" s="149"/>
+      <c r="ABP2" s="149"/>
+      <c r="ABQ2" s="149"/>
+      <c r="ABR2" s="149"/>
+      <c r="ABS2" s="149"/>
+      <c r="ABT2" s="149"/>
+      <c r="ABU2" s="149"/>
+      <c r="ABV2" s="149"/>
+      <c r="ABW2" s="149"/>
+      <c r="ABX2" s="149"/>
+      <c r="ABY2" s="149"/>
+      <c r="ABZ2" s="149"/>
+      <c r="ACA2" s="149"/>
+      <c r="ACB2" s="149"/>
+      <c r="ACC2" s="149"/>
+      <c r="ACD2" s="149"/>
+      <c r="ACE2" s="149"/>
+      <c r="ACF2" s="149"/>
+      <c r="ACG2" s="149"/>
+      <c r="ACH2" s="149"/>
+      <c r="ACI2" s="149"/>
+      <c r="ACJ2" s="149"/>
+      <c r="ACK2" s="149"/>
+      <c r="ACL2" s="149"/>
+      <c r="ACM2" s="149"/>
+      <c r="ACN2" s="149"/>
+      <c r="ACO2" s="149"/>
+      <c r="ACP2" s="149"/>
+      <c r="ACQ2" s="149"/>
+      <c r="ACR2" s="149"/>
+      <c r="ACS2" s="149"/>
+      <c r="ACT2" s="149"/>
+      <c r="ACU2" s="149"/>
+      <c r="ACV2" s="149"/>
+      <c r="ACW2" s="149"/>
+      <c r="ACX2" s="149"/>
+      <c r="ACY2" s="149"/>
+      <c r="ACZ2" s="149"/>
+      <c r="ADA2" s="149"/>
+      <c r="ADB2" s="149"/>
+      <c r="ADC2" s="149"/>
+      <c r="ADD2" s="149"/>
+      <c r="ADE2" s="149"/>
+      <c r="ADF2" s="149"/>
+      <c r="ADG2" s="149"/>
+      <c r="ADH2" s="149"/>
+      <c r="ADI2" s="149"/>
+      <c r="ADJ2" s="149"/>
+      <c r="ADK2" s="149"/>
+      <c r="ADL2" s="149"/>
+      <c r="ADM2" s="149"/>
+      <c r="ADN2" s="149"/>
+      <c r="ADO2" s="149"/>
+      <c r="ADP2" s="149"/>
+      <c r="ADQ2" s="149"/>
+      <c r="ADR2" s="149"/>
+      <c r="ADS2" s="149"/>
+      <c r="ADT2" s="149"/>
+      <c r="ADU2" s="149"/>
+      <c r="ADV2" s="149"/>
+      <c r="ADW2" s="149"/>
+      <c r="ADX2" s="149"/>
+      <c r="ADY2" s="149"/>
+      <c r="ADZ2" s="149"/>
+      <c r="AEA2" s="149"/>
+      <c r="AEB2" s="149"/>
+      <c r="AEC2" s="149"/>
+      <c r="AED2" s="149"/>
+      <c r="AEE2" s="149"/>
+      <c r="AEF2" s="149"/>
+      <c r="AEG2" s="149"/>
+      <c r="AEH2" s="149"/>
+      <c r="AEI2" s="149"/>
+      <c r="AEJ2" s="149"/>
+      <c r="AEK2" s="149"/>
+      <c r="AEL2" s="149"/>
+      <c r="AEM2" s="149"/>
+      <c r="AEN2" s="149"/>
+      <c r="AEO2" s="149"/>
+      <c r="AEP2" s="149"/>
+      <c r="AEQ2" s="149"/>
+      <c r="AER2" s="149"/>
+      <c r="AES2" s="149"/>
+      <c r="AET2" s="149"/>
+      <c r="AEU2" s="149"/>
+      <c r="AEV2" s="149"/>
+      <c r="AEW2" s="149"/>
+      <c r="AEX2" s="149"/>
+      <c r="AEY2" s="149"/>
+      <c r="AEZ2" s="149"/>
+      <c r="AFA2" s="149"/>
+      <c r="AFB2" s="149"/>
+      <c r="AFC2" s="149"/>
+      <c r="AFD2" s="149"/>
+      <c r="AFE2" s="149"/>
+      <c r="AFF2" s="149"/>
+      <c r="AFG2" s="149"/>
+      <c r="AFH2" s="149"/>
+      <c r="AFI2" s="149"/>
+      <c r="AFJ2" s="149"/>
+      <c r="AFK2" s="149"/>
+      <c r="AFL2" s="149"/>
+      <c r="AFM2" s="149"/>
+      <c r="AFN2" s="149"/>
+      <c r="AFO2" s="149"/>
+      <c r="AFP2" s="149"/>
+      <c r="AFQ2" s="149"/>
+      <c r="AFR2" s="149"/>
+      <c r="AFS2" s="149"/>
+      <c r="AFT2" s="149"/>
+      <c r="AFU2" s="149"/>
+      <c r="AFV2" s="149"/>
+      <c r="AFW2" s="149"/>
+      <c r="AFX2" s="149"/>
+      <c r="AFY2" s="149"/>
+      <c r="AFZ2" s="149"/>
+      <c r="AGA2" s="149"/>
+      <c r="AGB2" s="149"/>
+      <c r="AGC2" s="149"/>
+      <c r="AGD2" s="149"/>
+      <c r="AGE2" s="149"/>
+      <c r="AGF2" s="149"/>
+      <c r="AGG2" s="149"/>
+      <c r="AGH2" s="149"/>
+      <c r="AGI2" s="149"/>
+      <c r="AGJ2" s="149"/>
+      <c r="AGK2" s="149"/>
+      <c r="AGL2" s="149"/>
+      <c r="AGM2" s="149"/>
+      <c r="AGN2" s="149"/>
+      <c r="AGO2" s="149"/>
+      <c r="AGP2" s="149"/>
+      <c r="AGQ2" s="149"/>
+      <c r="AGR2" s="149"/>
+      <c r="AGS2" s="149"/>
+      <c r="AGT2" s="149"/>
+      <c r="AGU2" s="149"/>
+      <c r="AGV2" s="149"/>
+      <c r="AGW2" s="149"/>
+      <c r="AGX2" s="149"/>
+      <c r="AGY2" s="149"/>
+      <c r="AGZ2" s="149"/>
+      <c r="AHA2" s="149"/>
+      <c r="AHB2" s="149"/>
+      <c r="AHC2" s="149"/>
+      <c r="AHD2" s="149"/>
+      <c r="AHE2" s="149"/>
+      <c r="AHF2" s="149"/>
+      <c r="AHG2" s="149"/>
+      <c r="AHH2" s="149"/>
+      <c r="AHI2" s="149"/>
+      <c r="AHJ2" s="149"/>
+      <c r="AHK2" s="149"/>
+      <c r="AHL2" s="149"/>
+      <c r="AHM2" s="149"/>
+      <c r="AHN2" s="149"/>
+      <c r="AHO2" s="149"/>
+      <c r="AHP2" s="149"/>
+      <c r="AHQ2" s="149"/>
+      <c r="AHR2" s="149"/>
+      <c r="AHS2" s="149"/>
+      <c r="AHT2" s="149"/>
+      <c r="AHU2" s="149"/>
+      <c r="AHV2" s="149"/>
+      <c r="AHW2" s="149"/>
+      <c r="AHX2" s="149"/>
+      <c r="AHY2" s="149"/>
+      <c r="AHZ2" s="149"/>
+      <c r="AIA2" s="149"/>
+      <c r="AIB2" s="149"/>
+      <c r="AIC2" s="149"/>
+      <c r="AID2" s="149"/>
+      <c r="AIE2" s="149"/>
+      <c r="AIF2" s="149"/>
+      <c r="AIG2" s="149"/>
+      <c r="AIH2" s="149"/>
+      <c r="AII2" s="149"/>
+      <c r="AIJ2" s="149"/>
+      <c r="AIK2" s="149"/>
+      <c r="AIL2" s="149"/>
+      <c r="AIM2" s="149"/>
+      <c r="AIN2" s="149"/>
+      <c r="AIO2" s="149"/>
+      <c r="AIP2" s="149"/>
+      <c r="AIQ2" s="149"/>
+      <c r="AIR2" s="149"/>
+      <c r="AIS2" s="149"/>
+      <c r="AIT2" s="149"/>
+      <c r="AIU2" s="149"/>
+      <c r="AIV2" s="149"/>
+      <c r="AIW2" s="149"/>
+      <c r="AIX2" s="149"/>
+      <c r="AIY2" s="149"/>
+      <c r="AIZ2" s="149"/>
+      <c r="AJA2" s="149"/>
+      <c r="AJB2" s="149"/>
+      <c r="AJC2" s="149"/>
+      <c r="AJD2" s="149"/>
+      <c r="AJE2" s="149"/>
+      <c r="AJF2" s="149"/>
+      <c r="AJG2" s="149"/>
+      <c r="AJH2" s="149"/>
+      <c r="AJI2" s="149"/>
+      <c r="AJJ2" s="149"/>
+      <c r="AJK2" s="149"/>
+      <c r="AJL2" s="149"/>
+      <c r="AJM2" s="149"/>
+      <c r="AJN2" s="149"/>
+      <c r="AJO2" s="149"/>
+      <c r="AJP2" s="149"/>
+      <c r="AJQ2" s="149"/>
+      <c r="AJR2" s="149"/>
+      <c r="AJS2" s="149"/>
+      <c r="AJT2" s="149"/>
+      <c r="AJU2" s="149"/>
+      <c r="AJV2" s="149"/>
+      <c r="AJW2" s="149"/>
+      <c r="AJX2" s="149"/>
+      <c r="AJY2" s="149"/>
+      <c r="AJZ2" s="149"/>
+      <c r="AKA2" s="149"/>
+      <c r="AKB2" s="149"/>
+      <c r="AKC2" s="149"/>
+      <c r="AKD2" s="149"/>
+      <c r="AKE2" s="149"/>
+      <c r="AKF2" s="149"/>
+      <c r="AKG2" s="149"/>
+      <c r="AKH2" s="149"/>
+      <c r="AKI2" s="149"/>
+      <c r="AKJ2" s="149"/>
+      <c r="AKK2" s="149"/>
+      <c r="AKL2" s="149"/>
+      <c r="AKM2" s="149"/>
+      <c r="AKN2" s="149"/>
+      <c r="AKO2" s="149"/>
+      <c r="AKP2" s="149"/>
+      <c r="AKQ2" s="149"/>
+      <c r="AKR2" s="149"/>
+      <c r="AKS2" s="149"/>
+      <c r="AKT2" s="149"/>
+      <c r="AKU2" s="149"/>
+      <c r="AKV2" s="149"/>
+      <c r="AKW2" s="149"/>
+      <c r="AKX2" s="149"/>
+      <c r="AKY2" s="149"/>
+      <c r="AKZ2" s="149"/>
+      <c r="ALA2" s="149"/>
+      <c r="ALB2" s="149"/>
+      <c r="ALC2" s="149"/>
+      <c r="ALD2" s="149"/>
+      <c r="ALE2" s="149"/>
+      <c r="ALF2" s="149"/>
+      <c r="ALG2" s="149"/>
+      <c r="ALH2" s="149"/>
+      <c r="ALI2" s="149"/>
+      <c r="ALJ2" s="149"/>
+      <c r="ALK2" s="149"/>
+      <c r="ALL2" s="149"/>
+      <c r="ALM2" s="149"/>
+      <c r="ALN2" s="149"/>
+      <c r="ALO2" s="149"/>
+      <c r="ALP2" s="149"/>
+      <c r="ALQ2" s="149"/>
+      <c r="ALR2" s="149"/>
+      <c r="ALS2" s="149"/>
+      <c r="ALT2" s="149"/>
+      <c r="ALU2" s="149"/>
+      <c r="ALV2" s="149"/>
+      <c r="ALW2" s="149"/>
+      <c r="ALX2" s="149"/>
+      <c r="ALY2" s="149"/>
+      <c r="ALZ2" s="149"/>
+      <c r="AMA2" s="149"/>
+      <c r="AMB2" s="149"/>
+      <c r="AMC2" s="149"/>
+      <c r="AMD2" s="149"/>
+      <c r="AME2" s="149"/>
+      <c r="AMF2" s="149"/>
+      <c r="AMG2" s="149"/>
+      <c r="AMH2" s="149"/>
+      <c r="AMI2" s="149"/>
+      <c r="AMJ2" s="149"/>
+      <c r="AMK2" s="140"/>
+      <c r="AML2" s="140"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1"/>

--- a/tests/fixtures/prokaryote_core.xlsx
+++ b/tests/fixtures/prokaryote_core.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-255" yWindow="105" windowWidth="23250" windowHeight="11970" tabRatio="1000" activeTab="9"/>
+    <workbookView xWindow="-255" yWindow="105" windowWidth="23250" windowHeight="11970" tabRatio="1000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -31,31 +31,31 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cell!$A$1:$B$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Chromosome features'!$G$1:$G$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Complexes!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Complexes!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Genes!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KB!$A$1:$B$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Proteins!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Proteins!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Reactions!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">RNAs!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Transcription units'!$A$1:$K$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="10">Complexes!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="10">Complexes!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="6">Genes!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">KB!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Proteins!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="9">Proteins!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="14">Reactions!$A$1:$O$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="8">RNAs!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="5">'Transcription units'!$A$1:$M$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="10">Complexes!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="10">Complexes!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="6">Genes!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Proteins!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="9">Proteins!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="14">Reactions!$A$1:$O$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="8">RNAs!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="5">'Transcription units'!$A$1:$M$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">Complexes!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">Complexes!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="6">Genes!$N$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="14">Reactions!$A$1:$O$1</definedName>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="202">
   <si>
     <t>Id</t>
   </si>
@@ -695,12 +695,6 @@
   </si>
   <si>
     <t>Enzymes</t>
-  </si>
-  <si>
-    <t>Concentration</t>
-  </si>
-  <si>
-    <t>Species properties</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1043,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1254,9 +1248,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1370,12 +1361,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1393,12 +1378,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1889,10 +1868,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI2"/>
+  <dimension ref="A1:AMG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1901,79 +1880,70 @@
     <col min="2" max="2" width="30.7109375" style="55" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="55" customWidth="1"/>
     <col min="4" max="5" width="15.7109375" style="3" customWidth="1"/>
-    <col min="6" max="7" width="15.7109375" style="153" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="55" customWidth="1"/>
-    <col min="9" max="9" width="64.85546875" style="57" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" style="55" customWidth="1"/>
-    <col min="12" max="1022" width="58.5703125" style="55" customWidth="1"/>
-    <col min="1023" max="1026" width="58.5703125" style="57" customWidth="1"/>
-    <col min="1027" max="16384" width="58.5703125" style="57"/>
+    <col min="6" max="6" width="20.7109375" style="55" customWidth="1"/>
+    <col min="7" max="7" width="64.85546875" style="57" customWidth="1"/>
+    <col min="8" max="9" width="20.7109375" style="55" customWidth="1"/>
+    <col min="10" max="1020" width="58.5703125" style="55" customWidth="1"/>
+    <col min="1021" max="1024" width="58.5703125" style="57" customWidth="1"/>
+    <col min="1025" max="16384" width="58.5703125" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023" s="156" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
+    <row r="1" spans="1:1021" s="151" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="156" t="s">
+      <c r="C1" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="156" t="s">
+      <c r="D1" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="156" t="s">
+      <c r="E1" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="156" t="s">
-        <v>203</v>
-      </c>
-      <c r="G1" s="156" t="s">
-        <v>202</v>
-      </c>
-      <c r="H1" s="156" t="s">
+      <c r="F1" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="156" t="s">
+      <c r="G1" s="151" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="156" t="s">
+      <c r="H1" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="156" t="s">
+      <c r="I1" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="AMI1" s="155"/>
-    </row>
-    <row r="2" spans="1:1023" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="AMG1" s="150"/>
+    </row>
+    <row r="2" spans="1:1021" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="96" t="s">
+      <c r="C2" s="94"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="97" t="s">
+      <c r="F2" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="102" t="s">
+      <c r="G2" s="101" t="s">
         <v>183</v>
       </c>
-      <c r="J2" s="100" t="s">
+      <c r="H2" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="101"/>
-      <c r="AMI2" s="95"/>
+      <c r="I2" s="100"/>
+      <c r="AMG2" s="94"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:G1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
@@ -1985,10 +1955,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI1"/>
+  <dimension ref="A1:AMG1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1999,16 +1969,15 @@
     <col min="4" max="4" width="25.7109375" style="45" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" style="47" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" style="46" customWidth="1"/>
-    <col min="7" max="8" width="25.7109375" style="144" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="48" customWidth="1"/>
-    <col min="10" max="11" width="25.7109375" style="55" customWidth="1"/>
-    <col min="12" max="12" width="33.5703125" style="48" customWidth="1"/>
-    <col min="13" max="1021" width="33.5703125" style="55" customWidth="1"/>
-    <col min="1022" max="1026" width="33.5703125" style="48" customWidth="1"/>
-    <col min="1027" max="16384" width="33.5703125" style="48"/>
+    <col min="7" max="7" width="25.7109375" style="48" customWidth="1"/>
+    <col min="8" max="9" width="25.7109375" style="55" customWidth="1"/>
+    <col min="10" max="10" width="33.5703125" style="48" customWidth="1"/>
+    <col min="11" max="1019" width="33.5703125" style="55" customWidth="1"/>
+    <col min="1020" max="1024" width="33.5703125" style="48" customWidth="1"/>
+    <col min="1025" max="16384" width="33.5703125" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1021" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
         <v>77</v>
       </c>
@@ -2027,26 +1996,20 @@
       <c r="F1" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="152" t="s">
-        <v>203</v>
-      </c>
-      <c r="H1" s="152" t="s">
-        <v>202</v>
-      </c>
-      <c r="I1" s="52" t="s">
+      <c r="G1" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="H1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="I1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="AMH1" s="54"/>
-      <c r="AMI1" s="54"/>
+      <c r="AMF1" s="54"/>
+      <c r="AMG1" s="54"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:G1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -2065,7 +2028,7 @@
     <col min="1" max="1" width="20.7109375" style="55" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="55" customWidth="1"/>
     <col min="3" max="4" width="15.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" style="121" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" style="120" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="55" customWidth="1"/>
     <col min="7" max="9" width="20.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" style="55" customWidth="1"/>
@@ -2106,90 +2069,90 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="120" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="121" t="s">
+      <c r="E2" s="120" t="s">
         <v>198</v>
       </c>
-      <c r="F2" s="106" t="s">
+      <c r="F2" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="J2" s="106"/>
+      <c r="J2" s="105"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="120" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="106">
+      <c r="D3" s="105">
         <v>4.8828698208797903</v>
       </c>
-      <c r="E3" s="121" t="s">
+      <c r="E3" s="120" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="106" t="s">
+      <c r="F3" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="106" t="s">
+      <c r="G3" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="106"/>
+      <c r="J3" s="105"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="120" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="106">
+      <c r="D4" s="105">
         <v>992.98255190377824</v>
       </c>
-      <c r="E4" s="121" t="s">
+      <c r="E4" s="120" t="s">
         <v>197</v>
       </c>
-      <c r="F4" s="106" t="s">
+      <c r="F4" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="106"/>
+      <c r="J4" s="105"/>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D15" s="86"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="87"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="86"/>
     </row>
     <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="89"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="88"/>
+      <c r="B16" s="88"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="87"/>
     </row>
     <row r="17" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="106"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="105"/>
+      <c r="B17" s="105"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="104"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2202,7 +2165,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2242,58 +2205,58 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="83">
+      <c r="C2" s="82">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="82" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="92">
+      <c r="C3" s="91">
         <v>2.2584973866611409E-2</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="92" t="s">
+      <c r="E3" s="91" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="109">
+      <c r="C4" s="108">
         <v>489.45</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="109" t="s">
+      <c r="E4" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2418,37 +2381,37 @@
       <c r="AMN1" s="37"/>
     </row>
     <row r="2" spans="1:14 1028:1028" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102" t="s">
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102" t="b">
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101" t="b">
         <v>0</v>
       </c>
-      <c r="I2" s="102" t="b">
+      <c r="I2" s="101" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="102" t="s">
+      <c r="J2" s="101" t="s">
         <v>102</v>
       </c>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102" t="s">
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="102" t="s">
+      <c r="N2" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="AMN2" s="112"/>
+      <c r="AMN2" s="111"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1"/>
@@ -2565,17 +2528,17 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114">
+      <c r="C2" s="113"/>
+      <c r="D2" s="113">
         <v>2</v>
       </c>
-      <c r="E2" s="114" t="s">
+      <c r="E2" s="113" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2660,190 +2623,190 @@
       <c r="J2" s="80"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="85">
+      <c r="E3" s="84">
         <v>992.98255190377802</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="91" t="s">
+      <c r="D4" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="91">
+      <c r="E4" s="90">
         <v>489.45</v>
       </c>
-      <c r="F4" s="91" t="s">
+      <c r="F4" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="91" t="s">
+      <c r="G4" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="94" t="s">
+      <c r="D5" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="94">
+      <c r="E5" s="93">
         <v>5.5313109099319684</v>
       </c>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="94" t="s">
+      <c r="G5" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="104" t="s">
+      <c r="D6" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="104" t="b">
+      <c r="E6" s="103" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="104" t="s">
+      <c r="F6" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="G6" s="104" t="s">
+      <c r="G6" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="104">
+      <c r="E7" s="103">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="F7" s="104" t="s">
+      <c r="F7" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="104" t="s">
+      <c r="G7" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103" t="s">
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="108" t="s">
+      <c r="D8" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="108">
+      <c r="E8" s="107">
         <v>4.8828698208797903</v>
       </c>
-      <c r="F8" s="108" t="s">
+      <c r="F8" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="108" t="s">
+      <c r="G8" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="111" t="s">
+      <c r="C9" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="110" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="111">
+      <c r="E9" s="110">
         <v>2.2584973866611409E-2</v>
       </c>
-      <c r="F9" s="111" t="s">
+      <c r="F9" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="111" t="s">
+      <c r="G9" s="110" t="s">
         <v>125</v>
       </c>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
     </row>
   </sheetData>
   <sortState ref="A2:J9">
@@ -2916,165 +2879,165 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="114" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="117" t="s">
+      <c r="F2" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="117" t="s">
+      <c r="G2" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="117">
+      <c r="H2" s="116">
         <v>37</v>
       </c>
-      <c r="I2" s="116" t="s">
+      <c r="I2" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115" t="s">
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="115"/>
+      <c r="M2" s="114"/>
     </row>
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="114" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115" t="s">
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="117" t="s">
+      <c r="F3" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="G3" s="117" t="s">
+      <c r="G3" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="117">
+      <c r="H3" s="116">
         <v>37</v>
       </c>
-      <c r="I3" s="117" t="s">
+      <c r="I3" s="116" t="s">
         <v>136</v>
       </c>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115" t="s">
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="115" t="s">
+      <c r="M3" s="114" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="114" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115" t="s">
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="117" t="s">
+      <c r="F4" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="117" t="s">
+      <c r="G4" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="H4" s="117">
+      <c r="H4" s="116">
         <v>37</v>
       </c>
-      <c r="I4" s="117" t="s">
+      <c r="I4" s="116" t="s">
         <v>136</v>
       </c>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115" t="s">
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="M4" s="115"/>
+      <c r="M4" s="114"/>
     </row>
     <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115" t="s">
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="117" t="s">
+      <c r="F5" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115" t="s">
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="M5" s="115"/>
+      <c r="M5" s="114"/>
     </row>
     <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118" t="s">
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="119" t="s">
+      <c r="F6" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118" t="s">
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117" t="s">
         <v>141</v>
       </c>
-      <c r="M6" s="118"/>
+      <c r="M6" s="117"/>
     </row>
     <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="119" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120" t="s">
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119" t="s">
         <v>133</v>
       </c>
-      <c r="F7" s="122" t="s">
+      <c r="F7" s="121" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="122" t="s">
+      <c r="G7" s="121" t="s">
         <v>135</v>
       </c>
-      <c r="H7" s="121">
+      <c r="H7" s="120">
         <v>37</v>
       </c>
-      <c r="I7" s="122" t="s">
+      <c r="I7" s="121" t="s">
         <v>136</v>
       </c>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120" t="s">
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3099,1044 +3062,1044 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="129" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="128" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" style="55" customWidth="1"/>
     <col min="3" max="1025" width="8.5703125" style="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="132" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+    <row r="1" spans="1:1025" s="131" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
-      <c r="U1" s="131"/>
-      <c r="V1" s="131"/>
-      <c r="W1" s="131"/>
-      <c r="X1" s="131"/>
-      <c r="Y1" s="131"/>
-      <c r="Z1" s="131"/>
-      <c r="AA1" s="131"/>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="131"/>
-      <c r="AD1" s="131"/>
-      <c r="AE1" s="131"/>
-      <c r="AF1" s="131"/>
-      <c r="AG1" s="131"/>
-      <c r="AH1" s="131"/>
-      <c r="AI1" s="131"/>
-      <c r="AJ1" s="131"/>
-      <c r="AK1" s="131"/>
-      <c r="AL1" s="131"/>
-      <c r="AM1" s="131"/>
-      <c r="AN1" s="131"/>
-      <c r="AO1" s="131"/>
-      <c r="AP1" s="131"/>
-      <c r="AQ1" s="131"/>
-      <c r="AR1" s="131"/>
-      <c r="AS1" s="131"/>
-      <c r="AT1" s="131"/>
-      <c r="AU1" s="131"/>
-      <c r="AV1" s="131"/>
-      <c r="AW1" s="131"/>
-      <c r="AX1" s="131"/>
-      <c r="AY1" s="131"/>
-      <c r="AZ1" s="131"/>
-      <c r="BA1" s="131"/>
-      <c r="BB1" s="131"/>
-      <c r="BC1" s="131"/>
-      <c r="BD1" s="131"/>
-      <c r="BE1" s="131"/>
-      <c r="BF1" s="131"/>
-      <c r="BG1" s="131"/>
-      <c r="BH1" s="131"/>
-      <c r="BI1" s="131"/>
-      <c r="BJ1" s="131"/>
-      <c r="BK1" s="131"/>
-      <c r="BL1" s="131"/>
-      <c r="BM1" s="131"/>
-      <c r="BN1" s="131"/>
-      <c r="BO1" s="131"/>
-      <c r="BP1" s="131"/>
-      <c r="BQ1" s="131"/>
-      <c r="BR1" s="131"/>
-      <c r="BS1" s="131"/>
-      <c r="BT1" s="131"/>
-      <c r="BU1" s="131"/>
-      <c r="BV1" s="131"/>
-      <c r="BW1" s="131"/>
-      <c r="BX1" s="131"/>
-      <c r="BY1" s="131"/>
-      <c r="BZ1" s="131"/>
-      <c r="CA1" s="131"/>
-      <c r="CB1" s="131"/>
-      <c r="CC1" s="131"/>
-      <c r="CD1" s="131"/>
-      <c r="CE1" s="131"/>
-      <c r="CF1" s="131"/>
-      <c r="CG1" s="131"/>
-      <c r="CH1" s="131"/>
-      <c r="CI1" s="131"/>
-      <c r="CJ1" s="131"/>
-      <c r="CK1" s="131"/>
-      <c r="CL1" s="131"/>
-      <c r="CM1" s="131"/>
-      <c r="CN1" s="131"/>
-      <c r="CO1" s="131"/>
-      <c r="CP1" s="131"/>
-      <c r="CQ1" s="131"/>
-      <c r="CR1" s="131"/>
-      <c r="CS1" s="131"/>
-      <c r="CT1" s="131"/>
-      <c r="CU1" s="131"/>
-      <c r="CV1" s="131"/>
-      <c r="CW1" s="131"/>
-      <c r="CX1" s="131"/>
-      <c r="CY1" s="131"/>
-      <c r="CZ1" s="131"/>
-      <c r="DA1" s="131"/>
-      <c r="DB1" s="131"/>
-      <c r="DC1" s="131"/>
-      <c r="DD1" s="131"/>
-      <c r="DE1" s="131"/>
-      <c r="DF1" s="131"/>
-      <c r="DG1" s="131"/>
-      <c r="DH1" s="131"/>
-      <c r="DI1" s="131"/>
-      <c r="DJ1" s="131"/>
-      <c r="DK1" s="131"/>
-      <c r="DL1" s="131"/>
-      <c r="DM1" s="131"/>
-      <c r="DN1" s="131"/>
-      <c r="DO1" s="131"/>
-      <c r="DP1" s="131"/>
-      <c r="DQ1" s="131"/>
-      <c r="DR1" s="131"/>
-      <c r="DS1" s="131"/>
-      <c r="DT1" s="131"/>
-      <c r="DU1" s="131"/>
-      <c r="DV1" s="131"/>
-      <c r="DW1" s="131"/>
-      <c r="DX1" s="131"/>
-      <c r="DY1" s="131"/>
-      <c r="DZ1" s="131"/>
-      <c r="EA1" s="131"/>
-      <c r="EB1" s="131"/>
-      <c r="EC1" s="131"/>
-      <c r="ED1" s="131"/>
-      <c r="EE1" s="131"/>
-      <c r="EF1" s="131"/>
-      <c r="EG1" s="131"/>
-      <c r="EH1" s="131"/>
-      <c r="EI1" s="131"/>
-      <c r="EJ1" s="131"/>
-      <c r="EK1" s="131"/>
-      <c r="EL1" s="131"/>
-      <c r="EM1" s="131"/>
-      <c r="EN1" s="131"/>
-      <c r="EO1" s="131"/>
-      <c r="EP1" s="131"/>
-      <c r="EQ1" s="131"/>
-      <c r="ER1" s="131"/>
-      <c r="ES1" s="131"/>
-      <c r="ET1" s="131"/>
-      <c r="EU1" s="131"/>
-      <c r="EV1" s="131"/>
-      <c r="EW1" s="131"/>
-      <c r="EX1" s="131"/>
-      <c r="EY1" s="131"/>
-      <c r="EZ1" s="131"/>
-      <c r="FA1" s="131"/>
-      <c r="FB1" s="131"/>
-      <c r="FC1" s="131"/>
-      <c r="FD1" s="131"/>
-      <c r="FE1" s="131"/>
-      <c r="FF1" s="131"/>
-      <c r="FG1" s="131"/>
-      <c r="FH1" s="131"/>
-      <c r="FI1" s="131"/>
-      <c r="FJ1" s="131"/>
-      <c r="FK1" s="131"/>
-      <c r="FL1" s="131"/>
-      <c r="FM1" s="131"/>
-      <c r="FN1" s="131"/>
-      <c r="FO1" s="131"/>
-      <c r="FP1" s="131"/>
-      <c r="FQ1" s="131"/>
-      <c r="FR1" s="131"/>
-      <c r="FS1" s="131"/>
-      <c r="FT1" s="131"/>
-      <c r="FU1" s="131"/>
-      <c r="FV1" s="131"/>
-      <c r="FW1" s="131"/>
-      <c r="FX1" s="131"/>
-      <c r="FY1" s="131"/>
-      <c r="FZ1" s="131"/>
-      <c r="GA1" s="131"/>
-      <c r="GB1" s="131"/>
-      <c r="GC1" s="131"/>
-      <c r="GD1" s="131"/>
-      <c r="GE1" s="131"/>
-      <c r="GF1" s="131"/>
-      <c r="GG1" s="131"/>
-      <c r="GH1" s="131"/>
-      <c r="GI1" s="131"/>
-      <c r="GJ1" s="131"/>
-      <c r="GK1" s="131"/>
-      <c r="GL1" s="131"/>
-      <c r="GM1" s="131"/>
-      <c r="GN1" s="131"/>
-      <c r="GO1" s="131"/>
-      <c r="GP1" s="131"/>
-      <c r="GQ1" s="131"/>
-      <c r="GR1" s="131"/>
-      <c r="GS1" s="131"/>
-      <c r="GT1" s="131"/>
-      <c r="GU1" s="131"/>
-      <c r="GV1" s="131"/>
-      <c r="GW1" s="131"/>
-      <c r="GX1" s="131"/>
-      <c r="GY1" s="131"/>
-      <c r="GZ1" s="131"/>
-      <c r="HA1" s="131"/>
-      <c r="HB1" s="131"/>
-      <c r="HC1" s="131"/>
-      <c r="HD1" s="131"/>
-      <c r="HE1" s="131"/>
-      <c r="HF1" s="131"/>
-      <c r="HG1" s="131"/>
-      <c r="HH1" s="131"/>
-      <c r="HI1" s="131"/>
-      <c r="HJ1" s="131"/>
-      <c r="HK1" s="131"/>
-      <c r="HL1" s="131"/>
-      <c r="HM1" s="131"/>
-      <c r="HN1" s="131"/>
-      <c r="HO1" s="131"/>
-      <c r="HP1" s="131"/>
-      <c r="HQ1" s="131"/>
-      <c r="HR1" s="131"/>
-      <c r="HS1" s="131"/>
-      <c r="HT1" s="131"/>
-      <c r="HU1" s="131"/>
-      <c r="HV1" s="131"/>
-      <c r="HW1" s="131"/>
-      <c r="HX1" s="131"/>
-      <c r="HY1" s="131"/>
-      <c r="HZ1" s="131"/>
-      <c r="IA1" s="131"/>
-      <c r="IB1" s="131"/>
-      <c r="IC1" s="131"/>
-      <c r="ID1" s="131"/>
-      <c r="IE1" s="131"/>
-      <c r="IF1" s="131"/>
-      <c r="IG1" s="131"/>
-      <c r="IH1" s="131"/>
-      <c r="II1" s="131"/>
-      <c r="IJ1" s="131"/>
-      <c r="IK1" s="131"/>
-      <c r="IL1" s="131"/>
-      <c r="IM1" s="131"/>
-      <c r="IN1" s="131"/>
-      <c r="IO1" s="131"/>
-      <c r="IP1" s="131"/>
-      <c r="IQ1" s="131"/>
-      <c r="IR1" s="131"/>
-      <c r="IS1" s="131"/>
-      <c r="IT1" s="131"/>
-      <c r="IU1" s="131"/>
-      <c r="IV1" s="131"/>
-      <c r="IW1" s="131"/>
-      <c r="IX1" s="131"/>
-      <c r="IY1" s="131"/>
-      <c r="IZ1" s="131"/>
-      <c r="JA1" s="131"/>
-      <c r="JB1" s="131"/>
-      <c r="JC1" s="131"/>
-      <c r="JD1" s="131"/>
-      <c r="JE1" s="131"/>
-      <c r="JF1" s="131"/>
-      <c r="JG1" s="131"/>
-      <c r="JH1" s="131"/>
-      <c r="JI1" s="131"/>
-      <c r="JJ1" s="131"/>
-      <c r="JK1" s="131"/>
-      <c r="JL1" s="131"/>
-      <c r="JM1" s="131"/>
-      <c r="JN1" s="131"/>
-      <c r="JO1" s="131"/>
-      <c r="JP1" s="131"/>
-      <c r="JQ1" s="131"/>
-      <c r="JR1" s="131"/>
-      <c r="JS1" s="131"/>
-      <c r="JT1" s="131"/>
-      <c r="JU1" s="131"/>
-      <c r="JV1" s="131"/>
-      <c r="JW1" s="131"/>
-      <c r="JX1" s="131"/>
-      <c r="JY1" s="131"/>
-      <c r="JZ1" s="131"/>
-      <c r="KA1" s="131"/>
-      <c r="KB1" s="131"/>
-      <c r="KC1" s="131"/>
-      <c r="KD1" s="131"/>
-      <c r="KE1" s="131"/>
-      <c r="KF1" s="131"/>
-      <c r="KG1" s="131"/>
-      <c r="KH1" s="131"/>
-      <c r="KI1" s="131"/>
-      <c r="KJ1" s="131"/>
-      <c r="KK1" s="131"/>
-      <c r="KL1" s="131"/>
-      <c r="KM1" s="131"/>
-      <c r="KN1" s="131"/>
-      <c r="KO1" s="131"/>
-      <c r="KP1" s="131"/>
-      <c r="KQ1" s="131"/>
-      <c r="KR1" s="131"/>
-      <c r="KS1" s="131"/>
-      <c r="KT1" s="131"/>
-      <c r="KU1" s="131"/>
-      <c r="KV1" s="131"/>
-      <c r="KW1" s="131"/>
-      <c r="KX1" s="131"/>
-      <c r="KY1" s="131"/>
-      <c r="KZ1" s="131"/>
-      <c r="LA1" s="131"/>
-      <c r="LB1" s="131"/>
-      <c r="LC1" s="131"/>
-      <c r="LD1" s="131"/>
-      <c r="LE1" s="131"/>
-      <c r="LF1" s="131"/>
-      <c r="LG1" s="131"/>
-      <c r="LH1" s="131"/>
-      <c r="LI1" s="131"/>
-      <c r="LJ1" s="131"/>
-      <c r="LK1" s="131"/>
-      <c r="LL1" s="131"/>
-      <c r="LM1" s="131"/>
-      <c r="LN1" s="131"/>
-      <c r="LO1" s="131"/>
-      <c r="LP1" s="131"/>
-      <c r="LQ1" s="131"/>
-      <c r="LR1" s="131"/>
-      <c r="LS1" s="131"/>
-      <c r="LT1" s="131"/>
-      <c r="LU1" s="131"/>
-      <c r="LV1" s="131"/>
-      <c r="LW1" s="131"/>
-      <c r="LX1" s="131"/>
-      <c r="LY1" s="131"/>
-      <c r="LZ1" s="131"/>
-      <c r="MA1" s="131"/>
-      <c r="MB1" s="131"/>
-      <c r="MC1" s="131"/>
-      <c r="MD1" s="131"/>
-      <c r="ME1" s="131"/>
-      <c r="MF1" s="131"/>
-      <c r="MG1" s="131"/>
-      <c r="MH1" s="131"/>
-      <c r="MI1" s="131"/>
-      <c r="MJ1" s="131"/>
-      <c r="MK1" s="131"/>
-      <c r="ML1" s="131"/>
-      <c r="MM1" s="131"/>
-      <c r="MN1" s="131"/>
-      <c r="MO1" s="131"/>
-      <c r="MP1" s="131"/>
-      <c r="MQ1" s="131"/>
-      <c r="MR1" s="131"/>
-      <c r="MS1" s="131"/>
-      <c r="MT1" s="131"/>
-      <c r="MU1" s="131"/>
-      <c r="MV1" s="131"/>
-      <c r="MW1" s="131"/>
-      <c r="MX1" s="131"/>
-      <c r="MY1" s="131"/>
-      <c r="MZ1" s="131"/>
-      <c r="NA1" s="131"/>
-      <c r="NB1" s="131"/>
-      <c r="NC1" s="131"/>
-      <c r="ND1" s="131"/>
-      <c r="NE1" s="131"/>
-      <c r="NF1" s="131"/>
-      <c r="NG1" s="131"/>
-      <c r="NH1" s="131"/>
-      <c r="NI1" s="131"/>
-      <c r="NJ1" s="131"/>
-      <c r="NK1" s="131"/>
-      <c r="NL1" s="131"/>
-      <c r="NM1" s="131"/>
-      <c r="NN1" s="131"/>
-      <c r="NO1" s="131"/>
-      <c r="NP1" s="131"/>
-      <c r="NQ1" s="131"/>
-      <c r="NR1" s="131"/>
-      <c r="NS1" s="131"/>
-      <c r="NT1" s="131"/>
-      <c r="NU1" s="131"/>
-      <c r="NV1" s="131"/>
-      <c r="NW1" s="131"/>
-      <c r="NX1" s="131"/>
-      <c r="NY1" s="131"/>
-      <c r="NZ1" s="131"/>
-      <c r="OA1" s="131"/>
-      <c r="OB1" s="131"/>
-      <c r="OC1" s="131"/>
-      <c r="OD1" s="131"/>
-      <c r="OE1" s="131"/>
-      <c r="OF1" s="131"/>
-      <c r="OG1" s="131"/>
-      <c r="OH1" s="131"/>
-      <c r="OI1" s="131"/>
-      <c r="OJ1" s="131"/>
-      <c r="OK1" s="131"/>
-      <c r="OL1" s="131"/>
-      <c r="OM1" s="131"/>
-      <c r="ON1" s="131"/>
-      <c r="OO1" s="131"/>
-      <c r="OP1" s="131"/>
-      <c r="OQ1" s="131"/>
-      <c r="OR1" s="131"/>
-      <c r="OS1" s="131"/>
-      <c r="OT1" s="131"/>
-      <c r="OU1" s="131"/>
-      <c r="OV1" s="131"/>
-      <c r="OW1" s="131"/>
-      <c r="OX1" s="131"/>
-      <c r="OY1" s="131"/>
-      <c r="OZ1" s="131"/>
-      <c r="PA1" s="131"/>
-      <c r="PB1" s="131"/>
-      <c r="PC1" s="131"/>
-      <c r="PD1" s="131"/>
-      <c r="PE1" s="131"/>
-      <c r="PF1" s="131"/>
-      <c r="PG1" s="131"/>
-      <c r="PH1" s="131"/>
-      <c r="PI1" s="131"/>
-      <c r="PJ1" s="131"/>
-      <c r="PK1" s="131"/>
-      <c r="PL1" s="131"/>
-      <c r="PM1" s="131"/>
-      <c r="PN1" s="131"/>
-      <c r="PO1" s="131"/>
-      <c r="PP1" s="131"/>
-      <c r="PQ1" s="131"/>
-      <c r="PR1" s="131"/>
-      <c r="PS1" s="131"/>
-      <c r="PT1" s="131"/>
-      <c r="PU1" s="131"/>
-      <c r="PV1" s="131"/>
-      <c r="PW1" s="131"/>
-      <c r="PX1" s="131"/>
-      <c r="PY1" s="131"/>
-      <c r="PZ1" s="131"/>
-      <c r="QA1" s="131"/>
-      <c r="QB1" s="131"/>
-      <c r="QC1" s="131"/>
-      <c r="QD1" s="131"/>
-      <c r="QE1" s="131"/>
-      <c r="QF1" s="131"/>
-      <c r="QG1" s="131"/>
-      <c r="QH1" s="131"/>
-      <c r="QI1" s="131"/>
-      <c r="QJ1" s="131"/>
-      <c r="QK1" s="131"/>
-      <c r="QL1" s="131"/>
-      <c r="QM1" s="131"/>
-      <c r="QN1" s="131"/>
-      <c r="QO1" s="131"/>
-      <c r="QP1" s="131"/>
-      <c r="QQ1" s="131"/>
-      <c r="QR1" s="131"/>
-      <c r="QS1" s="131"/>
-      <c r="QT1" s="131"/>
-      <c r="QU1" s="131"/>
-      <c r="QV1" s="131"/>
-      <c r="QW1" s="131"/>
-      <c r="QX1" s="131"/>
-      <c r="QY1" s="131"/>
-      <c r="QZ1" s="131"/>
-      <c r="RA1" s="131"/>
-      <c r="RB1" s="131"/>
-      <c r="RC1" s="131"/>
-      <c r="RD1" s="131"/>
-      <c r="RE1" s="131"/>
-      <c r="RF1" s="131"/>
-      <c r="RG1" s="131"/>
-      <c r="RH1" s="131"/>
-      <c r="RI1" s="131"/>
-      <c r="RJ1" s="131"/>
-      <c r="RK1" s="131"/>
-      <c r="RL1" s="131"/>
-      <c r="RM1" s="131"/>
-      <c r="RN1" s="131"/>
-      <c r="RO1" s="131"/>
-      <c r="RP1" s="131"/>
-      <c r="RQ1" s="131"/>
-      <c r="RR1" s="131"/>
-      <c r="RS1" s="131"/>
-      <c r="RT1" s="131"/>
-      <c r="RU1" s="131"/>
-      <c r="RV1" s="131"/>
-      <c r="RW1" s="131"/>
-      <c r="RX1" s="131"/>
-      <c r="RY1" s="131"/>
-      <c r="RZ1" s="131"/>
-      <c r="SA1" s="131"/>
-      <c r="SB1" s="131"/>
-      <c r="SC1" s="131"/>
-      <c r="SD1" s="131"/>
-      <c r="SE1" s="131"/>
-      <c r="SF1" s="131"/>
-      <c r="SG1" s="131"/>
-      <c r="SH1" s="131"/>
-      <c r="SI1" s="131"/>
-      <c r="SJ1" s="131"/>
-      <c r="SK1" s="131"/>
-      <c r="SL1" s="131"/>
-      <c r="SM1" s="131"/>
-      <c r="SN1" s="131"/>
-      <c r="SO1" s="131"/>
-      <c r="SP1" s="131"/>
-      <c r="SQ1" s="131"/>
-      <c r="SR1" s="131"/>
-      <c r="SS1" s="131"/>
-      <c r="ST1" s="131"/>
-      <c r="SU1" s="131"/>
-      <c r="SV1" s="131"/>
-      <c r="SW1" s="131"/>
-      <c r="SX1" s="131"/>
-      <c r="SY1" s="131"/>
-      <c r="SZ1" s="131"/>
-      <c r="TA1" s="131"/>
-      <c r="TB1" s="131"/>
-      <c r="TC1" s="131"/>
-      <c r="TD1" s="131"/>
-      <c r="TE1" s="131"/>
-      <c r="TF1" s="131"/>
-      <c r="TG1" s="131"/>
-      <c r="TH1" s="131"/>
-      <c r="TI1" s="131"/>
-      <c r="TJ1" s="131"/>
-      <c r="TK1" s="131"/>
-      <c r="TL1" s="131"/>
-      <c r="TM1" s="131"/>
-      <c r="TN1" s="131"/>
-      <c r="TO1" s="131"/>
-      <c r="TP1" s="131"/>
-      <c r="TQ1" s="131"/>
-      <c r="TR1" s="131"/>
-      <c r="TS1" s="131"/>
-      <c r="TT1" s="131"/>
-      <c r="TU1" s="131"/>
-      <c r="TV1" s="131"/>
-      <c r="TW1" s="131"/>
-      <c r="TX1" s="131"/>
-      <c r="TY1" s="131"/>
-      <c r="TZ1" s="131"/>
-      <c r="UA1" s="131"/>
-      <c r="UB1" s="131"/>
-      <c r="UC1" s="131"/>
-      <c r="UD1" s="131"/>
-      <c r="UE1" s="131"/>
-      <c r="UF1" s="131"/>
-      <c r="UG1" s="131"/>
-      <c r="UH1" s="131"/>
-      <c r="UI1" s="131"/>
-      <c r="UJ1" s="131"/>
-      <c r="UK1" s="131"/>
-      <c r="UL1" s="131"/>
-      <c r="UM1" s="131"/>
-      <c r="UN1" s="131"/>
-      <c r="UO1" s="131"/>
-      <c r="UP1" s="131"/>
-      <c r="UQ1" s="131"/>
-      <c r="UR1" s="131"/>
-      <c r="US1" s="131"/>
-      <c r="UT1" s="131"/>
-      <c r="UU1" s="131"/>
-      <c r="UV1" s="131"/>
-      <c r="UW1" s="131"/>
-      <c r="UX1" s="131"/>
-      <c r="UY1" s="131"/>
-      <c r="UZ1" s="131"/>
-      <c r="VA1" s="131"/>
-      <c r="VB1" s="131"/>
-      <c r="VC1" s="131"/>
-      <c r="VD1" s="131"/>
-      <c r="VE1" s="131"/>
-      <c r="VF1" s="131"/>
-      <c r="VG1" s="131"/>
-      <c r="VH1" s="131"/>
-      <c r="VI1" s="131"/>
-      <c r="VJ1" s="131"/>
-      <c r="VK1" s="131"/>
-      <c r="VL1" s="131"/>
-      <c r="VM1" s="131"/>
-      <c r="VN1" s="131"/>
-      <c r="VO1" s="131"/>
-      <c r="VP1" s="131"/>
-      <c r="VQ1" s="131"/>
-      <c r="VR1" s="131"/>
-      <c r="VS1" s="131"/>
-      <c r="VT1" s="131"/>
-      <c r="VU1" s="131"/>
-      <c r="VV1" s="131"/>
-      <c r="VW1" s="131"/>
-      <c r="VX1" s="131"/>
-      <c r="VY1" s="131"/>
-      <c r="VZ1" s="131"/>
-      <c r="WA1" s="131"/>
-      <c r="WB1" s="131"/>
-      <c r="WC1" s="131"/>
-      <c r="WD1" s="131"/>
-      <c r="WE1" s="131"/>
-      <c r="WF1" s="131"/>
-      <c r="WG1" s="131"/>
-      <c r="WH1" s="131"/>
-      <c r="WI1" s="131"/>
-      <c r="WJ1" s="131"/>
-      <c r="WK1" s="131"/>
-      <c r="WL1" s="131"/>
-      <c r="WM1" s="131"/>
-      <c r="WN1" s="131"/>
-      <c r="WO1" s="131"/>
-      <c r="WP1" s="131"/>
-      <c r="WQ1" s="131"/>
-      <c r="WR1" s="131"/>
-      <c r="WS1" s="131"/>
-      <c r="WT1" s="131"/>
-      <c r="WU1" s="131"/>
-      <c r="WV1" s="131"/>
-      <c r="WW1" s="131"/>
-      <c r="WX1" s="131"/>
-      <c r="WY1" s="131"/>
-      <c r="WZ1" s="131"/>
-      <c r="XA1" s="131"/>
-      <c r="XB1" s="131"/>
-      <c r="XC1" s="131"/>
-      <c r="XD1" s="131"/>
-      <c r="XE1" s="131"/>
-      <c r="XF1" s="131"/>
-      <c r="XG1" s="131"/>
-      <c r="XH1" s="131"/>
-      <c r="XI1" s="131"/>
-      <c r="XJ1" s="131"/>
-      <c r="XK1" s="131"/>
-      <c r="XL1" s="131"/>
-      <c r="XM1" s="131"/>
-      <c r="XN1" s="131"/>
-      <c r="XO1" s="131"/>
-      <c r="XP1" s="131"/>
-      <c r="XQ1" s="131"/>
-      <c r="XR1" s="131"/>
-      <c r="XS1" s="131"/>
-      <c r="XT1" s="131"/>
-      <c r="XU1" s="131"/>
-      <c r="XV1" s="131"/>
-      <c r="XW1" s="131"/>
-      <c r="XX1" s="131"/>
-      <c r="XY1" s="131"/>
-      <c r="XZ1" s="131"/>
-      <c r="YA1" s="131"/>
-      <c r="YB1" s="131"/>
-      <c r="YC1" s="131"/>
-      <c r="YD1" s="131"/>
-      <c r="YE1" s="131"/>
-      <c r="YF1" s="131"/>
-      <c r="YG1" s="131"/>
-      <c r="YH1" s="131"/>
-      <c r="YI1" s="131"/>
-      <c r="YJ1" s="131"/>
-      <c r="YK1" s="131"/>
-      <c r="YL1" s="131"/>
-      <c r="YM1" s="131"/>
-      <c r="YN1" s="131"/>
-      <c r="YO1" s="131"/>
-      <c r="YP1" s="131"/>
-      <c r="YQ1" s="131"/>
-      <c r="YR1" s="131"/>
-      <c r="YS1" s="131"/>
-      <c r="YT1" s="131"/>
-      <c r="YU1" s="131"/>
-      <c r="YV1" s="131"/>
-      <c r="YW1" s="131"/>
-      <c r="YX1" s="131"/>
-      <c r="YY1" s="131"/>
-      <c r="YZ1" s="131"/>
-      <c r="ZA1" s="131"/>
-      <c r="ZB1" s="131"/>
-      <c r="ZC1" s="131"/>
-      <c r="ZD1" s="131"/>
-      <c r="ZE1" s="131"/>
-      <c r="ZF1" s="131"/>
-      <c r="ZG1" s="131"/>
-      <c r="ZH1" s="131"/>
-      <c r="ZI1" s="131"/>
-      <c r="ZJ1" s="131"/>
-      <c r="ZK1" s="131"/>
-      <c r="ZL1" s="131"/>
-      <c r="ZM1" s="131"/>
-      <c r="ZN1" s="131"/>
-      <c r="ZO1" s="131"/>
-      <c r="ZP1" s="131"/>
-      <c r="ZQ1" s="131"/>
-      <c r="ZR1" s="131"/>
-      <c r="ZS1" s="131"/>
-      <c r="ZT1" s="131"/>
-      <c r="ZU1" s="131"/>
-      <c r="ZV1" s="131"/>
-      <c r="ZW1" s="131"/>
-      <c r="ZX1" s="131"/>
-      <c r="ZY1" s="131"/>
-      <c r="ZZ1" s="131"/>
-      <c r="AAA1" s="131"/>
-      <c r="AAB1" s="131"/>
-      <c r="AAC1" s="131"/>
-      <c r="AAD1" s="131"/>
-      <c r="AAE1" s="131"/>
-      <c r="AAF1" s="131"/>
-      <c r="AAG1" s="131"/>
-      <c r="AAH1" s="131"/>
-      <c r="AAI1" s="131"/>
-      <c r="AAJ1" s="131"/>
-      <c r="AAK1" s="131"/>
-      <c r="AAL1" s="131"/>
-      <c r="AAM1" s="131"/>
-      <c r="AAN1" s="131"/>
-      <c r="AAO1" s="131"/>
-      <c r="AAP1" s="131"/>
-      <c r="AAQ1" s="131"/>
-      <c r="AAR1" s="131"/>
-      <c r="AAS1" s="131"/>
-      <c r="AAT1" s="131"/>
-      <c r="AAU1" s="131"/>
-      <c r="AAV1" s="131"/>
-      <c r="AAW1" s="131"/>
-      <c r="AAX1" s="131"/>
-      <c r="AAY1" s="131"/>
-      <c r="AAZ1" s="131"/>
-      <c r="ABA1" s="131"/>
-      <c r="ABB1" s="131"/>
-      <c r="ABC1" s="131"/>
-      <c r="ABD1" s="131"/>
-      <c r="ABE1" s="131"/>
-      <c r="ABF1" s="131"/>
-      <c r="ABG1" s="131"/>
-      <c r="ABH1" s="131"/>
-      <c r="ABI1" s="131"/>
-      <c r="ABJ1" s="131"/>
-      <c r="ABK1" s="131"/>
-      <c r="ABL1" s="131"/>
-      <c r="ABM1" s="131"/>
-      <c r="ABN1" s="131"/>
-      <c r="ABO1" s="131"/>
-      <c r="ABP1" s="131"/>
-      <c r="ABQ1" s="131"/>
-      <c r="ABR1" s="131"/>
-      <c r="ABS1" s="131"/>
-      <c r="ABT1" s="131"/>
-      <c r="ABU1" s="131"/>
-      <c r="ABV1" s="131"/>
-      <c r="ABW1" s="131"/>
-      <c r="ABX1" s="131"/>
-      <c r="ABY1" s="131"/>
-      <c r="ABZ1" s="131"/>
-      <c r="ACA1" s="131"/>
-      <c r="ACB1" s="131"/>
-      <c r="ACC1" s="131"/>
-      <c r="ACD1" s="131"/>
-      <c r="ACE1" s="131"/>
-      <c r="ACF1" s="131"/>
-      <c r="ACG1" s="131"/>
-      <c r="ACH1" s="131"/>
-      <c r="ACI1" s="131"/>
-      <c r="ACJ1" s="131"/>
-      <c r="ACK1" s="131"/>
-      <c r="ACL1" s="131"/>
-      <c r="ACM1" s="131"/>
-      <c r="ACN1" s="131"/>
-      <c r="ACO1" s="131"/>
-      <c r="ACP1" s="131"/>
-      <c r="ACQ1" s="131"/>
-      <c r="ACR1" s="131"/>
-      <c r="ACS1" s="131"/>
-      <c r="ACT1" s="131"/>
-      <c r="ACU1" s="131"/>
-      <c r="ACV1" s="131"/>
-      <c r="ACW1" s="131"/>
-      <c r="ACX1" s="131"/>
-      <c r="ACY1" s="131"/>
-      <c r="ACZ1" s="131"/>
-      <c r="ADA1" s="131"/>
-      <c r="ADB1" s="131"/>
-      <c r="ADC1" s="131"/>
-      <c r="ADD1" s="131"/>
-      <c r="ADE1" s="131"/>
-      <c r="ADF1" s="131"/>
-      <c r="ADG1" s="131"/>
-      <c r="ADH1" s="131"/>
-      <c r="ADI1" s="131"/>
-      <c r="ADJ1" s="131"/>
-      <c r="ADK1" s="131"/>
-      <c r="ADL1" s="131"/>
-      <c r="ADM1" s="131"/>
-      <c r="ADN1" s="131"/>
-      <c r="ADO1" s="131"/>
-      <c r="ADP1" s="131"/>
-      <c r="ADQ1" s="131"/>
-      <c r="ADR1" s="131"/>
-      <c r="ADS1" s="131"/>
-      <c r="ADT1" s="131"/>
-      <c r="ADU1" s="131"/>
-      <c r="ADV1" s="131"/>
-      <c r="ADW1" s="131"/>
-      <c r="ADX1" s="131"/>
-      <c r="ADY1" s="131"/>
-      <c r="ADZ1" s="131"/>
-      <c r="AEA1" s="131"/>
-      <c r="AEB1" s="131"/>
-      <c r="AEC1" s="131"/>
-      <c r="AED1" s="131"/>
-      <c r="AEE1" s="131"/>
-      <c r="AEF1" s="131"/>
-      <c r="AEG1" s="131"/>
-      <c r="AEH1" s="131"/>
-      <c r="AEI1" s="131"/>
-      <c r="AEJ1" s="131"/>
-      <c r="AEK1" s="131"/>
-      <c r="AEL1" s="131"/>
-      <c r="AEM1" s="131"/>
-      <c r="AEN1" s="131"/>
-      <c r="AEO1" s="131"/>
-      <c r="AEP1" s="131"/>
-      <c r="AEQ1" s="131"/>
-      <c r="AER1" s="131"/>
-      <c r="AES1" s="131"/>
-      <c r="AET1" s="131"/>
-      <c r="AEU1" s="131"/>
-      <c r="AEV1" s="131"/>
-      <c r="AEW1" s="131"/>
-      <c r="AEX1" s="131"/>
-      <c r="AEY1" s="131"/>
-      <c r="AEZ1" s="131"/>
-      <c r="AFA1" s="131"/>
-      <c r="AFB1" s="131"/>
-      <c r="AFC1" s="131"/>
-      <c r="AFD1" s="131"/>
-      <c r="AFE1" s="131"/>
-      <c r="AFF1" s="131"/>
-      <c r="AFG1" s="131"/>
-      <c r="AFH1" s="131"/>
-      <c r="AFI1" s="131"/>
-      <c r="AFJ1" s="131"/>
-      <c r="AFK1" s="131"/>
-      <c r="AFL1" s="131"/>
-      <c r="AFM1" s="131"/>
-      <c r="AFN1" s="131"/>
-      <c r="AFO1" s="131"/>
-      <c r="AFP1" s="131"/>
-      <c r="AFQ1" s="131"/>
-      <c r="AFR1" s="131"/>
-      <c r="AFS1" s="131"/>
-      <c r="AFT1" s="131"/>
-      <c r="AFU1" s="131"/>
-      <c r="AFV1" s="131"/>
-      <c r="AFW1" s="131"/>
-      <c r="AFX1" s="131"/>
-      <c r="AFY1" s="131"/>
-      <c r="AFZ1" s="131"/>
-      <c r="AGA1" s="131"/>
-      <c r="AGB1" s="131"/>
-      <c r="AGC1" s="131"/>
-      <c r="AGD1" s="131"/>
-      <c r="AGE1" s="131"/>
-      <c r="AGF1" s="131"/>
-      <c r="AGG1" s="131"/>
-      <c r="AGH1" s="131"/>
-      <c r="AGI1" s="131"/>
-      <c r="AGJ1" s="131"/>
-      <c r="AGK1" s="131"/>
-      <c r="AGL1" s="131"/>
-      <c r="AGM1" s="131"/>
-      <c r="AGN1" s="131"/>
-      <c r="AGO1" s="131"/>
-      <c r="AGP1" s="131"/>
-      <c r="AGQ1" s="131"/>
-      <c r="AGR1" s="131"/>
-      <c r="AGS1" s="131"/>
-      <c r="AGT1" s="131"/>
-      <c r="AGU1" s="131"/>
-      <c r="AGV1" s="131"/>
-      <c r="AGW1" s="131"/>
-      <c r="AGX1" s="131"/>
-      <c r="AGY1" s="131"/>
-      <c r="AGZ1" s="131"/>
-      <c r="AHA1" s="131"/>
-      <c r="AHB1" s="131"/>
-      <c r="AHC1" s="131"/>
-      <c r="AHD1" s="131"/>
-      <c r="AHE1" s="131"/>
-      <c r="AHF1" s="131"/>
-      <c r="AHG1" s="131"/>
-      <c r="AHH1" s="131"/>
-      <c r="AHI1" s="131"/>
-      <c r="AHJ1" s="131"/>
-      <c r="AHK1" s="131"/>
-      <c r="AHL1" s="131"/>
-      <c r="AHM1" s="131"/>
-      <c r="AHN1" s="131"/>
-      <c r="AHO1" s="131"/>
-      <c r="AHP1" s="131"/>
-      <c r="AHQ1" s="131"/>
-      <c r="AHR1" s="131"/>
-      <c r="AHS1" s="131"/>
-      <c r="AHT1" s="131"/>
-      <c r="AHU1" s="131"/>
-      <c r="AHV1" s="131"/>
-      <c r="AHW1" s="131"/>
-      <c r="AHX1" s="131"/>
-      <c r="AHY1" s="131"/>
-      <c r="AHZ1" s="131"/>
-      <c r="AIA1" s="131"/>
-      <c r="AIB1" s="131"/>
-      <c r="AIC1" s="131"/>
-      <c r="AID1" s="131"/>
-      <c r="AIE1" s="131"/>
-      <c r="AIF1" s="131"/>
-      <c r="AIG1" s="131"/>
-      <c r="AIH1" s="131"/>
-      <c r="AII1" s="131"/>
-      <c r="AIJ1" s="131"/>
-      <c r="AIK1" s="131"/>
-      <c r="AIL1" s="131"/>
-      <c r="AIM1" s="131"/>
-      <c r="AIN1" s="131"/>
-      <c r="AIO1" s="131"/>
-      <c r="AIP1" s="131"/>
-      <c r="AIQ1" s="131"/>
-      <c r="AIR1" s="131"/>
-      <c r="AIS1" s="131"/>
-      <c r="AIT1" s="131"/>
-      <c r="AIU1" s="131"/>
-      <c r="AIV1" s="131"/>
-      <c r="AIW1" s="131"/>
-      <c r="AIX1" s="131"/>
-      <c r="AIY1" s="131"/>
-      <c r="AIZ1" s="131"/>
-      <c r="AJA1" s="131"/>
-      <c r="AJB1" s="131"/>
-      <c r="AJC1" s="131"/>
-      <c r="AJD1" s="131"/>
-      <c r="AJE1" s="131"/>
-      <c r="AJF1" s="131"/>
-      <c r="AJG1" s="131"/>
-      <c r="AJH1" s="131"/>
-      <c r="AJI1" s="131"/>
-      <c r="AJJ1" s="131"/>
-      <c r="AJK1" s="131"/>
-      <c r="AJL1" s="131"/>
-      <c r="AJM1" s="131"/>
-      <c r="AJN1" s="131"/>
-      <c r="AJO1" s="131"/>
-      <c r="AJP1" s="131"/>
-      <c r="AJQ1" s="131"/>
-      <c r="AJR1" s="131"/>
-      <c r="AJS1" s="131"/>
-      <c r="AJT1" s="131"/>
-      <c r="AJU1" s="131"/>
-      <c r="AJV1" s="131"/>
-      <c r="AJW1" s="131"/>
-      <c r="AJX1" s="131"/>
-      <c r="AJY1" s="131"/>
-      <c r="AJZ1" s="131"/>
-      <c r="AKA1" s="131"/>
-      <c r="AKB1" s="131"/>
-      <c r="AKC1" s="131"/>
-      <c r="AKD1" s="131"/>
-      <c r="AKE1" s="131"/>
-      <c r="AKF1" s="131"/>
-      <c r="AKG1" s="131"/>
-      <c r="AKH1" s="131"/>
-      <c r="AKI1" s="131"/>
-      <c r="AKJ1" s="131"/>
-      <c r="AKK1" s="131"/>
-      <c r="AKL1" s="131"/>
-      <c r="AKM1" s="131"/>
-      <c r="AKN1" s="131"/>
-      <c r="AKO1" s="131"/>
-      <c r="AKP1" s="131"/>
-      <c r="AKQ1" s="131"/>
-      <c r="AKR1" s="131"/>
-      <c r="AKS1" s="131"/>
-      <c r="AKT1" s="131"/>
-      <c r="AKU1" s="131"/>
-      <c r="AKV1" s="131"/>
-      <c r="AKW1" s="131"/>
-      <c r="AKX1" s="131"/>
-      <c r="AKY1" s="131"/>
-      <c r="AKZ1" s="131"/>
-      <c r="ALA1" s="131"/>
-      <c r="ALB1" s="131"/>
-      <c r="ALC1" s="131"/>
-      <c r="ALD1" s="131"/>
-      <c r="ALE1" s="131"/>
-      <c r="ALF1" s="131"/>
-      <c r="ALG1" s="131"/>
-      <c r="ALH1" s="131"/>
-      <c r="ALI1" s="131"/>
-      <c r="ALJ1" s="131"/>
-      <c r="ALK1" s="131"/>
-      <c r="ALL1" s="131"/>
-      <c r="ALM1" s="131"/>
-      <c r="ALN1" s="131"/>
-      <c r="ALO1" s="131"/>
-      <c r="ALP1" s="131"/>
-      <c r="ALQ1" s="131"/>
-      <c r="ALR1" s="131"/>
-      <c r="ALS1" s="131"/>
-      <c r="ALT1" s="131"/>
-      <c r="ALU1" s="131"/>
-      <c r="ALV1" s="131"/>
-      <c r="ALW1" s="131"/>
-      <c r="ALX1" s="131"/>
-      <c r="ALY1" s="131"/>
-      <c r="ALZ1" s="131"/>
-      <c r="AMA1" s="131"/>
-      <c r="AMB1" s="131"/>
-      <c r="AMC1" s="131"/>
-      <c r="AMD1" s="131"/>
-      <c r="AME1" s="131"/>
-      <c r="AMF1" s="131"/>
-      <c r="AMG1" s="131"/>
-      <c r="AMH1" s="131"/>
-      <c r="AMI1" s="131"/>
-      <c r="AMJ1" s="131"/>
-      <c r="AMK1" s="131"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="130"/>
+      <c r="AC1" s="130"/>
+      <c r="AD1" s="130"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="130"/>
+      <c r="AG1" s="130"/>
+      <c r="AH1" s="130"/>
+      <c r="AI1" s="130"/>
+      <c r="AJ1" s="130"/>
+      <c r="AK1" s="130"/>
+      <c r="AL1" s="130"/>
+      <c r="AM1" s="130"/>
+      <c r="AN1" s="130"/>
+      <c r="AO1" s="130"/>
+      <c r="AP1" s="130"/>
+      <c r="AQ1" s="130"/>
+      <c r="AR1" s="130"/>
+      <c r="AS1" s="130"/>
+      <c r="AT1" s="130"/>
+      <c r="AU1" s="130"/>
+      <c r="AV1" s="130"/>
+      <c r="AW1" s="130"/>
+      <c r="AX1" s="130"/>
+      <c r="AY1" s="130"/>
+      <c r="AZ1" s="130"/>
+      <c r="BA1" s="130"/>
+      <c r="BB1" s="130"/>
+      <c r="BC1" s="130"/>
+      <c r="BD1" s="130"/>
+      <c r="BE1" s="130"/>
+      <c r="BF1" s="130"/>
+      <c r="BG1" s="130"/>
+      <c r="BH1" s="130"/>
+      <c r="BI1" s="130"/>
+      <c r="BJ1" s="130"/>
+      <c r="BK1" s="130"/>
+      <c r="BL1" s="130"/>
+      <c r="BM1" s="130"/>
+      <c r="BN1" s="130"/>
+      <c r="BO1" s="130"/>
+      <c r="BP1" s="130"/>
+      <c r="BQ1" s="130"/>
+      <c r="BR1" s="130"/>
+      <c r="BS1" s="130"/>
+      <c r="BT1" s="130"/>
+      <c r="BU1" s="130"/>
+      <c r="BV1" s="130"/>
+      <c r="BW1" s="130"/>
+      <c r="BX1" s="130"/>
+      <c r="BY1" s="130"/>
+      <c r="BZ1" s="130"/>
+      <c r="CA1" s="130"/>
+      <c r="CB1" s="130"/>
+      <c r="CC1" s="130"/>
+      <c r="CD1" s="130"/>
+      <c r="CE1" s="130"/>
+      <c r="CF1" s="130"/>
+      <c r="CG1" s="130"/>
+      <c r="CH1" s="130"/>
+      <c r="CI1" s="130"/>
+      <c r="CJ1" s="130"/>
+      <c r="CK1" s="130"/>
+      <c r="CL1" s="130"/>
+      <c r="CM1" s="130"/>
+      <c r="CN1" s="130"/>
+      <c r="CO1" s="130"/>
+      <c r="CP1" s="130"/>
+      <c r="CQ1" s="130"/>
+      <c r="CR1" s="130"/>
+      <c r="CS1" s="130"/>
+      <c r="CT1" s="130"/>
+      <c r="CU1" s="130"/>
+      <c r="CV1" s="130"/>
+      <c r="CW1" s="130"/>
+      <c r="CX1" s="130"/>
+      <c r="CY1" s="130"/>
+      <c r="CZ1" s="130"/>
+      <c r="DA1" s="130"/>
+      <c r="DB1" s="130"/>
+      <c r="DC1" s="130"/>
+      <c r="DD1" s="130"/>
+      <c r="DE1" s="130"/>
+      <c r="DF1" s="130"/>
+      <c r="DG1" s="130"/>
+      <c r="DH1" s="130"/>
+      <c r="DI1" s="130"/>
+      <c r="DJ1" s="130"/>
+      <c r="DK1" s="130"/>
+      <c r="DL1" s="130"/>
+      <c r="DM1" s="130"/>
+      <c r="DN1" s="130"/>
+      <c r="DO1" s="130"/>
+      <c r="DP1" s="130"/>
+      <c r="DQ1" s="130"/>
+      <c r="DR1" s="130"/>
+      <c r="DS1" s="130"/>
+      <c r="DT1" s="130"/>
+      <c r="DU1" s="130"/>
+      <c r="DV1" s="130"/>
+      <c r="DW1" s="130"/>
+      <c r="DX1" s="130"/>
+      <c r="DY1" s="130"/>
+      <c r="DZ1" s="130"/>
+      <c r="EA1" s="130"/>
+      <c r="EB1" s="130"/>
+      <c r="EC1" s="130"/>
+      <c r="ED1" s="130"/>
+      <c r="EE1" s="130"/>
+      <c r="EF1" s="130"/>
+      <c r="EG1" s="130"/>
+      <c r="EH1" s="130"/>
+      <c r="EI1" s="130"/>
+      <c r="EJ1" s="130"/>
+      <c r="EK1" s="130"/>
+      <c r="EL1" s="130"/>
+      <c r="EM1" s="130"/>
+      <c r="EN1" s="130"/>
+      <c r="EO1" s="130"/>
+      <c r="EP1" s="130"/>
+      <c r="EQ1" s="130"/>
+      <c r="ER1" s="130"/>
+      <c r="ES1" s="130"/>
+      <c r="ET1" s="130"/>
+      <c r="EU1" s="130"/>
+      <c r="EV1" s="130"/>
+      <c r="EW1" s="130"/>
+      <c r="EX1" s="130"/>
+      <c r="EY1" s="130"/>
+      <c r="EZ1" s="130"/>
+      <c r="FA1" s="130"/>
+      <c r="FB1" s="130"/>
+      <c r="FC1" s="130"/>
+      <c r="FD1" s="130"/>
+      <c r="FE1" s="130"/>
+      <c r="FF1" s="130"/>
+      <c r="FG1" s="130"/>
+      <c r="FH1" s="130"/>
+      <c r="FI1" s="130"/>
+      <c r="FJ1" s="130"/>
+      <c r="FK1" s="130"/>
+      <c r="FL1" s="130"/>
+      <c r="FM1" s="130"/>
+      <c r="FN1" s="130"/>
+      <c r="FO1" s="130"/>
+      <c r="FP1" s="130"/>
+      <c r="FQ1" s="130"/>
+      <c r="FR1" s="130"/>
+      <c r="FS1" s="130"/>
+      <c r="FT1" s="130"/>
+      <c r="FU1" s="130"/>
+      <c r="FV1" s="130"/>
+      <c r="FW1" s="130"/>
+      <c r="FX1" s="130"/>
+      <c r="FY1" s="130"/>
+      <c r="FZ1" s="130"/>
+      <c r="GA1" s="130"/>
+      <c r="GB1" s="130"/>
+      <c r="GC1" s="130"/>
+      <c r="GD1" s="130"/>
+      <c r="GE1" s="130"/>
+      <c r="GF1" s="130"/>
+      <c r="GG1" s="130"/>
+      <c r="GH1" s="130"/>
+      <c r="GI1" s="130"/>
+      <c r="GJ1" s="130"/>
+      <c r="GK1" s="130"/>
+      <c r="GL1" s="130"/>
+      <c r="GM1" s="130"/>
+      <c r="GN1" s="130"/>
+      <c r="GO1" s="130"/>
+      <c r="GP1" s="130"/>
+      <c r="GQ1" s="130"/>
+      <c r="GR1" s="130"/>
+      <c r="GS1" s="130"/>
+      <c r="GT1" s="130"/>
+      <c r="GU1" s="130"/>
+      <c r="GV1" s="130"/>
+      <c r="GW1" s="130"/>
+      <c r="GX1" s="130"/>
+      <c r="GY1" s="130"/>
+      <c r="GZ1" s="130"/>
+      <c r="HA1" s="130"/>
+      <c r="HB1" s="130"/>
+      <c r="HC1" s="130"/>
+      <c r="HD1" s="130"/>
+      <c r="HE1" s="130"/>
+      <c r="HF1" s="130"/>
+      <c r="HG1" s="130"/>
+      <c r="HH1" s="130"/>
+      <c r="HI1" s="130"/>
+      <c r="HJ1" s="130"/>
+      <c r="HK1" s="130"/>
+      <c r="HL1" s="130"/>
+      <c r="HM1" s="130"/>
+      <c r="HN1" s="130"/>
+      <c r="HO1" s="130"/>
+      <c r="HP1" s="130"/>
+      <c r="HQ1" s="130"/>
+      <c r="HR1" s="130"/>
+      <c r="HS1" s="130"/>
+      <c r="HT1" s="130"/>
+      <c r="HU1" s="130"/>
+      <c r="HV1" s="130"/>
+      <c r="HW1" s="130"/>
+      <c r="HX1" s="130"/>
+      <c r="HY1" s="130"/>
+      <c r="HZ1" s="130"/>
+      <c r="IA1" s="130"/>
+      <c r="IB1" s="130"/>
+      <c r="IC1" s="130"/>
+      <c r="ID1" s="130"/>
+      <c r="IE1" s="130"/>
+      <c r="IF1" s="130"/>
+      <c r="IG1" s="130"/>
+      <c r="IH1" s="130"/>
+      <c r="II1" s="130"/>
+      <c r="IJ1" s="130"/>
+      <c r="IK1" s="130"/>
+      <c r="IL1" s="130"/>
+      <c r="IM1" s="130"/>
+      <c r="IN1" s="130"/>
+      <c r="IO1" s="130"/>
+      <c r="IP1" s="130"/>
+      <c r="IQ1" s="130"/>
+      <c r="IR1" s="130"/>
+      <c r="IS1" s="130"/>
+      <c r="IT1" s="130"/>
+      <c r="IU1" s="130"/>
+      <c r="IV1" s="130"/>
+      <c r="IW1" s="130"/>
+      <c r="IX1" s="130"/>
+      <c r="IY1" s="130"/>
+      <c r="IZ1" s="130"/>
+      <c r="JA1" s="130"/>
+      <c r="JB1" s="130"/>
+      <c r="JC1" s="130"/>
+      <c r="JD1" s="130"/>
+      <c r="JE1" s="130"/>
+      <c r="JF1" s="130"/>
+      <c r="JG1" s="130"/>
+      <c r="JH1" s="130"/>
+      <c r="JI1" s="130"/>
+      <c r="JJ1" s="130"/>
+      <c r="JK1" s="130"/>
+      <c r="JL1" s="130"/>
+      <c r="JM1" s="130"/>
+      <c r="JN1" s="130"/>
+      <c r="JO1" s="130"/>
+      <c r="JP1" s="130"/>
+      <c r="JQ1" s="130"/>
+      <c r="JR1" s="130"/>
+      <c r="JS1" s="130"/>
+      <c r="JT1" s="130"/>
+      <c r="JU1" s="130"/>
+      <c r="JV1" s="130"/>
+      <c r="JW1" s="130"/>
+      <c r="JX1" s="130"/>
+      <c r="JY1" s="130"/>
+      <c r="JZ1" s="130"/>
+      <c r="KA1" s="130"/>
+      <c r="KB1" s="130"/>
+      <c r="KC1" s="130"/>
+      <c r="KD1" s="130"/>
+      <c r="KE1" s="130"/>
+      <c r="KF1" s="130"/>
+      <c r="KG1" s="130"/>
+      <c r="KH1" s="130"/>
+      <c r="KI1" s="130"/>
+      <c r="KJ1" s="130"/>
+      <c r="KK1" s="130"/>
+      <c r="KL1" s="130"/>
+      <c r="KM1" s="130"/>
+      <c r="KN1" s="130"/>
+      <c r="KO1" s="130"/>
+      <c r="KP1" s="130"/>
+      <c r="KQ1" s="130"/>
+      <c r="KR1" s="130"/>
+      <c r="KS1" s="130"/>
+      <c r="KT1" s="130"/>
+      <c r="KU1" s="130"/>
+      <c r="KV1" s="130"/>
+      <c r="KW1" s="130"/>
+      <c r="KX1" s="130"/>
+      <c r="KY1" s="130"/>
+      <c r="KZ1" s="130"/>
+      <c r="LA1" s="130"/>
+      <c r="LB1" s="130"/>
+      <c r="LC1" s="130"/>
+      <c r="LD1" s="130"/>
+      <c r="LE1" s="130"/>
+      <c r="LF1" s="130"/>
+      <c r="LG1" s="130"/>
+      <c r="LH1" s="130"/>
+      <c r="LI1" s="130"/>
+      <c r="LJ1" s="130"/>
+      <c r="LK1" s="130"/>
+      <c r="LL1" s="130"/>
+      <c r="LM1" s="130"/>
+      <c r="LN1" s="130"/>
+      <c r="LO1" s="130"/>
+      <c r="LP1" s="130"/>
+      <c r="LQ1" s="130"/>
+      <c r="LR1" s="130"/>
+      <c r="LS1" s="130"/>
+      <c r="LT1" s="130"/>
+      <c r="LU1" s="130"/>
+      <c r="LV1" s="130"/>
+      <c r="LW1" s="130"/>
+      <c r="LX1" s="130"/>
+      <c r="LY1" s="130"/>
+      <c r="LZ1" s="130"/>
+      <c r="MA1" s="130"/>
+      <c r="MB1" s="130"/>
+      <c r="MC1" s="130"/>
+      <c r="MD1" s="130"/>
+      <c r="ME1" s="130"/>
+      <c r="MF1" s="130"/>
+      <c r="MG1" s="130"/>
+      <c r="MH1" s="130"/>
+      <c r="MI1" s="130"/>
+      <c r="MJ1" s="130"/>
+      <c r="MK1" s="130"/>
+      <c r="ML1" s="130"/>
+      <c r="MM1" s="130"/>
+      <c r="MN1" s="130"/>
+      <c r="MO1" s="130"/>
+      <c r="MP1" s="130"/>
+      <c r="MQ1" s="130"/>
+      <c r="MR1" s="130"/>
+      <c r="MS1" s="130"/>
+      <c r="MT1" s="130"/>
+      <c r="MU1" s="130"/>
+      <c r="MV1" s="130"/>
+      <c r="MW1" s="130"/>
+      <c r="MX1" s="130"/>
+      <c r="MY1" s="130"/>
+      <c r="MZ1" s="130"/>
+      <c r="NA1" s="130"/>
+      <c r="NB1" s="130"/>
+      <c r="NC1" s="130"/>
+      <c r="ND1" s="130"/>
+      <c r="NE1" s="130"/>
+      <c r="NF1" s="130"/>
+      <c r="NG1" s="130"/>
+      <c r="NH1" s="130"/>
+      <c r="NI1" s="130"/>
+      <c r="NJ1" s="130"/>
+      <c r="NK1" s="130"/>
+      <c r="NL1" s="130"/>
+      <c r="NM1" s="130"/>
+      <c r="NN1" s="130"/>
+      <c r="NO1" s="130"/>
+      <c r="NP1" s="130"/>
+      <c r="NQ1" s="130"/>
+      <c r="NR1" s="130"/>
+      <c r="NS1" s="130"/>
+      <c r="NT1" s="130"/>
+      <c r="NU1" s="130"/>
+      <c r="NV1" s="130"/>
+      <c r="NW1" s="130"/>
+      <c r="NX1" s="130"/>
+      <c r="NY1" s="130"/>
+      <c r="NZ1" s="130"/>
+      <c r="OA1" s="130"/>
+      <c r="OB1" s="130"/>
+      <c r="OC1" s="130"/>
+      <c r="OD1" s="130"/>
+      <c r="OE1" s="130"/>
+      <c r="OF1" s="130"/>
+      <c r="OG1" s="130"/>
+      <c r="OH1" s="130"/>
+      <c r="OI1" s="130"/>
+      <c r="OJ1" s="130"/>
+      <c r="OK1" s="130"/>
+      <c r="OL1" s="130"/>
+      <c r="OM1" s="130"/>
+      <c r="ON1" s="130"/>
+      <c r="OO1" s="130"/>
+      <c r="OP1" s="130"/>
+      <c r="OQ1" s="130"/>
+      <c r="OR1" s="130"/>
+      <c r="OS1" s="130"/>
+      <c r="OT1" s="130"/>
+      <c r="OU1" s="130"/>
+      <c r="OV1" s="130"/>
+      <c r="OW1" s="130"/>
+      <c r="OX1" s="130"/>
+      <c r="OY1" s="130"/>
+      <c r="OZ1" s="130"/>
+      <c r="PA1" s="130"/>
+      <c r="PB1" s="130"/>
+      <c r="PC1" s="130"/>
+      <c r="PD1" s="130"/>
+      <c r="PE1" s="130"/>
+      <c r="PF1" s="130"/>
+      <c r="PG1" s="130"/>
+      <c r="PH1" s="130"/>
+      <c r="PI1" s="130"/>
+      <c r="PJ1" s="130"/>
+      <c r="PK1" s="130"/>
+      <c r="PL1" s="130"/>
+      <c r="PM1" s="130"/>
+      <c r="PN1" s="130"/>
+      <c r="PO1" s="130"/>
+      <c r="PP1" s="130"/>
+      <c r="PQ1" s="130"/>
+      <c r="PR1" s="130"/>
+      <c r="PS1" s="130"/>
+      <c r="PT1" s="130"/>
+      <c r="PU1" s="130"/>
+      <c r="PV1" s="130"/>
+      <c r="PW1" s="130"/>
+      <c r="PX1" s="130"/>
+      <c r="PY1" s="130"/>
+      <c r="PZ1" s="130"/>
+      <c r="QA1" s="130"/>
+      <c r="QB1" s="130"/>
+      <c r="QC1" s="130"/>
+      <c r="QD1" s="130"/>
+      <c r="QE1" s="130"/>
+      <c r="QF1" s="130"/>
+      <c r="QG1" s="130"/>
+      <c r="QH1" s="130"/>
+      <c r="QI1" s="130"/>
+      <c r="QJ1" s="130"/>
+      <c r="QK1" s="130"/>
+      <c r="QL1" s="130"/>
+      <c r="QM1" s="130"/>
+      <c r="QN1" s="130"/>
+      <c r="QO1" s="130"/>
+      <c r="QP1" s="130"/>
+      <c r="QQ1" s="130"/>
+      <c r="QR1" s="130"/>
+      <c r="QS1" s="130"/>
+      <c r="QT1" s="130"/>
+      <c r="QU1" s="130"/>
+      <c r="QV1" s="130"/>
+      <c r="QW1" s="130"/>
+      <c r="QX1" s="130"/>
+      <c r="QY1" s="130"/>
+      <c r="QZ1" s="130"/>
+      <c r="RA1" s="130"/>
+      <c r="RB1" s="130"/>
+      <c r="RC1" s="130"/>
+      <c r="RD1" s="130"/>
+      <c r="RE1" s="130"/>
+      <c r="RF1" s="130"/>
+      <c r="RG1" s="130"/>
+      <c r="RH1" s="130"/>
+      <c r="RI1" s="130"/>
+      <c r="RJ1" s="130"/>
+      <c r="RK1" s="130"/>
+      <c r="RL1" s="130"/>
+      <c r="RM1" s="130"/>
+      <c r="RN1" s="130"/>
+      <c r="RO1" s="130"/>
+      <c r="RP1" s="130"/>
+      <c r="RQ1" s="130"/>
+      <c r="RR1" s="130"/>
+      <c r="RS1" s="130"/>
+      <c r="RT1" s="130"/>
+      <c r="RU1" s="130"/>
+      <c r="RV1" s="130"/>
+      <c r="RW1" s="130"/>
+      <c r="RX1" s="130"/>
+      <c r="RY1" s="130"/>
+      <c r="RZ1" s="130"/>
+      <c r="SA1" s="130"/>
+      <c r="SB1" s="130"/>
+      <c r="SC1" s="130"/>
+      <c r="SD1" s="130"/>
+      <c r="SE1" s="130"/>
+      <c r="SF1" s="130"/>
+      <c r="SG1" s="130"/>
+      <c r="SH1" s="130"/>
+      <c r="SI1" s="130"/>
+      <c r="SJ1" s="130"/>
+      <c r="SK1" s="130"/>
+      <c r="SL1" s="130"/>
+      <c r="SM1" s="130"/>
+      <c r="SN1" s="130"/>
+      <c r="SO1" s="130"/>
+      <c r="SP1" s="130"/>
+      <c r="SQ1" s="130"/>
+      <c r="SR1" s="130"/>
+      <c r="SS1" s="130"/>
+      <c r="ST1" s="130"/>
+      <c r="SU1" s="130"/>
+      <c r="SV1" s="130"/>
+      <c r="SW1" s="130"/>
+      <c r="SX1" s="130"/>
+      <c r="SY1" s="130"/>
+      <c r="SZ1" s="130"/>
+      <c r="TA1" s="130"/>
+      <c r="TB1" s="130"/>
+      <c r="TC1" s="130"/>
+      <c r="TD1" s="130"/>
+      <c r="TE1" s="130"/>
+      <c r="TF1" s="130"/>
+      <c r="TG1" s="130"/>
+      <c r="TH1" s="130"/>
+      <c r="TI1" s="130"/>
+      <c r="TJ1" s="130"/>
+      <c r="TK1" s="130"/>
+      <c r="TL1" s="130"/>
+      <c r="TM1" s="130"/>
+      <c r="TN1" s="130"/>
+      <c r="TO1" s="130"/>
+      <c r="TP1" s="130"/>
+      <c r="TQ1" s="130"/>
+      <c r="TR1" s="130"/>
+      <c r="TS1" s="130"/>
+      <c r="TT1" s="130"/>
+      <c r="TU1" s="130"/>
+      <c r="TV1" s="130"/>
+      <c r="TW1" s="130"/>
+      <c r="TX1" s="130"/>
+      <c r="TY1" s="130"/>
+      <c r="TZ1" s="130"/>
+      <c r="UA1" s="130"/>
+      <c r="UB1" s="130"/>
+      <c r="UC1" s="130"/>
+      <c r="UD1" s="130"/>
+      <c r="UE1" s="130"/>
+      <c r="UF1" s="130"/>
+      <c r="UG1" s="130"/>
+      <c r="UH1" s="130"/>
+      <c r="UI1" s="130"/>
+      <c r="UJ1" s="130"/>
+      <c r="UK1" s="130"/>
+      <c r="UL1" s="130"/>
+      <c r="UM1" s="130"/>
+      <c r="UN1" s="130"/>
+      <c r="UO1" s="130"/>
+      <c r="UP1" s="130"/>
+      <c r="UQ1" s="130"/>
+      <c r="UR1" s="130"/>
+      <c r="US1" s="130"/>
+      <c r="UT1" s="130"/>
+      <c r="UU1" s="130"/>
+      <c r="UV1" s="130"/>
+      <c r="UW1" s="130"/>
+      <c r="UX1" s="130"/>
+      <c r="UY1" s="130"/>
+      <c r="UZ1" s="130"/>
+      <c r="VA1" s="130"/>
+      <c r="VB1" s="130"/>
+      <c r="VC1" s="130"/>
+      <c r="VD1" s="130"/>
+      <c r="VE1" s="130"/>
+      <c r="VF1" s="130"/>
+      <c r="VG1" s="130"/>
+      <c r="VH1" s="130"/>
+      <c r="VI1" s="130"/>
+      <c r="VJ1" s="130"/>
+      <c r="VK1" s="130"/>
+      <c r="VL1" s="130"/>
+      <c r="VM1" s="130"/>
+      <c r="VN1" s="130"/>
+      <c r="VO1" s="130"/>
+      <c r="VP1" s="130"/>
+      <c r="VQ1" s="130"/>
+      <c r="VR1" s="130"/>
+      <c r="VS1" s="130"/>
+      <c r="VT1" s="130"/>
+      <c r="VU1" s="130"/>
+      <c r="VV1" s="130"/>
+      <c r="VW1" s="130"/>
+      <c r="VX1" s="130"/>
+      <c r="VY1" s="130"/>
+      <c r="VZ1" s="130"/>
+      <c r="WA1" s="130"/>
+      <c r="WB1" s="130"/>
+      <c r="WC1" s="130"/>
+      <c r="WD1" s="130"/>
+      <c r="WE1" s="130"/>
+      <c r="WF1" s="130"/>
+      <c r="WG1" s="130"/>
+      <c r="WH1" s="130"/>
+      <c r="WI1" s="130"/>
+      <c r="WJ1" s="130"/>
+      <c r="WK1" s="130"/>
+      <c r="WL1" s="130"/>
+      <c r="WM1" s="130"/>
+      <c r="WN1" s="130"/>
+      <c r="WO1" s="130"/>
+      <c r="WP1" s="130"/>
+      <c r="WQ1" s="130"/>
+      <c r="WR1" s="130"/>
+      <c r="WS1" s="130"/>
+      <c r="WT1" s="130"/>
+      <c r="WU1" s="130"/>
+      <c r="WV1" s="130"/>
+      <c r="WW1" s="130"/>
+      <c r="WX1" s="130"/>
+      <c r="WY1" s="130"/>
+      <c r="WZ1" s="130"/>
+      <c r="XA1" s="130"/>
+      <c r="XB1" s="130"/>
+      <c r="XC1" s="130"/>
+      <c r="XD1" s="130"/>
+      <c r="XE1" s="130"/>
+      <c r="XF1" s="130"/>
+      <c r="XG1" s="130"/>
+      <c r="XH1" s="130"/>
+      <c r="XI1" s="130"/>
+      <c r="XJ1" s="130"/>
+      <c r="XK1" s="130"/>
+      <c r="XL1" s="130"/>
+      <c r="XM1" s="130"/>
+      <c r="XN1" s="130"/>
+      <c r="XO1" s="130"/>
+      <c r="XP1" s="130"/>
+      <c r="XQ1" s="130"/>
+      <c r="XR1" s="130"/>
+      <c r="XS1" s="130"/>
+      <c r="XT1" s="130"/>
+      <c r="XU1" s="130"/>
+      <c r="XV1" s="130"/>
+      <c r="XW1" s="130"/>
+      <c r="XX1" s="130"/>
+      <c r="XY1" s="130"/>
+      <c r="XZ1" s="130"/>
+      <c r="YA1" s="130"/>
+      <c r="YB1" s="130"/>
+      <c r="YC1" s="130"/>
+      <c r="YD1" s="130"/>
+      <c r="YE1" s="130"/>
+      <c r="YF1" s="130"/>
+      <c r="YG1" s="130"/>
+      <c r="YH1" s="130"/>
+      <c r="YI1" s="130"/>
+      <c r="YJ1" s="130"/>
+      <c r="YK1" s="130"/>
+      <c r="YL1" s="130"/>
+      <c r="YM1" s="130"/>
+      <c r="YN1" s="130"/>
+      <c r="YO1" s="130"/>
+      <c r="YP1" s="130"/>
+      <c r="YQ1" s="130"/>
+      <c r="YR1" s="130"/>
+      <c r="YS1" s="130"/>
+      <c r="YT1" s="130"/>
+      <c r="YU1" s="130"/>
+      <c r="YV1" s="130"/>
+      <c r="YW1" s="130"/>
+      <c r="YX1" s="130"/>
+      <c r="YY1" s="130"/>
+      <c r="YZ1" s="130"/>
+      <c r="ZA1" s="130"/>
+      <c r="ZB1" s="130"/>
+      <c r="ZC1" s="130"/>
+      <c r="ZD1" s="130"/>
+      <c r="ZE1" s="130"/>
+      <c r="ZF1" s="130"/>
+      <c r="ZG1" s="130"/>
+      <c r="ZH1" s="130"/>
+      <c r="ZI1" s="130"/>
+      <c r="ZJ1" s="130"/>
+      <c r="ZK1" s="130"/>
+      <c r="ZL1" s="130"/>
+      <c r="ZM1" s="130"/>
+      <c r="ZN1" s="130"/>
+      <c r="ZO1" s="130"/>
+      <c r="ZP1" s="130"/>
+      <c r="ZQ1" s="130"/>
+      <c r="ZR1" s="130"/>
+      <c r="ZS1" s="130"/>
+      <c r="ZT1" s="130"/>
+      <c r="ZU1" s="130"/>
+      <c r="ZV1" s="130"/>
+      <c r="ZW1" s="130"/>
+      <c r="ZX1" s="130"/>
+      <c r="ZY1" s="130"/>
+      <c r="ZZ1" s="130"/>
+      <c r="AAA1" s="130"/>
+      <c r="AAB1" s="130"/>
+      <c r="AAC1" s="130"/>
+      <c r="AAD1" s="130"/>
+      <c r="AAE1" s="130"/>
+      <c r="AAF1" s="130"/>
+      <c r="AAG1" s="130"/>
+      <c r="AAH1" s="130"/>
+      <c r="AAI1" s="130"/>
+      <c r="AAJ1" s="130"/>
+      <c r="AAK1" s="130"/>
+      <c r="AAL1" s="130"/>
+      <c r="AAM1" s="130"/>
+      <c r="AAN1" s="130"/>
+      <c r="AAO1" s="130"/>
+      <c r="AAP1" s="130"/>
+      <c r="AAQ1" s="130"/>
+      <c r="AAR1" s="130"/>
+      <c r="AAS1" s="130"/>
+      <c r="AAT1" s="130"/>
+      <c r="AAU1" s="130"/>
+      <c r="AAV1" s="130"/>
+      <c r="AAW1" s="130"/>
+      <c r="AAX1" s="130"/>
+      <c r="AAY1" s="130"/>
+      <c r="AAZ1" s="130"/>
+      <c r="ABA1" s="130"/>
+      <c r="ABB1" s="130"/>
+      <c r="ABC1" s="130"/>
+      <c r="ABD1" s="130"/>
+      <c r="ABE1" s="130"/>
+      <c r="ABF1" s="130"/>
+      <c r="ABG1" s="130"/>
+      <c r="ABH1" s="130"/>
+      <c r="ABI1" s="130"/>
+      <c r="ABJ1" s="130"/>
+      <c r="ABK1" s="130"/>
+      <c r="ABL1" s="130"/>
+      <c r="ABM1" s="130"/>
+      <c r="ABN1" s="130"/>
+      <c r="ABO1" s="130"/>
+      <c r="ABP1" s="130"/>
+      <c r="ABQ1" s="130"/>
+      <c r="ABR1" s="130"/>
+      <c r="ABS1" s="130"/>
+      <c r="ABT1" s="130"/>
+      <c r="ABU1" s="130"/>
+      <c r="ABV1" s="130"/>
+      <c r="ABW1" s="130"/>
+      <c r="ABX1" s="130"/>
+      <c r="ABY1" s="130"/>
+      <c r="ABZ1" s="130"/>
+      <c r="ACA1" s="130"/>
+      <c r="ACB1" s="130"/>
+      <c r="ACC1" s="130"/>
+      <c r="ACD1" s="130"/>
+      <c r="ACE1" s="130"/>
+      <c r="ACF1" s="130"/>
+      <c r="ACG1" s="130"/>
+      <c r="ACH1" s="130"/>
+      <c r="ACI1" s="130"/>
+      <c r="ACJ1" s="130"/>
+      <c r="ACK1" s="130"/>
+      <c r="ACL1" s="130"/>
+      <c r="ACM1" s="130"/>
+      <c r="ACN1" s="130"/>
+      <c r="ACO1" s="130"/>
+      <c r="ACP1" s="130"/>
+      <c r="ACQ1" s="130"/>
+      <c r="ACR1" s="130"/>
+      <c r="ACS1" s="130"/>
+      <c r="ACT1" s="130"/>
+      <c r="ACU1" s="130"/>
+      <c r="ACV1" s="130"/>
+      <c r="ACW1" s="130"/>
+      <c r="ACX1" s="130"/>
+      <c r="ACY1" s="130"/>
+      <c r="ACZ1" s="130"/>
+      <c r="ADA1" s="130"/>
+      <c r="ADB1" s="130"/>
+      <c r="ADC1" s="130"/>
+      <c r="ADD1" s="130"/>
+      <c r="ADE1" s="130"/>
+      <c r="ADF1" s="130"/>
+      <c r="ADG1" s="130"/>
+      <c r="ADH1" s="130"/>
+      <c r="ADI1" s="130"/>
+      <c r="ADJ1" s="130"/>
+      <c r="ADK1" s="130"/>
+      <c r="ADL1" s="130"/>
+      <c r="ADM1" s="130"/>
+      <c r="ADN1" s="130"/>
+      <c r="ADO1" s="130"/>
+      <c r="ADP1" s="130"/>
+      <c r="ADQ1" s="130"/>
+      <c r="ADR1" s="130"/>
+      <c r="ADS1" s="130"/>
+      <c r="ADT1" s="130"/>
+      <c r="ADU1" s="130"/>
+      <c r="ADV1" s="130"/>
+      <c r="ADW1" s="130"/>
+      <c r="ADX1" s="130"/>
+      <c r="ADY1" s="130"/>
+      <c r="ADZ1" s="130"/>
+      <c r="AEA1" s="130"/>
+      <c r="AEB1" s="130"/>
+      <c r="AEC1" s="130"/>
+      <c r="AED1" s="130"/>
+      <c r="AEE1" s="130"/>
+      <c r="AEF1" s="130"/>
+      <c r="AEG1" s="130"/>
+      <c r="AEH1" s="130"/>
+      <c r="AEI1" s="130"/>
+      <c r="AEJ1" s="130"/>
+      <c r="AEK1" s="130"/>
+      <c r="AEL1" s="130"/>
+      <c r="AEM1" s="130"/>
+      <c r="AEN1" s="130"/>
+      <c r="AEO1" s="130"/>
+      <c r="AEP1" s="130"/>
+      <c r="AEQ1" s="130"/>
+      <c r="AER1" s="130"/>
+      <c r="AES1" s="130"/>
+      <c r="AET1" s="130"/>
+      <c r="AEU1" s="130"/>
+      <c r="AEV1" s="130"/>
+      <c r="AEW1" s="130"/>
+      <c r="AEX1" s="130"/>
+      <c r="AEY1" s="130"/>
+      <c r="AEZ1" s="130"/>
+      <c r="AFA1" s="130"/>
+      <c r="AFB1" s="130"/>
+      <c r="AFC1" s="130"/>
+      <c r="AFD1" s="130"/>
+      <c r="AFE1" s="130"/>
+      <c r="AFF1" s="130"/>
+      <c r="AFG1" s="130"/>
+      <c r="AFH1" s="130"/>
+      <c r="AFI1" s="130"/>
+      <c r="AFJ1" s="130"/>
+      <c r="AFK1" s="130"/>
+      <c r="AFL1" s="130"/>
+      <c r="AFM1" s="130"/>
+      <c r="AFN1" s="130"/>
+      <c r="AFO1" s="130"/>
+      <c r="AFP1" s="130"/>
+      <c r="AFQ1" s="130"/>
+      <c r="AFR1" s="130"/>
+      <c r="AFS1" s="130"/>
+      <c r="AFT1" s="130"/>
+      <c r="AFU1" s="130"/>
+      <c r="AFV1" s="130"/>
+      <c r="AFW1" s="130"/>
+      <c r="AFX1" s="130"/>
+      <c r="AFY1" s="130"/>
+      <c r="AFZ1" s="130"/>
+      <c r="AGA1" s="130"/>
+      <c r="AGB1" s="130"/>
+      <c r="AGC1" s="130"/>
+      <c r="AGD1" s="130"/>
+      <c r="AGE1" s="130"/>
+      <c r="AGF1" s="130"/>
+      <c r="AGG1" s="130"/>
+      <c r="AGH1" s="130"/>
+      <c r="AGI1" s="130"/>
+      <c r="AGJ1" s="130"/>
+      <c r="AGK1" s="130"/>
+      <c r="AGL1" s="130"/>
+      <c r="AGM1" s="130"/>
+      <c r="AGN1" s="130"/>
+      <c r="AGO1" s="130"/>
+      <c r="AGP1" s="130"/>
+      <c r="AGQ1" s="130"/>
+      <c r="AGR1" s="130"/>
+      <c r="AGS1" s="130"/>
+      <c r="AGT1" s="130"/>
+      <c r="AGU1" s="130"/>
+      <c r="AGV1" s="130"/>
+      <c r="AGW1" s="130"/>
+      <c r="AGX1" s="130"/>
+      <c r="AGY1" s="130"/>
+      <c r="AGZ1" s="130"/>
+      <c r="AHA1" s="130"/>
+      <c r="AHB1" s="130"/>
+      <c r="AHC1" s="130"/>
+      <c r="AHD1" s="130"/>
+      <c r="AHE1" s="130"/>
+      <c r="AHF1" s="130"/>
+      <c r="AHG1" s="130"/>
+      <c r="AHH1" s="130"/>
+      <c r="AHI1" s="130"/>
+      <c r="AHJ1" s="130"/>
+      <c r="AHK1" s="130"/>
+      <c r="AHL1" s="130"/>
+      <c r="AHM1" s="130"/>
+      <c r="AHN1" s="130"/>
+      <c r="AHO1" s="130"/>
+      <c r="AHP1" s="130"/>
+      <c r="AHQ1" s="130"/>
+      <c r="AHR1" s="130"/>
+      <c r="AHS1" s="130"/>
+      <c r="AHT1" s="130"/>
+      <c r="AHU1" s="130"/>
+      <c r="AHV1" s="130"/>
+      <c r="AHW1" s="130"/>
+      <c r="AHX1" s="130"/>
+      <c r="AHY1" s="130"/>
+      <c r="AHZ1" s="130"/>
+      <c r="AIA1" s="130"/>
+      <c r="AIB1" s="130"/>
+      <c r="AIC1" s="130"/>
+      <c r="AID1" s="130"/>
+      <c r="AIE1" s="130"/>
+      <c r="AIF1" s="130"/>
+      <c r="AIG1" s="130"/>
+      <c r="AIH1" s="130"/>
+      <c r="AII1" s="130"/>
+      <c r="AIJ1" s="130"/>
+      <c r="AIK1" s="130"/>
+      <c r="AIL1" s="130"/>
+      <c r="AIM1" s="130"/>
+      <c r="AIN1" s="130"/>
+      <c r="AIO1" s="130"/>
+      <c r="AIP1" s="130"/>
+      <c r="AIQ1" s="130"/>
+      <c r="AIR1" s="130"/>
+      <c r="AIS1" s="130"/>
+      <c r="AIT1" s="130"/>
+      <c r="AIU1" s="130"/>
+      <c r="AIV1" s="130"/>
+      <c r="AIW1" s="130"/>
+      <c r="AIX1" s="130"/>
+      <c r="AIY1" s="130"/>
+      <c r="AIZ1" s="130"/>
+      <c r="AJA1" s="130"/>
+      <c r="AJB1" s="130"/>
+      <c r="AJC1" s="130"/>
+      <c r="AJD1" s="130"/>
+      <c r="AJE1" s="130"/>
+      <c r="AJF1" s="130"/>
+      <c r="AJG1" s="130"/>
+      <c r="AJH1" s="130"/>
+      <c r="AJI1" s="130"/>
+      <c r="AJJ1" s="130"/>
+      <c r="AJK1" s="130"/>
+      <c r="AJL1" s="130"/>
+      <c r="AJM1" s="130"/>
+      <c r="AJN1" s="130"/>
+      <c r="AJO1" s="130"/>
+      <c r="AJP1" s="130"/>
+      <c r="AJQ1" s="130"/>
+      <c r="AJR1" s="130"/>
+      <c r="AJS1" s="130"/>
+      <c r="AJT1" s="130"/>
+      <c r="AJU1" s="130"/>
+      <c r="AJV1" s="130"/>
+      <c r="AJW1" s="130"/>
+      <c r="AJX1" s="130"/>
+      <c r="AJY1" s="130"/>
+      <c r="AJZ1" s="130"/>
+      <c r="AKA1" s="130"/>
+      <c r="AKB1" s="130"/>
+      <c r="AKC1" s="130"/>
+      <c r="AKD1" s="130"/>
+      <c r="AKE1" s="130"/>
+      <c r="AKF1" s="130"/>
+      <c r="AKG1" s="130"/>
+      <c r="AKH1" s="130"/>
+      <c r="AKI1" s="130"/>
+      <c r="AKJ1" s="130"/>
+      <c r="AKK1" s="130"/>
+      <c r="AKL1" s="130"/>
+      <c r="AKM1" s="130"/>
+      <c r="AKN1" s="130"/>
+      <c r="AKO1" s="130"/>
+      <c r="AKP1" s="130"/>
+      <c r="AKQ1" s="130"/>
+      <c r="AKR1" s="130"/>
+      <c r="AKS1" s="130"/>
+      <c r="AKT1" s="130"/>
+      <c r="AKU1" s="130"/>
+      <c r="AKV1" s="130"/>
+      <c r="AKW1" s="130"/>
+      <c r="AKX1" s="130"/>
+      <c r="AKY1" s="130"/>
+      <c r="AKZ1" s="130"/>
+      <c r="ALA1" s="130"/>
+      <c r="ALB1" s="130"/>
+      <c r="ALC1" s="130"/>
+      <c r="ALD1" s="130"/>
+      <c r="ALE1" s="130"/>
+      <c r="ALF1" s="130"/>
+      <c r="ALG1" s="130"/>
+      <c r="ALH1" s="130"/>
+      <c r="ALI1" s="130"/>
+      <c r="ALJ1" s="130"/>
+      <c r="ALK1" s="130"/>
+      <c r="ALL1" s="130"/>
+      <c r="ALM1" s="130"/>
+      <c r="ALN1" s="130"/>
+      <c r="ALO1" s="130"/>
+      <c r="ALP1" s="130"/>
+      <c r="ALQ1" s="130"/>
+      <c r="ALR1" s="130"/>
+      <c r="ALS1" s="130"/>
+      <c r="ALT1" s="130"/>
+      <c r="ALU1" s="130"/>
+      <c r="ALV1" s="130"/>
+      <c r="ALW1" s="130"/>
+      <c r="ALX1" s="130"/>
+      <c r="ALY1" s="130"/>
+      <c r="ALZ1" s="130"/>
+      <c r="AMA1" s="130"/>
+      <c r="AMB1" s="130"/>
+      <c r="AMC1" s="130"/>
+      <c r="AMD1" s="130"/>
+      <c r="AME1" s="130"/>
+      <c r="AMF1" s="130"/>
+      <c r="AMG1" s="130"/>
+      <c r="AMH1" s="130"/>
+      <c r="AMI1" s="130"/>
+      <c r="AMJ1" s="130"/>
+      <c r="AMK1" s="130"/>
     </row>
     <row r="2" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="128" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="55" t="s">
@@ -4144,12 +4107,12 @@
       </c>
     </row>
     <row r="3" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="129" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="128" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="55" t="s">
@@ -4293,146 +4256,146 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="112" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="113" t="s">
+      <c r="D4" s="112" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113">
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112">
         <v>2013</v>
       </c>
-      <c r="K4" s="113"/>
+      <c r="K4" s="112"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="123" t="s">
+      <c r="A5" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="122" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="122" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="122" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="123" t="s">
+      <c r="E5" s="122" t="s">
         <v>170</v>
       </c>
-      <c r="F5" s="123" t="s">
+      <c r="F5" s="122" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="123">
+      <c r="G5" s="122">
         <v>5</v>
       </c>
-      <c r="H5" s="123">
+      <c r="H5" s="122">
         <v>12</v>
       </c>
-      <c r="I5" s="123" t="s">
+      <c r="I5" s="122" t="s">
         <v>171</v>
       </c>
-      <c r="J5" s="123">
+      <c r="J5" s="122">
         <v>2006</v>
       </c>
-      <c r="K5" s="123" t="s">
+      <c r="K5" s="122" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="123" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="124" t="s">
+      <c r="D6" s="123" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="124" t="s">
+      <c r="E6" s="123" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="124" t="s">
+      <c r="F6" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="124">
+      <c r="G6" s="123">
         <v>7</v>
       </c>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124">
+      <c r="H6" s="123"/>
+      <c r="I6" s="123">
         <v>511</v>
       </c>
-      <c r="J6" s="124">
+      <c r="J6" s="123">
         <v>2011</v>
       </c>
-      <c r="K6" s="124" t="s">
+      <c r="K6" s="123" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="124" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="124" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="125" t="s">
+      <c r="D7" s="124" t="s">
         <v>178</v>
       </c>
-      <c r="E7" s="125" t="s">
+      <c r="E7" s="124" t="s">
         <v>179</v>
       </c>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125">
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124">
         <v>2014</v>
       </c>
-      <c r="K7" s="125"/>
+      <c r="K7" s="124"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="125" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="126" t="s">
+      <c r="B8" s="125" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="126" t="s">
+      <c r="D8" s="125" t="s">
         <v>181</v>
       </c>
-      <c r="E8" s="126" t="s">
+      <c r="E8" s="125" t="s">
         <v>182</v>
       </c>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126">
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125">
         <v>2014</v>
       </c>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
     </row>
   </sheetData>
   <sortState ref="A2:L8">
@@ -4471,7 +4434,7 @@
       <c r="C1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="127" t="s">
+      <c r="D1" s="126" t="s">
         <v>188</v>
       </c>
       <c r="E1" s="17" t="s">
@@ -4522,7 +4485,7 @@
   <dimension ref="A1:I776"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6922,7 +6885,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7191,8 +7154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AME2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7305,7 +7268,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7314,9 +7277,9 @@
     <col min="2" max="3" width="20.7109375" style="4" customWidth="1"/>
     <col min="4" max="5" width="10.7109375" style="6" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="121" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" style="121" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" style="121" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="120" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="120" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" style="120" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" style="57" customWidth="1"/>
     <col min="13" max="13" width="20.7109375" style="55" customWidth="1"/>
     <col min="14" max="14" width="20.7109375" style="6" customWidth="1"/>
@@ -7384,24 +7347,24 @@
         <v>53</v>
       </c>
       <c r="C2" s="76"/>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="121"/>
+      <c r="E2" s="120"/>
       <c r="F2" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="121" t="s">
+      <c r="G2" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="121">
+      <c r="H2" s="120">
         <v>692</v>
       </c>
-      <c r="I2" s="121">
+      <c r="I2" s="120">
         <v>1834</v>
       </c>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
       <c r="L2" s="76" t="s">
         <v>57</v>
       </c>
@@ -8435,230 +8398,201 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ALR12"/>
+  <dimension ref="A1:ALP12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="25.7109375" style="42" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" style="56" customWidth="1"/>
-    <col min="5" max="6" width="25.7109375" style="82" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="25.7109375" style="42" customWidth="1"/>
-    <col min="10" max="1006" width="9.140625" style="1" customWidth="1"/>
-    <col min="1007" max="1008" width="9.140625" style="21" customWidth="1"/>
-    <col min="1009" max="1019" width="9" style="21" customWidth="1"/>
-    <col min="1020" max="16384" width="9" style="21"/>
+    <col min="5" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="25.7109375" style="42" customWidth="1"/>
+    <col min="8" max="1004" width="9.140625" style="1" customWidth="1"/>
+    <col min="1005" max="1006" width="9.140625" style="21" customWidth="1"/>
+    <col min="1007" max="1017" width="9" style="21" customWidth="1"/>
+    <col min="1018" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="41" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="134" t="s">
+    <row r="1" spans="1:11" s="41" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="134" t="s">
+      <c r="C1" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="134" t="s">
+      <c r="D1" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="145" t="s">
-        <v>202</v>
-      </c>
-      <c r="F1" s="145" t="s">
-        <v>203</v>
-      </c>
-      <c r="G1" s="135" t="s">
+      <c r="E1" s="134" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="134" t="s">
+      <c r="F1" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="134" t="s">
+      <c r="G1" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="137" t="s">
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="139" t="s">
+      <c r="D2" s="137"/>
+      <c r="E2" s="138" t="s">
         <v>63</v>
       </c>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
       <c r="H2" s="140"/>
       <c r="I2" s="140"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="137"/>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="141"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="137"/>
-      <c r="B4" s="137"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="137"/>
-      <c r="B5" s="137"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="141"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="137"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="137"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="137"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="141"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="137"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="137"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="141"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="137"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="141"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="137"/>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="141"/>
-      <c r="L11" s="141"/>
-      <c r="M11" s="141"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="137"/>
-      <c r="B12" s="137"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="141"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="136"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="136"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="136"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="140"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="136"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="140"/>
+      <c r="K8" s="140"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="136"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="140"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="136"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="140"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="136"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="140"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="136"/>
+      <c r="B12" s="136"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -8672,1110 +8606,92 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AML2"/>
+  <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I1" sqref="I1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" style="154" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="154" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" style="154" customWidth="1"/>
-    <col min="7" max="10" width="15.7109375" style="154" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="146" customWidth="1"/>
-    <col min="12" max="13" width="20.7109375" style="149" customWidth="1"/>
-    <col min="14" max="14" width="9" style="146" customWidth="1"/>
-    <col min="15" max="1024" width="9.140625" style="149" customWidth="1"/>
-    <col min="1025" max="1027" width="9.140625" style="146" customWidth="1"/>
-    <col min="1028" max="1038" width="9" style="146" customWidth="1"/>
-    <col min="1039" max="16384" width="9" style="146"/>
+    <col min="1" max="3" width="20.7109375" style="149" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="149" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" style="149" customWidth="1"/>
+    <col min="7" max="8" width="15.7109375" style="149" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="143" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" style="146" customWidth="1"/>
+    <col min="12" max="12" width="9" style="143" customWidth="1"/>
+    <col min="13" max="1022" width="9.140625" style="146" customWidth="1"/>
+    <col min="1023" max="1025" width="9.140625" style="143" customWidth="1"/>
+    <col min="1026" max="1036" width="9" style="143" customWidth="1"/>
+    <col min="1037" max="16384" width="9" style="143"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" s="142" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="148" t="s">
+    <row r="1" spans="1:1024" s="141" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="151" t="s">
+      <c r="C1" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="148" t="s">
+      <c r="D1" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="148" t="s">
+      <c r="E1" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="148" t="s">
+      <c r="F1" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="148" t="s">
+      <c r="G1" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="148" t="s">
+      <c r="H1" s="145" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="142" t="s">
-        <v>203</v>
-      </c>
-      <c r="J1" s="142" t="s">
-        <v>202</v>
-      </c>
-      <c r="K1" s="142" t="s">
+      <c r="I1" s="141" t="s">
         <v>188</v>
       </c>
-      <c r="L1" s="142" t="s">
+      <c r="J1" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="142" t="s">
+      <c r="K1" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="AMK1" s="150"/>
-      <c r="AML1" s="150"/>
-    </row>
-    <row r="2" spans="1:1026" s="146" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="AMI1" s="147"/>
+      <c r="AMJ1" s="147"/>
+    </row>
+    <row r="2" spans="1:1024" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="142" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="147" t="s">
+      <c r="C2" s="139"/>
+      <c r="D2" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="147" t="s">
+      <c r="E2" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="143" t="s">
+      <c r="F2" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="147">
+      <c r="G2" s="144">
         <v>652</v>
       </c>
-      <c r="H2" s="147">
+      <c r="H2" s="144">
         <v>1249</v>
       </c>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="149"/>
-      <c r="S2" s="149"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="149"/>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="149"/>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="149"/>
-      <c r="AF2" s="149"/>
-      <c r="AG2" s="149"/>
-      <c r="AH2" s="149"/>
-      <c r="AI2" s="149"/>
-      <c r="AJ2" s="149"/>
-      <c r="AK2" s="149"/>
-      <c r="AL2" s="149"/>
-      <c r="AM2" s="149"/>
-      <c r="AN2" s="149"/>
-      <c r="AO2" s="149"/>
-      <c r="AP2" s="149"/>
-      <c r="AQ2" s="149"/>
-      <c r="AR2" s="149"/>
-      <c r="AS2" s="149"/>
-      <c r="AT2" s="149"/>
-      <c r="AU2" s="149"/>
-      <c r="AV2" s="149"/>
-      <c r="AW2" s="149"/>
-      <c r="AX2" s="149"/>
-      <c r="AY2" s="149"/>
-      <c r="AZ2" s="149"/>
-      <c r="BA2" s="149"/>
-      <c r="BB2" s="149"/>
-      <c r="BC2" s="149"/>
-      <c r="BD2" s="149"/>
-      <c r="BE2" s="149"/>
-      <c r="BF2" s="149"/>
-      <c r="BG2" s="149"/>
-      <c r="BH2" s="149"/>
-      <c r="BI2" s="149"/>
-      <c r="BJ2" s="149"/>
-      <c r="BK2" s="149"/>
-      <c r="BL2" s="149"/>
-      <c r="BM2" s="149"/>
-      <c r="BN2" s="149"/>
-      <c r="BO2" s="149"/>
-      <c r="BP2" s="149"/>
-      <c r="BQ2" s="149"/>
-      <c r="BR2" s="149"/>
-      <c r="BS2" s="149"/>
-      <c r="BT2" s="149"/>
-      <c r="BU2" s="149"/>
-      <c r="BV2" s="149"/>
-      <c r="BW2" s="149"/>
-      <c r="BX2" s="149"/>
-      <c r="BY2" s="149"/>
-      <c r="BZ2" s="149"/>
-      <c r="CA2" s="149"/>
-      <c r="CB2" s="149"/>
-      <c r="CC2" s="149"/>
-      <c r="CD2" s="149"/>
-      <c r="CE2" s="149"/>
-      <c r="CF2" s="149"/>
-      <c r="CG2" s="149"/>
-      <c r="CH2" s="149"/>
-      <c r="CI2" s="149"/>
-      <c r="CJ2" s="149"/>
-      <c r="CK2" s="149"/>
-      <c r="CL2" s="149"/>
-      <c r="CM2" s="149"/>
-      <c r="CN2" s="149"/>
-      <c r="CO2" s="149"/>
-      <c r="CP2" s="149"/>
-      <c r="CQ2" s="149"/>
-      <c r="CR2" s="149"/>
-      <c r="CS2" s="149"/>
-      <c r="CT2" s="149"/>
-      <c r="CU2" s="149"/>
-      <c r="CV2" s="149"/>
-      <c r="CW2" s="149"/>
-      <c r="CX2" s="149"/>
-      <c r="CY2" s="149"/>
-      <c r="CZ2" s="149"/>
-      <c r="DA2" s="149"/>
-      <c r="DB2" s="149"/>
-      <c r="DC2" s="149"/>
-      <c r="DD2" s="149"/>
-      <c r="DE2" s="149"/>
-      <c r="DF2" s="149"/>
-      <c r="DG2" s="149"/>
-      <c r="DH2" s="149"/>
-      <c r="DI2" s="149"/>
-      <c r="DJ2" s="149"/>
-      <c r="DK2" s="149"/>
-      <c r="DL2" s="149"/>
-      <c r="DM2" s="149"/>
-      <c r="DN2" s="149"/>
-      <c r="DO2" s="149"/>
-      <c r="DP2" s="149"/>
-      <c r="DQ2" s="149"/>
-      <c r="DR2" s="149"/>
-      <c r="DS2" s="149"/>
-      <c r="DT2" s="149"/>
-      <c r="DU2" s="149"/>
-      <c r="DV2" s="149"/>
-      <c r="DW2" s="149"/>
-      <c r="DX2" s="149"/>
-      <c r="DY2" s="149"/>
-      <c r="DZ2" s="149"/>
-      <c r="EA2" s="149"/>
-      <c r="EB2" s="149"/>
-      <c r="EC2" s="149"/>
-      <c r="ED2" s="149"/>
-      <c r="EE2" s="149"/>
-      <c r="EF2" s="149"/>
-      <c r="EG2" s="149"/>
-      <c r="EH2" s="149"/>
-      <c r="EI2" s="149"/>
-      <c r="EJ2" s="149"/>
-      <c r="EK2" s="149"/>
-      <c r="EL2" s="149"/>
-      <c r="EM2" s="149"/>
-      <c r="EN2" s="149"/>
-      <c r="EO2" s="149"/>
-      <c r="EP2" s="149"/>
-      <c r="EQ2" s="149"/>
-      <c r="ER2" s="149"/>
-      <c r="ES2" s="149"/>
-      <c r="ET2" s="149"/>
-      <c r="EU2" s="149"/>
-      <c r="EV2" s="149"/>
-      <c r="EW2" s="149"/>
-      <c r="EX2" s="149"/>
-      <c r="EY2" s="149"/>
-      <c r="EZ2" s="149"/>
-      <c r="FA2" s="149"/>
-      <c r="FB2" s="149"/>
-      <c r="FC2" s="149"/>
-      <c r="FD2" s="149"/>
-      <c r="FE2" s="149"/>
-      <c r="FF2" s="149"/>
-      <c r="FG2" s="149"/>
-      <c r="FH2" s="149"/>
-      <c r="FI2" s="149"/>
-      <c r="FJ2" s="149"/>
-      <c r="FK2" s="149"/>
-      <c r="FL2" s="149"/>
-      <c r="FM2" s="149"/>
-      <c r="FN2" s="149"/>
-      <c r="FO2" s="149"/>
-      <c r="FP2" s="149"/>
-      <c r="FQ2" s="149"/>
-      <c r="FR2" s="149"/>
-      <c r="FS2" s="149"/>
-      <c r="FT2" s="149"/>
-      <c r="FU2" s="149"/>
-      <c r="FV2" s="149"/>
-      <c r="FW2" s="149"/>
-      <c r="FX2" s="149"/>
-      <c r="FY2" s="149"/>
-      <c r="FZ2" s="149"/>
-      <c r="GA2" s="149"/>
-      <c r="GB2" s="149"/>
-      <c r="GC2" s="149"/>
-      <c r="GD2" s="149"/>
-      <c r="GE2" s="149"/>
-      <c r="GF2" s="149"/>
-      <c r="GG2" s="149"/>
-      <c r="GH2" s="149"/>
-      <c r="GI2" s="149"/>
-      <c r="GJ2" s="149"/>
-      <c r="GK2" s="149"/>
-      <c r="GL2" s="149"/>
-      <c r="GM2" s="149"/>
-      <c r="GN2" s="149"/>
-      <c r="GO2" s="149"/>
-      <c r="GP2" s="149"/>
-      <c r="GQ2" s="149"/>
-      <c r="GR2" s="149"/>
-      <c r="GS2" s="149"/>
-      <c r="GT2" s="149"/>
-      <c r="GU2" s="149"/>
-      <c r="GV2" s="149"/>
-      <c r="GW2" s="149"/>
-      <c r="GX2" s="149"/>
-      <c r="GY2" s="149"/>
-      <c r="GZ2" s="149"/>
-      <c r="HA2" s="149"/>
-      <c r="HB2" s="149"/>
-      <c r="HC2" s="149"/>
-      <c r="HD2" s="149"/>
-      <c r="HE2" s="149"/>
-      <c r="HF2" s="149"/>
-      <c r="HG2" s="149"/>
-      <c r="HH2" s="149"/>
-      <c r="HI2" s="149"/>
-      <c r="HJ2" s="149"/>
-      <c r="HK2" s="149"/>
-      <c r="HL2" s="149"/>
-      <c r="HM2" s="149"/>
-      <c r="HN2" s="149"/>
-      <c r="HO2" s="149"/>
-      <c r="HP2" s="149"/>
-      <c r="HQ2" s="149"/>
-      <c r="HR2" s="149"/>
-      <c r="HS2" s="149"/>
-      <c r="HT2" s="149"/>
-      <c r="HU2" s="149"/>
-      <c r="HV2" s="149"/>
-      <c r="HW2" s="149"/>
-      <c r="HX2" s="149"/>
-      <c r="HY2" s="149"/>
-      <c r="HZ2" s="149"/>
-      <c r="IA2" s="149"/>
-      <c r="IB2" s="149"/>
-      <c r="IC2" s="149"/>
-      <c r="ID2" s="149"/>
-      <c r="IE2" s="149"/>
-      <c r="IF2" s="149"/>
-      <c r="IG2" s="149"/>
-      <c r="IH2" s="149"/>
-      <c r="II2" s="149"/>
-      <c r="IJ2" s="149"/>
-      <c r="IK2" s="149"/>
-      <c r="IL2" s="149"/>
-      <c r="IM2" s="149"/>
-      <c r="IN2" s="149"/>
-      <c r="IO2" s="149"/>
-      <c r="IP2" s="149"/>
-      <c r="IQ2" s="149"/>
-      <c r="IR2" s="149"/>
-      <c r="IS2" s="149"/>
-      <c r="IT2" s="149"/>
-      <c r="IU2" s="149"/>
-      <c r="IV2" s="149"/>
-      <c r="IW2" s="149"/>
-      <c r="IX2" s="149"/>
-      <c r="IY2" s="149"/>
-      <c r="IZ2" s="149"/>
-      <c r="JA2" s="149"/>
-      <c r="JB2" s="149"/>
-      <c r="JC2" s="149"/>
-      <c r="JD2" s="149"/>
-      <c r="JE2" s="149"/>
-      <c r="JF2" s="149"/>
-      <c r="JG2" s="149"/>
-      <c r="JH2" s="149"/>
-      <c r="JI2" s="149"/>
-      <c r="JJ2" s="149"/>
-      <c r="JK2" s="149"/>
-      <c r="JL2" s="149"/>
-      <c r="JM2" s="149"/>
-      <c r="JN2" s="149"/>
-      <c r="JO2" s="149"/>
-      <c r="JP2" s="149"/>
-      <c r="JQ2" s="149"/>
-      <c r="JR2" s="149"/>
-      <c r="JS2" s="149"/>
-      <c r="JT2" s="149"/>
-      <c r="JU2" s="149"/>
-      <c r="JV2" s="149"/>
-      <c r="JW2" s="149"/>
-      <c r="JX2" s="149"/>
-      <c r="JY2" s="149"/>
-      <c r="JZ2" s="149"/>
-      <c r="KA2" s="149"/>
-      <c r="KB2" s="149"/>
-      <c r="KC2" s="149"/>
-      <c r="KD2" s="149"/>
-      <c r="KE2" s="149"/>
-      <c r="KF2" s="149"/>
-      <c r="KG2" s="149"/>
-      <c r="KH2" s="149"/>
-      <c r="KI2" s="149"/>
-      <c r="KJ2" s="149"/>
-      <c r="KK2" s="149"/>
-      <c r="KL2" s="149"/>
-      <c r="KM2" s="149"/>
-      <c r="KN2" s="149"/>
-      <c r="KO2" s="149"/>
-      <c r="KP2" s="149"/>
-      <c r="KQ2" s="149"/>
-      <c r="KR2" s="149"/>
-      <c r="KS2" s="149"/>
-      <c r="KT2" s="149"/>
-      <c r="KU2" s="149"/>
-      <c r="KV2" s="149"/>
-      <c r="KW2" s="149"/>
-      <c r="KX2" s="149"/>
-      <c r="KY2" s="149"/>
-      <c r="KZ2" s="149"/>
-      <c r="LA2" s="149"/>
-      <c r="LB2" s="149"/>
-      <c r="LC2" s="149"/>
-      <c r="LD2" s="149"/>
-      <c r="LE2" s="149"/>
-      <c r="LF2" s="149"/>
-      <c r="LG2" s="149"/>
-      <c r="LH2" s="149"/>
-      <c r="LI2" s="149"/>
-      <c r="LJ2" s="149"/>
-      <c r="LK2" s="149"/>
-      <c r="LL2" s="149"/>
-      <c r="LM2" s="149"/>
-      <c r="LN2" s="149"/>
-      <c r="LO2" s="149"/>
-      <c r="LP2" s="149"/>
-      <c r="LQ2" s="149"/>
-      <c r="LR2" s="149"/>
-      <c r="LS2" s="149"/>
-      <c r="LT2" s="149"/>
-      <c r="LU2" s="149"/>
-      <c r="LV2" s="149"/>
-      <c r="LW2" s="149"/>
-      <c r="LX2" s="149"/>
-      <c r="LY2" s="149"/>
-      <c r="LZ2" s="149"/>
-      <c r="MA2" s="149"/>
-      <c r="MB2" s="149"/>
-      <c r="MC2" s="149"/>
-      <c r="MD2" s="149"/>
-      <c r="ME2" s="149"/>
-      <c r="MF2" s="149"/>
-      <c r="MG2" s="149"/>
-      <c r="MH2" s="149"/>
-      <c r="MI2" s="149"/>
-      <c r="MJ2" s="149"/>
-      <c r="MK2" s="149"/>
-      <c r="ML2" s="149"/>
-      <c r="MM2" s="149"/>
-      <c r="MN2" s="149"/>
-      <c r="MO2" s="149"/>
-      <c r="MP2" s="149"/>
-      <c r="MQ2" s="149"/>
-      <c r="MR2" s="149"/>
-      <c r="MS2" s="149"/>
-      <c r="MT2" s="149"/>
-      <c r="MU2" s="149"/>
-      <c r="MV2" s="149"/>
-      <c r="MW2" s="149"/>
-      <c r="MX2" s="149"/>
-      <c r="MY2" s="149"/>
-      <c r="MZ2" s="149"/>
-      <c r="NA2" s="149"/>
-      <c r="NB2" s="149"/>
-      <c r="NC2" s="149"/>
-      <c r="ND2" s="149"/>
-      <c r="NE2" s="149"/>
-      <c r="NF2" s="149"/>
-      <c r="NG2" s="149"/>
-      <c r="NH2" s="149"/>
-      <c r="NI2" s="149"/>
-      <c r="NJ2" s="149"/>
-      <c r="NK2" s="149"/>
-      <c r="NL2" s="149"/>
-      <c r="NM2" s="149"/>
-      <c r="NN2" s="149"/>
-      <c r="NO2" s="149"/>
-      <c r="NP2" s="149"/>
-      <c r="NQ2" s="149"/>
-      <c r="NR2" s="149"/>
-      <c r="NS2" s="149"/>
-      <c r="NT2" s="149"/>
-      <c r="NU2" s="149"/>
-      <c r="NV2" s="149"/>
-      <c r="NW2" s="149"/>
-      <c r="NX2" s="149"/>
-      <c r="NY2" s="149"/>
-      <c r="NZ2" s="149"/>
-      <c r="OA2" s="149"/>
-      <c r="OB2" s="149"/>
-      <c r="OC2" s="149"/>
-      <c r="OD2" s="149"/>
-      <c r="OE2" s="149"/>
-      <c r="OF2" s="149"/>
-      <c r="OG2" s="149"/>
-      <c r="OH2" s="149"/>
-      <c r="OI2" s="149"/>
-      <c r="OJ2" s="149"/>
-      <c r="OK2" s="149"/>
-      <c r="OL2" s="149"/>
-      <c r="OM2" s="149"/>
-      <c r="ON2" s="149"/>
-      <c r="OO2" s="149"/>
-      <c r="OP2" s="149"/>
-      <c r="OQ2" s="149"/>
-      <c r="OR2" s="149"/>
-      <c r="OS2" s="149"/>
-      <c r="OT2" s="149"/>
-      <c r="OU2" s="149"/>
-      <c r="OV2" s="149"/>
-      <c r="OW2" s="149"/>
-      <c r="OX2" s="149"/>
-      <c r="OY2" s="149"/>
-      <c r="OZ2" s="149"/>
-      <c r="PA2" s="149"/>
-      <c r="PB2" s="149"/>
-      <c r="PC2" s="149"/>
-      <c r="PD2" s="149"/>
-      <c r="PE2" s="149"/>
-      <c r="PF2" s="149"/>
-      <c r="PG2" s="149"/>
-      <c r="PH2" s="149"/>
-      <c r="PI2" s="149"/>
-      <c r="PJ2" s="149"/>
-      <c r="PK2" s="149"/>
-      <c r="PL2" s="149"/>
-      <c r="PM2" s="149"/>
-      <c r="PN2" s="149"/>
-      <c r="PO2" s="149"/>
-      <c r="PP2" s="149"/>
-      <c r="PQ2" s="149"/>
-      <c r="PR2" s="149"/>
-      <c r="PS2" s="149"/>
-      <c r="PT2" s="149"/>
-      <c r="PU2" s="149"/>
-      <c r="PV2" s="149"/>
-      <c r="PW2" s="149"/>
-      <c r="PX2" s="149"/>
-      <c r="PY2" s="149"/>
-      <c r="PZ2" s="149"/>
-      <c r="QA2" s="149"/>
-      <c r="QB2" s="149"/>
-      <c r="QC2" s="149"/>
-      <c r="QD2" s="149"/>
-      <c r="QE2" s="149"/>
-      <c r="QF2" s="149"/>
-      <c r="QG2" s="149"/>
-      <c r="QH2" s="149"/>
-      <c r="QI2" s="149"/>
-      <c r="QJ2" s="149"/>
-      <c r="QK2" s="149"/>
-      <c r="QL2" s="149"/>
-      <c r="QM2" s="149"/>
-      <c r="QN2" s="149"/>
-      <c r="QO2" s="149"/>
-      <c r="QP2" s="149"/>
-      <c r="QQ2" s="149"/>
-      <c r="QR2" s="149"/>
-      <c r="QS2" s="149"/>
-      <c r="QT2" s="149"/>
-      <c r="QU2" s="149"/>
-      <c r="QV2" s="149"/>
-      <c r="QW2" s="149"/>
-      <c r="QX2" s="149"/>
-      <c r="QY2" s="149"/>
-      <c r="QZ2" s="149"/>
-      <c r="RA2" s="149"/>
-      <c r="RB2" s="149"/>
-      <c r="RC2" s="149"/>
-      <c r="RD2" s="149"/>
-      <c r="RE2" s="149"/>
-      <c r="RF2" s="149"/>
-      <c r="RG2" s="149"/>
-      <c r="RH2" s="149"/>
-      <c r="RI2" s="149"/>
-      <c r="RJ2" s="149"/>
-      <c r="RK2" s="149"/>
-      <c r="RL2" s="149"/>
-      <c r="RM2" s="149"/>
-      <c r="RN2" s="149"/>
-      <c r="RO2" s="149"/>
-      <c r="RP2" s="149"/>
-      <c r="RQ2" s="149"/>
-      <c r="RR2" s="149"/>
-      <c r="RS2" s="149"/>
-      <c r="RT2" s="149"/>
-      <c r="RU2" s="149"/>
-      <c r="RV2" s="149"/>
-      <c r="RW2" s="149"/>
-      <c r="RX2" s="149"/>
-      <c r="RY2" s="149"/>
-      <c r="RZ2" s="149"/>
-      <c r="SA2" s="149"/>
-      <c r="SB2" s="149"/>
-      <c r="SC2" s="149"/>
-      <c r="SD2" s="149"/>
-      <c r="SE2" s="149"/>
-      <c r="SF2" s="149"/>
-      <c r="SG2" s="149"/>
-      <c r="SH2" s="149"/>
-      <c r="SI2" s="149"/>
-      <c r="SJ2" s="149"/>
-      <c r="SK2" s="149"/>
-      <c r="SL2" s="149"/>
-      <c r="SM2" s="149"/>
-      <c r="SN2" s="149"/>
-      <c r="SO2" s="149"/>
-      <c r="SP2" s="149"/>
-      <c r="SQ2" s="149"/>
-      <c r="SR2" s="149"/>
-      <c r="SS2" s="149"/>
-      <c r="ST2" s="149"/>
-      <c r="SU2" s="149"/>
-      <c r="SV2" s="149"/>
-      <c r="SW2" s="149"/>
-      <c r="SX2" s="149"/>
-      <c r="SY2" s="149"/>
-      <c r="SZ2" s="149"/>
-      <c r="TA2" s="149"/>
-      <c r="TB2" s="149"/>
-      <c r="TC2" s="149"/>
-      <c r="TD2" s="149"/>
-      <c r="TE2" s="149"/>
-      <c r="TF2" s="149"/>
-      <c r="TG2" s="149"/>
-      <c r="TH2" s="149"/>
-      <c r="TI2" s="149"/>
-      <c r="TJ2" s="149"/>
-      <c r="TK2" s="149"/>
-      <c r="TL2" s="149"/>
-      <c r="TM2" s="149"/>
-      <c r="TN2" s="149"/>
-      <c r="TO2" s="149"/>
-      <c r="TP2" s="149"/>
-      <c r="TQ2" s="149"/>
-      <c r="TR2" s="149"/>
-      <c r="TS2" s="149"/>
-      <c r="TT2" s="149"/>
-      <c r="TU2" s="149"/>
-      <c r="TV2" s="149"/>
-      <c r="TW2" s="149"/>
-      <c r="TX2" s="149"/>
-      <c r="TY2" s="149"/>
-      <c r="TZ2" s="149"/>
-      <c r="UA2" s="149"/>
-      <c r="UB2" s="149"/>
-      <c r="UC2" s="149"/>
-      <c r="UD2" s="149"/>
-      <c r="UE2" s="149"/>
-      <c r="UF2" s="149"/>
-      <c r="UG2" s="149"/>
-      <c r="UH2" s="149"/>
-      <c r="UI2" s="149"/>
-      <c r="UJ2" s="149"/>
-      <c r="UK2" s="149"/>
-      <c r="UL2" s="149"/>
-      <c r="UM2" s="149"/>
-      <c r="UN2" s="149"/>
-      <c r="UO2" s="149"/>
-      <c r="UP2" s="149"/>
-      <c r="UQ2" s="149"/>
-      <c r="UR2" s="149"/>
-      <c r="US2" s="149"/>
-      <c r="UT2" s="149"/>
-      <c r="UU2" s="149"/>
-      <c r="UV2" s="149"/>
-      <c r="UW2" s="149"/>
-      <c r="UX2" s="149"/>
-      <c r="UY2" s="149"/>
-      <c r="UZ2" s="149"/>
-      <c r="VA2" s="149"/>
-      <c r="VB2" s="149"/>
-      <c r="VC2" s="149"/>
-      <c r="VD2" s="149"/>
-      <c r="VE2" s="149"/>
-      <c r="VF2" s="149"/>
-      <c r="VG2" s="149"/>
-      <c r="VH2" s="149"/>
-      <c r="VI2" s="149"/>
-      <c r="VJ2" s="149"/>
-      <c r="VK2" s="149"/>
-      <c r="VL2" s="149"/>
-      <c r="VM2" s="149"/>
-      <c r="VN2" s="149"/>
-      <c r="VO2" s="149"/>
-      <c r="VP2" s="149"/>
-      <c r="VQ2" s="149"/>
-      <c r="VR2" s="149"/>
-      <c r="VS2" s="149"/>
-      <c r="VT2" s="149"/>
-      <c r="VU2" s="149"/>
-      <c r="VV2" s="149"/>
-      <c r="VW2" s="149"/>
-      <c r="VX2" s="149"/>
-      <c r="VY2" s="149"/>
-      <c r="VZ2" s="149"/>
-      <c r="WA2" s="149"/>
-      <c r="WB2" s="149"/>
-      <c r="WC2" s="149"/>
-      <c r="WD2" s="149"/>
-      <c r="WE2" s="149"/>
-      <c r="WF2" s="149"/>
-      <c r="WG2" s="149"/>
-      <c r="WH2" s="149"/>
-      <c r="WI2" s="149"/>
-      <c r="WJ2" s="149"/>
-      <c r="WK2" s="149"/>
-      <c r="WL2" s="149"/>
-      <c r="WM2" s="149"/>
-      <c r="WN2" s="149"/>
-      <c r="WO2" s="149"/>
-      <c r="WP2" s="149"/>
-      <c r="WQ2" s="149"/>
-      <c r="WR2" s="149"/>
-      <c r="WS2" s="149"/>
-      <c r="WT2" s="149"/>
-      <c r="WU2" s="149"/>
-      <c r="WV2" s="149"/>
-      <c r="WW2" s="149"/>
-      <c r="WX2" s="149"/>
-      <c r="WY2" s="149"/>
-      <c r="WZ2" s="149"/>
-      <c r="XA2" s="149"/>
-      <c r="XB2" s="149"/>
-      <c r="XC2" s="149"/>
-      <c r="XD2" s="149"/>
-      <c r="XE2" s="149"/>
-      <c r="XF2" s="149"/>
-      <c r="XG2" s="149"/>
-      <c r="XH2" s="149"/>
-      <c r="XI2" s="149"/>
-      <c r="XJ2" s="149"/>
-      <c r="XK2" s="149"/>
-      <c r="XL2" s="149"/>
-      <c r="XM2" s="149"/>
-      <c r="XN2" s="149"/>
-      <c r="XO2" s="149"/>
-      <c r="XP2" s="149"/>
-      <c r="XQ2" s="149"/>
-      <c r="XR2" s="149"/>
-      <c r="XS2" s="149"/>
-      <c r="XT2" s="149"/>
-      <c r="XU2" s="149"/>
-      <c r="XV2" s="149"/>
-      <c r="XW2" s="149"/>
-      <c r="XX2" s="149"/>
-      <c r="XY2" s="149"/>
-      <c r="XZ2" s="149"/>
-      <c r="YA2" s="149"/>
-      <c r="YB2" s="149"/>
-      <c r="YC2" s="149"/>
-      <c r="YD2" s="149"/>
-      <c r="YE2" s="149"/>
-      <c r="YF2" s="149"/>
-      <c r="YG2" s="149"/>
-      <c r="YH2" s="149"/>
-      <c r="YI2" s="149"/>
-      <c r="YJ2" s="149"/>
-      <c r="YK2" s="149"/>
-      <c r="YL2" s="149"/>
-      <c r="YM2" s="149"/>
-      <c r="YN2" s="149"/>
-      <c r="YO2" s="149"/>
-      <c r="YP2" s="149"/>
-      <c r="YQ2" s="149"/>
-      <c r="YR2" s="149"/>
-      <c r="YS2" s="149"/>
-      <c r="YT2" s="149"/>
-      <c r="YU2" s="149"/>
-      <c r="YV2" s="149"/>
-      <c r="YW2" s="149"/>
-      <c r="YX2" s="149"/>
-      <c r="YY2" s="149"/>
-      <c r="YZ2" s="149"/>
-      <c r="ZA2" s="149"/>
-      <c r="ZB2" s="149"/>
-      <c r="ZC2" s="149"/>
-      <c r="ZD2" s="149"/>
-      <c r="ZE2" s="149"/>
-      <c r="ZF2" s="149"/>
-      <c r="ZG2" s="149"/>
-      <c r="ZH2" s="149"/>
-      <c r="ZI2" s="149"/>
-      <c r="ZJ2" s="149"/>
-      <c r="ZK2" s="149"/>
-      <c r="ZL2" s="149"/>
-      <c r="ZM2" s="149"/>
-      <c r="ZN2" s="149"/>
-      <c r="ZO2" s="149"/>
-      <c r="ZP2" s="149"/>
-      <c r="ZQ2" s="149"/>
-      <c r="ZR2" s="149"/>
-      <c r="ZS2" s="149"/>
-      <c r="ZT2" s="149"/>
-      <c r="ZU2" s="149"/>
-      <c r="ZV2" s="149"/>
-      <c r="ZW2" s="149"/>
-      <c r="ZX2" s="149"/>
-      <c r="ZY2" s="149"/>
-      <c r="ZZ2" s="149"/>
-      <c r="AAA2" s="149"/>
-      <c r="AAB2" s="149"/>
-      <c r="AAC2" s="149"/>
-      <c r="AAD2" s="149"/>
-      <c r="AAE2" s="149"/>
-      <c r="AAF2" s="149"/>
-      <c r="AAG2" s="149"/>
-      <c r="AAH2" s="149"/>
-      <c r="AAI2" s="149"/>
-      <c r="AAJ2" s="149"/>
-      <c r="AAK2" s="149"/>
-      <c r="AAL2" s="149"/>
-      <c r="AAM2" s="149"/>
-      <c r="AAN2" s="149"/>
-      <c r="AAO2" s="149"/>
-      <c r="AAP2" s="149"/>
-      <c r="AAQ2" s="149"/>
-      <c r="AAR2" s="149"/>
-      <c r="AAS2" s="149"/>
-      <c r="AAT2" s="149"/>
-      <c r="AAU2" s="149"/>
-      <c r="AAV2" s="149"/>
-      <c r="AAW2" s="149"/>
-      <c r="AAX2" s="149"/>
-      <c r="AAY2" s="149"/>
-      <c r="AAZ2" s="149"/>
-      <c r="ABA2" s="149"/>
-      <c r="ABB2" s="149"/>
-      <c r="ABC2" s="149"/>
-      <c r="ABD2" s="149"/>
-      <c r="ABE2" s="149"/>
-      <c r="ABF2" s="149"/>
-      <c r="ABG2" s="149"/>
-      <c r="ABH2" s="149"/>
-      <c r="ABI2" s="149"/>
-      <c r="ABJ2" s="149"/>
-      <c r="ABK2" s="149"/>
-      <c r="ABL2" s="149"/>
-      <c r="ABM2" s="149"/>
-      <c r="ABN2" s="149"/>
-      <c r="ABO2" s="149"/>
-      <c r="ABP2" s="149"/>
-      <c r="ABQ2" s="149"/>
-      <c r="ABR2" s="149"/>
-      <c r="ABS2" s="149"/>
-      <c r="ABT2" s="149"/>
-      <c r="ABU2" s="149"/>
-      <c r="ABV2" s="149"/>
-      <c r="ABW2" s="149"/>
-      <c r="ABX2" s="149"/>
-      <c r="ABY2" s="149"/>
-      <c r="ABZ2" s="149"/>
-      <c r="ACA2" s="149"/>
-      <c r="ACB2" s="149"/>
-      <c r="ACC2" s="149"/>
-      <c r="ACD2" s="149"/>
-      <c r="ACE2" s="149"/>
-      <c r="ACF2" s="149"/>
-      <c r="ACG2" s="149"/>
-      <c r="ACH2" s="149"/>
-      <c r="ACI2" s="149"/>
-      <c r="ACJ2" s="149"/>
-      <c r="ACK2" s="149"/>
-      <c r="ACL2" s="149"/>
-      <c r="ACM2" s="149"/>
-      <c r="ACN2" s="149"/>
-      <c r="ACO2" s="149"/>
-      <c r="ACP2" s="149"/>
-      <c r="ACQ2" s="149"/>
-      <c r="ACR2" s="149"/>
-      <c r="ACS2" s="149"/>
-      <c r="ACT2" s="149"/>
-      <c r="ACU2" s="149"/>
-      <c r="ACV2" s="149"/>
-      <c r="ACW2" s="149"/>
-      <c r="ACX2" s="149"/>
-      <c r="ACY2" s="149"/>
-      <c r="ACZ2" s="149"/>
-      <c r="ADA2" s="149"/>
-      <c r="ADB2" s="149"/>
-      <c r="ADC2" s="149"/>
-      <c r="ADD2" s="149"/>
-      <c r="ADE2" s="149"/>
-      <c r="ADF2" s="149"/>
-      <c r="ADG2" s="149"/>
-      <c r="ADH2" s="149"/>
-      <c r="ADI2" s="149"/>
-      <c r="ADJ2" s="149"/>
-      <c r="ADK2" s="149"/>
-      <c r="ADL2" s="149"/>
-      <c r="ADM2" s="149"/>
-      <c r="ADN2" s="149"/>
-      <c r="ADO2" s="149"/>
-      <c r="ADP2" s="149"/>
-      <c r="ADQ2" s="149"/>
-      <c r="ADR2" s="149"/>
-      <c r="ADS2" s="149"/>
-      <c r="ADT2" s="149"/>
-      <c r="ADU2" s="149"/>
-      <c r="ADV2" s="149"/>
-      <c r="ADW2" s="149"/>
-      <c r="ADX2" s="149"/>
-      <c r="ADY2" s="149"/>
-      <c r="ADZ2" s="149"/>
-      <c r="AEA2" s="149"/>
-      <c r="AEB2" s="149"/>
-      <c r="AEC2" s="149"/>
-      <c r="AED2" s="149"/>
-      <c r="AEE2" s="149"/>
-      <c r="AEF2" s="149"/>
-      <c r="AEG2" s="149"/>
-      <c r="AEH2" s="149"/>
-      <c r="AEI2" s="149"/>
-      <c r="AEJ2" s="149"/>
-      <c r="AEK2" s="149"/>
-      <c r="AEL2" s="149"/>
-      <c r="AEM2" s="149"/>
-      <c r="AEN2" s="149"/>
-      <c r="AEO2" s="149"/>
-      <c r="AEP2" s="149"/>
-      <c r="AEQ2" s="149"/>
-      <c r="AER2" s="149"/>
-      <c r="AES2" s="149"/>
-      <c r="AET2" s="149"/>
-      <c r="AEU2" s="149"/>
-      <c r="AEV2" s="149"/>
-      <c r="AEW2" s="149"/>
-      <c r="AEX2" s="149"/>
-      <c r="AEY2" s="149"/>
-      <c r="AEZ2" s="149"/>
-      <c r="AFA2" s="149"/>
-      <c r="AFB2" s="149"/>
-      <c r="AFC2" s="149"/>
-      <c r="AFD2" s="149"/>
-      <c r="AFE2" s="149"/>
-      <c r="AFF2" s="149"/>
-      <c r="AFG2" s="149"/>
-      <c r="AFH2" s="149"/>
-      <c r="AFI2" s="149"/>
-      <c r="AFJ2" s="149"/>
-      <c r="AFK2" s="149"/>
-      <c r="AFL2" s="149"/>
-      <c r="AFM2" s="149"/>
-      <c r="AFN2" s="149"/>
-      <c r="AFO2" s="149"/>
-      <c r="AFP2" s="149"/>
-      <c r="AFQ2" s="149"/>
-      <c r="AFR2" s="149"/>
-      <c r="AFS2" s="149"/>
-      <c r="AFT2" s="149"/>
-      <c r="AFU2" s="149"/>
-      <c r="AFV2" s="149"/>
-      <c r="AFW2" s="149"/>
-      <c r="AFX2" s="149"/>
-      <c r="AFY2" s="149"/>
-      <c r="AFZ2" s="149"/>
-      <c r="AGA2" s="149"/>
-      <c r="AGB2" s="149"/>
-      <c r="AGC2" s="149"/>
-      <c r="AGD2" s="149"/>
-      <c r="AGE2" s="149"/>
-      <c r="AGF2" s="149"/>
-      <c r="AGG2" s="149"/>
-      <c r="AGH2" s="149"/>
-      <c r="AGI2" s="149"/>
-      <c r="AGJ2" s="149"/>
-      <c r="AGK2" s="149"/>
-      <c r="AGL2" s="149"/>
-      <c r="AGM2" s="149"/>
-      <c r="AGN2" s="149"/>
-      <c r="AGO2" s="149"/>
-      <c r="AGP2" s="149"/>
-      <c r="AGQ2" s="149"/>
-      <c r="AGR2" s="149"/>
-      <c r="AGS2" s="149"/>
-      <c r="AGT2" s="149"/>
-      <c r="AGU2" s="149"/>
-      <c r="AGV2" s="149"/>
-      <c r="AGW2" s="149"/>
-      <c r="AGX2" s="149"/>
-      <c r="AGY2" s="149"/>
-      <c r="AGZ2" s="149"/>
-      <c r="AHA2" s="149"/>
-      <c r="AHB2" s="149"/>
-      <c r="AHC2" s="149"/>
-      <c r="AHD2" s="149"/>
-      <c r="AHE2" s="149"/>
-      <c r="AHF2" s="149"/>
-      <c r="AHG2" s="149"/>
-      <c r="AHH2" s="149"/>
-      <c r="AHI2" s="149"/>
-      <c r="AHJ2" s="149"/>
-      <c r="AHK2" s="149"/>
-      <c r="AHL2" s="149"/>
-      <c r="AHM2" s="149"/>
-      <c r="AHN2" s="149"/>
-      <c r="AHO2" s="149"/>
-      <c r="AHP2" s="149"/>
-      <c r="AHQ2" s="149"/>
-      <c r="AHR2" s="149"/>
-      <c r="AHS2" s="149"/>
-      <c r="AHT2" s="149"/>
-      <c r="AHU2" s="149"/>
-      <c r="AHV2" s="149"/>
-      <c r="AHW2" s="149"/>
-      <c r="AHX2" s="149"/>
-      <c r="AHY2" s="149"/>
-      <c r="AHZ2" s="149"/>
-      <c r="AIA2" s="149"/>
-      <c r="AIB2" s="149"/>
-      <c r="AIC2" s="149"/>
-      <c r="AID2" s="149"/>
-      <c r="AIE2" s="149"/>
-      <c r="AIF2" s="149"/>
-      <c r="AIG2" s="149"/>
-      <c r="AIH2" s="149"/>
-      <c r="AII2" s="149"/>
-      <c r="AIJ2" s="149"/>
-      <c r="AIK2" s="149"/>
-      <c r="AIL2" s="149"/>
-      <c r="AIM2" s="149"/>
-      <c r="AIN2" s="149"/>
-      <c r="AIO2" s="149"/>
-      <c r="AIP2" s="149"/>
-      <c r="AIQ2" s="149"/>
-      <c r="AIR2" s="149"/>
-      <c r="AIS2" s="149"/>
-      <c r="AIT2" s="149"/>
-      <c r="AIU2" s="149"/>
-      <c r="AIV2" s="149"/>
-      <c r="AIW2" s="149"/>
-      <c r="AIX2" s="149"/>
-      <c r="AIY2" s="149"/>
-      <c r="AIZ2" s="149"/>
-      <c r="AJA2" s="149"/>
-      <c r="AJB2" s="149"/>
-      <c r="AJC2" s="149"/>
-      <c r="AJD2" s="149"/>
-      <c r="AJE2" s="149"/>
-      <c r="AJF2" s="149"/>
-      <c r="AJG2" s="149"/>
-      <c r="AJH2" s="149"/>
-      <c r="AJI2" s="149"/>
-      <c r="AJJ2" s="149"/>
-      <c r="AJK2" s="149"/>
-      <c r="AJL2" s="149"/>
-      <c r="AJM2" s="149"/>
-      <c r="AJN2" s="149"/>
-      <c r="AJO2" s="149"/>
-      <c r="AJP2" s="149"/>
-      <c r="AJQ2" s="149"/>
-      <c r="AJR2" s="149"/>
-      <c r="AJS2" s="149"/>
-      <c r="AJT2" s="149"/>
-      <c r="AJU2" s="149"/>
-      <c r="AJV2" s="149"/>
-      <c r="AJW2" s="149"/>
-      <c r="AJX2" s="149"/>
-      <c r="AJY2" s="149"/>
-      <c r="AJZ2" s="149"/>
-      <c r="AKA2" s="149"/>
-      <c r="AKB2" s="149"/>
-      <c r="AKC2" s="149"/>
-      <c r="AKD2" s="149"/>
-      <c r="AKE2" s="149"/>
-      <c r="AKF2" s="149"/>
-      <c r="AKG2" s="149"/>
-      <c r="AKH2" s="149"/>
-      <c r="AKI2" s="149"/>
-      <c r="AKJ2" s="149"/>
-      <c r="AKK2" s="149"/>
-      <c r="AKL2" s="149"/>
-      <c r="AKM2" s="149"/>
-      <c r="AKN2" s="149"/>
-      <c r="AKO2" s="149"/>
-      <c r="AKP2" s="149"/>
-      <c r="AKQ2" s="149"/>
-      <c r="AKR2" s="149"/>
-      <c r="AKS2" s="149"/>
-      <c r="AKT2" s="149"/>
-      <c r="AKU2" s="149"/>
-      <c r="AKV2" s="149"/>
-      <c r="AKW2" s="149"/>
-      <c r="AKX2" s="149"/>
-      <c r="AKY2" s="149"/>
-      <c r="AKZ2" s="149"/>
-      <c r="ALA2" s="149"/>
-      <c r="ALB2" s="149"/>
-      <c r="ALC2" s="149"/>
-      <c r="ALD2" s="149"/>
-      <c r="ALE2" s="149"/>
-      <c r="ALF2" s="149"/>
-      <c r="ALG2" s="149"/>
-      <c r="ALH2" s="149"/>
-      <c r="ALI2" s="149"/>
-      <c r="ALJ2" s="149"/>
-      <c r="ALK2" s="149"/>
-      <c r="ALL2" s="149"/>
-      <c r="ALM2" s="149"/>
-      <c r="ALN2" s="149"/>
-      <c r="ALO2" s="149"/>
-      <c r="ALP2" s="149"/>
-      <c r="ALQ2" s="149"/>
-      <c r="ALR2" s="149"/>
-      <c r="ALS2" s="149"/>
-      <c r="ALT2" s="149"/>
-      <c r="ALU2" s="149"/>
-      <c r="ALV2" s="149"/>
-      <c r="ALW2" s="149"/>
-      <c r="ALX2" s="149"/>
-      <c r="ALY2" s="149"/>
-      <c r="ALZ2" s="149"/>
-      <c r="AMA2" s="149"/>
-      <c r="AMB2" s="149"/>
-      <c r="AMC2" s="149"/>
-      <c r="AMD2" s="149"/>
-      <c r="AME2" s="149"/>
-      <c r="AMF2" s="149"/>
-      <c r="AMG2" s="149"/>
-      <c r="AMH2" s="149"/>
-      <c r="AMI2" s="149"/>
-      <c r="AMJ2" s="149"/>
-      <c r="AMK2" s="140"/>
-      <c r="AML2" s="140"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="AMI2" s="139"/>
+      <c r="AMJ2" s="139"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1"/>

--- a/tests/fixtures/prokaryote_core.xlsx
+++ b/tests/fixtures/prokaryote_core.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-255" yWindow="105" windowWidth="23250" windowHeight="11970" tabRatio="1000" activeTab="8"/>
+    <workbookView xWindow="-255" yWindow="105" windowWidth="23250" windowHeight="11970" tabRatio="1000" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Proteins!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Reactions!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">RNAs!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Transcription units'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Transcription units'!$A$1:$K$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="9">Complexes!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="6">Genes!$A$1:$I$1</definedName>
@@ -45,7 +45,7 @@
     <definedName name="_FilterDatabase_0" localSheetId="8">Proteins!$A$1:$G$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="14">Reactions!$A$1:$O$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="7">RNAs!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="5">'Transcription units'!$A$1:$N$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">'Transcription units'!$A$1:$M$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="9">Complexes!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="6">Genes!$A$1:$I$1</definedName>
@@ -53,14 +53,14 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="8">Proteins!$A$1:$G$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="14">Reactions!$A$1:$O$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="7">RNAs!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Transcription units'!$A$1:$N$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Transcription units'!$A$1:$M$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Complexes!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="6">Genes!$O$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="14">Reactions!$A$1:$O$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="7">RNAs!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Transcription units'!$A$1:$N$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Transcription units'!$A$1:$M$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">Genes!$A$1:$I$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="200">
   <si>
     <t>Id</t>
   </si>
@@ -169,9 +169,6 @@
     <t>chromosome1</t>
   </si>
   <si>
-    <t>/media/sf_VM_share/wc_model_gen/tests/fixtures/min_model_kb_seq.fna</t>
-  </si>
-  <si>
     <t>KEGG:T00006</t>
   </si>
   <si>
@@ -199,9 +196,6 @@
     <t>DnaA box (122..131)</t>
   </si>
   <si>
-    <t>DnaABox</t>
-  </si>
-  <si>
     <t>PUB_0932</t>
   </si>
   <si>
@@ -226,9 +220,6 @@
     <t>Transcription unit 1-A (MPN001)</t>
   </si>
   <si>
-    <t>mRna</t>
-  </si>
-  <si>
     <t>MPN001</t>
   </si>
   <si>
@@ -259,9 +250,6 @@
     <t>biocyc:MPNE272634GJ6Z1, ncbi_gene:877175, cmr:MPN001, kegg:mpn:MPN001</t>
   </si>
   <si>
-    <t>misc</t>
-  </si>
-  <si>
     <t>AMP</t>
   </si>
   <si>
@@ -526,9 +514,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>article</t>
-  </si>
-  <si>
     <t>Science</t>
   </si>
   <si>
@@ -667,12 +652,6 @@
     <t>positive</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>Measurement technology</t>
   </si>
   <si>
@@ -692,13 +671,31 @@
   </si>
   <si>
     <t>Proteins</t>
+  </si>
+  <si>
+    <t>WC:mRNA</t>
+  </si>
+  <si>
+    <t>WC:article</t>
+  </si>
+  <si>
+    <t>WC:preprint</t>
+  </si>
+  <si>
+    <t>WC:DNAABox</t>
+  </si>
+  <si>
+    <t>WC:string</t>
+  </si>
+  <si>
+    <t>WC:float</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -814,12 +811,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -830,20 +821,13 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="arial"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -1013,7 +997,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1127,7 +1111,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1167,9 +1151,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1195,10 +1176,10 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1245,33 +1226,33 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1283,19 +1264,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="6" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
@@ -1323,8 +1304,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1348,12 +1327,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="47" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="48" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="48" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="48" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1373,6 +1352,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1380,21 +1369,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1412,7 +1386,7 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1438,21 +1412,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1480,6 +1448,13 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="180">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1943,8 +1918,8 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" style="54" customWidth="1"/>
-    <col min="3" max="1025" width="8.5703125" style="54" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="53" customWidth="1"/>
+    <col min="3" max="1025" width="8.5703125" style="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1952,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1960,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1975,8 +1950,8 @@
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="54" t="s">
-        <v>187</v>
+      <c r="B4" s="53" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1998,7 +1973,7 @@
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="53" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2006,8 +1981,8 @@
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>188</v>
+      <c r="B9" s="53" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2027,50 +2002,50 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="46" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="43" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="42" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="44" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="46" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="45" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="47" customWidth="1"/>
-    <col min="8" max="9" width="25.7109375" style="54" customWidth="1"/>
-    <col min="10" max="10" width="33.5703125" style="47" customWidth="1"/>
-    <col min="11" max="1019" width="33.5703125" style="54" customWidth="1"/>
-    <col min="1020" max="1024" width="33.5703125" style="47" customWidth="1"/>
-    <col min="1025" max="16384" width="33.5703125" style="47"/>
+    <col min="1" max="1" width="25.7109375" style="45" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="41" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="43" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="45" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="44" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="46" customWidth="1"/>
+    <col min="8" max="9" width="25.7109375" style="53" customWidth="1"/>
+    <col min="10" max="10" width="33.5703125" style="46" customWidth="1"/>
+    <col min="11" max="1019" width="33.5703125" style="53" customWidth="1"/>
+    <col min="1020" max="1024" width="33.5703125" style="46" customWidth="1"/>
+    <col min="1025" max="16384" width="33.5703125" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1021" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="49" t="s">
+    <row r="1" spans="1:1021" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>183</v>
-      </c>
-      <c r="H1" s="48" t="s">
+      <c r="C1" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="AMF1" s="53"/>
-      <c r="AMG1" s="53"/>
+      <c r="AMF1" s="52"/>
+      <c r="AMG1" s="52"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
@@ -2089,193 +2064,193 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="25.7109375" style="41" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="55" customWidth="1"/>
+    <col min="1" max="3" width="25.7109375" style="40" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="54" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="25.7109375" style="41" customWidth="1"/>
+    <col min="6" max="7" width="25.7109375" style="40" customWidth="1"/>
     <col min="8" max="1004" width="9.140625" style="1" customWidth="1"/>
-    <col min="1005" max="1006" width="9.140625" style="20" customWidth="1"/>
-    <col min="1007" max="1017" width="9" style="20" customWidth="1"/>
-    <col min="1018" max="16384" width="9" style="20"/>
+    <col min="1005" max="1006" width="9.140625" style="19" customWidth="1"/>
+    <col min="1007" max="1017" width="9" style="19" customWidth="1"/>
+    <col min="1018" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="40" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+    <row r="1" spans="1:11" s="39" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="130" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="130" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="131" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" s="130" t="s">
+      <c r="C1" s="122" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="123" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="125" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="125" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="125" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="126"/>
+      <c r="E2" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="133" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="133" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="135" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="133"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="133"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="133"/>
-      <c r="B5" s="133"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="133"/>
-      <c r="B6" s="133"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
+      <c r="A6" s="125"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="133"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
+      <c r="A7" s="125"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="133"/>
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="137"/>
+      <c r="A8" s="125"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="129"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="133"/>
-      <c r="B9" s="133"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="137"/>
+      <c r="A9" s="125"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="129"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="133"/>
-      <c r="B10" s="133"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
+      <c r="A10" s="125"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="129"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="133"/>
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="137"/>
+      <c r="A11" s="125"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="129"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="133"/>
-      <c r="B12" s="133"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="137"/>
+      <c r="A12" s="125"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="129"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -2292,139 +2267,139 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="54" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="54" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="53" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="53" customWidth="1"/>
     <col min="3" max="4" width="15.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" style="117" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="54" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" style="113" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="53" customWidth="1"/>
     <col min="7" max="9" width="20.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="54" customWidth="1"/>
-    <col min="11" max="21" width="9.140625" style="54" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="54"/>
+    <col min="10" max="10" width="20.7109375" style="53" customWidth="1"/>
+    <col min="11" max="21" width="9.140625" style="53" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="113" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="99"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="102" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="117" t="s">
-        <v>182</v>
-      </c>
-      <c r="D2" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="117" t="s">
-        <v>193</v>
-      </c>
-      <c r="F2" s="102" t="s">
-        <v>100</v>
-      </c>
-      <c r="J2" s="102"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="102" t="s">
+      <c r="D3" s="99">
+        <v>4.8828698208797903</v>
+      </c>
+      <c r="E3" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" s="99" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="99"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="102" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="117" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="102">
-        <v>4.8828698208797903</v>
-      </c>
-      <c r="E3" s="117" t="s">
-        <v>192</v>
-      </c>
-      <c r="F3" s="102" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="102"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="117" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="102">
+      <c r="B4" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="113" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="99">
         <v>992.98255190377824</v>
       </c>
-      <c r="E4" s="117" t="s">
-        <v>192</v>
-      </c>
-      <c r="F4" s="102" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="102" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="102"/>
+      <c r="E4" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" s="99" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="99" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="99"/>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="D15" s="84"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="85"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="82"/>
     </row>
     <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="87"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="86"/>
+      <c r="B16" s="84"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="83"/>
     </row>
     <row r="17" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="102"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="101"/>
+      <c r="B17" s="99"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2442,93 +2417,93 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="54" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="54" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="53" customWidth="1"/>
     <col min="3" max="5" width="15.7109375" style="2" customWidth="1"/>
     <col min="6" max="8" width="20.7109375" style="2" customWidth="1"/>
-    <col min="9" max="19" width="9.140625" style="54" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="54"/>
+    <col min="9" max="19" width="9.140625" style="53" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="78">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="D2" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="78" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="87">
+        <v>2.2584973866611409E-2</v>
+      </c>
+      <c r="D3" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="E3" s="87" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="102">
+        <v>489.45</v>
+      </c>
+      <c r="D4" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="81">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="D2" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="90">
-        <v>2.2584973866611409E-2</v>
-      </c>
-      <c r="D3" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="105" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="105">
-        <v>489.45</v>
-      </c>
-      <c r="D4" s="105" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="105" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2546,32 +2521,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" style="47" customWidth="1"/>
+    <col min="1" max="4" width="20.7109375" style="46" customWidth="1"/>
     <col min="5" max="6" width="20.7109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="47" customWidth="1"/>
-    <col min="8" max="1023" width="9.140625" style="47" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="46" customWidth="1"/>
+    <col min="8" max="1023" width="9.140625" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" s="38" t="s">
+      <c r="C1" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2595,95 +2570,95 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" style="23" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" style="23" customWidth="1"/>
-    <col min="5" max="5" width="72" style="23" customWidth="1"/>
-    <col min="6" max="10" width="15.7109375" style="23" customWidth="1"/>
-    <col min="11" max="14" width="20.7109375" style="23" customWidth="1"/>
-    <col min="15" max="18" width="9" style="23" customWidth="1"/>
-    <col min="19" max="1027" width="37.85546875" style="23" customWidth="1"/>
-    <col min="1028" max="1029" width="8.5703125" style="23" customWidth="1"/>
-    <col min="1030" max="1040" width="9" style="23" customWidth="1"/>
-    <col min="1041" max="16384" width="9" style="23"/>
+    <col min="1" max="2" width="20.7109375" style="22" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="72" style="22" customWidth="1"/>
+    <col min="6" max="10" width="15.7109375" style="22" customWidth="1"/>
+    <col min="11" max="14" width="20.7109375" style="22" customWidth="1"/>
+    <col min="15" max="18" width="9" style="22" customWidth="1"/>
+    <col min="19" max="1027" width="37.85546875" style="22" customWidth="1"/>
+    <col min="1028" max="1029" width="8.5703125" style="22" customWidth="1"/>
+    <col min="1030" max="1040" width="9" style="22" customWidth="1"/>
+    <col min="1041" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14 1028:1028" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:14 1028:1028" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="34" t="s">
+      <c r="C1" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMN1" s="35"/>
+    </row>
+    <row r="2" spans="1:14 1028:1028" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1" s="34" t="s">
+      <c r="B2" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="J1" s="33" t="s">
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="K1" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="AMN1" s="36"/>
-    </row>
-    <row r="2" spans="1:14 1028:1028" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="98" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="98" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="98" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98" t="s">
-        <v>62</v>
-      </c>
-      <c r="N2" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="AMN2" s="108"/>
+      <c r="AMN2" s="105"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1"/>
@@ -2706,37 +2681,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="20.7109375" style="54" customWidth="1"/>
+    <col min="1" max="5" width="20.7109375" style="53" customWidth="1"/>
     <col min="6" max="7" width="20.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="54" customWidth="1"/>
-    <col min="10" max="1026" width="9.140625" style="54" customWidth="1"/>
-    <col min="1027" max="1037" width="9" style="54" customWidth="1"/>
-    <col min="1038" max="16384" width="9" style="54"/>
+    <col min="8" max="8" width="20.7109375" style="53" customWidth="1"/>
+    <col min="10" max="1026" width="9.140625" style="53" customWidth="1"/>
+    <col min="1027" max="1037" width="9" style="53" customWidth="1"/>
+    <col min="1038" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:8" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="G1" s="32" t="s">
+      <c r="B1" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2764,54 +2739,54 @@
     <col min="2" max="2" width="20.7109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="6" customWidth="1"/>
     <col min="4" max="5" width="10.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="54" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="53" customWidth="1"/>
     <col min="7" max="9" width="20.7109375" style="6" customWidth="1"/>
-    <col min="10" max="20" width="9.140625" style="54" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="54"/>
+    <col min="10" max="20" width="9.140625" style="53" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="H1" s="31" t="s">
+      <c r="C1" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="106" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110">
+      <c r="C2" s="106"/>
+      <c r="D2" s="106">
         <v>2</v>
       </c>
-      <c r="E2" s="110" t="s">
-        <v>100</v>
+      <c r="E2" s="106" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2829,256 +2804,256 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="54" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="53" customWidth="1"/>
     <col min="2" max="7" width="15.7109375" style="2" customWidth="1"/>
-    <col min="8" max="10" width="20.7109375" style="54" customWidth="1"/>
-    <col min="11" max="21" width="9.140625" style="54" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="54"/>
+    <col min="8" max="10" width="20.7109375" style="53" customWidth="1"/>
+    <col min="11" max="21" width="9.140625" style="53" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="E2" s="77">
+        <v>1</v>
+      </c>
+      <c r="F2" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E3" s="80">
+        <v>992.98255190377802</v>
+      </c>
+      <c r="F3" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="B4" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="86">
+        <v>489.45</v>
+      </c>
+      <c r="F4" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="89">
+        <v>5.5313109099319684</v>
+      </c>
+      <c r="F5" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="96" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="97" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="97" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="96" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="97" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="97">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="F7" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="80" t="s">
+      <c r="G7" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="80" t="s">
+      <c r="C8" s="101" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="101" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="101">
+        <v>4.8828698208797903</v>
+      </c>
+      <c r="F8" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="104" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="80">
-        <v>1</v>
-      </c>
-      <c r="F2" s="80" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="80" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="83" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="83">
-        <v>992.98255190377802</v>
-      </c>
-      <c r="F3" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="83" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="89" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="89">
-        <v>489.45</v>
-      </c>
-      <c r="F4" s="89" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="89" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="92">
-        <v>5.5313109099319684</v>
-      </c>
-      <c r="F5" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="92" t="s">
-        <v>109</v>
-      </c>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="100" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="100" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="100" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="100" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="100" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="100" t="s">
+      <c r="E9" s="104">
+        <v>2.2584973866611409E-2</v>
+      </c>
+      <c r="F9" s="104" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="100" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="100" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="100">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="F7" s="100" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="100" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="104" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="104" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="104">
-        <v>4.8828698208797903</v>
-      </c>
-      <c r="F8" s="104" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="104" t="s">
-        <v>120</v>
-      </c>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="106" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="107" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="107" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="107">
-        <v>2.2584973866611409E-2</v>
-      </c>
-      <c r="F9" s="107" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="107" t="s">
-        <v>120</v>
-      </c>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
     </row>
   </sheetData>
   <sortState ref="A2:J9">
@@ -3098,219 +3073,219 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="54" customWidth="1"/>
-    <col min="2" max="4" width="25.7109375" style="54" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="54" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="53" customWidth="1"/>
+    <col min="2" max="4" width="25.7109375" style="53" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="53" customWidth="1"/>
     <col min="6" max="9" width="15.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="54" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" style="54" customWidth="1"/>
-    <col min="12" max="13" width="15.7109375" style="54" customWidth="1"/>
-    <col min="14" max="24" width="9.140625" style="54" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="54"/>
+    <col min="10" max="10" width="15.7109375" style="53" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" style="53" customWidth="1"/>
+    <col min="12" max="13" width="15.7109375" style="53" customWidth="1"/>
+    <col min="14" max="24" width="9.140625" style="53" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="K1" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="107" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="F2" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="G2" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="H2" s="109">
+        <v>37</v>
+      </c>
+      <c r="I2" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="K1" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="107"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111" t="s">
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107" t="s">
         <v>128</v>
       </c>
-      <c r="F2" s="113" t="s">
+      <c r="F3" s="109" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="109" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="109">
+        <v>37</v>
+      </c>
+      <c r="I3" s="109" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="113" t="s">
+    </row>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="109" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="109" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="109">
+        <v>37</v>
+      </c>
+      <c r="I4" s="109" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="H2" s="113">
+      <c r="M4" s="107"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="109" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107" t="s">
+        <v>131</v>
+      </c>
+      <c r="M5" s="107"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="M6" s="110"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="114" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="114" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="113">
         <v>37</v>
       </c>
-      <c r="I2" s="112" t="s">
-        <v>131</v>
-      </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="111"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="113" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="113" t="s">
-        <v>130</v>
-      </c>
-      <c r="H3" s="113">
-        <v>37</v>
-      </c>
-      <c r="I3" s="113" t="s">
-        <v>131</v>
-      </c>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="111" t="s">
+      <c r="I7" s="114" t="s">
+        <v>127</v>
+      </c>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" s="113" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" s="113" t="s">
-        <v>130</v>
-      </c>
-      <c r="H4" s="113">
-        <v>37</v>
-      </c>
-      <c r="I4" s="113" t="s">
-        <v>131</v>
-      </c>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111" t="s">
-        <v>134</v>
-      </c>
-      <c r="M4" s="111"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="111" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="113" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111" t="s">
-        <v>135</v>
-      </c>
-      <c r="M5" s="111"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114" t="s">
-        <v>128</v>
-      </c>
-      <c r="F6" s="115" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114" t="s">
-        <v>136</v>
-      </c>
-      <c r="M6" s="114"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="116" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" s="118" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="118" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7" s="117">
-        <v>37</v>
-      </c>
-      <c r="I7" s="118" t="s">
-        <v>131</v>
-      </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3334,1061 +3309,1061 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="125" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="54" customWidth="1"/>
-    <col min="3" max="1025" width="8.5703125" style="54" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="117" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="53" customWidth="1"/>
+    <col min="3" max="1025" width="8.5703125" style="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="128" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
+    <row r="1" spans="1:1025" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="127"/>
-      <c r="AD1" s="127"/>
-      <c r="AE1" s="127"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="127"/>
-      <c r="AH1" s="127"/>
-      <c r="AI1" s="127"/>
-      <c r="AJ1" s="127"/>
-      <c r="AK1" s="127"/>
-      <c r="AL1" s="127"/>
-      <c r="AM1" s="127"/>
-      <c r="AN1" s="127"/>
-      <c r="AO1" s="127"/>
-      <c r="AP1" s="127"/>
-      <c r="AQ1" s="127"/>
-      <c r="AR1" s="127"/>
-      <c r="AS1" s="127"/>
-      <c r="AT1" s="127"/>
-      <c r="AU1" s="127"/>
-      <c r="AV1" s="127"/>
-      <c r="AW1" s="127"/>
-      <c r="AX1" s="127"/>
-      <c r="AY1" s="127"/>
-      <c r="AZ1" s="127"/>
-      <c r="BA1" s="127"/>
-      <c r="BB1" s="127"/>
-      <c r="BC1" s="127"/>
-      <c r="BD1" s="127"/>
-      <c r="BE1" s="127"/>
-      <c r="BF1" s="127"/>
-      <c r="BG1" s="127"/>
-      <c r="BH1" s="127"/>
-      <c r="BI1" s="127"/>
-      <c r="BJ1" s="127"/>
-      <c r="BK1" s="127"/>
-      <c r="BL1" s="127"/>
-      <c r="BM1" s="127"/>
-      <c r="BN1" s="127"/>
-      <c r="BO1" s="127"/>
-      <c r="BP1" s="127"/>
-      <c r="BQ1" s="127"/>
-      <c r="BR1" s="127"/>
-      <c r="BS1" s="127"/>
-      <c r="BT1" s="127"/>
-      <c r="BU1" s="127"/>
-      <c r="BV1" s="127"/>
-      <c r="BW1" s="127"/>
-      <c r="BX1" s="127"/>
-      <c r="BY1" s="127"/>
-      <c r="BZ1" s="127"/>
-      <c r="CA1" s="127"/>
-      <c r="CB1" s="127"/>
-      <c r="CC1" s="127"/>
-      <c r="CD1" s="127"/>
-      <c r="CE1" s="127"/>
-      <c r="CF1" s="127"/>
-      <c r="CG1" s="127"/>
-      <c r="CH1" s="127"/>
-      <c r="CI1" s="127"/>
-      <c r="CJ1" s="127"/>
-      <c r="CK1" s="127"/>
-      <c r="CL1" s="127"/>
-      <c r="CM1" s="127"/>
-      <c r="CN1" s="127"/>
-      <c r="CO1" s="127"/>
-      <c r="CP1" s="127"/>
-      <c r="CQ1" s="127"/>
-      <c r="CR1" s="127"/>
-      <c r="CS1" s="127"/>
-      <c r="CT1" s="127"/>
-      <c r="CU1" s="127"/>
-      <c r="CV1" s="127"/>
-      <c r="CW1" s="127"/>
-      <c r="CX1" s="127"/>
-      <c r="CY1" s="127"/>
-      <c r="CZ1" s="127"/>
-      <c r="DA1" s="127"/>
-      <c r="DB1" s="127"/>
-      <c r="DC1" s="127"/>
-      <c r="DD1" s="127"/>
-      <c r="DE1" s="127"/>
-      <c r="DF1" s="127"/>
-      <c r="DG1" s="127"/>
-      <c r="DH1" s="127"/>
-      <c r="DI1" s="127"/>
-      <c r="DJ1" s="127"/>
-      <c r="DK1" s="127"/>
-      <c r="DL1" s="127"/>
-      <c r="DM1" s="127"/>
-      <c r="DN1" s="127"/>
-      <c r="DO1" s="127"/>
-      <c r="DP1" s="127"/>
-      <c r="DQ1" s="127"/>
-      <c r="DR1" s="127"/>
-      <c r="DS1" s="127"/>
-      <c r="DT1" s="127"/>
-      <c r="DU1" s="127"/>
-      <c r="DV1" s="127"/>
-      <c r="DW1" s="127"/>
-      <c r="DX1" s="127"/>
-      <c r="DY1" s="127"/>
-      <c r="DZ1" s="127"/>
-      <c r="EA1" s="127"/>
-      <c r="EB1" s="127"/>
-      <c r="EC1" s="127"/>
-      <c r="ED1" s="127"/>
-      <c r="EE1" s="127"/>
-      <c r="EF1" s="127"/>
-      <c r="EG1" s="127"/>
-      <c r="EH1" s="127"/>
-      <c r="EI1" s="127"/>
-      <c r="EJ1" s="127"/>
-      <c r="EK1" s="127"/>
-      <c r="EL1" s="127"/>
-      <c r="EM1" s="127"/>
-      <c r="EN1" s="127"/>
-      <c r="EO1" s="127"/>
-      <c r="EP1" s="127"/>
-      <c r="EQ1" s="127"/>
-      <c r="ER1" s="127"/>
-      <c r="ES1" s="127"/>
-      <c r="ET1" s="127"/>
-      <c r="EU1" s="127"/>
-      <c r="EV1" s="127"/>
-      <c r="EW1" s="127"/>
-      <c r="EX1" s="127"/>
-      <c r="EY1" s="127"/>
-      <c r="EZ1" s="127"/>
-      <c r="FA1" s="127"/>
-      <c r="FB1" s="127"/>
-      <c r="FC1" s="127"/>
-      <c r="FD1" s="127"/>
-      <c r="FE1" s="127"/>
-      <c r="FF1" s="127"/>
-      <c r="FG1" s="127"/>
-      <c r="FH1" s="127"/>
-      <c r="FI1" s="127"/>
-      <c r="FJ1" s="127"/>
-      <c r="FK1" s="127"/>
-      <c r="FL1" s="127"/>
-      <c r="FM1" s="127"/>
-      <c r="FN1" s="127"/>
-      <c r="FO1" s="127"/>
-      <c r="FP1" s="127"/>
-      <c r="FQ1" s="127"/>
-      <c r="FR1" s="127"/>
-      <c r="FS1" s="127"/>
-      <c r="FT1" s="127"/>
-      <c r="FU1" s="127"/>
-      <c r="FV1" s="127"/>
-      <c r="FW1" s="127"/>
-      <c r="FX1" s="127"/>
-      <c r="FY1" s="127"/>
-      <c r="FZ1" s="127"/>
-      <c r="GA1" s="127"/>
-      <c r="GB1" s="127"/>
-      <c r="GC1" s="127"/>
-      <c r="GD1" s="127"/>
-      <c r="GE1" s="127"/>
-      <c r="GF1" s="127"/>
-      <c r="GG1" s="127"/>
-      <c r="GH1" s="127"/>
-      <c r="GI1" s="127"/>
-      <c r="GJ1" s="127"/>
-      <c r="GK1" s="127"/>
-      <c r="GL1" s="127"/>
-      <c r="GM1" s="127"/>
-      <c r="GN1" s="127"/>
-      <c r="GO1" s="127"/>
-      <c r="GP1" s="127"/>
-      <c r="GQ1" s="127"/>
-      <c r="GR1" s="127"/>
-      <c r="GS1" s="127"/>
-      <c r="GT1" s="127"/>
-      <c r="GU1" s="127"/>
-      <c r="GV1" s="127"/>
-      <c r="GW1" s="127"/>
-      <c r="GX1" s="127"/>
-      <c r="GY1" s="127"/>
-      <c r="GZ1" s="127"/>
-      <c r="HA1" s="127"/>
-      <c r="HB1" s="127"/>
-      <c r="HC1" s="127"/>
-      <c r="HD1" s="127"/>
-      <c r="HE1" s="127"/>
-      <c r="HF1" s="127"/>
-      <c r="HG1" s="127"/>
-      <c r="HH1" s="127"/>
-      <c r="HI1" s="127"/>
-      <c r="HJ1" s="127"/>
-      <c r="HK1" s="127"/>
-      <c r="HL1" s="127"/>
-      <c r="HM1" s="127"/>
-      <c r="HN1" s="127"/>
-      <c r="HO1" s="127"/>
-      <c r="HP1" s="127"/>
-      <c r="HQ1" s="127"/>
-      <c r="HR1" s="127"/>
-      <c r="HS1" s="127"/>
-      <c r="HT1" s="127"/>
-      <c r="HU1" s="127"/>
-      <c r="HV1" s="127"/>
-      <c r="HW1" s="127"/>
-      <c r="HX1" s="127"/>
-      <c r="HY1" s="127"/>
-      <c r="HZ1" s="127"/>
-      <c r="IA1" s="127"/>
-      <c r="IB1" s="127"/>
-      <c r="IC1" s="127"/>
-      <c r="ID1" s="127"/>
-      <c r="IE1" s="127"/>
-      <c r="IF1" s="127"/>
-      <c r="IG1" s="127"/>
-      <c r="IH1" s="127"/>
-      <c r="II1" s="127"/>
-      <c r="IJ1" s="127"/>
-      <c r="IK1" s="127"/>
-      <c r="IL1" s="127"/>
-      <c r="IM1" s="127"/>
-      <c r="IN1" s="127"/>
-      <c r="IO1" s="127"/>
-      <c r="IP1" s="127"/>
-      <c r="IQ1" s="127"/>
-      <c r="IR1" s="127"/>
-      <c r="IS1" s="127"/>
-      <c r="IT1" s="127"/>
-      <c r="IU1" s="127"/>
-      <c r="IV1" s="127"/>
-      <c r="IW1" s="127"/>
-      <c r="IX1" s="127"/>
-      <c r="IY1" s="127"/>
-      <c r="IZ1" s="127"/>
-      <c r="JA1" s="127"/>
-      <c r="JB1" s="127"/>
-      <c r="JC1" s="127"/>
-      <c r="JD1" s="127"/>
-      <c r="JE1" s="127"/>
-      <c r="JF1" s="127"/>
-      <c r="JG1" s="127"/>
-      <c r="JH1" s="127"/>
-      <c r="JI1" s="127"/>
-      <c r="JJ1" s="127"/>
-      <c r="JK1" s="127"/>
-      <c r="JL1" s="127"/>
-      <c r="JM1" s="127"/>
-      <c r="JN1" s="127"/>
-      <c r="JO1" s="127"/>
-      <c r="JP1" s="127"/>
-      <c r="JQ1" s="127"/>
-      <c r="JR1" s="127"/>
-      <c r="JS1" s="127"/>
-      <c r="JT1" s="127"/>
-      <c r="JU1" s="127"/>
-      <c r="JV1" s="127"/>
-      <c r="JW1" s="127"/>
-      <c r="JX1" s="127"/>
-      <c r="JY1" s="127"/>
-      <c r="JZ1" s="127"/>
-      <c r="KA1" s="127"/>
-      <c r="KB1" s="127"/>
-      <c r="KC1" s="127"/>
-      <c r="KD1" s="127"/>
-      <c r="KE1" s="127"/>
-      <c r="KF1" s="127"/>
-      <c r="KG1" s="127"/>
-      <c r="KH1" s="127"/>
-      <c r="KI1" s="127"/>
-      <c r="KJ1" s="127"/>
-      <c r="KK1" s="127"/>
-      <c r="KL1" s="127"/>
-      <c r="KM1" s="127"/>
-      <c r="KN1" s="127"/>
-      <c r="KO1" s="127"/>
-      <c r="KP1" s="127"/>
-      <c r="KQ1" s="127"/>
-      <c r="KR1" s="127"/>
-      <c r="KS1" s="127"/>
-      <c r="KT1" s="127"/>
-      <c r="KU1" s="127"/>
-      <c r="KV1" s="127"/>
-      <c r="KW1" s="127"/>
-      <c r="KX1" s="127"/>
-      <c r="KY1" s="127"/>
-      <c r="KZ1" s="127"/>
-      <c r="LA1" s="127"/>
-      <c r="LB1" s="127"/>
-      <c r="LC1" s="127"/>
-      <c r="LD1" s="127"/>
-      <c r="LE1" s="127"/>
-      <c r="LF1" s="127"/>
-      <c r="LG1" s="127"/>
-      <c r="LH1" s="127"/>
-      <c r="LI1" s="127"/>
-      <c r="LJ1" s="127"/>
-      <c r="LK1" s="127"/>
-      <c r="LL1" s="127"/>
-      <c r="LM1" s="127"/>
-      <c r="LN1" s="127"/>
-      <c r="LO1" s="127"/>
-      <c r="LP1" s="127"/>
-      <c r="LQ1" s="127"/>
-      <c r="LR1" s="127"/>
-      <c r="LS1" s="127"/>
-      <c r="LT1" s="127"/>
-      <c r="LU1" s="127"/>
-      <c r="LV1" s="127"/>
-      <c r="LW1" s="127"/>
-      <c r="LX1" s="127"/>
-      <c r="LY1" s="127"/>
-      <c r="LZ1" s="127"/>
-      <c r="MA1" s="127"/>
-      <c r="MB1" s="127"/>
-      <c r="MC1" s="127"/>
-      <c r="MD1" s="127"/>
-      <c r="ME1" s="127"/>
-      <c r="MF1" s="127"/>
-      <c r="MG1" s="127"/>
-      <c r="MH1" s="127"/>
-      <c r="MI1" s="127"/>
-      <c r="MJ1" s="127"/>
-      <c r="MK1" s="127"/>
-      <c r="ML1" s="127"/>
-      <c r="MM1" s="127"/>
-      <c r="MN1" s="127"/>
-      <c r="MO1" s="127"/>
-      <c r="MP1" s="127"/>
-      <c r="MQ1" s="127"/>
-      <c r="MR1" s="127"/>
-      <c r="MS1" s="127"/>
-      <c r="MT1" s="127"/>
-      <c r="MU1" s="127"/>
-      <c r="MV1" s="127"/>
-      <c r="MW1" s="127"/>
-      <c r="MX1" s="127"/>
-      <c r="MY1" s="127"/>
-      <c r="MZ1" s="127"/>
-      <c r="NA1" s="127"/>
-      <c r="NB1" s="127"/>
-      <c r="NC1" s="127"/>
-      <c r="ND1" s="127"/>
-      <c r="NE1" s="127"/>
-      <c r="NF1" s="127"/>
-      <c r="NG1" s="127"/>
-      <c r="NH1" s="127"/>
-      <c r="NI1" s="127"/>
-      <c r="NJ1" s="127"/>
-      <c r="NK1" s="127"/>
-      <c r="NL1" s="127"/>
-      <c r="NM1" s="127"/>
-      <c r="NN1" s="127"/>
-      <c r="NO1" s="127"/>
-      <c r="NP1" s="127"/>
-      <c r="NQ1" s="127"/>
-      <c r="NR1" s="127"/>
-      <c r="NS1" s="127"/>
-      <c r="NT1" s="127"/>
-      <c r="NU1" s="127"/>
-      <c r="NV1" s="127"/>
-      <c r="NW1" s="127"/>
-      <c r="NX1" s="127"/>
-      <c r="NY1" s="127"/>
-      <c r="NZ1" s="127"/>
-      <c r="OA1" s="127"/>
-      <c r="OB1" s="127"/>
-      <c r="OC1" s="127"/>
-      <c r="OD1" s="127"/>
-      <c r="OE1" s="127"/>
-      <c r="OF1" s="127"/>
-      <c r="OG1" s="127"/>
-      <c r="OH1" s="127"/>
-      <c r="OI1" s="127"/>
-      <c r="OJ1" s="127"/>
-      <c r="OK1" s="127"/>
-      <c r="OL1" s="127"/>
-      <c r="OM1" s="127"/>
-      <c r="ON1" s="127"/>
-      <c r="OO1" s="127"/>
-      <c r="OP1" s="127"/>
-      <c r="OQ1" s="127"/>
-      <c r="OR1" s="127"/>
-      <c r="OS1" s="127"/>
-      <c r="OT1" s="127"/>
-      <c r="OU1" s="127"/>
-      <c r="OV1" s="127"/>
-      <c r="OW1" s="127"/>
-      <c r="OX1" s="127"/>
-      <c r="OY1" s="127"/>
-      <c r="OZ1" s="127"/>
-      <c r="PA1" s="127"/>
-      <c r="PB1" s="127"/>
-      <c r="PC1" s="127"/>
-      <c r="PD1" s="127"/>
-      <c r="PE1" s="127"/>
-      <c r="PF1" s="127"/>
-      <c r="PG1" s="127"/>
-      <c r="PH1" s="127"/>
-      <c r="PI1" s="127"/>
-      <c r="PJ1" s="127"/>
-      <c r="PK1" s="127"/>
-      <c r="PL1" s="127"/>
-      <c r="PM1" s="127"/>
-      <c r="PN1" s="127"/>
-      <c r="PO1" s="127"/>
-      <c r="PP1" s="127"/>
-      <c r="PQ1" s="127"/>
-      <c r="PR1" s="127"/>
-      <c r="PS1" s="127"/>
-      <c r="PT1" s="127"/>
-      <c r="PU1" s="127"/>
-      <c r="PV1" s="127"/>
-      <c r="PW1" s="127"/>
-      <c r="PX1" s="127"/>
-      <c r="PY1" s="127"/>
-      <c r="PZ1" s="127"/>
-      <c r="QA1" s="127"/>
-      <c r="QB1" s="127"/>
-      <c r="QC1" s="127"/>
-      <c r="QD1" s="127"/>
-      <c r="QE1" s="127"/>
-      <c r="QF1" s="127"/>
-      <c r="QG1" s="127"/>
-      <c r="QH1" s="127"/>
-      <c r="QI1" s="127"/>
-      <c r="QJ1" s="127"/>
-      <c r="QK1" s="127"/>
-      <c r="QL1" s="127"/>
-      <c r="QM1" s="127"/>
-      <c r="QN1" s="127"/>
-      <c r="QO1" s="127"/>
-      <c r="QP1" s="127"/>
-      <c r="QQ1" s="127"/>
-      <c r="QR1" s="127"/>
-      <c r="QS1" s="127"/>
-      <c r="QT1" s="127"/>
-      <c r="QU1" s="127"/>
-      <c r="QV1" s="127"/>
-      <c r="QW1" s="127"/>
-      <c r="QX1" s="127"/>
-      <c r="QY1" s="127"/>
-      <c r="QZ1" s="127"/>
-      <c r="RA1" s="127"/>
-      <c r="RB1" s="127"/>
-      <c r="RC1" s="127"/>
-      <c r="RD1" s="127"/>
-      <c r="RE1" s="127"/>
-      <c r="RF1" s="127"/>
-      <c r="RG1" s="127"/>
-      <c r="RH1" s="127"/>
-      <c r="RI1" s="127"/>
-      <c r="RJ1" s="127"/>
-      <c r="RK1" s="127"/>
-      <c r="RL1" s="127"/>
-      <c r="RM1" s="127"/>
-      <c r="RN1" s="127"/>
-      <c r="RO1" s="127"/>
-      <c r="RP1" s="127"/>
-      <c r="RQ1" s="127"/>
-      <c r="RR1" s="127"/>
-      <c r="RS1" s="127"/>
-      <c r="RT1" s="127"/>
-      <c r="RU1" s="127"/>
-      <c r="RV1" s="127"/>
-      <c r="RW1" s="127"/>
-      <c r="RX1" s="127"/>
-      <c r="RY1" s="127"/>
-      <c r="RZ1" s="127"/>
-      <c r="SA1" s="127"/>
-      <c r="SB1" s="127"/>
-      <c r="SC1" s="127"/>
-      <c r="SD1" s="127"/>
-      <c r="SE1" s="127"/>
-      <c r="SF1" s="127"/>
-      <c r="SG1" s="127"/>
-      <c r="SH1" s="127"/>
-      <c r="SI1" s="127"/>
-      <c r="SJ1" s="127"/>
-      <c r="SK1" s="127"/>
-      <c r="SL1" s="127"/>
-      <c r="SM1" s="127"/>
-      <c r="SN1" s="127"/>
-      <c r="SO1" s="127"/>
-      <c r="SP1" s="127"/>
-      <c r="SQ1" s="127"/>
-      <c r="SR1" s="127"/>
-      <c r="SS1" s="127"/>
-      <c r="ST1" s="127"/>
-      <c r="SU1" s="127"/>
-      <c r="SV1" s="127"/>
-      <c r="SW1" s="127"/>
-      <c r="SX1" s="127"/>
-      <c r="SY1" s="127"/>
-      <c r="SZ1" s="127"/>
-      <c r="TA1" s="127"/>
-      <c r="TB1" s="127"/>
-      <c r="TC1" s="127"/>
-      <c r="TD1" s="127"/>
-      <c r="TE1" s="127"/>
-      <c r="TF1" s="127"/>
-      <c r="TG1" s="127"/>
-      <c r="TH1" s="127"/>
-      <c r="TI1" s="127"/>
-      <c r="TJ1" s="127"/>
-      <c r="TK1" s="127"/>
-      <c r="TL1" s="127"/>
-      <c r="TM1" s="127"/>
-      <c r="TN1" s="127"/>
-      <c r="TO1" s="127"/>
-      <c r="TP1" s="127"/>
-      <c r="TQ1" s="127"/>
-      <c r="TR1" s="127"/>
-      <c r="TS1" s="127"/>
-      <c r="TT1" s="127"/>
-      <c r="TU1" s="127"/>
-      <c r="TV1" s="127"/>
-      <c r="TW1" s="127"/>
-      <c r="TX1" s="127"/>
-      <c r="TY1" s="127"/>
-      <c r="TZ1" s="127"/>
-      <c r="UA1" s="127"/>
-      <c r="UB1" s="127"/>
-      <c r="UC1" s="127"/>
-      <c r="UD1" s="127"/>
-      <c r="UE1" s="127"/>
-      <c r="UF1" s="127"/>
-      <c r="UG1" s="127"/>
-      <c r="UH1" s="127"/>
-      <c r="UI1" s="127"/>
-      <c r="UJ1" s="127"/>
-      <c r="UK1" s="127"/>
-      <c r="UL1" s="127"/>
-      <c r="UM1" s="127"/>
-      <c r="UN1" s="127"/>
-      <c r="UO1" s="127"/>
-      <c r="UP1" s="127"/>
-      <c r="UQ1" s="127"/>
-      <c r="UR1" s="127"/>
-      <c r="US1" s="127"/>
-      <c r="UT1" s="127"/>
-      <c r="UU1" s="127"/>
-      <c r="UV1" s="127"/>
-      <c r="UW1" s="127"/>
-      <c r="UX1" s="127"/>
-      <c r="UY1" s="127"/>
-      <c r="UZ1" s="127"/>
-      <c r="VA1" s="127"/>
-      <c r="VB1" s="127"/>
-      <c r="VC1" s="127"/>
-      <c r="VD1" s="127"/>
-      <c r="VE1" s="127"/>
-      <c r="VF1" s="127"/>
-      <c r="VG1" s="127"/>
-      <c r="VH1" s="127"/>
-      <c r="VI1" s="127"/>
-      <c r="VJ1" s="127"/>
-      <c r="VK1" s="127"/>
-      <c r="VL1" s="127"/>
-      <c r="VM1" s="127"/>
-      <c r="VN1" s="127"/>
-      <c r="VO1" s="127"/>
-      <c r="VP1" s="127"/>
-      <c r="VQ1" s="127"/>
-      <c r="VR1" s="127"/>
-      <c r="VS1" s="127"/>
-      <c r="VT1" s="127"/>
-      <c r="VU1" s="127"/>
-      <c r="VV1" s="127"/>
-      <c r="VW1" s="127"/>
-      <c r="VX1" s="127"/>
-      <c r="VY1" s="127"/>
-      <c r="VZ1" s="127"/>
-      <c r="WA1" s="127"/>
-      <c r="WB1" s="127"/>
-      <c r="WC1" s="127"/>
-      <c r="WD1" s="127"/>
-      <c r="WE1" s="127"/>
-      <c r="WF1" s="127"/>
-      <c r="WG1" s="127"/>
-      <c r="WH1" s="127"/>
-      <c r="WI1" s="127"/>
-      <c r="WJ1" s="127"/>
-      <c r="WK1" s="127"/>
-      <c r="WL1" s="127"/>
-      <c r="WM1" s="127"/>
-      <c r="WN1" s="127"/>
-      <c r="WO1" s="127"/>
-      <c r="WP1" s="127"/>
-      <c r="WQ1" s="127"/>
-      <c r="WR1" s="127"/>
-      <c r="WS1" s="127"/>
-      <c r="WT1" s="127"/>
-      <c r="WU1" s="127"/>
-      <c r="WV1" s="127"/>
-      <c r="WW1" s="127"/>
-      <c r="WX1" s="127"/>
-      <c r="WY1" s="127"/>
-      <c r="WZ1" s="127"/>
-      <c r="XA1" s="127"/>
-      <c r="XB1" s="127"/>
-      <c r="XC1" s="127"/>
-      <c r="XD1" s="127"/>
-      <c r="XE1" s="127"/>
-      <c r="XF1" s="127"/>
-      <c r="XG1" s="127"/>
-      <c r="XH1" s="127"/>
-      <c r="XI1" s="127"/>
-      <c r="XJ1" s="127"/>
-      <c r="XK1" s="127"/>
-      <c r="XL1" s="127"/>
-      <c r="XM1" s="127"/>
-      <c r="XN1" s="127"/>
-      <c r="XO1" s="127"/>
-      <c r="XP1" s="127"/>
-      <c r="XQ1" s="127"/>
-      <c r="XR1" s="127"/>
-      <c r="XS1" s="127"/>
-      <c r="XT1" s="127"/>
-      <c r="XU1" s="127"/>
-      <c r="XV1" s="127"/>
-      <c r="XW1" s="127"/>
-      <c r="XX1" s="127"/>
-      <c r="XY1" s="127"/>
-      <c r="XZ1" s="127"/>
-      <c r="YA1" s="127"/>
-      <c r="YB1" s="127"/>
-      <c r="YC1" s="127"/>
-      <c r="YD1" s="127"/>
-      <c r="YE1" s="127"/>
-      <c r="YF1" s="127"/>
-      <c r="YG1" s="127"/>
-      <c r="YH1" s="127"/>
-      <c r="YI1" s="127"/>
-      <c r="YJ1" s="127"/>
-      <c r="YK1" s="127"/>
-      <c r="YL1" s="127"/>
-      <c r="YM1" s="127"/>
-      <c r="YN1" s="127"/>
-      <c r="YO1" s="127"/>
-      <c r="YP1" s="127"/>
-      <c r="YQ1" s="127"/>
-      <c r="YR1" s="127"/>
-      <c r="YS1" s="127"/>
-      <c r="YT1" s="127"/>
-      <c r="YU1" s="127"/>
-      <c r="YV1" s="127"/>
-      <c r="YW1" s="127"/>
-      <c r="YX1" s="127"/>
-      <c r="YY1" s="127"/>
-      <c r="YZ1" s="127"/>
-      <c r="ZA1" s="127"/>
-      <c r="ZB1" s="127"/>
-      <c r="ZC1" s="127"/>
-      <c r="ZD1" s="127"/>
-      <c r="ZE1" s="127"/>
-      <c r="ZF1" s="127"/>
-      <c r="ZG1" s="127"/>
-      <c r="ZH1" s="127"/>
-      <c r="ZI1" s="127"/>
-      <c r="ZJ1" s="127"/>
-      <c r="ZK1" s="127"/>
-      <c r="ZL1" s="127"/>
-      <c r="ZM1" s="127"/>
-      <c r="ZN1" s="127"/>
-      <c r="ZO1" s="127"/>
-      <c r="ZP1" s="127"/>
-      <c r="ZQ1" s="127"/>
-      <c r="ZR1" s="127"/>
-      <c r="ZS1" s="127"/>
-      <c r="ZT1" s="127"/>
-      <c r="ZU1" s="127"/>
-      <c r="ZV1" s="127"/>
-      <c r="ZW1" s="127"/>
-      <c r="ZX1" s="127"/>
-      <c r="ZY1" s="127"/>
-      <c r="ZZ1" s="127"/>
-      <c r="AAA1" s="127"/>
-      <c r="AAB1" s="127"/>
-      <c r="AAC1" s="127"/>
-      <c r="AAD1" s="127"/>
-      <c r="AAE1" s="127"/>
-      <c r="AAF1" s="127"/>
-      <c r="AAG1" s="127"/>
-      <c r="AAH1" s="127"/>
-      <c r="AAI1" s="127"/>
-      <c r="AAJ1" s="127"/>
-      <c r="AAK1" s="127"/>
-      <c r="AAL1" s="127"/>
-      <c r="AAM1" s="127"/>
-      <c r="AAN1" s="127"/>
-      <c r="AAO1" s="127"/>
-      <c r="AAP1" s="127"/>
-      <c r="AAQ1" s="127"/>
-      <c r="AAR1" s="127"/>
-      <c r="AAS1" s="127"/>
-      <c r="AAT1" s="127"/>
-      <c r="AAU1" s="127"/>
-      <c r="AAV1" s="127"/>
-      <c r="AAW1" s="127"/>
-      <c r="AAX1" s="127"/>
-      <c r="AAY1" s="127"/>
-      <c r="AAZ1" s="127"/>
-      <c r="ABA1" s="127"/>
-      <c r="ABB1" s="127"/>
-      <c r="ABC1" s="127"/>
-      <c r="ABD1" s="127"/>
-      <c r="ABE1" s="127"/>
-      <c r="ABF1" s="127"/>
-      <c r="ABG1" s="127"/>
-      <c r="ABH1" s="127"/>
-      <c r="ABI1" s="127"/>
-      <c r="ABJ1" s="127"/>
-      <c r="ABK1" s="127"/>
-      <c r="ABL1" s="127"/>
-      <c r="ABM1" s="127"/>
-      <c r="ABN1" s="127"/>
-      <c r="ABO1" s="127"/>
-      <c r="ABP1" s="127"/>
-      <c r="ABQ1" s="127"/>
-      <c r="ABR1" s="127"/>
-      <c r="ABS1" s="127"/>
-      <c r="ABT1" s="127"/>
-      <c r="ABU1" s="127"/>
-      <c r="ABV1" s="127"/>
-      <c r="ABW1" s="127"/>
-      <c r="ABX1" s="127"/>
-      <c r="ABY1" s="127"/>
-      <c r="ABZ1" s="127"/>
-      <c r="ACA1" s="127"/>
-      <c r="ACB1" s="127"/>
-      <c r="ACC1" s="127"/>
-      <c r="ACD1" s="127"/>
-      <c r="ACE1" s="127"/>
-      <c r="ACF1" s="127"/>
-      <c r="ACG1" s="127"/>
-      <c r="ACH1" s="127"/>
-      <c r="ACI1" s="127"/>
-      <c r="ACJ1" s="127"/>
-      <c r="ACK1" s="127"/>
-      <c r="ACL1" s="127"/>
-      <c r="ACM1" s="127"/>
-      <c r="ACN1" s="127"/>
-      <c r="ACO1" s="127"/>
-      <c r="ACP1" s="127"/>
-      <c r="ACQ1" s="127"/>
-      <c r="ACR1" s="127"/>
-      <c r="ACS1" s="127"/>
-      <c r="ACT1" s="127"/>
-      <c r="ACU1" s="127"/>
-      <c r="ACV1" s="127"/>
-      <c r="ACW1" s="127"/>
-      <c r="ACX1" s="127"/>
-      <c r="ACY1" s="127"/>
-      <c r="ACZ1" s="127"/>
-      <c r="ADA1" s="127"/>
-      <c r="ADB1" s="127"/>
-      <c r="ADC1" s="127"/>
-      <c r="ADD1" s="127"/>
-      <c r="ADE1" s="127"/>
-      <c r="ADF1" s="127"/>
-      <c r="ADG1" s="127"/>
-      <c r="ADH1" s="127"/>
-      <c r="ADI1" s="127"/>
-      <c r="ADJ1" s="127"/>
-      <c r="ADK1" s="127"/>
-      <c r="ADL1" s="127"/>
-      <c r="ADM1" s="127"/>
-      <c r="ADN1" s="127"/>
-      <c r="ADO1" s="127"/>
-      <c r="ADP1" s="127"/>
-      <c r="ADQ1" s="127"/>
-      <c r="ADR1" s="127"/>
-      <c r="ADS1" s="127"/>
-      <c r="ADT1" s="127"/>
-      <c r="ADU1" s="127"/>
-      <c r="ADV1" s="127"/>
-      <c r="ADW1" s="127"/>
-      <c r="ADX1" s="127"/>
-      <c r="ADY1" s="127"/>
-      <c r="ADZ1" s="127"/>
-      <c r="AEA1" s="127"/>
-      <c r="AEB1" s="127"/>
-      <c r="AEC1" s="127"/>
-      <c r="AED1" s="127"/>
-      <c r="AEE1" s="127"/>
-      <c r="AEF1" s="127"/>
-      <c r="AEG1" s="127"/>
-      <c r="AEH1" s="127"/>
-      <c r="AEI1" s="127"/>
-      <c r="AEJ1" s="127"/>
-      <c r="AEK1" s="127"/>
-      <c r="AEL1" s="127"/>
-      <c r="AEM1" s="127"/>
-      <c r="AEN1" s="127"/>
-      <c r="AEO1" s="127"/>
-      <c r="AEP1" s="127"/>
-      <c r="AEQ1" s="127"/>
-      <c r="AER1" s="127"/>
-      <c r="AES1" s="127"/>
-      <c r="AET1" s="127"/>
-      <c r="AEU1" s="127"/>
-      <c r="AEV1" s="127"/>
-      <c r="AEW1" s="127"/>
-      <c r="AEX1" s="127"/>
-      <c r="AEY1" s="127"/>
-      <c r="AEZ1" s="127"/>
-      <c r="AFA1" s="127"/>
-      <c r="AFB1" s="127"/>
-      <c r="AFC1" s="127"/>
-      <c r="AFD1" s="127"/>
-      <c r="AFE1" s="127"/>
-      <c r="AFF1" s="127"/>
-      <c r="AFG1" s="127"/>
-      <c r="AFH1" s="127"/>
-      <c r="AFI1" s="127"/>
-      <c r="AFJ1" s="127"/>
-      <c r="AFK1" s="127"/>
-      <c r="AFL1" s="127"/>
-      <c r="AFM1" s="127"/>
-      <c r="AFN1" s="127"/>
-      <c r="AFO1" s="127"/>
-      <c r="AFP1" s="127"/>
-      <c r="AFQ1" s="127"/>
-      <c r="AFR1" s="127"/>
-      <c r="AFS1" s="127"/>
-      <c r="AFT1" s="127"/>
-      <c r="AFU1" s="127"/>
-      <c r="AFV1" s="127"/>
-      <c r="AFW1" s="127"/>
-      <c r="AFX1" s="127"/>
-      <c r="AFY1" s="127"/>
-      <c r="AFZ1" s="127"/>
-      <c r="AGA1" s="127"/>
-      <c r="AGB1" s="127"/>
-      <c r="AGC1" s="127"/>
-      <c r="AGD1" s="127"/>
-      <c r="AGE1" s="127"/>
-      <c r="AGF1" s="127"/>
-      <c r="AGG1" s="127"/>
-      <c r="AGH1" s="127"/>
-      <c r="AGI1" s="127"/>
-      <c r="AGJ1" s="127"/>
-      <c r="AGK1" s="127"/>
-      <c r="AGL1" s="127"/>
-      <c r="AGM1" s="127"/>
-      <c r="AGN1" s="127"/>
-      <c r="AGO1" s="127"/>
-      <c r="AGP1" s="127"/>
-      <c r="AGQ1" s="127"/>
-      <c r="AGR1" s="127"/>
-      <c r="AGS1" s="127"/>
-      <c r="AGT1" s="127"/>
-      <c r="AGU1" s="127"/>
-      <c r="AGV1" s="127"/>
-      <c r="AGW1" s="127"/>
-      <c r="AGX1" s="127"/>
-      <c r="AGY1" s="127"/>
-      <c r="AGZ1" s="127"/>
-      <c r="AHA1" s="127"/>
-      <c r="AHB1" s="127"/>
-      <c r="AHC1" s="127"/>
-      <c r="AHD1" s="127"/>
-      <c r="AHE1" s="127"/>
-      <c r="AHF1" s="127"/>
-      <c r="AHG1" s="127"/>
-      <c r="AHH1" s="127"/>
-      <c r="AHI1" s="127"/>
-      <c r="AHJ1" s="127"/>
-      <c r="AHK1" s="127"/>
-      <c r="AHL1" s="127"/>
-      <c r="AHM1" s="127"/>
-      <c r="AHN1" s="127"/>
-      <c r="AHO1" s="127"/>
-      <c r="AHP1" s="127"/>
-      <c r="AHQ1" s="127"/>
-      <c r="AHR1" s="127"/>
-      <c r="AHS1" s="127"/>
-      <c r="AHT1" s="127"/>
-      <c r="AHU1" s="127"/>
-      <c r="AHV1" s="127"/>
-      <c r="AHW1" s="127"/>
-      <c r="AHX1" s="127"/>
-      <c r="AHY1" s="127"/>
-      <c r="AHZ1" s="127"/>
-      <c r="AIA1" s="127"/>
-      <c r="AIB1" s="127"/>
-      <c r="AIC1" s="127"/>
-      <c r="AID1" s="127"/>
-      <c r="AIE1" s="127"/>
-      <c r="AIF1" s="127"/>
-      <c r="AIG1" s="127"/>
-      <c r="AIH1" s="127"/>
-      <c r="AII1" s="127"/>
-      <c r="AIJ1" s="127"/>
-      <c r="AIK1" s="127"/>
-      <c r="AIL1" s="127"/>
-      <c r="AIM1" s="127"/>
-      <c r="AIN1" s="127"/>
-      <c r="AIO1" s="127"/>
-      <c r="AIP1" s="127"/>
-      <c r="AIQ1" s="127"/>
-      <c r="AIR1" s="127"/>
-      <c r="AIS1" s="127"/>
-      <c r="AIT1" s="127"/>
-      <c r="AIU1" s="127"/>
-      <c r="AIV1" s="127"/>
-      <c r="AIW1" s="127"/>
-      <c r="AIX1" s="127"/>
-      <c r="AIY1" s="127"/>
-      <c r="AIZ1" s="127"/>
-      <c r="AJA1" s="127"/>
-      <c r="AJB1" s="127"/>
-      <c r="AJC1" s="127"/>
-      <c r="AJD1" s="127"/>
-      <c r="AJE1" s="127"/>
-      <c r="AJF1" s="127"/>
-      <c r="AJG1" s="127"/>
-      <c r="AJH1" s="127"/>
-      <c r="AJI1" s="127"/>
-      <c r="AJJ1" s="127"/>
-      <c r="AJK1" s="127"/>
-      <c r="AJL1" s="127"/>
-      <c r="AJM1" s="127"/>
-      <c r="AJN1" s="127"/>
-      <c r="AJO1" s="127"/>
-      <c r="AJP1" s="127"/>
-      <c r="AJQ1" s="127"/>
-      <c r="AJR1" s="127"/>
-      <c r="AJS1" s="127"/>
-      <c r="AJT1" s="127"/>
-      <c r="AJU1" s="127"/>
-      <c r="AJV1" s="127"/>
-      <c r="AJW1" s="127"/>
-      <c r="AJX1" s="127"/>
-      <c r="AJY1" s="127"/>
-      <c r="AJZ1" s="127"/>
-      <c r="AKA1" s="127"/>
-      <c r="AKB1" s="127"/>
-      <c r="AKC1" s="127"/>
-      <c r="AKD1" s="127"/>
-      <c r="AKE1" s="127"/>
-      <c r="AKF1" s="127"/>
-      <c r="AKG1" s="127"/>
-      <c r="AKH1" s="127"/>
-      <c r="AKI1" s="127"/>
-      <c r="AKJ1" s="127"/>
-      <c r="AKK1" s="127"/>
-      <c r="AKL1" s="127"/>
-      <c r="AKM1" s="127"/>
-      <c r="AKN1" s="127"/>
-      <c r="AKO1" s="127"/>
-      <c r="AKP1" s="127"/>
-      <c r="AKQ1" s="127"/>
-      <c r="AKR1" s="127"/>
-      <c r="AKS1" s="127"/>
-      <c r="AKT1" s="127"/>
-      <c r="AKU1" s="127"/>
-      <c r="AKV1" s="127"/>
-      <c r="AKW1" s="127"/>
-      <c r="AKX1" s="127"/>
-      <c r="AKY1" s="127"/>
-      <c r="AKZ1" s="127"/>
-      <c r="ALA1" s="127"/>
-      <c r="ALB1" s="127"/>
-      <c r="ALC1" s="127"/>
-      <c r="ALD1" s="127"/>
-      <c r="ALE1" s="127"/>
-      <c r="ALF1" s="127"/>
-      <c r="ALG1" s="127"/>
-      <c r="ALH1" s="127"/>
-      <c r="ALI1" s="127"/>
-      <c r="ALJ1" s="127"/>
-      <c r="ALK1" s="127"/>
-      <c r="ALL1" s="127"/>
-      <c r="ALM1" s="127"/>
-      <c r="ALN1" s="127"/>
-      <c r="ALO1" s="127"/>
-      <c r="ALP1" s="127"/>
-      <c r="ALQ1" s="127"/>
-      <c r="ALR1" s="127"/>
-      <c r="ALS1" s="127"/>
-      <c r="ALT1" s="127"/>
-      <c r="ALU1" s="127"/>
-      <c r="ALV1" s="127"/>
-      <c r="ALW1" s="127"/>
-      <c r="ALX1" s="127"/>
-      <c r="ALY1" s="127"/>
-      <c r="ALZ1" s="127"/>
-      <c r="AMA1" s="127"/>
-      <c r="AMB1" s="127"/>
-      <c r="AMC1" s="127"/>
-      <c r="AMD1" s="127"/>
-      <c r="AME1" s="127"/>
-      <c r="AMF1" s="127"/>
-      <c r="AMG1" s="127"/>
-      <c r="AMH1" s="127"/>
-      <c r="AMI1" s="127"/>
-      <c r="AMJ1" s="127"/>
-      <c r="AMK1" s="127"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="119"/>
+      <c r="AA1" s="119"/>
+      <c r="AB1" s="119"/>
+      <c r="AC1" s="119"/>
+      <c r="AD1" s="119"/>
+      <c r="AE1" s="119"/>
+      <c r="AF1" s="119"/>
+      <c r="AG1" s="119"/>
+      <c r="AH1" s="119"/>
+      <c r="AI1" s="119"/>
+      <c r="AJ1" s="119"/>
+      <c r="AK1" s="119"/>
+      <c r="AL1" s="119"/>
+      <c r="AM1" s="119"/>
+      <c r="AN1" s="119"/>
+      <c r="AO1" s="119"/>
+      <c r="AP1" s="119"/>
+      <c r="AQ1" s="119"/>
+      <c r="AR1" s="119"/>
+      <c r="AS1" s="119"/>
+      <c r="AT1" s="119"/>
+      <c r="AU1" s="119"/>
+      <c r="AV1" s="119"/>
+      <c r="AW1" s="119"/>
+      <c r="AX1" s="119"/>
+      <c r="AY1" s="119"/>
+      <c r="AZ1" s="119"/>
+      <c r="BA1" s="119"/>
+      <c r="BB1" s="119"/>
+      <c r="BC1" s="119"/>
+      <c r="BD1" s="119"/>
+      <c r="BE1" s="119"/>
+      <c r="BF1" s="119"/>
+      <c r="BG1" s="119"/>
+      <c r="BH1" s="119"/>
+      <c r="BI1" s="119"/>
+      <c r="BJ1" s="119"/>
+      <c r="BK1" s="119"/>
+      <c r="BL1" s="119"/>
+      <c r="BM1" s="119"/>
+      <c r="BN1" s="119"/>
+      <c r="BO1" s="119"/>
+      <c r="BP1" s="119"/>
+      <c r="BQ1" s="119"/>
+      <c r="BR1" s="119"/>
+      <c r="BS1" s="119"/>
+      <c r="BT1" s="119"/>
+      <c r="BU1" s="119"/>
+      <c r="BV1" s="119"/>
+      <c r="BW1" s="119"/>
+      <c r="BX1" s="119"/>
+      <c r="BY1" s="119"/>
+      <c r="BZ1" s="119"/>
+      <c r="CA1" s="119"/>
+      <c r="CB1" s="119"/>
+      <c r="CC1" s="119"/>
+      <c r="CD1" s="119"/>
+      <c r="CE1" s="119"/>
+      <c r="CF1" s="119"/>
+      <c r="CG1" s="119"/>
+      <c r="CH1" s="119"/>
+      <c r="CI1" s="119"/>
+      <c r="CJ1" s="119"/>
+      <c r="CK1" s="119"/>
+      <c r="CL1" s="119"/>
+      <c r="CM1" s="119"/>
+      <c r="CN1" s="119"/>
+      <c r="CO1" s="119"/>
+      <c r="CP1" s="119"/>
+      <c r="CQ1" s="119"/>
+      <c r="CR1" s="119"/>
+      <c r="CS1" s="119"/>
+      <c r="CT1" s="119"/>
+      <c r="CU1" s="119"/>
+      <c r="CV1" s="119"/>
+      <c r="CW1" s="119"/>
+      <c r="CX1" s="119"/>
+      <c r="CY1" s="119"/>
+      <c r="CZ1" s="119"/>
+      <c r="DA1" s="119"/>
+      <c r="DB1" s="119"/>
+      <c r="DC1" s="119"/>
+      <c r="DD1" s="119"/>
+      <c r="DE1" s="119"/>
+      <c r="DF1" s="119"/>
+      <c r="DG1" s="119"/>
+      <c r="DH1" s="119"/>
+      <c r="DI1" s="119"/>
+      <c r="DJ1" s="119"/>
+      <c r="DK1" s="119"/>
+      <c r="DL1" s="119"/>
+      <c r="DM1" s="119"/>
+      <c r="DN1" s="119"/>
+      <c r="DO1" s="119"/>
+      <c r="DP1" s="119"/>
+      <c r="DQ1" s="119"/>
+      <c r="DR1" s="119"/>
+      <c r="DS1" s="119"/>
+      <c r="DT1" s="119"/>
+      <c r="DU1" s="119"/>
+      <c r="DV1" s="119"/>
+      <c r="DW1" s="119"/>
+      <c r="DX1" s="119"/>
+      <c r="DY1" s="119"/>
+      <c r="DZ1" s="119"/>
+      <c r="EA1" s="119"/>
+      <c r="EB1" s="119"/>
+      <c r="EC1" s="119"/>
+      <c r="ED1" s="119"/>
+      <c r="EE1" s="119"/>
+      <c r="EF1" s="119"/>
+      <c r="EG1" s="119"/>
+      <c r="EH1" s="119"/>
+      <c r="EI1" s="119"/>
+      <c r="EJ1" s="119"/>
+      <c r="EK1" s="119"/>
+      <c r="EL1" s="119"/>
+      <c r="EM1" s="119"/>
+      <c r="EN1" s="119"/>
+      <c r="EO1" s="119"/>
+      <c r="EP1" s="119"/>
+      <c r="EQ1" s="119"/>
+      <c r="ER1" s="119"/>
+      <c r="ES1" s="119"/>
+      <c r="ET1" s="119"/>
+      <c r="EU1" s="119"/>
+      <c r="EV1" s="119"/>
+      <c r="EW1" s="119"/>
+      <c r="EX1" s="119"/>
+      <c r="EY1" s="119"/>
+      <c r="EZ1" s="119"/>
+      <c r="FA1" s="119"/>
+      <c r="FB1" s="119"/>
+      <c r="FC1" s="119"/>
+      <c r="FD1" s="119"/>
+      <c r="FE1" s="119"/>
+      <c r="FF1" s="119"/>
+      <c r="FG1" s="119"/>
+      <c r="FH1" s="119"/>
+      <c r="FI1" s="119"/>
+      <c r="FJ1" s="119"/>
+      <c r="FK1" s="119"/>
+      <c r="FL1" s="119"/>
+      <c r="FM1" s="119"/>
+      <c r="FN1" s="119"/>
+      <c r="FO1" s="119"/>
+      <c r="FP1" s="119"/>
+      <c r="FQ1" s="119"/>
+      <c r="FR1" s="119"/>
+      <c r="FS1" s="119"/>
+      <c r="FT1" s="119"/>
+      <c r="FU1" s="119"/>
+      <c r="FV1" s="119"/>
+      <c r="FW1" s="119"/>
+      <c r="FX1" s="119"/>
+      <c r="FY1" s="119"/>
+      <c r="FZ1" s="119"/>
+      <c r="GA1" s="119"/>
+      <c r="GB1" s="119"/>
+      <c r="GC1" s="119"/>
+      <c r="GD1" s="119"/>
+      <c r="GE1" s="119"/>
+      <c r="GF1" s="119"/>
+      <c r="GG1" s="119"/>
+      <c r="GH1" s="119"/>
+      <c r="GI1" s="119"/>
+      <c r="GJ1" s="119"/>
+      <c r="GK1" s="119"/>
+      <c r="GL1" s="119"/>
+      <c r="GM1" s="119"/>
+      <c r="GN1" s="119"/>
+      <c r="GO1" s="119"/>
+      <c r="GP1" s="119"/>
+      <c r="GQ1" s="119"/>
+      <c r="GR1" s="119"/>
+      <c r="GS1" s="119"/>
+      <c r="GT1" s="119"/>
+      <c r="GU1" s="119"/>
+      <c r="GV1" s="119"/>
+      <c r="GW1" s="119"/>
+      <c r="GX1" s="119"/>
+      <c r="GY1" s="119"/>
+      <c r="GZ1" s="119"/>
+      <c r="HA1" s="119"/>
+      <c r="HB1" s="119"/>
+      <c r="HC1" s="119"/>
+      <c r="HD1" s="119"/>
+      <c r="HE1" s="119"/>
+      <c r="HF1" s="119"/>
+      <c r="HG1" s="119"/>
+      <c r="HH1" s="119"/>
+      <c r="HI1" s="119"/>
+      <c r="HJ1" s="119"/>
+      <c r="HK1" s="119"/>
+      <c r="HL1" s="119"/>
+      <c r="HM1" s="119"/>
+      <c r="HN1" s="119"/>
+      <c r="HO1" s="119"/>
+      <c r="HP1" s="119"/>
+      <c r="HQ1" s="119"/>
+      <c r="HR1" s="119"/>
+      <c r="HS1" s="119"/>
+      <c r="HT1" s="119"/>
+      <c r="HU1" s="119"/>
+      <c r="HV1" s="119"/>
+      <c r="HW1" s="119"/>
+      <c r="HX1" s="119"/>
+      <c r="HY1" s="119"/>
+      <c r="HZ1" s="119"/>
+      <c r="IA1" s="119"/>
+      <c r="IB1" s="119"/>
+      <c r="IC1" s="119"/>
+      <c r="ID1" s="119"/>
+      <c r="IE1" s="119"/>
+      <c r="IF1" s="119"/>
+      <c r="IG1" s="119"/>
+      <c r="IH1" s="119"/>
+      <c r="II1" s="119"/>
+      <c r="IJ1" s="119"/>
+      <c r="IK1" s="119"/>
+      <c r="IL1" s="119"/>
+      <c r="IM1" s="119"/>
+      <c r="IN1" s="119"/>
+      <c r="IO1" s="119"/>
+      <c r="IP1" s="119"/>
+      <c r="IQ1" s="119"/>
+      <c r="IR1" s="119"/>
+      <c r="IS1" s="119"/>
+      <c r="IT1" s="119"/>
+      <c r="IU1" s="119"/>
+      <c r="IV1" s="119"/>
+      <c r="IW1" s="119"/>
+      <c r="IX1" s="119"/>
+      <c r="IY1" s="119"/>
+      <c r="IZ1" s="119"/>
+      <c r="JA1" s="119"/>
+      <c r="JB1" s="119"/>
+      <c r="JC1" s="119"/>
+      <c r="JD1" s="119"/>
+      <c r="JE1" s="119"/>
+      <c r="JF1" s="119"/>
+      <c r="JG1" s="119"/>
+      <c r="JH1" s="119"/>
+      <c r="JI1" s="119"/>
+      <c r="JJ1" s="119"/>
+      <c r="JK1" s="119"/>
+      <c r="JL1" s="119"/>
+      <c r="JM1" s="119"/>
+      <c r="JN1" s="119"/>
+      <c r="JO1" s="119"/>
+      <c r="JP1" s="119"/>
+      <c r="JQ1" s="119"/>
+      <c r="JR1" s="119"/>
+      <c r="JS1" s="119"/>
+      <c r="JT1" s="119"/>
+      <c r="JU1" s="119"/>
+      <c r="JV1" s="119"/>
+      <c r="JW1" s="119"/>
+      <c r="JX1" s="119"/>
+      <c r="JY1" s="119"/>
+      <c r="JZ1" s="119"/>
+      <c r="KA1" s="119"/>
+      <c r="KB1" s="119"/>
+      <c r="KC1" s="119"/>
+      <c r="KD1" s="119"/>
+      <c r="KE1" s="119"/>
+      <c r="KF1" s="119"/>
+      <c r="KG1" s="119"/>
+      <c r="KH1" s="119"/>
+      <c r="KI1" s="119"/>
+      <c r="KJ1" s="119"/>
+      <c r="KK1" s="119"/>
+      <c r="KL1" s="119"/>
+      <c r="KM1" s="119"/>
+      <c r="KN1" s="119"/>
+      <c r="KO1" s="119"/>
+      <c r="KP1" s="119"/>
+      <c r="KQ1" s="119"/>
+      <c r="KR1" s="119"/>
+      <c r="KS1" s="119"/>
+      <c r="KT1" s="119"/>
+      <c r="KU1" s="119"/>
+      <c r="KV1" s="119"/>
+      <c r="KW1" s="119"/>
+      <c r="KX1" s="119"/>
+      <c r="KY1" s="119"/>
+      <c r="KZ1" s="119"/>
+      <c r="LA1" s="119"/>
+      <c r="LB1" s="119"/>
+      <c r="LC1" s="119"/>
+      <c r="LD1" s="119"/>
+      <c r="LE1" s="119"/>
+      <c r="LF1" s="119"/>
+      <c r="LG1" s="119"/>
+      <c r="LH1" s="119"/>
+      <c r="LI1" s="119"/>
+      <c r="LJ1" s="119"/>
+      <c r="LK1" s="119"/>
+      <c r="LL1" s="119"/>
+      <c r="LM1" s="119"/>
+      <c r="LN1" s="119"/>
+      <c r="LO1" s="119"/>
+      <c r="LP1" s="119"/>
+      <c r="LQ1" s="119"/>
+      <c r="LR1" s="119"/>
+      <c r="LS1" s="119"/>
+      <c r="LT1" s="119"/>
+      <c r="LU1" s="119"/>
+      <c r="LV1" s="119"/>
+      <c r="LW1" s="119"/>
+      <c r="LX1" s="119"/>
+      <c r="LY1" s="119"/>
+      <c r="LZ1" s="119"/>
+      <c r="MA1" s="119"/>
+      <c r="MB1" s="119"/>
+      <c r="MC1" s="119"/>
+      <c r="MD1" s="119"/>
+      <c r="ME1" s="119"/>
+      <c r="MF1" s="119"/>
+      <c r="MG1" s="119"/>
+      <c r="MH1" s="119"/>
+      <c r="MI1" s="119"/>
+      <c r="MJ1" s="119"/>
+      <c r="MK1" s="119"/>
+      <c r="ML1" s="119"/>
+      <c r="MM1" s="119"/>
+      <c r="MN1" s="119"/>
+      <c r="MO1" s="119"/>
+      <c r="MP1" s="119"/>
+      <c r="MQ1" s="119"/>
+      <c r="MR1" s="119"/>
+      <c r="MS1" s="119"/>
+      <c r="MT1" s="119"/>
+      <c r="MU1" s="119"/>
+      <c r="MV1" s="119"/>
+      <c r="MW1" s="119"/>
+      <c r="MX1" s="119"/>
+      <c r="MY1" s="119"/>
+      <c r="MZ1" s="119"/>
+      <c r="NA1" s="119"/>
+      <c r="NB1" s="119"/>
+      <c r="NC1" s="119"/>
+      <c r="ND1" s="119"/>
+      <c r="NE1" s="119"/>
+      <c r="NF1" s="119"/>
+      <c r="NG1" s="119"/>
+      <c r="NH1" s="119"/>
+      <c r="NI1" s="119"/>
+      <c r="NJ1" s="119"/>
+      <c r="NK1" s="119"/>
+      <c r="NL1" s="119"/>
+      <c r="NM1" s="119"/>
+      <c r="NN1" s="119"/>
+      <c r="NO1" s="119"/>
+      <c r="NP1" s="119"/>
+      <c r="NQ1" s="119"/>
+      <c r="NR1" s="119"/>
+      <c r="NS1" s="119"/>
+      <c r="NT1" s="119"/>
+      <c r="NU1" s="119"/>
+      <c r="NV1" s="119"/>
+      <c r="NW1" s="119"/>
+      <c r="NX1" s="119"/>
+      <c r="NY1" s="119"/>
+      <c r="NZ1" s="119"/>
+      <c r="OA1" s="119"/>
+      <c r="OB1" s="119"/>
+      <c r="OC1" s="119"/>
+      <c r="OD1" s="119"/>
+      <c r="OE1" s="119"/>
+      <c r="OF1" s="119"/>
+      <c r="OG1" s="119"/>
+      <c r="OH1" s="119"/>
+      <c r="OI1" s="119"/>
+      <c r="OJ1" s="119"/>
+      <c r="OK1" s="119"/>
+      <c r="OL1" s="119"/>
+      <c r="OM1" s="119"/>
+      <c r="ON1" s="119"/>
+      <c r="OO1" s="119"/>
+      <c r="OP1" s="119"/>
+      <c r="OQ1" s="119"/>
+      <c r="OR1" s="119"/>
+      <c r="OS1" s="119"/>
+      <c r="OT1" s="119"/>
+      <c r="OU1" s="119"/>
+      <c r="OV1" s="119"/>
+      <c r="OW1" s="119"/>
+      <c r="OX1" s="119"/>
+      <c r="OY1" s="119"/>
+      <c r="OZ1" s="119"/>
+      <c r="PA1" s="119"/>
+      <c r="PB1" s="119"/>
+      <c r="PC1" s="119"/>
+      <c r="PD1" s="119"/>
+      <c r="PE1" s="119"/>
+      <c r="PF1" s="119"/>
+      <c r="PG1" s="119"/>
+      <c r="PH1" s="119"/>
+      <c r="PI1" s="119"/>
+      <c r="PJ1" s="119"/>
+      <c r="PK1" s="119"/>
+      <c r="PL1" s="119"/>
+      <c r="PM1" s="119"/>
+      <c r="PN1" s="119"/>
+      <c r="PO1" s="119"/>
+      <c r="PP1" s="119"/>
+      <c r="PQ1" s="119"/>
+      <c r="PR1" s="119"/>
+      <c r="PS1" s="119"/>
+      <c r="PT1" s="119"/>
+      <c r="PU1" s="119"/>
+      <c r="PV1" s="119"/>
+      <c r="PW1" s="119"/>
+      <c r="PX1" s="119"/>
+      <c r="PY1" s="119"/>
+      <c r="PZ1" s="119"/>
+      <c r="QA1" s="119"/>
+      <c r="QB1" s="119"/>
+      <c r="QC1" s="119"/>
+      <c r="QD1" s="119"/>
+      <c r="QE1" s="119"/>
+      <c r="QF1" s="119"/>
+      <c r="QG1" s="119"/>
+      <c r="QH1" s="119"/>
+      <c r="QI1" s="119"/>
+      <c r="QJ1" s="119"/>
+      <c r="QK1" s="119"/>
+      <c r="QL1" s="119"/>
+      <c r="QM1" s="119"/>
+      <c r="QN1" s="119"/>
+      <c r="QO1" s="119"/>
+      <c r="QP1" s="119"/>
+      <c r="QQ1" s="119"/>
+      <c r="QR1" s="119"/>
+      <c r="QS1" s="119"/>
+      <c r="QT1" s="119"/>
+      <c r="QU1" s="119"/>
+      <c r="QV1" s="119"/>
+      <c r="QW1" s="119"/>
+      <c r="QX1" s="119"/>
+      <c r="QY1" s="119"/>
+      <c r="QZ1" s="119"/>
+      <c r="RA1" s="119"/>
+      <c r="RB1" s="119"/>
+      <c r="RC1" s="119"/>
+      <c r="RD1" s="119"/>
+      <c r="RE1" s="119"/>
+      <c r="RF1" s="119"/>
+      <c r="RG1" s="119"/>
+      <c r="RH1" s="119"/>
+      <c r="RI1" s="119"/>
+      <c r="RJ1" s="119"/>
+      <c r="RK1" s="119"/>
+      <c r="RL1" s="119"/>
+      <c r="RM1" s="119"/>
+      <c r="RN1" s="119"/>
+      <c r="RO1" s="119"/>
+      <c r="RP1" s="119"/>
+      <c r="RQ1" s="119"/>
+      <c r="RR1" s="119"/>
+      <c r="RS1" s="119"/>
+      <c r="RT1" s="119"/>
+      <c r="RU1" s="119"/>
+      <c r="RV1" s="119"/>
+      <c r="RW1" s="119"/>
+      <c r="RX1" s="119"/>
+      <c r="RY1" s="119"/>
+      <c r="RZ1" s="119"/>
+      <c r="SA1" s="119"/>
+      <c r="SB1" s="119"/>
+      <c r="SC1" s="119"/>
+      <c r="SD1" s="119"/>
+      <c r="SE1" s="119"/>
+      <c r="SF1" s="119"/>
+      <c r="SG1" s="119"/>
+      <c r="SH1" s="119"/>
+      <c r="SI1" s="119"/>
+      <c r="SJ1" s="119"/>
+      <c r="SK1" s="119"/>
+      <c r="SL1" s="119"/>
+      <c r="SM1" s="119"/>
+      <c r="SN1" s="119"/>
+      <c r="SO1" s="119"/>
+      <c r="SP1" s="119"/>
+      <c r="SQ1" s="119"/>
+      <c r="SR1" s="119"/>
+      <c r="SS1" s="119"/>
+      <c r="ST1" s="119"/>
+      <c r="SU1" s="119"/>
+      <c r="SV1" s="119"/>
+      <c r="SW1" s="119"/>
+      <c r="SX1" s="119"/>
+      <c r="SY1" s="119"/>
+      <c r="SZ1" s="119"/>
+      <c r="TA1" s="119"/>
+      <c r="TB1" s="119"/>
+      <c r="TC1" s="119"/>
+      <c r="TD1" s="119"/>
+      <c r="TE1" s="119"/>
+      <c r="TF1" s="119"/>
+      <c r="TG1" s="119"/>
+      <c r="TH1" s="119"/>
+      <c r="TI1" s="119"/>
+      <c r="TJ1" s="119"/>
+      <c r="TK1" s="119"/>
+      <c r="TL1" s="119"/>
+      <c r="TM1" s="119"/>
+      <c r="TN1" s="119"/>
+      <c r="TO1" s="119"/>
+      <c r="TP1" s="119"/>
+      <c r="TQ1" s="119"/>
+      <c r="TR1" s="119"/>
+      <c r="TS1" s="119"/>
+      <c r="TT1" s="119"/>
+      <c r="TU1" s="119"/>
+      <c r="TV1" s="119"/>
+      <c r="TW1" s="119"/>
+      <c r="TX1" s="119"/>
+      <c r="TY1" s="119"/>
+      <c r="TZ1" s="119"/>
+      <c r="UA1" s="119"/>
+      <c r="UB1" s="119"/>
+      <c r="UC1" s="119"/>
+      <c r="UD1" s="119"/>
+      <c r="UE1" s="119"/>
+      <c r="UF1" s="119"/>
+      <c r="UG1" s="119"/>
+      <c r="UH1" s="119"/>
+      <c r="UI1" s="119"/>
+      <c r="UJ1" s="119"/>
+      <c r="UK1" s="119"/>
+      <c r="UL1" s="119"/>
+      <c r="UM1" s="119"/>
+      <c r="UN1" s="119"/>
+      <c r="UO1" s="119"/>
+      <c r="UP1" s="119"/>
+      <c r="UQ1" s="119"/>
+      <c r="UR1" s="119"/>
+      <c r="US1" s="119"/>
+      <c r="UT1" s="119"/>
+      <c r="UU1" s="119"/>
+      <c r="UV1" s="119"/>
+      <c r="UW1" s="119"/>
+      <c r="UX1" s="119"/>
+      <c r="UY1" s="119"/>
+      <c r="UZ1" s="119"/>
+      <c r="VA1" s="119"/>
+      <c r="VB1" s="119"/>
+      <c r="VC1" s="119"/>
+      <c r="VD1" s="119"/>
+      <c r="VE1" s="119"/>
+      <c r="VF1" s="119"/>
+      <c r="VG1" s="119"/>
+      <c r="VH1" s="119"/>
+      <c r="VI1" s="119"/>
+      <c r="VJ1" s="119"/>
+      <c r="VK1" s="119"/>
+      <c r="VL1" s="119"/>
+      <c r="VM1" s="119"/>
+      <c r="VN1" s="119"/>
+      <c r="VO1" s="119"/>
+      <c r="VP1" s="119"/>
+      <c r="VQ1" s="119"/>
+      <c r="VR1" s="119"/>
+      <c r="VS1" s="119"/>
+      <c r="VT1" s="119"/>
+      <c r="VU1" s="119"/>
+      <c r="VV1" s="119"/>
+      <c r="VW1" s="119"/>
+      <c r="VX1" s="119"/>
+      <c r="VY1" s="119"/>
+      <c r="VZ1" s="119"/>
+      <c r="WA1" s="119"/>
+      <c r="WB1" s="119"/>
+      <c r="WC1" s="119"/>
+      <c r="WD1" s="119"/>
+      <c r="WE1" s="119"/>
+      <c r="WF1" s="119"/>
+      <c r="WG1" s="119"/>
+      <c r="WH1" s="119"/>
+      <c r="WI1" s="119"/>
+      <c r="WJ1" s="119"/>
+      <c r="WK1" s="119"/>
+      <c r="WL1" s="119"/>
+      <c r="WM1" s="119"/>
+      <c r="WN1" s="119"/>
+      <c r="WO1" s="119"/>
+      <c r="WP1" s="119"/>
+      <c r="WQ1" s="119"/>
+      <c r="WR1" s="119"/>
+      <c r="WS1" s="119"/>
+      <c r="WT1" s="119"/>
+      <c r="WU1" s="119"/>
+      <c r="WV1" s="119"/>
+      <c r="WW1" s="119"/>
+      <c r="WX1" s="119"/>
+      <c r="WY1" s="119"/>
+      <c r="WZ1" s="119"/>
+      <c r="XA1" s="119"/>
+      <c r="XB1" s="119"/>
+      <c r="XC1" s="119"/>
+      <c r="XD1" s="119"/>
+      <c r="XE1" s="119"/>
+      <c r="XF1" s="119"/>
+      <c r="XG1" s="119"/>
+      <c r="XH1" s="119"/>
+      <c r="XI1" s="119"/>
+      <c r="XJ1" s="119"/>
+      <c r="XK1" s="119"/>
+      <c r="XL1" s="119"/>
+      <c r="XM1" s="119"/>
+      <c r="XN1" s="119"/>
+      <c r="XO1" s="119"/>
+      <c r="XP1" s="119"/>
+      <c r="XQ1" s="119"/>
+      <c r="XR1" s="119"/>
+      <c r="XS1" s="119"/>
+      <c r="XT1" s="119"/>
+      <c r="XU1" s="119"/>
+      <c r="XV1" s="119"/>
+      <c r="XW1" s="119"/>
+      <c r="XX1" s="119"/>
+      <c r="XY1" s="119"/>
+      <c r="XZ1" s="119"/>
+      <c r="YA1" s="119"/>
+      <c r="YB1" s="119"/>
+      <c r="YC1" s="119"/>
+      <c r="YD1" s="119"/>
+      <c r="YE1" s="119"/>
+      <c r="YF1" s="119"/>
+      <c r="YG1" s="119"/>
+      <c r="YH1" s="119"/>
+      <c r="YI1" s="119"/>
+      <c r="YJ1" s="119"/>
+      <c r="YK1" s="119"/>
+      <c r="YL1" s="119"/>
+      <c r="YM1" s="119"/>
+      <c r="YN1" s="119"/>
+      <c r="YO1" s="119"/>
+      <c r="YP1" s="119"/>
+      <c r="YQ1" s="119"/>
+      <c r="YR1" s="119"/>
+      <c r="YS1" s="119"/>
+      <c r="YT1" s="119"/>
+      <c r="YU1" s="119"/>
+      <c r="YV1" s="119"/>
+      <c r="YW1" s="119"/>
+      <c r="YX1" s="119"/>
+      <c r="YY1" s="119"/>
+      <c r="YZ1" s="119"/>
+      <c r="ZA1" s="119"/>
+      <c r="ZB1" s="119"/>
+      <c r="ZC1" s="119"/>
+      <c r="ZD1" s="119"/>
+      <c r="ZE1" s="119"/>
+      <c r="ZF1" s="119"/>
+      <c r="ZG1" s="119"/>
+      <c r="ZH1" s="119"/>
+      <c r="ZI1" s="119"/>
+      <c r="ZJ1" s="119"/>
+      <c r="ZK1" s="119"/>
+      <c r="ZL1" s="119"/>
+      <c r="ZM1" s="119"/>
+      <c r="ZN1" s="119"/>
+      <c r="ZO1" s="119"/>
+      <c r="ZP1" s="119"/>
+      <c r="ZQ1" s="119"/>
+      <c r="ZR1" s="119"/>
+      <c r="ZS1" s="119"/>
+      <c r="ZT1" s="119"/>
+      <c r="ZU1" s="119"/>
+      <c r="ZV1" s="119"/>
+      <c r="ZW1" s="119"/>
+      <c r="ZX1" s="119"/>
+      <c r="ZY1" s="119"/>
+      <c r="ZZ1" s="119"/>
+      <c r="AAA1" s="119"/>
+      <c r="AAB1" s="119"/>
+      <c r="AAC1" s="119"/>
+      <c r="AAD1" s="119"/>
+      <c r="AAE1" s="119"/>
+      <c r="AAF1" s="119"/>
+      <c r="AAG1" s="119"/>
+      <c r="AAH1" s="119"/>
+      <c r="AAI1" s="119"/>
+      <c r="AAJ1" s="119"/>
+      <c r="AAK1" s="119"/>
+      <c r="AAL1" s="119"/>
+      <c r="AAM1" s="119"/>
+      <c r="AAN1" s="119"/>
+      <c r="AAO1" s="119"/>
+      <c r="AAP1" s="119"/>
+      <c r="AAQ1" s="119"/>
+      <c r="AAR1" s="119"/>
+      <c r="AAS1" s="119"/>
+      <c r="AAT1" s="119"/>
+      <c r="AAU1" s="119"/>
+      <c r="AAV1" s="119"/>
+      <c r="AAW1" s="119"/>
+      <c r="AAX1" s="119"/>
+      <c r="AAY1" s="119"/>
+      <c r="AAZ1" s="119"/>
+      <c r="ABA1" s="119"/>
+      <c r="ABB1" s="119"/>
+      <c r="ABC1" s="119"/>
+      <c r="ABD1" s="119"/>
+      <c r="ABE1" s="119"/>
+      <c r="ABF1" s="119"/>
+      <c r="ABG1" s="119"/>
+      <c r="ABH1" s="119"/>
+      <c r="ABI1" s="119"/>
+      <c r="ABJ1" s="119"/>
+      <c r="ABK1" s="119"/>
+      <c r="ABL1" s="119"/>
+      <c r="ABM1" s="119"/>
+      <c r="ABN1" s="119"/>
+      <c r="ABO1" s="119"/>
+      <c r="ABP1" s="119"/>
+      <c r="ABQ1" s="119"/>
+      <c r="ABR1" s="119"/>
+      <c r="ABS1" s="119"/>
+      <c r="ABT1" s="119"/>
+      <c r="ABU1" s="119"/>
+      <c r="ABV1" s="119"/>
+      <c r="ABW1" s="119"/>
+      <c r="ABX1" s="119"/>
+      <c r="ABY1" s="119"/>
+      <c r="ABZ1" s="119"/>
+      <c r="ACA1" s="119"/>
+      <c r="ACB1" s="119"/>
+      <c r="ACC1" s="119"/>
+      <c r="ACD1" s="119"/>
+      <c r="ACE1" s="119"/>
+      <c r="ACF1" s="119"/>
+      <c r="ACG1" s="119"/>
+      <c r="ACH1" s="119"/>
+      <c r="ACI1" s="119"/>
+      <c r="ACJ1" s="119"/>
+      <c r="ACK1" s="119"/>
+      <c r="ACL1" s="119"/>
+      <c r="ACM1" s="119"/>
+      <c r="ACN1" s="119"/>
+      <c r="ACO1" s="119"/>
+      <c r="ACP1" s="119"/>
+      <c r="ACQ1" s="119"/>
+      <c r="ACR1" s="119"/>
+      <c r="ACS1" s="119"/>
+      <c r="ACT1" s="119"/>
+      <c r="ACU1" s="119"/>
+      <c r="ACV1" s="119"/>
+      <c r="ACW1" s="119"/>
+      <c r="ACX1" s="119"/>
+      <c r="ACY1" s="119"/>
+      <c r="ACZ1" s="119"/>
+      <c r="ADA1" s="119"/>
+      <c r="ADB1" s="119"/>
+      <c r="ADC1" s="119"/>
+      <c r="ADD1" s="119"/>
+      <c r="ADE1" s="119"/>
+      <c r="ADF1" s="119"/>
+      <c r="ADG1" s="119"/>
+      <c r="ADH1" s="119"/>
+      <c r="ADI1" s="119"/>
+      <c r="ADJ1" s="119"/>
+      <c r="ADK1" s="119"/>
+      <c r="ADL1" s="119"/>
+      <c r="ADM1" s="119"/>
+      <c r="ADN1" s="119"/>
+      <c r="ADO1" s="119"/>
+      <c r="ADP1" s="119"/>
+      <c r="ADQ1" s="119"/>
+      <c r="ADR1" s="119"/>
+      <c r="ADS1" s="119"/>
+      <c r="ADT1" s="119"/>
+      <c r="ADU1" s="119"/>
+      <c r="ADV1" s="119"/>
+      <c r="ADW1" s="119"/>
+      <c r="ADX1" s="119"/>
+      <c r="ADY1" s="119"/>
+      <c r="ADZ1" s="119"/>
+      <c r="AEA1" s="119"/>
+      <c r="AEB1" s="119"/>
+      <c r="AEC1" s="119"/>
+      <c r="AED1" s="119"/>
+      <c r="AEE1" s="119"/>
+      <c r="AEF1" s="119"/>
+      <c r="AEG1" s="119"/>
+      <c r="AEH1" s="119"/>
+      <c r="AEI1" s="119"/>
+      <c r="AEJ1" s="119"/>
+      <c r="AEK1" s="119"/>
+      <c r="AEL1" s="119"/>
+      <c r="AEM1" s="119"/>
+      <c r="AEN1" s="119"/>
+      <c r="AEO1" s="119"/>
+      <c r="AEP1" s="119"/>
+      <c r="AEQ1" s="119"/>
+      <c r="AER1" s="119"/>
+      <c r="AES1" s="119"/>
+      <c r="AET1" s="119"/>
+      <c r="AEU1" s="119"/>
+      <c r="AEV1" s="119"/>
+      <c r="AEW1" s="119"/>
+      <c r="AEX1" s="119"/>
+      <c r="AEY1" s="119"/>
+      <c r="AEZ1" s="119"/>
+      <c r="AFA1" s="119"/>
+      <c r="AFB1" s="119"/>
+      <c r="AFC1" s="119"/>
+      <c r="AFD1" s="119"/>
+      <c r="AFE1" s="119"/>
+      <c r="AFF1" s="119"/>
+      <c r="AFG1" s="119"/>
+      <c r="AFH1" s="119"/>
+      <c r="AFI1" s="119"/>
+      <c r="AFJ1" s="119"/>
+      <c r="AFK1" s="119"/>
+      <c r="AFL1" s="119"/>
+      <c r="AFM1" s="119"/>
+      <c r="AFN1" s="119"/>
+      <c r="AFO1" s="119"/>
+      <c r="AFP1" s="119"/>
+      <c r="AFQ1" s="119"/>
+      <c r="AFR1" s="119"/>
+      <c r="AFS1" s="119"/>
+      <c r="AFT1" s="119"/>
+      <c r="AFU1" s="119"/>
+      <c r="AFV1" s="119"/>
+      <c r="AFW1" s="119"/>
+      <c r="AFX1" s="119"/>
+      <c r="AFY1" s="119"/>
+      <c r="AFZ1" s="119"/>
+      <c r="AGA1" s="119"/>
+      <c r="AGB1" s="119"/>
+      <c r="AGC1" s="119"/>
+      <c r="AGD1" s="119"/>
+      <c r="AGE1" s="119"/>
+      <c r="AGF1" s="119"/>
+      <c r="AGG1" s="119"/>
+      <c r="AGH1" s="119"/>
+      <c r="AGI1" s="119"/>
+      <c r="AGJ1" s="119"/>
+      <c r="AGK1" s="119"/>
+      <c r="AGL1" s="119"/>
+      <c r="AGM1" s="119"/>
+      <c r="AGN1" s="119"/>
+      <c r="AGO1" s="119"/>
+      <c r="AGP1" s="119"/>
+      <c r="AGQ1" s="119"/>
+      <c r="AGR1" s="119"/>
+      <c r="AGS1" s="119"/>
+      <c r="AGT1" s="119"/>
+      <c r="AGU1" s="119"/>
+      <c r="AGV1" s="119"/>
+      <c r="AGW1" s="119"/>
+      <c r="AGX1" s="119"/>
+      <c r="AGY1" s="119"/>
+      <c r="AGZ1" s="119"/>
+      <c r="AHA1" s="119"/>
+      <c r="AHB1" s="119"/>
+      <c r="AHC1" s="119"/>
+      <c r="AHD1" s="119"/>
+      <c r="AHE1" s="119"/>
+      <c r="AHF1" s="119"/>
+      <c r="AHG1" s="119"/>
+      <c r="AHH1" s="119"/>
+      <c r="AHI1" s="119"/>
+      <c r="AHJ1" s="119"/>
+      <c r="AHK1" s="119"/>
+      <c r="AHL1" s="119"/>
+      <c r="AHM1" s="119"/>
+      <c r="AHN1" s="119"/>
+      <c r="AHO1" s="119"/>
+      <c r="AHP1" s="119"/>
+      <c r="AHQ1" s="119"/>
+      <c r="AHR1" s="119"/>
+      <c r="AHS1" s="119"/>
+      <c r="AHT1" s="119"/>
+      <c r="AHU1" s="119"/>
+      <c r="AHV1" s="119"/>
+      <c r="AHW1" s="119"/>
+      <c r="AHX1" s="119"/>
+      <c r="AHY1" s="119"/>
+      <c r="AHZ1" s="119"/>
+      <c r="AIA1" s="119"/>
+      <c r="AIB1" s="119"/>
+      <c r="AIC1" s="119"/>
+      <c r="AID1" s="119"/>
+      <c r="AIE1" s="119"/>
+      <c r="AIF1" s="119"/>
+      <c r="AIG1" s="119"/>
+      <c r="AIH1" s="119"/>
+      <c r="AII1" s="119"/>
+      <c r="AIJ1" s="119"/>
+      <c r="AIK1" s="119"/>
+      <c r="AIL1" s="119"/>
+      <c r="AIM1" s="119"/>
+      <c r="AIN1" s="119"/>
+      <c r="AIO1" s="119"/>
+      <c r="AIP1" s="119"/>
+      <c r="AIQ1" s="119"/>
+      <c r="AIR1" s="119"/>
+      <c r="AIS1" s="119"/>
+      <c r="AIT1" s="119"/>
+      <c r="AIU1" s="119"/>
+      <c r="AIV1" s="119"/>
+      <c r="AIW1" s="119"/>
+      <c r="AIX1" s="119"/>
+      <c r="AIY1" s="119"/>
+      <c r="AIZ1" s="119"/>
+      <c r="AJA1" s="119"/>
+      <c r="AJB1" s="119"/>
+      <c r="AJC1" s="119"/>
+      <c r="AJD1" s="119"/>
+      <c r="AJE1" s="119"/>
+      <c r="AJF1" s="119"/>
+      <c r="AJG1" s="119"/>
+      <c r="AJH1" s="119"/>
+      <c r="AJI1" s="119"/>
+      <c r="AJJ1" s="119"/>
+      <c r="AJK1" s="119"/>
+      <c r="AJL1" s="119"/>
+      <c r="AJM1" s="119"/>
+      <c r="AJN1" s="119"/>
+      <c r="AJO1" s="119"/>
+      <c r="AJP1" s="119"/>
+      <c r="AJQ1" s="119"/>
+      <c r="AJR1" s="119"/>
+      <c r="AJS1" s="119"/>
+      <c r="AJT1" s="119"/>
+      <c r="AJU1" s="119"/>
+      <c r="AJV1" s="119"/>
+      <c r="AJW1" s="119"/>
+      <c r="AJX1" s="119"/>
+      <c r="AJY1" s="119"/>
+      <c r="AJZ1" s="119"/>
+      <c r="AKA1" s="119"/>
+      <c r="AKB1" s="119"/>
+      <c r="AKC1" s="119"/>
+      <c r="AKD1" s="119"/>
+      <c r="AKE1" s="119"/>
+      <c r="AKF1" s="119"/>
+      <c r="AKG1" s="119"/>
+      <c r="AKH1" s="119"/>
+      <c r="AKI1" s="119"/>
+      <c r="AKJ1" s="119"/>
+      <c r="AKK1" s="119"/>
+      <c r="AKL1" s="119"/>
+      <c r="AKM1" s="119"/>
+      <c r="AKN1" s="119"/>
+      <c r="AKO1" s="119"/>
+      <c r="AKP1" s="119"/>
+      <c r="AKQ1" s="119"/>
+      <c r="AKR1" s="119"/>
+      <c r="AKS1" s="119"/>
+      <c r="AKT1" s="119"/>
+      <c r="AKU1" s="119"/>
+      <c r="AKV1" s="119"/>
+      <c r="AKW1" s="119"/>
+      <c r="AKX1" s="119"/>
+      <c r="AKY1" s="119"/>
+      <c r="AKZ1" s="119"/>
+      <c r="ALA1" s="119"/>
+      <c r="ALB1" s="119"/>
+      <c r="ALC1" s="119"/>
+      <c r="ALD1" s="119"/>
+      <c r="ALE1" s="119"/>
+      <c r="ALF1" s="119"/>
+      <c r="ALG1" s="119"/>
+      <c r="ALH1" s="119"/>
+      <c r="ALI1" s="119"/>
+      <c r="ALJ1" s="119"/>
+      <c r="ALK1" s="119"/>
+      <c r="ALL1" s="119"/>
+      <c r="ALM1" s="119"/>
+      <c r="ALN1" s="119"/>
+      <c r="ALO1" s="119"/>
+      <c r="ALP1" s="119"/>
+      <c r="ALQ1" s="119"/>
+      <c r="ALR1" s="119"/>
+      <c r="ALS1" s="119"/>
+      <c r="ALT1" s="119"/>
+      <c r="ALU1" s="119"/>
+      <c r="ALV1" s="119"/>
+      <c r="ALW1" s="119"/>
+      <c r="ALX1" s="119"/>
+      <c r="ALY1" s="119"/>
+      <c r="ALZ1" s="119"/>
+      <c r="AMA1" s="119"/>
+      <c r="AMB1" s="119"/>
+      <c r="AMC1" s="119"/>
+      <c r="AMD1" s="119"/>
+      <c r="AME1" s="119"/>
+      <c r="AMF1" s="119"/>
+      <c r="AMG1" s="119"/>
+      <c r="AMH1" s="119"/>
+      <c r="AMI1" s="119"/>
+      <c r="AMJ1" s="119"/>
+      <c r="AMK1" s="119"/>
     </row>
     <row r="2" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54" t="s">
-        <v>189</v>
+      <c r="B2" s="53" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="118" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="54" t="s">
-        <v>179</v>
+      <c r="B4" s="53" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4403,271 +4378,272 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="42" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="19" customWidth="1"/>
-    <col min="4" max="6" width="20.7109375" style="42" customWidth="1"/>
-    <col min="7" max="8" width="15.7109375" style="19" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="24" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="15" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="42" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="41" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="18" customWidth="1"/>
+    <col min="4" max="6" width="20.7109375" style="41" customWidth="1"/>
+    <col min="7" max="8" width="15.7109375" style="18" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="23" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="18" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="144" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="41" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="95"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="17" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:12" s="140" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="140" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="140" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="140" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="I1" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="J1" s="140" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="K1" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="144" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="95" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="G2" s="95">
+        <v>326</v>
+      </c>
+      <c r="H2" s="95">
+        <v>5957</v>
+      </c>
+      <c r="I2" s="95" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" s="95">
+        <v>2009</v>
+      </c>
+      <c r="K2" s="95" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="144" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="95" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="95" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="95" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="G3" s="95">
+        <v>231</v>
+      </c>
+      <c r="H3" s="95">
+        <v>1</v>
+      </c>
+      <c r="I3" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="J3" s="95">
+        <v>1990</v>
+      </c>
+      <c r="K3" s="95" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="95" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="144" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95">
+        <v>2013</v>
+      </c>
+      <c r="K4" s="95"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="144" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="95" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="95" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="95" t="s">
         <v>143</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="78" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="78" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="78">
-        <v>326</v>
-      </c>
-      <c r="H2" s="78">
-        <v>5957</v>
-      </c>
-      <c r="I2" s="78" t="s">
-        <v>153</v>
-      </c>
-      <c r="J2" s="78">
-        <v>2009</v>
-      </c>
-      <c r="K2" s="78" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="77" t="s">
+      <c r="G5" s="95">
+        <v>5</v>
+      </c>
+      <c r="H5" s="95">
+        <v>12</v>
+      </c>
+      <c r="I5" s="95" t="s">
+        <v>161</v>
+      </c>
+      <c r="J5" s="95">
+        <v>2006</v>
+      </c>
+      <c r="K5" s="95" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="95" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="144" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="95" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="95" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="77" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="77" t="s">
-        <v>156</v>
-      </c>
-      <c r="E3" s="77" t="s">
-        <v>157</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" s="77">
-        <v>231</v>
-      </c>
-      <c r="H3" s="77">
-        <v>1</v>
-      </c>
-      <c r="I3" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="J3" s="77">
-        <v>1990</v>
-      </c>
-      <c r="K3" s="77" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="109" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="109" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="109" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="109" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109">
-        <v>2013</v>
-      </c>
-      <c r="K4" s="109"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="119" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="119" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="119" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="119" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" s="119" t="s">
-        <v>165</v>
-      </c>
-      <c r="F5" s="119" t="s">
-        <v>148</v>
-      </c>
-      <c r="G5" s="119">
-        <v>5</v>
-      </c>
-      <c r="H5" s="119">
-        <v>12</v>
-      </c>
-      <c r="I5" s="119" t="s">
+      <c r="G6" s="95">
+        <v>7</v>
+      </c>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95">
+        <v>511</v>
+      </c>
+      <c r="J6" s="95">
+        <v>2011</v>
+      </c>
+      <c r="K6" s="95" t="s">
         <v>166</v>
       </c>
-      <c r="J5" s="119">
-        <v>2006</v>
-      </c>
-      <c r="K5" s="119" t="s">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="95" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="120" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="120" t="s">
+      <c r="C7" s="144" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="120" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="120" t="s">
+      <c r="E7" s="95" t="s">
         <v>169</v>
       </c>
-      <c r="E6" s="120" t="s">
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95">
+        <v>2014</v>
+      </c>
+      <c r="K7" s="95"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="95" t="s">
         <v>170</v>
       </c>
-      <c r="F6" s="120" t="s">
-        <v>160</v>
-      </c>
-      <c r="G6" s="120">
-        <v>7</v>
-      </c>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120">
-        <v>511</v>
-      </c>
-      <c r="J6" s="120">
-        <v>2011</v>
-      </c>
-      <c r="K6" s="120" t="s">
+      <c r="C8" s="144" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="95" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="121" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="121" t="s">
+      <c r="E8" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="C7" s="121" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="121" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121">
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95">
         <v>2014</v>
       </c>
-      <c r="K7" s="121"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="122" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="122" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="122" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="122" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" s="122" t="s">
-        <v>177</v>
-      </c>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122">
-        <v>2014</v>
-      </c>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
     </row>
   </sheetData>
   <sortState ref="A2:L8">
@@ -4689,11 +4665,11 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="9" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" style="54" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" style="53" customWidth="1"/>
     <col min="4" max="5" width="20.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="54" customWidth="1"/>
-    <col min="7" max="1021" width="9.140625" style="54" customWidth="1"/>
-    <col min="1022" max="1024" width="9.140625" style="47" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="53" customWidth="1"/>
+    <col min="7" max="1021" width="9.140625" style="53" customWidth="1"/>
+    <col min="1022" max="1024" width="9.140625" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1023" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4706,23 +4682,23 @@
       <c r="C1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="123" t="s">
-        <v>183</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="115" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AMH1" s="22"/>
-      <c r="AMI1" s="22"/>
+      <c r="AMH1" s="21"/>
+      <c r="AMI1" s="21"/>
     </row>
     <row r="2" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4730,7 +4706,7 @@
       <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="53" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4738,7 +4714,7 @@
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="53" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4757,45 +4733,45 @@
   <dimension ref="A1:I776"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="9" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
-    <col min="3" max="9" width="20.7109375" style="54" customWidth="1"/>
-    <col min="10" max="1022" width="9.140625" style="54" customWidth="1"/>
-    <col min="1023" max="1033" width="9" style="54" customWidth="1"/>
-    <col min="1034" max="16384" width="9" style="54"/>
+    <col min="3" max="9" width="20.7109375" style="53" customWidth="1"/>
+    <col min="10" max="1022" width="9.140625" style="53" customWidth="1"/>
+    <col min="1023" max="1033" width="9" style="53" customWidth="1"/>
+    <col min="1034" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="H1" s="33" t="s">
+      <c r="G1" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="32" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4806,9 +4782,7 @@
       <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>26</v>
-      </c>
+      <c r="C2" s="17"/>
       <c r="D2" s="2">
         <v>1</v>
       </c>
@@ -4816,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="4"/>
     </row>
@@ -7157,7 +7131,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7173,248 +7147,248 @@
     <col min="24" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:12" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="61" t="s">
+      <c r="E1" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="I1" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="J1" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="K1" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="62" t="s">
-        <v>183</v>
-      </c>
-      <c r="K1" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="63" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="B2" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="69" t="s">
+      <c r="C2" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="66">
+      <c r="E2" s="65">
         <v>278</v>
       </c>
-      <c r="F2" s="66">
+      <c r="F2" s="65">
         <v>287</v>
       </c>
-      <c r="G2" s="67">
+      <c r="G2" s="66">
         <v>130.58634910941501</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="57"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
+      <c r="G3" s="56"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="57"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
+      <c r="G4" s="56"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="57"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
+      <c r="G5" s="56"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="57"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
+      <c r="G6" s="56"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="57"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
+      <c r="G7" s="56"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="57"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
+      <c r="G8" s="56"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="57"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
+      <c r="G9" s="56"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="57"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
+      <c r="G10" s="56"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="57"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
+      <c r="G11" s="56"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="57"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
+      <c r="G12" s="56"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="57"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
+      <c r="G13" s="56"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="57"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
+      <c r="G14" s="56"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="57"/>
+      <c r="G15" s="56"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="57"/>
+      <c r="G16" s="56"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="57"/>
+      <c r="G17" s="56"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="57"/>
+      <c r="G18" s="56"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="57"/>
+      <c r="G19" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7424,109 +7398,103 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMF2"/>
+  <dimension ref="A1:AME2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="20.7109375" style="2" customWidth="1"/>
-    <col min="3" max="9" width="15.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="117" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="149" customWidth="1"/>
-    <col min="12" max="13" width="20.7109375" style="54" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="2" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" style="2" customWidth="1"/>
-    <col min="17" max="1020" width="9.140625" style="6" customWidth="1"/>
-    <col min="1021" max="1024" width="9" style="54" customWidth="1"/>
-    <col min="1025" max="16384" width="9" style="54"/>
+    <col min="3" max="8" width="15.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="113" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="139" customWidth="1"/>
+    <col min="11" max="12" width="20.7109375" style="53" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="2" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="2" customWidth="1"/>
+    <col min="16" max="1019" width="9.140625" style="6" customWidth="1"/>
+    <col min="1020" max="1023" width="9" style="53" customWidth="1"/>
+    <col min="1024" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:13" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="J1" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="K1" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="70">
+        <v>-35</v>
+      </c>
+      <c r="F2" s="70">
+        <v>-40</v>
+      </c>
+      <c r="G2" s="70">
+        <v>652</v>
+      </c>
+      <c r="H2" s="70">
+        <v>1900</v>
+      </c>
+      <c r="I2" s="142" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="139" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="69"/>
+      <c r="L2" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="K1" s="150" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="71" t="s">
-        <v>191</v>
-      </c>
-      <c r="F2" s="71">
-        <v>-35</v>
-      </c>
-      <c r="G2" s="71">
-        <v>-40</v>
-      </c>
-      <c r="H2" s="71">
-        <v>652</v>
-      </c>
-      <c r="I2" s="71">
-        <v>1900</v>
-      </c>
-      <c r="J2" s="152" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="149" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="70"/>
-      <c r="M2" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="70"/>
+      <c r="M2" s="69"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -7554,1123 +7522,1123 @@
     <col min="1" max="1" width="20.7109375" style="5" customWidth="1"/>
     <col min="2" max="3" width="20.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="117" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" style="117" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="113" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" style="113" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="5" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="117" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="149" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="117" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="56" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="54" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="113" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="139" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="113" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="55" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="53" customWidth="1"/>
     <col min="15" max="15" width="20.7109375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="9" style="56" customWidth="1"/>
-    <col min="17" max="1027" width="33" style="54" customWidth="1"/>
-    <col min="1028" max="1034" width="9" style="56" customWidth="1"/>
-    <col min="1035" max="16384" width="9" style="56"/>
+    <col min="16" max="16" width="9" style="55" customWidth="1"/>
+    <col min="17" max="1027" width="33" style="53" customWidth="1"/>
+    <col min="1028" max="1034" width="9" style="55" customWidth="1"/>
+    <col min="1035" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1027" s="17" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:1027" s="16" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="K1" s="141" t="s">
+        <v>193</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMH1" s="27"/>
+      <c r="AMI1" s="27"/>
+      <c r="AMJ1" s="27"/>
+      <c r="AMK1" s="27"/>
+      <c r="AML1" s="27"/>
+      <c r="AMM1" s="27"/>
+    </row>
+    <row r="2" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="I1" s="40" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="E2" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="113">
+        <v>692</v>
+      </c>
+      <c r="G2" s="113">
+        <v>1834</v>
+      </c>
+      <c r="H2" s="113"/>
+      <c r="I2" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="151" t="s">
-        <v>200</v>
-      </c>
-      <c r="L1" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="N1" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AMH1" s="28"/>
-      <c r="AMI1" s="28"/>
-      <c r="AMJ1" s="28"/>
-      <c r="AMK1" s="28"/>
-      <c r="AML1" s="28"/>
-      <c r="AMM1" s="28"/>
-    </row>
-    <row r="2" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="117" t="s">
+      <c r="J2" s="99"/>
+      <c r="K2" s="143" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="99"/>
+      <c r="M2" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="117" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="117">
-        <v>692</v>
-      </c>
-      <c r="G2" s="117">
-        <v>1834</v>
-      </c>
-      <c r="H2" s="117"/>
-      <c r="I2" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="153" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="75" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="74"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="73"/>
-      <c r="AL2" s="73"/>
-      <c r="AM2" s="73"/>
-      <c r="AN2" s="73"/>
-      <c r="AO2" s="73"/>
-      <c r="AP2" s="73"/>
-      <c r="AQ2" s="73"/>
-      <c r="AR2" s="73"/>
-      <c r="AS2" s="73"/>
-      <c r="AT2" s="73"/>
-      <c r="AU2" s="73"/>
-      <c r="AV2" s="73"/>
-      <c r="AW2" s="73"/>
-      <c r="AX2" s="73"/>
-      <c r="AY2" s="73"/>
-      <c r="AZ2" s="73"/>
-      <c r="BA2" s="73"/>
-      <c r="BB2" s="73"/>
-      <c r="BC2" s="73"/>
-      <c r="BD2" s="73"/>
-      <c r="BE2" s="73"/>
-      <c r="BF2" s="73"/>
-      <c r="BG2" s="73"/>
-      <c r="BH2" s="73"/>
-      <c r="BI2" s="73"/>
-      <c r="BJ2" s="73"/>
-      <c r="BK2" s="73"/>
-      <c r="BL2" s="73"/>
-      <c r="BM2" s="73"/>
-      <c r="BN2" s="73"/>
-      <c r="BO2" s="73"/>
-      <c r="BP2" s="73"/>
-      <c r="BQ2" s="73"/>
-      <c r="BR2" s="73"/>
-      <c r="BS2" s="73"/>
-      <c r="BT2" s="73"/>
-      <c r="BU2" s="73"/>
-      <c r="BV2" s="73"/>
-      <c r="BW2" s="73"/>
-      <c r="BX2" s="73"/>
-      <c r="BY2" s="73"/>
-      <c r="BZ2" s="73"/>
-      <c r="CA2" s="73"/>
-      <c r="CB2" s="73"/>
-      <c r="CC2" s="73"/>
-      <c r="CD2" s="73"/>
-      <c r="CE2" s="73"/>
-      <c r="CF2" s="73"/>
-      <c r="CG2" s="73"/>
-      <c r="CH2" s="73"/>
-      <c r="CI2" s="73"/>
-      <c r="CJ2" s="73"/>
-      <c r="CK2" s="73"/>
-      <c r="CL2" s="73"/>
-      <c r="CM2" s="73"/>
-      <c r="CN2" s="73"/>
-      <c r="CO2" s="73"/>
-      <c r="CP2" s="73"/>
-      <c r="CQ2" s="73"/>
-      <c r="CR2" s="73"/>
-      <c r="CS2" s="73"/>
-      <c r="CT2" s="73"/>
-      <c r="CU2" s="73"/>
-      <c r="CV2" s="73"/>
-      <c r="CW2" s="73"/>
-      <c r="CX2" s="73"/>
-      <c r="CY2" s="73"/>
-      <c r="CZ2" s="73"/>
-      <c r="DA2" s="73"/>
-      <c r="DB2" s="73"/>
-      <c r="DC2" s="73"/>
-      <c r="DD2" s="73"/>
-      <c r="DE2" s="73"/>
-      <c r="DF2" s="73"/>
-      <c r="DG2" s="73"/>
-      <c r="DH2" s="73"/>
-      <c r="DI2" s="73"/>
-      <c r="DJ2" s="73"/>
-      <c r="DK2" s="73"/>
-      <c r="DL2" s="73"/>
-      <c r="DM2" s="73"/>
-      <c r="DN2" s="73"/>
-      <c r="DO2" s="73"/>
-      <c r="DP2" s="73"/>
-      <c r="DQ2" s="73"/>
-      <c r="DR2" s="73"/>
-      <c r="DS2" s="73"/>
-      <c r="DT2" s="73"/>
-      <c r="DU2" s="73"/>
-      <c r="DV2" s="73"/>
-      <c r="DW2" s="73"/>
-      <c r="DX2" s="73"/>
-      <c r="DY2" s="73"/>
-      <c r="DZ2" s="73"/>
-      <c r="EA2" s="73"/>
-      <c r="EB2" s="73"/>
-      <c r="EC2" s="73"/>
-      <c r="ED2" s="73"/>
-      <c r="EE2" s="73"/>
-      <c r="EF2" s="73"/>
-      <c r="EG2" s="73"/>
-      <c r="EH2" s="73"/>
-      <c r="EI2" s="73"/>
-      <c r="EJ2" s="73"/>
-      <c r="EK2" s="73"/>
-      <c r="EL2" s="73"/>
-      <c r="EM2" s="73"/>
-      <c r="EN2" s="73"/>
-      <c r="EO2" s="73"/>
-      <c r="EP2" s="73"/>
-      <c r="EQ2" s="73"/>
-      <c r="ER2" s="73"/>
-      <c r="ES2" s="73"/>
-      <c r="ET2" s="73"/>
-      <c r="EU2" s="73"/>
-      <c r="EV2" s="73"/>
-      <c r="EW2" s="73"/>
-      <c r="EX2" s="73"/>
-      <c r="EY2" s="73"/>
-      <c r="EZ2" s="73"/>
-      <c r="FA2" s="73"/>
-      <c r="FB2" s="73"/>
-      <c r="FC2" s="73"/>
-      <c r="FD2" s="73"/>
-      <c r="FE2" s="73"/>
-      <c r="FF2" s="73"/>
-      <c r="FG2" s="73"/>
-      <c r="FH2" s="73"/>
-      <c r="FI2" s="73"/>
-      <c r="FJ2" s="73"/>
-      <c r="FK2" s="73"/>
-      <c r="FL2" s="73"/>
-      <c r="FM2" s="73"/>
-      <c r="FN2" s="73"/>
-      <c r="FO2" s="73"/>
-      <c r="FP2" s="73"/>
-      <c r="FQ2" s="73"/>
-      <c r="FR2" s="73"/>
-      <c r="FS2" s="73"/>
-      <c r="FT2" s="73"/>
-      <c r="FU2" s="73"/>
-      <c r="FV2" s="73"/>
-      <c r="FW2" s="73"/>
-      <c r="FX2" s="73"/>
-      <c r="FY2" s="73"/>
-      <c r="FZ2" s="73"/>
-      <c r="GA2" s="73"/>
-      <c r="GB2" s="73"/>
-      <c r="GC2" s="73"/>
-      <c r="GD2" s="73"/>
-      <c r="GE2" s="73"/>
-      <c r="GF2" s="73"/>
-      <c r="GG2" s="73"/>
-      <c r="GH2" s="73"/>
-      <c r="GI2" s="73"/>
-      <c r="GJ2" s="73"/>
-      <c r="GK2" s="73"/>
-      <c r="GL2" s="73"/>
-      <c r="GM2" s="73"/>
-      <c r="GN2" s="73"/>
-      <c r="GO2" s="73"/>
-      <c r="GP2" s="73"/>
-      <c r="GQ2" s="73"/>
-      <c r="GR2" s="73"/>
-      <c r="GS2" s="73"/>
-      <c r="GT2" s="73"/>
-      <c r="GU2" s="73"/>
-      <c r="GV2" s="73"/>
-      <c r="GW2" s="73"/>
-      <c r="GX2" s="73"/>
-      <c r="GY2" s="73"/>
-      <c r="GZ2" s="73"/>
-      <c r="HA2" s="73"/>
-      <c r="HB2" s="73"/>
-      <c r="HC2" s="73"/>
-      <c r="HD2" s="73"/>
-      <c r="HE2" s="73"/>
-      <c r="HF2" s="73"/>
-      <c r="HG2" s="73"/>
-      <c r="HH2" s="73"/>
-      <c r="HI2" s="73"/>
-      <c r="HJ2" s="73"/>
-      <c r="HK2" s="73"/>
-      <c r="HL2" s="73"/>
-      <c r="HM2" s="73"/>
-      <c r="HN2" s="73"/>
-      <c r="HO2" s="73"/>
-      <c r="HP2" s="73"/>
-      <c r="HQ2" s="73"/>
-      <c r="HR2" s="73"/>
-      <c r="HS2" s="73"/>
-      <c r="HT2" s="73"/>
-      <c r="HU2" s="73"/>
-      <c r="HV2" s="73"/>
-      <c r="HW2" s="73"/>
-      <c r="HX2" s="73"/>
-      <c r="HY2" s="73"/>
-      <c r="HZ2" s="73"/>
-      <c r="IA2" s="73"/>
-      <c r="IB2" s="73"/>
-      <c r="IC2" s="73"/>
-      <c r="ID2" s="73"/>
-      <c r="IE2" s="73"/>
-      <c r="IF2" s="73"/>
-      <c r="IG2" s="73"/>
-      <c r="IH2" s="73"/>
-      <c r="II2" s="73"/>
-      <c r="IJ2" s="73"/>
-      <c r="IK2" s="73"/>
-      <c r="IL2" s="73"/>
-      <c r="IM2" s="73"/>
-      <c r="IN2" s="73"/>
-      <c r="IO2" s="73"/>
-      <c r="IP2" s="73"/>
-      <c r="IQ2" s="73"/>
-      <c r="IR2" s="73"/>
-      <c r="IS2" s="73"/>
-      <c r="IT2" s="73"/>
-      <c r="IU2" s="73"/>
-      <c r="IV2" s="73"/>
-      <c r="IW2" s="73"/>
-      <c r="IX2" s="73"/>
-      <c r="IY2" s="73"/>
-      <c r="IZ2" s="73"/>
-      <c r="JA2" s="73"/>
-      <c r="JB2" s="73"/>
-      <c r="JC2" s="73"/>
-      <c r="JD2" s="73"/>
-      <c r="JE2" s="73"/>
-      <c r="JF2" s="73"/>
-      <c r="JG2" s="73"/>
-      <c r="JH2" s="73"/>
-      <c r="JI2" s="73"/>
-      <c r="JJ2" s="73"/>
-      <c r="JK2" s="73"/>
-      <c r="JL2" s="73"/>
-      <c r="JM2" s="73"/>
-      <c r="JN2" s="73"/>
-      <c r="JO2" s="73"/>
-      <c r="JP2" s="73"/>
-      <c r="JQ2" s="73"/>
-      <c r="JR2" s="73"/>
-      <c r="JS2" s="73"/>
-      <c r="JT2" s="73"/>
-      <c r="JU2" s="73"/>
-      <c r="JV2" s="73"/>
-      <c r="JW2" s="73"/>
-      <c r="JX2" s="73"/>
-      <c r="JY2" s="73"/>
-      <c r="JZ2" s="73"/>
-      <c r="KA2" s="73"/>
-      <c r="KB2" s="73"/>
-      <c r="KC2" s="73"/>
-      <c r="KD2" s="73"/>
-      <c r="KE2" s="73"/>
-      <c r="KF2" s="73"/>
-      <c r="KG2" s="73"/>
-      <c r="KH2" s="73"/>
-      <c r="KI2" s="73"/>
-      <c r="KJ2" s="73"/>
-      <c r="KK2" s="73"/>
-      <c r="KL2" s="73"/>
-      <c r="KM2" s="73"/>
-      <c r="KN2" s="73"/>
-      <c r="KO2" s="73"/>
-      <c r="KP2" s="73"/>
-      <c r="KQ2" s="73"/>
-      <c r="KR2" s="73"/>
-      <c r="KS2" s="73"/>
-      <c r="KT2" s="73"/>
-      <c r="KU2" s="73"/>
-      <c r="KV2" s="73"/>
-      <c r="KW2" s="73"/>
-      <c r="KX2" s="73"/>
-      <c r="KY2" s="73"/>
-      <c r="KZ2" s="73"/>
-      <c r="LA2" s="73"/>
-      <c r="LB2" s="73"/>
-      <c r="LC2" s="73"/>
-      <c r="LD2" s="73"/>
-      <c r="LE2" s="73"/>
-      <c r="LF2" s="73"/>
-      <c r="LG2" s="73"/>
-      <c r="LH2" s="73"/>
-      <c r="LI2" s="73"/>
-      <c r="LJ2" s="73"/>
-      <c r="LK2" s="73"/>
-      <c r="LL2" s="73"/>
-      <c r="LM2" s="73"/>
-      <c r="LN2" s="73"/>
-      <c r="LO2" s="73"/>
-      <c r="LP2" s="73"/>
-      <c r="LQ2" s="73"/>
-      <c r="LR2" s="73"/>
-      <c r="LS2" s="73"/>
-      <c r="LT2" s="73"/>
-      <c r="LU2" s="73"/>
-      <c r="LV2" s="73"/>
-      <c r="LW2" s="73"/>
-      <c r="LX2" s="73"/>
-      <c r="LY2" s="73"/>
-      <c r="LZ2" s="73"/>
-      <c r="MA2" s="73"/>
-      <c r="MB2" s="73"/>
-      <c r="MC2" s="73"/>
-      <c r="MD2" s="73"/>
-      <c r="ME2" s="73"/>
-      <c r="MF2" s="73"/>
-      <c r="MG2" s="73"/>
-      <c r="MH2" s="73"/>
-      <c r="MI2" s="73"/>
-      <c r="MJ2" s="73"/>
-      <c r="MK2" s="73"/>
-      <c r="ML2" s="73"/>
-      <c r="MM2" s="73"/>
-      <c r="MN2" s="73"/>
-      <c r="MO2" s="73"/>
-      <c r="MP2" s="73"/>
-      <c r="MQ2" s="73"/>
-      <c r="MR2" s="73"/>
-      <c r="MS2" s="73"/>
-      <c r="MT2" s="73"/>
-      <c r="MU2" s="73"/>
-      <c r="MV2" s="73"/>
-      <c r="MW2" s="73"/>
-      <c r="MX2" s="73"/>
-      <c r="MY2" s="73"/>
-      <c r="MZ2" s="73"/>
-      <c r="NA2" s="73"/>
-      <c r="NB2" s="73"/>
-      <c r="NC2" s="73"/>
-      <c r="ND2" s="73"/>
-      <c r="NE2" s="73"/>
-      <c r="NF2" s="73"/>
-      <c r="NG2" s="73"/>
-      <c r="NH2" s="73"/>
-      <c r="NI2" s="73"/>
-      <c r="NJ2" s="73"/>
-      <c r="NK2" s="73"/>
-      <c r="NL2" s="73"/>
-      <c r="NM2" s="73"/>
-      <c r="NN2" s="73"/>
-      <c r="NO2" s="73"/>
-      <c r="NP2" s="73"/>
-      <c r="NQ2" s="73"/>
-      <c r="NR2" s="73"/>
-      <c r="NS2" s="73"/>
-      <c r="NT2" s="73"/>
-      <c r="NU2" s="73"/>
-      <c r="NV2" s="73"/>
-      <c r="NW2" s="73"/>
-      <c r="NX2" s="73"/>
-      <c r="NY2" s="73"/>
-      <c r="NZ2" s="73"/>
-      <c r="OA2" s="73"/>
-      <c r="OB2" s="73"/>
-      <c r="OC2" s="73"/>
-      <c r="OD2" s="73"/>
-      <c r="OE2" s="73"/>
-      <c r="OF2" s="73"/>
-      <c r="OG2" s="73"/>
-      <c r="OH2" s="73"/>
-      <c r="OI2" s="73"/>
-      <c r="OJ2" s="73"/>
-      <c r="OK2" s="73"/>
-      <c r="OL2" s="73"/>
-      <c r="OM2" s="73"/>
-      <c r="ON2" s="73"/>
-      <c r="OO2" s="73"/>
-      <c r="OP2" s="73"/>
-      <c r="OQ2" s="73"/>
-      <c r="OR2" s="73"/>
-      <c r="OS2" s="73"/>
-      <c r="OT2" s="73"/>
-      <c r="OU2" s="73"/>
-      <c r="OV2" s="73"/>
-      <c r="OW2" s="73"/>
-      <c r="OX2" s="73"/>
-      <c r="OY2" s="73"/>
-      <c r="OZ2" s="73"/>
-      <c r="PA2" s="73"/>
-      <c r="PB2" s="73"/>
-      <c r="PC2" s="73"/>
-      <c r="PD2" s="73"/>
-      <c r="PE2" s="73"/>
-      <c r="PF2" s="73"/>
-      <c r="PG2" s="73"/>
-      <c r="PH2" s="73"/>
-      <c r="PI2" s="73"/>
-      <c r="PJ2" s="73"/>
-      <c r="PK2" s="73"/>
-      <c r="PL2" s="73"/>
-      <c r="PM2" s="73"/>
-      <c r="PN2" s="73"/>
-      <c r="PO2" s="73"/>
-      <c r="PP2" s="73"/>
-      <c r="PQ2" s="73"/>
-      <c r="PR2" s="73"/>
-      <c r="PS2" s="73"/>
-      <c r="PT2" s="73"/>
-      <c r="PU2" s="73"/>
-      <c r="PV2" s="73"/>
-      <c r="PW2" s="73"/>
-      <c r="PX2" s="73"/>
-      <c r="PY2" s="73"/>
-      <c r="PZ2" s="73"/>
-      <c r="QA2" s="73"/>
-      <c r="QB2" s="73"/>
-      <c r="QC2" s="73"/>
-      <c r="QD2" s="73"/>
-      <c r="QE2" s="73"/>
-      <c r="QF2" s="73"/>
-      <c r="QG2" s="73"/>
-      <c r="QH2" s="73"/>
-      <c r="QI2" s="73"/>
-      <c r="QJ2" s="73"/>
-      <c r="QK2" s="73"/>
-      <c r="QL2" s="73"/>
-      <c r="QM2" s="73"/>
-      <c r="QN2" s="73"/>
-      <c r="QO2" s="73"/>
-      <c r="QP2" s="73"/>
-      <c r="QQ2" s="73"/>
-      <c r="QR2" s="73"/>
-      <c r="QS2" s="73"/>
-      <c r="QT2" s="73"/>
-      <c r="QU2" s="73"/>
-      <c r="QV2" s="73"/>
-      <c r="QW2" s="73"/>
-      <c r="QX2" s="73"/>
-      <c r="QY2" s="73"/>
-      <c r="QZ2" s="73"/>
-      <c r="RA2" s="73"/>
-      <c r="RB2" s="73"/>
-      <c r="RC2" s="73"/>
-      <c r="RD2" s="73"/>
-      <c r="RE2" s="73"/>
-      <c r="RF2" s="73"/>
-      <c r="RG2" s="73"/>
-      <c r="RH2" s="73"/>
-      <c r="RI2" s="73"/>
-      <c r="RJ2" s="73"/>
-      <c r="RK2" s="73"/>
-      <c r="RL2" s="73"/>
-      <c r="RM2" s="73"/>
-      <c r="RN2" s="73"/>
-      <c r="RO2" s="73"/>
-      <c r="RP2" s="73"/>
-      <c r="RQ2" s="73"/>
-      <c r="RR2" s="73"/>
-      <c r="RS2" s="73"/>
-      <c r="RT2" s="73"/>
-      <c r="RU2" s="73"/>
-      <c r="RV2" s="73"/>
-      <c r="RW2" s="73"/>
-      <c r="RX2" s="73"/>
-      <c r="RY2" s="73"/>
-      <c r="RZ2" s="73"/>
-      <c r="SA2" s="73"/>
-      <c r="SB2" s="73"/>
-      <c r="SC2" s="73"/>
-      <c r="SD2" s="73"/>
-      <c r="SE2" s="73"/>
-      <c r="SF2" s="73"/>
-      <c r="SG2" s="73"/>
-      <c r="SH2" s="73"/>
-      <c r="SI2" s="73"/>
-      <c r="SJ2" s="73"/>
-      <c r="SK2" s="73"/>
-      <c r="SL2" s="73"/>
-      <c r="SM2" s="73"/>
-      <c r="SN2" s="73"/>
-      <c r="SO2" s="73"/>
-      <c r="SP2" s="73"/>
-      <c r="SQ2" s="73"/>
-      <c r="SR2" s="73"/>
-      <c r="SS2" s="73"/>
-      <c r="ST2" s="73"/>
-      <c r="SU2" s="73"/>
-      <c r="SV2" s="73"/>
-      <c r="SW2" s="73"/>
-      <c r="SX2" s="73"/>
-      <c r="SY2" s="73"/>
-      <c r="SZ2" s="73"/>
-      <c r="TA2" s="73"/>
-      <c r="TB2" s="73"/>
-      <c r="TC2" s="73"/>
-      <c r="TD2" s="73"/>
-      <c r="TE2" s="73"/>
-      <c r="TF2" s="73"/>
-      <c r="TG2" s="73"/>
-      <c r="TH2" s="73"/>
-      <c r="TI2" s="73"/>
-      <c r="TJ2" s="73"/>
-      <c r="TK2" s="73"/>
-      <c r="TL2" s="73"/>
-      <c r="TM2" s="73"/>
-      <c r="TN2" s="73"/>
-      <c r="TO2" s="73"/>
-      <c r="TP2" s="73"/>
-      <c r="TQ2" s="73"/>
-      <c r="TR2" s="73"/>
-      <c r="TS2" s="73"/>
-      <c r="TT2" s="73"/>
-      <c r="TU2" s="73"/>
-      <c r="TV2" s="73"/>
-      <c r="TW2" s="73"/>
-      <c r="TX2" s="73"/>
-      <c r="TY2" s="73"/>
-      <c r="TZ2" s="73"/>
-      <c r="UA2" s="73"/>
-      <c r="UB2" s="73"/>
-      <c r="UC2" s="73"/>
-      <c r="UD2" s="73"/>
-      <c r="UE2" s="73"/>
-      <c r="UF2" s="73"/>
-      <c r="UG2" s="73"/>
-      <c r="UH2" s="73"/>
-      <c r="UI2" s="73"/>
-      <c r="UJ2" s="73"/>
-      <c r="UK2" s="73"/>
-      <c r="UL2" s="73"/>
-      <c r="UM2" s="73"/>
-      <c r="UN2" s="73"/>
-      <c r="UO2" s="73"/>
-      <c r="UP2" s="73"/>
-      <c r="UQ2" s="73"/>
-      <c r="UR2" s="73"/>
-      <c r="US2" s="73"/>
-      <c r="UT2" s="73"/>
-      <c r="UU2" s="73"/>
-      <c r="UV2" s="73"/>
-      <c r="UW2" s="73"/>
-      <c r="UX2" s="73"/>
-      <c r="UY2" s="73"/>
-      <c r="UZ2" s="73"/>
-      <c r="VA2" s="73"/>
-      <c r="VB2" s="73"/>
-      <c r="VC2" s="73"/>
-      <c r="VD2" s="73"/>
-      <c r="VE2" s="73"/>
-      <c r="VF2" s="73"/>
-      <c r="VG2" s="73"/>
-      <c r="VH2" s="73"/>
-      <c r="VI2" s="73"/>
-      <c r="VJ2" s="73"/>
-      <c r="VK2" s="73"/>
-      <c r="VL2" s="73"/>
-      <c r="VM2" s="73"/>
-      <c r="VN2" s="73"/>
-      <c r="VO2" s="73"/>
-      <c r="VP2" s="73"/>
-      <c r="VQ2" s="73"/>
-      <c r="VR2" s="73"/>
-      <c r="VS2" s="73"/>
-      <c r="VT2" s="73"/>
-      <c r="VU2" s="73"/>
-      <c r="VV2" s="73"/>
-      <c r="VW2" s="73"/>
-      <c r="VX2" s="73"/>
-      <c r="VY2" s="73"/>
-      <c r="VZ2" s="73"/>
-      <c r="WA2" s="73"/>
-      <c r="WB2" s="73"/>
-      <c r="WC2" s="73"/>
-      <c r="WD2" s="73"/>
-      <c r="WE2" s="73"/>
-      <c r="WF2" s="73"/>
-      <c r="WG2" s="73"/>
-      <c r="WH2" s="73"/>
-      <c r="WI2" s="73"/>
-      <c r="WJ2" s="73"/>
-      <c r="WK2" s="73"/>
-      <c r="WL2" s="73"/>
-      <c r="WM2" s="73"/>
-      <c r="WN2" s="73"/>
-      <c r="WO2" s="73"/>
-      <c r="WP2" s="73"/>
-      <c r="WQ2" s="73"/>
-      <c r="WR2" s="73"/>
-      <c r="WS2" s="73"/>
-      <c r="WT2" s="73"/>
-      <c r="WU2" s="73"/>
-      <c r="WV2" s="73"/>
-      <c r="WW2" s="73"/>
-      <c r="WX2" s="73"/>
-      <c r="WY2" s="73"/>
-      <c r="WZ2" s="73"/>
-      <c r="XA2" s="73"/>
-      <c r="XB2" s="73"/>
-      <c r="XC2" s="73"/>
-      <c r="XD2" s="73"/>
-      <c r="XE2" s="73"/>
-      <c r="XF2" s="73"/>
-      <c r="XG2" s="73"/>
-      <c r="XH2" s="73"/>
-      <c r="XI2" s="73"/>
-      <c r="XJ2" s="73"/>
-      <c r="XK2" s="73"/>
-      <c r="XL2" s="73"/>
-      <c r="XM2" s="73"/>
-      <c r="XN2" s="73"/>
-      <c r="XO2" s="73"/>
-      <c r="XP2" s="73"/>
-      <c r="XQ2" s="73"/>
-      <c r="XR2" s="73"/>
-      <c r="XS2" s="73"/>
-      <c r="XT2" s="73"/>
-      <c r="XU2" s="73"/>
-      <c r="XV2" s="73"/>
-      <c r="XW2" s="73"/>
-      <c r="XX2" s="73"/>
-      <c r="XY2" s="73"/>
-      <c r="XZ2" s="73"/>
-      <c r="YA2" s="73"/>
-      <c r="YB2" s="73"/>
-      <c r="YC2" s="73"/>
-      <c r="YD2" s="73"/>
-      <c r="YE2" s="73"/>
-      <c r="YF2" s="73"/>
-      <c r="YG2" s="73"/>
-      <c r="YH2" s="73"/>
-      <c r="YI2" s="73"/>
-      <c r="YJ2" s="73"/>
-      <c r="YK2" s="73"/>
-      <c r="YL2" s="73"/>
-      <c r="YM2" s="73"/>
-      <c r="YN2" s="73"/>
-      <c r="YO2" s="73"/>
-      <c r="YP2" s="73"/>
-      <c r="YQ2" s="73"/>
-      <c r="YR2" s="73"/>
-      <c r="YS2" s="73"/>
-      <c r="YT2" s="73"/>
-      <c r="YU2" s="73"/>
-      <c r="YV2" s="73"/>
-      <c r="YW2" s="73"/>
-      <c r="YX2" s="73"/>
-      <c r="YY2" s="73"/>
-      <c r="YZ2" s="73"/>
-      <c r="ZA2" s="73"/>
-      <c r="ZB2" s="73"/>
-      <c r="ZC2" s="73"/>
-      <c r="ZD2" s="73"/>
-      <c r="ZE2" s="73"/>
-      <c r="ZF2" s="73"/>
-      <c r="ZG2" s="73"/>
-      <c r="ZH2" s="73"/>
-      <c r="ZI2" s="73"/>
-      <c r="ZJ2" s="73"/>
-      <c r="ZK2" s="73"/>
-      <c r="ZL2" s="73"/>
-      <c r="ZM2" s="73"/>
-      <c r="ZN2" s="73"/>
-      <c r="ZO2" s="73"/>
-      <c r="ZP2" s="73"/>
-      <c r="ZQ2" s="73"/>
-      <c r="ZR2" s="73"/>
-      <c r="ZS2" s="73"/>
-      <c r="ZT2" s="73"/>
-      <c r="ZU2" s="73"/>
-      <c r="ZV2" s="73"/>
-      <c r="ZW2" s="73"/>
-      <c r="ZX2" s="73"/>
-      <c r="ZY2" s="73"/>
-      <c r="ZZ2" s="73"/>
-      <c r="AAA2" s="73"/>
-      <c r="AAB2" s="73"/>
-      <c r="AAC2" s="73"/>
-      <c r="AAD2" s="73"/>
-      <c r="AAE2" s="73"/>
-      <c r="AAF2" s="73"/>
-      <c r="AAG2" s="73"/>
-      <c r="AAH2" s="73"/>
-      <c r="AAI2" s="73"/>
-      <c r="AAJ2" s="73"/>
-      <c r="AAK2" s="73"/>
-      <c r="AAL2" s="73"/>
-      <c r="AAM2" s="73"/>
-      <c r="AAN2" s="73"/>
-      <c r="AAO2" s="73"/>
-      <c r="AAP2" s="73"/>
-      <c r="AAQ2" s="73"/>
-      <c r="AAR2" s="73"/>
-      <c r="AAS2" s="73"/>
-      <c r="AAT2" s="73"/>
-      <c r="AAU2" s="73"/>
-      <c r="AAV2" s="73"/>
-      <c r="AAW2" s="73"/>
-      <c r="AAX2" s="73"/>
-      <c r="AAY2" s="73"/>
-      <c r="AAZ2" s="73"/>
-      <c r="ABA2" s="73"/>
-      <c r="ABB2" s="73"/>
-      <c r="ABC2" s="73"/>
-      <c r="ABD2" s="73"/>
-      <c r="ABE2" s="73"/>
-      <c r="ABF2" s="73"/>
-      <c r="ABG2" s="73"/>
-      <c r="ABH2" s="73"/>
-      <c r="ABI2" s="73"/>
-      <c r="ABJ2" s="73"/>
-      <c r="ABK2" s="73"/>
-      <c r="ABL2" s="73"/>
-      <c r="ABM2" s="73"/>
-      <c r="ABN2" s="73"/>
-      <c r="ABO2" s="73"/>
-      <c r="ABP2" s="73"/>
-      <c r="ABQ2" s="73"/>
-      <c r="ABR2" s="73"/>
-      <c r="ABS2" s="73"/>
-      <c r="ABT2" s="73"/>
-      <c r="ABU2" s="73"/>
-      <c r="ABV2" s="73"/>
-      <c r="ABW2" s="73"/>
-      <c r="ABX2" s="73"/>
-      <c r="ABY2" s="73"/>
-      <c r="ABZ2" s="73"/>
-      <c r="ACA2" s="73"/>
-      <c r="ACB2" s="73"/>
-      <c r="ACC2" s="73"/>
-      <c r="ACD2" s="73"/>
-      <c r="ACE2" s="73"/>
-      <c r="ACF2" s="73"/>
-      <c r="ACG2" s="73"/>
-      <c r="ACH2" s="73"/>
-      <c r="ACI2" s="73"/>
-      <c r="ACJ2" s="73"/>
-      <c r="ACK2" s="73"/>
-      <c r="ACL2" s="73"/>
-      <c r="ACM2" s="73"/>
-      <c r="ACN2" s="73"/>
-      <c r="ACO2" s="73"/>
-      <c r="ACP2" s="73"/>
-      <c r="ACQ2" s="73"/>
-      <c r="ACR2" s="73"/>
-      <c r="ACS2" s="73"/>
-      <c r="ACT2" s="73"/>
-      <c r="ACU2" s="73"/>
-      <c r="ACV2" s="73"/>
-      <c r="ACW2" s="73"/>
-      <c r="ACX2" s="73"/>
-      <c r="ACY2" s="73"/>
-      <c r="ACZ2" s="73"/>
-      <c r="ADA2" s="73"/>
-      <c r="ADB2" s="73"/>
-      <c r="ADC2" s="73"/>
-      <c r="ADD2" s="73"/>
-      <c r="ADE2" s="73"/>
-      <c r="ADF2" s="73"/>
-      <c r="ADG2" s="73"/>
-      <c r="ADH2" s="73"/>
-      <c r="ADI2" s="73"/>
-      <c r="ADJ2" s="73"/>
-      <c r="ADK2" s="73"/>
-      <c r="ADL2" s="73"/>
-      <c r="ADM2" s="73"/>
-      <c r="ADN2" s="73"/>
-      <c r="ADO2" s="73"/>
-      <c r="ADP2" s="73"/>
-      <c r="ADQ2" s="73"/>
-      <c r="ADR2" s="73"/>
-      <c r="ADS2" s="73"/>
-      <c r="ADT2" s="73"/>
-      <c r="ADU2" s="73"/>
-      <c r="ADV2" s="73"/>
-      <c r="ADW2" s="73"/>
-      <c r="ADX2" s="73"/>
-      <c r="ADY2" s="73"/>
-      <c r="ADZ2" s="73"/>
-      <c r="AEA2" s="73"/>
-      <c r="AEB2" s="73"/>
-      <c r="AEC2" s="73"/>
-      <c r="AED2" s="73"/>
-      <c r="AEE2" s="73"/>
-      <c r="AEF2" s="73"/>
-      <c r="AEG2" s="73"/>
-      <c r="AEH2" s="73"/>
-      <c r="AEI2" s="73"/>
-      <c r="AEJ2" s="73"/>
-      <c r="AEK2" s="73"/>
-      <c r="AEL2" s="73"/>
-      <c r="AEM2" s="73"/>
-      <c r="AEN2" s="73"/>
-      <c r="AEO2" s="73"/>
-      <c r="AEP2" s="73"/>
-      <c r="AEQ2" s="73"/>
-      <c r="AER2" s="73"/>
-      <c r="AES2" s="73"/>
-      <c r="AET2" s="73"/>
-      <c r="AEU2" s="73"/>
-      <c r="AEV2" s="73"/>
-      <c r="AEW2" s="73"/>
-      <c r="AEX2" s="73"/>
-      <c r="AEY2" s="73"/>
-      <c r="AEZ2" s="73"/>
-      <c r="AFA2" s="73"/>
-      <c r="AFB2" s="73"/>
-      <c r="AFC2" s="73"/>
-      <c r="AFD2" s="73"/>
-      <c r="AFE2" s="73"/>
-      <c r="AFF2" s="73"/>
-      <c r="AFG2" s="73"/>
-      <c r="AFH2" s="73"/>
-      <c r="AFI2" s="73"/>
-      <c r="AFJ2" s="73"/>
-      <c r="AFK2" s="73"/>
-      <c r="AFL2" s="73"/>
-      <c r="AFM2" s="73"/>
-      <c r="AFN2" s="73"/>
-      <c r="AFO2" s="73"/>
-      <c r="AFP2" s="73"/>
-      <c r="AFQ2" s="73"/>
-      <c r="AFR2" s="73"/>
-      <c r="AFS2" s="73"/>
-      <c r="AFT2" s="73"/>
-      <c r="AFU2" s="73"/>
-      <c r="AFV2" s="73"/>
-      <c r="AFW2" s="73"/>
-      <c r="AFX2" s="73"/>
-      <c r="AFY2" s="73"/>
-      <c r="AFZ2" s="73"/>
-      <c r="AGA2" s="73"/>
-      <c r="AGB2" s="73"/>
-      <c r="AGC2" s="73"/>
-      <c r="AGD2" s="73"/>
-      <c r="AGE2" s="73"/>
-      <c r="AGF2" s="73"/>
-      <c r="AGG2" s="73"/>
-      <c r="AGH2" s="73"/>
-      <c r="AGI2" s="73"/>
-      <c r="AGJ2" s="73"/>
-      <c r="AGK2" s="73"/>
-      <c r="AGL2" s="73"/>
-      <c r="AGM2" s="73"/>
-      <c r="AGN2" s="73"/>
-      <c r="AGO2" s="73"/>
-      <c r="AGP2" s="73"/>
-      <c r="AGQ2" s="73"/>
-      <c r="AGR2" s="73"/>
-      <c r="AGS2" s="73"/>
-      <c r="AGT2" s="73"/>
-      <c r="AGU2" s="73"/>
-      <c r="AGV2" s="73"/>
-      <c r="AGW2" s="73"/>
-      <c r="AGX2" s="73"/>
-      <c r="AGY2" s="73"/>
-      <c r="AGZ2" s="73"/>
-      <c r="AHA2" s="73"/>
-      <c r="AHB2" s="73"/>
-      <c r="AHC2" s="73"/>
-      <c r="AHD2" s="73"/>
-      <c r="AHE2" s="73"/>
-      <c r="AHF2" s="73"/>
-      <c r="AHG2" s="73"/>
-      <c r="AHH2" s="73"/>
-      <c r="AHI2" s="73"/>
-      <c r="AHJ2" s="73"/>
-      <c r="AHK2" s="73"/>
-      <c r="AHL2" s="73"/>
-      <c r="AHM2" s="73"/>
-      <c r="AHN2" s="73"/>
-      <c r="AHO2" s="73"/>
-      <c r="AHP2" s="73"/>
-      <c r="AHQ2" s="73"/>
-      <c r="AHR2" s="73"/>
-      <c r="AHS2" s="73"/>
-      <c r="AHT2" s="73"/>
-      <c r="AHU2" s="73"/>
-      <c r="AHV2" s="73"/>
-      <c r="AHW2" s="73"/>
-      <c r="AHX2" s="73"/>
-      <c r="AHY2" s="73"/>
-      <c r="AHZ2" s="73"/>
-      <c r="AIA2" s="73"/>
-      <c r="AIB2" s="73"/>
-      <c r="AIC2" s="73"/>
-      <c r="AID2" s="73"/>
-      <c r="AIE2" s="73"/>
-      <c r="AIF2" s="73"/>
-      <c r="AIG2" s="73"/>
-      <c r="AIH2" s="73"/>
-      <c r="AII2" s="73"/>
-      <c r="AIJ2" s="73"/>
-      <c r="AIK2" s="73"/>
-      <c r="AIL2" s="73"/>
-      <c r="AIM2" s="73"/>
-      <c r="AIN2" s="73"/>
-      <c r="AIO2" s="73"/>
-      <c r="AIP2" s="73"/>
-      <c r="AIQ2" s="73"/>
-      <c r="AIR2" s="73"/>
-      <c r="AIS2" s="73"/>
-      <c r="AIT2" s="73"/>
-      <c r="AIU2" s="73"/>
-      <c r="AIV2" s="73"/>
-      <c r="AIW2" s="73"/>
-      <c r="AIX2" s="73"/>
-      <c r="AIY2" s="73"/>
-      <c r="AIZ2" s="73"/>
-      <c r="AJA2" s="73"/>
-      <c r="AJB2" s="73"/>
-      <c r="AJC2" s="73"/>
-      <c r="AJD2" s="73"/>
-      <c r="AJE2" s="73"/>
-      <c r="AJF2" s="73"/>
-      <c r="AJG2" s="73"/>
-      <c r="AJH2" s="73"/>
-      <c r="AJI2" s="73"/>
-      <c r="AJJ2" s="73"/>
-      <c r="AJK2" s="73"/>
-      <c r="AJL2" s="73"/>
-      <c r="AJM2" s="73"/>
-      <c r="AJN2" s="73"/>
-      <c r="AJO2" s="73"/>
-      <c r="AJP2" s="73"/>
-      <c r="AJQ2" s="73"/>
-      <c r="AJR2" s="73"/>
-      <c r="AJS2" s="73"/>
-      <c r="AJT2" s="73"/>
-      <c r="AJU2" s="73"/>
-      <c r="AJV2" s="73"/>
-      <c r="AJW2" s="73"/>
-      <c r="AJX2" s="73"/>
-      <c r="AJY2" s="73"/>
-      <c r="AJZ2" s="73"/>
-      <c r="AKA2" s="73"/>
-      <c r="AKB2" s="73"/>
-      <c r="AKC2" s="73"/>
-      <c r="AKD2" s="73"/>
-      <c r="AKE2" s="73"/>
-      <c r="AKF2" s="73"/>
-      <c r="AKG2" s="73"/>
-      <c r="AKH2" s="73"/>
-      <c r="AKI2" s="73"/>
-      <c r="AKJ2" s="73"/>
-      <c r="AKK2" s="73"/>
-      <c r="AKL2" s="73"/>
-      <c r="AKM2" s="73"/>
-      <c r="AKN2" s="73"/>
-      <c r="AKO2" s="73"/>
-      <c r="AKP2" s="73"/>
-      <c r="AKQ2" s="73"/>
-      <c r="AKR2" s="73"/>
-      <c r="AKS2" s="73"/>
-      <c r="AKT2" s="73"/>
-      <c r="AKU2" s="73"/>
-      <c r="AKV2" s="73"/>
-      <c r="AKW2" s="73"/>
-      <c r="AKX2" s="73"/>
-      <c r="AKY2" s="73"/>
-      <c r="AKZ2" s="73"/>
-      <c r="ALA2" s="73"/>
-      <c r="ALB2" s="73"/>
-      <c r="ALC2" s="73"/>
-      <c r="ALD2" s="73"/>
-      <c r="ALE2" s="73"/>
-      <c r="ALF2" s="73"/>
-      <c r="ALG2" s="73"/>
-      <c r="ALH2" s="73"/>
-      <c r="ALI2" s="73"/>
-      <c r="ALJ2" s="73"/>
-      <c r="ALK2" s="73"/>
-      <c r="ALL2" s="73"/>
-      <c r="ALM2" s="73"/>
-      <c r="ALN2" s="73"/>
-      <c r="ALO2" s="73"/>
-      <c r="ALP2" s="73"/>
-      <c r="ALQ2" s="73"/>
-      <c r="ALR2" s="73"/>
-      <c r="ALS2" s="73"/>
-      <c r="ALT2" s="73"/>
-      <c r="ALU2" s="73"/>
-      <c r="ALV2" s="73"/>
-      <c r="ALW2" s="73"/>
-      <c r="ALX2" s="73"/>
-      <c r="ALY2" s="73"/>
-      <c r="ALZ2" s="73"/>
-      <c r="AMA2" s="73"/>
-      <c r="AMB2" s="73"/>
-      <c r="AMC2" s="73"/>
-      <c r="AMD2" s="73"/>
-      <c r="AME2" s="73"/>
-      <c r="AMF2" s="73"/>
-      <c r="AMG2" s="73"/>
-      <c r="AMH2" s="73"/>
-      <c r="AMI2" s="73"/>
-      <c r="AMJ2" s="73"/>
-      <c r="AMK2" s="73"/>
-      <c r="AML2" s="73"/>
-      <c r="AMM2" s="73"/>
+      <c r="N2" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="73"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="72"/>
+      <c r="AQ2" s="72"/>
+      <c r="AR2" s="72"/>
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="72"/>
+      <c r="AU2" s="72"/>
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="72"/>
+      <c r="AX2" s="72"/>
+      <c r="AY2" s="72"/>
+      <c r="AZ2" s="72"/>
+      <c r="BA2" s="72"/>
+      <c r="BB2" s="72"/>
+      <c r="BC2" s="72"/>
+      <c r="BD2" s="72"/>
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="72"/>
+      <c r="BG2" s="72"/>
+      <c r="BH2" s="72"/>
+      <c r="BI2" s="72"/>
+      <c r="BJ2" s="72"/>
+      <c r="BK2" s="72"/>
+      <c r="BL2" s="72"/>
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="72"/>
+      <c r="BO2" s="72"/>
+      <c r="BP2" s="72"/>
+      <c r="BQ2" s="72"/>
+      <c r="BR2" s="72"/>
+      <c r="BS2" s="72"/>
+      <c r="BT2" s="72"/>
+      <c r="BU2" s="72"/>
+      <c r="BV2" s="72"/>
+      <c r="BW2" s="72"/>
+      <c r="BX2" s="72"/>
+      <c r="BY2" s="72"/>
+      <c r="BZ2" s="72"/>
+      <c r="CA2" s="72"/>
+      <c r="CB2" s="72"/>
+      <c r="CC2" s="72"/>
+      <c r="CD2" s="72"/>
+      <c r="CE2" s="72"/>
+      <c r="CF2" s="72"/>
+      <c r="CG2" s="72"/>
+      <c r="CH2" s="72"/>
+      <c r="CI2" s="72"/>
+      <c r="CJ2" s="72"/>
+      <c r="CK2" s="72"/>
+      <c r="CL2" s="72"/>
+      <c r="CM2" s="72"/>
+      <c r="CN2" s="72"/>
+      <c r="CO2" s="72"/>
+      <c r="CP2" s="72"/>
+      <c r="CQ2" s="72"/>
+      <c r="CR2" s="72"/>
+      <c r="CS2" s="72"/>
+      <c r="CT2" s="72"/>
+      <c r="CU2" s="72"/>
+      <c r="CV2" s="72"/>
+      <c r="CW2" s="72"/>
+      <c r="CX2" s="72"/>
+      <c r="CY2" s="72"/>
+      <c r="CZ2" s="72"/>
+      <c r="DA2" s="72"/>
+      <c r="DB2" s="72"/>
+      <c r="DC2" s="72"/>
+      <c r="DD2" s="72"/>
+      <c r="DE2" s="72"/>
+      <c r="DF2" s="72"/>
+      <c r="DG2" s="72"/>
+      <c r="DH2" s="72"/>
+      <c r="DI2" s="72"/>
+      <c r="DJ2" s="72"/>
+      <c r="DK2" s="72"/>
+      <c r="DL2" s="72"/>
+      <c r="DM2" s="72"/>
+      <c r="DN2" s="72"/>
+      <c r="DO2" s="72"/>
+      <c r="DP2" s="72"/>
+      <c r="DQ2" s="72"/>
+      <c r="DR2" s="72"/>
+      <c r="DS2" s="72"/>
+      <c r="DT2" s="72"/>
+      <c r="DU2" s="72"/>
+      <c r="DV2" s="72"/>
+      <c r="DW2" s="72"/>
+      <c r="DX2" s="72"/>
+      <c r="DY2" s="72"/>
+      <c r="DZ2" s="72"/>
+      <c r="EA2" s="72"/>
+      <c r="EB2" s="72"/>
+      <c r="EC2" s="72"/>
+      <c r="ED2" s="72"/>
+      <c r="EE2" s="72"/>
+      <c r="EF2" s="72"/>
+      <c r="EG2" s="72"/>
+      <c r="EH2" s="72"/>
+      <c r="EI2" s="72"/>
+      <c r="EJ2" s="72"/>
+      <c r="EK2" s="72"/>
+      <c r="EL2" s="72"/>
+      <c r="EM2" s="72"/>
+      <c r="EN2" s="72"/>
+      <c r="EO2" s="72"/>
+      <c r="EP2" s="72"/>
+      <c r="EQ2" s="72"/>
+      <c r="ER2" s="72"/>
+      <c r="ES2" s="72"/>
+      <c r="ET2" s="72"/>
+      <c r="EU2" s="72"/>
+      <c r="EV2" s="72"/>
+      <c r="EW2" s="72"/>
+      <c r="EX2" s="72"/>
+      <c r="EY2" s="72"/>
+      <c r="EZ2" s="72"/>
+      <c r="FA2" s="72"/>
+      <c r="FB2" s="72"/>
+      <c r="FC2" s="72"/>
+      <c r="FD2" s="72"/>
+      <c r="FE2" s="72"/>
+      <c r="FF2" s="72"/>
+      <c r="FG2" s="72"/>
+      <c r="FH2" s="72"/>
+      <c r="FI2" s="72"/>
+      <c r="FJ2" s="72"/>
+      <c r="FK2" s="72"/>
+      <c r="FL2" s="72"/>
+      <c r="FM2" s="72"/>
+      <c r="FN2" s="72"/>
+      <c r="FO2" s="72"/>
+      <c r="FP2" s="72"/>
+      <c r="FQ2" s="72"/>
+      <c r="FR2" s="72"/>
+      <c r="FS2" s="72"/>
+      <c r="FT2" s="72"/>
+      <c r="FU2" s="72"/>
+      <c r="FV2" s="72"/>
+      <c r="FW2" s="72"/>
+      <c r="FX2" s="72"/>
+      <c r="FY2" s="72"/>
+      <c r="FZ2" s="72"/>
+      <c r="GA2" s="72"/>
+      <c r="GB2" s="72"/>
+      <c r="GC2" s="72"/>
+      <c r="GD2" s="72"/>
+      <c r="GE2" s="72"/>
+      <c r="GF2" s="72"/>
+      <c r="GG2" s="72"/>
+      <c r="GH2" s="72"/>
+      <c r="GI2" s="72"/>
+      <c r="GJ2" s="72"/>
+      <c r="GK2" s="72"/>
+      <c r="GL2" s="72"/>
+      <c r="GM2" s="72"/>
+      <c r="GN2" s="72"/>
+      <c r="GO2" s="72"/>
+      <c r="GP2" s="72"/>
+      <c r="GQ2" s="72"/>
+      <c r="GR2" s="72"/>
+      <c r="GS2" s="72"/>
+      <c r="GT2" s="72"/>
+      <c r="GU2" s="72"/>
+      <c r="GV2" s="72"/>
+      <c r="GW2" s="72"/>
+      <c r="GX2" s="72"/>
+      <c r="GY2" s="72"/>
+      <c r="GZ2" s="72"/>
+      <c r="HA2" s="72"/>
+      <c r="HB2" s="72"/>
+      <c r="HC2" s="72"/>
+      <c r="HD2" s="72"/>
+      <c r="HE2" s="72"/>
+      <c r="HF2" s="72"/>
+      <c r="HG2" s="72"/>
+      <c r="HH2" s="72"/>
+      <c r="HI2" s="72"/>
+      <c r="HJ2" s="72"/>
+      <c r="HK2" s="72"/>
+      <c r="HL2" s="72"/>
+      <c r="HM2" s="72"/>
+      <c r="HN2" s="72"/>
+      <c r="HO2" s="72"/>
+      <c r="HP2" s="72"/>
+      <c r="HQ2" s="72"/>
+      <c r="HR2" s="72"/>
+      <c r="HS2" s="72"/>
+      <c r="HT2" s="72"/>
+      <c r="HU2" s="72"/>
+      <c r="HV2" s="72"/>
+      <c r="HW2" s="72"/>
+      <c r="HX2" s="72"/>
+      <c r="HY2" s="72"/>
+      <c r="HZ2" s="72"/>
+      <c r="IA2" s="72"/>
+      <c r="IB2" s="72"/>
+      <c r="IC2" s="72"/>
+      <c r="ID2" s="72"/>
+      <c r="IE2" s="72"/>
+      <c r="IF2" s="72"/>
+      <c r="IG2" s="72"/>
+      <c r="IH2" s="72"/>
+      <c r="II2" s="72"/>
+      <c r="IJ2" s="72"/>
+      <c r="IK2" s="72"/>
+      <c r="IL2" s="72"/>
+      <c r="IM2" s="72"/>
+      <c r="IN2" s="72"/>
+      <c r="IO2" s="72"/>
+      <c r="IP2" s="72"/>
+      <c r="IQ2" s="72"/>
+      <c r="IR2" s="72"/>
+      <c r="IS2" s="72"/>
+      <c r="IT2" s="72"/>
+      <c r="IU2" s="72"/>
+      <c r="IV2" s="72"/>
+      <c r="IW2" s="72"/>
+      <c r="IX2" s="72"/>
+      <c r="IY2" s="72"/>
+      <c r="IZ2" s="72"/>
+      <c r="JA2" s="72"/>
+      <c r="JB2" s="72"/>
+      <c r="JC2" s="72"/>
+      <c r="JD2" s="72"/>
+      <c r="JE2" s="72"/>
+      <c r="JF2" s="72"/>
+      <c r="JG2" s="72"/>
+      <c r="JH2" s="72"/>
+      <c r="JI2" s="72"/>
+      <c r="JJ2" s="72"/>
+      <c r="JK2" s="72"/>
+      <c r="JL2" s="72"/>
+      <c r="JM2" s="72"/>
+      <c r="JN2" s="72"/>
+      <c r="JO2" s="72"/>
+      <c r="JP2" s="72"/>
+      <c r="JQ2" s="72"/>
+      <c r="JR2" s="72"/>
+      <c r="JS2" s="72"/>
+      <c r="JT2" s="72"/>
+      <c r="JU2" s="72"/>
+      <c r="JV2" s="72"/>
+      <c r="JW2" s="72"/>
+      <c r="JX2" s="72"/>
+      <c r="JY2" s="72"/>
+      <c r="JZ2" s="72"/>
+      <c r="KA2" s="72"/>
+      <c r="KB2" s="72"/>
+      <c r="KC2" s="72"/>
+      <c r="KD2" s="72"/>
+      <c r="KE2" s="72"/>
+      <c r="KF2" s="72"/>
+      <c r="KG2" s="72"/>
+      <c r="KH2" s="72"/>
+      <c r="KI2" s="72"/>
+      <c r="KJ2" s="72"/>
+      <c r="KK2" s="72"/>
+      <c r="KL2" s="72"/>
+      <c r="KM2" s="72"/>
+      <c r="KN2" s="72"/>
+      <c r="KO2" s="72"/>
+      <c r="KP2" s="72"/>
+      <c r="KQ2" s="72"/>
+      <c r="KR2" s="72"/>
+      <c r="KS2" s="72"/>
+      <c r="KT2" s="72"/>
+      <c r="KU2" s="72"/>
+      <c r="KV2" s="72"/>
+      <c r="KW2" s="72"/>
+      <c r="KX2" s="72"/>
+      <c r="KY2" s="72"/>
+      <c r="KZ2" s="72"/>
+      <c r="LA2" s="72"/>
+      <c r="LB2" s="72"/>
+      <c r="LC2" s="72"/>
+      <c r="LD2" s="72"/>
+      <c r="LE2" s="72"/>
+      <c r="LF2" s="72"/>
+      <c r="LG2" s="72"/>
+      <c r="LH2" s="72"/>
+      <c r="LI2" s="72"/>
+      <c r="LJ2" s="72"/>
+      <c r="LK2" s="72"/>
+      <c r="LL2" s="72"/>
+      <c r="LM2" s="72"/>
+      <c r="LN2" s="72"/>
+      <c r="LO2" s="72"/>
+      <c r="LP2" s="72"/>
+      <c r="LQ2" s="72"/>
+      <c r="LR2" s="72"/>
+      <c r="LS2" s="72"/>
+      <c r="LT2" s="72"/>
+      <c r="LU2" s="72"/>
+      <c r="LV2" s="72"/>
+      <c r="LW2" s="72"/>
+      <c r="LX2" s="72"/>
+      <c r="LY2" s="72"/>
+      <c r="LZ2" s="72"/>
+      <c r="MA2" s="72"/>
+      <c r="MB2" s="72"/>
+      <c r="MC2" s="72"/>
+      <c r="MD2" s="72"/>
+      <c r="ME2" s="72"/>
+      <c r="MF2" s="72"/>
+      <c r="MG2" s="72"/>
+      <c r="MH2" s="72"/>
+      <c r="MI2" s="72"/>
+      <c r="MJ2" s="72"/>
+      <c r="MK2" s="72"/>
+      <c r="ML2" s="72"/>
+      <c r="MM2" s="72"/>
+      <c r="MN2" s="72"/>
+      <c r="MO2" s="72"/>
+      <c r="MP2" s="72"/>
+      <c r="MQ2" s="72"/>
+      <c r="MR2" s="72"/>
+      <c r="MS2" s="72"/>
+      <c r="MT2" s="72"/>
+      <c r="MU2" s="72"/>
+      <c r="MV2" s="72"/>
+      <c r="MW2" s="72"/>
+      <c r="MX2" s="72"/>
+      <c r="MY2" s="72"/>
+      <c r="MZ2" s="72"/>
+      <c r="NA2" s="72"/>
+      <c r="NB2" s="72"/>
+      <c r="NC2" s="72"/>
+      <c r="ND2" s="72"/>
+      <c r="NE2" s="72"/>
+      <c r="NF2" s="72"/>
+      <c r="NG2" s="72"/>
+      <c r="NH2" s="72"/>
+      <c r="NI2" s="72"/>
+      <c r="NJ2" s="72"/>
+      <c r="NK2" s="72"/>
+      <c r="NL2" s="72"/>
+      <c r="NM2" s="72"/>
+      <c r="NN2" s="72"/>
+      <c r="NO2" s="72"/>
+      <c r="NP2" s="72"/>
+      <c r="NQ2" s="72"/>
+      <c r="NR2" s="72"/>
+      <c r="NS2" s="72"/>
+      <c r="NT2" s="72"/>
+      <c r="NU2" s="72"/>
+      <c r="NV2" s="72"/>
+      <c r="NW2" s="72"/>
+      <c r="NX2" s="72"/>
+      <c r="NY2" s="72"/>
+      <c r="NZ2" s="72"/>
+      <c r="OA2" s="72"/>
+      <c r="OB2" s="72"/>
+      <c r="OC2" s="72"/>
+      <c r="OD2" s="72"/>
+      <c r="OE2" s="72"/>
+      <c r="OF2" s="72"/>
+      <c r="OG2" s="72"/>
+      <c r="OH2" s="72"/>
+      <c r="OI2" s="72"/>
+      <c r="OJ2" s="72"/>
+      <c r="OK2" s="72"/>
+      <c r="OL2" s="72"/>
+      <c r="OM2" s="72"/>
+      <c r="ON2" s="72"/>
+      <c r="OO2" s="72"/>
+      <c r="OP2" s="72"/>
+      <c r="OQ2" s="72"/>
+      <c r="OR2" s="72"/>
+      <c r="OS2" s="72"/>
+      <c r="OT2" s="72"/>
+      <c r="OU2" s="72"/>
+      <c r="OV2" s="72"/>
+      <c r="OW2" s="72"/>
+      <c r="OX2" s="72"/>
+      <c r="OY2" s="72"/>
+      <c r="OZ2" s="72"/>
+      <c r="PA2" s="72"/>
+      <c r="PB2" s="72"/>
+      <c r="PC2" s="72"/>
+      <c r="PD2" s="72"/>
+      <c r="PE2" s="72"/>
+      <c r="PF2" s="72"/>
+      <c r="PG2" s="72"/>
+      <c r="PH2" s="72"/>
+      <c r="PI2" s="72"/>
+      <c r="PJ2" s="72"/>
+      <c r="PK2" s="72"/>
+      <c r="PL2" s="72"/>
+      <c r="PM2" s="72"/>
+      <c r="PN2" s="72"/>
+      <c r="PO2" s="72"/>
+      <c r="PP2" s="72"/>
+      <c r="PQ2" s="72"/>
+      <c r="PR2" s="72"/>
+      <c r="PS2" s="72"/>
+      <c r="PT2" s="72"/>
+      <c r="PU2" s="72"/>
+      <c r="PV2" s="72"/>
+      <c r="PW2" s="72"/>
+      <c r="PX2" s="72"/>
+      <c r="PY2" s="72"/>
+      <c r="PZ2" s="72"/>
+      <c r="QA2" s="72"/>
+      <c r="QB2" s="72"/>
+      <c r="QC2" s="72"/>
+      <c r="QD2" s="72"/>
+      <c r="QE2" s="72"/>
+      <c r="QF2" s="72"/>
+      <c r="QG2" s="72"/>
+      <c r="QH2" s="72"/>
+      <c r="QI2" s="72"/>
+      <c r="QJ2" s="72"/>
+      <c r="QK2" s="72"/>
+      <c r="QL2" s="72"/>
+      <c r="QM2" s="72"/>
+      <c r="QN2" s="72"/>
+      <c r="QO2" s="72"/>
+      <c r="QP2" s="72"/>
+      <c r="QQ2" s="72"/>
+      <c r="QR2" s="72"/>
+      <c r="QS2" s="72"/>
+      <c r="QT2" s="72"/>
+      <c r="QU2" s="72"/>
+      <c r="QV2" s="72"/>
+      <c r="QW2" s="72"/>
+      <c r="QX2" s="72"/>
+      <c r="QY2" s="72"/>
+      <c r="QZ2" s="72"/>
+      <c r="RA2" s="72"/>
+      <c r="RB2" s="72"/>
+      <c r="RC2" s="72"/>
+      <c r="RD2" s="72"/>
+      <c r="RE2" s="72"/>
+      <c r="RF2" s="72"/>
+      <c r="RG2" s="72"/>
+      <c r="RH2" s="72"/>
+      <c r="RI2" s="72"/>
+      <c r="RJ2" s="72"/>
+      <c r="RK2" s="72"/>
+      <c r="RL2" s="72"/>
+      <c r="RM2" s="72"/>
+      <c r="RN2" s="72"/>
+      <c r="RO2" s="72"/>
+      <c r="RP2" s="72"/>
+      <c r="RQ2" s="72"/>
+      <c r="RR2" s="72"/>
+      <c r="RS2" s="72"/>
+      <c r="RT2" s="72"/>
+      <c r="RU2" s="72"/>
+      <c r="RV2" s="72"/>
+      <c r="RW2" s="72"/>
+      <c r="RX2" s="72"/>
+      <c r="RY2" s="72"/>
+      <c r="RZ2" s="72"/>
+      <c r="SA2" s="72"/>
+      <c r="SB2" s="72"/>
+      <c r="SC2" s="72"/>
+      <c r="SD2" s="72"/>
+      <c r="SE2" s="72"/>
+      <c r="SF2" s="72"/>
+      <c r="SG2" s="72"/>
+      <c r="SH2" s="72"/>
+      <c r="SI2" s="72"/>
+      <c r="SJ2" s="72"/>
+      <c r="SK2" s="72"/>
+      <c r="SL2" s="72"/>
+      <c r="SM2" s="72"/>
+      <c r="SN2" s="72"/>
+      <c r="SO2" s="72"/>
+      <c r="SP2" s="72"/>
+      <c r="SQ2" s="72"/>
+      <c r="SR2" s="72"/>
+      <c r="SS2" s="72"/>
+      <c r="ST2" s="72"/>
+      <c r="SU2" s="72"/>
+      <c r="SV2" s="72"/>
+      <c r="SW2" s="72"/>
+      <c r="SX2" s="72"/>
+      <c r="SY2" s="72"/>
+      <c r="SZ2" s="72"/>
+      <c r="TA2" s="72"/>
+      <c r="TB2" s="72"/>
+      <c r="TC2" s="72"/>
+      <c r="TD2" s="72"/>
+      <c r="TE2" s="72"/>
+      <c r="TF2" s="72"/>
+      <c r="TG2" s="72"/>
+      <c r="TH2" s="72"/>
+      <c r="TI2" s="72"/>
+      <c r="TJ2" s="72"/>
+      <c r="TK2" s="72"/>
+      <c r="TL2" s="72"/>
+      <c r="TM2" s="72"/>
+      <c r="TN2" s="72"/>
+      <c r="TO2" s="72"/>
+      <c r="TP2" s="72"/>
+      <c r="TQ2" s="72"/>
+      <c r="TR2" s="72"/>
+      <c r="TS2" s="72"/>
+      <c r="TT2" s="72"/>
+      <c r="TU2" s="72"/>
+      <c r="TV2" s="72"/>
+      <c r="TW2" s="72"/>
+      <c r="TX2" s="72"/>
+      <c r="TY2" s="72"/>
+      <c r="TZ2" s="72"/>
+      <c r="UA2" s="72"/>
+      <c r="UB2" s="72"/>
+      <c r="UC2" s="72"/>
+      <c r="UD2" s="72"/>
+      <c r="UE2" s="72"/>
+      <c r="UF2" s="72"/>
+      <c r="UG2" s="72"/>
+      <c r="UH2" s="72"/>
+      <c r="UI2" s="72"/>
+      <c r="UJ2" s="72"/>
+      <c r="UK2" s="72"/>
+      <c r="UL2" s="72"/>
+      <c r="UM2" s="72"/>
+      <c r="UN2" s="72"/>
+      <c r="UO2" s="72"/>
+      <c r="UP2" s="72"/>
+      <c r="UQ2" s="72"/>
+      <c r="UR2" s="72"/>
+      <c r="US2" s="72"/>
+      <c r="UT2" s="72"/>
+      <c r="UU2" s="72"/>
+      <c r="UV2" s="72"/>
+      <c r="UW2" s="72"/>
+      <c r="UX2" s="72"/>
+      <c r="UY2" s="72"/>
+      <c r="UZ2" s="72"/>
+      <c r="VA2" s="72"/>
+      <c r="VB2" s="72"/>
+      <c r="VC2" s="72"/>
+      <c r="VD2" s="72"/>
+      <c r="VE2" s="72"/>
+      <c r="VF2" s="72"/>
+      <c r="VG2" s="72"/>
+      <c r="VH2" s="72"/>
+      <c r="VI2" s="72"/>
+      <c r="VJ2" s="72"/>
+      <c r="VK2" s="72"/>
+      <c r="VL2" s="72"/>
+      <c r="VM2" s="72"/>
+      <c r="VN2" s="72"/>
+      <c r="VO2" s="72"/>
+      <c r="VP2" s="72"/>
+      <c r="VQ2" s="72"/>
+      <c r="VR2" s="72"/>
+      <c r="VS2" s="72"/>
+      <c r="VT2" s="72"/>
+      <c r="VU2" s="72"/>
+      <c r="VV2" s="72"/>
+      <c r="VW2" s="72"/>
+      <c r="VX2" s="72"/>
+      <c r="VY2" s="72"/>
+      <c r="VZ2" s="72"/>
+      <c r="WA2" s="72"/>
+      <c r="WB2" s="72"/>
+      <c r="WC2" s="72"/>
+      <c r="WD2" s="72"/>
+      <c r="WE2" s="72"/>
+      <c r="WF2" s="72"/>
+      <c r="WG2" s="72"/>
+      <c r="WH2" s="72"/>
+      <c r="WI2" s="72"/>
+      <c r="WJ2" s="72"/>
+      <c r="WK2" s="72"/>
+      <c r="WL2" s="72"/>
+      <c r="WM2" s="72"/>
+      <c r="WN2" s="72"/>
+      <c r="WO2" s="72"/>
+      <c r="WP2" s="72"/>
+      <c r="WQ2" s="72"/>
+      <c r="WR2" s="72"/>
+      <c r="WS2" s="72"/>
+      <c r="WT2" s="72"/>
+      <c r="WU2" s="72"/>
+      <c r="WV2" s="72"/>
+      <c r="WW2" s="72"/>
+      <c r="WX2" s="72"/>
+      <c r="WY2" s="72"/>
+      <c r="WZ2" s="72"/>
+      <c r="XA2" s="72"/>
+      <c r="XB2" s="72"/>
+      <c r="XC2" s="72"/>
+      <c r="XD2" s="72"/>
+      <c r="XE2" s="72"/>
+      <c r="XF2" s="72"/>
+      <c r="XG2" s="72"/>
+      <c r="XH2" s="72"/>
+      <c r="XI2" s="72"/>
+      <c r="XJ2" s="72"/>
+      <c r="XK2" s="72"/>
+      <c r="XL2" s="72"/>
+      <c r="XM2" s="72"/>
+      <c r="XN2" s="72"/>
+      <c r="XO2" s="72"/>
+      <c r="XP2" s="72"/>
+      <c r="XQ2" s="72"/>
+      <c r="XR2" s="72"/>
+      <c r="XS2" s="72"/>
+      <c r="XT2" s="72"/>
+      <c r="XU2" s="72"/>
+      <c r="XV2" s="72"/>
+      <c r="XW2" s="72"/>
+      <c r="XX2" s="72"/>
+      <c r="XY2" s="72"/>
+      <c r="XZ2" s="72"/>
+      <c r="YA2" s="72"/>
+      <c r="YB2" s="72"/>
+      <c r="YC2" s="72"/>
+      <c r="YD2" s="72"/>
+      <c r="YE2" s="72"/>
+      <c r="YF2" s="72"/>
+      <c r="YG2" s="72"/>
+      <c r="YH2" s="72"/>
+      <c r="YI2" s="72"/>
+      <c r="YJ2" s="72"/>
+      <c r="YK2" s="72"/>
+      <c r="YL2" s="72"/>
+      <c r="YM2" s="72"/>
+      <c r="YN2" s="72"/>
+      <c r="YO2" s="72"/>
+      <c r="YP2" s="72"/>
+      <c r="YQ2" s="72"/>
+      <c r="YR2" s="72"/>
+      <c r="YS2" s="72"/>
+      <c r="YT2" s="72"/>
+      <c r="YU2" s="72"/>
+      <c r="YV2" s="72"/>
+      <c r="YW2" s="72"/>
+      <c r="YX2" s="72"/>
+      <c r="YY2" s="72"/>
+      <c r="YZ2" s="72"/>
+      <c r="ZA2" s="72"/>
+      <c r="ZB2" s="72"/>
+      <c r="ZC2" s="72"/>
+      <c r="ZD2" s="72"/>
+      <c r="ZE2" s="72"/>
+      <c r="ZF2" s="72"/>
+      <c r="ZG2" s="72"/>
+      <c r="ZH2" s="72"/>
+      <c r="ZI2" s="72"/>
+      <c r="ZJ2" s="72"/>
+      <c r="ZK2" s="72"/>
+      <c r="ZL2" s="72"/>
+      <c r="ZM2" s="72"/>
+      <c r="ZN2" s="72"/>
+      <c r="ZO2" s="72"/>
+      <c r="ZP2" s="72"/>
+      <c r="ZQ2" s="72"/>
+      <c r="ZR2" s="72"/>
+      <c r="ZS2" s="72"/>
+      <c r="ZT2" s="72"/>
+      <c r="ZU2" s="72"/>
+      <c r="ZV2" s="72"/>
+      <c r="ZW2" s="72"/>
+      <c r="ZX2" s="72"/>
+      <c r="ZY2" s="72"/>
+      <c r="ZZ2" s="72"/>
+      <c r="AAA2" s="72"/>
+      <c r="AAB2" s="72"/>
+      <c r="AAC2" s="72"/>
+      <c r="AAD2" s="72"/>
+      <c r="AAE2" s="72"/>
+      <c r="AAF2" s="72"/>
+      <c r="AAG2" s="72"/>
+      <c r="AAH2" s="72"/>
+      <c r="AAI2" s="72"/>
+      <c r="AAJ2" s="72"/>
+      <c r="AAK2" s="72"/>
+      <c r="AAL2" s="72"/>
+      <c r="AAM2" s="72"/>
+      <c r="AAN2" s="72"/>
+      <c r="AAO2" s="72"/>
+      <c r="AAP2" s="72"/>
+      <c r="AAQ2" s="72"/>
+      <c r="AAR2" s="72"/>
+      <c r="AAS2" s="72"/>
+      <c r="AAT2" s="72"/>
+      <c r="AAU2" s="72"/>
+      <c r="AAV2" s="72"/>
+      <c r="AAW2" s="72"/>
+      <c r="AAX2" s="72"/>
+      <c r="AAY2" s="72"/>
+      <c r="AAZ2" s="72"/>
+      <c r="ABA2" s="72"/>
+      <c r="ABB2" s="72"/>
+      <c r="ABC2" s="72"/>
+      <c r="ABD2" s="72"/>
+      <c r="ABE2" s="72"/>
+      <c r="ABF2" s="72"/>
+      <c r="ABG2" s="72"/>
+      <c r="ABH2" s="72"/>
+      <c r="ABI2" s="72"/>
+      <c r="ABJ2" s="72"/>
+      <c r="ABK2" s="72"/>
+      <c r="ABL2" s="72"/>
+      <c r="ABM2" s="72"/>
+      <c r="ABN2" s="72"/>
+      <c r="ABO2" s="72"/>
+      <c r="ABP2" s="72"/>
+      <c r="ABQ2" s="72"/>
+      <c r="ABR2" s="72"/>
+      <c r="ABS2" s="72"/>
+      <c r="ABT2" s="72"/>
+      <c r="ABU2" s="72"/>
+      <c r="ABV2" s="72"/>
+      <c r="ABW2" s="72"/>
+      <c r="ABX2" s="72"/>
+      <c r="ABY2" s="72"/>
+      <c r="ABZ2" s="72"/>
+      <c r="ACA2" s="72"/>
+      <c r="ACB2" s="72"/>
+      <c r="ACC2" s="72"/>
+      <c r="ACD2" s="72"/>
+      <c r="ACE2" s="72"/>
+      <c r="ACF2" s="72"/>
+      <c r="ACG2" s="72"/>
+      <c r="ACH2" s="72"/>
+      <c r="ACI2" s="72"/>
+      <c r="ACJ2" s="72"/>
+      <c r="ACK2" s="72"/>
+      <c r="ACL2" s="72"/>
+      <c r="ACM2" s="72"/>
+      <c r="ACN2" s="72"/>
+      <c r="ACO2" s="72"/>
+      <c r="ACP2" s="72"/>
+      <c r="ACQ2" s="72"/>
+      <c r="ACR2" s="72"/>
+      <c r="ACS2" s="72"/>
+      <c r="ACT2" s="72"/>
+      <c r="ACU2" s="72"/>
+      <c r="ACV2" s="72"/>
+      <c r="ACW2" s="72"/>
+      <c r="ACX2" s="72"/>
+      <c r="ACY2" s="72"/>
+      <c r="ACZ2" s="72"/>
+      <c r="ADA2" s="72"/>
+      <c r="ADB2" s="72"/>
+      <c r="ADC2" s="72"/>
+      <c r="ADD2" s="72"/>
+      <c r="ADE2" s="72"/>
+      <c r="ADF2" s="72"/>
+      <c r="ADG2" s="72"/>
+      <c r="ADH2" s="72"/>
+      <c r="ADI2" s="72"/>
+      <c r="ADJ2" s="72"/>
+      <c r="ADK2" s="72"/>
+      <c r="ADL2" s="72"/>
+      <c r="ADM2" s="72"/>
+      <c r="ADN2" s="72"/>
+      <c r="ADO2" s="72"/>
+      <c r="ADP2" s="72"/>
+      <c r="ADQ2" s="72"/>
+      <c r="ADR2" s="72"/>
+      <c r="ADS2" s="72"/>
+      <c r="ADT2" s="72"/>
+      <c r="ADU2" s="72"/>
+      <c r="ADV2" s="72"/>
+      <c r="ADW2" s="72"/>
+      <c r="ADX2" s="72"/>
+      <c r="ADY2" s="72"/>
+      <c r="ADZ2" s="72"/>
+      <c r="AEA2" s="72"/>
+      <c r="AEB2" s="72"/>
+      <c r="AEC2" s="72"/>
+      <c r="AED2" s="72"/>
+      <c r="AEE2" s="72"/>
+      <c r="AEF2" s="72"/>
+      <c r="AEG2" s="72"/>
+      <c r="AEH2" s="72"/>
+      <c r="AEI2" s="72"/>
+      <c r="AEJ2" s="72"/>
+      <c r="AEK2" s="72"/>
+      <c r="AEL2" s="72"/>
+      <c r="AEM2" s="72"/>
+      <c r="AEN2" s="72"/>
+      <c r="AEO2" s="72"/>
+      <c r="AEP2" s="72"/>
+      <c r="AEQ2" s="72"/>
+      <c r="AER2" s="72"/>
+      <c r="AES2" s="72"/>
+      <c r="AET2" s="72"/>
+      <c r="AEU2" s="72"/>
+      <c r="AEV2" s="72"/>
+      <c r="AEW2" s="72"/>
+      <c r="AEX2" s="72"/>
+      <c r="AEY2" s="72"/>
+      <c r="AEZ2" s="72"/>
+      <c r="AFA2" s="72"/>
+      <c r="AFB2" s="72"/>
+      <c r="AFC2" s="72"/>
+      <c r="AFD2" s="72"/>
+      <c r="AFE2" s="72"/>
+      <c r="AFF2" s="72"/>
+      <c r="AFG2" s="72"/>
+      <c r="AFH2" s="72"/>
+      <c r="AFI2" s="72"/>
+      <c r="AFJ2" s="72"/>
+      <c r="AFK2" s="72"/>
+      <c r="AFL2" s="72"/>
+      <c r="AFM2" s="72"/>
+      <c r="AFN2" s="72"/>
+      <c r="AFO2" s="72"/>
+      <c r="AFP2" s="72"/>
+      <c r="AFQ2" s="72"/>
+      <c r="AFR2" s="72"/>
+      <c r="AFS2" s="72"/>
+      <c r="AFT2" s="72"/>
+      <c r="AFU2" s="72"/>
+      <c r="AFV2" s="72"/>
+      <c r="AFW2" s="72"/>
+      <c r="AFX2" s="72"/>
+      <c r="AFY2" s="72"/>
+      <c r="AFZ2" s="72"/>
+      <c r="AGA2" s="72"/>
+      <c r="AGB2" s="72"/>
+      <c r="AGC2" s="72"/>
+      <c r="AGD2" s="72"/>
+      <c r="AGE2" s="72"/>
+      <c r="AGF2" s="72"/>
+      <c r="AGG2" s="72"/>
+      <c r="AGH2" s="72"/>
+      <c r="AGI2" s="72"/>
+      <c r="AGJ2" s="72"/>
+      <c r="AGK2" s="72"/>
+      <c r="AGL2" s="72"/>
+      <c r="AGM2" s="72"/>
+      <c r="AGN2" s="72"/>
+      <c r="AGO2" s="72"/>
+      <c r="AGP2" s="72"/>
+      <c r="AGQ2" s="72"/>
+      <c r="AGR2" s="72"/>
+      <c r="AGS2" s="72"/>
+      <c r="AGT2" s="72"/>
+      <c r="AGU2" s="72"/>
+      <c r="AGV2" s="72"/>
+      <c r="AGW2" s="72"/>
+      <c r="AGX2" s="72"/>
+      <c r="AGY2" s="72"/>
+      <c r="AGZ2" s="72"/>
+      <c r="AHA2" s="72"/>
+      <c r="AHB2" s="72"/>
+      <c r="AHC2" s="72"/>
+      <c r="AHD2" s="72"/>
+      <c r="AHE2" s="72"/>
+      <c r="AHF2" s="72"/>
+      <c r="AHG2" s="72"/>
+      <c r="AHH2" s="72"/>
+      <c r="AHI2" s="72"/>
+      <c r="AHJ2" s="72"/>
+      <c r="AHK2" s="72"/>
+      <c r="AHL2" s="72"/>
+      <c r="AHM2" s="72"/>
+      <c r="AHN2" s="72"/>
+      <c r="AHO2" s="72"/>
+      <c r="AHP2" s="72"/>
+      <c r="AHQ2" s="72"/>
+      <c r="AHR2" s="72"/>
+      <c r="AHS2" s="72"/>
+      <c r="AHT2" s="72"/>
+      <c r="AHU2" s="72"/>
+      <c r="AHV2" s="72"/>
+      <c r="AHW2" s="72"/>
+      <c r="AHX2" s="72"/>
+      <c r="AHY2" s="72"/>
+      <c r="AHZ2" s="72"/>
+      <c r="AIA2" s="72"/>
+      <c r="AIB2" s="72"/>
+      <c r="AIC2" s="72"/>
+      <c r="AID2" s="72"/>
+      <c r="AIE2" s="72"/>
+      <c r="AIF2" s="72"/>
+      <c r="AIG2" s="72"/>
+      <c r="AIH2" s="72"/>
+      <c r="AII2" s="72"/>
+      <c r="AIJ2" s="72"/>
+      <c r="AIK2" s="72"/>
+      <c r="AIL2" s="72"/>
+      <c r="AIM2" s="72"/>
+      <c r="AIN2" s="72"/>
+      <c r="AIO2" s="72"/>
+      <c r="AIP2" s="72"/>
+      <c r="AIQ2" s="72"/>
+      <c r="AIR2" s="72"/>
+      <c r="AIS2" s="72"/>
+      <c r="AIT2" s="72"/>
+      <c r="AIU2" s="72"/>
+      <c r="AIV2" s="72"/>
+      <c r="AIW2" s="72"/>
+      <c r="AIX2" s="72"/>
+      <c r="AIY2" s="72"/>
+      <c r="AIZ2" s="72"/>
+      <c r="AJA2" s="72"/>
+      <c r="AJB2" s="72"/>
+      <c r="AJC2" s="72"/>
+      <c r="AJD2" s="72"/>
+      <c r="AJE2" s="72"/>
+      <c r="AJF2" s="72"/>
+      <c r="AJG2" s="72"/>
+      <c r="AJH2" s="72"/>
+      <c r="AJI2" s="72"/>
+      <c r="AJJ2" s="72"/>
+      <c r="AJK2" s="72"/>
+      <c r="AJL2" s="72"/>
+      <c r="AJM2" s="72"/>
+      <c r="AJN2" s="72"/>
+      <c r="AJO2" s="72"/>
+      <c r="AJP2" s="72"/>
+      <c r="AJQ2" s="72"/>
+      <c r="AJR2" s="72"/>
+      <c r="AJS2" s="72"/>
+      <c r="AJT2" s="72"/>
+      <c r="AJU2" s="72"/>
+      <c r="AJV2" s="72"/>
+      <c r="AJW2" s="72"/>
+      <c r="AJX2" s="72"/>
+      <c r="AJY2" s="72"/>
+      <c r="AJZ2" s="72"/>
+      <c r="AKA2" s="72"/>
+      <c r="AKB2" s="72"/>
+      <c r="AKC2" s="72"/>
+      <c r="AKD2" s="72"/>
+      <c r="AKE2" s="72"/>
+      <c r="AKF2" s="72"/>
+      <c r="AKG2" s="72"/>
+      <c r="AKH2" s="72"/>
+      <c r="AKI2" s="72"/>
+      <c r="AKJ2" s="72"/>
+      <c r="AKK2" s="72"/>
+      <c r="AKL2" s="72"/>
+      <c r="AKM2" s="72"/>
+      <c r="AKN2" s="72"/>
+      <c r="AKO2" s="72"/>
+      <c r="AKP2" s="72"/>
+      <c r="AKQ2" s="72"/>
+      <c r="AKR2" s="72"/>
+      <c r="AKS2" s="72"/>
+      <c r="AKT2" s="72"/>
+      <c r="AKU2" s="72"/>
+      <c r="AKV2" s="72"/>
+      <c r="AKW2" s="72"/>
+      <c r="AKX2" s="72"/>
+      <c r="AKY2" s="72"/>
+      <c r="AKZ2" s="72"/>
+      <c r="ALA2" s="72"/>
+      <c r="ALB2" s="72"/>
+      <c r="ALC2" s="72"/>
+      <c r="ALD2" s="72"/>
+      <c r="ALE2" s="72"/>
+      <c r="ALF2" s="72"/>
+      <c r="ALG2" s="72"/>
+      <c r="ALH2" s="72"/>
+      <c r="ALI2" s="72"/>
+      <c r="ALJ2" s="72"/>
+      <c r="ALK2" s="72"/>
+      <c r="ALL2" s="72"/>
+      <c r="ALM2" s="72"/>
+      <c r="ALN2" s="72"/>
+      <c r="ALO2" s="72"/>
+      <c r="ALP2" s="72"/>
+      <c r="ALQ2" s="72"/>
+      <c r="ALR2" s="72"/>
+      <c r="ALS2" s="72"/>
+      <c r="ALT2" s="72"/>
+      <c r="ALU2" s="72"/>
+      <c r="ALV2" s="72"/>
+      <c r="ALW2" s="72"/>
+      <c r="ALX2" s="72"/>
+      <c r="ALY2" s="72"/>
+      <c r="ALZ2" s="72"/>
+      <c r="AMA2" s="72"/>
+      <c r="AMB2" s="72"/>
+      <c r="AMC2" s="72"/>
+      <c r="AMD2" s="72"/>
+      <c r="AME2" s="72"/>
+      <c r="AMF2" s="72"/>
+      <c r="AMG2" s="72"/>
+      <c r="AMH2" s="72"/>
+      <c r="AMI2" s="72"/>
+      <c r="AMJ2" s="72"/>
+      <c r="AMK2" s="72"/>
+      <c r="AML2" s="72"/>
+      <c r="AMM2" s="72"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1"/>
@@ -8687,83 +8655,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" style="146" customWidth="1"/>
-    <col min="4" max="6" width="15.7109375" style="146" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="146" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="140" customWidth="1"/>
-    <col min="9" max="10" width="20.7109375" style="143" customWidth="1"/>
-    <col min="11" max="11" width="9" style="140" customWidth="1"/>
-    <col min="12" max="1021" width="9.140625" style="143" customWidth="1"/>
-    <col min="1022" max="1024" width="9.140625" style="140" customWidth="1"/>
-    <col min="1025" max="1035" width="9" style="140" customWidth="1"/>
-    <col min="1036" max="16384" width="9" style="140"/>
+    <col min="1" max="3" width="20.7109375" style="136" customWidth="1"/>
+    <col min="4" max="6" width="15.7109375" style="136" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="136" customWidth="1"/>
+    <col min="8" max="10" width="20.7109375" style="134" customWidth="1"/>
+    <col min="11" max="11" width="9" style="134" customWidth="1"/>
+    <col min="12" max="1024" width="9.140625" style="134" customWidth="1"/>
+    <col min="1025" max="1035" width="9" style="134" customWidth="1"/>
+    <col min="1036" max="16384" width="9" style="134"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023" s="138" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+    <row r="1" spans="1:1023" s="130" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="145" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="142" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="142" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="142" t="s">
-        <v>200</v>
-      </c>
-      <c r="H1" s="138" t="s">
-        <v>183</v>
-      </c>
-      <c r="I1" s="138" t="s">
+      <c r="C1" s="135" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="133" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="133" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="133" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="133" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" s="130" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="138" t="s">
+      <c r="J1" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="AMH1" s="144"/>
-      <c r="AMI1" s="144"/>
-    </row>
-    <row r="2" spans="1:1023" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="139" t="s">
+      <c r="AMH1" s="145"/>
+      <c r="AMI1" s="145"/>
+    </row>
+    <row r="2" spans="1:1023" s="134" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="131" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="131" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="146"/>
+      <c r="D2" s="132" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="132">
+        <v>652</v>
+      </c>
+      <c r="F2" s="132">
+        <v>1249</v>
+      </c>
+      <c r="G2" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="141" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="141">
-        <v>652</v>
-      </c>
-      <c r="F2" s="141">
-        <v>1249</v>
-      </c>
-      <c r="G2" s="141" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="AMH2" s="136"/>
-      <c r="AMI2" s="136"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="AMH2" s="146"/>
+      <c r="AMI2" s="146"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
@@ -8780,64 +8746,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AME2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="54" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="54" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="54" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="53" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="53" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="53" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="64.85546875" style="56" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" style="54" customWidth="1"/>
-    <col min="8" max="1018" width="58.5703125" style="54" customWidth="1"/>
-    <col min="1019" max="1022" width="58.5703125" style="56" customWidth="1"/>
-    <col min="1023" max="16384" width="58.5703125" style="56"/>
+    <col min="5" max="5" width="64.85546875" style="55" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="53" customWidth="1"/>
+    <col min="8" max="1018" width="58.5703125" style="53" customWidth="1"/>
+    <col min="1019" max="1022" width="58.5703125" style="55" customWidth="1"/>
+    <col min="1023" max="16384" width="58.5703125" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1019" s="148" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="148" t="s">
+    <row r="1" spans="1:1019" s="138" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="148" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="148" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="148" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" s="148" t="s">
+      <c r="C1" s="138" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="138" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="138" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="148" t="s">
+      <c r="G1" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="AME1" s="147"/>
+      <c r="AME1" s="137"/>
     </row>
     <row r="2" spans="1:1019" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="96" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="98" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="97"/>
-      <c r="AME2" s="93"/>
+      <c r="A2" s="92" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="95" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="94"/>
+      <c r="AME2" s="90"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>

--- a/tests/fixtures/prokaryote_core.xlsx
+++ b/tests/fixtures/prokaryote_core.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-255" yWindow="105" windowWidth="23250" windowHeight="11970" tabRatio="1000" activeTab="7"/>
+    <workbookView xWindow="-255" yWindow="105" windowWidth="23250" windowHeight="11970" tabRatio="1000" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -292,9 +292,6 @@
     <t>conc_ProtMon_MPN001_c</t>
   </si>
   <si>
-    <t>1/s/mRNA</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -689,6 +686,9 @@
   </si>
   <si>
     <t>WC:float</t>
+  </si>
+  <si>
+    <t>s-1 molecule-1</t>
   </si>
 </sst>
 </file>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1935,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1951,7 +1951,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1982,7 +1982,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2018,7 +2018,7 @@
   <sheetData>
     <row r="1" spans="1:1021" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="48" t="s">
         <v>1</v>
@@ -2030,13 +2030,13 @@
         <v>27</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G1" s="50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H1" s="47" t="s">
         <v>13</v>
@@ -2088,7 +2088,7 @@
         <v>27</v>
       </c>
       <c r="E1" s="123" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F1" s="122" t="s">
         <v>13</v>
@@ -2288,25 +2288,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D1" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>76</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>77</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>32</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I1" s="16" t="s">
         <v>13</v>
@@ -2323,16 +2323,16 @@
         <v>53</v>
       </c>
       <c r="C2" s="113" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D2" s="99" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" s="113" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F2" s="99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J2" s="99"/>
     </row>
@@ -2344,19 +2344,19 @@
         <v>59</v>
       </c>
       <c r="C3" s="113" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="99">
         <v>4.8828698208797903</v>
       </c>
       <c r="E3" s="113" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F3" s="99" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" s="99" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J3" s="99"/>
     </row>
@@ -2368,19 +2368,19 @@
         <v>64</v>
       </c>
       <c r="C4" s="113" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="99">
         <v>992.98255190377824</v>
       </c>
       <c r="E4" s="113" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F4" s="99" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="99" t="s">
         <v>71</v>
-      </c>
-      <c r="G4" s="99" t="s">
-        <v>72</v>
       </c>
       <c r="J4" s="99"/>
     </row>
@@ -2427,22 +2427,22 @@
   <sheetData>
     <row r="1" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="31" t="s">
         <v>76</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>77</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>13</v>
@@ -2456,16 +2456,16 @@
         <v>55</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="78">
         <v>4.2500000000000003E-2</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" s="78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -2473,16 +2473,16 @@
         <v>62</v>
       </c>
       <c r="B3" s="87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="87">
         <v>2.2584973866611409E-2</v>
       </c>
       <c r="D3" s="87" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -2490,16 +2490,16 @@
         <v>66</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="102">
         <v>489.45</v>
       </c>
       <c r="D4" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="102" t="s">
         <v>79</v>
-      </c>
-      <c r="E4" s="102" t="s">
-        <v>80</v>
       </c>
       <c r="F4" s="102"/>
       <c r="G4" s="102"/>
@@ -2535,13 +2535,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>13</v>
@@ -2596,28 +2596,28 @@
         <v>27</v>
       </c>
       <c r="E1" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="G1" s="33" t="s">
+      <c r="I1" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" s="32" t="s">
         <v>89</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>90</v>
       </c>
       <c r="K1" s="32" t="s">
         <v>32</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M1" s="34" t="s">
         <v>13</v>
@@ -2629,15 +2629,15 @@
     </row>
     <row r="2" spans="1:14 1028:1028" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="95" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="95" t="s">
-        <v>92</v>
       </c>
       <c r="C2" s="95"/>
       <c r="D2" s="95"/>
       <c r="E2" s="95" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F2" s="95"/>
       <c r="G2" s="95"/>
@@ -2648,7 +2648,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K2" s="95"/>
       <c r="L2" s="95"/>
@@ -2656,7 +2656,7 @@
         <v>58</v>
       </c>
       <c r="N2" s="95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AMN2" s="105"/>
     </row>
@@ -2694,19 +2694,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>13</v>
@@ -2756,16 +2756,16 @@
         <v>44</v>
       </c>
       <c r="D1" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="30" t="s">
         <v>76</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>77</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>32</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>13</v>
@@ -2776,17 +2776,17 @@
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="106" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="106" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="106"/>
       <c r="D2" s="106">
         <v>2</v>
       </c>
       <c r="E2" s="106" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2798,8 +2798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2816,25 +2816,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>101</v>
-      </c>
       <c r="H1" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>13</v>
@@ -2854,16 +2854,16 @@
         <v>43</v>
       </c>
       <c r="D2" s="77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E2" s="77">
         <v>1</v>
       </c>
       <c r="F2" s="77" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" s="77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H2" s="76"/>
       <c r="I2" s="76"/>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>10</v>
@@ -2880,16 +2880,16 @@
         <v>64</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E3" s="80">
         <v>992.98255190377802</v>
       </c>
       <c r="F3" s="80" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" s="80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H3" s="79"/>
       <c r="I3" s="79"/>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="86" t="s">
         <v>10</v>
@@ -2906,26 +2906,26 @@
         <v>64</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" s="86">
         <v>489.45</v>
       </c>
       <c r="F4" s="86" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" s="86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H4" s="85"/>
       <c r="I4" s="85"/>
       <c r="J4" s="85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="89" t="s">
         <v>10</v>
@@ -2934,16 +2934,16 @@
         <v>64</v>
       </c>
       <c r="D5" s="89" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E5" s="89">
         <v>5.5313109099319684</v>
       </c>
       <c r="F5" s="89" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
       <c r="G5" s="89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H5" s="88"/>
       <c r="I5" s="88"/>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="96" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="97" t="s">
         <v>10</v>
@@ -2966,10 +2966,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G6" s="97" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H6" s="96"/>
       <c r="I6" s="96"/>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="96" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="97" t="s">
         <v>10</v>
@@ -2986,26 +2986,26 @@
         <v>53</v>
       </c>
       <c r="D7" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7" s="97">
         <v>4.2500000000000003E-2</v>
       </c>
       <c r="F7" s="97" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="97" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H7" s="96"/>
       <c r="I7" s="96"/>
       <c r="J7" s="96" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="101" t="s">
         <v>10</v>
@@ -3014,16 +3014,16 @@
         <v>59</v>
       </c>
       <c r="D8" s="101" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" s="101">
         <v>4.8828698208797903</v>
       </c>
       <c r="F8" s="101" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" s="101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H8" s="100"/>
       <c r="I8" s="100"/>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="103" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="104" t="s">
         <v>10</v>
@@ -3040,16 +3040,16 @@
         <v>59</v>
       </c>
       <c r="D9" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E9" s="104">
         <v>2.2584973866611409E-2</v>
       </c>
       <c r="F9" s="104" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" s="104" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H9" s="103"/>
       <c r="I9" s="103"/>
@@ -3086,37 +3086,37 @@
   <sheetData>
     <row r="1" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="H1" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="I1" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="J1" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="29" t="s">
-        <v>123</v>
-      </c>
       <c r="K1" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L1" s="29" t="s">
         <v>13</v>
@@ -3127,25 +3127,25 @@
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="107" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="107"/>
       <c r="C2" s="107"/>
       <c r="D2" s="107"/>
       <c r="E2" s="107" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="G2" s="109" t="s">
         <v>125</v>
-      </c>
-      <c r="G2" s="109" t="s">
-        <v>126</v>
       </c>
       <c r="H2" s="109">
         <v>37</v>
       </c>
       <c r="I2" s="108" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J2" s="107"/>
       <c r="K2" s="107"/>
@@ -3156,25 +3156,25 @@
     </row>
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="107"/>
       <c r="C3" s="107"/>
       <c r="D3" s="107"/>
       <c r="E3" s="107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3" s="109" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="109" t="s">
         <v>125</v>
-      </c>
-      <c r="G3" s="109" t="s">
-        <v>126</v>
       </c>
       <c r="H3" s="109">
         <v>37</v>
       </c>
       <c r="I3" s="109" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J3" s="107"/>
       <c r="K3" s="107"/>
@@ -3182,50 +3182,50 @@
         <v>35</v>
       </c>
       <c r="M3" s="107" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="107"/>
       <c r="C4" s="107"/>
       <c r="D4" s="107"/>
       <c r="E4" s="107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4" s="109" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="109" t="s">
         <v>125</v>
-      </c>
-      <c r="G4" s="109" t="s">
-        <v>126</v>
       </c>
       <c r="H4" s="109">
         <v>37</v>
       </c>
       <c r="I4" s="109" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J4" s="107"/>
       <c r="K4" s="107"/>
       <c r="L4" s="107" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M4" s="107"/>
     </row>
     <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" s="107"/>
       <c r="C5" s="107"/>
       <c r="D5" s="107"/>
       <c r="E5" s="107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5" s="109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G5" s="107"/>
       <c r="H5" s="107"/>
@@ -3233,22 +3233,22 @@
       <c r="J5" s="107"/>
       <c r="K5" s="107"/>
       <c r="L5" s="107" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M5" s="107"/>
     </row>
     <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="110"/>
       <c r="C6" s="110"/>
       <c r="D6" s="110"/>
       <c r="E6" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="111" t="s">
         <v>124</v>
-      </c>
-      <c r="F6" s="111" t="s">
-        <v>125</v>
       </c>
       <c r="G6" s="110"/>
       <c r="H6" s="110"/>
@@ -3256,36 +3256,36 @@
       <c r="J6" s="110"/>
       <c r="K6" s="110"/>
       <c r="L6" s="110" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M6" s="110"/>
     </row>
     <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="112" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="112"/>
       <c r="C7" s="112"/>
       <c r="D7" s="112"/>
       <c r="E7" s="112" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="114" t="s">
+      <c r="G7" s="114" t="s">
         <v>125</v>
-      </c>
-      <c r="G7" s="114" t="s">
-        <v>126</v>
       </c>
       <c r="H7" s="113">
         <v>37</v>
       </c>
       <c r="I7" s="114" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J7" s="112"/>
       <c r="K7" s="112"/>
       <c r="L7" s="112" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4350,7 +4350,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:1025" x14ac:dyDescent="0.25">
@@ -4363,7 +4363,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4406,28 +4406,28 @@
         <v>27</v>
       </c>
       <c r="D1" s="140" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="140" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="140" t="s">
+      <c r="G1" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="J1" s="140" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="140" t="s">
-        <v>140</v>
-      </c>
       <c r="K1" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L1" s="26" t="s">
         <v>9</v>
@@ -4435,22 +4435,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="95" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="95" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="C2" s="144" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="144" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="95" t="s">
+      <c r="E2" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="95" t="s">
-        <v>147</v>
-      </c>
       <c r="F2" s="95" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G2" s="95">
         <v>326</v>
@@ -4459,13 +4459,13 @@
         <v>5957</v>
       </c>
       <c r="I2" s="95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J2" s="95">
         <v>2009</v>
       </c>
       <c r="K2" s="95" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4473,19 +4473,19 @@
         <v>58</v>
       </c>
       <c r="B3" s="95" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="144" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="95" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="144" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="95" t="s">
+      <c r="E3" s="95" t="s">
         <v>151</v>
       </c>
-      <c r="E3" s="95" t="s">
-        <v>152</v>
-      </c>
       <c r="F3" s="95" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G3" s="95">
         <v>231</v>
@@ -4494,13 +4494,13 @@
         <v>1</v>
       </c>
       <c r="I3" s="95" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J3" s="95">
         <v>1990</v>
       </c>
       <c r="K3" s="95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -4508,13 +4508,13 @@
         <v>35</v>
       </c>
       <c r="B4" s="95" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="144" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="95" t="s">
         <v>156</v>
-      </c>
-      <c r="C4" s="144" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="95" t="s">
-        <v>157</v>
       </c>
       <c r="E4" s="95"/>
       <c r="F4" s="95"/>
@@ -4528,22 +4528,22 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="95" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="144" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="144" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="95" t="s">
+      <c r="E5" s="95" t="s">
         <v>159</v>
       </c>
-      <c r="E5" s="95" t="s">
-        <v>160</v>
-      </c>
       <c r="F5" s="95" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G5" s="95">
         <v>5</v>
@@ -4552,33 +4552,33 @@
         <v>12</v>
       </c>
       <c r="I5" s="95" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J5" s="95">
         <v>2006</v>
       </c>
       <c r="K5" s="95" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="95" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="95" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="144" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="95" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="144" t="s">
-        <v>195</v>
-      </c>
-      <c r="D6" s="95" t="s">
+      <c r="E6" s="95" t="s">
         <v>164</v>
       </c>
-      <c r="E6" s="95" t="s">
-        <v>165</v>
-      </c>
       <c r="F6" s="95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G6" s="95">
         <v>7</v>
@@ -4591,24 +4591,24 @@
         <v>2011</v>
       </c>
       <c r="K6" s="95" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="95" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="95" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="144" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="95" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="144" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" s="95" t="s">
+      <c r="E7" s="95" t="s">
         <v>168</v>
-      </c>
-      <c r="E7" s="95" t="s">
-        <v>169</v>
       </c>
       <c r="F7" s="95"/>
       <c r="G7" s="95"/>
@@ -4621,19 +4621,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="95" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="144" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="95" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="144" t="s">
-        <v>196</v>
-      </c>
-      <c r="D8" s="95" t="s">
+      <c r="E8" s="95" t="s">
         <v>171</v>
-      </c>
-      <c r="E8" s="95" t="s">
-        <v>172</v>
       </c>
       <c r="F8" s="95"/>
       <c r="G8" s="95"/>
@@ -4683,7 +4683,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="115" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>13</v>
@@ -4766,7 +4766,7 @@
         <v>23</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H1" s="32" t="s">
         <v>13</v>
@@ -7176,7 +7176,7 @@
         <v>32</v>
       </c>
       <c r="J1" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K1" s="62" t="s">
         <v>13</v>
@@ -7193,7 +7193,7 @@
         <v>34</v>
       </c>
       <c r="C2" s="68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="68" t="s">
         <v>24</v>
@@ -7432,10 +7432,10 @@
         <v>36</v>
       </c>
       <c r="E1" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>190</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>191</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>37</v>
@@ -7444,13 +7444,13 @@
         <v>38</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J1" s="140" t="s">
         <v>39</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L1" s="39" t="s">
         <v>13</v>
@@ -7470,7 +7470,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E2" s="70">
         <v>-35</v>
@@ -7561,7 +7561,7 @@
         <v>38</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I1" s="39" t="s">
         <v>46</v>
@@ -7570,13 +7570,13 @@
         <v>47</v>
       </c>
       <c r="K1" s="141" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L1" s="39" t="s">
         <v>32</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N1" s="39" t="s">
         <v>13</v>
@@ -8655,8 +8655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -8691,10 +8691,10 @@
         <v>38</v>
       </c>
       <c r="G1" s="133" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H1" s="130" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I1" s="130" t="s">
         <v>13</v>
@@ -8705,7 +8705,7 @@
       <c r="AMH1" s="145"/>
       <c r="AMI1" s="145"/>
     </row>
-    <row r="2" spans="1:1023" s="134" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1023" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="131" t="s">
         <v>59</v>
       </c>
@@ -8714,7 +8714,7 @@
       </c>
       <c r="C2" s="146"/>
       <c r="D2" s="132" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E2" s="132">
         <v>652</v>
@@ -8777,7 +8777,7 @@
         <v>27</v>
       </c>
       <c r="E1" s="138" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F1" s="138" t="s">
         <v>13</v>
@@ -8797,7 +8797,7 @@
       <c r="C2" s="90"/>
       <c r="D2" s="91"/>
       <c r="E2" s="95" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F2" s="93" t="s">
         <v>35</v>

--- a/tests/fixtures/prokaryote_core.xlsx
+++ b/tests/fixtures/prokaryote_core.xlsx
@@ -761,7 +761,7 @@
     <t>Sévin DC, .., Sauer U</t>
   </si>
   <si>
-    <t>smiles_structure</t>
+    <t>structure</t>
   </si>
 </sst>
 </file>

--- a/tests/fixtures/prokaryote_core.xlsx
+++ b/tests/fixtures/prokaryote_core.xlsx
@@ -1876,7 +1876,7 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='KnowledgeBase' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="column"</t>
+          <t>!!ObjTables type='Data' class='KnowledgeBase' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="column"</t>
         </is>
       </c>
     </row>
@@ -2008,7 +2008,7 @@
     <row r="1" ht="15" customFormat="1" customHeight="1" s="29">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ComplexSpeciesType' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
+          <t>!!ObjTables type='Data' class='ComplexSpeciesType' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
         </is>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
     <row r="1" ht="13.15" customFormat="1" customHeight="1" s="24">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='MetaboliteSpeciesType' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
+          <t>!!ObjTables type='Data' class='MetaboliteSpeciesType' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
     <row r="1" ht="15" customFormat="1" customHeight="1" s="16">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesTypeProperty' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
+          <t>!!ObjTables type='Data' class='SpeciesTypeProperty' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
     <row r="1" ht="15" customFormat="1" customHeight="1" s="16">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Concentration' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
+          <t>!!ObjTables type='Data' class='Concentration' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
         </is>
       </c>
     </row>
@@ -2550,7 +2550,7 @@
     <row r="1" customFormat="1" s="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
+          <t>!!ObjTables type='Data' class='Observable' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
         </is>
       </c>
     </row>
@@ -2633,7 +2633,7 @@
     <row r="1" ht="15" customFormat="1" customHeight="1" s="17">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
+          <t>!!ObjTables type='Data' class='Reaction' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
     <row r="1" ht="12" customFormat="1" customHeight="1" s="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
+          <t>!!ObjTables type='Data' class='RateLaw' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
     <row r="1" ht="15" customFormat="1" customHeight="1" s="9">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
+          <t>!!ObjTables type='Data' class='Parameter' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
         </is>
       </c>
     </row>
@@ -2978,7 +2978,7 @@
     <row r="1" ht="15" customFormat="1" customHeight="1" s="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Evidence' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
+          <t>!!ObjTables type='Data' class='Evidence' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
     <row r="1" ht="15" customFormat="1" customHeight="1" s="11">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Experiment' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
+          <t>!!ObjTables type='Data' class='Experiment' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
         </is>
       </c>
     </row>
@@ -3649,7 +3649,7 @@
     <row r="1" ht="15" customFormat="1" customHeight="1" s="70">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Cell' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="column"</t>
+          <t>!!ObjTables type='Data' class='Cell' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="column"</t>
         </is>
       </c>
     </row>
@@ -4755,7 +4755,7 @@
     <row r="1" ht="13.15" customFormat="1" customHeight="1" s="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
+          <t>!!ObjTables type='Data' class='Reference' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
         </is>
       </c>
     </row>
@@ -5154,7 +5154,7 @@
     <row r="1" customFormat="1" s="67">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
+          <t>!!ObjTables type='Data' class='Compartment' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
         </is>
       </c>
     </row>
@@ -5266,7 +5266,7 @@
     <row r="1" ht="15" customFormat="1" customHeight="1" s="11">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DnaSpeciesType' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
+          <t>!!ObjTables type='Data' class='DnaSpeciesType' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
         </is>
       </c>
     </row>
@@ -7705,7 +7705,7 @@
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="52">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ChromosomeFeature' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
+          <t>!!ObjTables type='Data' class='ChromosomeFeature' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
         </is>
       </c>
     </row>
@@ -8014,7 +8014,7 @@
     <row r="1" customFormat="1" s="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='TranscriptionUnitLocus' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
+          <t>!!ObjTables type='Data' class='TranscriptionUnitLocus' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
         </is>
       </c>
     </row>
@@ -8185,7 +8185,7 @@
     <row r="1" ht="13.15" customFormat="1" customHeight="1" s="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='GeneLocus' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
+          <t>!!ObjTables type='Data' class='GeneLocus' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
         </is>
       </c>
     </row>
@@ -8366,7 +8366,7 @@
     <row r="1" ht="15" customFormat="1" customHeight="1" s="40">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RnaSpeciesType' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
+          <t>!!ObjTables type='Data' class='RnaSpeciesType' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
         </is>
       </c>
     </row>
@@ -8500,7 +8500,7 @@
     <row r="1" ht="12" customFormat="1" customHeight="1" s="17">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ProteinSpeciesType' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
+          <t>!!ObjTables type='Data' class='ProteinSpeciesType' objTablesVersion='0.0.8' schema='wc_kb.prokaryote' tableFormat="row"</t>
         </is>
       </c>
     </row>
